--- a/my_results/Pre-Amp Calculator.xlsx
+++ b/my_results/Pre-Amp Calculator.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC268A05-4B66-4850-9E77-E0FA9E4D6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397835B4-4E01-4430-9E73-C90D0C8F893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="276" yWindow="1812" windowWidth="15732" windowHeight="10836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Impulse" sheetId="1" r:id="rId1"/>
+    <sheet name="Fixedband" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>frequency</t>
   </si>
@@ -64,6 +56,27 @@
   </si>
   <si>
     <t>eq. 3</t>
+  </si>
+  <si>
+    <t>kr0mka equalized_smoothed</t>
+  </si>
+  <si>
+    <t>Filk equalized_smoothed</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Pre-amp</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -383,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,10 +407,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -423,10 +436,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>-0.76</v>
+        <v>6.83</v>
       </c>
       <c r="C2">
-        <v>-1.2</v>
+        <v>-4.53</v>
       </c>
       <c r="D2">
         <v>0.05</v>
@@ -436,22 +449,19 @@
       </c>
       <c r="G2">
         <f>SUM(B2:B696)</f>
-        <v>-430.59999999999991</v>
+        <v>2847.3700000000017</v>
       </c>
       <c r="H2">
         <f>AVERAGE(B2:B696)</f>
-        <v>-0.61956834532374083</v>
+        <v>4.0969352517985635</v>
       </c>
       <c r="I2">
         <f>MAX(B2:B696)</f>
-        <v>5.68</v>
-      </c>
-      <c r="J2">
-        <v>-0.2</v>
+        <v>11.65</v>
       </c>
       <c r="K2">
         <f>I2-J2-H2</f>
-        <v>6.4995683453237412</v>
+        <v>7.5530647482014368</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -459,10 +469,10 @@
         <v>20.2</v>
       </c>
       <c r="B3">
-        <v>-0.78</v>
+        <v>6.86</v>
       </c>
       <c r="C3">
-        <v>-1.22</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="D3">
         <v>0.02</v>
@@ -472,22 +482,19 @@
       </c>
       <c r="G3">
         <f>SUM(C2:C696)</f>
-        <v>-575.35000000000139</v>
+        <v>898.69000000000142</v>
       </c>
       <c r="H3">
         <f>AVERAGE(C2:C696)</f>
-        <v>-0.82784172661870703</v>
+        <v>1.2930791366906496</v>
       </c>
       <c r="I3">
         <f>MAX(C2:C696)</f>
-        <v>4.41</v>
-      </c>
-      <c r="J3">
-        <v>-0.2</v>
+        <v>9.5</v>
       </c>
       <c r="K3">
         <f>I3-J3-H3</f>
-        <v>5.4378417266187071</v>
+        <v>8.2069208633093496</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -495,10 +502,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B4">
-        <v>-0.81</v>
+        <v>6.89</v>
       </c>
       <c r="C4">
-        <v>-1.24</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -518,12 +525,9 @@
         <f>MAX(D2:D696)</f>
         <v>4.2</v>
       </c>
-      <c r="J4">
-        <v>-0.2</v>
-      </c>
       <c r="K4">
         <f>I4-J4-H4</f>
-        <v>4.8169784172661876</v>
+        <v>4.6169784172661874</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -531,10 +535,10 @@
         <v>20.61</v>
       </c>
       <c r="B5">
-        <v>-0.83</v>
+        <v>6.92</v>
       </c>
       <c r="C5">
-        <v>-1.27</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="D5">
         <v>-0.02</v>
@@ -545,10 +549,10 @@
         <v>20.81</v>
       </c>
       <c r="B6">
-        <v>-0.85</v>
+        <v>6.94</v>
       </c>
       <c r="C6">
-        <v>-1.29</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="D6">
         <v>-0.04</v>
@@ -559,10 +563,10 @@
         <v>21.02</v>
       </c>
       <c r="B7">
-        <v>-0.88</v>
+        <v>6.96</v>
       </c>
       <c r="C7">
-        <v>-1.32</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="D7">
         <v>-0.06</v>
@@ -573,10 +577,10 @@
         <v>21.23</v>
       </c>
       <c r="B8">
-        <v>-0.9</v>
+        <v>6.97</v>
       </c>
       <c r="C8">
-        <v>-1.35</v>
+        <v>-4.03</v>
       </c>
       <c r="D8">
         <v>-7.0000000000000007E-2</v>
@@ -587,10 +591,10 @@
         <v>21.44</v>
       </c>
       <c r="B9">
-        <v>-0.92</v>
+        <v>6.99</v>
       </c>
       <c r="C9">
-        <v>-1.38</v>
+        <v>-3.95</v>
       </c>
       <c r="D9">
         <v>-0.09</v>
@@ -601,10 +605,10 @@
         <v>21.66</v>
       </c>
       <c r="B10">
-        <v>-0.94</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-1.41</v>
+        <v>-3.88</v>
       </c>
       <c r="D10">
         <v>-0.09</v>
@@ -615,10 +619,10 @@
         <v>21.87</v>
       </c>
       <c r="B11">
-        <v>-0.96</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-1.45</v>
+        <v>-3.8</v>
       </c>
       <c r="D11">
         <v>-0.1</v>
@@ -629,10 +633,10 @@
         <v>22.09</v>
       </c>
       <c r="B12">
-        <v>-0.98</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-1.49</v>
+        <v>-3.73</v>
       </c>
       <c r="D12">
         <v>-0.1</v>
@@ -643,10 +647,10 @@
         <v>22.31</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-1.53</v>
+        <v>-3.66</v>
       </c>
       <c r="D13">
         <v>-0.11</v>
@@ -657,10 +661,10 @@
         <v>22.54</v>
       </c>
       <c r="B14">
-        <v>-1.02</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>-1.57</v>
+        <v>-3.59</v>
       </c>
       <c r="D14">
         <v>-0.12</v>
@@ -671,10 +675,10 @@
         <v>22.76</v>
       </c>
       <c r="B15">
-        <v>-1.04</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-1.61</v>
+        <v>-3.52</v>
       </c>
       <c r="D15">
         <v>-0.14000000000000001</v>
@@ -685,10 +689,10 @@
         <v>22.99</v>
       </c>
       <c r="B16">
-        <v>-1.06</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>-1.65</v>
+        <v>-3.46</v>
       </c>
       <c r="D16">
         <v>-0.16</v>
@@ -699,10 +703,10 @@
         <v>23.22</v>
       </c>
       <c r="B17">
-        <v>-1.08</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1.69</v>
+        <v>-3.39</v>
       </c>
       <c r="D17">
         <v>-0.18</v>
@@ -713,10 +717,10 @@
         <v>23.45</v>
       </c>
       <c r="B18">
-        <v>-1.1000000000000001</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>-1.73</v>
+        <v>-3.33</v>
       </c>
       <c r="D18">
         <v>-0.2</v>
@@ -727,10 +731,10 @@
         <v>23.69</v>
       </c>
       <c r="B19">
-        <v>-1.1200000000000001</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>-1.76</v>
+        <v>-3.27</v>
       </c>
       <c r="D19">
         <v>-0.23</v>
@@ -741,10 +745,10 @@
         <v>23.92</v>
       </c>
       <c r="B20">
-        <v>-1.1399999999999999</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>-1.79</v>
+        <v>-3.21</v>
       </c>
       <c r="D20">
         <v>-0.26</v>
@@ -755,10 +759,10 @@
         <v>24.16</v>
       </c>
       <c r="B21">
-        <v>-1.1499999999999999</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>-1.82</v>
+        <v>-3.15</v>
       </c>
       <c r="D21">
         <v>-0.28000000000000003</v>
@@ -769,10 +773,10 @@
         <v>24.4</v>
       </c>
       <c r="B22">
-        <v>-1.17</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>-1.85</v>
+        <v>-3.1</v>
       </c>
       <c r="D22">
         <v>-0.31</v>
@@ -783,10 +787,10 @@
         <v>24.65</v>
       </c>
       <c r="B23">
-        <v>-1.19</v>
+        <v>6.99</v>
       </c>
       <c r="C23">
-        <v>-1.88</v>
+        <v>-3.04</v>
       </c>
       <c r="D23">
         <v>-0.33</v>
@@ -797,10 +801,10 @@
         <v>24.89</v>
       </c>
       <c r="B24">
-        <v>-1.2</v>
+        <v>6.98</v>
       </c>
       <c r="C24">
-        <v>-1.9</v>
+        <v>-2.99</v>
       </c>
       <c r="D24">
         <v>-0.34</v>
@@ -811,10 +815,10 @@
         <v>25.14</v>
       </c>
       <c r="B25">
-        <v>-1.22</v>
+        <v>6.97</v>
       </c>
       <c r="C25">
-        <v>-1.93</v>
+        <v>-2.93</v>
       </c>
       <c r="D25">
         <v>-0.36</v>
@@ -825,10 +829,10 @@
         <v>25.39</v>
       </c>
       <c r="B26">
-        <v>-1.23</v>
+        <v>6.97</v>
       </c>
       <c r="C26">
-        <v>-1.95</v>
+        <v>-2.88</v>
       </c>
       <c r="D26">
         <v>-0.37</v>
@@ -839,10 +843,10 @@
         <v>25.65</v>
       </c>
       <c r="B27">
-        <v>-1.25</v>
+        <v>6.98</v>
       </c>
       <c r="C27">
-        <v>-1.98</v>
+        <v>-2.82</v>
       </c>
       <c r="D27">
         <v>-0.39</v>
@@ -853,10 +857,10 @@
         <v>25.91</v>
       </c>
       <c r="B28">
-        <v>-1.27</v>
+        <v>6.99</v>
       </c>
       <c r="C28">
-        <v>-2</v>
+        <v>-2.76</v>
       </c>
       <c r="D28">
         <v>-0.41</v>
@@ -867,10 +871,10 @@
         <v>26.16</v>
       </c>
       <c r="B29">
-        <v>-1.28</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>-2.0299999999999998</v>
+        <v>-2.7</v>
       </c>
       <c r="D29">
         <v>-0.42</v>
@@ -881,10 +885,10 @@
         <v>26.43</v>
       </c>
       <c r="B30">
-        <v>-1.3</v>
+        <v>7.01</v>
       </c>
       <c r="C30">
-        <v>-2.0499999999999998</v>
+        <v>-2.65</v>
       </c>
       <c r="D30">
         <v>-0.44</v>
@@ -895,10 +899,10 @@
         <v>26.69</v>
       </c>
       <c r="B31">
-        <v>-1.32</v>
+        <v>6.99</v>
       </c>
       <c r="C31">
-        <v>-2.08</v>
+        <v>-2.59</v>
       </c>
       <c r="D31">
         <v>-0.45</v>
@@ -909,10 +913,10 @@
         <v>26.96</v>
       </c>
       <c r="B32">
-        <v>-1.33</v>
+        <v>6.97</v>
       </c>
       <c r="C32">
-        <v>-2.1</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="D32">
         <v>-0.46</v>
@@ -923,10 +927,10 @@
         <v>27.23</v>
       </c>
       <c r="B33">
-        <v>-1.35</v>
+        <v>6.94</v>
       </c>
       <c r="C33">
-        <v>-2.13</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="D33">
         <v>-0.48</v>
@@ -937,10 +941,10 @@
         <v>27.5</v>
       </c>
       <c r="B34">
-        <v>-1.36</v>
+        <v>6.92</v>
       </c>
       <c r="C34">
-        <v>-2.15</v>
+        <v>-2.42</v>
       </c>
       <c r="D34">
         <v>-0.49</v>
@@ -951,10 +955,10 @@
         <v>27.77</v>
       </c>
       <c r="B35">
-        <v>-1.37</v>
+        <v>6.91</v>
       </c>
       <c r="C35">
-        <v>-2.1800000000000002</v>
+        <v>-2.36</v>
       </c>
       <c r="D35">
         <v>-0.51</v>
@@ -965,10 +969,10 @@
         <v>28.05</v>
       </c>
       <c r="B36">
-        <v>-1.38</v>
+        <v>6.92</v>
       </c>
       <c r="C36">
-        <v>-2.2000000000000002</v>
+        <v>-2.29</v>
       </c>
       <c r="D36">
         <v>-0.52</v>
@@ -979,10 +983,10 @@
         <v>28.33</v>
       </c>
       <c r="B37">
-        <v>-1.39</v>
+        <v>6.94</v>
       </c>
       <c r="C37">
-        <v>-2.23</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="D37">
         <v>-0.53</v>
@@ -993,10 +997,10 @@
         <v>28.62</v>
       </c>
       <c r="B38">
-        <v>-1.4</v>
+        <v>6.97</v>
       </c>
       <c r="C38">
-        <v>-2.25</v>
+        <v>-2.15</v>
       </c>
       <c r="D38">
         <v>-0.55000000000000004</v>
@@ -1007,10 +1011,10 @@
         <v>28.9</v>
       </c>
       <c r="B39">
-        <v>-1.4</v>
+        <v>6.99</v>
       </c>
       <c r="C39">
-        <v>-2.2799999999999998</v>
+        <v>-2.08</v>
       </c>
       <c r="D39">
         <v>-0.56999999999999995</v>
@@ -1021,10 +1025,10 @@
         <v>29.19</v>
       </c>
       <c r="B40">
-        <v>-1.41</v>
+        <v>6.98</v>
       </c>
       <c r="C40">
-        <v>-2.31</v>
+        <v>-2</v>
       </c>
       <c r="D40">
         <v>-0.59</v>
@@ -1035,10 +1039,10 @@
         <v>29.48</v>
       </c>
       <c r="B41">
-        <v>-1.42</v>
+        <v>6.95</v>
       </c>
       <c r="C41">
-        <v>-2.34</v>
+        <v>-1.92</v>
       </c>
       <c r="D41">
         <v>-0.61</v>
@@ -1049,10 +1053,10 @@
         <v>29.78</v>
       </c>
       <c r="B42">
-        <v>-1.43</v>
+        <v>6.91</v>
       </c>
       <c r="C42">
-        <v>-2.37</v>
+        <v>-1.83</v>
       </c>
       <c r="D42">
         <v>-0.63</v>
@@ -1063,10 +1067,10 @@
         <v>30.08</v>
       </c>
       <c r="B43">
-        <v>-1.44</v>
+        <v>6.88</v>
       </c>
       <c r="C43">
-        <v>-2.4</v>
+        <v>-1.74</v>
       </c>
       <c r="D43">
         <v>-0.65</v>
@@ -1077,10 +1081,10 @@
         <v>30.38</v>
       </c>
       <c r="B44">
-        <v>-1.46</v>
+        <v>6.86</v>
       </c>
       <c r="C44">
-        <v>-2.4300000000000002</v>
+        <v>-1.65</v>
       </c>
       <c r="D44">
         <v>-0.67</v>
@@ -1091,10 +1095,10 @@
         <v>30.68</v>
       </c>
       <c r="B45">
-        <v>-1.47</v>
+        <v>6.86</v>
       </c>
       <c r="C45">
-        <v>-2.4500000000000002</v>
+        <v>-1.55</v>
       </c>
       <c r="D45">
         <v>-0.69</v>
@@ -1105,10 +1109,10 @@
         <v>30.99</v>
       </c>
       <c r="B46">
-        <v>-1.49</v>
+        <v>6.89</v>
       </c>
       <c r="C46">
-        <v>-2.4700000000000002</v>
+        <v>-1.44</v>
       </c>
       <c r="D46">
         <v>-0.7</v>
@@ -1119,10 +1123,10 @@
         <v>31.3</v>
       </c>
       <c r="B47">
-        <v>-1.51</v>
+        <v>6.92</v>
       </c>
       <c r="C47">
-        <v>-2.48</v>
+        <v>-1.33</v>
       </c>
       <c r="D47">
         <v>-0.71</v>
@@ -1133,10 +1137,10 @@
         <v>31.61</v>
       </c>
       <c r="B48">
-        <v>-1.53</v>
+        <v>6.93</v>
       </c>
       <c r="C48">
-        <v>-2.5</v>
+        <v>-1.22</v>
       </c>
       <c r="D48">
         <v>-0.72</v>
@@ -1147,10 +1151,10 @@
         <v>31.93</v>
       </c>
       <c r="B49">
-        <v>-1.55</v>
+        <v>6.92</v>
       </c>
       <c r="C49">
-        <v>-2.5099999999999998</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D49">
         <v>-0.73</v>
@@ -1161,10 +1165,10 @@
         <v>32.24</v>
       </c>
       <c r="B50">
-        <v>-1.57</v>
+        <v>6.89</v>
       </c>
       <c r="C50">
-        <v>-2.5299999999999998</v>
+        <v>-0.98</v>
       </c>
       <c r="D50">
         <v>-0.74</v>
@@ -1175,10 +1179,10 @@
         <v>32.57</v>
       </c>
       <c r="B51">
-        <v>-1.59</v>
+        <v>6.86</v>
       </c>
       <c r="C51">
-        <v>-2.54</v>
+        <v>-0.85</v>
       </c>
       <c r="D51">
         <v>-0.75</v>
@@ -1189,10 +1193,10 @@
         <v>32.89</v>
       </c>
       <c r="B52">
-        <v>-1.61</v>
+        <v>6.84</v>
       </c>
       <c r="C52">
-        <v>-2.56</v>
+        <v>-0.73</v>
       </c>
       <c r="D52">
         <v>-0.76</v>
@@ -1203,10 +1207,10 @@
         <v>33.22</v>
       </c>
       <c r="B53">
-        <v>-1.63</v>
+        <v>6.83</v>
       </c>
       <c r="C53">
-        <v>-2.58</v>
+        <v>-0.61</v>
       </c>
       <c r="D53">
         <v>-0.77</v>
@@ -1217,10 +1221,10 @@
         <v>33.549999999999997</v>
       </c>
       <c r="B54">
-        <v>-1.65</v>
+        <v>6.83</v>
       </c>
       <c r="C54">
-        <v>-2.6</v>
+        <v>-0.49</v>
       </c>
       <c r="D54">
         <v>-0.78</v>
@@ -1231,10 +1235,10 @@
         <v>33.89</v>
       </c>
       <c r="B55">
-        <v>-1.67</v>
+        <v>6.83</v>
       </c>
       <c r="C55">
-        <v>-2.63</v>
+        <v>-0.38</v>
       </c>
       <c r="D55">
         <v>-0.8</v>
@@ -1245,10 +1249,10 @@
         <v>34.229999999999997</v>
       </c>
       <c r="B56">
-        <v>-1.69</v>
+        <v>6.84</v>
       </c>
       <c r="C56">
-        <v>-2.65</v>
+        <v>-0.26</v>
       </c>
       <c r="D56">
         <v>-0.81</v>
@@ -1259,10 +1263,10 @@
         <v>34.57</v>
       </c>
       <c r="B57">
-        <v>-1.7</v>
+        <v>6.82</v>
       </c>
       <c r="C57">
-        <v>-2.68</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D57">
         <v>-0.82</v>
@@ -1273,10 +1277,10 @@
         <v>34.92</v>
       </c>
       <c r="B58">
-        <v>-1.72</v>
+        <v>6.81</v>
       </c>
       <c r="C58">
-        <v>-2.7</v>
+        <v>-0.01</v>
       </c>
       <c r="D58">
         <v>-0.83</v>
@@ -1287,10 +1291,10 @@
         <v>35.270000000000003</v>
       </c>
       <c r="B59">
-        <v>-1.73</v>
+        <v>6.79</v>
       </c>
       <c r="C59">
-        <v>-2.73</v>
+        <v>0.13</v>
       </c>
       <c r="D59">
         <v>-0.84</v>
@@ -1301,10 +1305,10 @@
         <v>35.619999999999997</v>
       </c>
       <c r="B60">
-        <v>-1.75</v>
+        <v>6.78</v>
       </c>
       <c r="C60">
-        <v>-2.75</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D60">
         <v>-0.85</v>
@@ -1315,10 +1319,10 @@
         <v>35.97</v>
       </c>
       <c r="B61">
-        <v>-1.76</v>
+        <v>6.77</v>
       </c>
       <c r="C61">
-        <v>-2.77</v>
+        <v>0.44</v>
       </c>
       <c r="D61">
         <v>-0.86</v>
@@ -1329,10 +1333,10 @@
         <v>36.33</v>
       </c>
       <c r="B62">
-        <v>-1.76</v>
+        <v>6.77</v>
       </c>
       <c r="C62">
-        <v>-2.78</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D62">
         <v>-0.87</v>
@@ -1343,10 +1347,10 @@
         <v>36.700000000000003</v>
       </c>
       <c r="B63">
-        <v>-1.77</v>
+        <v>6.76</v>
       </c>
       <c r="C63">
-        <v>-2.79</v>
+        <v>0.72</v>
       </c>
       <c r="D63">
         <v>-0.87</v>
@@ -1357,10 +1361,10 @@
         <v>37.06</v>
       </c>
       <c r="B64">
-        <v>-1.77</v>
+        <v>6.75</v>
       </c>
       <c r="C64">
-        <v>-2.81</v>
+        <v>0.84</v>
       </c>
       <c r="D64">
         <v>-0.87</v>
@@ -1371,10 +1375,10 @@
         <v>37.43</v>
       </c>
       <c r="B65">
-        <v>-1.76</v>
+        <v>6.73</v>
       </c>
       <c r="C65">
-        <v>-2.82</v>
+        <v>0.96</v>
       </c>
       <c r="D65">
         <v>-0.87</v>
@@ -1385,10 +1389,10 @@
         <v>37.81</v>
       </c>
       <c r="B66">
-        <v>-1.75</v>
+        <v>6.72</v>
       </c>
       <c r="C66">
-        <v>-2.82</v>
+        <v>1.08</v>
       </c>
       <c r="D66">
         <v>-0.87</v>
@@ -1399,10 +1403,10 @@
         <v>38.19</v>
       </c>
       <c r="B67">
-        <v>-1.75</v>
+        <v>6.71</v>
       </c>
       <c r="C67">
-        <v>-2.83</v>
+        <v>1.21</v>
       </c>
       <c r="D67">
         <v>-0.87</v>
@@ -1413,10 +1417,10 @@
         <v>38.57</v>
       </c>
       <c r="B68">
-        <v>-1.75</v>
+        <v>6.7</v>
       </c>
       <c r="C68">
-        <v>-2.84</v>
+        <v>1.34</v>
       </c>
       <c r="D68">
         <v>-0.87</v>
@@ -1427,10 +1431,10 @@
         <v>38.950000000000003</v>
       </c>
       <c r="B69">
-        <v>-1.75</v>
+        <v>6.7</v>
       </c>
       <c r="C69">
-        <v>-2.86</v>
+        <v>1.46</v>
       </c>
       <c r="D69">
         <v>-0.88</v>
@@ -1441,10 +1445,10 @@
         <v>39.340000000000003</v>
       </c>
       <c r="B70">
-        <v>-1.75</v>
+        <v>6.69</v>
       </c>
       <c r="C70">
-        <v>-2.87</v>
+        <v>1.58</v>
       </c>
       <c r="D70">
         <v>-0.88</v>
@@ -1455,10 +1459,10 @@
         <v>39.74</v>
       </c>
       <c r="B71">
-        <v>-1.76</v>
+        <v>6.67</v>
       </c>
       <c r="C71">
-        <v>-2.88</v>
+        <v>1.69</v>
       </c>
       <c r="D71">
         <v>-0.88</v>
@@ -1469,10 +1473,10 @@
         <v>40.14</v>
       </c>
       <c r="B72">
-        <v>-1.77</v>
+        <v>6.66</v>
       </c>
       <c r="C72">
-        <v>-2.9</v>
+        <v>1.8</v>
       </c>
       <c r="D72">
         <v>-0.89</v>
@@ -1483,10 +1487,10 @@
         <v>40.54</v>
       </c>
       <c r="B73">
-        <v>-1.79</v>
+        <v>6.64</v>
       </c>
       <c r="C73">
-        <v>-2.91</v>
+        <v>1.9</v>
       </c>
       <c r="D73">
         <v>-0.9</v>
@@ -1497,10 +1501,10 @@
         <v>40.94</v>
       </c>
       <c r="B74">
-        <v>-1.81</v>
+        <v>6.62</v>
       </c>
       <c r="C74">
-        <v>-2.93</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>-0.9</v>
@@ -1511,10 +1515,10 @@
         <v>41.35</v>
       </c>
       <c r="B75">
-        <v>-1.82</v>
+        <v>6.61</v>
       </c>
       <c r="C75">
-        <v>-2.94</v>
+        <v>2.09</v>
       </c>
       <c r="D75">
         <v>-0.91</v>
@@ -1525,10 +1529,10 @@
         <v>41.76</v>
       </c>
       <c r="B76">
-        <v>-1.84</v>
+        <v>6.6</v>
       </c>
       <c r="C76">
-        <v>-2.96</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D76">
         <v>-0.93</v>
@@ -1539,10 +1543,10 @@
         <v>42.18</v>
       </c>
       <c r="B77">
-        <v>-1.85</v>
+        <v>6.6</v>
       </c>
       <c r="C77">
-        <v>-2.97</v>
+        <v>2.27</v>
       </c>
       <c r="D77">
         <v>-0.94</v>
@@ -1553,10 +1557,10 @@
         <v>42.6</v>
       </c>
       <c r="B78">
-        <v>-1.87</v>
+        <v>6.59</v>
       </c>
       <c r="C78">
-        <v>-2.99</v>
+        <v>2.36</v>
       </c>
       <c r="D78">
         <v>-0.94</v>
@@ -1567,10 +1571,10 @@
         <v>43.03</v>
       </c>
       <c r="B79">
-        <v>-1.88</v>
+        <v>6.58</v>
       </c>
       <c r="C79">
-        <v>-3</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D79">
         <v>-0.95</v>
@@ -1581,10 +1585,10 @@
         <v>43.46</v>
       </c>
       <c r="B80">
-        <v>-1.88</v>
+        <v>6.56</v>
       </c>
       <c r="C80">
-        <v>-3.02</v>
+        <v>2.54</v>
       </c>
       <c r="D80">
         <v>-0.96</v>
@@ -1595,10 +1599,10 @@
         <v>43.9</v>
       </c>
       <c r="B81">
-        <v>-1.89</v>
+        <v>6.54</v>
       </c>
       <c r="C81">
-        <v>-3.03</v>
+        <v>2.63</v>
       </c>
       <c r="D81">
         <v>-0.97</v>
@@ -1609,10 +1613,10 @@
         <v>44.33</v>
       </c>
       <c r="B82">
-        <v>-1.9</v>
+        <v>6.51</v>
       </c>
       <c r="C82">
-        <v>-3.04</v>
+        <v>2.72</v>
       </c>
       <c r="D82">
         <v>-0.97</v>
@@ -1623,10 +1627,10 @@
         <v>44.78</v>
       </c>
       <c r="B83">
-        <v>-1.91</v>
+        <v>6.49</v>
       </c>
       <c r="C83">
-        <v>-3.06</v>
+        <v>2.8</v>
       </c>
       <c r="D83">
         <v>-0.98</v>
@@ -1637,10 +1641,10 @@
         <v>45.23</v>
       </c>
       <c r="B84">
-        <v>-1.92</v>
+        <v>6.47</v>
       </c>
       <c r="C84">
-        <v>-3.07</v>
+        <v>2.89</v>
       </c>
       <c r="D84">
         <v>-0.98</v>
@@ -1651,10 +1655,10 @@
         <v>45.68</v>
       </c>
       <c r="B85">
-        <v>-1.93</v>
+        <v>6.47</v>
       </c>
       <c r="C85">
-        <v>-3.08</v>
+        <v>2.98</v>
       </c>
       <c r="D85">
         <v>-0.99</v>
@@ -1665,10 +1669,10 @@
         <v>46.13</v>
       </c>
       <c r="B86">
-        <v>-1.94</v>
+        <v>6.46</v>
       </c>
       <c r="C86">
-        <v>-3.09</v>
+        <v>3.06</v>
       </c>
       <c r="D86">
         <v>-1</v>
@@ -1679,10 +1683,10 @@
         <v>46.6</v>
       </c>
       <c r="B87">
-        <v>-1.94</v>
+        <v>6.44</v>
       </c>
       <c r="C87">
-        <v>-3.09</v>
+        <v>3.15</v>
       </c>
       <c r="D87">
         <v>-1.01</v>
@@ -1693,10 +1697,10 @@
         <v>47.06</v>
       </c>
       <c r="B88">
-        <v>-1.95</v>
+        <v>6.41</v>
       </c>
       <c r="C88">
-        <v>-3.1</v>
+        <v>3.24</v>
       </c>
       <c r="D88">
         <v>-1.01</v>
@@ -1707,10 +1711,10 @@
         <v>47.53</v>
       </c>
       <c r="B89">
-        <v>-1.95</v>
+        <v>6.38</v>
       </c>
       <c r="C89">
-        <v>-3.1</v>
+        <v>3.33</v>
       </c>
       <c r="D89">
         <v>-1.02</v>
@@ -1721,10 +1725,10 @@
         <v>48.01</v>
       </c>
       <c r="B90">
-        <v>-1.95</v>
+        <v>6.37</v>
       </c>
       <c r="C90">
-        <v>-3.1</v>
+        <v>3.42</v>
       </c>
       <c r="D90">
         <v>-1.03</v>
@@ -1735,10 +1739,10 @@
         <v>48.49</v>
       </c>
       <c r="B91">
-        <v>-1.95</v>
+        <v>6.37</v>
       </c>
       <c r="C91">
-        <v>-3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D91">
         <v>-1.03</v>
@@ -1749,10 +1753,10 @@
         <v>48.97</v>
       </c>
       <c r="B92">
-        <v>-1.95</v>
+        <v>6.35</v>
       </c>
       <c r="C92">
-        <v>-3.1</v>
+        <v>3.59</v>
       </c>
       <c r="D92">
         <v>-1.04</v>
@@ -1763,10 +1767,10 @@
         <v>49.46</v>
       </c>
       <c r="B93">
-        <v>-1.95</v>
+        <v>6.32</v>
       </c>
       <c r="C93">
-        <v>-3.11</v>
+        <v>3.69</v>
       </c>
       <c r="D93">
         <v>-1.04</v>
@@ -1777,10 +1781,10 @@
         <v>49.96</v>
       </c>
       <c r="B94">
-        <v>-1.96</v>
+        <v>6.27</v>
       </c>
       <c r="C94">
-        <v>-3.11</v>
+        <v>3.78</v>
       </c>
       <c r="D94">
         <v>-1.04</v>
@@ -1791,10 +1795,10 @@
         <v>50.46</v>
       </c>
       <c r="B95">
-        <v>-1.96</v>
+        <v>6.21</v>
       </c>
       <c r="C95">
-        <v>-3.12</v>
+        <v>3.86</v>
       </c>
       <c r="D95">
         <v>-1.04</v>
@@ -1805,10 +1809,10 @@
         <v>50.96</v>
       </c>
       <c r="B96">
-        <v>-1.96</v>
+        <v>6.18</v>
       </c>
       <c r="C96">
-        <v>-3.13</v>
+        <v>3.92</v>
       </c>
       <c r="D96">
         <v>-1.04</v>
@@ -1819,10 +1823,10 @@
         <v>51.47</v>
       </c>
       <c r="B97">
-        <v>-1.97</v>
+        <v>6.17</v>
       </c>
       <c r="C97">
-        <v>-3.14</v>
+        <v>3.98</v>
       </c>
       <c r="D97">
         <v>-1.05</v>
@@ -1833,10 +1837,10 @@
         <v>51.99</v>
       </c>
       <c r="B98">
-        <v>-1.98</v>
+        <v>6.18</v>
       </c>
       <c r="C98">
-        <v>-3.15</v>
+        <v>4.01</v>
       </c>
       <c r="D98">
         <v>-1.05</v>
@@ -1847,10 +1851,10 @@
         <v>52.51</v>
       </c>
       <c r="B99">
-        <v>-1.99</v>
+        <v>6.18</v>
       </c>
       <c r="C99">
-        <v>-3.17</v>
+        <v>4.03</v>
       </c>
       <c r="D99">
         <v>-1.06</v>
@@ -1861,10 +1865,10 @@
         <v>53.03</v>
       </c>
       <c r="B100">
-        <v>-2.0099999999999998</v>
+        <v>6.16</v>
       </c>
       <c r="C100">
-        <v>-3.19</v>
+        <v>4.04</v>
       </c>
       <c r="D100">
         <v>-1.07</v>
@@ -1875,10 +1879,10 @@
         <v>53.56</v>
       </c>
       <c r="B101">
-        <v>-2.02</v>
+        <v>6.11</v>
       </c>
       <c r="C101">
-        <v>-3.2</v>
+        <v>4.03</v>
       </c>
       <c r="D101">
         <v>-1.08</v>
@@ -1889,10 +1893,10 @@
         <v>54.1</v>
       </c>
       <c r="B102">
-        <v>-2.04</v>
+        <v>6.06</v>
       </c>
       <c r="C102">
-        <v>-3.22</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>-1.1000000000000001</v>
@@ -1903,10 +1907,10 @@
         <v>54.64</v>
       </c>
       <c r="B103">
-        <v>-2.0499999999999998</v>
+        <v>6.02</v>
       </c>
       <c r="C103">
-        <v>-3.23</v>
+        <v>3.97</v>
       </c>
       <c r="D103">
         <v>-1.1200000000000001</v>
@@ -1917,10 +1921,10 @@
         <v>55.18</v>
       </c>
       <c r="B104">
-        <v>-2.0699999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="C104">
-        <v>-3.24</v>
+        <v>3.94</v>
       </c>
       <c r="D104">
         <v>-1.1399999999999999</v>
@@ -1931,10 +1935,10 @@
         <v>55.74</v>
       </c>
       <c r="B105">
-        <v>-2.08</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>-3.25</v>
+        <v>3.91</v>
       </c>
       <c r="D105">
         <v>-1.1599999999999999</v>
@@ -1945,10 +1949,10 @@
         <v>56.29</v>
       </c>
       <c r="B106">
-        <v>-2.1</v>
+        <v>5.99</v>
       </c>
       <c r="C106">
-        <v>-3.26</v>
+        <v>3.89</v>
       </c>
       <c r="D106">
         <v>-1.18</v>
@@ -1959,10 +1963,10 @@
         <v>56.86</v>
       </c>
       <c r="B107">
-        <v>-2.11</v>
+        <v>5.96</v>
       </c>
       <c r="C107">
-        <v>-3.26</v>
+        <v>3.86</v>
       </c>
       <c r="D107">
         <v>-1.2</v>
@@ -1973,10 +1977,10 @@
         <v>57.42</v>
       </c>
       <c r="B108">
-        <v>-2.13</v>
+        <v>5.93</v>
       </c>
       <c r="C108">
-        <v>-3.27</v>
+        <v>3.84</v>
       </c>
       <c r="D108">
         <v>-1.21</v>
@@ -1987,10 +1991,10 @@
         <v>58</v>
       </c>
       <c r="B109">
-        <v>-2.14</v>
+        <v>5.9</v>
       </c>
       <c r="C109">
-        <v>-3.27</v>
+        <v>3.81</v>
       </c>
       <c r="D109">
         <v>-1.23</v>
@@ -2001,10 +2005,10 @@
         <v>58.58</v>
       </c>
       <c r="B110">
-        <v>-2.15</v>
+        <v>5.88</v>
       </c>
       <c r="C110">
-        <v>-3.28</v>
+        <v>3.79</v>
       </c>
       <c r="D110">
         <v>-1.24</v>
@@ -2015,10 +2019,10 @@
         <v>59.16</v>
       </c>
       <c r="B111">
-        <v>-2.15</v>
+        <v>5.86</v>
       </c>
       <c r="C111">
-        <v>-3.29</v>
+        <v>3.77</v>
       </c>
       <c r="D111">
         <v>-1.25</v>
@@ -2029,10 +2033,10 @@
         <v>59.76</v>
       </c>
       <c r="B112">
-        <v>-2.16</v>
+        <v>5.85</v>
       </c>
       <c r="C112">
-        <v>-3.3</v>
+        <v>3.74</v>
       </c>
       <c r="D112">
         <v>-1.26</v>
@@ -2043,10 +2047,10 @@
         <v>60.35</v>
       </c>
       <c r="B113">
-        <v>-2.17</v>
+        <v>5.82</v>
       </c>
       <c r="C113">
-        <v>-3.31</v>
+        <v>3.72</v>
       </c>
       <c r="D113">
         <v>-1.27</v>
@@ -2057,10 +2061,10 @@
         <v>60.96</v>
       </c>
       <c r="B114">
-        <v>-2.1800000000000002</v>
+        <v>5.78</v>
       </c>
       <c r="C114">
-        <v>-3.32</v>
+        <v>3.69</v>
       </c>
       <c r="D114">
         <v>-1.28</v>
@@ -2071,10 +2075,10 @@
         <v>61.57</v>
       </c>
       <c r="B115">
-        <v>-2.19</v>
+        <v>5.75</v>
       </c>
       <c r="C115">
-        <v>-3.33</v>
+        <v>3.66</v>
       </c>
       <c r="D115">
         <v>-1.28</v>
@@ -2085,10 +2089,10 @@
         <v>62.18</v>
       </c>
       <c r="B116">
-        <v>-2.2000000000000002</v>
+        <v>5.72</v>
       </c>
       <c r="C116">
-        <v>-3.35</v>
+        <v>3.62</v>
       </c>
       <c r="D116">
         <v>-1.29</v>
@@ -2099,10 +2103,10 @@
         <v>62.8</v>
       </c>
       <c r="B117">
-        <v>-2.2200000000000002</v>
+        <v>5.69</v>
       </c>
       <c r="C117">
-        <v>-3.37</v>
+        <v>3.59</v>
       </c>
       <c r="D117">
         <v>-1.31</v>
@@ -2113,10 +2117,10 @@
         <v>63.43</v>
       </c>
       <c r="B118">
-        <v>-2.23</v>
+        <v>5.67</v>
       </c>
       <c r="C118">
-        <v>-3.38</v>
+        <v>3.56</v>
       </c>
       <c r="D118">
         <v>-1.32</v>
@@ -2127,10 +2131,10 @@
         <v>64.069999999999993</v>
       </c>
       <c r="B119">
-        <v>-2.25</v>
+        <v>5.64</v>
       </c>
       <c r="C119">
-        <v>-3.4</v>
+        <v>3.53</v>
       </c>
       <c r="D119">
         <v>-1.34</v>
@@ -2141,10 +2145,10 @@
         <v>64.709999999999994</v>
       </c>
       <c r="B120">
-        <v>-2.2599999999999998</v>
+        <v>5.61</v>
       </c>
       <c r="C120">
-        <v>-3.42</v>
+        <v>3.51</v>
       </c>
       <c r="D120">
         <v>-1.36</v>
@@ -2155,10 +2159,10 @@
         <v>65.349999999999994</v>
       </c>
       <c r="B121">
-        <v>-2.2799999999999998</v>
+        <v>5.58</v>
       </c>
       <c r="C121">
-        <v>-3.43</v>
+        <v>3.48</v>
       </c>
       <c r="D121">
         <v>-1.38</v>
@@ -2169,10 +2173,10 @@
         <v>66.010000000000005</v>
       </c>
       <c r="B122">
-        <v>-2.2999999999999998</v>
+        <v>5.54</v>
       </c>
       <c r="C122">
-        <v>-3.45</v>
+        <v>3.45</v>
       </c>
       <c r="D122">
         <v>-1.4</v>
@@ -2183,10 +2187,10 @@
         <v>66.67</v>
       </c>
       <c r="B123">
-        <v>-2.3199999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="C123">
-        <v>-3.47</v>
+        <v>3.42</v>
       </c>
       <c r="D123">
         <v>-1.43</v>
@@ -2197,10 +2201,10 @@
         <v>67.33</v>
       </c>
       <c r="B124">
-        <v>-2.34</v>
+        <v>5.47</v>
       </c>
       <c r="C124">
-        <v>-3.48</v>
+        <v>3.39</v>
       </c>
       <c r="D124">
         <v>-1.45</v>
@@ -2211,10 +2215,10 @@
         <v>68.010000000000005</v>
       </c>
       <c r="B125">
-        <v>-2.36</v>
+        <v>5.43</v>
       </c>
       <c r="C125">
-        <v>-3.5</v>
+        <v>3.36</v>
       </c>
       <c r="D125">
         <v>-1.48</v>
@@ -2225,10 +2229,10 @@
         <v>68.69</v>
       </c>
       <c r="B126">
-        <v>-2.39</v>
+        <v>5.41</v>
       </c>
       <c r="C126">
-        <v>-3.52</v>
+        <v>3.33</v>
       </c>
       <c r="D126">
         <v>-1.51</v>
@@ -2239,10 +2243,10 @@
         <v>69.37</v>
       </c>
       <c r="B127">
-        <v>-2.42</v>
+        <v>5.39</v>
       </c>
       <c r="C127">
-        <v>-3.54</v>
+        <v>3.3</v>
       </c>
       <c r="D127">
         <v>-1.53</v>
@@ -2253,10 +2257,10 @@
         <v>70.069999999999993</v>
       </c>
       <c r="B128">
-        <v>-2.44</v>
+        <v>5.38</v>
       </c>
       <c r="C128">
-        <v>-3.55</v>
+        <v>3.27</v>
       </c>
       <c r="D128">
         <v>-1.56</v>
@@ -2267,10 +2271,10 @@
         <v>70.77</v>
       </c>
       <c r="B129">
-        <v>-2.4700000000000002</v>
+        <v>5.36</v>
       </c>
       <c r="C129">
-        <v>-3.57</v>
+        <v>3.24</v>
       </c>
       <c r="D129">
         <v>-1.59</v>
@@ -2281,10 +2285,10 @@
         <v>71.48</v>
       </c>
       <c r="B130">
-        <v>-2.5</v>
+        <v>5.31</v>
       </c>
       <c r="C130">
-        <v>-3.58</v>
+        <v>3.21</v>
       </c>
       <c r="D130">
         <v>-1.62</v>
@@ -2295,10 +2299,10 @@
         <v>72.19</v>
       </c>
       <c r="B131">
-        <v>-2.52</v>
+        <v>5.26</v>
       </c>
       <c r="C131">
-        <v>-3.6</v>
+        <v>3.17</v>
       </c>
       <c r="D131">
         <v>-1.64</v>
@@ -2309,10 +2313,10 @@
         <v>72.91</v>
       </c>
       <c r="B132">
-        <v>-2.5499999999999998</v>
+        <v>5.22</v>
       </c>
       <c r="C132">
-        <v>-3.61</v>
+        <v>3.14</v>
       </c>
       <c r="D132">
         <v>-1.67</v>
@@ -2323,10 +2327,10 @@
         <v>73.64</v>
       </c>
       <c r="B133">
-        <v>-2.58</v>
+        <v>5.19</v>
       </c>
       <c r="C133">
-        <v>-3.63</v>
+        <v>3.11</v>
       </c>
       <c r="D133">
         <v>-1.69</v>
@@ -2337,10 +2341,10 @@
         <v>74.38</v>
       </c>
       <c r="B134">
-        <v>-2.61</v>
+        <v>5.16</v>
       </c>
       <c r="C134">
-        <v>-3.65</v>
+        <v>3.07</v>
       </c>
       <c r="D134">
         <v>-1.72</v>
@@ -2351,10 +2355,10 @@
         <v>75.12</v>
       </c>
       <c r="B135">
-        <v>-2.64</v>
+        <v>5.14</v>
       </c>
       <c r="C135">
-        <v>-3.66</v>
+        <v>3.04</v>
       </c>
       <c r="D135">
         <v>-1.76</v>
@@ -2365,10 +2369,10 @@
         <v>75.87</v>
       </c>
       <c r="B136">
-        <v>-2.67</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C136">
-        <v>-3.68</v>
+        <v>3</v>
       </c>
       <c r="D136">
         <v>-1.79</v>
@@ -2379,10 +2383,10 @@
         <v>76.63</v>
       </c>
       <c r="B137">
-        <v>-2.7</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C137">
-        <v>-3.7</v>
+        <v>2.97</v>
       </c>
       <c r="D137">
         <v>-1.83</v>
@@ -2393,10 +2397,10 @@
         <v>77.400000000000006</v>
       </c>
       <c r="B138">
-        <v>-2.73</v>
+        <v>5.03</v>
       </c>
       <c r="C138">
-        <v>-3.72</v>
+        <v>2.94</v>
       </c>
       <c r="D138">
         <v>-1.86</v>
@@ -2407,10 +2411,10 @@
         <v>78.17</v>
       </c>
       <c r="B139">
-        <v>-2.76</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>-3.74</v>
+        <v>2.9</v>
       </c>
       <c r="D139">
         <v>-1.91</v>
@@ -2421,10 +2425,10 @@
         <v>78.95</v>
       </c>
       <c r="B140">
-        <v>-2.79</v>
+        <v>4.97</v>
       </c>
       <c r="C140">
-        <v>-3.76</v>
+        <v>2.87</v>
       </c>
       <c r="D140">
         <v>-1.95</v>
@@ -2435,10 +2439,10 @@
         <v>79.739999999999995</v>
       </c>
       <c r="B141">
-        <v>-2.83</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C141">
-        <v>-3.78</v>
+        <v>2.85</v>
       </c>
       <c r="D141">
         <v>-2</v>
@@ -2449,10 +2453,10 @@
         <v>80.540000000000006</v>
       </c>
       <c r="B142">
-        <v>-2.86</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C142">
-        <v>-3.79</v>
+        <v>2.82</v>
       </c>
       <c r="D142">
         <v>-2.04</v>
@@ -2463,10 +2467,10 @@
         <v>81.349999999999994</v>
       </c>
       <c r="B143">
-        <v>-2.89</v>
+        <v>4.87</v>
       </c>
       <c r="C143">
-        <v>-3.81</v>
+        <v>2.78</v>
       </c>
       <c r="D143">
         <v>-2.08</v>
@@ -2477,10 +2481,10 @@
         <v>82.16</v>
       </c>
       <c r="B144">
-        <v>-2.92</v>
+        <v>4.83</v>
       </c>
       <c r="C144">
-        <v>-3.83</v>
+        <v>2.74</v>
       </c>
       <c r="D144">
         <v>-2.12</v>
@@ -2491,10 +2495,10 @@
         <v>82.98</v>
       </c>
       <c r="B145">
-        <v>-2.95</v>
+        <v>4.8</v>
       </c>
       <c r="C145">
-        <v>-3.85</v>
+        <v>2.71</v>
       </c>
       <c r="D145">
         <v>-2.15</v>
@@ -2505,10 +2509,10 @@
         <v>83.81</v>
       </c>
       <c r="B146">
-        <v>-2.98</v>
+        <v>4.76</v>
       </c>
       <c r="C146">
-        <v>-3.87</v>
+        <v>2.67</v>
       </c>
       <c r="D146">
         <v>-2.1800000000000002</v>
@@ -2519,10 +2523,10 @@
         <v>84.65</v>
       </c>
       <c r="B147">
-        <v>-3.01</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C147">
-        <v>-3.89</v>
+        <v>2.63</v>
       </c>
       <c r="D147">
         <v>-2.2200000000000002</v>
@@ -2533,10 +2537,10 @@
         <v>85.5</v>
       </c>
       <c r="B148">
-        <v>-3.03</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C148">
-        <v>-3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D148">
         <v>-2.25</v>
@@ -2547,10 +2551,10 @@
         <v>86.35</v>
       </c>
       <c r="B149">
-        <v>-3.06</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C149">
-        <v>-3.92</v>
+        <v>2.56</v>
       </c>
       <c r="D149">
         <v>-2.29</v>
@@ -2561,10 +2565,10 @@
         <v>87.22</v>
       </c>
       <c r="B150">
-        <v>-3.09</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C150">
-        <v>-3.94</v>
+        <v>2.52</v>
       </c>
       <c r="D150">
         <v>-2.3199999999999998</v>
@@ -2575,10 +2579,10 @@
         <v>88.09</v>
       </c>
       <c r="B151">
-        <v>-3.12</v>
+        <v>4.58</v>
       </c>
       <c r="C151">
-        <v>-3.96</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D151">
         <v>-2.36</v>
@@ -2589,10 +2593,10 @@
         <v>88.97</v>
       </c>
       <c r="B152">
-        <v>-3.16</v>
+        <v>4.54</v>
       </c>
       <c r="C152">
-        <v>-3.97</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D152">
         <v>-2.39</v>
@@ -2603,10 +2607,10 @@
         <v>89.86</v>
       </c>
       <c r="B153">
-        <v>-3.19</v>
+        <v>4.51</v>
       </c>
       <c r="C153">
-        <v>-3.99</v>
+        <v>2.41</v>
       </c>
       <c r="D153">
         <v>-2.44</v>
@@ -2617,10 +2621,10 @@
         <v>90.76</v>
       </c>
       <c r="B154">
-        <v>-3.22</v>
+        <v>4.47</v>
       </c>
       <c r="C154">
-        <v>-4.01</v>
+        <v>2.36</v>
       </c>
       <c r="D154">
         <v>-2.48</v>
@@ -2631,10 +2635,10 @@
         <v>91.66</v>
       </c>
       <c r="B155">
-        <v>-3.26</v>
+        <v>4.42</v>
       </c>
       <c r="C155">
-        <v>-4.0199999999999996</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D155">
         <v>-2.52</v>
@@ -2645,10 +2649,10 @@
         <v>92.58</v>
       </c>
       <c r="B156">
-        <v>-3.29</v>
+        <v>4.37</v>
       </c>
       <c r="C156">
-        <v>-4.04</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D156">
         <v>-2.56</v>
@@ -2659,10 +2663,10 @@
         <v>93.51</v>
       </c>
       <c r="B157">
-        <v>-3.32</v>
+        <v>4.33</v>
       </c>
       <c r="C157">
-        <v>-4.05</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D157">
         <v>-2.59</v>
@@ -2673,10 +2677,10 @@
         <v>94.44</v>
       </c>
       <c r="B158">
-        <v>-3.36</v>
+        <v>4.28</v>
       </c>
       <c r="C158">
-        <v>-4.0599999999999996</v>
+        <v>2.19</v>
       </c>
       <c r="D158">
         <v>-2.63</v>
@@ -2687,10 +2691,10 @@
         <v>95.39</v>
       </c>
       <c r="B159">
-        <v>-3.39</v>
+        <v>4.24</v>
       </c>
       <c r="C159">
-        <v>-4.07</v>
+        <v>2.15</v>
       </c>
       <c r="D159">
         <v>-2.67</v>
@@ -2701,10 +2705,10 @@
         <v>96.34</v>
       </c>
       <c r="B160">
-        <v>-3.42</v>
+        <v>4.2</v>
       </c>
       <c r="C160">
-        <v>-4.07</v>
+        <v>2.1</v>
       </c>
       <c r="D160">
         <v>-2.7</v>
@@ -2715,10 +2719,10 @@
         <v>97.3</v>
       </c>
       <c r="B161">
-        <v>-3.45</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C161">
-        <v>-4.08</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D161">
         <v>-2.74</v>
@@ -2729,10 +2733,10 @@
         <v>98.28</v>
       </c>
       <c r="B162">
-        <v>-3.48</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C162">
-        <v>-4.09</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>-2.77</v>
@@ -2743,10 +2747,10 @@
         <v>99.26</v>
       </c>
       <c r="B163">
-        <v>-3.51</v>
+        <v>4.05</v>
       </c>
       <c r="C163">
-        <v>-4.09</v>
+        <v>1.96</v>
       </c>
       <c r="D163">
         <v>-2.81</v>
@@ -2757,10 +2761,10 @@
         <v>100.25</v>
       </c>
       <c r="B164">
-        <v>-3.54</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>-4.1100000000000003</v>
+        <v>1.91</v>
       </c>
       <c r="D164">
         <v>-2.85</v>
@@ -2771,10 +2775,10 @@
         <v>101.25</v>
       </c>
       <c r="B165">
-        <v>-3.57</v>
+        <v>3.95</v>
       </c>
       <c r="C165">
-        <v>-4.12</v>
+        <v>1.86</v>
       </c>
       <c r="D165">
         <v>-2.89</v>
@@ -2785,10 +2789,10 @@
         <v>102.27</v>
       </c>
       <c r="B166">
-        <v>-3.61</v>
+        <v>3.91</v>
       </c>
       <c r="C166">
-        <v>-4.1399999999999997</v>
+        <v>1.82</v>
       </c>
       <c r="D166">
         <v>-2.93</v>
@@ -2799,10 +2803,10 @@
         <v>103.29</v>
       </c>
       <c r="B167">
-        <v>-3.64</v>
+        <v>3.86</v>
       </c>
       <c r="C167">
-        <v>-4.16</v>
+        <v>1.77</v>
       </c>
       <c r="D167">
         <v>-2.97</v>
@@ -2813,10 +2817,10 @@
         <v>104.32</v>
       </c>
       <c r="B168">
-        <v>-3.68</v>
+        <v>3.81</v>
       </c>
       <c r="C168">
-        <v>-4.18</v>
+        <v>1.73</v>
       </c>
       <c r="D168">
         <v>-3.02</v>
@@ -2827,10 +2831,10 @@
         <v>105.37</v>
       </c>
       <c r="B169">
-        <v>-3.72</v>
+        <v>3.77</v>
       </c>
       <c r="C169">
-        <v>-4.2</v>
+        <v>1.68</v>
       </c>
       <c r="D169">
         <v>-3.06</v>
@@ -2841,10 +2845,10 @@
         <v>106.42</v>
       </c>
       <c r="B170">
-        <v>-3.75</v>
+        <v>3.73</v>
       </c>
       <c r="C170">
-        <v>-4.2300000000000004</v>
+        <v>1.63</v>
       </c>
       <c r="D170">
         <v>-3.1</v>
@@ -2855,10 +2859,10 @@
         <v>107.48</v>
       </c>
       <c r="B171">
-        <v>-3.79</v>
+        <v>3.69</v>
       </c>
       <c r="C171">
-        <v>-4.25</v>
+        <v>1.58</v>
       </c>
       <c r="D171">
         <v>-3.14</v>
@@ -2869,10 +2873,10 @@
         <v>108.56</v>
       </c>
       <c r="B172">
-        <v>-3.83</v>
+        <v>3.64</v>
       </c>
       <c r="C172">
-        <v>-4.2699999999999996</v>
+        <v>1.53</v>
       </c>
       <c r="D172">
         <v>-3.18</v>
@@ -2883,10 +2887,10 @@
         <v>109.64</v>
       </c>
       <c r="B173">
-        <v>-3.86</v>
+        <v>3.58</v>
       </c>
       <c r="C173">
-        <v>-4.29</v>
+        <v>1.49</v>
       </c>
       <c r="D173">
         <v>-3.22</v>
@@ -2897,10 +2901,10 @@
         <v>110.74</v>
       </c>
       <c r="B174">
-        <v>-3.9</v>
+        <v>3.53</v>
       </c>
       <c r="C174">
-        <v>-4.3099999999999996</v>
+        <v>1.44</v>
       </c>
       <c r="D174">
         <v>-3.26</v>
@@ -2911,10 +2915,10 @@
         <v>111.85</v>
       </c>
       <c r="B175">
-        <v>-3.93</v>
+        <v>3.48</v>
       </c>
       <c r="C175">
-        <v>-4.32</v>
+        <v>1.39</v>
       </c>
       <c r="D175">
         <v>-3.29</v>
@@ -2925,10 +2929,10 @@
         <v>112.97</v>
       </c>
       <c r="B176">
-        <v>-3.96</v>
+        <v>3.42</v>
       </c>
       <c r="C176">
-        <v>-4.34</v>
+        <v>1.33</v>
       </c>
       <c r="D176">
         <v>-3.33</v>
@@ -2939,10 +2943,10 @@
         <v>114.1</v>
       </c>
       <c r="B177">
-        <v>-3.99</v>
+        <v>3.37</v>
       </c>
       <c r="C177">
-        <v>-4.3499999999999996</v>
+        <v>1.28</v>
       </c>
       <c r="D177">
         <v>-3.37</v>
@@ -2953,10 +2957,10 @@
         <v>115.24</v>
       </c>
       <c r="B178">
-        <v>-4.0199999999999996</v>
+        <v>3.33</v>
       </c>
       <c r="C178">
-        <v>-4.3600000000000003</v>
+        <v>1.23</v>
       </c>
       <c r="D178">
         <v>-3.4</v>
@@ -2967,10 +2971,10 @@
         <v>116.39</v>
       </c>
       <c r="B179">
-        <v>-4.05</v>
+        <v>3.28</v>
       </c>
       <c r="C179">
-        <v>-4.38</v>
+        <v>1.18</v>
       </c>
       <c r="D179">
         <v>-3.44</v>
@@ -2981,10 +2985,10 @@
         <v>117.55</v>
       </c>
       <c r="B180">
-        <v>-4.08</v>
+        <v>3.23</v>
       </c>
       <c r="C180">
-        <v>-4.3899999999999997</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D180">
         <v>-3.47</v>
@@ -2995,10 +2999,10 @@
         <v>118.73</v>
       </c>
       <c r="B181">
-        <v>-4.1100000000000003</v>
+        <v>3.17</v>
       </c>
       <c r="C181">
-        <v>-4.4000000000000004</v>
+        <v>1.08</v>
       </c>
       <c r="D181">
         <v>-3.5</v>
@@ -3009,10 +3013,10 @@
         <v>119.92</v>
       </c>
       <c r="B182">
-        <v>-4.1399999999999997</v>
+        <v>3.12</v>
       </c>
       <c r="C182">
-        <v>-4.41</v>
+        <v>1.03</v>
       </c>
       <c r="D182">
         <v>-3.54</v>
@@ -3023,10 +3027,10 @@
         <v>121.12</v>
       </c>
       <c r="B183">
-        <v>-4.17</v>
+        <v>3.06</v>
       </c>
       <c r="C183">
-        <v>-4.42</v>
+        <v>0.97</v>
       </c>
       <c r="D183">
         <v>-3.57</v>
@@ -3037,10 +3041,10 @@
         <v>122.33</v>
       </c>
       <c r="B184">
-        <v>-4.1900000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="C184">
-        <v>-4.43</v>
+        <v>0.92</v>
       </c>
       <c r="D184">
         <v>-3.59</v>
@@ -3051,10 +3055,10 @@
         <v>123.55</v>
       </c>
       <c r="B185">
-        <v>-4.22</v>
+        <v>2.96</v>
       </c>
       <c r="C185">
-        <v>-4.43</v>
+        <v>0.87</v>
       </c>
       <c r="D185">
         <v>-3.62</v>
@@ -3065,10 +3069,10 @@
         <v>124.79</v>
       </c>
       <c r="B186">
-        <v>-4.24</v>
+        <v>2.91</v>
       </c>
       <c r="C186">
-        <v>-4.4400000000000004</v>
+        <v>0.82</v>
       </c>
       <c r="D186">
         <v>-3.64</v>
@@ -3079,10 +3083,10 @@
         <v>126.03</v>
       </c>
       <c r="B187">
-        <v>-4.26</v>
+        <v>2.87</v>
       </c>
       <c r="C187">
-        <v>-4.4400000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="D187">
         <v>-3.67</v>
@@ -3093,10 +3097,10 @@
         <v>127.29</v>
       </c>
       <c r="B188">
-        <v>-4.28</v>
+        <v>2.82</v>
       </c>
       <c r="C188">
-        <v>-4.45</v>
+        <v>0.72</v>
       </c>
       <c r="D188">
         <v>-3.69</v>
@@ -3107,10 +3111,10 @@
         <v>128.57</v>
       </c>
       <c r="B189">
-        <v>-4.3</v>
+        <v>2.77</v>
       </c>
       <c r="C189">
-        <v>-4.45</v>
+        <v>0.67</v>
       </c>
       <c r="D189">
         <v>-3.71</v>
@@ -3121,10 +3125,10 @@
         <v>129.85</v>
       </c>
       <c r="B190">
-        <v>-4.32</v>
+        <v>2.72</v>
       </c>
       <c r="C190">
-        <v>-4.45</v>
+        <v>0.62</v>
       </c>
       <c r="D190">
         <v>-3.74</v>
@@ -3135,10 +3139,10 @@
         <v>131.15</v>
       </c>
       <c r="B191">
-        <v>-4.34</v>
+        <v>2.67</v>
       </c>
       <c r="C191">
-        <v>-4.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D191">
         <v>-3.76</v>
@@ -3149,10 +3153,10 @@
         <v>132.46</v>
       </c>
       <c r="B192">
-        <v>-4.3600000000000003</v>
+        <v>2.62</v>
       </c>
       <c r="C192">
-        <v>-4.46</v>
+        <v>0.53</v>
       </c>
       <c r="D192">
         <v>-3.78</v>
@@ -3163,10 +3167,10 @@
         <v>133.79</v>
       </c>
       <c r="B193">
-        <v>-4.38</v>
+        <v>2.57</v>
       </c>
       <c r="C193">
-        <v>-4.46</v>
+        <v>0.48</v>
       </c>
       <c r="D193">
         <v>-3.8</v>
@@ -3177,10 +3181,10 @@
         <v>135.12</v>
       </c>
       <c r="B194">
-        <v>-4.4000000000000004</v>
+        <v>2.52</v>
       </c>
       <c r="C194">
-        <v>-4.46</v>
+        <v>0.43</v>
       </c>
       <c r="D194">
         <v>-3.82</v>
@@ -3191,10 +3195,10 @@
         <v>136.47999999999999</v>
       </c>
       <c r="B195">
-        <v>-4.41</v>
+        <v>2.48</v>
       </c>
       <c r="C195">
-        <v>-4.46</v>
+        <v>0.39</v>
       </c>
       <c r="D195">
         <v>-3.83</v>
@@ -3205,10 +3209,10 @@
         <v>137.84</v>
       </c>
       <c r="B196">
-        <v>-4.42</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C196">
-        <v>-4.46</v>
+        <v>0.34</v>
       </c>
       <c r="D196">
         <v>-3.85</v>
@@ -3219,10 +3223,10 @@
         <v>139.22</v>
       </c>
       <c r="B197">
-        <v>-4.4400000000000004</v>
+        <v>2.39</v>
       </c>
       <c r="C197">
-        <v>-4.46</v>
+        <v>0.3</v>
       </c>
       <c r="D197">
         <v>-3.86</v>
@@ -3233,10 +3237,10 @@
         <v>140.61000000000001</v>
       </c>
       <c r="B198">
-        <v>-4.45</v>
+        <v>2.35</v>
       </c>
       <c r="C198">
-        <v>-4.46</v>
+        <v>0.26</v>
       </c>
       <c r="D198">
         <v>-3.87</v>
@@ -3247,10 +3251,10 @@
         <v>142.02000000000001</v>
       </c>
       <c r="B199">
-        <v>-4.46</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C199">
-        <v>-4.46</v>
+        <v>0.23</v>
       </c>
       <c r="D199">
         <v>-3.88</v>
@@ -3261,10 +3265,10 @@
         <v>143.44</v>
       </c>
       <c r="B200">
-        <v>-4.47</v>
+        <v>2.29</v>
       </c>
       <c r="C200">
-        <v>-4.45</v>
+        <v>0.19</v>
       </c>
       <c r="D200">
         <v>-3.89</v>
@@ -3275,10 +3279,10 @@
         <v>144.87</v>
       </c>
       <c r="B201">
-        <v>-4.49</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C201">
-        <v>-4.45</v>
+        <v>0.15</v>
       </c>
       <c r="D201">
         <v>-3.9</v>
@@ -3289,10 +3293,10 @@
         <v>146.32</v>
       </c>
       <c r="B202">
-        <v>-4.5</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C202">
-        <v>-4.45</v>
+        <v>0.11</v>
       </c>
       <c r="D202">
         <v>-3.9</v>
@@ -3303,10 +3307,10 @@
         <v>147.78</v>
       </c>
       <c r="B203">
-        <v>-4.51</v>
+        <v>2.17</v>
       </c>
       <c r="C203">
-        <v>-4.4400000000000004</v>
+        <v>0.08</v>
       </c>
       <c r="D203">
         <v>-3.91</v>
@@ -3317,10 +3321,10 @@
         <v>149.26</v>
       </c>
       <c r="B204">
-        <v>-4.5199999999999996</v>
+        <v>2.12</v>
       </c>
       <c r="C204">
-        <v>-4.43</v>
+        <v>0.04</v>
       </c>
       <c r="D204">
         <v>-3.91</v>
@@ -3331,10 +3335,10 @@
         <v>150.75</v>
       </c>
       <c r="B205">
-        <v>-4.53</v>
+        <v>2.08</v>
       </c>
       <c r="C205">
-        <v>-4.42</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <v>-3.92</v>
@@ -3345,10 +3349,10 @@
         <v>152.26</v>
       </c>
       <c r="B206">
-        <v>-4.53</v>
+        <v>2.04</v>
       </c>
       <c r="C206">
-        <v>-4.4000000000000004</v>
+        <v>-0.04</v>
       </c>
       <c r="D206">
         <v>-3.92</v>
@@ -3359,10 +3363,10 @@
         <v>153.78</v>
       </c>
       <c r="B207">
-        <v>-4.53</v>
+        <v>2.02</v>
       </c>
       <c r="C207">
-        <v>-4.3899999999999997</v>
+        <v>-0.08</v>
       </c>
       <c r="D207">
         <v>-3.92</v>
@@ -3373,10 +3377,10 @@
         <v>155.32</v>
       </c>
       <c r="B208">
-        <v>-4.5199999999999996</v>
+        <v>1.99</v>
       </c>
       <c r="C208">
-        <v>-4.37</v>
+        <v>-0.12</v>
       </c>
       <c r="D208">
         <v>-3.92</v>
@@ -3387,10 +3391,10 @@
         <v>156.88</v>
       </c>
       <c r="B209">
-        <v>-4.51</v>
+        <v>1.95</v>
       </c>
       <c r="C209">
-        <v>-4.3499999999999996</v>
+        <v>-0.16</v>
       </c>
       <c r="D209">
         <v>-3.91</v>
@@ -3401,10 +3405,10 @@
         <v>158.44</v>
       </c>
       <c r="B210">
-        <v>-4.5</v>
+        <v>1.9</v>
       </c>
       <c r="C210">
-        <v>-4.33</v>
+        <v>-0.2</v>
       </c>
       <c r="D210">
         <v>-3.91</v>
@@ -3415,10 +3419,10 @@
         <v>160.03</v>
       </c>
       <c r="B211">
-        <v>-4.4800000000000004</v>
+        <v>1.85</v>
       </c>
       <c r="C211">
-        <v>-4.3099999999999996</v>
+        <v>-0.24</v>
       </c>
       <c r="D211">
         <v>-3.9</v>
@@ -3429,10 +3433,10 @@
         <v>161.63</v>
       </c>
       <c r="B212">
-        <v>-4.47</v>
+        <v>1.8</v>
       </c>
       <c r="C212">
-        <v>-4.29</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D212">
         <v>-3.89</v>
@@ -3443,10 +3447,10 @@
         <v>163.24</v>
       </c>
       <c r="B213">
-        <v>-4.45</v>
+        <v>1.77</v>
       </c>
       <c r="C213">
-        <v>-4.2699999999999996</v>
+        <v>-0.32</v>
       </c>
       <c r="D213">
         <v>-3.89</v>
@@ -3457,10 +3461,10 @@
         <v>164.88</v>
       </c>
       <c r="B214">
-        <v>-4.43</v>
+        <v>1.73</v>
       </c>
       <c r="C214">
-        <v>-4.24</v>
+        <v>-0.35</v>
       </c>
       <c r="D214">
         <v>-3.88</v>
@@ -3471,10 +3475,10 @@
         <v>166.53</v>
       </c>
       <c r="B215">
-        <v>-4.41</v>
+        <v>1.7</v>
       </c>
       <c r="C215">
-        <v>-4.22</v>
+        <v>-0.39</v>
       </c>
       <c r="D215">
         <v>-3.86</v>
@@ -3485,10 +3489,10 @@
         <v>168.19</v>
       </c>
       <c r="B216">
-        <v>-4.3899999999999997</v>
+        <v>1.66</v>
       </c>
       <c r="C216">
-        <v>-4.2</v>
+        <v>-0.43</v>
       </c>
       <c r="D216">
         <v>-3.85</v>
@@ -3499,10 +3503,10 @@
         <v>169.87</v>
       </c>
       <c r="B217">
-        <v>-4.37</v>
+        <v>1.63</v>
       </c>
       <c r="C217">
-        <v>-4.17</v>
+        <v>-0.47</v>
       </c>
       <c r="D217">
         <v>-3.83</v>
@@ -3513,10 +3517,10 @@
         <v>171.57</v>
       </c>
       <c r="B218">
-        <v>-4.3499999999999996</v>
+        <v>1.59</v>
       </c>
       <c r="C218">
-        <v>-4.1500000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="D218">
         <v>-3.82</v>
@@ -3527,10 +3531,10 @@
         <v>173.29</v>
       </c>
       <c r="B219">
-        <v>-4.33</v>
+        <v>1.56</v>
       </c>
       <c r="C219">
-        <v>-4.12</v>
+        <v>-0.54</v>
       </c>
       <c r="D219">
         <v>-3.8</v>
@@ -3541,10 +3545,10 @@
         <v>175.02</v>
       </c>
       <c r="B220">
-        <v>-4.3099999999999996</v>
+        <v>1.53</v>
       </c>
       <c r="C220">
-        <v>-4.09</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D220">
         <v>-3.78</v>
@@ -3555,10 +3559,10 @@
         <v>176.77</v>
       </c>
       <c r="B221">
-        <v>-4.29</v>
+        <v>1.49</v>
       </c>
       <c r="C221">
-        <v>-4.0599999999999996</v>
+        <v>-0.62</v>
       </c>
       <c r="D221">
         <v>-3.76</v>
@@ -3569,10 +3573,10 @@
         <v>178.54</v>
       </c>
       <c r="B222">
-        <v>-4.2699999999999996</v>
+        <v>1.44</v>
       </c>
       <c r="C222">
-        <v>-4.03</v>
+        <v>-0.66</v>
       </c>
       <c r="D222">
         <v>-3.74</v>
@@ -3583,10 +3587,10 @@
         <v>180.32</v>
       </c>
       <c r="B223">
-        <v>-4.25</v>
+        <v>1.4</v>
       </c>
       <c r="C223">
-        <v>-4</v>
+        <v>-0.69</v>
       </c>
       <c r="D223">
         <v>-3.71</v>
@@ -3597,10 +3601,10 @@
         <v>182.13</v>
       </c>
       <c r="B224">
-        <v>-4.22</v>
+        <v>1.35</v>
       </c>
       <c r="C224">
-        <v>-3.96</v>
+        <v>-0.73</v>
       </c>
       <c r="D224">
         <v>-3.69</v>
@@ -3611,10 +3615,10 @@
         <v>183.95</v>
       </c>
       <c r="B225">
-        <v>-4.2</v>
+        <v>1.31</v>
       </c>
       <c r="C225">
-        <v>-3.93</v>
+        <v>-0.76</v>
       </c>
       <c r="D225">
         <v>-3.66</v>
@@ -3625,10 +3629,10 @@
         <v>185.79</v>
       </c>
       <c r="B226">
-        <v>-4.17</v>
+        <v>1.27</v>
       </c>
       <c r="C226">
-        <v>-3.89</v>
+        <v>-0.8</v>
       </c>
       <c r="D226">
         <v>-3.64</v>
@@ -3639,10 +3643,10 @@
         <v>187.65</v>
       </c>
       <c r="B227">
-        <v>-4.1399999999999997</v>
+        <v>1.23</v>
       </c>
       <c r="C227">
-        <v>-3.85</v>
+        <v>-0.84</v>
       </c>
       <c r="D227">
         <v>-3.61</v>
@@ -3653,10 +3657,10 @@
         <v>189.52</v>
       </c>
       <c r="B228">
-        <v>-4.1100000000000003</v>
+        <v>1.21</v>
       </c>
       <c r="C228">
-        <v>-3.81</v>
+        <v>-0.88</v>
       </c>
       <c r="D228">
         <v>-3.58</v>
@@ -3667,10 +3671,10 @@
         <v>191.42</v>
       </c>
       <c r="B229">
-        <v>-4.09</v>
+        <v>1.18</v>
       </c>
       <c r="C229">
-        <v>-3.77</v>
+        <v>-0.91</v>
       </c>
       <c r="D229">
         <v>-3.55</v>
@@ -3681,10 +3685,10 @@
         <v>193.33</v>
       </c>
       <c r="B230">
-        <v>-4.0599999999999996</v>
+        <v>1.17</v>
       </c>
       <c r="C230">
-        <v>-3.72</v>
+        <v>-0.93</v>
       </c>
       <c r="D230">
         <v>-3.52</v>
@@ -3695,10 +3699,10 @@
         <v>195.27</v>
       </c>
       <c r="B231">
-        <v>-4.04</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C231">
-        <v>-3.67</v>
+        <v>-0.96</v>
       </c>
       <c r="D231">
         <v>-3.48</v>
@@ -3709,10 +3713,10 @@
         <v>197.22</v>
       </c>
       <c r="B232">
-        <v>-4.01</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C232">
-        <v>-3.62</v>
+        <v>-0.98</v>
       </c>
       <c r="D232">
         <v>-3.44</v>
@@ -3723,10 +3727,10 @@
         <v>199.19</v>
       </c>
       <c r="B233">
-        <v>-3.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C233">
-        <v>-3.57</v>
+        <v>-1.01</v>
       </c>
       <c r="D233">
         <v>-3.4</v>
@@ -3737,10 +3741,10 @@
         <v>201.18</v>
       </c>
       <c r="B234">
-        <v>-3.96</v>
+        <v>1.06</v>
       </c>
       <c r="C234">
-        <v>-3.53</v>
+        <v>-1.04</v>
       </c>
       <c r="D234">
         <v>-3.36</v>
@@ -3751,10 +3755,10 @@
         <v>203.19</v>
       </c>
       <c r="B235">
-        <v>-3.92</v>
+        <v>1.01</v>
       </c>
       <c r="C235">
-        <v>-3.48</v>
+        <v>-1.07</v>
       </c>
       <c r="D235">
         <v>-3.32</v>
@@ -3765,10 +3769,10 @@
         <v>205.23</v>
       </c>
       <c r="B236">
-        <v>-3.88</v>
+        <v>0.98</v>
       </c>
       <c r="C236">
-        <v>-3.44</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="D236">
         <v>-3.28</v>
@@ -3779,10 +3783,10 @@
         <v>207.28</v>
       </c>
       <c r="B237">
-        <v>-3.83</v>
+        <v>0.96</v>
       </c>
       <c r="C237">
-        <v>-3.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D237">
         <v>-3.24</v>
@@ -3793,10 +3797,10 @@
         <v>209.35</v>
       </c>
       <c r="B238">
-        <v>-3.78</v>
+        <v>0.97</v>
       </c>
       <c r="C238">
-        <v>-3.37</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="D238">
         <v>-3.21</v>
@@ -3807,10 +3811,10 @@
         <v>211.44</v>
       </c>
       <c r="B239">
-        <v>-3.73</v>
+        <v>0.97</v>
       </c>
       <c r="C239">
-        <v>-3.33</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D239">
         <v>-3.17</v>
@@ -3821,10 +3825,10 @@
         <v>213.56</v>
       </c>
       <c r="B240">
-        <v>-3.67</v>
+        <v>0.96</v>
       </c>
       <c r="C240">
-        <v>-3.3</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="D240">
         <v>-3.14</v>
@@ -3835,10 +3839,10 @@
         <v>215.69</v>
       </c>
       <c r="B241">
-        <v>-3.62</v>
+        <v>0.95</v>
       </c>
       <c r="C241">
-        <v>-3.27</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="D241">
         <v>-3.11</v>
@@ -3849,10 +3853,10 @@
         <v>217.85</v>
       </c>
       <c r="B242">
-        <v>-3.57</v>
+        <v>0.94</v>
       </c>
       <c r="C242">
-        <v>-3.24</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D242">
         <v>-3.08</v>
@@ -3863,10 +3867,10 @@
         <v>220.03</v>
       </c>
       <c r="B243">
-        <v>-3.52</v>
+        <v>0.93</v>
       </c>
       <c r="C243">
-        <v>-3.2</v>
+        <v>-1.17</v>
       </c>
       <c r="D243">
         <v>-3.06</v>
@@ -3877,10 +3881,10 @@
         <v>222.23</v>
       </c>
       <c r="B244">
-        <v>-3.47</v>
+        <v>0.94</v>
       </c>
       <c r="C244">
-        <v>-3.17</v>
+        <v>-1.17</v>
       </c>
       <c r="D244">
         <v>-3.03</v>
@@ -3891,10 +3895,10 @@
         <v>224.45</v>
       </c>
       <c r="B245">
-        <v>-3.43</v>
+        <v>0.93</v>
       </c>
       <c r="C245">
-        <v>-3.12</v>
+        <v>-1.17</v>
       </c>
       <c r="D245">
         <v>-3</v>
@@ -3905,10 +3909,10 @@
         <v>226.7</v>
       </c>
       <c r="B246">
-        <v>-3.39</v>
+        <v>0.92</v>
       </c>
       <c r="C246">
-        <v>-3.08</v>
+        <v>-1.17</v>
       </c>
       <c r="D246">
         <v>-2.96</v>
@@ -3919,10 +3923,10 @@
         <v>228.96</v>
       </c>
       <c r="B247">
-        <v>-3.35</v>
+        <v>0.91</v>
       </c>
       <c r="C247">
-        <v>-3.04</v>
+        <v>-1.17</v>
       </c>
       <c r="D247">
         <v>-2.93</v>
@@ -3933,10 +3937,10 @@
         <v>231.25</v>
       </c>
       <c r="B248">
-        <v>-3.31</v>
+        <v>0.91</v>
       </c>
       <c r="C248">
-        <v>-2.99</v>
+        <v>-1.17</v>
       </c>
       <c r="D248">
         <v>-2.9</v>
@@ -3947,10 +3951,10 @@
         <v>233.57</v>
       </c>
       <c r="B249">
-        <v>-3.27</v>
+        <v>0.92</v>
       </c>
       <c r="C249">
-        <v>-2.94</v>
+        <v>-1.17</v>
       </c>
       <c r="D249">
         <v>-2.86</v>
@@ -3961,10 +3965,10 @@
         <v>235.9</v>
       </c>
       <c r="B250">
-        <v>-3.23</v>
+        <v>0.93</v>
       </c>
       <c r="C250">
-        <v>-2.9</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D250">
         <v>-2.82</v>
@@ -3975,10 +3979,10 @@
         <v>238.26</v>
       </c>
       <c r="B251">
-        <v>-3.18</v>
+        <v>0.94</v>
       </c>
       <c r="C251">
-        <v>-2.85</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D251">
         <v>-2.79</v>
@@ -3989,10 +3993,10 @@
         <v>240.64</v>
       </c>
       <c r="B252">
-        <v>-3.13</v>
+        <v>0.94</v>
       </c>
       <c r="C252">
-        <v>-2.8</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="D252">
         <v>-2.75</v>
@@ -4003,10 +4007,10 @@
         <v>243.05</v>
       </c>
       <c r="B253">
-        <v>-3.08</v>
+        <v>0.94</v>
       </c>
       <c r="C253">
-        <v>-2.75</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="D253">
         <v>-2.71</v>
@@ -4017,10 +4021,10 @@
         <v>245.48</v>
       </c>
       <c r="B254">
-        <v>-3.03</v>
+        <v>0.95</v>
       </c>
       <c r="C254">
-        <v>-2.71</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D254">
         <v>-2.66</v>
@@ -4031,10 +4035,10 @@
         <v>247.93</v>
       </c>
       <c r="B255">
-        <v>-2.98</v>
+        <v>0.97</v>
       </c>
       <c r="C255">
-        <v>-2.66</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="D255">
         <v>-2.62</v>
@@ -4045,10 +4049,10 @@
         <v>250.41</v>
       </c>
       <c r="B256">
-        <v>-2.93</v>
+        <v>0.99</v>
       </c>
       <c r="C256">
-        <v>-2.61</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D256">
         <v>-2.57</v>
@@ -4059,10 +4063,10 @@
         <v>252.92</v>
       </c>
       <c r="B257">
-        <v>-2.87</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>-2.56</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="D257">
         <v>-2.5099999999999998</v>
@@ -4073,10 +4077,10 @@
         <v>255.45</v>
       </c>
       <c r="B258">
-        <v>-2.82</v>
+        <v>1.02</v>
       </c>
       <c r="C258">
-        <v>-2.5099999999999998</v>
+        <v>-1.08</v>
       </c>
       <c r="D258">
         <v>-2.46</v>
@@ -4087,10 +4091,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>-2.76</v>
+        <v>1.04</v>
       </c>
       <c r="C259">
-        <v>-2.4500000000000002</v>
+        <v>-1.06</v>
       </c>
       <c r="D259">
         <v>-2.4</v>
@@ -4101,10 +4105,10 @@
         <v>260.58</v>
       </c>
       <c r="B260">
-        <v>-2.71</v>
+        <v>1.06</v>
       </c>
       <c r="C260">
-        <v>-2.4</v>
+        <v>-1.05</v>
       </c>
       <c r="D260">
         <v>-2.35</v>
@@ -4115,10 +4119,10 @@
         <v>263.19</v>
       </c>
       <c r="B261">
-        <v>-2.65</v>
+        <v>1.07</v>
       </c>
       <c r="C261">
-        <v>-2.35</v>
+        <v>-1.03</v>
       </c>
       <c r="D261">
         <v>-2.29</v>
@@ -4129,10 +4133,10 @@
         <v>265.82</v>
       </c>
       <c r="B262">
-        <v>-2.6</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C262">
-        <v>-2.29</v>
+        <v>-1.01</v>
       </c>
       <c r="D262">
         <v>-2.2400000000000002</v>
@@ -4143,10 +4147,10 @@
         <v>268.48</v>
       </c>
       <c r="B263">
-        <v>-2.54</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C263">
-        <v>-2.2400000000000002</v>
+        <v>-0.99</v>
       </c>
       <c r="D263">
         <v>-2.2000000000000002</v>
@@ -4157,10 +4161,10 @@
         <v>271.16000000000003</v>
       </c>
       <c r="B264">
-        <v>-2.4900000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C264">
-        <v>-2.19</v>
+        <v>-0.96</v>
       </c>
       <c r="D264">
         <v>-2.15</v>
@@ -4171,10 +4175,10 @@
         <v>273.87</v>
       </c>
       <c r="B265">
-        <v>-2.4300000000000002</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C265">
-        <v>-2.13</v>
+        <v>-0.94</v>
       </c>
       <c r="D265">
         <v>-2.1</v>
@@ -4185,10 +4189,10 @@
         <v>276.61</v>
       </c>
       <c r="B266">
-        <v>-2.38</v>
+        <v>1.17</v>
       </c>
       <c r="C266">
-        <v>-2.08</v>
+        <v>-0.92</v>
       </c>
       <c r="D266">
         <v>-2.06</v>
@@ -4199,10 +4203,10 @@
         <v>279.38</v>
       </c>
       <c r="B267">
-        <v>-2.3199999999999998</v>
+        <v>1.19</v>
       </c>
       <c r="C267">
-        <v>-2.02</v>
+        <v>-0.9</v>
       </c>
       <c r="D267">
         <v>-2.0099999999999998</v>
@@ -4213,10 +4217,10 @@
         <v>282.17</v>
       </c>
       <c r="B268">
-        <v>-2.27</v>
+        <v>1.21</v>
       </c>
       <c r="C268">
-        <v>-1.96</v>
+        <v>-0.88</v>
       </c>
       <c r="D268">
         <v>-1.96</v>
@@ -4227,10 +4231,10 @@
         <v>284.99</v>
       </c>
       <c r="B269">
-        <v>-2.21</v>
+        <v>1.23</v>
       </c>
       <c r="C269">
-        <v>-1.9</v>
+        <v>-0.87</v>
       </c>
       <c r="D269">
         <v>-1.91</v>
@@ -4241,10 +4245,10 @@
         <v>287.83999999999997</v>
       </c>
       <c r="B270">
-        <v>-2.15</v>
+        <v>1.25</v>
       </c>
       <c r="C270">
-        <v>-1.83</v>
+        <v>-0.85</v>
       </c>
       <c r="D270">
         <v>-1.86</v>
@@ -4255,10 +4259,10 @@
         <v>290.72000000000003</v>
       </c>
       <c r="B271">
-        <v>-2.09</v>
+        <v>1.27</v>
       </c>
       <c r="C271">
-        <v>-1.76</v>
+        <v>-0.83</v>
       </c>
       <c r="D271">
         <v>-1.8</v>
@@ -4269,10 +4273,10 @@
         <v>293.63</v>
       </c>
       <c r="B272">
-        <v>-2.0299999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="C272">
-        <v>-1.7</v>
+        <v>-0.81</v>
       </c>
       <c r="D272">
         <v>-1.74</v>
@@ -4283,10 +4287,10 @@
         <v>296.57</v>
       </c>
       <c r="B273">
-        <v>-1.97</v>
+        <v>1.31</v>
       </c>
       <c r="C273">
-        <v>-1.63</v>
+        <v>-0.79</v>
       </c>
       <c r="D273">
         <v>-1.68</v>
@@ -4297,10 +4301,10 @@
         <v>299.52999999999997</v>
       </c>
       <c r="B274">
-        <v>-1.9</v>
+        <v>1.33</v>
       </c>
       <c r="C274">
-        <v>-1.56</v>
+        <v>-0.77</v>
       </c>
       <c r="D274">
         <v>-1.62</v>
@@ -4311,10 +4315,10 @@
         <v>302.52999999999997</v>
       </c>
       <c r="B275">
-        <v>-1.84</v>
+        <v>1.35</v>
       </c>
       <c r="C275">
-        <v>-1.49</v>
+        <v>-0.75</v>
       </c>
       <c r="D275">
         <v>-1.56</v>
@@ -4325,10 +4329,10 @@
         <v>305.55</v>
       </c>
       <c r="B276">
-        <v>-1.77</v>
+        <v>1.38</v>
       </c>
       <c r="C276">
-        <v>-1.43</v>
+        <v>-0.72</v>
       </c>
       <c r="D276">
         <v>-1.5</v>
@@ -4339,10 +4343,10 @@
         <v>308.61</v>
       </c>
       <c r="B277">
-        <v>-1.7</v>
+        <v>1.4</v>
       </c>
       <c r="C277">
-        <v>-1.36</v>
+        <v>-0.69</v>
       </c>
       <c r="D277">
         <v>-1.44</v>
@@ -4353,10 +4357,10 @@
         <v>311.69</v>
       </c>
       <c r="B278">
-        <v>-1.63</v>
+        <v>1.42</v>
       </c>
       <c r="C278">
-        <v>-1.3</v>
+        <v>-0.66</v>
       </c>
       <c r="D278">
         <v>-1.38</v>
@@ -4367,10 +4371,10 @@
         <v>314.81</v>
       </c>
       <c r="B279">
-        <v>-1.56</v>
+        <v>1.44</v>
       </c>
       <c r="C279">
-        <v>-1.24</v>
+        <v>-0.64</v>
       </c>
       <c r="D279">
         <v>-1.33</v>
@@ -4381,10 +4385,10 @@
         <v>317.95999999999998</v>
       </c>
       <c r="B280">
-        <v>-1.49</v>
+        <v>1.46</v>
       </c>
       <c r="C280">
-        <v>-1.18</v>
+        <v>-0.62</v>
       </c>
       <c r="D280">
         <v>-1.27</v>
@@ -4395,10 +4399,10 @@
         <v>321.14</v>
       </c>
       <c r="B281">
-        <v>-1.42</v>
+        <v>1.49</v>
       </c>
       <c r="C281">
-        <v>-1.1299999999999999</v>
+        <v>-0.61</v>
       </c>
       <c r="D281">
         <v>-1.21</v>
@@ -4409,10 +4413,10 @@
         <v>324.35000000000002</v>
       </c>
       <c r="B282">
-        <v>-1.34</v>
+        <v>1.51</v>
       </c>
       <c r="C282">
-        <v>-1.07</v>
+        <v>-0.59</v>
       </c>
       <c r="D282">
         <v>-1.1499999999999999</v>
@@ -4423,10 +4427,10 @@
         <v>327.58999999999997</v>
       </c>
       <c r="B283">
-        <v>-1.27</v>
+        <v>1.53</v>
       </c>
       <c r="C283">
-        <v>-1.01</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D283">
         <v>-1.0900000000000001</v>
@@ -4437,10 +4441,10 @@
         <v>330.87</v>
       </c>
       <c r="B284">
-        <v>-1.2</v>
+        <v>1.56</v>
       </c>
       <c r="C284">
-        <v>-0.95</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D284">
         <v>-1.03</v>
@@ -4451,10 +4455,10 @@
         <v>334.18</v>
       </c>
       <c r="B285">
-        <v>-1.1200000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="C285">
-        <v>-0.89</v>
+        <v>-0.52</v>
       </c>
       <c r="D285">
         <v>-0.97</v>
@@ -4465,10 +4469,10 @@
         <v>337.52</v>
       </c>
       <c r="B286">
-        <v>-1.05</v>
+        <v>1.6</v>
       </c>
       <c r="C286">
-        <v>-0.83</v>
+        <v>-0.5</v>
       </c>
       <c r="D286">
         <v>-0.91</v>
@@ -4479,10 +4483,10 @@
         <v>340.9</v>
       </c>
       <c r="B287">
-        <v>-0.98</v>
+        <v>1.61</v>
       </c>
       <c r="C287">
-        <v>-0.77</v>
+        <v>-0.48</v>
       </c>
       <c r="D287">
         <v>-0.84</v>
@@ -4493,10 +4497,10 @@
         <v>344.3</v>
       </c>
       <c r="B288">
-        <v>-0.9</v>
+        <v>1.63</v>
       </c>
       <c r="C288">
-        <v>-0.72</v>
+        <v>-0.46</v>
       </c>
       <c r="D288">
         <v>-0.77</v>
@@ -4507,10 +4511,10 @@
         <v>347.75</v>
       </c>
       <c r="B289">
-        <v>-0.83</v>
+        <v>1.64</v>
       </c>
       <c r="C289">
-        <v>-0.66</v>
+        <v>-0.45</v>
       </c>
       <c r="D289">
         <v>-0.71</v>
@@ -4521,10 +4525,10 @@
         <v>351.23</v>
       </c>
       <c r="B290">
-        <v>-0.75</v>
+        <v>1.66</v>
       </c>
       <c r="C290">
-        <v>-0.6</v>
+        <v>-0.43</v>
       </c>
       <c r="D290">
         <v>-0.64</v>
@@ -4535,10 +4539,10 @@
         <v>354.74</v>
       </c>
       <c r="B291">
-        <v>-0.68</v>
+        <v>1.68</v>
       </c>
       <c r="C291">
-        <v>-0.54</v>
+        <v>-0.41</v>
       </c>
       <c r="D291">
         <v>-0.56999999999999995</v>
@@ -4549,10 +4553,10 @@
         <v>358.28</v>
       </c>
       <c r="B292">
-        <v>-0.6</v>
+        <v>1.71</v>
       </c>
       <c r="C292">
-        <v>-0.48</v>
+        <v>-0.39</v>
       </c>
       <c r="D292">
         <v>-0.5</v>
@@ -4563,10 +4567,10 @@
         <v>361.87</v>
       </c>
       <c r="B293">
-        <v>-0.53</v>
+        <v>1.73</v>
       </c>
       <c r="C293">
-        <v>-0.42</v>
+        <v>-0.37</v>
       </c>
       <c r="D293">
         <v>-0.44</v>
@@ -4577,10 +4581,10 @@
         <v>365.49</v>
       </c>
       <c r="B294">
-        <v>-0.45</v>
+        <v>1.75</v>
       </c>
       <c r="C294">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="D294">
         <v>-0.38</v>
@@ -4591,10 +4595,10 @@
         <v>369.14</v>
       </c>
       <c r="B295">
-        <v>-0.37</v>
+        <v>1.76</v>
       </c>
       <c r="C295">
-        <v>-0.28999999999999998</v>
+        <v>-0.34</v>
       </c>
       <c r="D295">
         <v>-0.31</v>
@@ -4605,10 +4609,10 @@
         <v>372.83</v>
       </c>
       <c r="B296">
-        <v>-0.28999999999999998</v>
+        <v>1.76</v>
       </c>
       <c r="C296">
-        <v>-0.23</v>
+        <v>-0.32</v>
       </c>
       <c r="D296">
         <v>-0.25</v>
@@ -4619,10 +4623,10 @@
         <v>376.56</v>
       </c>
       <c r="B297">
-        <v>-0.21</v>
+        <v>1.77</v>
       </c>
       <c r="C297">
-        <v>-0.16</v>
+        <v>-0.31</v>
       </c>
       <c r="D297">
         <v>-0.2</v>
@@ -4633,10 +4637,10 @@
         <v>380.33</v>
       </c>
       <c r="B298">
-        <v>-0.12</v>
+        <v>1.78</v>
       </c>
       <c r="C298">
-        <v>-0.09</v>
+        <v>-0.3</v>
       </c>
       <c r="D298">
         <v>-0.14000000000000001</v>
@@ -4647,10 +4651,10 @@
         <v>384.13</v>
       </c>
       <c r="B299">
-        <v>-0.04</v>
+        <v>1.8</v>
       </c>
       <c r="C299">
-        <v>-0.02</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D299">
         <v>-0.08</v>
@@ -4661,10 +4665,10 @@
         <v>387.97</v>
       </c>
       <c r="B300">
-        <v>0.03</v>
+        <v>1.82</v>
       </c>
       <c r="C300">
-        <v>0.04</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D300">
         <v>-0.02</v>
@@ -4675,10 +4679,10 @@
         <v>391.85</v>
       </c>
       <c r="B301">
-        <v>0.11</v>
+        <v>1.84</v>
       </c>
       <c r="C301">
-        <v>0.11</v>
+        <v>-0.27</v>
       </c>
       <c r="D301">
         <v>0.04</v>
@@ -4689,10 +4693,10 @@
         <v>395.77</v>
       </c>
       <c r="B302">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="C302">
-        <v>0.18</v>
+        <v>-0.25</v>
       </c>
       <c r="D302">
         <v>0.1</v>
@@ -4703,10 +4707,10 @@
         <v>399.73</v>
       </c>
       <c r="B303">
-        <v>0.25</v>
+        <v>1.86</v>
       </c>
       <c r="C303">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="D303">
         <v>0.17</v>
@@ -4717,10 +4721,10 @@
         <v>403.72</v>
       </c>
       <c r="B304">
-        <v>0.32</v>
+        <v>1.87</v>
       </c>
       <c r="C304">
-        <v>0.31</v>
+        <v>-0.23</v>
       </c>
       <c r="D304">
         <v>0.23</v>
@@ -4731,10 +4735,10 @@
         <v>407.76</v>
       </c>
       <c r="B305">
-        <v>0.39</v>
+        <v>1.88</v>
       </c>
       <c r="C305">
-        <v>0.38</v>
+        <v>-0.22</v>
       </c>
       <c r="D305">
         <v>0.3</v>
@@ -4745,10 +4749,10 @@
         <v>411.84</v>
       </c>
       <c r="B306">
-        <v>0.45</v>
+        <v>1.89</v>
       </c>
       <c r="C306">
-        <v>0.45</v>
+        <v>-0.2</v>
       </c>
       <c r="D306">
         <v>0.36</v>
@@ -4759,10 +4763,10 @@
         <v>415.96</v>
       </c>
       <c r="B307">
-        <v>0.51</v>
+        <v>1.89</v>
       </c>
       <c r="C307">
-        <v>0.51</v>
+        <v>-0.19</v>
       </c>
       <c r="D307">
         <v>0.43</v>
@@ -4773,10 +4777,10 @@
         <v>420.12</v>
       </c>
       <c r="B308">
-        <v>0.57999999999999996</v>
+        <v>1.89</v>
       </c>
       <c r="C308">
-        <v>0.57999999999999996</v>
+        <v>-0.18</v>
       </c>
       <c r="D308">
         <v>0.49</v>
@@ -4787,10 +4791,10 @@
         <v>424.32</v>
       </c>
       <c r="B309">
-        <v>0.64</v>
+        <v>1.91</v>
       </c>
       <c r="C309">
-        <v>0.65</v>
+        <v>-0.17</v>
       </c>
       <c r="D309">
         <v>0.56000000000000005</v>
@@ -4801,10 +4805,10 @@
         <v>428.56</v>
       </c>
       <c r="B310">
-        <v>0.7</v>
+        <v>1.93</v>
       </c>
       <c r="C310">
-        <v>0.71</v>
+        <v>-0.17</v>
       </c>
       <c r="D310">
         <v>0.63</v>
@@ -4815,10 +4819,10 @@
         <v>432.85</v>
       </c>
       <c r="B311">
-        <v>0.77</v>
+        <v>1.95</v>
       </c>
       <c r="C311">
-        <v>0.78</v>
+        <v>-0.16</v>
       </c>
       <c r="D311">
         <v>0.69</v>
@@ -4829,10 +4833,10 @@
         <v>437.18</v>
       </c>
       <c r="B312">
-        <v>0.83</v>
+        <v>1.96</v>
       </c>
       <c r="C312">
-        <v>0.85</v>
+        <v>-0.15</v>
       </c>
       <c r="D312">
         <v>0.76</v>
@@ -4843,10 +4847,10 @@
         <v>441.55</v>
       </c>
       <c r="B313">
-        <v>0.9</v>
+        <v>1.96</v>
       </c>
       <c r="C313">
-        <v>0.91</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D313">
         <v>0.83</v>
@@ -4857,10 +4861,10 @@
         <v>445.96</v>
       </c>
       <c r="B314">
-        <v>0.96</v>
+        <v>1.97</v>
       </c>
       <c r="C314">
-        <v>0.98</v>
+        <v>-0.13</v>
       </c>
       <c r="D314">
         <v>0.89</v>
@@ -4871,10 +4875,10 @@
         <v>450.42</v>
       </c>
       <c r="B315">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="C315">
-        <v>1.04</v>
+        <v>-0.12</v>
       </c>
       <c r="D315">
         <v>0.96</v>
@@ -4885,10 +4889,10 @@
         <v>454.93</v>
       </c>
       <c r="B316">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="C316">
-        <v>1.1100000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="D316">
         <v>1.02</v>
@@ -4899,10 +4903,10 @@
         <v>459.48</v>
       </c>
       <c r="B317">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
       <c r="C317">
-        <v>1.18</v>
+        <v>-0.09</v>
       </c>
       <c r="D317">
         <v>1.0900000000000001</v>
@@ -4913,10 +4917,10 @@
         <v>464.07</v>
       </c>
       <c r="B318">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="C318">
-        <v>1.24</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D318">
         <v>1.1499999999999999</v>
@@ -4927,10 +4931,10 @@
         <v>468.71</v>
       </c>
       <c r="B319">
-        <v>1.31</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C319">
-        <v>1.31</v>
+        <v>-0.05</v>
       </c>
       <c r="D319">
         <v>1.22</v>
@@ -4941,10 +4945,10 @@
         <v>473.4</v>
       </c>
       <c r="B320">
-        <v>1.38</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C320">
-        <v>1.37</v>
+        <v>-0.03</v>
       </c>
       <c r="D320">
         <v>1.29</v>
@@ -4955,10 +4959,10 @@
         <v>478.13</v>
       </c>
       <c r="B321">
-        <v>1.45</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C321">
-        <v>1.44</v>
+        <v>-0.01</v>
       </c>
       <c r="D321">
         <v>1.35</v>
@@ -4969,10 +4973,10 @@
         <v>482.91</v>
       </c>
       <c r="B322">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="C322">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="D322">
         <v>1.42</v>
@@ -4983,10 +4987,10 @@
         <v>487.74</v>
       </c>
       <c r="B323">
-        <v>1.59</v>
+        <v>2.1</v>
       </c>
       <c r="C323">
-        <v>1.58</v>
+        <v>0.01</v>
       </c>
       <c r="D323">
         <v>1.49</v>
@@ -4997,10 +5001,10 @@
         <v>492.62</v>
       </c>
       <c r="B324">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="C324">
-        <v>1.64</v>
+        <v>0.02</v>
       </c>
       <c r="D324">
         <v>1.55</v>
@@ -5011,10 +5015,10 @@
         <v>497.55</v>
       </c>
       <c r="B325">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="C325">
-        <v>1.71</v>
+        <v>0.04</v>
       </c>
       <c r="D325">
         <v>1.62</v>
@@ -5025,10 +5029,10 @@
         <v>502.52</v>
       </c>
       <c r="B326">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="C326">
-        <v>1.78</v>
+        <v>0.05</v>
       </c>
       <c r="D326">
         <v>1.7</v>
@@ -5039,10 +5043,10 @@
         <v>507.55</v>
       </c>
       <c r="B327">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="C327">
-        <v>1.85</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D327">
         <v>1.76</v>
@@ -5053,10 +5057,10 @@
         <v>512.62</v>
       </c>
       <c r="B328">
-        <v>1.91</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C328">
-        <v>1.92</v>
+        <v>0.09</v>
       </c>
       <c r="D328">
         <v>1.83</v>
@@ -5067,10 +5071,10 @@
         <v>517.75</v>
       </c>
       <c r="B329">
-        <v>1.97</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C329">
-        <v>1.98</v>
+        <v>0.11</v>
       </c>
       <c r="D329">
         <v>1.9</v>
@@ -5081,10 +5085,10 @@
         <v>522.92999999999995</v>
       </c>
       <c r="B330">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="C330">
-        <v>2.0499999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="D330">
         <v>1.97</v>
@@ -5095,10 +5099,10 @@
         <v>528.16</v>
       </c>
       <c r="B331">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="C331">
-        <v>2.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D331">
         <v>2.0299999999999998</v>
@@ -5109,10 +5113,10 @@
         <v>533.44000000000005</v>
       </c>
       <c r="B332">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="C332">
-        <v>2.1800000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="D332">
         <v>2.09</v>
@@ -5123,10 +5127,10 @@
         <v>538.77</v>
       </c>
       <c r="B333">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="C333">
-        <v>2.2400000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="D333">
         <v>2.15</v>
@@ -5137,10 +5141,10 @@
         <v>544.16</v>
       </c>
       <c r="B334">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="C334">
-        <v>2.2999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="D334">
         <v>2.2200000000000002</v>
@@ -5151,10 +5155,10 @@
         <v>549.6</v>
       </c>
       <c r="B335">
-        <v>2.31</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C335">
-        <v>2.36</v>
+        <v>0.21</v>
       </c>
       <c r="D335">
         <v>2.2799999999999998</v>
@@ -5165,10 +5169,10 @@
         <v>555.1</v>
       </c>
       <c r="B336">
-        <v>2.37</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C336">
-        <v>2.4300000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="D336">
         <v>2.34</v>
@@ -5179,10 +5183,10 @@
         <v>560.65</v>
       </c>
       <c r="B337">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="C337">
-        <v>2.4900000000000002</v>
+        <v>0.24</v>
       </c>
       <c r="D337">
         <v>2.41</v>
@@ -5193,10 +5197,10 @@
         <v>566.25</v>
       </c>
       <c r="B338">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="C338">
-        <v>2.5499999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="D338">
         <v>2.4700000000000002</v>
@@ -5207,10 +5211,10 @@
         <v>571.91999999999996</v>
       </c>
       <c r="B339">
-        <v>2.56</v>
+        <v>2.37</v>
       </c>
       <c r="C339">
-        <v>2.61</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D339">
         <v>2.54</v>
@@ -5221,10 +5225,10 @@
         <v>577.64</v>
       </c>
       <c r="B340">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="C340">
-        <v>2.67</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D340">
         <v>2.61</v>
@@ -5235,10 +5239,10 @@
         <v>583.41</v>
       </c>
       <c r="B341">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="C341">
-        <v>2.72</v>
+        <v>0.31</v>
       </c>
       <c r="D341">
         <v>2.68</v>
@@ -5249,10 +5253,10 @@
         <v>589.25</v>
       </c>
       <c r="B342">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="C342">
-        <v>2.78</v>
+        <v>0.32</v>
       </c>
       <c r="D342">
         <v>2.74</v>
@@ -5263,10 +5267,10 @@
         <v>595.14</v>
       </c>
       <c r="B343">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="C343">
-        <v>2.84</v>
+        <v>0.33</v>
       </c>
       <c r="D343">
         <v>2.8</v>
@@ -5277,10 +5281,10 @@
         <v>601.09</v>
       </c>
       <c r="B344">
-        <v>2.89</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C344">
-        <v>2.89</v>
+        <v>0.35</v>
       </c>
       <c r="D344">
         <v>2.86</v>
@@ -5291,10 +5295,10 @@
         <v>607.1</v>
       </c>
       <c r="B345">
-        <v>2.96</v>
+        <v>2.46</v>
       </c>
       <c r="C345">
-        <v>2.95</v>
+        <v>0.36</v>
       </c>
       <c r="D345">
         <v>2.91</v>
@@ -5305,10 +5309,10 @@
         <v>613.16999999999996</v>
       </c>
       <c r="B346">
-        <v>3.02</v>
+        <v>2.48</v>
       </c>
       <c r="C346">
-        <v>3.01</v>
+        <v>0.38</v>
       </c>
       <c r="D346">
         <v>2.97</v>
@@ -5319,10 +5323,10 @@
         <v>619.29999999999995</v>
       </c>
       <c r="B347">
-        <v>3.09</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C347">
-        <v>3.06</v>
+        <v>0.4</v>
       </c>
       <c r="D347">
         <v>3.02</v>
@@ -5333,10 +5337,10 @@
         <v>625.5</v>
       </c>
       <c r="B348">
-        <v>3.15</v>
+        <v>2.52</v>
       </c>
       <c r="C348">
-        <v>3.12</v>
+        <v>0.43</v>
       </c>
       <c r="D348">
         <v>3.07</v>
@@ -5347,10 +5351,10 @@
         <v>631.75</v>
       </c>
       <c r="B349">
-        <v>3.22</v>
+        <v>2.54</v>
       </c>
       <c r="C349">
-        <v>3.18</v>
+        <v>0.45</v>
       </c>
       <c r="D349">
         <v>3.12</v>
@@ -5361,10 +5365,10 @@
         <v>638.07000000000005</v>
       </c>
       <c r="B350">
-        <v>3.29</v>
+        <v>2.56</v>
       </c>
       <c r="C350">
-        <v>3.24</v>
+        <v>0.46</v>
       </c>
       <c r="D350">
         <v>3.17</v>
@@ -5375,10 +5379,10 @@
         <v>644.45000000000005</v>
       </c>
       <c r="B351">
-        <v>3.36</v>
+        <v>2.57</v>
       </c>
       <c r="C351">
-        <v>3.31</v>
+        <v>0.47</v>
       </c>
       <c r="D351">
         <v>3.22</v>
@@ -5389,10 +5393,10 @@
         <v>650.89</v>
       </c>
       <c r="B352">
-        <v>3.42</v>
+        <v>2.58</v>
       </c>
       <c r="C352">
-        <v>3.36</v>
+        <v>0.48</v>
       </c>
       <c r="D352">
         <v>3.27</v>
@@ -5403,10 +5407,10 @@
         <v>657.4</v>
       </c>
       <c r="B353">
-        <v>3.49</v>
+        <v>2.59</v>
       </c>
       <c r="C353">
-        <v>3.42</v>
+        <v>0.49</v>
       </c>
       <c r="D353">
         <v>3.31</v>
@@ -5417,10 +5421,10 @@
         <v>663.98</v>
       </c>
       <c r="B354">
-        <v>3.55</v>
+        <v>2.61</v>
       </c>
       <c r="C354">
-        <v>3.47</v>
+        <v>0.51</v>
       </c>
       <c r="D354">
         <v>3.36</v>
@@ -5431,10 +5435,10 @@
         <v>670.62</v>
       </c>
       <c r="B355">
-        <v>3.61</v>
+        <v>2.62</v>
       </c>
       <c r="C355">
-        <v>3.52</v>
+        <v>0.53</v>
       </c>
       <c r="D355">
         <v>3.4</v>
@@ -5445,10 +5449,10 @@
         <v>677.32</v>
       </c>
       <c r="B356">
-        <v>3.67</v>
+        <v>2.63</v>
       </c>
       <c r="C356">
-        <v>3.56</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D356">
         <v>3.44</v>
@@ -5459,10 +5463,10 @@
         <v>684.1</v>
       </c>
       <c r="B357">
-        <v>3.73</v>
+        <v>2.64</v>
       </c>
       <c r="C357">
-        <v>3.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D357">
         <v>3.47</v>
@@ -5473,10 +5477,10 @@
         <v>690.94</v>
       </c>
       <c r="B358">
-        <v>3.78</v>
+        <v>2.65</v>
       </c>
       <c r="C358">
-        <v>3.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D358">
         <v>3.5</v>
@@ -5487,10 +5491,10 @@
         <v>697.85</v>
       </c>
       <c r="B359">
-        <v>3.82</v>
+        <v>2.66</v>
       </c>
       <c r="C359">
-        <v>3.65</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D359">
         <v>3.53</v>
@@ -5501,10 +5505,10 @@
         <v>704.83</v>
       </c>
       <c r="B360">
-        <v>3.87</v>
+        <v>2.68</v>
       </c>
       <c r="C360">
-        <v>3.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D360">
         <v>3.55</v>
@@ -5515,10 +5519,10 @@
         <v>711.87</v>
       </c>
       <c r="B361">
-        <v>3.91</v>
+        <v>2.69</v>
       </c>
       <c r="C361">
-        <v>3.7</v>
+        <v>0.59</v>
       </c>
       <c r="D361">
         <v>3.58</v>
@@ -5529,10 +5533,10 @@
         <v>718.99</v>
       </c>
       <c r="B362">
-        <v>3.95</v>
+        <v>2.71</v>
       </c>
       <c r="C362">
-        <v>3.72</v>
+        <v>0.6</v>
       </c>
       <c r="D362">
         <v>3.6</v>
@@ -5543,10 +5547,10 @@
         <v>726.18</v>
       </c>
       <c r="B363">
-        <v>3.98</v>
+        <v>2.72</v>
       </c>
       <c r="C363">
-        <v>3.73</v>
+        <v>0.62</v>
       </c>
       <c r="D363">
         <v>3.62</v>
@@ -5557,10 +5561,10 @@
         <v>733.44</v>
       </c>
       <c r="B364">
-        <v>4.01</v>
+        <v>2.73</v>
       </c>
       <c r="C364">
-        <v>3.74</v>
+        <v>0.63</v>
       </c>
       <c r="D364">
         <v>3.63</v>
@@ -5571,10 +5575,10 @@
         <v>740.78</v>
       </c>
       <c r="B365">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="C365">
-        <v>3.74</v>
+        <v>0.64</v>
       </c>
       <c r="D365">
         <v>3.64</v>
@@ -5585,10 +5589,10 @@
         <v>748.19</v>
       </c>
       <c r="B366">
-        <v>4.05</v>
+        <v>2.74</v>
       </c>
       <c r="C366">
-        <v>3.74</v>
+        <v>0.65</v>
       </c>
       <c r="D366">
         <v>3.64</v>
@@ -5599,10 +5603,10 @@
         <v>755.67</v>
       </c>
       <c r="B367">
-        <v>4.0599999999999996</v>
+        <v>2.74</v>
       </c>
       <c r="C367">
-        <v>3.73</v>
+        <v>0.66</v>
       </c>
       <c r="D367">
         <v>3.64</v>
@@ -5613,10 +5617,10 @@
         <v>763.23</v>
       </c>
       <c r="B368">
-        <v>4.0599999999999996</v>
+        <v>2.75</v>
       </c>
       <c r="C368">
-        <v>3.71</v>
+        <v>0.66</v>
       </c>
       <c r="D368">
         <v>3.62</v>
@@ -5627,10 +5631,10 @@
         <v>770.86</v>
       </c>
       <c r="B369">
-        <v>4.05</v>
+        <v>2.77</v>
       </c>
       <c r="C369">
-        <v>3.68</v>
+        <v>0.67</v>
       </c>
       <c r="D369">
         <v>3.6</v>
@@ -5641,10 +5645,10 @@
         <v>778.57</v>
       </c>
       <c r="B370">
-        <v>4.03</v>
+        <v>2.78</v>
       </c>
       <c r="C370">
-        <v>3.64</v>
+        <v>0.69</v>
       </c>
       <c r="D370">
         <v>3.56</v>
@@ -5655,10 +5659,10 @@
         <v>786.35</v>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>2.79</v>
       </c>
       <c r="C371">
-        <v>3.6</v>
+        <v>0.69</v>
       </c>
       <c r="D371">
         <v>3.51</v>
@@ -5669,10 +5673,10 @@
         <v>794.22</v>
       </c>
       <c r="B372">
-        <v>3.97</v>
+        <v>2.8</v>
       </c>
       <c r="C372">
-        <v>3.55</v>
+        <v>0.7</v>
       </c>
       <c r="D372">
         <v>3.45</v>
@@ -5683,10 +5687,10 @@
         <v>802.16</v>
       </c>
       <c r="B373">
-        <v>3.92</v>
+        <v>2.79</v>
       </c>
       <c r="C373">
-        <v>3.49</v>
+        <v>0.71</v>
       </c>
       <c r="D373">
         <v>3.38</v>
@@ -5697,10 +5701,10 @@
         <v>810.18</v>
       </c>
       <c r="B374">
-        <v>3.87</v>
+        <v>2.8</v>
       </c>
       <c r="C374">
-        <v>3.42</v>
+        <v>0.71</v>
       </c>
       <c r="D374">
         <v>3.3</v>
@@ -5711,10 +5715,10 @@
         <v>818.28</v>
       </c>
       <c r="B375">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
       <c r="C375">
-        <v>3.33</v>
+        <v>0.71</v>
       </c>
       <c r="D375">
         <v>3.21</v>
@@ -5725,10 +5729,10 @@
         <v>826.46</v>
       </c>
       <c r="B376">
-        <v>3.72</v>
+        <v>2.82</v>
       </c>
       <c r="C376">
-        <v>3.24</v>
+        <v>0.72</v>
       </c>
       <c r="D376">
         <v>3.11</v>
@@ -5739,10 +5743,10 @@
         <v>834.73</v>
       </c>
       <c r="B377">
-        <v>3.63</v>
+        <v>2.83</v>
       </c>
       <c r="C377">
-        <v>3.13</v>
+        <v>0.73</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -5753,10 +5757,10 @@
         <v>843.08</v>
       </c>
       <c r="B378">
-        <v>3.53</v>
+        <v>2.83</v>
       </c>
       <c r="C378">
-        <v>3.01</v>
+        <v>0.73</v>
       </c>
       <c r="D378">
         <v>2.88</v>
@@ -5767,10 +5771,10 @@
         <v>851.51</v>
       </c>
       <c r="B379">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="C379">
-        <v>2.88</v>
+        <v>0.74</v>
       </c>
       <c r="D379">
         <v>2.75</v>
@@ -5781,10 +5785,10 @@
         <v>860.02</v>
       </c>
       <c r="B380">
-        <v>3.29</v>
+        <v>2.84</v>
       </c>
       <c r="C380">
-        <v>2.73</v>
+        <v>0.75</v>
       </c>
       <c r="D380">
         <v>2.6</v>
@@ -5795,10 +5799,10 @@
         <v>868.62</v>
       </c>
       <c r="B381">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="C381">
-        <v>2.58</v>
+        <v>0.75</v>
       </c>
       <c r="D381">
         <v>2.44</v>
@@ -5809,10 +5813,10 @@
         <v>877.31</v>
       </c>
       <c r="B382">
-        <v>3.01</v>
+        <v>2.85</v>
       </c>
       <c r="C382">
-        <v>2.41</v>
+        <v>0.76</v>
       </c>
       <c r="D382">
         <v>2.2799999999999998</v>
@@ -5823,10 +5827,10 @@
         <v>886.08</v>
       </c>
       <c r="B383">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="C383">
-        <v>2.23</v>
+        <v>0.76</v>
       </c>
       <c r="D383">
         <v>2.1</v>
@@ -5837,10 +5841,10 @@
         <v>894.94</v>
       </c>
       <c r="B384">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="C384">
-        <v>2.04</v>
+        <v>0.77</v>
       </c>
       <c r="D384">
         <v>1.92</v>
@@ -5851,10 +5855,10 @@
         <v>903.89</v>
       </c>
       <c r="B385">
-        <v>2.5099999999999998</v>
+        <v>2.87</v>
       </c>
       <c r="C385">
-        <v>1.85</v>
+        <v>0.77</v>
       </c>
       <c r="D385">
         <v>1.73</v>
@@ -5865,10 +5869,10 @@
         <v>912.93</v>
       </c>
       <c r="B386">
-        <v>2.33</v>
+        <v>2.88</v>
       </c>
       <c r="C386">
-        <v>1.65</v>
+        <v>0.78</v>
       </c>
       <c r="D386">
         <v>1.53</v>
@@ -5879,10 +5883,10 @@
         <v>922.06</v>
       </c>
       <c r="B387">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="C387">
-        <v>1.45</v>
+        <v>0.79</v>
       </c>
       <c r="D387">
         <v>1.33</v>
@@ -5893,10 +5897,10 @@
         <v>931.28</v>
       </c>
       <c r="B388">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="C388">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="D388">
         <v>1.1200000000000001</v>
@@ -5907,10 +5911,10 @@
         <v>940.59</v>
       </c>
       <c r="B389">
-        <v>1.77</v>
+        <v>2.91</v>
       </c>
       <c r="C389">
-        <v>1.04</v>
+        <v>0.81</v>
       </c>
       <c r="D389">
         <v>0.92</v>
@@ -5921,10 +5925,10 @@
         <v>950</v>
       </c>
       <c r="B390">
-        <v>1.58</v>
+        <v>2.91</v>
       </c>
       <c r="C390">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="D390">
         <v>0.72</v>
@@ -5935,10 +5939,10 @@
         <v>959.5</v>
       </c>
       <c r="B391">
-        <v>1.4</v>
+        <v>2.91</v>
       </c>
       <c r="C391">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="D391">
         <v>0.53</v>
@@ -5949,10 +5953,10 @@
         <v>969.09</v>
       </c>
       <c r="B392">
-        <v>1.22</v>
+        <v>2.91</v>
       </c>
       <c r="C392">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="D392">
         <v>0.33</v>
@@ -5963,10 +5967,10 @@
         <v>978.78</v>
       </c>
       <c r="B393">
-        <v>1.05</v>
+        <v>2.91</v>
       </c>
       <c r="C393">
-        <v>0.26</v>
+        <v>0.85</v>
       </c>
       <c r="D393">
         <v>0.14000000000000001</v>
@@ -5977,10 +5981,10 @@
         <v>988.57</v>
       </c>
       <c r="B394">
-        <v>0.88</v>
+        <v>2.93</v>
       </c>
       <c r="C394">
-        <v>0.08</v>
+        <v>0.87</v>
       </c>
       <c r="D394">
         <v>-0.05</v>
@@ -5991,10 +5995,10 @@
         <v>998.46</v>
       </c>
       <c r="B395">
-        <v>0.72</v>
+        <v>2.95</v>
       </c>
       <c r="C395">
-        <v>-0.1</v>
+        <v>0.88</v>
       </c>
       <c r="D395">
         <v>-0.23</v>
@@ -6005,10 +6009,10 @@
         <v>1008.44</v>
       </c>
       <c r="B396">
-        <v>0.56999999999999995</v>
+        <v>2.98</v>
       </c>
       <c r="C396">
-        <v>-0.27</v>
+        <v>0.9</v>
       </c>
       <c r="D396">
         <v>-0.41</v>
@@ -6019,10 +6023,10 @@
         <v>1018.53</v>
       </c>
       <c r="B397">
-        <v>0.42</v>
+        <v>3.02</v>
       </c>
       <c r="C397">
-        <v>-0.43</v>
+        <v>0.92</v>
       </c>
       <c r="D397">
         <v>-0.56999999999999995</v>
@@ -6033,10 +6037,10 @@
         <v>1028.71</v>
       </c>
       <c r="B398">
-        <v>0.27</v>
+        <v>3.06</v>
       </c>
       <c r="C398">
-        <v>-0.57999999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="D398">
         <v>-0.73</v>
@@ -6047,10 +6051,10 @@
         <v>1039</v>
       </c>
       <c r="B399">
-        <v>0.12</v>
+        <v>3.08</v>
       </c>
       <c r="C399">
-        <v>-0.73</v>
+        <v>0.96</v>
       </c>
       <c r="D399">
         <v>-0.88</v>
@@ -6061,10 +6065,10 @@
         <v>1049.3900000000001</v>
       </c>
       <c r="B400">
-        <v>-0.01</v>
+        <v>3.1</v>
       </c>
       <c r="C400">
-        <v>-0.87</v>
+        <v>0.99</v>
       </c>
       <c r="D400">
         <v>-1.03</v>
@@ -6075,10 +6079,10 @@
         <v>1059.8800000000001</v>
       </c>
       <c r="B401">
-        <v>-0.15</v>
+        <v>3.12</v>
       </c>
       <c r="C401">
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="D401">
         <v>-1.17</v>
@@ -6089,10 +6093,10 @@
         <v>1070.48</v>
       </c>
       <c r="B402">
-        <v>-0.28000000000000003</v>
+        <v>3.14</v>
       </c>
       <c r="C402">
-        <v>-1.1399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D402">
         <v>-1.3</v>
@@ -6103,10 +6107,10 @@
         <v>1081.19</v>
       </c>
       <c r="B403">
-        <v>-0.41</v>
+        <v>3.16</v>
       </c>
       <c r="C403">
-        <v>-1.27</v>
+        <v>1.06</v>
       </c>
       <c r="D403">
         <v>-1.43</v>
@@ -6117,10 +6121,10 @@
         <v>1092</v>
       </c>
       <c r="B404">
-        <v>-0.54</v>
+        <v>3.19</v>
       </c>
       <c r="C404">
-        <v>-1.39</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D404">
         <v>-1.56</v>
@@ -6131,10 +6135,10 @@
         <v>1102.92</v>
       </c>
       <c r="B405">
-        <v>-0.67</v>
+        <v>3.21</v>
       </c>
       <c r="C405">
-        <v>-1.52</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D405">
         <v>-1.69</v>
@@ -6145,10 +6149,10 @@
         <v>1113.95</v>
       </c>
       <c r="B406">
-        <v>-0.8</v>
+        <v>3.25</v>
       </c>
       <c r="C406">
-        <v>-1.64</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D406">
         <v>-1.82</v>
@@ -6159,10 +6163,10 @@
         <v>1125.0899999999999</v>
       </c>
       <c r="B407">
-        <v>-0.93</v>
+        <v>3.28</v>
       </c>
       <c r="C407">
-        <v>-1.77</v>
+        <v>1.2</v>
       </c>
       <c r="D407">
         <v>-1.95</v>
@@ -6173,10 +6177,10 @@
         <v>1136.3399999999999</v>
       </c>
       <c r="B408">
-        <v>-1.06</v>
+        <v>3.32</v>
       </c>
       <c r="C408">
-        <v>-1.9</v>
+        <v>1.23</v>
       </c>
       <c r="D408">
         <v>-2.08</v>
@@ -6187,10 +6191,10 @@
         <v>1147.7</v>
       </c>
       <c r="B409">
-        <v>-1.19</v>
+        <v>3.36</v>
       </c>
       <c r="C409">
-        <v>-2.0299999999999998</v>
+        <v>1.27</v>
       </c>
       <c r="D409">
         <v>-2.21</v>
@@ -6201,10 +6205,10 @@
         <v>1159.18</v>
       </c>
       <c r="B410">
-        <v>-1.33</v>
+        <v>3.41</v>
       </c>
       <c r="C410">
-        <v>-2.17</v>
+        <v>1.32</v>
       </c>
       <c r="D410">
         <v>-2.35</v>
@@ -6215,10 +6219,10 @@
         <v>1170.77</v>
       </c>
       <c r="B411">
-        <v>-1.47</v>
+        <v>3.46</v>
       </c>
       <c r="C411">
-        <v>-2.31</v>
+        <v>1.36</v>
       </c>
       <c r="D411">
         <v>-2.4900000000000002</v>
@@ -6229,10 +6233,10 @@
         <v>1182.48</v>
       </c>
       <c r="B412">
-        <v>-1.62</v>
+        <v>3.51</v>
       </c>
       <c r="C412">
-        <v>-2.46</v>
+        <v>1.41</v>
       </c>
       <c r="D412">
         <v>-2.64</v>
@@ -6243,10 +6247,10 @@
         <v>1194.3</v>
       </c>
       <c r="B413">
-        <v>-1.77</v>
+        <v>3.56</v>
       </c>
       <c r="C413">
-        <v>-2.61</v>
+        <v>1.46</v>
       </c>
       <c r="D413">
         <v>-2.78</v>
@@ -6257,10 +6261,10 @@
         <v>1206.25</v>
       </c>
       <c r="B414">
-        <v>-1.93</v>
+        <v>3.61</v>
       </c>
       <c r="C414">
-        <v>-2.77</v>
+        <v>1.52</v>
       </c>
       <c r="D414">
         <v>-2.94</v>
@@ -6271,10 +6275,10 @@
         <v>1218.31</v>
       </c>
       <c r="B415">
-        <v>-2.1</v>
+        <v>3.66</v>
       </c>
       <c r="C415">
-        <v>-2.93</v>
+        <v>1.57</v>
       </c>
       <c r="D415">
         <v>-3.1</v>
@@ -6285,10 +6289,10 @@
         <v>1230.49</v>
       </c>
       <c r="B416">
-        <v>-2.27</v>
+        <v>3.71</v>
       </c>
       <c r="C416">
-        <v>-3.1</v>
+        <v>1.62</v>
       </c>
       <c r="D416">
         <v>-3.27</v>
@@ -6299,10 +6303,10 @@
         <v>1242.8</v>
       </c>
       <c r="B417">
-        <v>-2.4500000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="C417">
-        <v>-3.28</v>
+        <v>1.68</v>
       </c>
       <c r="D417">
         <v>-3.44</v>
@@ -6313,10 +6317,10 @@
         <v>1255.22</v>
       </c>
       <c r="B418">
-        <v>-2.64</v>
+        <v>3.83</v>
       </c>
       <c r="C418">
-        <v>-3.46</v>
+        <v>1.74</v>
       </c>
       <c r="D418">
         <v>-3.62</v>
@@ -6327,10 +6331,10 @@
         <v>1267.78</v>
       </c>
       <c r="B419">
-        <v>-2.83</v>
+        <v>3.89</v>
       </c>
       <c r="C419">
-        <v>-3.64</v>
+        <v>1.79</v>
       </c>
       <c r="D419">
         <v>-3.8</v>
@@ -6341,10 +6345,10 @@
         <v>1280.45</v>
       </c>
       <c r="B420">
-        <v>-3.02</v>
+        <v>3.95</v>
       </c>
       <c r="C420">
-        <v>-3.83</v>
+        <v>1.85</v>
       </c>
       <c r="D420">
         <v>-3.99</v>
@@ -6355,10 +6359,10 @@
         <v>1293.26</v>
       </c>
       <c r="B421">
-        <v>-3.21</v>
+        <v>4.01</v>
       </c>
       <c r="C421">
-        <v>-4.0199999999999996</v>
+        <v>1.92</v>
       </c>
       <c r="D421">
         <v>-4.18</v>
@@ -6369,10 +6373,10 @@
         <v>1306.19</v>
       </c>
       <c r="B422">
-        <v>-3.4</v>
+        <v>4.07</v>
       </c>
       <c r="C422">
-        <v>-4.21</v>
+        <v>1.98</v>
       </c>
       <c r="D422">
         <v>-4.37</v>
@@ -6383,10 +6387,10 @@
         <v>1319.25</v>
       </c>
       <c r="B423">
-        <v>-3.59</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C423">
-        <v>-4.4000000000000004</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D423">
         <v>-4.5599999999999996</v>
@@ -6397,10 +6401,10 @@
         <v>1332.45</v>
       </c>
       <c r="B424">
-        <v>-3.78</v>
+        <v>4.21</v>
       </c>
       <c r="C424">
-        <v>-4.59</v>
+        <v>2.12</v>
       </c>
       <c r="D424">
         <v>-4.75</v>
@@ -6411,10 +6415,10 @@
         <v>1345.77</v>
       </c>
       <c r="B425">
-        <v>-3.96</v>
+        <v>4.29</v>
       </c>
       <c r="C425">
-        <v>-4.7699999999999996</v>
+        <v>2.19</v>
       </c>
       <c r="D425">
         <v>-4.93</v>
@@ -6425,10 +6429,10 @@
         <v>1359.23</v>
       </c>
       <c r="B426">
-        <v>-4.1399999999999997</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C426">
-        <v>-4.95</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D426">
         <v>-5.12</v>
@@ -6439,10 +6443,10 @@
         <v>1372.82</v>
       </c>
       <c r="B427">
-        <v>-4.3099999999999996</v>
+        <v>4.43</v>
       </c>
       <c r="C427">
-        <v>-5.12</v>
+        <v>2.34</v>
       </c>
       <c r="D427">
         <v>-5.29</v>
@@ -6453,10 +6457,10 @@
         <v>1386.55</v>
       </c>
       <c r="B428">
-        <v>-4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C428">
-        <v>-5.29</v>
+        <v>2.41</v>
       </c>
       <c r="D428">
         <v>-5.47</v>
@@ -6467,10 +6471,10 @@
         <v>1400.41</v>
       </c>
       <c r="B429">
-        <v>-4.63</v>
+        <v>4.57</v>
       </c>
       <c r="C429">
-        <v>-5.44</v>
+        <v>2.48</v>
       </c>
       <c r="D429">
         <v>-5.63</v>
@@ -6481,10 +6485,10 @@
         <v>1414.42</v>
       </c>
       <c r="B430">
-        <v>-4.76</v>
+        <v>4.63</v>
       </c>
       <c r="C430">
-        <v>-5.59</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D430">
         <v>-5.78</v>
@@ -6495,10 +6499,10 @@
         <v>1428.56</v>
       </c>
       <c r="B431">
-        <v>-4.88</v>
+        <v>4.71</v>
       </c>
       <c r="C431">
-        <v>-5.71</v>
+        <v>2.63</v>
       </c>
       <c r="D431">
         <v>-5.91</v>
@@ -6509,10 +6513,10 @@
         <v>1442.85</v>
       </c>
       <c r="B432">
-        <v>-4.9800000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C432">
-        <v>-5.82</v>
+        <v>2.71</v>
       </c>
       <c r="D432">
         <v>-6.02</v>
@@ -6523,10 +6527,10 @@
         <v>1457.28</v>
       </c>
       <c r="B433">
-        <v>-5.05</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="C433">
-        <v>-5.91</v>
+        <v>2.79</v>
       </c>
       <c r="D433">
         <v>-6.12</v>
@@ -6537,10 +6541,10 @@
         <v>1471.85</v>
       </c>
       <c r="B434">
-        <v>-5.1100000000000003</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C434">
-        <v>-5.98</v>
+        <v>2.86</v>
       </c>
       <c r="D434">
         <v>-6.19</v>
@@ -6551,10 +6555,10 @@
         <v>1486.57</v>
       </c>
       <c r="B435">
-        <v>-5.14</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C435">
-        <v>-6.03</v>
+        <v>2.93</v>
       </c>
       <c r="D435">
         <v>-6.24</v>
@@ -6565,10 +6569,10 @@
         <v>1501.43</v>
       </c>
       <c r="B436">
-        <v>-5.15</v>
+        <v>5.12</v>
       </c>
       <c r="C436">
-        <v>-6.06</v>
+        <v>2.99</v>
       </c>
       <c r="D436">
         <v>-6.26</v>
@@ -6579,10 +6583,10 @@
         <v>1516.45</v>
       </c>
       <c r="B437">
-        <v>-5.13</v>
+        <v>5.17</v>
       </c>
       <c r="C437">
-        <v>-6.05</v>
+        <v>3.05</v>
       </c>
       <c r="D437">
         <v>-6.25</v>
@@ -6593,10 +6597,10 @@
         <v>1531.61</v>
       </c>
       <c r="B438">
-        <v>-5.07</v>
+        <v>5.22</v>
       </c>
       <c r="C438">
-        <v>-6.02</v>
+        <v>3.13</v>
       </c>
       <c r="D438">
         <v>-6.2</v>
@@ -6607,10 +6611,10 @@
         <v>1546.93</v>
       </c>
       <c r="B439">
-        <v>-4.99</v>
+        <v>5.28</v>
       </c>
       <c r="C439">
-        <v>-5.96</v>
+        <v>3.22</v>
       </c>
       <c r="D439">
         <v>-6.14</v>
@@ -6621,10 +6625,10 @@
         <v>1562.4</v>
       </c>
       <c r="B440">
-        <v>-4.8899999999999997</v>
+        <v>5.38</v>
       </c>
       <c r="C440">
-        <v>-5.87</v>
+        <v>3.33</v>
       </c>
       <c r="D440">
         <v>-6.05</v>
@@ -6635,10 +6639,10 @@
         <v>1578.02</v>
       </c>
       <c r="B441">
-        <v>-4.7699999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C441">
-        <v>-5.76</v>
+        <v>3.43</v>
       </c>
       <c r="D441">
         <v>-5.94</v>
@@ -6649,10 +6653,10 @@
         <v>1593.8</v>
       </c>
       <c r="B442">
-        <v>-4.63</v>
+        <v>5.63</v>
       </c>
       <c r="C442">
-        <v>-5.63</v>
+        <v>3.54</v>
       </c>
       <c r="D442">
         <v>-5.81</v>
@@ -6663,10 +6667,10 @@
         <v>1609.74</v>
       </c>
       <c r="B443">
-        <v>-4.45</v>
+        <v>5.75</v>
       </c>
       <c r="C443">
-        <v>-5.47</v>
+        <v>3.64</v>
       </c>
       <c r="D443">
         <v>-5.65</v>
@@ -6677,10 +6681,10 @@
         <v>1625.84</v>
       </c>
       <c r="B444">
-        <v>-4.25</v>
+        <v>5.84</v>
       </c>
       <c r="C444">
-        <v>-5.28</v>
+        <v>3.74</v>
       </c>
       <c r="D444">
         <v>-5.47</v>
@@ -6691,10 +6695,10 @@
         <v>1642.1</v>
       </c>
       <c r="B445">
-        <v>-4.03</v>
+        <v>5.92</v>
       </c>
       <c r="C445">
-        <v>-5.07</v>
+        <v>3.83</v>
       </c>
       <c r="D445">
         <v>-5.26</v>
@@ -6705,10 +6709,10 @@
         <v>1658.52</v>
       </c>
       <c r="B446">
-        <v>-3.79</v>
+        <v>6</v>
       </c>
       <c r="C446">
-        <v>-4.8499999999999996</v>
+        <v>3.92</v>
       </c>
       <c r="D446">
         <v>-5.04</v>
@@ -6719,10 +6723,10 @@
         <v>1675.1</v>
       </c>
       <c r="B447">
-        <v>-3.54</v>
+        <v>6.1</v>
       </c>
       <c r="C447">
-        <v>-4.6100000000000003</v>
+        <v>4.01</v>
       </c>
       <c r="D447">
         <v>-4.8099999999999996</v>
@@ -6733,10 +6737,10 @@
         <v>1691.85</v>
       </c>
       <c r="B448">
-        <v>-3.27</v>
+        <v>6.21</v>
       </c>
       <c r="C448">
-        <v>-4.37</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D448">
         <v>-4.57</v>
@@ -6747,10 +6751,10 @@
         <v>1708.77</v>
       </c>
       <c r="B449">
-        <v>-3</v>
+        <v>6.33</v>
       </c>
       <c r="C449">
-        <v>-4.1100000000000003</v>
+        <v>4.21</v>
       </c>
       <c r="D449">
         <v>-4.3099999999999996</v>
@@ -6761,10 +6765,10 @@
         <v>1725.86</v>
       </c>
       <c r="B450">
-        <v>-2.71</v>
+        <v>6.44</v>
       </c>
       <c r="C450">
-        <v>-3.84</v>
+        <v>4.33</v>
       </c>
       <c r="D450">
         <v>-4.05</v>
@@ -6775,10 +6779,10 @@
         <v>1743.12</v>
       </c>
       <c r="B451">
-        <v>-2.41</v>
+        <v>6.55</v>
       </c>
       <c r="C451">
-        <v>-3.56</v>
+        <v>4.45</v>
       </c>
       <c r="D451">
         <v>-3.77</v>
@@ -6789,10 +6793,10 @@
         <v>1760.55</v>
       </c>
       <c r="B452">
-        <v>-2.11</v>
+        <v>6.67</v>
       </c>
       <c r="C452">
-        <v>-3.28</v>
+        <v>4.57</v>
       </c>
       <c r="D452">
         <v>-3.49</v>
@@ -6803,10 +6807,10 @@
         <v>1778.15</v>
       </c>
       <c r="B453">
-        <v>-1.81</v>
+        <v>6.78</v>
       </c>
       <c r="C453">
-        <v>-3</v>
+        <v>4.7</v>
       </c>
       <c r="D453">
         <v>-3.21</v>
@@ -6817,10 +6821,10 @@
         <v>1795.94</v>
       </c>
       <c r="B454">
-        <v>-1.51</v>
+        <v>6.9</v>
       </c>
       <c r="C454">
-        <v>-2.72</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="D454">
         <v>-2.93</v>
@@ -6831,10 +6835,10 @@
         <v>1813.9</v>
       </c>
       <c r="B455">
-        <v>-1.21</v>
+        <v>7.02</v>
       </c>
       <c r="C455">
-        <v>-2.4500000000000002</v>
+        <v>4.93</v>
       </c>
       <c r="D455">
         <v>-2.65</v>
@@ -6845,10 +6849,10 @@
         <v>1832.03</v>
       </c>
       <c r="B456">
-        <v>-0.92</v>
+        <v>7.14</v>
       </c>
       <c r="C456">
-        <v>-2.1800000000000002</v>
+        <v>5.05</v>
       </c>
       <c r="D456">
         <v>-2.36</v>
@@ -6859,10 +6863,10 @@
         <v>1850.36</v>
       </c>
       <c r="B457">
-        <v>-0.64</v>
+        <v>7.26</v>
       </c>
       <c r="C457">
-        <v>-1.91</v>
+        <v>5.17</v>
       </c>
       <c r="D457">
         <v>-2.0699999999999998</v>
@@ -6873,10 +6877,10 @@
         <v>1868.86</v>
       </c>
       <c r="B458">
-        <v>-0.36</v>
+        <v>7.39</v>
       </c>
       <c r="C458">
-        <v>-1.65</v>
+        <v>5.29</v>
       </c>
       <c r="D458">
         <v>-1.78</v>
@@ -6887,10 +6891,10 @@
         <v>1887.55</v>
       </c>
       <c r="B459">
-        <v>-0.08</v>
+        <v>7.52</v>
       </c>
       <c r="C459">
-        <v>-1.39</v>
+        <v>5.41</v>
       </c>
       <c r="D459">
         <v>-1.5</v>
@@ -6901,10 +6905,10 @@
         <v>1906.42</v>
       </c>
       <c r="B460">
-        <v>0.21</v>
+        <v>7.64</v>
       </c>
       <c r="C460">
-        <v>-1.1299999999999999</v>
+        <v>5.54</v>
       </c>
       <c r="D460">
         <v>-1.22</v>
@@ -6915,10 +6919,10 @@
         <v>1925.49</v>
       </c>
       <c r="B461">
-        <v>0.51</v>
+        <v>7.76</v>
       </c>
       <c r="C461">
-        <v>-0.85</v>
+        <v>5.67</v>
       </c>
       <c r="D461">
         <v>-0.94</v>
@@ -6929,10 +6933,10 @@
         <v>1944.74</v>
       </c>
       <c r="B462">
-        <v>0.82</v>
+        <v>7.88</v>
       </c>
       <c r="C462">
-        <v>-0.56000000000000005</v>
+        <v>5.79</v>
       </c>
       <c r="D462">
         <v>-0.66</v>
@@ -6943,10 +6947,10 @@
         <v>1964.19</v>
       </c>
       <c r="B463">
-        <v>1.1399999999999999</v>
+        <v>8</v>
       </c>
       <c r="C463">
-        <v>-0.26</v>
+        <v>5.91</v>
       </c>
       <c r="D463">
         <v>-0.38</v>
@@ -6957,10 +6961,10 @@
         <v>1983.83</v>
       </c>
       <c r="B464">
-        <v>1.47</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="C464">
-        <v>0.04</v>
+        <v>6.03</v>
       </c>
       <c r="D464">
         <v>-0.11</v>
@@ -6971,10 +6975,10 @@
         <v>2003.67</v>
       </c>
       <c r="B465">
-        <v>1.79</v>
+        <v>8.25</v>
       </c>
       <c r="C465">
-        <v>0.34</v>
+        <v>6.14</v>
       </c>
       <c r="D465">
         <v>0.16</v>
@@ -6985,10 +6989,10 @@
         <v>2023.71</v>
       </c>
       <c r="B466">
-        <v>2.11</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="C466">
-        <v>0.64</v>
+        <v>6.26</v>
       </c>
       <c r="D466">
         <v>0.42</v>
@@ -6999,10 +7003,10 @@
         <v>2043.94</v>
       </c>
       <c r="B467">
-        <v>2.41</v>
+        <v>8.49</v>
       </c>
       <c r="C467">
-        <v>0.93</v>
+        <v>6.38</v>
       </c>
       <c r="D467">
         <v>0.68</v>
@@ -7013,10 +7017,10 @@
         <v>2064.38</v>
       </c>
       <c r="B468">
-        <v>2.7</v>
+        <v>8.59</v>
       </c>
       <c r="C468">
-        <v>1.21</v>
+        <v>6.5</v>
       </c>
       <c r="D468">
         <v>0.93</v>
@@ -7027,10 +7031,10 @@
         <v>2085.0300000000002</v>
       </c>
       <c r="B469">
-        <v>2.97</v>
+        <v>8.68</v>
       </c>
       <c r="C469">
-        <v>1.48</v>
+        <v>6.61</v>
       </c>
       <c r="D469">
         <v>1.18</v>
@@ -7041,10 +7045,10 @@
         <v>2105.88</v>
       </c>
       <c r="B470">
-        <v>3.21</v>
+        <v>8.77</v>
       </c>
       <c r="C470">
-        <v>1.73</v>
+        <v>6.72</v>
       </c>
       <c r="D470">
         <v>1.42</v>
@@ -7055,10 +7059,10 @@
         <v>2126.94</v>
       </c>
       <c r="B471">
-        <v>3.44</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="C471">
-        <v>1.96</v>
+        <v>6.81</v>
       </c>
       <c r="D471">
         <v>1.66</v>
@@ -7069,10 +7073,10 @@
         <v>2148.1999999999998</v>
       </c>
       <c r="B472">
-        <v>3.65</v>
+        <v>8.98</v>
       </c>
       <c r="C472">
-        <v>2.1800000000000002</v>
+        <v>6.91</v>
       </c>
       <c r="D472">
         <v>1.89</v>
@@ -7083,10 +7087,10 @@
         <v>2169.69</v>
       </c>
       <c r="B473">
-        <v>3.85</v>
+        <v>9.11</v>
       </c>
       <c r="C473">
-        <v>2.39</v>
+        <v>7.01</v>
       </c>
       <c r="D473">
         <v>2.11</v>
@@ -7097,10 +7101,10 @@
         <v>2191.38</v>
       </c>
       <c r="B474">
-        <v>4.05</v>
+        <v>9.25</v>
       </c>
       <c r="C474">
-        <v>2.6</v>
+        <v>7.11</v>
       </c>
       <c r="D474">
         <v>2.33</v>
@@ -7111,10 +7115,10 @@
         <v>2213.3000000000002</v>
       </c>
       <c r="B475">
-        <v>4.25</v>
+        <v>9.36</v>
       </c>
       <c r="C475">
-        <v>2.79</v>
+        <v>7.22</v>
       </c>
       <c r="D475">
         <v>2.5299999999999998</v>
@@ -7125,10 +7129,10 @@
         <v>2235.4299999999998</v>
       </c>
       <c r="B476">
-        <v>4.43</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="C476">
-        <v>2.98</v>
+        <v>7.33</v>
       </c>
       <c r="D476">
         <v>2.73</v>
@@ -7139,10 +7143,10 @@
         <v>2257.7800000000002</v>
       </c>
       <c r="B477">
-        <v>4.62</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="C477">
-        <v>3.16</v>
+        <v>7.44</v>
       </c>
       <c r="D477">
         <v>2.92</v>
@@ -7153,10 +7157,10 @@
         <v>2280.36</v>
       </c>
       <c r="B478">
-        <v>4.79</v>
+        <v>9.6</v>
       </c>
       <c r="C478">
-        <v>3.34</v>
+        <v>7.52</v>
       </c>
       <c r="D478">
         <v>3.09</v>
@@ -7167,10 +7171,10 @@
         <v>2303.17</v>
       </c>
       <c r="B479">
-        <v>4.96</v>
+        <v>9.67</v>
       </c>
       <c r="C479">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="D479">
         <v>3.26</v>
@@ -7181,10 +7185,10 @@
         <v>2326.1999999999998</v>
       </c>
       <c r="B480">
-        <v>5.1100000000000003</v>
+        <v>9.76</v>
       </c>
       <c r="C480">
-        <v>3.65</v>
+        <v>7.68</v>
       </c>
       <c r="D480">
         <v>3.41</v>
@@ -7195,10 +7199,10 @@
         <v>2349.46</v>
       </c>
       <c r="B481">
-        <v>5.25</v>
+        <v>9.86</v>
       </c>
       <c r="C481">
-        <v>3.79</v>
+        <v>7.77</v>
       </c>
       <c r="D481">
         <v>3.55</v>
@@ -7209,10 +7213,10 @@
         <v>2372.9499999999998</v>
       </c>
       <c r="B482">
-        <v>5.37</v>
+        <v>9.98</v>
       </c>
       <c r="C482">
-        <v>3.91</v>
+        <v>7.87</v>
       </c>
       <c r="D482">
         <v>3.67</v>
@@ -7223,10 +7227,10 @@
         <v>2396.6799999999998</v>
       </c>
       <c r="B483">
-        <v>5.47</v>
+        <v>10.08</v>
       </c>
       <c r="C483">
-        <v>4.0199999999999996</v>
+        <v>7.98</v>
       </c>
       <c r="D483">
         <v>3.78</v>
@@ -7237,10 +7241,10 @@
         <v>2420.65</v>
       </c>
       <c r="B484">
-        <v>5.55</v>
+        <v>10.16</v>
       </c>
       <c r="C484">
-        <v>4.1100000000000003</v>
+        <v>8.07</v>
       </c>
       <c r="D484">
         <v>3.87</v>
@@ -7251,10 +7255,10 @@
         <v>2444.86</v>
       </c>
       <c r="B485">
-        <v>5.61</v>
+        <v>10.23</v>
       </c>
       <c r="C485">
-        <v>4.1900000000000004</v>
+        <v>8.14</v>
       </c>
       <c r="D485">
         <v>3.96</v>
@@ -7265,10 +7269,10 @@
         <v>2469.31</v>
       </c>
       <c r="B486">
-        <v>5.65</v>
+        <v>10.29</v>
       </c>
       <c r="C486">
-        <v>4.26</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D486">
         <v>4.03</v>
@@ -7279,10 +7283,10 @@
         <v>2494</v>
       </c>
       <c r="B487">
-        <v>5.68</v>
+        <v>10.36</v>
       </c>
       <c r="C487">
-        <v>4.32</v>
+        <v>8.25</v>
       </c>
       <c r="D487">
         <v>4.09</v>
@@ -7293,10 +7297,10 @@
         <v>2518.94</v>
       </c>
       <c r="B488">
-        <v>5.68</v>
+        <v>10.43</v>
       </c>
       <c r="C488">
-        <v>4.37</v>
+        <v>8.32</v>
       </c>
       <c r="D488">
         <v>4.1399999999999997</v>
@@ -7307,10 +7311,10 @@
         <v>2544.13</v>
       </c>
       <c r="B489">
-        <v>5.67</v>
+        <v>10.5</v>
       </c>
       <c r="C489">
-        <v>4.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="D489">
         <v>4.18</v>
@@ -7321,10 +7325,10 @@
         <v>2569.5700000000002</v>
       </c>
       <c r="B490">
-        <v>5.63</v>
+        <v>10.56</v>
       </c>
       <c r="C490">
-        <v>4.41</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="D490">
         <v>4.2</v>
@@ -7335,10 +7339,10 @@
         <v>2595.27</v>
       </c>
       <c r="B491">
-        <v>5.58</v>
+        <v>10.61</v>
       </c>
       <c r="C491">
-        <v>4.41</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="D491">
         <v>4.2</v>
@@ -7349,10 +7353,10 @@
         <v>2621.2199999999998</v>
       </c>
       <c r="B492">
-        <v>5.5</v>
+        <v>10.65</v>
       </c>
       <c r="C492">
-        <v>4.4000000000000004</v>
+        <v>8.6</v>
       </c>
       <c r="D492">
         <v>4.1900000000000004</v>
@@ -7363,10 +7367,10 @@
         <v>2647.43</v>
       </c>
       <c r="B493">
-        <v>5.41</v>
+        <v>10.71</v>
       </c>
       <c r="C493">
-        <v>4.37</v>
+        <v>8.66</v>
       </c>
       <c r="D493">
         <v>4.16</v>
@@ -7377,10 +7381,10 @@
         <v>2673.9</v>
       </c>
       <c r="B494">
-        <v>5.29</v>
+        <v>10.78</v>
       </c>
       <c r="C494">
-        <v>4.32</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="D494">
         <v>4.1100000000000003</v>
@@ -7391,10 +7395,10 @@
         <v>2700.64</v>
       </c>
       <c r="B495">
-        <v>5.16</v>
+        <v>10.86</v>
       </c>
       <c r="C495">
-        <v>4.24</v>
+        <v>8.77</v>
       </c>
       <c r="D495">
         <v>4.05</v>
@@ -7405,10 +7409,10 @@
         <v>2727.65</v>
       </c>
       <c r="B496">
-        <v>5</v>
+        <v>10.93</v>
       </c>
       <c r="C496">
-        <v>4.1500000000000004</v>
+        <v>8.83</v>
       </c>
       <c r="D496">
         <v>3.96</v>
@@ -7419,10 +7423,10 @@
         <v>2754.93</v>
       </c>
       <c r="B497">
-        <v>4.82</v>
+        <v>10.99</v>
       </c>
       <c r="C497">
-        <v>4.04</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="D497">
         <v>3.85</v>
@@ -7433,10 +7437,10 @@
         <v>2782.48</v>
       </c>
       <c r="B498">
-        <v>4.62</v>
+        <v>11.03</v>
       </c>
       <c r="C498">
-        <v>3.91</v>
+        <v>8.92</v>
       </c>
       <c r="D498">
         <v>3.72</v>
@@ -7447,10 +7451,10 @@
         <v>2810.3</v>
       </c>
       <c r="B499">
-        <v>4.41</v>
+        <v>11.08</v>
       </c>
       <c r="C499">
-        <v>3.77</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="D499">
         <v>3.58</v>
@@ -7461,10 +7465,10 @@
         <v>2838.4</v>
       </c>
       <c r="B500">
-        <v>4.18</v>
+        <v>11.13</v>
       </c>
       <c r="C500">
-        <v>3.61</v>
+        <v>9</v>
       </c>
       <c r="D500">
         <v>3.42</v>
@@ -7475,10 +7479,10 @@
         <v>2866.79</v>
       </c>
       <c r="B501">
-        <v>3.94</v>
+        <v>11.17</v>
       </c>
       <c r="C501">
-        <v>3.44</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="D501">
         <v>3.25</v>
@@ -7489,10 +7493,10 @@
         <v>2895.46</v>
       </c>
       <c r="B502">
-        <v>3.68</v>
+        <v>11.2</v>
       </c>
       <c r="C502">
-        <v>3.26</v>
+        <v>9.08</v>
       </c>
       <c r="D502">
         <v>3.07</v>
@@ -7503,10 +7507,10 @@
         <v>2924.41</v>
       </c>
       <c r="B503">
-        <v>3.41</v>
+        <v>11.21</v>
       </c>
       <c r="C503">
-        <v>3.06</v>
+        <v>9.11</v>
       </c>
       <c r="D503">
         <v>2.88</v>
@@ -7517,10 +7521,10 @@
         <v>2953.65</v>
       </c>
       <c r="B504">
-        <v>3.14</v>
+        <v>11.23</v>
       </c>
       <c r="C504">
-        <v>2.85</v>
+        <v>9.15</v>
       </c>
       <c r="D504">
         <v>2.67</v>
@@ -7531,10 +7535,10 @@
         <v>2983.19</v>
       </c>
       <c r="B505">
-        <v>2.86</v>
+        <v>11.28</v>
       </c>
       <c r="C505">
-        <v>2.63</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D505">
         <v>2.46</v>
@@ -7545,10 +7549,10 @@
         <v>3013.02</v>
       </c>
       <c r="B506">
-        <v>2.58</v>
+        <v>11.35</v>
       </c>
       <c r="C506">
-        <v>2.41</v>
+        <v>9.25</v>
       </c>
       <c r="D506">
         <v>2.25</v>
@@ -7559,10 +7563,10 @@
         <v>3043.15</v>
       </c>
       <c r="B507">
-        <v>2.2999999999999998</v>
+        <v>11.41</v>
       </c>
       <c r="C507">
-        <v>2.19</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="D507">
         <v>2.04</v>
@@ -7573,10 +7577,10 @@
         <v>3073.58</v>
       </c>
       <c r="B508">
-        <v>2.0299999999999998</v>
+        <v>11.44</v>
       </c>
       <c r="C508">
-        <v>1.97</v>
+        <v>9.31</v>
       </c>
       <c r="D508">
         <v>1.83</v>
@@ -7587,10 +7591,10 @@
         <v>3104.32</v>
       </c>
       <c r="B509">
-        <v>1.77</v>
+        <v>11.42</v>
       </c>
       <c r="C509">
-        <v>1.76</v>
+        <v>9.31</v>
       </c>
       <c r="D509">
         <v>1.62</v>
@@ -7601,10 +7605,10 @@
         <v>3135.36</v>
       </c>
       <c r="B510">
-        <v>1.51</v>
+        <v>11.36</v>
       </c>
       <c r="C510">
-        <v>1.53</v>
+        <v>9.31</v>
       </c>
       <c r="D510">
         <v>1.41</v>
@@ -7615,10 +7619,10 @@
         <v>3166.72</v>
       </c>
       <c r="B511">
-        <v>1.25</v>
+        <v>11.32</v>
       </c>
       <c r="C511">
-        <v>1.31</v>
+        <v>9.31</v>
       </c>
       <c r="D511">
         <v>1.19</v>
@@ -7629,10 +7633,10 @@
         <v>3198.38</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>11.32</v>
       </c>
       <c r="C512">
-        <v>1.0900000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="D512">
         <v>0.98</v>
@@ -7643,10 +7647,10 @@
         <v>3230.37</v>
       </c>
       <c r="B513">
-        <v>0.77</v>
+        <v>11.37</v>
       </c>
       <c r="C513">
-        <v>0.89</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="D513">
         <v>0.78</v>
@@ -7657,10 +7661,10 @@
         <v>3262.67</v>
       </c>
       <c r="B514">
-        <v>0.55000000000000004</v>
+        <v>11.47</v>
       </c>
       <c r="C514">
-        <v>0.7</v>
+        <v>9.41</v>
       </c>
       <c r="D514">
         <v>0.59</v>
@@ -7671,10 +7675,10 @@
         <v>3295.3</v>
       </c>
       <c r="B515">
-        <v>0.36</v>
+        <v>11.57</v>
       </c>
       <c r="C515">
-        <v>0.52</v>
+        <v>9.44</v>
       </c>
       <c r="D515">
         <v>0.42</v>
@@ -7685,10 +7689,10 @@
         <v>3328.25</v>
       </c>
       <c r="B516">
-        <v>0.19</v>
+        <v>11.63</v>
       </c>
       <c r="C516">
-        <v>0.37</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D516">
         <v>0.28000000000000003</v>
@@ -7699,10 +7703,10 @@
         <v>3361.53</v>
       </c>
       <c r="B517">
-        <v>0.03</v>
+        <v>11.65</v>
       </c>
       <c r="C517">
-        <v>0.23</v>
+        <v>9.48</v>
       </c>
       <c r="D517">
         <v>0.15</v>
@@ -7713,10 +7717,10 @@
         <v>3395.15</v>
       </c>
       <c r="B518">
-        <v>-0.1</v>
+        <v>11.64</v>
       </c>
       <c r="C518">
-        <v>0.1</v>
+        <v>9.49</v>
       </c>
       <c r="D518">
         <v>0.03</v>
@@ -7727,10 +7731,10 @@
         <v>3429.1</v>
       </c>
       <c r="B519">
-        <v>-0.23</v>
+        <v>11.62</v>
       </c>
       <c r="C519">
-        <v>-0.01</v>
+        <v>9.5</v>
       </c>
       <c r="D519">
         <v>-7.0000000000000007E-2</v>
@@ -7741,10 +7745,10 @@
         <v>3463.39</v>
       </c>
       <c r="B520">
-        <v>-0.34</v>
+        <v>11.6</v>
       </c>
       <c r="C520">
-        <v>-0.11</v>
+        <v>9.49</v>
       </c>
       <c r="D520">
         <v>-0.17</v>
@@ -7755,10 +7759,10 @@
         <v>3498.03</v>
       </c>
       <c r="B521">
-        <v>-0.43</v>
+        <v>11.58</v>
       </c>
       <c r="C521">
-        <v>-0.19</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D521">
         <v>-0.26</v>
@@ -7769,10 +7773,10 @@
         <v>3533.01</v>
       </c>
       <c r="B522">
-        <v>-0.5</v>
+        <v>11.55</v>
       </c>
       <c r="C522">
-        <v>-0.25</v>
+        <v>9.44</v>
       </c>
       <c r="D522">
         <v>-0.33</v>
@@ -7783,10 +7787,10 @@
         <v>3568.34</v>
       </c>
       <c r="B523">
-        <v>-0.55000000000000004</v>
+        <v>11.52</v>
       </c>
       <c r="C523">
-        <v>-0.3</v>
+        <v>9.43</v>
       </c>
       <c r="D523">
         <v>-0.39</v>
@@ -7797,10 +7801,10 @@
         <v>3604.02</v>
       </c>
       <c r="B524">
-        <v>-0.57999999999999996</v>
+        <v>11.5</v>
       </c>
       <c r="C524">
-        <v>-0.32</v>
+        <v>9.42</v>
       </c>
       <c r="D524">
         <v>-0.42</v>
@@ -7811,10 +7815,10 @@
         <v>3640.06</v>
       </c>
       <c r="B525">
-        <v>-0.57999999999999996</v>
+        <v>11.48</v>
       </c>
       <c r="C525">
-        <v>-0.32</v>
+        <v>9.41</v>
       </c>
       <c r="D525">
         <v>-0.42</v>
@@ -7825,10 +7829,10 @@
         <v>3676.46</v>
       </c>
       <c r="B526">
-        <v>-0.54</v>
+        <v>11.47</v>
       </c>
       <c r="C526">
-        <v>-0.28000000000000003</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="D526">
         <v>-0.39</v>
@@ -7839,10 +7843,10 @@
         <v>3713.22</v>
       </c>
       <c r="B527">
-        <v>-0.46</v>
+        <v>11.44</v>
       </c>
       <c r="C527">
-        <v>-0.21</v>
+        <v>9.34</v>
       </c>
       <c r="D527">
         <v>-0.32</v>
@@ -7853,10 +7857,10 @@
         <v>3750.36</v>
       </c>
       <c r="B528">
-        <v>-0.33</v>
+        <v>11.39</v>
       </c>
       <c r="C528">
-        <v>-0.1</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="D528">
         <v>-0.21</v>
@@ -7867,10 +7871,10 @@
         <v>3787.86</v>
       </c>
       <c r="B529">
-        <v>-0.17</v>
+        <v>11.34</v>
       </c>
       <c r="C529">
-        <v>0.05</v>
+        <v>9.24</v>
       </c>
       <c r="D529">
         <v>-0.06</v>
@@ -7881,10 +7885,10 @@
         <v>3825.74</v>
       </c>
       <c r="B530">
-        <v>0.02</v>
+        <v>11.3</v>
       </c>
       <c r="C530">
-        <v>0.22</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D530">
         <v>0.12</v>
@@ -7895,10 +7899,10 @@
         <v>3864</v>
       </c>
       <c r="B531">
-        <v>0.24</v>
+        <v>11.29</v>
       </c>
       <c r="C531">
-        <v>0.42</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D531">
         <v>0.32</v>
@@ -7909,10 +7913,10 @@
         <v>3902.64</v>
       </c>
       <c r="B532">
-        <v>0.46</v>
+        <v>11.29</v>
       </c>
       <c r="C532">
-        <v>0.63</v>
+        <v>9.19</v>
       </c>
       <c r="D532">
         <v>0.53</v>
@@ -7923,10 +7927,10 @@
         <v>3941.66</v>
       </c>
       <c r="B533">
-        <v>0.68</v>
+        <v>11.27</v>
       </c>
       <c r="C533">
-        <v>0.85</v>
+        <v>9.16</v>
       </c>
       <c r="D533">
         <v>0.75</v>
@@ -7937,10 +7941,10 @@
         <v>3981.08</v>
       </c>
       <c r="B534">
-        <v>0.89</v>
+        <v>11.21</v>
       </c>
       <c r="C534">
-        <v>1.06</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="D534">
         <v>0.96</v>
@@ -7951,10 +7955,10 @@
         <v>4020.89</v>
       </c>
       <c r="B535">
-        <v>1.1000000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="C535">
-        <v>1.28</v>
+        <v>9.06</v>
       </c>
       <c r="D535">
         <v>1.17</v>
@@ -7965,10 +7969,10 @@
         <v>4061.1</v>
       </c>
       <c r="B536">
-        <v>1.31</v>
+        <v>10.99</v>
       </c>
       <c r="C536">
-        <v>1.49</v>
+        <v>8.99</v>
       </c>
       <c r="D536">
         <v>1.38</v>
@@ -7979,10 +7983,10 @@
         <v>4101.71</v>
       </c>
       <c r="B537">
-        <v>1.5</v>
+        <v>10.92</v>
       </c>
       <c r="C537">
-        <v>1.7</v>
+        <v>8.92</v>
       </c>
       <c r="D537">
         <v>1.58</v>
@@ -7993,10 +7997,10 @@
         <v>4142.7299999999996</v>
       </c>
       <c r="B538">
-        <v>1.68</v>
+        <v>10.88</v>
       </c>
       <c r="C538">
-        <v>1.89</v>
+        <v>8.85</v>
       </c>
       <c r="D538">
         <v>1.77</v>
@@ -8007,10 +8011,10 @@
         <v>4184.1499999999996</v>
       </c>
       <c r="B539">
-        <v>1.85</v>
+        <v>10.88</v>
       </c>
       <c r="C539">
-        <v>2.0699999999999998</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="D539">
         <v>1.95</v>
@@ -8021,10 +8025,10 @@
         <v>4226</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>10.87</v>
       </c>
       <c r="C540">
-        <v>2.23</v>
+        <v>8.73</v>
       </c>
       <c r="D540">
         <v>2.11</v>
@@ -8035,10 +8039,10 @@
         <v>4268.26</v>
       </c>
       <c r="B541">
-        <v>2.13</v>
+        <v>10.84</v>
       </c>
       <c r="C541">
-        <v>2.37</v>
+        <v>8.68</v>
       </c>
       <c r="D541">
         <v>2.25</v>
@@ -8049,10 +8053,10 @@
         <v>4310.9399999999996</v>
       </c>
       <c r="B542">
-        <v>2.27</v>
+        <v>10.78</v>
       </c>
       <c r="C542">
-        <v>2.5</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="D542">
         <v>2.39</v>
@@ -8063,10 +8067,10 @@
         <v>4354.05</v>
       </c>
       <c r="B543">
-        <v>2.4</v>
+        <v>10.71</v>
       </c>
       <c r="C543">
-        <v>2.64</v>
+        <v>8.56</v>
       </c>
       <c r="D543">
         <v>2.5299999999999998</v>
@@ -8077,10 +8081,10 @@
         <v>4397.59</v>
       </c>
       <c r="B544">
-        <v>2.52</v>
+        <v>10.63</v>
       </c>
       <c r="C544">
-        <v>2.76</v>
+        <v>8.49</v>
       </c>
       <c r="D544">
         <v>2.65</v>
@@ -8091,10 +8095,10 @@
         <v>4441.5600000000004</v>
       </c>
       <c r="B545">
-        <v>2.64</v>
+        <v>10.55</v>
       </c>
       <c r="C545">
-        <v>2.88</v>
+        <v>8.42</v>
       </c>
       <c r="D545">
         <v>2.77</v>
@@ -8105,10 +8109,10 @@
         <v>4485.9799999999996</v>
       </c>
       <c r="B546">
-        <v>2.74</v>
+        <v>10.44</v>
       </c>
       <c r="C546">
-        <v>2.99</v>
+        <v>8.33</v>
       </c>
       <c r="D546">
         <v>2.88</v>
@@ -8119,10 +8123,10 @@
         <v>4530.84</v>
       </c>
       <c r="B547">
-        <v>2.83</v>
+        <v>10.32</v>
       </c>
       <c r="C547">
-        <v>3.08</v>
+        <v>8.23</v>
       </c>
       <c r="D547">
         <v>2.96</v>
@@ -8133,10 +8137,10 @@
         <v>4576.1499999999996</v>
       </c>
       <c r="B548">
-        <v>2.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C548">
-        <v>3.16</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="D548">
         <v>3.04</v>
@@ -8147,10 +8151,10 @@
         <v>4621.91</v>
       </c>
       <c r="B549">
-        <v>2.97</v>
+        <v>10.1</v>
       </c>
       <c r="C549">
-        <v>3.23</v>
+        <v>8.02</v>
       </c>
       <c r="D549">
         <v>3.11</v>
@@ -8161,10 +8165,10 @@
         <v>4668.13</v>
       </c>
       <c r="B550">
-        <v>3.03</v>
+        <v>10.02</v>
       </c>
       <c r="C550">
-        <v>3.3</v>
+        <v>7.89</v>
       </c>
       <c r="D550">
         <v>3.17</v>
@@ -8175,10 +8179,10 @@
         <v>4714.8100000000004</v>
       </c>
       <c r="B551">
-        <v>3.09</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="C551">
-        <v>3.36</v>
+        <v>7.72</v>
       </c>
       <c r="D551">
         <v>3.23</v>
@@ -8189,10 +8193,10 @@
         <v>4761.96</v>
       </c>
       <c r="B552">
-        <v>3.13</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="C552">
-        <v>3.42</v>
+        <v>7.5</v>
       </c>
       <c r="D552">
         <v>3.29</v>
@@ -8203,10 +8207,10 @@
         <v>4809.58</v>
       </c>
       <c r="B553">
-        <v>3.16</v>
+        <v>9.73</v>
       </c>
       <c r="C553">
-        <v>3.47</v>
+        <v>7.23</v>
       </c>
       <c r="D553">
         <v>3.33</v>
@@ -8217,10 +8221,10 @@
         <v>4857.67</v>
       </c>
       <c r="B554">
-        <v>3.18</v>
+        <v>9.5</v>
       </c>
       <c r="C554">
-        <v>3.51</v>
+        <v>6.94</v>
       </c>
       <c r="D554">
         <v>3.36</v>
@@ -8231,10 +8235,10 @@
         <v>4906.25</v>
       </c>
       <c r="B555">
-        <v>3.17</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="C555">
-        <v>3.52</v>
+        <v>6.64</v>
       </c>
       <c r="D555">
         <v>3.38</v>
@@ -8245,10 +8249,10 @@
         <v>4955.3100000000004</v>
       </c>
       <c r="B556">
-        <v>3.15</v>
+        <v>8.86</v>
       </c>
       <c r="C556">
-        <v>3.52</v>
+        <v>6.34</v>
       </c>
       <c r="D556">
         <v>3.37</v>
@@ -8259,10 +8263,10 @@
         <v>5004.87</v>
       </c>
       <c r="B557">
-        <v>3.11</v>
+        <v>8.5</v>
       </c>
       <c r="C557">
-        <v>3.51</v>
+        <v>6.07</v>
       </c>
       <c r="D557">
         <v>3.35</v>
@@ -8273,10 +8277,10 @@
         <v>5054.91</v>
       </c>
       <c r="B558">
-        <v>3.04</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="C558">
-        <v>3.47</v>
+        <v>5.82</v>
       </c>
       <c r="D558">
         <v>3.3</v>
@@ -8287,10 +8291,10 @@
         <v>5105.46</v>
       </c>
       <c r="B559">
-        <v>2.96</v>
+        <v>7.78</v>
       </c>
       <c r="C559">
-        <v>3.42</v>
+        <v>5.62</v>
       </c>
       <c r="D559">
         <v>3.25</v>
@@ -8301,10 +8305,10 @@
         <v>5156.5200000000004</v>
       </c>
       <c r="B560">
-        <v>2.87</v>
+        <v>7.48</v>
       </c>
       <c r="C560">
-        <v>3.34</v>
+        <v>5.51</v>
       </c>
       <c r="D560">
         <v>3.17</v>
@@ -8315,10 +8319,10 @@
         <v>5208.08</v>
       </c>
       <c r="B561">
-        <v>2.75</v>
+        <v>7.3</v>
       </c>
       <c r="C561">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="D561">
         <v>3.08</v>
@@ -8329,10 +8333,10 @@
         <v>5260.16</v>
       </c>
       <c r="B562">
-        <v>2.61</v>
+        <v>7.3</v>
       </c>
       <c r="C562">
-        <v>3.13</v>
+        <v>5.63</v>
       </c>
       <c r="D562">
         <v>2.96</v>
@@ -8343,10 +8347,10 @@
         <v>5312.77</v>
       </c>
       <c r="B563">
-        <v>2.44</v>
+        <v>7.46</v>
       </c>
       <c r="C563">
-        <v>2.99</v>
+        <v>5.84</v>
       </c>
       <c r="D563">
         <v>2.82</v>
@@ -8357,10 +8361,10 @@
         <v>5365.89</v>
       </c>
       <c r="B564">
-        <v>2.2400000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="C564">
-        <v>2.82</v>
+        <v>6.09</v>
       </c>
       <c r="D564">
         <v>2.66</v>
@@ -8371,10 +8375,10 @@
         <v>5419.55</v>
       </c>
       <c r="B565">
-        <v>2.02</v>
+        <v>7.92</v>
       </c>
       <c r="C565">
-        <v>2.63</v>
+        <v>6.3</v>
       </c>
       <c r="D565">
         <v>2.48</v>
@@ -8385,10 +8389,10 @@
         <v>5473.75</v>
       </c>
       <c r="B566">
-        <v>1.77</v>
+        <v>8.06</v>
       </c>
       <c r="C566">
-        <v>2.41</v>
+        <v>6.44</v>
       </c>
       <c r="D566">
         <v>2.2599999999999998</v>
@@ -8399,10 +8403,10 @@
         <v>5528.49</v>
       </c>
       <c r="B567">
-        <v>1.48</v>
+        <v>8.08</v>
       </c>
       <c r="C567">
-        <v>2.16</v>
+        <v>6.48</v>
       </c>
       <c r="D567">
         <v>2.02</v>
@@ -8413,10 +8417,10 @@
         <v>5583.77</v>
       </c>
       <c r="B568">
-        <v>1.1499999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="C568">
-        <v>1.86</v>
+        <v>6.42</v>
       </c>
       <c r="D568">
         <v>1.73</v>
@@ -8427,10 +8431,10 @@
         <v>5639.61</v>
       </c>
       <c r="B569">
-        <v>0.76</v>
+        <v>7.91</v>
       </c>
       <c r="C569">
-        <v>1.52</v>
+        <v>6.31</v>
       </c>
       <c r="D569">
         <v>1.39</v>
@@ -8441,10 +8445,10 @@
         <v>5696</v>
       </c>
       <c r="B570">
-        <v>0.31</v>
+        <v>7.79</v>
       </c>
       <c r="C570">
-        <v>1.1100000000000001</v>
+        <v>6.16</v>
       </c>
       <c r="D570">
         <v>0.99</v>
@@ -8455,10 +8459,10 @@
         <v>5752.96</v>
       </c>
       <c r="B571">
-        <v>-0.2</v>
+        <v>7.67</v>
       </c>
       <c r="C571">
-        <v>0.64</v>
+        <v>5.99</v>
       </c>
       <c r="D571">
         <v>0.52</v>
@@ -8469,10 +8473,10 @@
         <v>5810.49</v>
       </c>
       <c r="B572">
-        <v>-0.74</v>
+        <v>7.59</v>
       </c>
       <c r="C572">
-        <v>0.14000000000000001</v>
+        <v>5.82</v>
       </c>
       <c r="D572">
         <v>0.02</v>
@@ -8483,10 +8487,10 @@
         <v>5868.6</v>
       </c>
       <c r="B573">
-        <v>-1.3</v>
+        <v>7.54</v>
       </c>
       <c r="C573">
-        <v>-0.37</v>
+        <v>5.67</v>
       </c>
       <c r="D573">
         <v>-0.49</v>
@@ -8497,10 +8501,10 @@
         <v>5927.28</v>
       </c>
       <c r="B574">
-        <v>-1.87</v>
+        <v>7.52</v>
       </c>
       <c r="C574">
-        <v>-0.9</v>
+        <v>5.55</v>
       </c>
       <c r="D574">
         <v>-1.02</v>
@@ -8511,10 +8515,10 @@
         <v>5986.56</v>
       </c>
       <c r="B575">
-        <v>-2.46</v>
+        <v>7.55</v>
       </c>
       <c r="C575">
-        <v>-1.45</v>
+        <v>5.47</v>
       </c>
       <c r="D575">
         <v>-1.58</v>
@@ -8525,10 +8529,10 @@
         <v>6046.42</v>
       </c>
       <c r="B576">
-        <v>-3.06</v>
+        <v>7.59</v>
       </c>
       <c r="C576">
-        <v>-2.02</v>
+        <v>5.42</v>
       </c>
       <c r="D576">
         <v>-2.16</v>
@@ -8539,10 +8543,10 @@
         <v>6106.89</v>
       </c>
       <c r="B577">
-        <v>-3.66</v>
+        <v>7.66</v>
       </c>
       <c r="C577">
-        <v>-2.54</v>
+        <v>5.41</v>
       </c>
       <c r="D577">
         <v>-2.68</v>
@@ -8553,10 +8557,10 @@
         <v>6167.96</v>
       </c>
       <c r="B578">
-        <v>-4.2</v>
+        <v>7.72</v>
       </c>
       <c r="C578">
-        <v>-2.97</v>
+        <v>5.42</v>
       </c>
       <c r="D578">
         <v>-3.12</v>
@@ -8567,10 +8571,10 @@
         <v>6229.64</v>
       </c>
       <c r="B579">
-        <v>-4.55</v>
+        <v>7.78</v>
       </c>
       <c r="C579">
-        <v>-3.3</v>
+        <v>5.43</v>
       </c>
       <c r="D579">
         <v>-3.46</v>
@@ -8581,10 +8585,10 @@
         <v>6291.93</v>
       </c>
       <c r="B580">
-        <v>-4.71</v>
+        <v>7.81</v>
       </c>
       <c r="C580">
-        <v>-3.5</v>
+        <v>5.44</v>
       </c>
       <c r="D580">
         <v>-3.67</v>
@@ -8595,10 +8599,10 @@
         <v>6354.85</v>
       </c>
       <c r="B581">
-        <v>-4.6900000000000004</v>
+        <v>7.79</v>
       </c>
       <c r="C581">
-        <v>-3.59</v>
+        <v>5.44</v>
       </c>
       <c r="D581">
         <v>-3.76</v>
@@ -8609,10 +8613,10 @@
         <v>6418.4</v>
       </c>
       <c r="B582">
-        <v>-4.51</v>
+        <v>7.69</v>
       </c>
       <c r="C582">
-        <v>-3.56</v>
+        <v>5.42</v>
       </c>
       <c r="D582">
         <v>-3.74</v>
@@ -8623,10 +8627,10 @@
         <v>6482.58</v>
       </c>
       <c r="B583">
-        <v>-4.22</v>
+        <v>7.5</v>
       </c>
       <c r="C583">
-        <v>-3.44</v>
+        <v>5.38</v>
       </c>
       <c r="D583">
         <v>-3.62</v>
@@ -8637,10 +8641,10 @@
         <v>6547.41</v>
       </c>
       <c r="B584">
-        <v>-3.84</v>
+        <v>7.24</v>
       </c>
       <c r="C584">
-        <v>-3.25</v>
+        <v>5.33</v>
       </c>
       <c r="D584">
         <v>-3.44</v>
@@ -8651,10 +8655,10 @@
         <v>6612.88</v>
       </c>
       <c r="B585">
-        <v>-3.39</v>
+        <v>6.92</v>
       </c>
       <c r="C585">
-        <v>-3</v>
+        <v>5.27</v>
       </c>
       <c r="D585">
         <v>-3.19</v>
@@ -8665,10 +8669,10 @@
         <v>6679.01</v>
       </c>
       <c r="B586">
-        <v>-2.9</v>
+        <v>6.58</v>
       </c>
       <c r="C586">
-        <v>-2.7</v>
+        <v>5.2</v>
       </c>
       <c r="D586">
         <v>-2.9</v>
@@ -8679,10 +8683,10 @@
         <v>6745.8</v>
       </c>
       <c r="B587">
-        <v>-2.4</v>
+        <v>6.24</v>
       </c>
       <c r="C587">
-        <v>-2.38</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D587">
         <v>-2.58</v>
@@ -8693,10 +8697,10 @@
         <v>6813.26</v>
       </c>
       <c r="B588">
-        <v>-1.96</v>
+        <v>5.95</v>
       </c>
       <c r="C588">
-        <v>-2.08</v>
+        <v>5.01</v>
       </c>
       <c r="D588">
         <v>-2.27</v>
@@ -8707,10 +8711,10 @@
         <v>6881.39</v>
       </c>
       <c r="B589">
-        <v>-1.59</v>
+        <v>5.72</v>
       </c>
       <c r="C589">
-        <v>-1.81</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D589">
         <v>-2</v>
@@ -8721,10 +8725,10 @@
         <v>6950.21</v>
       </c>
       <c r="B590">
-        <v>-1.32</v>
+        <v>5.6</v>
       </c>
       <c r="C590">
-        <v>-1.57</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="D590">
         <v>-1.76</v>
@@ -8735,10 +8739,10 @@
         <v>7019.71</v>
       </c>
       <c r="B591">
-        <v>-1.1100000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="C591">
-        <v>-1.31</v>
+        <v>4.63</v>
       </c>
       <c r="D591">
         <v>-1.5</v>
@@ -8749,10 +8753,10 @@
         <v>7089.91</v>
       </c>
       <c r="B592">
-        <v>-0.92</v>
+        <v>5.62</v>
       </c>
       <c r="C592">
-        <v>-1.05</v>
+        <v>4.5</v>
       </c>
       <c r="D592">
         <v>-1.24</v>
@@ -8763,10 +8767,10 @@
         <v>7160.81</v>
       </c>
       <c r="B593">
-        <v>-0.66</v>
+        <v>5.72</v>
       </c>
       <c r="C593">
-        <v>-0.79</v>
+        <v>4.37</v>
       </c>
       <c r="D593">
         <v>-0.98</v>
@@ -8777,10 +8781,10 @@
         <v>7232.41</v>
       </c>
       <c r="B594">
-        <v>-0.4</v>
+        <v>5.84</v>
       </c>
       <c r="C594">
-        <v>-0.53</v>
+        <v>4.25</v>
       </c>
       <c r="D594">
         <v>-0.72</v>
@@ -8791,10 +8795,10 @@
         <v>7304.74</v>
       </c>
       <c r="B595">
-        <v>-0.14000000000000001</v>
+        <v>5.95</v>
       </c>
       <c r="C595">
-        <v>-0.27</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="D595">
         <v>-0.46</v>
@@ -8805,10 +8809,10 @@
         <v>7377.79</v>
       </c>
       <c r="B596">
-        <v>0.12</v>
+        <v>6.01</v>
       </c>
       <c r="C596">
-        <v>-0.02</v>
+        <v>4.04</v>
       </c>
       <c r="D596">
         <v>-0.21</v>
@@ -8819,10 +8823,10 @@
         <v>7451.56</v>
       </c>
       <c r="B597">
-        <v>0.38</v>
+        <v>6.03</v>
       </c>
       <c r="C597">
-        <v>0.24</v>
+        <v>3.95</v>
       </c>
       <c r="D597">
         <v>0.05</v>
@@ -8833,10 +8837,10 @@
         <v>7526.08</v>
       </c>
       <c r="B598">
-        <v>0.64</v>
+        <v>5.99</v>
       </c>
       <c r="C598">
-        <v>0.5</v>
+        <v>3.86</v>
       </c>
       <c r="D598">
         <v>0.31</v>
@@ -8847,10 +8851,10 @@
         <v>7601.34</v>
       </c>
       <c r="B599">
-        <v>0.91</v>
+        <v>5.89</v>
       </c>
       <c r="C599">
-        <v>0.76</v>
+        <v>3.76</v>
       </c>
       <c r="D599">
         <v>0.56999999999999995</v>
@@ -8861,10 +8865,10 @@
         <v>7677.35</v>
       </c>
       <c r="B600">
-        <v>1.19</v>
+        <v>5.77</v>
       </c>
       <c r="C600">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="D600">
         <v>0.83</v>
@@ -8875,10 +8879,10 @@
         <v>7754.13</v>
       </c>
       <c r="B601">
-        <v>1.47</v>
+        <v>5.62</v>
       </c>
       <c r="C601">
-        <v>1.28</v>
+        <v>3.52</v>
       </c>
       <c r="D601">
         <v>1.0900000000000001</v>
@@ -8889,10 +8893,10 @@
         <v>7831.67</v>
       </c>
       <c r="B602">
-        <v>1.72</v>
+        <v>5.47</v>
       </c>
       <c r="C602">
-        <v>1.54</v>
+        <v>3.4</v>
       </c>
       <c r="D602">
         <v>1.34</v>
@@ -8903,10 +8907,10 @@
         <v>7909.98</v>
       </c>
       <c r="B603">
-        <v>1.95</v>
+        <v>5.33</v>
       </c>
       <c r="C603">
-        <v>1.79</v>
+        <v>3.27</v>
       </c>
       <c r="D603">
         <v>1.6</v>
@@ -8917,10 +8921,10 @@
         <v>7989.08</v>
       </c>
       <c r="B604">
-        <v>2.13</v>
+        <v>5.21</v>
       </c>
       <c r="C604">
-        <v>2.0499999999999998</v>
+        <v>3.14</v>
       </c>
       <c r="D604">
         <v>1.86</v>
@@ -8931,10 +8935,10 @@
         <v>8068.98</v>
       </c>
       <c r="B605">
-        <v>2.27</v>
+        <v>5.09</v>
       </c>
       <c r="C605">
-        <v>2.3199999999999998</v>
+        <v>3.02</v>
       </c>
       <c r="D605">
         <v>2.13</v>
@@ -8945,10 +8949,10 @@
         <v>8149.67</v>
       </c>
       <c r="B606">
-        <v>2.37</v>
+        <v>4.97</v>
       </c>
       <c r="C606">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="D606">
         <v>2.41</v>
@@ -8959,10 +8963,10 @@
         <v>8231.16</v>
       </c>
       <c r="B607">
-        <v>2.41</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="C607">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="D607">
         <v>2.69</v>
@@ -8973,10 +8977,10 @@
         <v>8313.4699999999993</v>
       </c>
       <c r="B608">
-        <v>2.42</v>
+        <v>4.75</v>
       </c>
       <c r="C608">
-        <v>3.14</v>
+        <v>2.62</v>
       </c>
       <c r="D608">
         <v>2.95</v>
@@ -8987,10 +8991,10 @@
         <v>8396.61</v>
       </c>
       <c r="B609">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="C609">
-        <v>3.37</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D609">
         <v>3.19</v>
@@ -9001,10 +9005,10 @@
         <v>8480.57</v>
       </c>
       <c r="B610">
-        <v>2.33</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C610">
-        <v>3.56</v>
+        <v>2.34</v>
       </c>
       <c r="D610">
         <v>3.39</v>
@@ -9015,10 +9019,10 @@
         <v>8565.3799999999992</v>
       </c>
       <c r="B611">
-        <v>2.2599999999999998</v>
+        <v>4.33</v>
       </c>
       <c r="C611">
-        <v>3.7</v>
+        <v>2.21</v>
       </c>
       <c r="D611">
         <v>3.54</v>
@@ -9029,10 +9033,10 @@
         <v>8651.0300000000007</v>
       </c>
       <c r="B612">
-        <v>2.1800000000000002</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C612">
-        <v>3.81</v>
+        <v>2.1</v>
       </c>
       <c r="D612">
         <v>3.66</v>
@@ -9043,10 +9047,10 @@
         <v>8737.5400000000009</v>
       </c>
       <c r="B613">
-        <v>2.13</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C613">
-        <v>3.86</v>
+        <v>2</v>
       </c>
       <c r="D613">
         <v>3.72</v>
@@ -9057,10 +9061,10 @@
         <v>8824.92</v>
       </c>
       <c r="B614">
-        <v>2.08</v>
+        <v>3.95</v>
       </c>
       <c r="C614">
-        <v>3.87</v>
+        <v>1.89</v>
       </c>
       <c r="D614">
         <v>3.75</v>
@@ -9071,10 +9075,10 @@
         <v>8913.17</v>
       </c>
       <c r="B615">
-        <v>2.0299999999999998</v>
+        <v>3.84</v>
       </c>
       <c r="C615">
-        <v>3.85</v>
+        <v>1.77</v>
       </c>
       <c r="D615">
         <v>3.73</v>
@@ -9085,10 +9089,10 @@
         <v>9002.2999999999993</v>
       </c>
       <c r="B616">
-        <v>1.99</v>
+        <v>3.72</v>
       </c>
       <c r="C616">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="D616">
         <v>3.69</v>
@@ -9099,10 +9103,10 @@
         <v>9092.32</v>
       </c>
       <c r="B617">
-        <v>1.94</v>
+        <v>3.61</v>
       </c>
       <c r="C617">
-        <v>3.73</v>
+        <v>1.52</v>
       </c>
       <c r="D617">
         <v>3.62</v>
@@ -9113,10 +9117,10 @@
         <v>9183.25</v>
       </c>
       <c r="B618">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="C618">
-        <v>3.65</v>
+        <v>1.38</v>
       </c>
       <c r="D618">
         <v>3.55</v>
@@ -9127,10 +9131,10 @@
         <v>9275.08</v>
       </c>
       <c r="B619">
-        <v>1.86</v>
+        <v>3.39</v>
       </c>
       <c r="C619">
-        <v>3.6</v>
+        <v>1.26</v>
       </c>
       <c r="D619">
         <v>3.49</v>
@@ -9141,10 +9145,10 @@
         <v>9367.83</v>
       </c>
       <c r="B620">
-        <v>1.82</v>
+        <v>3.29</v>
       </c>
       <c r="C620">
-        <v>3.55</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D620">
         <v>3.45</v>
@@ -9155,10 +9159,10 @@
         <v>9461.51</v>
       </c>
       <c r="B621">
-        <v>1.78</v>
+        <v>3.16</v>
       </c>
       <c r="C621">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="D621">
         <v>3.4</v>
@@ -9169,10 +9173,10 @@
         <v>9556.1200000000008</v>
       </c>
       <c r="B622">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="C622">
-        <v>3.46</v>
+        <v>0.94</v>
       </c>
       <c r="D622">
         <v>3.35</v>
@@ -9183,10 +9187,10 @@
         <v>9651.68</v>
       </c>
       <c r="B623">
-        <v>1.7</v>
+        <v>2.83</v>
       </c>
       <c r="C623">
-        <v>3.41</v>
+        <v>0.84</v>
       </c>
       <c r="D623">
         <v>3.31</v>
@@ -9197,10 +9201,10 @@
         <v>9748.2000000000007</v>
       </c>
       <c r="B624">
-        <v>1.67</v>
+        <v>2.68</v>
       </c>
       <c r="C624">
-        <v>3.36</v>
+        <v>0.72</v>
       </c>
       <c r="D624">
         <v>3.26</v>
@@ -9211,10 +9215,10 @@
         <v>9845.68</v>
       </c>
       <c r="B625">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="C625">
-        <v>3.32</v>
+        <v>0.6</v>
       </c>
       <c r="D625">
         <v>3.22</v>
@@ -9225,10 +9229,10 @@
         <v>9944.14</v>
       </c>
       <c r="B626">
-        <v>1.6</v>
+        <v>2.57</v>
       </c>
       <c r="C626">
-        <v>3.27</v>
+        <v>0.46</v>
       </c>
       <c r="D626">
         <v>3.18</v>
@@ -9239,10 +9243,10 @@
         <v>10043.58</v>
       </c>
       <c r="B627">
-        <v>1.56</v>
+        <v>2.64</v>
       </c>
       <c r="C627">
-        <v>3.23</v>
+        <v>0.31</v>
       </c>
       <c r="D627">
         <v>3.14</v>
@@ -9253,10 +9257,10 @@
         <v>10144.02</v>
       </c>
       <c r="B628">
-        <v>1.53</v>
+        <v>2.42</v>
       </c>
       <c r="C628">
-        <v>3.19</v>
+        <v>0.19</v>
       </c>
       <c r="D628">
         <v>3.1</v>
@@ -9267,10 +9271,10 @@
         <v>10245.459999999999</v>
       </c>
       <c r="B629">
-        <v>1.5</v>
+        <v>2.19</v>
       </c>
       <c r="C629">
-        <v>3.15</v>
+        <v>0.06</v>
       </c>
       <c r="D629">
         <v>3.06</v>
@@ -9281,10 +9285,10 @@
         <v>10347.91</v>
       </c>
       <c r="B630">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="C630">
-        <v>3.12</v>
+        <v>-0.1</v>
       </c>
       <c r="D630">
         <v>3.03</v>
@@ -9295,10 +9299,10 @@
         <v>10451.39</v>
       </c>
       <c r="B631">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="C631">
-        <v>3.08</v>
+        <v>-0.27</v>
       </c>
       <c r="D631">
         <v>2.99</v>
@@ -9309,10 +9313,10 @@
         <v>10555.91</v>
       </c>
       <c r="B632">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="C632">
-        <v>3.04</v>
+        <v>-0.45</v>
       </c>
       <c r="D632">
         <v>2.96</v>
@@ -9323,10 +9327,10 @@
         <v>10661.46</v>
       </c>
       <c r="B633">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="C633">
-        <v>3.01</v>
+        <v>-0.65</v>
       </c>
       <c r="D633">
         <v>2.92</v>
@@ -9337,10 +9341,10 @@
         <v>10768.08</v>
       </c>
       <c r="B634">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="C634">
-        <v>2.97</v>
+        <v>-0.84</v>
       </c>
       <c r="D634">
         <v>2.88</v>
@@ -9351,10 +9355,10 @@
         <v>10875.76</v>
       </c>
       <c r="B635">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="C635">
-        <v>2.93</v>
+        <v>-1.03</v>
       </c>
       <c r="D635">
         <v>2.84</v>
@@ -9365,10 +9369,10 @@
         <v>10984.52</v>
       </c>
       <c r="B636">
-        <v>1.3</v>
+        <v>0.88</v>
       </c>
       <c r="C636">
-        <v>2.88</v>
+        <v>-1.21</v>
       </c>
       <c r="D636">
         <v>2.8</v>
@@ -9379,10 +9383,10 @@
         <v>11094.36</v>
       </c>
       <c r="B637">
-        <v>1.27</v>
+        <v>0.69</v>
       </c>
       <c r="C637">
-        <v>2.84</v>
+        <v>-1.4</v>
       </c>
       <c r="D637">
         <v>2.75</v>
@@ -9393,10 +9397,10 @@
         <v>11205.31</v>
       </c>
       <c r="B638">
-        <v>1.24</v>
+        <v>0.5</v>
       </c>
       <c r="C638">
-        <v>2.79</v>
+        <v>-1.6</v>
       </c>
       <c r="D638">
         <v>2.71</v>
@@ -9407,10 +9411,10 @@
         <v>11317.36</v>
       </c>
       <c r="B639">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="C639">
-        <v>2.74</v>
+        <v>-1.79</v>
       </c>
       <c r="D639">
         <v>2.66</v>
@@ -9421,10 +9425,10 @@
         <v>11430.53</v>
       </c>
       <c r="B640">
-        <v>1.17</v>
+        <v>0.1</v>
       </c>
       <c r="C640">
-        <v>2.69</v>
+        <v>-1.99</v>
       </c>
       <c r="D640">
         <v>2.61</v>
@@ -9435,10 +9439,10 @@
         <v>11544.84</v>
       </c>
       <c r="B641">
-        <v>1.1299999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="C641">
-        <v>2.63</v>
+        <v>-2.19</v>
       </c>
       <c r="D641">
         <v>2.5499999999999998</v>
@@ -9449,10 +9453,10 @@
         <v>11660.29</v>
       </c>
       <c r="B642">
-        <v>1.0900000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="C642">
-        <v>2.58</v>
+        <v>-2.4</v>
       </c>
       <c r="D642">
         <v>2.5</v>
@@ -9463,10 +9467,10 @@
         <v>11776.89</v>
       </c>
       <c r="B643">
-        <v>1.05</v>
+        <v>-0.51</v>
       </c>
       <c r="C643">
-        <v>2.52</v>
+        <v>-2.6</v>
       </c>
       <c r="D643">
         <v>2.44</v>
@@ -9477,10 +9481,10 @@
         <v>11894.66</v>
       </c>
       <c r="B644">
-        <v>1.01</v>
+        <v>-0.71</v>
       </c>
       <c r="C644">
-        <v>2.46</v>
+        <v>-2.81</v>
       </c>
       <c r="D644">
         <v>2.39</v>
@@ -9491,10 +9495,10 @@
         <v>12013.6</v>
       </c>
       <c r="B645">
-        <v>0.97</v>
+        <v>-0.92</v>
       </c>
       <c r="C645">
-        <v>2.4</v>
+        <v>-3.02</v>
       </c>
       <c r="D645">
         <v>2.33</v>
@@ -9505,10 +9509,10 @@
         <v>12133.74</v>
       </c>
       <c r="B646">
-        <v>0.92</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="C646">
-        <v>2.34</v>
+        <v>-3.23</v>
       </c>
       <c r="D646">
         <v>2.2599999999999998</v>
@@ -9519,10 +9523,10 @@
         <v>12255.08</v>
       </c>
       <c r="B647">
-        <v>0.88</v>
+        <v>-1.35</v>
       </c>
       <c r="C647">
-        <v>2.2799999999999998</v>
+        <v>-3.45</v>
       </c>
       <c r="D647">
         <v>2.2000000000000002</v>
@@ -9533,10 +9537,10 @@
         <v>12377.63</v>
       </c>
       <c r="B648">
-        <v>0.83</v>
+        <v>-1.57</v>
       </c>
       <c r="C648">
-        <v>2.21</v>
+        <v>-3.66</v>
       </c>
       <c r="D648">
         <v>2.14</v>
@@ -9547,10 +9551,10 @@
         <v>12501.41</v>
       </c>
       <c r="B649">
-        <v>0.79</v>
+        <v>-1.79</v>
       </c>
       <c r="C649">
-        <v>2.15</v>
+        <v>-3.88</v>
       </c>
       <c r="D649">
         <v>2.0699999999999998</v>
@@ -9561,10 +9565,10 @@
         <v>12626.42</v>
       </c>
       <c r="B650">
-        <v>0.74</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="C650">
-        <v>2.08</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D650">
         <v>2</v>
@@ -9575,10 +9579,10 @@
         <v>12752.68</v>
       </c>
       <c r="B651">
-        <v>0.69</v>
+        <v>-2.23</v>
       </c>
       <c r="C651">
-        <v>2.0099999999999998</v>
+        <v>-4.33</v>
       </c>
       <c r="D651">
         <v>1.93</v>
@@ -9589,10 +9593,10 @@
         <v>12880.21</v>
       </c>
       <c r="B652">
-        <v>0.64</v>
+        <v>-2.46</v>
       </c>
       <c r="C652">
-        <v>1.93</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="D652">
         <v>1.86</v>
@@ -9603,10 +9607,10 @@
         <v>13009.01</v>
       </c>
       <c r="B653">
-        <v>0.59</v>
+        <v>-2.69</v>
       </c>
       <c r="C653">
-        <v>1.86</v>
+        <v>-4.78</v>
       </c>
       <c r="D653">
         <v>1.78</v>
@@ -9617,10 +9621,10 @@
         <v>13139.1</v>
       </c>
       <c r="B654">
-        <v>0.54</v>
+        <v>-2.92</v>
       </c>
       <c r="C654">
-        <v>1.78</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="D654">
         <v>1.71</v>
@@ -9631,10 +9635,10 @@
         <v>13270.49</v>
       </c>
       <c r="B655">
-        <v>0.48</v>
+        <v>-3.16</v>
       </c>
       <c r="C655">
-        <v>1.7</v>
+        <v>-5.25</v>
       </c>
       <c r="D655">
         <v>1.63</v>
@@ -9645,10 +9649,10 @@
         <v>13403.2</v>
       </c>
       <c r="B656">
-        <v>0.43</v>
+        <v>-3.39</v>
       </c>
       <c r="C656">
-        <v>1.63</v>
+        <v>-5.49</v>
       </c>
       <c r="D656">
         <v>1.55</v>
@@ -9659,10 +9663,10 @@
         <v>13537.23</v>
       </c>
       <c r="B657">
-        <v>0.37</v>
+        <v>-3.63</v>
       </c>
       <c r="C657">
-        <v>1.54</v>
+        <v>-5.72</v>
       </c>
       <c r="D657">
         <v>1.47</v>
@@ -9673,10 +9677,10 @@
         <v>13672.6</v>
       </c>
       <c r="B658">
-        <v>0.32</v>
+        <v>-3.87</v>
       </c>
       <c r="C658">
-        <v>1.46</v>
+        <v>-5.96</v>
       </c>
       <c r="D658">
         <v>1.39</v>
@@ -9687,10 +9691,10 @@
         <v>13809.33</v>
       </c>
       <c r="B659">
-        <v>0.26</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="C659">
-        <v>1.38</v>
+        <v>-6.21</v>
       </c>
       <c r="D659">
         <v>1.3</v>
@@ -9701,10 +9705,10 @@
         <v>13947.42</v>
       </c>
       <c r="B660">
-        <v>0.2</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="C660">
-        <v>1.29</v>
+        <v>-6.45</v>
       </c>
       <c r="D660">
         <v>1.22</v>
@@ -9715,10 +9719,10 @@
         <v>14086.9</v>
       </c>
       <c r="B661">
-        <v>0.14000000000000001</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="C661">
-        <v>1.2</v>
+        <v>-6.7</v>
       </c>
       <c r="D661">
         <v>1.1299999999999999</v>
@@ -9729,10 +9733,10 @@
         <v>14227.77</v>
       </c>
       <c r="B662">
-        <v>0.08</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="C662">
-        <v>1.1100000000000001</v>
+        <v>-6.95</v>
       </c>
       <c r="D662">
         <v>1.04</v>
@@ -9743,10 +9747,10 @@
         <v>14370.04</v>
       </c>
       <c r="B663">
-        <v>0.02</v>
+        <v>-5.1100000000000003</v>
       </c>
       <c r="C663">
-        <v>1.02</v>
+        <v>-7.2</v>
       </c>
       <c r="D663">
         <v>0.95</v>
@@ -9757,10 +9761,10 @@
         <v>14513.74</v>
       </c>
       <c r="B664">
-        <v>-0.05</v>
+        <v>-5.37</v>
       </c>
       <c r="C664">
-        <v>0.92</v>
+        <v>-7.46</v>
       </c>
       <c r="D664">
         <v>0.85</v>
@@ -9771,10 +9775,10 @@
         <v>14658.88</v>
       </c>
       <c r="B665">
-        <v>-0.11</v>
+        <v>-5.62</v>
       </c>
       <c r="C665">
-        <v>0.83</v>
+        <v>-7.72</v>
       </c>
       <c r="D665">
         <v>0.76</v>
@@ -9785,10 +9789,10 @@
         <v>14805.47</v>
       </c>
       <c r="B666">
-        <v>-0.18</v>
+        <v>-5.88</v>
       </c>
       <c r="C666">
-        <v>0.73</v>
+        <v>-7.98</v>
       </c>
       <c r="D666">
         <v>0.66</v>
@@ -9799,10 +9803,10 @@
         <v>14953.52</v>
       </c>
       <c r="B667">
-        <v>-0.25</v>
+        <v>-6.15</v>
       </c>
       <c r="C667">
-        <v>0.63</v>
+        <v>-8.24</v>
       </c>
       <c r="D667">
         <v>0.56000000000000005</v>
@@ -9813,10 +9817,10 @@
         <v>15103.06</v>
       </c>
       <c r="B668">
-        <v>-0.32</v>
+        <v>-6.41</v>
       </c>
       <c r="C668">
-        <v>0.53</v>
+        <v>-8.5</v>
       </c>
       <c r="D668">
         <v>0.46</v>
@@ -9827,10 +9831,10 @@
         <v>15254.09</v>
       </c>
       <c r="B669">
-        <v>-0.38</v>
+        <v>-6.68</v>
       </c>
       <c r="C669">
-        <v>0.43</v>
+        <v>-8.77</v>
       </c>
       <c r="D669">
         <v>0.36</v>
@@ -9841,10 +9845,10 @@
         <v>15406.63</v>
       </c>
       <c r="B670">
-        <v>-0.46</v>
+        <v>-6.95</v>
       </c>
       <c r="C670">
-        <v>0.32</v>
+        <v>-9.0399999999999991</v>
       </c>
       <c r="D670">
         <v>0.25</v>
@@ -9855,10 +9859,10 @@
         <v>15560.7</v>
       </c>
       <c r="B671">
-        <v>-0.53</v>
+        <v>-7.22</v>
       </c>
       <c r="C671">
-        <v>0.22</v>
+        <v>-9.31</v>
       </c>
       <c r="D671">
         <v>0.14000000000000001</v>
@@ -9869,10 +9873,10 @@
         <v>15716.3</v>
       </c>
       <c r="B672">
-        <v>-0.6</v>
+        <v>-7.49</v>
       </c>
       <c r="C672">
-        <v>0.11</v>
+        <v>-9.59</v>
       </c>
       <c r="D672">
         <v>0.04</v>
@@ -9883,10 +9887,10 @@
         <v>15873.47</v>
       </c>
       <c r="B673">
-        <v>-0.67</v>
+        <v>-7.77</v>
       </c>
       <c r="C673">
-        <v>0</v>
+        <v>-9.86</v>
       </c>
       <c r="D673">
         <v>-7.0000000000000007E-2</v>
@@ -9897,10 +9901,10 @@
         <v>16032.2</v>
       </c>
       <c r="B674">
-        <v>-0.75</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C674">
-        <v>-0.11</v>
+        <v>-10.14</v>
       </c>
       <c r="D674">
         <v>-0.19</v>
@@ -9911,10 +9915,10 @@
         <v>16192.52</v>
       </c>
       <c r="B675">
-        <v>-0.83</v>
+        <v>-8.33</v>
       </c>
       <c r="C675">
-        <v>-0.23</v>
+        <v>-10.42</v>
       </c>
       <c r="D675">
         <v>-0.3</v>
@@ -9925,10 +9929,10 @@
         <v>16354.45</v>
       </c>
       <c r="B676">
-        <v>-0.9</v>
+        <v>-8.61</v>
       </c>
       <c r="C676">
-        <v>-0.34</v>
+        <v>-10.71</v>
       </c>
       <c r="D676">
         <v>-0.41</v>
@@ -9939,10 +9943,10 @@
         <v>16517.990000000002</v>
       </c>
       <c r="B677">
-        <v>-0.98</v>
+        <v>-8.9</v>
       </c>
       <c r="C677">
-        <v>-0.46</v>
+        <v>-10.99</v>
       </c>
       <c r="D677">
         <v>-0.53</v>
@@ -9953,10 +9957,10 @@
         <v>16683.169999999998</v>
       </c>
       <c r="B678">
-        <v>-1.06</v>
+        <v>-9.19</v>
       </c>
       <c r="C678">
-        <v>-0.57999999999999996</v>
+        <v>-11.28</v>
       </c>
       <c r="D678">
         <v>-0.65</v>
@@ -9967,10 +9971,10 @@
         <v>16850.009999999998</v>
       </c>
       <c r="B679">
-        <v>-1.1399999999999999</v>
+        <v>-9.48</v>
       </c>
       <c r="C679">
-        <v>-0.7</v>
+        <v>-11.57</v>
       </c>
       <c r="D679">
         <v>-0.77</v>
@@ -9981,10 +9985,10 @@
         <v>17018.509999999998</v>
       </c>
       <c r="B680">
-        <v>-1.23</v>
+        <v>-9.77</v>
       </c>
       <c r="C680">
-        <v>-0.82</v>
+        <v>-11.86</v>
       </c>
       <c r="D680">
         <v>-0.89</v>
@@ -9995,10 +9999,10 @@
         <v>17188.689999999999</v>
       </c>
       <c r="B681">
-        <v>-1.31</v>
+        <v>-10.06</v>
       </c>
       <c r="C681">
-        <v>-0.95</v>
+        <v>-12.16</v>
       </c>
       <c r="D681">
         <v>-1.02</v>
@@ -10009,10 +10013,10 @@
         <v>17360.580000000002</v>
       </c>
       <c r="B682">
-        <v>-1.39</v>
+        <v>-10.36</v>
       </c>
       <c r="C682">
-        <v>-1.07</v>
+        <v>-12.46</v>
       </c>
       <c r="D682">
         <v>-1.1399999999999999</v>
@@ -10023,10 +10027,10 @@
         <v>17534.18</v>
       </c>
       <c r="B683">
-        <v>-1.48</v>
+        <v>-10.66</v>
       </c>
       <c r="C683">
-        <v>-1.2</v>
+        <v>-12.76</v>
       </c>
       <c r="D683">
         <v>-1.27</v>
@@ -10037,10 +10041,10 @@
         <v>17709.53</v>
       </c>
       <c r="B684">
-        <v>-1.57</v>
+        <v>-10.96</v>
       </c>
       <c r="C684">
-        <v>-1.33</v>
+        <v>-13.06</v>
       </c>
       <c r="D684">
         <v>-1.4</v>
@@ -10051,10 +10055,10 @@
         <v>17886.62</v>
       </c>
       <c r="B685">
-        <v>-1.65</v>
+        <v>-11.27</v>
       </c>
       <c r="C685">
-        <v>-1.46</v>
+        <v>-13.36</v>
       </c>
       <c r="D685">
         <v>-1.53</v>
@@ -10065,10 +10069,10 @@
         <v>18065.490000000002</v>
       </c>
       <c r="B686">
-        <v>-1.74</v>
+        <v>-11.58</v>
       </c>
       <c r="C686">
-        <v>-1.59</v>
+        <v>-13.67</v>
       </c>
       <c r="D686">
         <v>-1.67</v>
@@ -10079,10 +10083,10 @@
         <v>18246.14</v>
       </c>
       <c r="B687">
-        <v>-1.83</v>
+        <v>-11.89</v>
       </c>
       <c r="C687">
-        <v>-1.73</v>
+        <v>-13.98</v>
       </c>
       <c r="D687">
         <v>-1.8</v>
@@ -10093,10 +10097,10 @@
         <v>18428.599999999999</v>
       </c>
       <c r="B688">
-        <v>-1.92</v>
+        <v>-12.2</v>
       </c>
       <c r="C688">
-        <v>-1.86</v>
+        <v>-14.29</v>
       </c>
       <c r="D688">
         <v>-1.94</v>
@@ -10107,10 +10111,10 @@
         <v>18612.89</v>
       </c>
       <c r="B689">
-        <v>-2.02</v>
+        <v>-12.51</v>
       </c>
       <c r="C689">
-        <v>-2</v>
+        <v>-14.61</v>
       </c>
       <c r="D689">
         <v>-2.08</v>
@@ -10121,10 +10125,10 @@
         <v>18799.02</v>
       </c>
       <c r="B690">
-        <v>-2.11</v>
+        <v>-12.83</v>
       </c>
       <c r="C690">
-        <v>-2.14</v>
+        <v>-14.92</v>
       </c>
       <c r="D690">
         <v>-2.2200000000000002</v>
@@ -10135,10 +10139,10 @@
         <v>18987.009999999998</v>
       </c>
       <c r="B691">
-        <v>-2.21</v>
+        <v>-13.15</v>
       </c>
       <c r="C691">
-        <v>-2.2799999999999998</v>
+        <v>-15.24</v>
       </c>
       <c r="D691">
         <v>-2.36</v>
@@ -10149,10 +10153,10 @@
         <v>19176.88</v>
       </c>
       <c r="B692">
-        <v>-2.2999999999999998</v>
+        <v>-13.47</v>
       </c>
       <c r="C692">
-        <v>-2.4300000000000002</v>
+        <v>-15.56</v>
       </c>
       <c r="D692">
         <v>-2.5</v>
@@ -10163,10 +10167,10 @@
         <v>19368.650000000001</v>
       </c>
       <c r="B693">
-        <v>-2.4</v>
+        <v>-13.79</v>
       </c>
       <c r="C693">
-        <v>-2.57</v>
+        <v>-15.89</v>
       </c>
       <c r="D693">
         <v>-2.65</v>
@@ -10177,10 +10181,10 @@
         <v>19562.330000000002</v>
       </c>
       <c r="B694">
-        <v>-2.5</v>
+        <v>-14.12</v>
       </c>
       <c r="C694">
-        <v>-2.72</v>
+        <v>-16.21</v>
       </c>
       <c r="D694">
         <v>-2.8</v>
@@ -10191,10 +10195,10 @@
         <v>19757.96</v>
       </c>
       <c r="B695">
-        <v>-2.6</v>
+        <v>-14.45</v>
       </c>
       <c r="C695">
-        <v>-2.87</v>
+        <v>-16.54</v>
       </c>
       <c r="D695">
         <v>-2.95</v>
@@ -10205,13 +10209,176 @@
         <v>19955.54</v>
       </c>
       <c r="B696">
-        <v>-2.7</v>
+        <v>-14.78</v>
       </c>
       <c r="C696">
-        <v>-3.02</v>
+        <v>-16.87</v>
       </c>
       <c r="D696">
         <v>-3.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434E8371-2F45-4364-8F91-68DB86F9801F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>7.2</v>
+      </c>
+      <c r="C2">
+        <v>-6</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2+B$13</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">B3+C3+B$13</f>
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>-4.7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4000</v>
+      </c>
+      <c r="B9">
+        <v>2.8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10">
+        <v>-0.6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>16000</v>
+      </c>
+      <c r="B11">
+        <v>-11.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/my_results/Pre-Amp Calculator.xlsx
+++ b/my_results/Pre-Amp Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73410390-E651-4B88-B211-072ACA8AB0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D6415-B1B8-4896-A4E8-511B6D8322AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1932" windowWidth="15732" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impulse" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>frequency</t>
-  </si>
   <si>
     <t>sum</t>
   </si>
@@ -67,16 +73,19 @@
     <t>Final</t>
   </si>
   <si>
-    <t>harman</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
-    <t>harman adjusted</t>
+    <t>pre amp (= output max)</t>
   </si>
   <si>
-    <t>pre amp (= output max)</t>
+    <t>jm1 adjusted</t>
+  </si>
+  <si>
+    <t>jm1</t>
+  </si>
+  <si>
+    <t>f \ equalisation</t>
   </si>
 </sst>
 </file>
@@ -100,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,12 +117,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,38 +446,38 @@
   <dimension ref="A1:L696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -436,33 +485,34 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>-4.53</v>
+        <v>-0.33</v>
       </c>
       <c r="C2">
-        <v>-7.24</v>
+        <v>0.81</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f>SUM(B2:B696)</f>
-        <v>489.64999999999941</v>
+        <v>-447.04000000000104</v>
       </c>
       <c r="H2">
         <f>AVERAGE(B2:B696)</f>
-        <v>0.70453237410071856</v>
+        <v>-0.64322302158273537</v>
       </c>
       <c r="I2">
         <f>MIN($B$2:$B$696)</f>
-        <v>-16.600000000000001</v>
+        <v>-6.14</v>
       </c>
       <c r="J2">
         <f>MAX($B$2:$B$696)</f>
-        <v>9.77</v>
-      </c>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2">
         <f>J2-K2-H2</f>
-        <v>9.0654676258992808</v>
+        <v>5.0332230215827352</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -470,33 +520,34 @@
         <v>20.2</v>
       </c>
       <c r="B3">
-        <v>-4.4400000000000004</v>
+        <v>-0.36</v>
       </c>
       <c r="C3">
-        <v>-7.21</v>
+        <v>0.78</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f>SUM(C2:C696)</f>
-        <v>-6.1200000000001502</v>
+        <v>-305.54999999999978</v>
       </c>
       <c r="H3">
         <f>AVERAGE(C2:C696)</f>
-        <v>-8.80575539568367E-3</v>
+        <v>-0.43964028776978387</v>
       </c>
       <c r="I3">
         <f>MIN($C$2:$C$696)</f>
-        <v>-15.01</v>
+        <v>-6.73</v>
       </c>
       <c r="J3">
         <f>MAX($C$2:$C$696)</f>
-        <v>10.130000000000001</v>
-      </c>
+        <v>3.78</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3">
         <f>J3-K3-H3</f>
-        <v>10.138805755395685</v>
+        <v>4.2196402877697841</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -504,13 +555,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B4">
-        <v>-4.3600000000000003</v>
+        <v>-0.39</v>
       </c>
       <c r="C4">
-        <v>-7.17</v>
+        <v>0.75</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f>SUM(D2:D696)</f>
@@ -528,6 +579,7 @@
         <f>MAX($D$2:$D$696)</f>
         <v>0</v>
       </c>
+      <c r="K4" s="3"/>
       <c r="L4" t="e">
         <f>J4-K4-H4</f>
         <v>#DIV/0!</v>
@@ -538,10 +590,10 @@
         <v>20.61</v>
       </c>
       <c r="B5">
-        <v>-4.2699999999999996</v>
+        <v>-0.42</v>
       </c>
       <c r="C5">
-        <v>-7.14</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -549,10 +601,10 @@
         <v>20.81</v>
       </c>
       <c r="B6">
-        <v>-4.1900000000000004</v>
+        <v>-0.45</v>
       </c>
       <c r="C6">
-        <v>-7.12</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -560,10 +612,10 @@
         <v>21.02</v>
       </c>
       <c r="B7">
-        <v>-4.1100000000000003</v>
+        <v>-0.48</v>
       </c>
       <c r="C7">
-        <v>-7.09</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -571,10 +623,10 @@
         <v>21.23</v>
       </c>
       <c r="B8">
-        <v>-4.03</v>
+        <v>-0.51</v>
       </c>
       <c r="C8">
-        <v>-7.07</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -582,10 +634,10 @@
         <v>21.44</v>
       </c>
       <c r="B9">
-        <v>-3.95</v>
+        <v>-0.54</v>
       </c>
       <c r="C9">
-        <v>-7.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -593,10 +645,10 @@
         <v>21.66</v>
       </c>
       <c r="B10">
-        <v>-3.88</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C10">
-        <v>-7.04</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -604,10 +656,10 @@
         <v>21.87</v>
       </c>
       <c r="B11">
-        <v>-3.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C11">
-        <v>-7.03</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -615,10 +667,10 @@
         <v>22.09</v>
       </c>
       <c r="B12">
-        <v>-3.73</v>
+        <v>-0.63</v>
       </c>
       <c r="C12">
-        <v>-7.02</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -626,10 +678,10 @@
         <v>22.31</v>
       </c>
       <c r="B13">
-        <v>-3.66</v>
+        <v>-0.66</v>
       </c>
       <c r="C13">
-        <v>-7.02</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -637,10 +689,10 @@
         <v>22.54</v>
       </c>
       <c r="B14">
-        <v>-3.59</v>
+        <v>-0.69</v>
       </c>
       <c r="C14">
-        <v>-7.01</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -648,10 +700,10 @@
         <v>22.76</v>
       </c>
       <c r="B15">
-        <v>-3.52</v>
+        <v>-0.71</v>
       </c>
       <c r="C15">
-        <v>-7.01</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -659,10 +711,10 @@
         <v>22.99</v>
       </c>
       <c r="B16">
-        <v>-3.46</v>
+        <v>-0.74</v>
       </c>
       <c r="C16">
-        <v>-7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,10 +722,10 @@
         <v>23.22</v>
       </c>
       <c r="B17">
-        <v>-3.39</v>
+        <v>-0.77</v>
       </c>
       <c r="C17">
-        <v>-7</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,10 +733,10 @@
         <v>23.45</v>
       </c>
       <c r="B18">
-        <v>-3.33</v>
+        <v>-0.8</v>
       </c>
       <c r="C18">
-        <v>-6.99</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,10 +744,10 @@
         <v>23.69</v>
       </c>
       <c r="B19">
-        <v>-3.27</v>
+        <v>-0.83</v>
       </c>
       <c r="C19">
-        <v>-6.99</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,10 +755,10 @@
         <v>23.92</v>
       </c>
       <c r="B20">
-        <v>-3.21</v>
+        <v>-0.86</v>
       </c>
       <c r="C20">
-        <v>-6.98</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,10 +766,10 @@
         <v>24.16</v>
       </c>
       <c r="B21">
-        <v>-3.15</v>
+        <v>-0.88</v>
       </c>
       <c r="C21">
-        <v>-6.98</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,10 +777,10 @@
         <v>24.4</v>
       </c>
       <c r="B22">
-        <v>-3.1</v>
+        <v>-0.91</v>
       </c>
       <c r="C22">
-        <v>-6.97</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,10 +788,10 @@
         <v>24.65</v>
       </c>
       <c r="B23">
-        <v>-3.04</v>
+        <v>-0.94</v>
       </c>
       <c r="C23">
-        <v>-6.96</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -747,10 +799,10 @@
         <v>24.89</v>
       </c>
       <c r="B24">
-        <v>-2.99</v>
+        <v>-0.96</v>
       </c>
       <c r="C24">
-        <v>-6.96</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,10 +810,10 @@
         <v>25.14</v>
       </c>
       <c r="B25">
-        <v>-2.93</v>
+        <v>-0.99</v>
       </c>
       <c r="C25">
-        <v>-6.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -769,10 +821,10 @@
         <v>25.39</v>
       </c>
       <c r="B26">
-        <v>-2.88</v>
+        <v>-1.02</v>
       </c>
       <c r="C26">
-        <v>-6.95</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -780,10 +832,10 @@
         <v>25.65</v>
       </c>
       <c r="B27">
-        <v>-2.82</v>
+        <v>-1.05</v>
       </c>
       <c r="C27">
-        <v>-6.94</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -791,10 +843,10 @@
         <v>25.91</v>
       </c>
       <c r="B28">
-        <v>-2.76</v>
+        <v>-1.07</v>
       </c>
       <c r="C28">
-        <v>-6.93</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,10 +854,10 @@
         <v>26.16</v>
       </c>
       <c r="B29">
-        <v>-2.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C29">
-        <v>-6.92</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,10 +865,10 @@
         <v>26.43</v>
       </c>
       <c r="B30">
-        <v>-2.65</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="C30">
-        <v>-6.91</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,10 +876,10 @@
         <v>26.69</v>
       </c>
       <c r="B31">
-        <v>-2.59</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="C31">
-        <v>-6.91</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,10 +887,10 @@
         <v>26.96</v>
       </c>
       <c r="B32">
-        <v>-2.5299999999999998</v>
+        <v>-1.18</v>
       </c>
       <c r="C32">
-        <v>-6.9</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,10 +898,10 @@
         <v>27.23</v>
       </c>
       <c r="B33">
-        <v>-2.4700000000000002</v>
+        <v>-1.2</v>
       </c>
       <c r="C33">
-        <v>-6.89</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -857,10 +909,10 @@
         <v>27.5</v>
       </c>
       <c r="B34">
-        <v>-2.42</v>
+        <v>-1.22</v>
       </c>
       <c r="C34">
-        <v>-6.89</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -868,10 +920,10 @@
         <v>27.77</v>
       </c>
       <c r="B35">
-        <v>-2.36</v>
+        <v>-1.25</v>
       </c>
       <c r="C35">
-        <v>-6.88</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -879,10 +931,10 @@
         <v>28.05</v>
       </c>
       <c r="B36">
-        <v>-2.29</v>
+        <v>-1.27</v>
       </c>
       <c r="C36">
-        <v>-6.87</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,10 +942,10 @@
         <v>28.33</v>
       </c>
       <c r="B37">
-        <v>-2.2200000000000002</v>
+        <v>-1.3</v>
       </c>
       <c r="C37">
-        <v>-6.86</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -901,10 +953,10 @@
         <v>28.62</v>
       </c>
       <c r="B38">
-        <v>-2.15</v>
+        <v>-1.32</v>
       </c>
       <c r="C38">
-        <v>-6.85</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,10 +964,10 @@
         <v>28.9</v>
       </c>
       <c r="B39">
-        <v>-2.08</v>
+        <v>-1.35</v>
       </c>
       <c r="C39">
-        <v>-6.84</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,10 +975,10 @@
         <v>29.19</v>
       </c>
       <c r="B40">
-        <v>-2</v>
+        <v>-1.37</v>
       </c>
       <c r="C40">
-        <v>-6.83</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -934,10 +986,10 @@
         <v>29.48</v>
       </c>
       <c r="B41">
-        <v>-1.92</v>
+        <v>-1.4</v>
       </c>
       <c r="C41">
-        <v>-6.82</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,10 +997,10 @@
         <v>29.78</v>
       </c>
       <c r="B42">
-        <v>-1.83</v>
+        <v>-1.42</v>
       </c>
       <c r="C42">
-        <v>-6.81</v>
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,10 +1008,10 @@
         <v>30.08</v>
       </c>
       <c r="B43">
-        <v>-1.74</v>
+        <v>-1.45</v>
       </c>
       <c r="C43">
-        <v>-6.8</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,10 +1019,10 @@
         <v>30.38</v>
       </c>
       <c r="B44">
-        <v>-1.65</v>
+        <v>-1.47</v>
       </c>
       <c r="C44">
-        <v>-6.79</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,10 +1030,10 @@
         <v>30.68</v>
       </c>
       <c r="B45">
-        <v>-1.54</v>
+        <v>-1.49</v>
       </c>
       <c r="C45">
-        <v>-6.78</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,10 +1041,10 @@
         <v>30.99</v>
       </c>
       <c r="B46">
-        <v>-1.42</v>
+        <v>-1.51</v>
       </c>
       <c r="C46">
-        <v>-6.77</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1000,10 +1052,10 @@
         <v>31.3</v>
       </c>
       <c r="B47">
-        <v>-1.31</v>
+        <v>-1.53</v>
       </c>
       <c r="C47">
-        <v>-6.76</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,10 +1063,10 @@
         <v>31.61</v>
       </c>
       <c r="B48">
-        <v>-1.2</v>
+        <v>-1.55</v>
       </c>
       <c r="C48">
-        <v>-6.75</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,10 +1074,10 @@
         <v>31.93</v>
       </c>
       <c r="B49">
-        <v>-1.1100000000000001</v>
+        <v>-1.57</v>
       </c>
       <c r="C49">
-        <v>-6.74</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,10 +1085,10 @@
         <v>32.24</v>
       </c>
       <c r="B50">
-        <v>-1.02</v>
+        <v>-1.59</v>
       </c>
       <c r="C50">
-        <v>-6.72</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,10 +1096,10 @@
         <v>32.57</v>
       </c>
       <c r="B51">
-        <v>-0.96</v>
+        <v>-1.61</v>
       </c>
       <c r="C51">
-        <v>-6.7</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1055,10 +1107,10 @@
         <v>32.89</v>
       </c>
       <c r="B52">
-        <v>-0.91</v>
+        <v>-1.63</v>
       </c>
       <c r="C52">
-        <v>-6.68</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1066,10 +1118,10 @@
         <v>33.22</v>
       </c>
       <c r="B53">
-        <v>-0.88</v>
+        <v>-1.66</v>
       </c>
       <c r="C53">
-        <v>-6.67</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,10 +1129,10 @@
         <v>33.549999999999997</v>
       </c>
       <c r="B54">
-        <v>-0.87</v>
+        <v>-1.69</v>
       </c>
       <c r="C54">
-        <v>-6.65</v>
+        <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1088,10 +1140,10 @@
         <v>33.89</v>
       </c>
       <c r="B55">
-        <v>-0.88</v>
+        <v>-1.71</v>
       </c>
       <c r="C55">
-        <v>-6.64</v>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1099,10 +1151,10 @@
         <v>34.229999999999997</v>
       </c>
       <c r="B56">
-        <v>-0.9</v>
+        <v>-1.74</v>
       </c>
       <c r="C56">
-        <v>-6.64</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,10 +1162,10 @@
         <v>34.57</v>
       </c>
       <c r="B57">
-        <v>-0.92</v>
+        <v>-1.76</v>
       </c>
       <c r="C57">
-        <v>-6.63</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1121,10 +1173,10 @@
         <v>34.92</v>
       </c>
       <c r="B58">
-        <v>-0.94</v>
+        <v>-1.79</v>
       </c>
       <c r="C58">
-        <v>-6.62</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1132,10 +1184,10 @@
         <v>35.270000000000003</v>
       </c>
       <c r="B59">
-        <v>-0.94</v>
+        <v>-1.81</v>
       </c>
       <c r="C59">
-        <v>-6.6</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1143,10 +1195,10 @@
         <v>35.619999999999997</v>
       </c>
       <c r="B60">
-        <v>-0.94</v>
+        <v>-1.83</v>
       </c>
       <c r="C60">
-        <v>-6.57</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1154,10 +1206,10 @@
         <v>35.97</v>
       </c>
       <c r="B61">
-        <v>-0.93</v>
+        <v>-1.85</v>
       </c>
       <c r="C61">
-        <v>-6.54</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,10 +1217,10 @@
         <v>36.33</v>
       </c>
       <c r="B62">
-        <v>-0.93</v>
+        <v>-1.86</v>
       </c>
       <c r="C62">
-        <v>-6.51</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1176,10 +1228,10 @@
         <v>36.700000000000003</v>
       </c>
       <c r="B63">
-        <v>-0.94</v>
+        <v>-1.88</v>
       </c>
       <c r="C63">
-        <v>-6.49</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,10 +1239,10 @@
         <v>37.06</v>
       </c>
       <c r="B64">
-        <v>-0.96</v>
+        <v>-1.89</v>
       </c>
       <c r="C64">
-        <v>-6.48</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,10 +1250,10 @@
         <v>37.43</v>
       </c>
       <c r="B65">
-        <v>-0.98</v>
+        <v>-1.91</v>
       </c>
       <c r="C65">
-        <v>-6.47</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,10 +1261,10 @@
         <v>37.81</v>
       </c>
       <c r="B66">
-        <v>-0.99</v>
+        <v>-1.92</v>
       </c>
       <c r="C66">
-        <v>-6.46</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1220,10 +1272,10 @@
         <v>38.19</v>
       </c>
       <c r="B67">
-        <v>-0.99</v>
+        <v>-1.93</v>
       </c>
       <c r="C67">
-        <v>-6.43</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,10 +1283,10 @@
         <v>38.57</v>
       </c>
       <c r="B68">
-        <v>-0.99</v>
+        <v>-1.95</v>
       </c>
       <c r="C68">
-        <v>-6.4</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,10 +1294,10 @@
         <v>38.950000000000003</v>
       </c>
       <c r="B69">
-        <v>-0.99</v>
+        <v>-1.96</v>
       </c>
       <c r="C69">
-        <v>-6.37</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,10 +1305,10 @@
         <v>39.340000000000003</v>
       </c>
       <c r="B70">
-        <v>-1</v>
+        <v>-1.97</v>
       </c>
       <c r="C70">
-        <v>-6.35</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,10 +1316,10 @@
         <v>39.74</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>-1.98</v>
       </c>
       <c r="C71">
-        <v>-6.32</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,10 +1327,10 @@
         <v>40.14</v>
       </c>
       <c r="B72">
-        <v>-1.01</v>
+        <v>-2</v>
       </c>
       <c r="C72">
-        <v>-6.3</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,10 +1338,10 @@
         <v>40.54</v>
       </c>
       <c r="B73">
-        <v>-1.02</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="C73">
-        <v>-6.27</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,10 +1349,10 @@
         <v>40.94</v>
       </c>
       <c r="B74">
-        <v>-1.03</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C74">
-        <v>-6.24</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,10 +1360,10 @@
         <v>41.35</v>
       </c>
       <c r="B75">
-        <v>-1.03</v>
+        <v>-2.04</v>
       </c>
       <c r="C75">
-        <v>-6.21</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,10 +1371,10 @@
         <v>41.76</v>
       </c>
       <c r="B76">
-        <v>-1.04</v>
+        <v>-2.06</v>
       </c>
       <c r="C76">
-        <v>-6.18</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,10 +1382,10 @@
         <v>42.18</v>
       </c>
       <c r="B77">
-        <v>-1.04</v>
+        <v>-2.08</v>
       </c>
       <c r="C77">
-        <v>-6.15</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,10 +1393,10 @@
         <v>42.6</v>
       </c>
       <c r="B78">
-        <v>-1.05</v>
+        <v>-2.09</v>
       </c>
       <c r="C78">
-        <v>-6.12</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1352,10 +1404,10 @@
         <v>43.03</v>
       </c>
       <c r="B79">
-        <v>-1.06</v>
+        <v>-2.11</v>
       </c>
       <c r="C79">
-        <v>-6.09</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,10 +1415,10 @@
         <v>43.46</v>
       </c>
       <c r="B80">
-        <v>-1.06</v>
+        <v>-2.12</v>
       </c>
       <c r="C80">
-        <v>-6.05</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,10 +1426,10 @@
         <v>43.9</v>
       </c>
       <c r="B81">
-        <v>-1.07</v>
+        <v>-2.14</v>
       </c>
       <c r="C81">
-        <v>-6.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,10 +1437,10 @@
         <v>44.33</v>
       </c>
       <c r="B82">
-        <v>-1.08</v>
+        <v>-2.15</v>
       </c>
       <c r="C82">
-        <v>-5.99</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,10 +1448,10 @@
         <v>44.78</v>
       </c>
       <c r="B83">
-        <v>-1.0900000000000001</v>
+        <v>-2.17</v>
       </c>
       <c r="C83">
-        <v>-5.96</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,10 +1459,10 @@
         <v>45.23</v>
       </c>
       <c r="B84">
-        <v>-1.1000000000000001</v>
+        <v>-2.19</v>
       </c>
       <c r="C84">
-        <v>-5.93</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,10 +1470,10 @@
         <v>45.68</v>
       </c>
       <c r="B85">
-        <v>-1.1100000000000001</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C85">
-        <v>-5.9</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,10 +1481,10 @@
         <v>46.13</v>
       </c>
       <c r="B86">
-        <v>-1.1200000000000001</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="C86">
-        <v>-5.86</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,10 +1492,10 @@
         <v>46.6</v>
       </c>
       <c r="B87">
-        <v>-1.1299999999999999</v>
+        <v>-2.23</v>
       </c>
       <c r="C87">
-        <v>-5.82</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,10 +1503,10 @@
         <v>47.06</v>
       </c>
       <c r="B88">
-        <v>-1.1399999999999999</v>
+        <v>-2.25</v>
       </c>
       <c r="C88">
-        <v>-5.78</v>
+        <v>-1.1100000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,10 +1514,10 @@
         <v>47.53</v>
       </c>
       <c r="B89">
-        <v>-1.1399999999999999</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="C89">
-        <v>-5.74</v>
+        <v>-1.1200000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,10 +1525,10 @@
         <v>48.01</v>
       </c>
       <c r="B90">
-        <v>-1.1599999999999999</v>
+        <v>-2.27</v>
       </c>
       <c r="C90">
-        <v>-5.71</v>
+        <v>-1.1399999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,10 +1536,10 @@
         <v>48.49</v>
       </c>
       <c r="B91">
-        <v>-1.17</v>
+        <v>-2.29</v>
       </c>
       <c r="C91">
-        <v>-5.68</v>
+        <v>-1.1499999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,10 +1547,10 @@
         <v>48.97</v>
       </c>
       <c r="B92">
-        <v>-1.19</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C92">
-        <v>-5.64</v>
+        <v>-1.1599999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,10 +1558,10 @@
         <v>49.46</v>
       </c>
       <c r="B93">
-        <v>-1.2</v>
+        <v>-2.31</v>
       </c>
       <c r="C93">
-        <v>-5.61</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,10 +1569,10 @@
         <v>49.96</v>
       </c>
       <c r="B94">
-        <v>-1.21</v>
+        <v>-2.31</v>
       </c>
       <c r="C94">
-        <v>-5.57</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,10 +1580,10 @@
         <v>50.46</v>
       </c>
       <c r="B95">
-        <v>-1.23</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="C95">
-        <v>-5.53</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,10 +1591,10 @@
         <v>50.96</v>
       </c>
       <c r="B96">
-        <v>-1.24</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="C96">
-        <v>-5.49</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,10 +1602,10 @@
         <v>51.47</v>
       </c>
       <c r="B97">
-        <v>-1.25</v>
+        <v>-2.33</v>
       </c>
       <c r="C97">
-        <v>-5.45</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,10 +1613,10 @@
         <v>51.99</v>
       </c>
       <c r="B98">
-        <v>-1.26</v>
+        <v>-2.33</v>
       </c>
       <c r="C98">
-        <v>-5.41</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,10 +1624,10 @@
         <v>52.51</v>
       </c>
       <c r="B99">
-        <v>-1.27</v>
+        <v>-2.34</v>
       </c>
       <c r="C99">
-        <v>-5.37</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,10 +1635,10 @@
         <v>53.03</v>
       </c>
       <c r="B100">
-        <v>-1.28</v>
+        <v>-2.35</v>
       </c>
       <c r="C100">
-        <v>-5.32</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,10 +1646,10 @@
         <v>53.56</v>
       </c>
       <c r="B101">
-        <v>-1.29</v>
+        <v>-2.36</v>
       </c>
       <c r="C101">
-        <v>-5.28</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,10 +1657,10 @@
         <v>54.1</v>
       </c>
       <c r="B102">
-        <v>-1.3</v>
+        <v>-2.38</v>
       </c>
       <c r="C102">
-        <v>-5.23</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,10 +1668,10 @@
         <v>54.64</v>
       </c>
       <c r="B103">
-        <v>-1.31</v>
+        <v>-2.4</v>
       </c>
       <c r="C103">
-        <v>-5.19</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,10 +1679,10 @@
         <v>55.18</v>
       </c>
       <c r="B104">
-        <v>-1.31</v>
+        <v>-2.42</v>
       </c>
       <c r="C104">
-        <v>-5.14</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,10 +1690,10 @@
         <v>55.74</v>
       </c>
       <c r="B105">
-        <v>-1.32</v>
+        <v>-2.44</v>
       </c>
       <c r="C105">
-        <v>-5.09</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,10 +1701,10 @@
         <v>56.29</v>
       </c>
       <c r="B106">
-        <v>-1.33</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="C106">
-        <v>-5.04</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,10 +1712,10 @@
         <v>56.86</v>
       </c>
       <c r="B107">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="C107">
         <v>-1.33</v>
-      </c>
-      <c r="C107">
-        <v>-4.99</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,10 +1723,10 @@
         <v>57.42</v>
       </c>
       <c r="B108">
-        <v>-1.34</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="C108">
-        <v>-4.95</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,10 +1734,10 @@
         <v>58</v>
       </c>
       <c r="B109">
-        <v>-1.34</v>
+        <v>-2.5</v>
       </c>
       <c r="C109">
-        <v>-4.8899999999999997</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,10 +1745,10 @@
         <v>58.58</v>
       </c>
       <c r="B110">
-        <v>-1.35</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="C110">
-        <v>-4.84</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,10 +1756,10 @@
         <v>59.16</v>
       </c>
       <c r="B111">
-        <v>-1.35</v>
+        <v>-2.52</v>
       </c>
       <c r="C111">
-        <v>-4.79</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1715,10 +1767,10 @@
         <v>59.76</v>
       </c>
       <c r="B112">
-        <v>-1.35</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="C112">
-        <v>-4.7300000000000004</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1726,10 +1778,10 @@
         <v>60.35</v>
       </c>
       <c r="B113">
-        <v>-1.35</v>
+        <v>-2.54</v>
       </c>
       <c r="C113">
-        <v>-4.68</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,10 +1789,10 @@
         <v>60.96</v>
       </c>
       <c r="B114">
-        <v>-1.36</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="C114">
-        <v>-4.63</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1748,10 +1800,10 @@
         <v>61.57</v>
       </c>
       <c r="B115">
-        <v>-1.37</v>
+        <v>-2.56</v>
       </c>
       <c r="C115">
-        <v>-4.58</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,10 +1811,10 @@
         <v>62.18</v>
       </c>
       <c r="B116">
-        <v>-1.38</v>
+        <v>-2.58</v>
       </c>
       <c r="C116">
-        <v>-4.54</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1770,10 +1822,10 @@
         <v>62.8</v>
       </c>
       <c r="B117">
-        <v>-1.39</v>
+        <v>-2.59</v>
       </c>
       <c r="C117">
-        <v>-4.49</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1781,10 +1833,10 @@
         <v>63.43</v>
       </c>
       <c r="B118">
-        <v>-1.39</v>
+        <v>-2.61</v>
       </c>
       <c r="C118">
-        <v>-4.4400000000000004</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,10 +1844,10 @@
         <v>64.069999999999993</v>
       </c>
       <c r="B119">
-        <v>-1.4</v>
+        <v>-2.62</v>
       </c>
       <c r="C119">
-        <v>-4.38</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1803,10 +1855,10 @@
         <v>64.709999999999994</v>
       </c>
       <c r="B120">
-        <v>-1.4</v>
+        <v>-2.64</v>
       </c>
       <c r="C120">
-        <v>-4.33</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1814,10 +1866,10 @@
         <v>65.349999999999994</v>
       </c>
       <c r="B121">
-        <v>-1.4</v>
+        <v>-2.66</v>
       </c>
       <c r="C121">
-        <v>-4.2699999999999996</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,10 +1877,10 @@
         <v>66.010000000000005</v>
       </c>
       <c r="B122">
-        <v>-1.4</v>
+        <v>-2.67</v>
       </c>
       <c r="C122">
-        <v>-4.22</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,10 +1888,10 @@
         <v>66.67</v>
       </c>
       <c r="B123">
-        <v>-1.4</v>
+        <v>-2.69</v>
       </c>
       <c r="C123">
-        <v>-4.16</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1847,10 +1899,10 @@
         <v>67.33</v>
       </c>
       <c r="B124">
-        <v>-1.4</v>
+        <v>-2.71</v>
       </c>
       <c r="C124">
-        <v>-4.1100000000000003</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1858,10 +1910,10 @@
         <v>68.010000000000005</v>
       </c>
       <c r="B125">
-        <v>-1.4</v>
+        <v>-2.74</v>
       </c>
       <c r="C125">
-        <v>-4.0599999999999996</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1869,10 +1921,10 @@
         <v>68.69</v>
       </c>
       <c r="B126">
-        <v>-1.4</v>
+        <v>-2.76</v>
       </c>
       <c r="C126">
-        <v>-4</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1880,10 +1932,10 @@
         <v>69.37</v>
       </c>
       <c r="B127">
-        <v>-1.39</v>
+        <v>-2.78</v>
       </c>
       <c r="C127">
-        <v>-3.95</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1891,10 +1943,10 @@
         <v>70.069999999999993</v>
       </c>
       <c r="B128">
-        <v>-1.39</v>
+        <v>-2.8</v>
       </c>
       <c r="C128">
-        <v>-3.89</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -1902,10 +1954,10 @@
         <v>70.77</v>
       </c>
       <c r="B129">
-        <v>-1.39</v>
+        <v>-2.83</v>
       </c>
       <c r="C129">
-        <v>-3.84</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1913,10 +1965,10 @@
         <v>71.48</v>
       </c>
       <c r="B130">
-        <v>-1.39</v>
+        <v>-2.85</v>
       </c>
       <c r="C130">
-        <v>-3.79</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1924,10 +1976,10 @@
         <v>72.19</v>
       </c>
       <c r="B131">
-        <v>-1.39</v>
+        <v>-2.88</v>
       </c>
       <c r="C131">
-        <v>-3.74</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -1935,10 +1987,10 @@
         <v>72.91</v>
       </c>
       <c r="B132">
-        <v>-1.38</v>
+        <v>-2.9</v>
       </c>
       <c r="C132">
-        <v>-3.68</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -1946,10 +1998,10 @@
         <v>73.64</v>
       </c>
       <c r="B133">
-        <v>-1.38</v>
+        <v>-2.92</v>
       </c>
       <c r="C133">
-        <v>-3.63</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -1957,10 +2009,10 @@
         <v>74.38</v>
       </c>
       <c r="B134">
-        <v>-1.38</v>
+        <v>-2.95</v>
       </c>
       <c r="C134">
-        <v>-3.58</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -1968,10 +2020,10 @@
         <v>75.12</v>
       </c>
       <c r="B135">
-        <v>-1.37</v>
+        <v>-2.97</v>
       </c>
       <c r="C135">
-        <v>-3.53</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,10 +2031,10 @@
         <v>75.87</v>
       </c>
       <c r="B136">
-        <v>-1.37</v>
+        <v>-3</v>
       </c>
       <c r="C136">
-        <v>-3.47</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -1990,10 +2042,10 @@
         <v>76.63</v>
       </c>
       <c r="B137">
-        <v>-1.36</v>
+        <v>-3.02</v>
       </c>
       <c r="C137">
-        <v>-3.42</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2001,10 +2053,10 @@
         <v>77.400000000000006</v>
       </c>
       <c r="B138">
-        <v>-1.35</v>
+        <v>-3.05</v>
       </c>
       <c r="C138">
-        <v>-3.37</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2012,10 +2064,10 @@
         <v>78.17</v>
       </c>
       <c r="B139">
-        <v>-1.34</v>
+        <v>-3.07</v>
       </c>
       <c r="C139">
-        <v>-3.31</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2023,10 +2075,10 @@
         <v>78.95</v>
       </c>
       <c r="B140">
-        <v>-1.33</v>
+        <v>-3.1</v>
       </c>
       <c r="C140">
-        <v>-3.26</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2034,10 +2086,10 @@
         <v>79.739999999999995</v>
       </c>
       <c r="B141">
-        <v>-1.32</v>
+        <v>-3.13</v>
       </c>
       <c r="C141">
-        <v>-3.2</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2045,10 +2097,10 @@
         <v>80.540000000000006</v>
       </c>
       <c r="B142">
-        <v>-1.3</v>
+        <v>-3.15</v>
       </c>
       <c r="C142">
-        <v>-3.14</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2056,10 +2108,10 @@
         <v>81.349999999999994</v>
       </c>
       <c r="B143">
-        <v>-1.29</v>
+        <v>-3.18</v>
       </c>
       <c r="C143">
-        <v>-3.09</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2067,10 +2119,10 @@
         <v>82.16</v>
       </c>
       <c r="B144">
-        <v>-1.28</v>
+        <v>-3.2</v>
       </c>
       <c r="C144">
-        <v>-3.04</v>
+        <v>-2.0699999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,10 +2130,10 @@
         <v>82.98</v>
       </c>
       <c r="B145">
-        <v>-1.27</v>
+        <v>-3.23</v>
       </c>
       <c r="C145">
-        <v>-2.99</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2089,10 +2141,10 @@
         <v>83.81</v>
       </c>
       <c r="B146">
-        <v>-1.27</v>
+        <v>-3.25</v>
       </c>
       <c r="C146">
-        <v>-2.94</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,10 +2152,10 @@
         <v>84.65</v>
       </c>
       <c r="B147">
-        <v>-1.25</v>
+        <v>-3.28</v>
       </c>
       <c r="C147">
-        <v>-2.89</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2111,10 +2163,10 @@
         <v>85.5</v>
       </c>
       <c r="B148">
-        <v>-1.24</v>
+        <v>-3.3</v>
       </c>
       <c r="C148">
-        <v>-2.84</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,10 +2174,10 @@
         <v>86.35</v>
       </c>
       <c r="B149">
-        <v>-1.23</v>
+        <v>-3.32</v>
       </c>
       <c r="C149">
-        <v>-2.79</v>
+        <v>-2.1800000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2133,10 +2185,10 @@
         <v>87.22</v>
       </c>
       <c r="B150">
-        <v>-1.21</v>
+        <v>-3.34</v>
       </c>
       <c r="C150">
-        <v>-2.74</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2144,10 +2196,10 @@
         <v>88.09</v>
       </c>
       <c r="B151">
-        <v>-1.2</v>
+        <v>-3.36</v>
       </c>
       <c r="C151">
-        <v>-2.69</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2155,10 +2207,10 @@
         <v>88.97</v>
       </c>
       <c r="B152">
-        <v>-1.19</v>
+        <v>-3.39</v>
       </c>
       <c r="C152">
-        <v>-2.65</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2166,10 +2218,10 @@
         <v>89.86</v>
       </c>
       <c r="B153">
-        <v>-1.18</v>
+        <v>-3.41</v>
       </c>
       <c r="C153">
-        <v>-2.6</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2177,10 +2229,10 @@
         <v>90.76</v>
       </c>
       <c r="B154">
-        <v>-1.17</v>
+        <v>-3.43</v>
       </c>
       <c r="C154">
-        <v>-2.56</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2188,10 +2240,10 @@
         <v>91.66</v>
       </c>
       <c r="B155">
-        <v>-1.1599999999999999</v>
+        <v>-3.46</v>
       </c>
       <c r="C155">
-        <v>-2.52</v>
+        <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,10 +2251,10 @@
         <v>92.58</v>
       </c>
       <c r="B156">
-        <v>-1.1499999999999999</v>
+        <v>-3.48</v>
       </c>
       <c r="C156">
-        <v>-2.48</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2210,10 +2262,10 @@
         <v>93.51</v>
       </c>
       <c r="B157">
-        <v>-1.1399999999999999</v>
+        <v>-3.51</v>
       </c>
       <c r="C157">
-        <v>-2.44</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2221,7 +2273,7 @@
         <v>94.44</v>
       </c>
       <c r="B158">
-        <v>-1.1299999999999999</v>
+        <v>-3.53</v>
       </c>
       <c r="C158">
         <v>-2.4</v>
@@ -2232,10 +2284,10 @@
         <v>95.39</v>
       </c>
       <c r="B159">
-        <v>-1.1200000000000001</v>
+        <v>-3.56</v>
       </c>
       <c r="C159">
-        <v>-2.36</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,10 +2295,10 @@
         <v>96.34</v>
       </c>
       <c r="B160">
-        <v>-1.1100000000000001</v>
+        <v>-3.58</v>
       </c>
       <c r="C160">
-        <v>-2.3199999999999998</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2254,10 +2306,10 @@
         <v>97.3</v>
       </c>
       <c r="B161">
-        <v>-1.1000000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="C161">
-        <v>-2.29</v>
+        <v>-2.4700000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2265,10 +2317,10 @@
         <v>98.28</v>
       </c>
       <c r="B162">
-        <v>-1.1000000000000001</v>
+        <v>-3.62</v>
       </c>
       <c r="C162">
-        <v>-2.25</v>
+        <v>-2.4900000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2276,10 +2328,10 @@
         <v>99.26</v>
       </c>
       <c r="B163">
-        <v>-1.0900000000000001</v>
+        <v>-3.64</v>
       </c>
       <c r="C163">
-        <v>-2.2200000000000002</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2287,10 +2339,10 @@
         <v>100.25</v>
       </c>
       <c r="B164">
-        <v>-1.08</v>
+        <v>-3.67</v>
       </c>
       <c r="C164">
-        <v>-2.1800000000000002</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2298,10 +2350,10 @@
         <v>101.25</v>
       </c>
       <c r="B165">
-        <v>-1.07</v>
+        <v>-3.69</v>
       </c>
       <c r="C165">
-        <v>-2.15</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2309,10 +2361,10 @@
         <v>102.27</v>
       </c>
       <c r="B166">
-        <v>-1.06</v>
+        <v>-3.72</v>
       </c>
       <c r="C166">
-        <v>-2.11</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2320,10 +2372,10 @@
         <v>103.29</v>
       </c>
       <c r="B167">
-        <v>-1.05</v>
+        <v>-3.74</v>
       </c>
       <c r="C167">
-        <v>-2.08</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,10 +2383,10 @@
         <v>104.32</v>
       </c>
       <c r="B168">
-        <v>-1.04</v>
+        <v>-3.77</v>
       </c>
       <c r="C168">
-        <v>-2.0499999999999998</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,10 +2394,10 @@
         <v>105.37</v>
       </c>
       <c r="B169">
-        <v>-1.03</v>
+        <v>-3.79</v>
       </c>
       <c r="C169">
-        <v>-2.02</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,10 +2405,10 @@
         <v>106.42</v>
       </c>
       <c r="B170">
-        <v>-1.02</v>
+        <v>-3.82</v>
       </c>
       <c r="C170">
-        <v>-1.99</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,10 +2416,10 @@
         <v>107.48</v>
       </c>
       <c r="B171">
-        <v>-1.01</v>
+        <v>-3.84</v>
       </c>
       <c r="C171">
-        <v>-1.96</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2375,10 +2427,10 @@
         <v>108.56</v>
       </c>
       <c r="B172">
-        <v>-1</v>
+        <v>-3.87</v>
       </c>
       <c r="C172">
-        <v>-1.93</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2386,10 +2438,10 @@
         <v>109.64</v>
       </c>
       <c r="B173">
-        <v>-0.99</v>
+        <v>-3.89</v>
       </c>
       <c r="C173">
-        <v>-1.9</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2397,10 +2449,10 @@
         <v>110.74</v>
       </c>
       <c r="B174">
-        <v>-0.99</v>
+        <v>-3.91</v>
       </c>
       <c r="C174">
-        <v>-1.88</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2408,10 +2460,10 @@
         <v>111.85</v>
       </c>
       <c r="B175">
-        <v>-0.98</v>
+        <v>-3.94</v>
       </c>
       <c r="C175">
-        <v>-1.85</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2419,10 +2471,10 @@
         <v>112.97</v>
       </c>
       <c r="B176">
-        <v>-0.98</v>
+        <v>-3.96</v>
       </c>
       <c r="C176">
-        <v>-1.83</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2430,10 +2482,10 @@
         <v>114.1</v>
       </c>
       <c r="B177">
-        <v>-0.98</v>
+        <v>-3.98</v>
       </c>
       <c r="C177">
-        <v>-1.82</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2441,10 +2493,10 @@
         <v>115.24</v>
       </c>
       <c r="B178">
-        <v>-0.98</v>
+        <v>-4</v>
       </c>
       <c r="C178">
-        <v>-1.8</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2452,10 +2504,10 @@
         <v>116.39</v>
       </c>
       <c r="B179">
-        <v>-0.97</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C179">
-        <v>-1.78</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2463,10 +2515,10 @@
         <v>117.55</v>
       </c>
       <c r="B180">
-        <v>-0.97</v>
+        <v>-4.04</v>
       </c>
       <c r="C180">
-        <v>-1.76</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2474,10 +2526,10 @@
         <v>118.73</v>
       </c>
       <c r="B181">
-        <v>-0.97</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="C181">
-        <v>-1.74</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -2485,10 +2537,10 @@
         <v>119.92</v>
       </c>
       <c r="B182">
-        <v>-0.96</v>
+        <v>-4.07</v>
       </c>
       <c r="C182">
-        <v>-1.72</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2496,10 +2548,10 @@
         <v>121.12</v>
       </c>
       <c r="B183">
-        <v>-0.96</v>
+        <v>-4.09</v>
       </c>
       <c r="C183">
-        <v>-1.71</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -2507,10 +2559,10 @@
         <v>122.33</v>
       </c>
       <c r="B184">
-        <v>-0.96</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="C184">
-        <v>-1.69</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -2518,10 +2570,10 @@
         <v>123.55</v>
       </c>
       <c r="B185">
-        <v>-0.96</v>
+        <v>-4.12</v>
       </c>
       <c r="C185">
-        <v>-1.68</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -2529,10 +2581,10 @@
         <v>124.79</v>
       </c>
       <c r="B186">
-        <v>-0.96</v>
+        <v>-4.13</v>
       </c>
       <c r="C186">
-        <v>-1.67</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -2540,10 +2592,10 @@
         <v>126.03</v>
       </c>
       <c r="B187">
-        <v>-0.96</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="C187">
-        <v>-1.65</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2551,10 +2603,10 @@
         <v>127.29</v>
       </c>
       <c r="B188">
-        <v>-0.96</v>
+        <v>-4.16</v>
       </c>
       <c r="C188">
-        <v>-1.64</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2562,10 +2614,10 @@
         <v>128.57</v>
       </c>
       <c r="B189">
-        <v>-0.96</v>
+        <v>-4.17</v>
       </c>
       <c r="C189">
-        <v>-1.63</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2573,10 +2625,10 @@
         <v>129.85</v>
       </c>
       <c r="B190">
-        <v>-0.96</v>
+        <v>-4.18</v>
       </c>
       <c r="C190">
-        <v>-1.62</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2584,10 +2636,10 @@
         <v>131.15</v>
       </c>
       <c r="B191">
-        <v>-0.96</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="C191">
-        <v>-1.61</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -2595,10 +2647,10 @@
         <v>132.46</v>
       </c>
       <c r="B192">
-        <v>-0.96</v>
+        <v>-4.2</v>
       </c>
       <c r="C192">
-        <v>-1.6</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2606,10 +2658,10 @@
         <v>133.79</v>
       </c>
       <c r="B193">
-        <v>-0.96</v>
+        <v>-4.21</v>
       </c>
       <c r="C193">
-        <v>-1.59</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -2617,10 +2669,10 @@
         <v>135.12</v>
       </c>
       <c r="B194">
-        <v>-0.96</v>
+        <v>-4.22</v>
       </c>
       <c r="C194">
-        <v>-1.58</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2628,10 +2680,10 @@
         <v>136.47999999999999</v>
       </c>
       <c r="B195">
-        <v>-0.96</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="C195">
-        <v>-1.57</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2639,10 +2691,10 @@
         <v>137.84</v>
       </c>
       <c r="B196">
-        <v>-0.96</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="C196">
-        <v>-1.56</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2650,10 +2702,10 @@
         <v>139.22</v>
       </c>
       <c r="B197">
-        <v>-0.96</v>
+        <v>-4.24</v>
       </c>
       <c r="C197">
-        <v>-1.55</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2661,10 +2713,10 @@
         <v>140.61000000000001</v>
       </c>
       <c r="B198">
-        <v>-0.96</v>
+        <v>-4.24</v>
       </c>
       <c r="C198">
-        <v>-1.54</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2672,10 +2724,10 @@
         <v>142.02000000000001</v>
       </c>
       <c r="B199">
-        <v>-0.95</v>
+        <v>-4.24</v>
       </c>
       <c r="C199">
-        <v>-1.53</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2683,10 +2735,10 @@
         <v>143.44</v>
       </c>
       <c r="B200">
-        <v>-0.95</v>
+        <v>-4.24</v>
       </c>
       <c r="C200">
-        <v>-1.51</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2694,10 +2746,10 @@
         <v>144.87</v>
       </c>
       <c r="B201">
-        <v>-0.94</v>
+        <v>-4.24</v>
       </c>
       <c r="C201">
-        <v>-1.5</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2705,10 +2757,10 @@
         <v>146.32</v>
       </c>
       <c r="B202">
-        <v>-0.94</v>
+        <v>-4.24</v>
       </c>
       <c r="C202">
-        <v>-1.5</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2716,10 +2768,10 @@
         <v>147.78</v>
       </c>
       <c r="B203">
-        <v>-0.94</v>
+        <v>-4.24</v>
       </c>
       <c r="C203">
-        <v>-1.49</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2727,10 +2779,10 @@
         <v>149.26</v>
       </c>
       <c r="B204">
-        <v>-0.94</v>
+        <v>-4.24</v>
       </c>
       <c r="C204">
-        <v>-1.48</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -2738,10 +2790,10 @@
         <v>150.75</v>
       </c>
       <c r="B205">
-        <v>-0.94</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="C205">
-        <v>-1.48</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2749,10 +2801,10 @@
         <v>152.26</v>
       </c>
       <c r="B206">
-        <v>-0.95</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="C206">
-        <v>-1.47</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2760,10 +2812,10 @@
         <v>153.78</v>
       </c>
       <c r="B207">
-        <v>-0.95</v>
+        <v>-4.22</v>
       </c>
       <c r="C207">
-        <v>-1.47</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2771,10 +2823,10 @@
         <v>155.32</v>
       </c>
       <c r="B208">
-        <v>-0.96</v>
+        <v>-4.21</v>
       </c>
       <c r="C208">
-        <v>-1.47</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -2782,10 +2834,10 @@
         <v>156.88</v>
       </c>
       <c r="B209">
-        <v>-0.96</v>
+        <v>-4.2</v>
       </c>
       <c r="C209">
-        <v>-1.47</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -2793,10 +2845,10 @@
         <v>158.44</v>
       </c>
       <c r="B210">
-        <v>-0.97</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="C210">
-        <v>-1.47</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -2804,10 +2856,10 @@
         <v>160.03</v>
       </c>
       <c r="B211">
-        <v>-0.98</v>
+        <v>-4.18</v>
       </c>
       <c r="C211">
-        <v>-1.47</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -2815,10 +2867,10 @@
         <v>161.63</v>
       </c>
       <c r="B212">
-        <v>-0.98</v>
+        <v>-4.17</v>
       </c>
       <c r="C212">
-        <v>-1.48</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2826,10 +2878,10 @@
         <v>163.24</v>
       </c>
       <c r="B213">
-        <v>-0.99</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="C213">
-        <v>-1.48</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2837,10 +2889,10 @@
         <v>164.88</v>
       </c>
       <c r="B214">
-        <v>-1</v>
+        <v>-4.13</v>
       </c>
       <c r="C214">
-        <v>-1.48</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -2848,10 +2900,10 @@
         <v>166.53</v>
       </c>
       <c r="B215">
-        <v>-1.01</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="C215">
-        <v>-1.49</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -2859,10 +2911,10 @@
         <v>168.19</v>
       </c>
       <c r="B216">
-        <v>-1.02</v>
+        <v>-4.09</v>
       </c>
       <c r="C216">
-        <v>-1.49</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2870,10 +2922,10 @@
         <v>169.87</v>
       </c>
       <c r="B217">
-        <v>-1.03</v>
+        <v>-4.07</v>
       </c>
       <c r="C217">
-        <v>-1.5</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -2881,10 +2933,10 @@
         <v>171.57</v>
       </c>
       <c r="B218">
-        <v>-1.04</v>
+        <v>-4.05</v>
       </c>
       <c r="C218">
-        <v>-1.5</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -2892,10 +2944,10 @@
         <v>173.29</v>
       </c>
       <c r="B219">
-        <v>-1.05</v>
+        <v>-4.03</v>
       </c>
       <c r="C219">
-        <v>-1.51</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -2903,10 +2955,10 @@
         <v>175.02</v>
       </c>
       <c r="B220">
-        <v>-1.06</v>
+        <v>-4.01</v>
       </c>
       <c r="C220">
-        <v>-1.52</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -2914,10 +2966,10 @@
         <v>176.77</v>
       </c>
       <c r="B221">
-        <v>-1.08</v>
+        <v>-3.98</v>
       </c>
       <c r="C221">
-        <v>-1.53</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -2925,10 +2977,10 @@
         <v>178.54</v>
       </c>
       <c r="B222">
-        <v>-1.0900000000000001</v>
+        <v>-3.95</v>
       </c>
       <c r="C222">
-        <v>-1.54</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -2936,10 +2988,10 @@
         <v>180.32</v>
       </c>
       <c r="B223">
-        <v>-1.1000000000000001</v>
+        <v>-3.93</v>
       </c>
       <c r="C223">
-        <v>-1.55</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -2947,10 +2999,10 @@
         <v>182.13</v>
       </c>
       <c r="B224">
-        <v>-1.1100000000000001</v>
+        <v>-3.9</v>
       </c>
       <c r="C224">
-        <v>-1.56</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -2958,10 +3010,10 @@
         <v>183.95</v>
       </c>
       <c r="B225">
-        <v>-1.1299999999999999</v>
+        <v>-3.87</v>
       </c>
       <c r="C225">
-        <v>-1.57</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -2969,10 +3021,10 @@
         <v>185.79</v>
       </c>
       <c r="B226">
-        <v>-1.1499999999999999</v>
+        <v>-3.84</v>
       </c>
       <c r="C226">
-        <v>-1.59</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -2980,10 +3032,10 @@
         <v>187.65</v>
       </c>
       <c r="B227">
-        <v>-1.1599999999999999</v>
+        <v>-3.81</v>
       </c>
       <c r="C227">
-        <v>-1.6</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -2991,10 +3043,10 @@
         <v>189.52</v>
       </c>
       <c r="B228">
-        <v>-1.18</v>
+        <v>-3.78</v>
       </c>
       <c r="C228">
-        <v>-1.61</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3002,10 +3054,10 @@
         <v>191.42</v>
       </c>
       <c r="B229">
-        <v>-1.19</v>
+        <v>-3.74</v>
       </c>
       <c r="C229">
-        <v>-1.62</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -3013,10 +3065,10 @@
         <v>193.33</v>
       </c>
       <c r="B230">
-        <v>-1.2</v>
+        <v>-3.71</v>
       </c>
       <c r="C230">
-        <v>-1.63</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -3024,10 +3076,10 @@
         <v>195.27</v>
       </c>
       <c r="B231">
-        <v>-1.2</v>
+        <v>-3.68</v>
       </c>
       <c r="C231">
-        <v>-1.63</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -3035,10 +3087,10 @@
         <v>197.22</v>
       </c>
       <c r="B232">
-        <v>-1.21</v>
+        <v>-3.64</v>
       </c>
       <c r="C232">
-        <v>-1.64</v>
+        <v>-2.5499999999999998</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3046,10 +3098,10 @@
         <v>199.19</v>
       </c>
       <c r="B233">
-        <v>-1.22</v>
+        <v>-3.6</v>
       </c>
       <c r="C233">
-        <v>-1.64</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,10 +3109,10 @@
         <v>201.18</v>
       </c>
       <c r="B234">
-        <v>-1.23</v>
+        <v>-3.57</v>
       </c>
       <c r="C234">
-        <v>-1.65</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3068,10 +3120,10 @@
         <v>203.19</v>
       </c>
       <c r="B235">
-        <v>-1.24</v>
+        <v>-3.53</v>
       </c>
       <c r="C235">
-        <v>-1.66</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -3079,10 +3131,10 @@
         <v>205.23</v>
       </c>
       <c r="B236">
-        <v>-1.25</v>
+        <v>-3.49</v>
       </c>
       <c r="C236">
-        <v>-1.66</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -3090,10 +3142,10 @@
         <v>207.28</v>
       </c>
       <c r="B237">
-        <v>-1.25</v>
+        <v>-3.45</v>
       </c>
       <c r="C237">
-        <v>-1.66</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,10 +3153,10 @@
         <v>209.35</v>
       </c>
       <c r="B238">
-        <v>-1.25</v>
+        <v>-3.41</v>
       </c>
       <c r="C238">
-        <v>-1.66</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,10 +3164,10 @@
         <v>211.44</v>
       </c>
       <c r="B239">
-        <v>-1.25</v>
+        <v>-3.37</v>
       </c>
       <c r="C239">
-        <v>-1.66</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3123,10 +3175,10 @@
         <v>213.56</v>
       </c>
       <c r="B240">
-        <v>-1.25</v>
+        <v>-3.33</v>
       </c>
       <c r="C240">
-        <v>-1.65</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3134,10 +3186,10 @@
         <v>215.69</v>
       </c>
       <c r="B241">
-        <v>-1.24</v>
+        <v>-3.29</v>
       </c>
       <c r="C241">
-        <v>-1.65</v>
+        <v>-2.2200000000000002</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,10 +3197,10 @@
         <v>217.85</v>
       </c>
       <c r="B242">
-        <v>-1.24</v>
+        <v>-3.25</v>
       </c>
       <c r="C242">
-        <v>-1.64</v>
+        <v>-2.1800000000000002</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -3156,10 +3208,10 @@
         <v>220.03</v>
       </c>
       <c r="B243">
-        <v>-1.23</v>
+        <v>-3.21</v>
       </c>
       <c r="C243">
-        <v>-1.63</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,10 +3219,10 @@
         <v>222.23</v>
       </c>
       <c r="B244">
-        <v>-1.22</v>
+        <v>-3.16</v>
       </c>
       <c r="C244">
-        <v>-1.62</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,10 +3230,10 @@
         <v>224.45</v>
       </c>
       <c r="B245">
-        <v>-1.22</v>
+        <v>-3.12</v>
       </c>
       <c r="C245">
-        <v>-1.61</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3189,10 +3241,10 @@
         <v>226.7</v>
       </c>
       <c r="B246">
-        <v>-1.21</v>
+        <v>-3.08</v>
       </c>
       <c r="C246">
-        <v>-1.6</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -3200,10 +3252,10 @@
         <v>228.96</v>
       </c>
       <c r="B247">
-        <v>-1.19</v>
+        <v>-3.04</v>
       </c>
       <c r="C247">
-        <v>-1.59</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -3211,10 +3263,10 @@
         <v>231.25</v>
       </c>
       <c r="B248">
-        <v>-1.18</v>
+        <v>-3</v>
       </c>
       <c r="C248">
-        <v>-1.58</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -3222,10 +3274,10 @@
         <v>233.57</v>
       </c>
       <c r="B249">
-        <v>-1.17</v>
+        <v>-2.96</v>
       </c>
       <c r="C249">
-        <v>-1.56</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -3233,10 +3285,10 @@
         <v>235.9</v>
       </c>
       <c r="B250">
-        <v>-1.1499999999999999</v>
+        <v>-2.92</v>
       </c>
       <c r="C250">
-        <v>-1.54</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -3244,10 +3296,10 @@
         <v>238.26</v>
       </c>
       <c r="B251">
-        <v>-1.1399999999999999</v>
+        <v>-2.88</v>
       </c>
       <c r="C251">
-        <v>-1.53</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -3255,10 +3307,10 @@
         <v>240.64</v>
       </c>
       <c r="B252">
-        <v>-1.1200000000000001</v>
+        <v>-2.84</v>
       </c>
       <c r="C252">
-        <v>-1.51</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -3266,10 +3318,10 @@
         <v>243.05</v>
       </c>
       <c r="B253">
-        <v>-1.1000000000000001</v>
+        <v>-2.79</v>
       </c>
       <c r="C253">
-        <v>-1.49</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3277,10 +3329,10 @@
         <v>245.48</v>
       </c>
       <c r="B254">
-        <v>-1.0900000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="C254">
-        <v>-1.47</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3288,10 +3340,10 @@
         <v>247.93</v>
       </c>
       <c r="B255">
-        <v>-1.07</v>
+        <v>-2.7</v>
       </c>
       <c r="C255">
-        <v>-1.45</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3299,10 +3351,10 @@
         <v>250.41</v>
       </c>
       <c r="B256">
-        <v>-1.04</v>
+        <v>-2.65</v>
       </c>
       <c r="C256">
-        <v>-1.43</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -3310,10 +3362,10 @@
         <v>252.92</v>
       </c>
       <c r="B257">
-        <v>-1.02</v>
+        <v>-2.6</v>
       </c>
       <c r="C257">
-        <v>-1.41</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -3321,10 +3373,10 @@
         <v>255.45</v>
       </c>
       <c r="B258">
-        <v>-1</v>
+        <v>-2.54</v>
       </c>
       <c r="C258">
-        <v>-1.39</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -3332,10 +3384,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>-0.98</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="C259">
-        <v>-1.36</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -3343,10 +3395,10 @@
         <v>260.58</v>
       </c>
       <c r="B260">
-        <v>-0.96</v>
+        <v>-2.44</v>
       </c>
       <c r="C260">
-        <v>-1.34</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -3354,10 +3406,10 @@
         <v>263.19</v>
       </c>
       <c r="B261">
-        <v>-0.94</v>
+        <v>-2.38</v>
       </c>
       <c r="C261">
-        <v>-1.32</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -3365,10 +3417,10 @@
         <v>265.82</v>
       </c>
       <c r="B262">
-        <v>-0.91</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="C262">
-        <v>-1.29</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -3376,10 +3428,10 @@
         <v>268.48</v>
       </c>
       <c r="B263">
-        <v>-0.88</v>
+        <v>-2.27</v>
       </c>
       <c r="C263">
-        <v>-1.26</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -3387,10 +3439,10 @@
         <v>271.16000000000003</v>
       </c>
       <c r="B264">
-        <v>-0.85</v>
+        <v>-2.21</v>
       </c>
       <c r="C264">
-        <v>-1.23</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -3398,10 +3450,10 @@
         <v>273.87</v>
       </c>
       <c r="B265">
-        <v>-0.82</v>
+        <v>-2.15</v>
       </c>
       <c r="C265">
-        <v>-1.19</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -3409,10 +3461,10 @@
         <v>276.61</v>
       </c>
       <c r="B266">
-        <v>-0.79</v>
+        <v>-2.09</v>
       </c>
       <c r="C266">
-        <v>-1.17</v>
+        <v>-1.1100000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -3420,10 +3472,10 @@
         <v>279.38</v>
       </c>
       <c r="B267">
-        <v>-0.77</v>
+        <v>-2.04</v>
       </c>
       <c r="C267">
-        <v>-1.1399999999999999</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -3431,10 +3483,10 @@
         <v>282.17</v>
       </c>
       <c r="B268">
-        <v>-0.75</v>
+        <v>-1.98</v>
       </c>
       <c r="C268">
-        <v>-1.1200000000000001</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -3442,10 +3494,10 @@
         <v>284.99</v>
       </c>
       <c r="B269">
-        <v>-0.73</v>
+        <v>-1.92</v>
       </c>
       <c r="C269">
-        <v>-1.1100000000000001</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -3453,10 +3505,10 @@
         <v>287.83999999999997</v>
       </c>
       <c r="B270">
-        <v>-0.71</v>
+        <v>-1.86</v>
       </c>
       <c r="C270">
-        <v>-1.08</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -3464,10 +3516,10 @@
         <v>290.72000000000003</v>
       </c>
       <c r="B271">
-        <v>-0.68</v>
+        <v>-1.8</v>
       </c>
       <c r="C271">
-        <v>-1.06</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -3475,10 +3527,10 @@
         <v>293.63</v>
       </c>
       <c r="B272">
-        <v>-0.66</v>
+        <v>-1.74</v>
       </c>
       <c r="C272">
-        <v>-1.03</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -3486,10 +3538,10 @@
         <v>296.57</v>
       </c>
       <c r="B273">
-        <v>-0.63</v>
+        <v>-1.68</v>
       </c>
       <c r="C273">
-        <v>-1.01</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -3497,10 +3549,10 @@
         <v>299.52999999999997</v>
       </c>
       <c r="B274">
-        <v>-0.61</v>
+        <v>-1.62</v>
       </c>
       <c r="C274">
-        <v>-0.98</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -3508,10 +3560,10 @@
         <v>302.52999999999997</v>
       </c>
       <c r="B275">
-        <v>-0.57999999999999996</v>
+        <v>-1.56</v>
       </c>
       <c r="C275">
-        <v>-0.95</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -3519,10 +3571,10 @@
         <v>305.55</v>
       </c>
       <c r="B276">
-        <v>-0.55000000000000004</v>
+        <v>-1.5</v>
       </c>
       <c r="C276">
-        <v>-0.92</v>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -3530,10 +3582,10 @@
         <v>308.61</v>
       </c>
       <c r="B277">
-        <v>-0.52</v>
+        <v>-1.44</v>
       </c>
       <c r="C277">
-        <v>-0.89</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -3541,10 +3593,10 @@
         <v>311.69</v>
       </c>
       <c r="B278">
-        <v>-0.49</v>
+        <v>-1.38</v>
       </c>
       <c r="C278">
-        <v>-0.86</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -3552,10 +3604,10 @@
         <v>314.81</v>
       </c>
       <c r="B279">
-        <v>-0.46</v>
+        <v>-1.32</v>
       </c>
       <c r="C279">
-        <v>-0.83</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -3563,10 +3615,10 @@
         <v>317.95999999999998</v>
       </c>
       <c r="B280">
-        <v>-0.44</v>
+        <v>-1.26</v>
       </c>
       <c r="C280">
-        <v>-0.81</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -3574,10 +3626,10 @@
         <v>321.14</v>
       </c>
       <c r="B281">
-        <v>-0.42</v>
+        <v>-1.2</v>
       </c>
       <c r="C281">
-        <v>-0.79</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -3585,10 +3637,10 @@
         <v>324.35000000000002</v>
       </c>
       <c r="B282">
-        <v>-0.4</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="C282">
-        <v>-0.77</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -3596,10 +3648,10 @@
         <v>327.58999999999997</v>
       </c>
       <c r="B283">
-        <v>-0.38</v>
+        <v>-1.08</v>
       </c>
       <c r="C283">
-        <v>-0.75</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -3607,10 +3659,10 @@
         <v>330.87</v>
       </c>
       <c r="B284">
-        <v>-0.35</v>
+        <v>-1.02</v>
       </c>
       <c r="C284">
-        <v>-0.72</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -3618,10 +3670,10 @@
         <v>334.18</v>
       </c>
       <c r="B285">
-        <v>-0.32</v>
+        <v>-0.96</v>
       </c>
       <c r="C285">
-        <v>-0.69</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -3629,10 +3681,10 @@
         <v>337.52</v>
       </c>
       <c r="B286">
-        <v>-0.3</v>
+        <v>-0.9</v>
       </c>
       <c r="C286">
-        <v>-0.66</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -3640,10 +3692,10 @@
         <v>340.9</v>
       </c>
       <c r="B287">
-        <v>-0.27</v>
+        <v>-0.84</v>
       </c>
       <c r="C287">
-        <v>-0.64</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -3651,10 +3703,10 @@
         <v>344.3</v>
       </c>
       <c r="B288">
-        <v>-0.26</v>
+        <v>-0.78</v>
       </c>
       <c r="C288">
-        <v>-0.62</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -3662,10 +3714,10 @@
         <v>347.75</v>
       </c>
       <c r="B289">
-        <v>-0.24</v>
+        <v>-0.72</v>
       </c>
       <c r="C289">
-        <v>-0.6</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -3673,10 +3725,10 @@
         <v>351.23</v>
       </c>
       <c r="B290">
-        <v>-0.22</v>
+        <v>-0.66</v>
       </c>
       <c r="C290">
-        <v>-0.57999999999999996</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -3684,10 +3736,10 @@
         <v>354.74</v>
       </c>
       <c r="B291">
-        <v>-0.2</v>
+        <v>-0.59</v>
       </c>
       <c r="C291">
-        <v>-0.56000000000000005</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -3695,10 +3747,10 @@
         <v>358.28</v>
       </c>
       <c r="B292">
-        <v>-0.18</v>
+        <v>-0.53</v>
       </c>
       <c r="C292">
-        <v>-0.54</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -3706,10 +3758,10 @@
         <v>361.87</v>
       </c>
       <c r="B293">
-        <v>-0.15</v>
+        <v>-0.47</v>
       </c>
       <c r="C293">
-        <v>-0.52</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -3717,10 +3769,10 @@
         <v>365.49</v>
       </c>
       <c r="B294">
-        <v>-0.13</v>
+        <v>-0.41</v>
       </c>
       <c r="C294">
-        <v>-0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -3728,10 +3780,10 @@
         <v>369.14</v>
       </c>
       <c r="B295">
-        <v>-0.12</v>
+        <v>-0.34</v>
       </c>
       <c r="C295">
-        <v>-0.48</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -3739,10 +3791,10 @@
         <v>372.83</v>
       </c>
       <c r="B296">
-        <v>-0.1</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C296">
-        <v>-0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -3750,10 +3802,10 @@
         <v>376.56</v>
       </c>
       <c r="B297">
-        <v>-0.09</v>
+        <v>-0.21</v>
       </c>
       <c r="C297">
-        <v>-0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -3761,10 +3813,10 @@
         <v>380.33</v>
       </c>
       <c r="B298">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C298">
-        <v>-0.44</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -3772,10 +3824,10 @@
         <v>384.13</v>
       </c>
       <c r="B299">
-        <v>-0.06</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C299">
-        <v>-0.43</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -3783,10 +3835,10 @@
         <v>387.97</v>
       </c>
       <c r="B300">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="C300">
-        <v>-0.41</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -3794,10 +3846,10 @@
         <v>391.85</v>
       </c>
       <c r="B301">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C301">
-        <v>-0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -3805,10 +3857,10 @@
         <v>395.77</v>
       </c>
       <c r="B302">
-        <v>-0.02</v>
+        <v>0.13</v>
       </c>
       <c r="C302">
-        <v>-0.38</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -3816,10 +3868,10 @@
         <v>399.73</v>
       </c>
       <c r="B303">
-        <v>-0.01</v>
+        <v>0.19</v>
       </c>
       <c r="C303">
-        <v>-0.37</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -3827,10 +3879,10 @@
         <v>403.72</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C304">
-        <v>-0.36</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -3838,10 +3890,10 @@
         <v>407.76</v>
       </c>
       <c r="B305">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="C305">
-        <v>-0.34</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -3849,10 +3901,10 @@
         <v>411.84</v>
       </c>
       <c r="B306">
-        <v>0.03</v>
+        <v>0.39</v>
       </c>
       <c r="C306">
-        <v>-0.33</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -3860,10 +3912,10 @@
         <v>415.96</v>
       </c>
       <c r="B307">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="C307">
-        <v>-0.31</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -3871,10 +3923,10 @@
         <v>420.12</v>
       </c>
       <c r="B308">
-        <v>0.06</v>
+        <v>0.52</v>
       </c>
       <c r="C308">
-        <v>-0.3</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -3882,10 +3934,10 @@
         <v>424.32</v>
       </c>
       <c r="B309">
-        <v>7.0000000000000007E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C309">
-        <v>-0.28999999999999998</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -3893,10 +3945,10 @@
         <v>428.56</v>
       </c>
       <c r="B310">
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
       <c r="C310">
-        <v>-0.28999999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -3904,10 +3956,10 @@
         <v>432.85</v>
       </c>
       <c r="B311">
-        <v>0.09</v>
+        <v>0.71</v>
       </c>
       <c r="C311">
-        <v>-0.28000000000000003</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -3915,10 +3967,10 @@
         <v>437.18</v>
       </c>
       <c r="B312">
-        <v>0.1</v>
+        <v>0.78</v>
       </c>
       <c r="C312">
-        <v>-0.27</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -3926,10 +3978,10 @@
         <v>441.55</v>
       </c>
       <c r="B313">
-        <v>0.11</v>
+        <v>0.84</v>
       </c>
       <c r="C313">
-        <v>-0.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -3937,10 +3989,10 @@
         <v>445.96</v>
       </c>
       <c r="B314">
-        <v>0.12</v>
+        <v>0.91</v>
       </c>
       <c r="C314">
-        <v>-0.24</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -3948,10 +4000,10 @@
         <v>450.42</v>
       </c>
       <c r="B315">
-        <v>0.13</v>
+        <v>0.98</v>
       </c>
       <c r="C315">
-        <v>-0.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -3959,10 +4011,10 @@
         <v>454.93</v>
       </c>
       <c r="B316">
-        <v>0.15</v>
+        <v>1.04</v>
       </c>
       <c r="C316">
-        <v>-0.21</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -3970,10 +4022,10 @@
         <v>459.48</v>
       </c>
       <c r="B317">
-        <v>0.16</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C317">
-        <v>-0.2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -3981,10 +4033,10 @@
         <v>464.07</v>
       </c>
       <c r="B318">
-        <v>0.18</v>
+        <v>1.18</v>
       </c>
       <c r="C318">
-        <v>-0.18</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -3992,10 +4044,10 @@
         <v>468.71</v>
       </c>
       <c r="B319">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="C319">
-        <v>-0.16</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -4003,10 +4055,10 @@
         <v>473.4</v>
       </c>
       <c r="B320">
-        <v>0.22</v>
+        <v>1.32</v>
       </c>
       <c r="C320">
-        <v>-0.14000000000000001</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -4014,10 +4066,10 @@
         <v>478.13</v>
       </c>
       <c r="B321">
-        <v>0.24</v>
+        <v>1.39</v>
       </c>
       <c r="C321">
-        <v>-0.12</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,10 +4077,10 @@
         <v>482.91</v>
       </c>
       <c r="B322">
-        <v>0.25</v>
+        <v>1.47</v>
       </c>
       <c r="C322">
-        <v>-0.11</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,10 +4088,10 @@
         <v>487.74</v>
       </c>
       <c r="B323">
-        <v>0.26</v>
+        <v>1.54</v>
       </c>
       <c r="C323">
-        <v>-0.09</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,10 +4099,10 @@
         <v>492.62</v>
       </c>
       <c r="B324">
-        <v>0.28000000000000003</v>
+        <v>1.61</v>
       </c>
       <c r="C324">
-        <v>-0.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,10 +4110,10 @@
         <v>497.55</v>
       </c>
       <c r="B325">
-        <v>0.28999999999999998</v>
+        <v>1.68</v>
       </c>
       <c r="C325">
-        <v>-7.0000000000000007E-2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -4069,10 +4121,10 @@
         <v>502.52</v>
       </c>
       <c r="B326">
-        <v>0.31</v>
+        <v>1.74</v>
       </c>
       <c r="C326">
-        <v>-0.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -4080,10 +4132,10 @@
         <v>507.55</v>
       </c>
       <c r="B327">
-        <v>0.33</v>
+        <v>1.81</v>
       </c>
       <c r="C327">
-        <v>-0.03</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -4091,10 +4143,10 @@
         <v>512.62</v>
       </c>
       <c r="B328">
-        <v>0.35</v>
+        <v>1.87</v>
       </c>
       <c r="C328">
-        <v>-0.01</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -4102,10 +4154,10 @@
         <v>517.75</v>
       </c>
       <c r="B329">
-        <v>0.37</v>
+        <v>1.93</v>
       </c>
       <c r="C329">
-        <v>0.01</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,10 +4165,10 @@
         <v>522.92999999999995</v>
       </c>
       <c r="B330">
-        <v>0.38</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.02</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -4124,10 +4176,10 @@
         <v>528.16</v>
       </c>
       <c r="B331">
-        <v>0.4</v>
+        <v>2.06</v>
       </c>
       <c r="C331">
-        <v>0.04</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,10 +4187,10 @@
         <v>533.44000000000005</v>
       </c>
       <c r="B332">
-        <v>0.42</v>
+        <v>2.12</v>
       </c>
       <c r="C332">
-        <v>0.06</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -4146,10 +4198,10 @@
         <v>538.77</v>
       </c>
       <c r="B333">
-        <v>0.43</v>
+        <v>2.19</v>
       </c>
       <c r="C333">
-        <v>0.08</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -4157,10 +4209,10 @@
         <v>544.16</v>
       </c>
       <c r="B334">
-        <v>0.45</v>
+        <v>2.25</v>
       </c>
       <c r="C334">
-        <v>0.09</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -4168,10 +4220,10 @@
         <v>549.6</v>
       </c>
       <c r="B335">
-        <v>0.47</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C335">
-        <v>0.11</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -4179,10 +4231,10 @@
         <v>555.1</v>
       </c>
       <c r="B336">
-        <v>0.48</v>
+        <v>2.38</v>
       </c>
       <c r="C336">
-        <v>0.12</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -4190,10 +4242,10 @@
         <v>560.65</v>
       </c>
       <c r="B337">
-        <v>0.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C337">
-        <v>0.14000000000000001</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -4201,10 +4253,10 @@
         <v>566.25</v>
       </c>
       <c r="B338">
-        <v>0.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C338">
-        <v>0.16</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -4212,10 +4264,10 @@
         <v>571.91999999999996</v>
       </c>
       <c r="B339">
-        <v>0.54</v>
+        <v>2.57</v>
       </c>
       <c r="C339">
-        <v>0.18</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -4223,10 +4275,10 @@
         <v>577.64</v>
       </c>
       <c r="B340">
-        <v>0.55000000000000004</v>
+        <v>2.63</v>
       </c>
       <c r="C340">
-        <v>0.2</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -4234,10 +4286,10 @@
         <v>583.41</v>
       </c>
       <c r="B341">
-        <v>0.56999999999999995</v>
+        <v>2.7</v>
       </c>
       <c r="C341">
-        <v>0.21</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -4245,10 +4297,10 @@
         <v>589.25</v>
       </c>
       <c r="B342">
-        <v>0.59</v>
+        <v>2.76</v>
       </c>
       <c r="C342">
-        <v>0.23</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -4256,10 +4308,10 @@
         <v>595.14</v>
       </c>
       <c r="B343">
-        <v>0.6</v>
+        <v>2.82</v>
       </c>
       <c r="C343">
-        <v>0.24</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -4267,10 +4319,10 @@
         <v>601.09</v>
       </c>
       <c r="B344">
-        <v>0.61</v>
+        <v>2.87</v>
       </c>
       <c r="C344">
-        <v>0.25</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -4278,10 +4330,10 @@
         <v>607.1</v>
       </c>
       <c r="B345">
-        <v>0.63</v>
+        <v>2.93</v>
       </c>
       <c r="C345">
-        <v>0.27</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -4289,10 +4341,10 @@
         <v>613.16999999999996</v>
       </c>
       <c r="B346">
-        <v>0.65</v>
+        <v>2.99</v>
       </c>
       <c r="C346">
-        <v>0.28999999999999998</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -4300,10 +4352,10 @@
         <v>619.29999999999995</v>
       </c>
       <c r="B347">
-        <v>0.67</v>
+        <v>3.05</v>
       </c>
       <c r="C347">
-        <v>0.31</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -4311,10 +4363,10 @@
         <v>625.5</v>
       </c>
       <c r="B348">
-        <v>0.69</v>
+        <v>3.11</v>
       </c>
       <c r="C348">
-        <v>0.34</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -4322,10 +4374,10 @@
         <v>631.75</v>
       </c>
       <c r="B349">
-        <v>0.72</v>
+        <v>3.16</v>
       </c>
       <c r="C349">
-        <v>0.36</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -4333,10 +4385,10 @@
         <v>638.07000000000005</v>
       </c>
       <c r="B350">
-        <v>0.73</v>
+        <v>3.22</v>
       </c>
       <c r="C350">
-        <v>0.37</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -4344,10 +4396,10 @@
         <v>644.45000000000005</v>
       </c>
       <c r="B351">
-        <v>0.74</v>
+        <v>3.27</v>
       </c>
       <c r="C351">
-        <v>0.38</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -4355,10 +4407,10 @@
         <v>650.89</v>
       </c>
       <c r="B352">
-        <v>0.74</v>
+        <v>3.33</v>
       </c>
       <c r="C352">
-        <v>0.39</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -4366,10 +4418,10 @@
         <v>657.4</v>
       </c>
       <c r="B353">
-        <v>0.76</v>
+        <v>3.38</v>
       </c>
       <c r="C353">
-        <v>0.4</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -4377,10 +4429,10 @@
         <v>663.98</v>
       </c>
       <c r="B354">
-        <v>0.78</v>
+        <v>3.42</v>
       </c>
       <c r="C354">
-        <v>0.42</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -4388,10 +4440,10 @@
         <v>670.62</v>
       </c>
       <c r="B355">
-        <v>0.8</v>
+        <v>3.46</v>
       </c>
       <c r="C355">
-        <v>0.44</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -4399,10 +4451,10 @@
         <v>677.32</v>
       </c>
       <c r="B356">
-        <v>0.82</v>
+        <v>3.5</v>
       </c>
       <c r="C356">
-        <v>0.46</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -4410,10 +4462,10 @@
         <v>684.1</v>
       </c>
       <c r="B357">
-        <v>0.83</v>
+        <v>3.54</v>
       </c>
       <c r="C357">
-        <v>0.48</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -4421,10 +4473,10 @@
         <v>690.94</v>
       </c>
       <c r="B358">
-        <v>0.84</v>
+        <v>3.56</v>
       </c>
       <c r="C358">
-        <v>0.48</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -4432,10 +4484,10 @@
         <v>697.85</v>
       </c>
       <c r="B359">
-        <v>0.84</v>
+        <v>3.59</v>
       </c>
       <c r="C359">
-        <v>0.48</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -4443,10 +4495,10 @@
         <v>704.83</v>
       </c>
       <c r="B360">
-        <v>0.84</v>
+        <v>3.61</v>
       </c>
       <c r="C360">
-        <v>0.49</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -4454,10 +4506,10 @@
         <v>711.87</v>
       </c>
       <c r="B361">
-        <v>0.85</v>
+        <v>3.63</v>
       </c>
       <c r="C361">
-        <v>0.5</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -4465,10 +4517,10 @@
         <v>718.99</v>
       </c>
       <c r="B362">
-        <v>0.87</v>
+        <v>3.65</v>
       </c>
       <c r="C362">
-        <v>0.52</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -4476,10 +4528,10 @@
         <v>726.18</v>
       </c>
       <c r="B363">
-        <v>0.89</v>
+        <v>3.67</v>
       </c>
       <c r="C363">
-        <v>0.53</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -4487,10 +4539,10 @@
         <v>733.44</v>
       </c>
       <c r="B364">
-        <v>0.9</v>
+        <v>3.68</v>
       </c>
       <c r="C364">
-        <v>0.55000000000000004</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -4498,10 +4550,10 @@
         <v>740.78</v>
       </c>
       <c r="B365">
-        <v>0.91</v>
+        <v>3.68</v>
       </c>
       <c r="C365">
-        <v>0.56000000000000005</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -4509,10 +4561,10 @@
         <v>748.19</v>
       </c>
       <c r="B366">
-        <v>0.92</v>
+        <v>3.68</v>
       </c>
       <c r="C366">
-        <v>0.56999999999999995</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -4520,10 +4572,10 @@
         <v>755.67</v>
       </c>
       <c r="B367">
-        <v>0.93</v>
+        <v>3.67</v>
       </c>
       <c r="C367">
-        <v>0.56999999999999995</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -4531,10 +4583,10 @@
         <v>763.23</v>
       </c>
       <c r="B368">
-        <v>0.93</v>
+        <v>3.65</v>
       </c>
       <c r="C368">
-        <v>0.57999999999999996</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -4542,10 +4594,10 @@
         <v>770.86</v>
       </c>
       <c r="B369">
-        <v>0.94</v>
+        <v>3.63</v>
       </c>
       <c r="C369">
-        <v>0.59</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -4553,10 +4605,10 @@
         <v>778.57</v>
       </c>
       <c r="B370">
-        <v>0.95</v>
+        <v>3.59</v>
       </c>
       <c r="C370">
-        <v>0.6</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -4564,10 +4616,10 @@
         <v>786.35</v>
       </c>
       <c r="B371">
-        <v>0.96</v>
+        <v>3.55</v>
       </c>
       <c r="C371">
-        <v>0.61</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -4575,10 +4627,10 @@
         <v>794.22</v>
       </c>
       <c r="B372">
-        <v>0.97</v>
+        <v>3.5</v>
       </c>
       <c r="C372">
-        <v>0.62</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -4586,10 +4638,10 @@
         <v>802.16</v>
       </c>
       <c r="B373">
-        <v>0.98</v>
+        <v>3.44</v>
       </c>
       <c r="C373">
-        <v>0.62</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -4597,10 +4649,10 @@
         <v>810.18</v>
       </c>
       <c r="B374">
-        <v>0.98</v>
+        <v>3.36</v>
       </c>
       <c r="C374">
-        <v>0.63</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -4608,10 +4660,10 @@
         <v>818.28</v>
       </c>
       <c r="B375">
-        <v>0.98</v>
+        <v>3.28</v>
       </c>
       <c r="C375">
-        <v>0.63</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -4619,10 +4671,10 @@
         <v>826.46</v>
       </c>
       <c r="B376">
-        <v>0.99</v>
+        <v>3.18</v>
       </c>
       <c r="C376">
-        <v>0.64</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -4630,10 +4682,10 @@
         <v>834.73</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>3.07</v>
       </c>
       <c r="C377">
-        <v>0.64</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -4641,10 +4693,10 @@
         <v>843.08</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>2.95</v>
       </c>
       <c r="C378">
-        <v>0.65</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -4652,10 +4704,10 @@
         <v>851.51</v>
       </c>
       <c r="B379">
-        <v>1.01</v>
+        <v>2.81</v>
       </c>
       <c r="C379">
-        <v>0.66</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -4663,10 +4715,10 @@
         <v>860.02</v>
       </c>
       <c r="B380">
-        <v>1.02</v>
+        <v>2.67</v>
       </c>
       <c r="C380">
-        <v>0.66</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -4674,10 +4726,10 @@
         <v>868.62</v>
       </c>
       <c r="B381">
-        <v>1.02</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C381">
-        <v>0.67</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -4685,10 +4737,10 @@
         <v>877.31</v>
       </c>
       <c r="B382">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="C382">
-        <v>0.67</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -4696,10 +4748,10 @@
         <v>886.08</v>
       </c>
       <c r="B383">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="C383">
-        <v>0.68</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -4707,10 +4759,10 @@
         <v>894.94</v>
       </c>
       <c r="B384">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="C384">
-        <v>0.69</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -4718,10 +4770,10 @@
         <v>903.89</v>
       </c>
       <c r="B385">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="C385">
-        <v>0.69</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -4729,10 +4781,10 @@
         <v>912.93</v>
       </c>
       <c r="B386">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="C386">
-        <v>0.7</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -4740,10 +4792,10 @@
         <v>922.06</v>
       </c>
       <c r="B387">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="C387">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -4751,10 +4803,10 @@
         <v>931.28</v>
       </c>
       <c r="B388">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="C388">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -4762,10 +4814,10 @@
         <v>940.59</v>
       </c>
       <c r="B389">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="C389">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -4773,10 +4825,10 @@
         <v>950</v>
       </c>
       <c r="B390">
-        <v>1.0900000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="C390">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -4784,10 +4836,10 @@
         <v>959.5</v>
       </c>
       <c r="B391">
-        <v>1.1000000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C391">
-        <v>0.75</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -4795,10 +4847,10 @@
         <v>969.09</v>
       </c>
       <c r="B392">
-        <v>1.1100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="C392">
-        <v>0.76</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -4806,10 +4858,10 @@
         <v>978.78</v>
       </c>
       <c r="B393">
-        <v>1.1299999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="C393">
-        <v>0.78</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -4817,10 +4869,10 @@
         <v>988.57</v>
       </c>
       <c r="B394">
-        <v>1.1399999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="C394">
-        <v>0.79</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -4828,10 +4880,10 @@
         <v>998.46</v>
       </c>
       <c r="B395">
-        <v>1.1499999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="C395">
-        <v>0.8</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -4839,10 +4891,10 @@
         <v>1008.44</v>
       </c>
       <c r="B396">
-        <v>1.17</v>
+        <v>-0.34</v>
       </c>
       <c r="C396">
-        <v>0.82</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -4850,10 +4902,10 @@
         <v>1018.53</v>
       </c>
       <c r="B397">
-        <v>1.19</v>
+        <v>-0.5</v>
       </c>
       <c r="C397">
-        <v>0.84</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -4861,10 +4913,10 @@
         <v>1028.71</v>
       </c>
       <c r="B398">
-        <v>1.21</v>
+        <v>-0.65</v>
       </c>
       <c r="C398">
-        <v>0.87</v>
+        <v>-1.1599999999999999</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -4872,10 +4924,10 @@
         <v>1039</v>
       </c>
       <c r="B399">
-        <v>1.24</v>
+        <v>-0.8</v>
       </c>
       <c r="C399">
-        <v>0.89</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -4883,10 +4935,10 @@
         <v>1049.3900000000001</v>
       </c>
       <c r="B400">
-        <v>1.26</v>
+        <v>-0.94</v>
       </c>
       <c r="C400">
-        <v>0.91</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -4894,10 +4946,10 @@
         <v>1059.8800000000001</v>
       </c>
       <c r="B401">
-        <v>1.28</v>
+        <v>-1.07</v>
       </c>
       <c r="C401">
-        <v>0.93</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -4905,10 +4957,10 @@
         <v>1070.48</v>
       </c>
       <c r="B402">
-        <v>1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="C402">
-        <v>0.96</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -4916,10 +4968,10 @@
         <v>1081.19</v>
       </c>
       <c r="B403">
-        <v>1.33</v>
+        <v>-1.33</v>
       </c>
       <c r="C403">
-        <v>0.98</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -4927,10 +4979,10 @@
         <v>1092</v>
       </c>
       <c r="B404">
-        <v>1.36</v>
+        <v>-1.46</v>
       </c>
       <c r="C404">
-        <v>1.01</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -4938,10 +4990,10 @@
         <v>1102.92</v>
       </c>
       <c r="B405">
-        <v>1.39</v>
+        <v>-1.59</v>
       </c>
       <c r="C405">
-        <v>1.05</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -4949,10 +5001,10 @@
         <v>1113.95</v>
       </c>
       <c r="B406">
-        <v>1.43</v>
+        <v>-1.72</v>
       </c>
       <c r="C406">
-        <v>1.08</v>
+        <v>-2.2599999999999998</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -4960,10 +5012,10 @@
         <v>1125.0899999999999</v>
       </c>
       <c r="B407">
-        <v>1.47</v>
+        <v>-1.85</v>
       </c>
       <c r="C407">
-        <v>1.1200000000000001</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -4971,10 +5023,10 @@
         <v>1136.3399999999999</v>
       </c>
       <c r="B408">
-        <v>1.51</v>
+        <v>-1.98</v>
       </c>
       <c r="C408">
-        <v>1.1599999999999999</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -4982,10 +5034,10 @@
         <v>1147.7</v>
       </c>
       <c r="B409">
-        <v>1.55</v>
+        <v>-2.11</v>
       </c>
       <c r="C409">
-        <v>1.2</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -4993,10 +5045,10 @@
         <v>1159.18</v>
       </c>
       <c r="B410">
-        <v>1.59</v>
+        <v>-2.25</v>
       </c>
       <c r="C410">
-        <v>1.25</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -5004,10 +5056,10 @@
         <v>1170.77</v>
       </c>
       <c r="B411">
-        <v>1.64</v>
+        <v>-2.4</v>
       </c>
       <c r="C411">
-        <v>1.29</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -5015,10 +5067,10 @@
         <v>1182.48</v>
       </c>
       <c r="B412">
-        <v>1.68</v>
+        <v>-2.54</v>
       </c>
       <c r="C412">
-        <v>1.34</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -5026,10 +5078,10 @@
         <v>1194.3</v>
       </c>
       <c r="B413">
-        <v>1.73</v>
+        <v>-2.69</v>
       </c>
       <c r="C413">
-        <v>1.39</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -5037,10 +5089,10 @@
         <v>1206.25</v>
       </c>
       <c r="B414">
-        <v>1.79</v>
+        <v>-2.85</v>
       </c>
       <c r="C414">
-        <v>1.45</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -5048,10 +5100,10 @@
         <v>1218.31</v>
       </c>
       <c r="B415">
-        <v>1.84</v>
+        <v>-3.01</v>
       </c>
       <c r="C415">
-        <v>1.5</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -5059,10 +5111,10 @@
         <v>1230.49</v>
       </c>
       <c r="B416">
-        <v>1.9</v>
+        <v>-3.18</v>
       </c>
       <c r="C416">
-        <v>1.56</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -5070,10 +5122,10 @@
         <v>1242.8</v>
       </c>
       <c r="B417">
-        <v>1.95</v>
+        <v>-3.35</v>
       </c>
       <c r="C417">
-        <v>1.62</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -5081,10 +5133,10 @@
         <v>1255.22</v>
       </c>
       <c r="B418">
-        <v>2.0099999999999998</v>
+        <v>-3.53</v>
       </c>
       <c r="C418">
-        <v>1.67</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -5092,10 +5144,10 @@
         <v>1267.78</v>
       </c>
       <c r="B419">
-        <v>2.0699999999999998</v>
+        <v>-3.71</v>
       </c>
       <c r="C419">
-        <v>1.73</v>
+        <v>-4.2699999999999996</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -5103,10 +5155,10 @@
         <v>1280.45</v>
       </c>
       <c r="B420">
-        <v>2.13</v>
+        <v>-3.89</v>
       </c>
       <c r="C420">
-        <v>1.79</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -5114,10 +5166,10 @@
         <v>1293.26</v>
       </c>
       <c r="B421">
-        <v>2.19</v>
+        <v>-4.08</v>
       </c>
       <c r="C421">
-        <v>1.86</v>
+        <v>-4.6500000000000004</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -5125,10 +5177,10 @@
         <v>1306.19</v>
       </c>
       <c r="B422">
-        <v>2.25</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="C422">
-        <v>1.92</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -5136,10 +5188,10 @@
         <v>1319.25</v>
       </c>
       <c r="B423">
-        <v>2.3199999999999998</v>
+        <v>-4.46</v>
       </c>
       <c r="C423">
-        <v>1.99</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -5147,10 +5199,10 @@
         <v>1332.45</v>
       </c>
       <c r="B424">
-        <v>2.4</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="C424">
-        <v>2.06</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -5158,10 +5210,10 @@
         <v>1345.77</v>
       </c>
       <c r="B425">
-        <v>2.4700000000000002</v>
+        <v>-4.84</v>
       </c>
       <c r="C425">
-        <v>2.14</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -5169,10 +5221,10 @@
         <v>1359.23</v>
       </c>
       <c r="B426">
-        <v>2.54</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="C426">
-        <v>2.21</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -5180,10 +5232,10 @@
         <v>1372.82</v>
       </c>
       <c r="B427">
-        <v>2.61</v>
+        <v>-5.2</v>
       </c>
       <c r="C427">
-        <v>2.2799999999999998</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -5191,10 +5243,10 @@
         <v>1386.55</v>
       </c>
       <c r="B428">
-        <v>2.68</v>
+        <v>-5.36</v>
       </c>
       <c r="C428">
-        <v>2.35</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -5202,10 +5254,10 @@
         <v>1400.41</v>
       </c>
       <c r="B429">
-        <v>2.75</v>
+        <v>-5.52</v>
       </c>
       <c r="C429">
-        <v>2.4300000000000002</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -5213,10 +5265,10 @@
         <v>1414.42</v>
       </c>
       <c r="B430">
-        <v>2.83</v>
+        <v>-5.66</v>
       </c>
       <c r="C430">
-        <v>2.5</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -5224,10 +5276,10 @@
         <v>1428.56</v>
       </c>
       <c r="B431">
-        <v>2.9</v>
+        <v>-5.79</v>
       </c>
       <c r="C431">
-        <v>2.58</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -5235,10 +5287,10 @@
         <v>1442.85</v>
       </c>
       <c r="B432">
-        <v>2.98</v>
+        <v>-5.9</v>
       </c>
       <c r="C432">
-        <v>2.66</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -5246,10 +5298,10 @@
         <v>1457.28</v>
       </c>
       <c r="B433">
-        <v>3.06</v>
+        <v>-5.99</v>
       </c>
       <c r="C433">
-        <v>2.74</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -5257,10 +5309,10 @@
         <v>1471.85</v>
       </c>
       <c r="B434">
-        <v>3.13</v>
+        <v>-6.07</v>
       </c>
       <c r="C434">
-        <v>2.81</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -5268,10 +5320,10 @@
         <v>1486.57</v>
       </c>
       <c r="B435">
-        <v>3.2</v>
+        <v>-6.12</v>
       </c>
       <c r="C435">
-        <v>2.88</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -5279,10 +5331,10 @@
         <v>1501.43</v>
       </c>
       <c r="B436">
-        <v>3.26</v>
+        <v>-6.14</v>
       </c>
       <c r="C436">
-        <v>2.95</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -5290,10 +5342,10 @@
         <v>1516.45</v>
       </c>
       <c r="B437">
-        <v>3.33</v>
+        <v>-6.13</v>
       </c>
       <c r="C437">
-        <v>3.01</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -5301,10 +5353,10 @@
         <v>1531.61</v>
       </c>
       <c r="B438">
-        <v>3.4</v>
+        <v>-6.09</v>
       </c>
       <c r="C438">
-        <v>3.09</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -5312,10 +5364,10 @@
         <v>1546.93</v>
       </c>
       <c r="B439">
-        <v>3.49</v>
+        <v>-6.03</v>
       </c>
       <c r="C439">
-        <v>3.18</v>
+        <v>-6.62</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -5323,10 +5375,10 @@
         <v>1562.4</v>
       </c>
       <c r="B440">
-        <v>3.6</v>
+        <v>-5.95</v>
       </c>
       <c r="C440">
-        <v>3.29</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -5334,10 +5386,10 @@
         <v>1578.02</v>
       </c>
       <c r="B441">
-        <v>3.71</v>
+        <v>-5.84</v>
       </c>
       <c r="C441">
-        <v>3.4</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -5345,10 +5397,10 @@
         <v>1593.8</v>
       </c>
       <c r="B442">
-        <v>3.81</v>
+        <v>-5.7</v>
       </c>
       <c r="C442">
-        <v>3.51</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -5356,10 +5408,10 @@
         <v>1609.74</v>
       </c>
       <c r="B443">
-        <v>3.92</v>
+        <v>-5.54</v>
       </c>
       <c r="C443">
-        <v>3.61</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -5367,10 +5419,10 @@
         <v>1625.84</v>
       </c>
       <c r="B444">
-        <v>4.01</v>
+        <v>-5.35</v>
       </c>
       <c r="C444">
-        <v>3.71</v>
+        <v>-5.94</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -5378,10 +5430,10 @@
         <v>1642.1</v>
       </c>
       <c r="B445">
-        <v>4.0999999999999996</v>
+        <v>-5.14</v>
       </c>
       <c r="C445">
-        <v>3.8</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -5389,10 +5441,10 @@
         <v>1658.52</v>
       </c>
       <c r="B446">
-        <v>4.1900000000000004</v>
+        <v>-4.93</v>
       </c>
       <c r="C446">
-        <v>3.89</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -5400,10 +5452,10 @@
         <v>1675.1</v>
       </c>
       <c r="B447">
-        <v>4.28</v>
+        <v>-4.7</v>
       </c>
       <c r="C447">
-        <v>3.98</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -5411,10 +5463,10 @@
         <v>1691.85</v>
       </c>
       <c r="B448">
-        <v>4.38</v>
+        <v>-4.46</v>
       </c>
       <c r="C448">
-        <v>4.08</v>
+        <v>-5.0599999999999996</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -5422,10 +5474,10 @@
         <v>1708.77</v>
       </c>
       <c r="B449">
-        <v>4.49</v>
+        <v>-4.2</v>
       </c>
       <c r="C449">
-        <v>4.1900000000000004</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -5433,10 +5485,10 @@
         <v>1725.86</v>
       </c>
       <c r="B450">
-        <v>4.5999999999999996</v>
+        <v>-3.93</v>
       </c>
       <c r="C450">
-        <v>4.32</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -5444,10 +5496,10 @@
         <v>1743.12</v>
       </c>
       <c r="B451">
-        <v>4.7300000000000004</v>
+        <v>-3.66</v>
       </c>
       <c r="C451">
-        <v>4.4400000000000004</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -5455,10 +5507,10 @@
         <v>1760.55</v>
       </c>
       <c r="B452">
-        <v>4.8499999999999996</v>
+        <v>-3.38</v>
       </c>
       <c r="C452">
-        <v>4.5599999999999996</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -5466,10 +5518,10 @@
         <v>1778.15</v>
       </c>
       <c r="B453">
-        <v>4.97</v>
+        <v>-3.1</v>
       </c>
       <c r="C453">
-        <v>4.6900000000000004</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -5477,10 +5529,10 @@
         <v>1795.94</v>
       </c>
       <c r="B454">
-        <v>5.09</v>
+        <v>-2.82</v>
       </c>
       <c r="C454">
-        <v>4.8099999999999996</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -5488,10 +5540,10 @@
         <v>1813.9</v>
       </c>
       <c r="B455">
-        <v>5.2</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="C455">
-        <v>4.93</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -5499,10 +5551,10 @@
         <v>1832.03</v>
       </c>
       <c r="B456">
-        <v>5.32</v>
+        <v>-2.23</v>
       </c>
       <c r="C456">
-        <v>5.05</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -5510,10 +5562,10 @@
         <v>1850.36</v>
       </c>
       <c r="B457">
-        <v>5.44</v>
+        <v>-1.94</v>
       </c>
       <c r="C457">
-        <v>5.17</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -5521,10 +5573,10 @@
         <v>1868.86</v>
       </c>
       <c r="B458">
-        <v>5.56</v>
+        <v>-1.65</v>
       </c>
       <c r="C458">
-        <v>5.3</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -5532,10 +5584,10 @@
         <v>1887.55</v>
       </c>
       <c r="B459">
-        <v>5.69</v>
+        <v>-1.37</v>
       </c>
       <c r="C459">
-        <v>5.42</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -5543,10 +5595,10 @@
         <v>1906.42</v>
       </c>
       <c r="B460">
-        <v>5.81</v>
+        <v>-1.08</v>
       </c>
       <c r="C460">
-        <v>5.55</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -5554,10 +5606,10 @@
         <v>1925.49</v>
       </c>
       <c r="B461">
-        <v>5.94</v>
+        <v>-0.79</v>
       </c>
       <c r="C461">
-        <v>5.68</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -5565,10 +5617,10 @@
         <v>1944.74</v>
       </c>
       <c r="B462">
-        <v>6.06</v>
+        <v>-0.5</v>
       </c>
       <c r="C462">
-        <v>5.81</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -5576,10 +5628,10 @@
         <v>1964.19</v>
       </c>
       <c r="B463">
-        <v>6.18</v>
+        <v>-0.22</v>
       </c>
       <c r="C463">
-        <v>5.94</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -5587,10 +5639,10 @@
         <v>1983.83</v>
       </c>
       <c r="B464">
-        <v>6.3</v>
+        <v>0.06</v>
       </c>
       <c r="C464">
-        <v>6.06</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -5598,10 +5650,10 @@
         <v>2003.67</v>
       </c>
       <c r="B465">
-        <v>6.42</v>
+        <v>0.33</v>
       </c>
       <c r="C465">
-        <v>6.18</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -5609,10 +5661,10 @@
         <v>2023.71</v>
       </c>
       <c r="B466">
-        <v>6.53</v>
+        <v>0.6</v>
       </c>
       <c r="C466">
-        <v>6.3</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -5620,10 +5672,10 @@
         <v>2043.94</v>
       </c>
       <c r="B467">
-        <v>6.65</v>
+        <v>0.86</v>
       </c>
       <c r="C467">
-        <v>6.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -5631,10 +5683,10 @@
         <v>2064.38</v>
       </c>
       <c r="B468">
-        <v>6.77</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C468">
-        <v>6.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -5642,10 +5694,10 @@
         <v>2085.0300000000002</v>
       </c>
       <c r="B469">
-        <v>6.88</v>
+        <v>1.36</v>
       </c>
       <c r="C469">
-        <v>6.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -5653,10 +5705,10 @@
         <v>2105.88</v>
       </c>
       <c r="B470">
-        <v>6.99</v>
+        <v>1.6</v>
       </c>
       <c r="C470">
-        <v>6.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -5664,10 +5716,10 @@
         <v>2126.94</v>
       </c>
       <c r="B471">
-        <v>7.09</v>
+        <v>1.84</v>
       </c>
       <c r="C471">
-        <v>6.88</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -5675,10 +5727,10 @@
         <v>2148.1999999999998</v>
       </c>
       <c r="B472">
-        <v>7.18</v>
+        <v>2.06</v>
       </c>
       <c r="C472">
-        <v>6.98</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -5686,10 +5738,10 @@
         <v>2169.69</v>
       </c>
       <c r="B473">
-        <v>7.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C473">
-        <v>7.08</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -5697,10 +5749,10 @@
         <v>2191.38</v>
       </c>
       <c r="B474">
-        <v>7.38</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C474">
-        <v>7.19</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -5708,10 +5760,10 @@
         <v>2213.3000000000002</v>
       </c>
       <c r="B475">
-        <v>7.5</v>
+        <v>2.69</v>
       </c>
       <c r="C475">
-        <v>7.31</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -5719,10 +5771,10 @@
         <v>2235.4299999999998</v>
       </c>
       <c r="B476">
-        <v>7.61</v>
+        <v>2.88</v>
       </c>
       <c r="C476">
-        <v>7.42</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -5730,10 +5782,10 @@
         <v>2257.7800000000002</v>
       </c>
       <c r="B477">
-        <v>7.71</v>
+        <v>3.06</v>
       </c>
       <c r="C477">
-        <v>7.53</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -5741,10 +5793,10 @@
         <v>2280.36</v>
       </c>
       <c r="B478">
-        <v>7.8</v>
+        <v>3.24</v>
       </c>
       <c r="C478">
-        <v>7.63</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -5752,10 +5804,10 @@
         <v>2303.17</v>
       </c>
       <c r="B479">
-        <v>7.88</v>
+        <v>3.4</v>
       </c>
       <c r="C479">
-        <v>7.71</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -5763,10 +5815,10 @@
         <v>2326.1999999999998</v>
       </c>
       <c r="B480">
-        <v>7.95</v>
+        <v>3.56</v>
       </c>
       <c r="C480">
-        <v>7.8</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -5774,10 +5826,10 @@
         <v>2349.46</v>
       </c>
       <c r="B481">
-        <v>8.0399999999999991</v>
+        <v>3.7</v>
       </c>
       <c r="C481">
-        <v>7.9</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -5785,10 +5837,10 @@
         <v>2372.9499999999998</v>
       </c>
       <c r="B482">
-        <v>8.15</v>
+        <v>3.83</v>
       </c>
       <c r="C482">
-        <v>8.01</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -5796,10 +5848,10 @@
         <v>2396.6799999999998</v>
       </c>
       <c r="B483">
-        <v>8.25</v>
+        <v>3.94</v>
       </c>
       <c r="C483">
-        <v>8.1199999999999992</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -5807,10 +5859,10 @@
         <v>2420.65</v>
       </c>
       <c r="B484">
-        <v>8.34</v>
+        <v>4.04</v>
       </c>
       <c r="C484">
-        <v>8.2200000000000006</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -5818,10 +5870,10 @@
         <v>2444.86</v>
       </c>
       <c r="B485">
-        <v>8.41</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C485">
-        <v>8.3000000000000007</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -5829,10 +5881,10 @@
         <v>2469.31</v>
       </c>
       <c r="B486">
-        <v>8.4700000000000006</v>
+        <v>4.22</v>
       </c>
       <c r="C486">
-        <v>8.36</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -5840,10 +5892,10 @@
         <v>2494</v>
       </c>
       <c r="B487">
-        <v>8.5299999999999994</v>
+        <v>4.28</v>
       </c>
       <c r="C487">
-        <v>8.43</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -5851,10 +5903,10 @@
         <v>2518.94</v>
       </c>
       <c r="B488">
-        <v>8.59</v>
+        <v>4.33</v>
       </c>
       <c r="C488">
-        <v>8.5</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -5862,10 +5914,10 @@
         <v>2544.13</v>
       </c>
       <c r="B489">
-        <v>8.67</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C489">
-        <v>8.59</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -5873,10 +5925,10 @@
         <v>2569.5700000000002</v>
       </c>
       <c r="B490">
-        <v>8.74</v>
+        <v>4.38</v>
       </c>
       <c r="C490">
-        <v>8.67</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -5884,10 +5936,10 @@
         <v>2595.27</v>
       </c>
       <c r="B491">
-        <v>8.81</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="C491">
-        <v>8.75</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -5895,10 +5947,10 @@
         <v>2621.2199999999998</v>
       </c>
       <c r="B492">
-        <v>8.8699999999999992</v>
+        <v>4.38</v>
       </c>
       <c r="C492">
-        <v>8.82</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -5906,10 +5958,10 @@
         <v>2647.43</v>
       </c>
       <c r="B493">
-        <v>8.93</v>
+        <v>4.34</v>
       </c>
       <c r="C493">
-        <v>8.89</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -5917,10 +5969,10 @@
         <v>2673.9</v>
       </c>
       <c r="B494">
-        <v>8.99</v>
+        <v>4.29</v>
       </c>
       <c r="C494">
-        <v>8.9600000000000009</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -5928,10 +5980,10 @@
         <v>2700.64</v>
       </c>
       <c r="B495">
-        <v>9.0500000000000007</v>
+        <v>4.22</v>
       </c>
       <c r="C495">
-        <v>9.0299999999999994</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -5939,10 +5991,10 @@
         <v>2727.65</v>
       </c>
       <c r="B496">
-        <v>9.1</v>
+        <v>4.12</v>
       </c>
       <c r="C496">
-        <v>9.09</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -5950,10 +6002,10 @@
         <v>2754.93</v>
       </c>
       <c r="B497">
-        <v>9.15</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C497">
-        <v>9.15</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -5961,10 +6013,10 @@
         <v>2782.48</v>
       </c>
       <c r="B498">
-        <v>9.19</v>
+        <v>3.89</v>
       </c>
       <c r="C498">
-        <v>9.1999999999999993</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -5972,10 +6024,10 @@
         <v>2810.3</v>
       </c>
       <c r="B499">
-        <v>9.23</v>
+        <v>3.75</v>
       </c>
       <c r="C499">
-        <v>9.26</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -5983,10 +6035,10 @@
         <v>2838.4</v>
       </c>
       <c r="B500">
-        <v>9.2799999999999994</v>
+        <v>3.6</v>
       </c>
       <c r="C500">
-        <v>9.32</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -5994,10 +6046,10 @@
         <v>2866.79</v>
       </c>
       <c r="B501">
-        <v>9.32</v>
+        <v>3.43</v>
       </c>
       <c r="C501">
-        <v>9.3699999999999992</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -6005,10 +6057,10 @@
         <v>2895.46</v>
       </c>
       <c r="B502">
-        <v>9.35</v>
+        <v>3.25</v>
       </c>
       <c r="C502">
-        <v>9.42</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -6016,10 +6068,10 @@
         <v>2924.41</v>
       </c>
       <c r="B503">
-        <v>9.3800000000000008</v>
+        <v>3.05</v>
       </c>
       <c r="C503">
-        <v>9.4600000000000009</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -6027,10 +6079,10 @@
         <v>2953.65</v>
       </c>
       <c r="B504">
-        <v>9.42</v>
+        <v>2.84</v>
       </c>
       <c r="C504">
-        <v>9.52</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -6038,10 +6090,10 @@
         <v>2983.19</v>
       </c>
       <c r="B505">
-        <v>9.4700000000000006</v>
+        <v>2.63</v>
       </c>
       <c r="C505">
-        <v>9.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -6049,10 +6101,10 @@
         <v>3013.02</v>
       </c>
       <c r="B506">
-        <v>9.52</v>
+        <v>2.41</v>
       </c>
       <c r="C506">
-        <v>9.65</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -6060,10 +6112,10 @@
         <v>3043.15</v>
       </c>
       <c r="B507">
-        <v>9.57</v>
+        <v>2.19</v>
       </c>
       <c r="C507">
-        <v>9.6999999999999993</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -6071,10 +6123,10 @@
         <v>3073.58</v>
       </c>
       <c r="B508">
-        <v>9.59</v>
+        <v>1.97</v>
       </c>
       <c r="C508">
-        <v>9.74</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -6082,10 +6134,10 @@
         <v>3104.32</v>
       </c>
       <c r="B509">
-        <v>9.59</v>
+        <v>1.76</v>
       </c>
       <c r="C509">
-        <v>9.76</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -6093,10 +6145,10 @@
         <v>3135.36</v>
       </c>
       <c r="B510">
-        <v>9.58</v>
+        <v>1.54</v>
       </c>
       <c r="C510">
-        <v>9.76</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -6104,10 +6156,10 @@
         <v>3166.72</v>
       </c>
       <c r="B511">
-        <v>9.59</v>
+        <v>1.32</v>
       </c>
       <c r="C511">
-        <v>9.7899999999999991</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -6115,10 +6167,10 @@
         <v>3198.38</v>
       </c>
       <c r="B512">
-        <v>9.61</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C512">
-        <v>9.83</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -6126,10 +6178,10 @@
         <v>3230.37</v>
       </c>
       <c r="B513">
-        <v>9.65</v>
+        <v>0.91</v>
       </c>
       <c r="C513">
-        <v>9.8800000000000008</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -6137,10 +6189,10 @@
         <v>3262.67</v>
       </c>
       <c r="B514">
-        <v>9.68</v>
+        <v>0.72</v>
       </c>
       <c r="C514">
-        <v>9.93</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -6148,10 +6200,10 @@
         <v>3295.3</v>
       </c>
       <c r="B515">
-        <v>9.7100000000000009</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C515">
-        <v>9.98</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -6159,10 +6211,10 @@
         <v>3328.25</v>
       </c>
       <c r="B516">
-        <v>9.73</v>
+        <v>0.39</v>
       </c>
       <c r="C516">
-        <v>10.02</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -6170,10 +6222,10 @@
         <v>3361.53</v>
       </c>
       <c r="B517">
-        <v>9.75</v>
+        <v>0.26</v>
       </c>
       <c r="C517">
-        <v>10.050000000000001</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -6181,10 +6233,10 @@
         <v>3395.15</v>
       </c>
       <c r="B518">
-        <v>9.77</v>
+        <v>0.13</v>
       </c>
       <c r="C518">
-        <v>10.09</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -6192,10 +6244,10 @@
         <v>3429.1</v>
       </c>
       <c r="B519">
-        <v>9.77</v>
+        <v>0.02</v>
       </c>
       <c r="C519">
-        <v>10.11</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -6203,10 +6255,10 @@
         <v>3463.39</v>
       </c>
       <c r="B520">
-        <v>9.76</v>
+        <v>-0.08</v>
       </c>
       <c r="C520">
-        <v>10.119999999999999</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -6214,10 +6266,10 @@
         <v>3498.03</v>
       </c>
       <c r="B521">
-        <v>9.74</v>
+        <v>-0.16</v>
       </c>
       <c r="C521">
-        <v>10.11</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -6225,10 +6277,10 @@
         <v>3533.01</v>
       </c>
       <c r="B522">
-        <v>9.7200000000000006</v>
+        <v>-0.23</v>
       </c>
       <c r="C522">
-        <v>10.11</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -6236,10 +6288,10 @@
         <v>3568.34</v>
       </c>
       <c r="B523">
-        <v>9.6999999999999993</v>
+        <v>-0.27</v>
       </c>
       <c r="C523">
-        <v>10.11</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -6247,10 +6299,10 @@
         <v>3604.02</v>
       </c>
       <c r="B524">
-        <v>9.69</v>
+        <v>-0.3</v>
       </c>
       <c r="C524">
-        <v>10.119999999999999</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -6258,10 +6310,10 @@
         <v>3640.06</v>
       </c>
       <c r="B525">
-        <v>9.68</v>
+        <v>-0.3</v>
       </c>
       <c r="C525">
-        <v>10.130000000000001</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -6269,10 +6321,10 @@
         <v>3676.46</v>
       </c>
       <c r="B526">
-        <v>9.66</v>
+        <v>-0.27</v>
       </c>
       <c r="C526">
-        <v>10.130000000000001</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -6280,10 +6332,10 @@
         <v>3713.22</v>
       </c>
       <c r="B527">
-        <v>9.61</v>
+        <v>-0.2</v>
       </c>
       <c r="C527">
-        <v>10.1</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -6291,10 +6343,10 @@
         <v>3750.36</v>
       </c>
       <c r="B528">
-        <v>9.56</v>
+        <v>-0.1</v>
       </c>
       <c r="C528">
-        <v>10.07</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -6302,10 +6354,10 @@
         <v>3787.86</v>
       </c>
       <c r="B529">
-        <v>9.51</v>
+        <v>0.05</v>
       </c>
       <c r="C529">
-        <v>10.039999999999999</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -6313,10 +6365,10 @@
         <v>3825.74</v>
       </c>
       <c r="B530">
-        <v>9.48</v>
+        <v>0.23</v>
       </c>
       <c r="C530">
-        <v>10.029999999999999</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -6324,10 +6376,10 @@
         <v>3864</v>
       </c>
       <c r="B531">
-        <v>9.4700000000000006</v>
+        <v>0.43</v>
       </c>
       <c r="C531">
-        <v>10.039999999999999</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
@@ -6335,10 +6387,10 @@
         <v>3902.64</v>
       </c>
       <c r="B532">
-        <v>9.4600000000000009</v>
+        <v>0.64</v>
       </c>
       <c r="C532">
-        <v>10.050000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -6346,10 +6398,10 @@
         <v>3941.66</v>
       </c>
       <c r="B533">
-        <v>9.44</v>
+        <v>0.85</v>
       </c>
       <c r="C533">
-        <v>10.050000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -6357,10 +6409,10 @@
         <v>3981.08</v>
       </c>
       <c r="B534">
-        <v>9.39</v>
+        <v>1.07</v>
       </c>
       <c r="C534">
-        <v>10.02</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
@@ -6368,10 +6420,10 @@
         <v>4020.89</v>
       </c>
       <c r="B535">
-        <v>9.33</v>
+        <v>1.28</v>
       </c>
       <c r="C535">
-        <v>9.98</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -6379,10 +6431,10 @@
         <v>4061.1</v>
       </c>
       <c r="B536">
-        <v>9.26</v>
+        <v>1.5</v>
       </c>
       <c r="C536">
-        <v>9.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -6390,10 +6442,10 @@
         <v>4101.71</v>
       </c>
       <c r="B537">
-        <v>9.19</v>
+        <v>1.71</v>
       </c>
       <c r="C537">
-        <v>9.8800000000000008</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -6401,10 +6453,10 @@
         <v>4142.7299999999996</v>
       </c>
       <c r="B538">
-        <v>9.1199999999999992</v>
+        <v>1.9</v>
       </c>
       <c r="C538">
-        <v>9.84</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -6412,10 +6464,10 @@
         <v>4184.1499999999996</v>
       </c>
       <c r="B539">
-        <v>9.06</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C539">
-        <v>9.82</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -6423,10 +6475,10 @@
         <v>4226</v>
       </c>
       <c r="B540">
-        <v>9.01</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C540">
-        <v>9.8000000000000007</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -6434,10 +6486,10 @@
         <v>4268.26</v>
       </c>
       <c r="B541">
-        <v>8.9499999999999993</v>
+        <v>2.36</v>
       </c>
       <c r="C541">
-        <v>9.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
@@ -6445,10 +6497,10 @@
         <v>4310.9399999999996</v>
       </c>
       <c r="B542">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="C542">
-        <v>9.7200000000000006</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -6456,10 +6508,10 @@
         <v>4354.05</v>
       </c>
       <c r="B543">
-        <v>8.85</v>
+        <v>2.63</v>
       </c>
       <c r="C543">
-        <v>9.6199999999999992</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -6467,10 +6519,10 @@
         <v>4397.59</v>
       </c>
       <c r="B544">
-        <v>8.7899999999999991</v>
+        <v>2.76</v>
       </c>
       <c r="C544">
-        <v>9.49</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -6478,10 +6530,10 @@
         <v>4441.5600000000004</v>
       </c>
       <c r="B545">
-        <v>8.6999999999999993</v>
+        <v>2.88</v>
       </c>
       <c r="C545">
-        <v>9.3000000000000007</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
@@ -6489,10 +6541,10 @@
         <v>4485.9799999999996</v>
       </c>
       <c r="B546">
-        <v>8.59</v>
+        <v>2.98</v>
       </c>
       <c r="C546">
-        <v>9.08</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -6500,10 +6552,10 @@
         <v>4530.84</v>
       </c>
       <c r="B547">
-        <v>8.4499999999999993</v>
+        <v>3.07</v>
       </c>
       <c r="C547">
-        <v>8.82</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -6511,10 +6563,10 @@
         <v>4576.1499999999996</v>
       </c>
       <c r="B548">
-        <v>8.3000000000000007</v>
+        <v>3.15</v>
       </c>
       <c r="C548">
-        <v>8.5500000000000007</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
@@ -6522,10 +6574,10 @@
         <v>4621.91</v>
       </c>
       <c r="B549">
-        <v>8.15</v>
+        <v>3.23</v>
       </c>
       <c r="C549">
-        <v>8.2799999999999994</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -6533,10 +6585,10 @@
         <v>4668.13</v>
       </c>
       <c r="B550">
-        <v>7.98</v>
+        <v>3.29</v>
       </c>
       <c r="C550">
-        <v>8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
@@ -6544,10 +6596,10 @@
         <v>4714.8100000000004</v>
       </c>
       <c r="B551">
-        <v>7.8</v>
+        <v>3.35</v>
       </c>
       <c r="C551">
-        <v>7.73</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -6555,10 +6607,10 @@
         <v>4761.96</v>
       </c>
       <c r="B552">
-        <v>7.57</v>
+        <v>3.41</v>
       </c>
       <c r="C552">
-        <v>7.48</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
@@ -6566,10 +6618,10 @@
         <v>4809.58</v>
       </c>
       <c r="B553">
-        <v>7.31</v>
+        <v>3.45</v>
       </c>
       <c r="C553">
-        <v>7.27</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -6577,10 +6629,10 @@
         <v>4857.67</v>
       </c>
       <c r="B554">
-        <v>7.05</v>
+        <v>3.47</v>
       </c>
       <c r="C554">
-        <v>7.11</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -6588,10 +6640,10 @@
         <v>4906.25</v>
       </c>
       <c r="B555">
-        <v>6.78</v>
+        <v>3.48</v>
       </c>
       <c r="C555">
-        <v>6.99</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -6599,10 +6651,10 @@
         <v>4955.3100000000004</v>
       </c>
       <c r="B556">
-        <v>6.53</v>
+        <v>3.48</v>
       </c>
       <c r="C556">
-        <v>6.91</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -6610,10 +6662,10 @@
         <v>5004.87</v>
       </c>
       <c r="B557">
-        <v>6.3</v>
+        <v>3.45</v>
       </c>
       <c r="C557">
-        <v>6.86</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -6621,10 +6673,10 @@
         <v>5054.91</v>
       </c>
       <c r="B558">
-        <v>6.09</v>
+        <v>3.41</v>
       </c>
       <c r="C558">
-        <v>6.83</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
@@ -6632,10 +6684,10 @@
         <v>5105.46</v>
       </c>
       <c r="B559">
-        <v>5.91</v>
+        <v>3.35</v>
       </c>
       <c r="C559">
-        <v>6.83</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -6643,10 +6695,10 @@
         <v>5156.5200000000004</v>
       </c>
       <c r="B560">
-        <v>5.8</v>
+        <v>3.28</v>
       </c>
       <c r="C560">
-        <v>6.88</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -6654,10 +6706,10 @@
         <v>5208.08</v>
       </c>
       <c r="B561">
-        <v>5.79</v>
+        <v>3.19</v>
       </c>
       <c r="C561">
-        <v>7</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
@@ -6665,10 +6717,10 @@
         <v>5260.16</v>
       </c>
       <c r="B562">
-        <v>5.9</v>
+        <v>3.07</v>
       </c>
       <c r="C562">
-        <v>7.19</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -6676,10 +6728,10 @@
         <v>5312.77</v>
       </c>
       <c r="B563">
-        <v>6.12</v>
+        <v>2.93</v>
       </c>
       <c r="C563">
-        <v>7.44</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -6687,10 +6739,10 @@
         <v>5365.89</v>
       </c>
       <c r="B564">
-        <v>6.36</v>
+        <v>2.77</v>
       </c>
       <c r="C564">
-        <v>7.69</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -6698,10 +6750,10 @@
         <v>5419.55</v>
       </c>
       <c r="B565">
-        <v>6.58</v>
+        <v>2.59</v>
       </c>
       <c r="C565">
-        <v>7.89</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -6709,10 +6761,10 @@
         <v>5473.75</v>
       </c>
       <c r="B566">
-        <v>6.72</v>
+        <v>2.37</v>
       </c>
       <c r="C566">
-        <v>8.02</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
@@ -6720,10 +6772,10 @@
         <v>5528.49</v>
       </c>
       <c r="B567">
-        <v>6.75</v>
+        <v>2.12</v>
       </c>
       <c r="C567">
-        <v>8.06</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
@@ -6731,10 +6783,10 @@
         <v>5583.77</v>
       </c>
       <c r="B568">
-        <v>6.7</v>
+        <v>1.83</v>
       </c>
       <c r="C568">
-        <v>8.0500000000000007</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -6742,10 +6794,10 @@
         <v>5639.61</v>
       </c>
       <c r="B569">
-        <v>6.58</v>
+        <v>1.49</v>
       </c>
       <c r="C569">
-        <v>8</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
@@ -6753,10 +6805,10 @@
         <v>5696</v>
       </c>
       <c r="B570">
-        <v>6.43</v>
+        <v>1.08</v>
       </c>
       <c r="C570">
-        <v>7.93</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -6764,10 +6816,10 @@
         <v>5752.96</v>
       </c>
       <c r="B571">
-        <v>6.26</v>
+        <v>0.62</v>
       </c>
       <c r="C571">
-        <v>7.85</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -6775,10 +6827,10 @@
         <v>5810.49</v>
       </c>
       <c r="B572">
-        <v>6.1</v>
+        <v>0.12</v>
       </c>
       <c r="C572">
-        <v>7.77</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -6786,10 +6838,10 @@
         <v>5868.6</v>
       </c>
       <c r="B573">
-        <v>5.94</v>
+        <v>-0.39</v>
       </c>
       <c r="C573">
-        <v>7.7</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -6797,10 +6849,10 @@
         <v>5927.28</v>
       </c>
       <c r="B574">
-        <v>5.82</v>
+        <v>-0.92</v>
       </c>
       <c r="C574">
-        <v>7.63</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -6808,10 +6860,10 @@
         <v>5986.56</v>
       </c>
       <c r="B575">
-        <v>5.74</v>
+        <v>-1.48</v>
       </c>
       <c r="C575">
-        <v>7.56</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -6819,10 +6871,10 @@
         <v>6046.42</v>
       </c>
       <c r="B576">
-        <v>5.69</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C576">
-        <v>7.5</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -6830,10 +6882,10 @@
         <v>6106.89</v>
       </c>
       <c r="B577">
-        <v>5.68</v>
+        <v>-2.57</v>
       </c>
       <c r="C577">
-        <v>7.44</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -6841,10 +6893,10 @@
         <v>6167.96</v>
       </c>
       <c r="B578">
-        <v>5.69</v>
+        <v>-3.01</v>
       </c>
       <c r="C578">
-        <v>7.39</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -6852,10 +6904,10 @@
         <v>6229.64</v>
       </c>
       <c r="B579">
-        <v>5.7</v>
+        <v>-3.33</v>
       </c>
       <c r="C579">
-        <v>7.33</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -6863,10 +6915,10 @@
         <v>6291.93</v>
       </c>
       <c r="B580">
-        <v>5.72</v>
+        <v>-3.54</v>
       </c>
       <c r="C580">
-        <v>7.27</v>
+        <v>-4.1500000000000004</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -6874,10 +6926,10 @@
         <v>6354.85</v>
       </c>
       <c r="B581">
-        <v>5.71</v>
+        <v>-3.62</v>
       </c>
       <c r="C581">
-        <v>7.21</v>
+        <v>-4.2300000000000004</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -6885,10 +6937,10 @@
         <v>6418.4</v>
       </c>
       <c r="B582">
-        <v>5.69</v>
+        <v>-3.59</v>
       </c>
       <c r="C582">
-        <v>7.14</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -6896,10 +6948,10 @@
         <v>6482.58</v>
       </c>
       <c r="B583">
-        <v>5.66</v>
+        <v>-3.47</v>
       </c>
       <c r="C583">
-        <v>7.08</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -6907,10 +6959,10 @@
         <v>6547.41</v>
       </c>
       <c r="B584">
-        <v>5.61</v>
+        <v>-3.28</v>
       </c>
       <c r="C584">
-        <v>7.01</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -6918,10 +6970,10 @@
         <v>6612.88</v>
       </c>
       <c r="B585">
-        <v>5.54</v>
+        <v>-3.04</v>
       </c>
       <c r="C585">
-        <v>6.96</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -6929,10 +6981,10 @@
         <v>6679.01</v>
       </c>
       <c r="B586">
-        <v>5.47</v>
+        <v>-2.74</v>
       </c>
       <c r="C586">
-        <v>6.9</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -6940,10 +6992,10 @@
         <v>6745.8</v>
       </c>
       <c r="B587">
-        <v>5.39</v>
+        <v>-2.42</v>
       </c>
       <c r="C587">
-        <v>6.82</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -6951,10 +7003,10 @@
         <v>6813.26</v>
       </c>
       <c r="B588">
-        <v>5.28</v>
+        <v>-2.12</v>
       </c>
       <c r="C588">
-        <v>6.73</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -6962,10 +7014,10 @@
         <v>6881.39</v>
       </c>
       <c r="B589">
-        <v>5.17</v>
+        <v>-1.85</v>
       </c>
       <c r="C589">
-        <v>6.63</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -6973,10 +7025,10 @@
         <v>6950.21</v>
       </c>
       <c r="B590">
-        <v>5.04</v>
+        <v>-1.6</v>
       </c>
       <c r="C590">
-        <v>6.51</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -6984,10 +7036,10 @@
         <v>7019.71</v>
       </c>
       <c r="B591">
-        <v>4.9000000000000004</v>
+        <v>-1.34</v>
       </c>
       <c r="C591">
-        <v>6.38</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -6995,10 +7047,10 @@
         <v>7089.91</v>
       </c>
       <c r="B592">
-        <v>4.7699999999999996</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="C592">
-        <v>6.25</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -7006,10 +7058,10 @@
         <v>7160.81</v>
       </c>
       <c r="B593">
-        <v>4.6399999999999997</v>
+        <v>-0.83</v>
       </c>
       <c r="C593">
-        <v>6.13</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -7017,10 +7069,10 @@
         <v>7232.41</v>
       </c>
       <c r="B594">
-        <v>4.5199999999999996</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C594">
-        <v>6.02</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -7028,10 +7080,10 @@
         <v>7304.74</v>
       </c>
       <c r="B595">
-        <v>4.41</v>
+        <v>-0.31</v>
       </c>
       <c r="C595">
-        <v>5.91</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -7039,10 +7091,10 @@
         <v>7377.79</v>
       </c>
       <c r="B596">
-        <v>4.32</v>
+        <v>-0.05</v>
       </c>
       <c r="C596">
-        <v>5.82</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -7050,10 +7102,10 @@
         <v>7451.56</v>
       </c>
       <c r="B597">
-        <v>4.2300000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="C597">
-        <v>5.74</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -7061,10 +7113,10 @@
         <v>7526.08</v>
       </c>
       <c r="B598">
-        <v>4.13</v>
+        <v>0.46</v>
       </c>
       <c r="C598">
-        <v>5.65</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -7072,10 +7124,10 @@
         <v>7601.34</v>
       </c>
       <c r="B599">
-        <v>4.03</v>
+        <v>0.72</v>
       </c>
       <c r="C599">
-        <v>5.56</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
@@ -7083,10 +7135,10 @@
         <v>7677.35</v>
       </c>
       <c r="B600">
-        <v>3.92</v>
+        <v>0.98</v>
       </c>
       <c r="C600">
-        <v>5.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -7094,10 +7146,10 @@
         <v>7754.13</v>
       </c>
       <c r="B601">
-        <v>3.8</v>
+        <v>1.24</v>
       </c>
       <c r="C601">
-        <v>5.33</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -7105,10 +7157,10 @@
         <v>7831.67</v>
       </c>
       <c r="B602">
-        <v>3.67</v>
+        <v>1.5</v>
       </c>
       <c r="C602">
-        <v>5.21</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -7116,10 +7168,10 @@
         <v>7909.98</v>
       </c>
       <c r="B603">
-        <v>3.54</v>
+        <v>1.76</v>
       </c>
       <c r="C603">
-        <v>5.09</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -7127,10 +7179,10 @@
         <v>7989.08</v>
       </c>
       <c r="B604">
-        <v>3.42</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C604">
-        <v>4.97</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -7138,10 +7190,10 @@
         <v>8068.98</v>
       </c>
       <c r="B605">
-        <v>3.29</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C605">
-        <v>4.8499999999999996</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -7149,10 +7201,10 @@
         <v>8149.67</v>
       </c>
       <c r="B606">
-        <v>3.17</v>
+        <v>2.56</v>
       </c>
       <c r="C606">
-        <v>4.72</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -7160,10 +7212,10 @@
         <v>8231.16</v>
       </c>
       <c r="B607">
-        <v>3.03</v>
+        <v>2.84</v>
       </c>
       <c r="C607">
-        <v>4.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -7171,10 +7223,10 @@
         <v>8313.4699999999993</v>
       </c>
       <c r="B608">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="C608">
-        <v>4.46</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -7182,10 +7234,10 @@
         <v>8396.61</v>
       </c>
       <c r="B609">
-        <v>2.75</v>
+        <v>3.34</v>
       </c>
       <c r="C609">
-        <v>4.32</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -7193,10 +7245,10 @@
         <v>8480.57</v>
       </c>
       <c r="B610">
-        <v>2.61</v>
+        <v>3.53</v>
       </c>
       <c r="C610">
-        <v>4.1900000000000004</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -7204,10 +7256,10 @@
         <v>8565.3799999999992</v>
       </c>
       <c r="B611">
-        <v>2.4900000000000002</v>
+        <v>3.68</v>
       </c>
       <c r="C611">
-        <v>4.07</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
@@ -7215,10 +7267,10 @@
         <v>8651.0300000000007</v>
       </c>
       <c r="B612">
-        <v>2.38</v>
+        <v>3.79</v>
       </c>
       <c r="C612">
-        <v>3.96</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -7226,10 +7278,10 @@
         <v>8737.5400000000009</v>
       </c>
       <c r="B613">
-        <v>2.27</v>
+        <v>3.85</v>
       </c>
       <c r="C613">
-        <v>3.86</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -7237,10 +7289,10 @@
         <v>8824.92</v>
       </c>
       <c r="B614">
-        <v>2.16</v>
+        <v>3.86</v>
       </c>
       <c r="C614">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -7248,10 +7300,10 @@
         <v>8913.17</v>
       </c>
       <c r="B615">
-        <v>2.04</v>
+        <v>3.84</v>
       </c>
       <c r="C615">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -7259,10 +7311,10 @@
         <v>9002.2999999999993</v>
       </c>
       <c r="B616">
-        <v>1.92</v>
+        <v>3.79</v>
       </c>
       <c r="C616">
-        <v>3.51</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -7270,10 +7322,10 @@
         <v>9092.32</v>
       </c>
       <c r="B617">
-        <v>1.79</v>
+        <v>3.73</v>
       </c>
       <c r="C617">
-        <v>3.39</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -7281,10 +7333,10 @@
         <v>9183.25</v>
       </c>
       <c r="B618">
-        <v>1.66</v>
+        <v>3.66</v>
       </c>
       <c r="C618">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -7292,10 +7344,10 @@
         <v>9275.08</v>
       </c>
       <c r="B619">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="C619">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -7303,10 +7355,10 @@
         <v>9367.83</v>
       </c>
       <c r="B620">
-        <v>1.42</v>
+        <v>3.55</v>
       </c>
       <c r="C620">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -7314,10 +7366,10 @@
         <v>9461.51</v>
       </c>
       <c r="B621">
-        <v>1.31</v>
+        <v>3.51</v>
       </c>
       <c r="C621">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -7325,10 +7377,10 @@
         <v>9556.1200000000008</v>
       </c>
       <c r="B622">
-        <v>1.21</v>
+        <v>3.46</v>
       </c>
       <c r="C622">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -7336,10 +7388,10 @@
         <v>9651.68</v>
       </c>
       <c r="B623">
-        <v>1.1100000000000001</v>
+        <v>3.42</v>
       </c>
       <c r="C623">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -7347,10 +7399,10 @@
         <v>9748.2000000000007</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>3.37</v>
       </c>
       <c r="C624">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
@@ -7358,10 +7410,10 @@
         <v>9845.68</v>
       </c>
       <c r="B625">
-        <v>0.87</v>
+        <v>3.33</v>
       </c>
       <c r="C625">
-        <v>2.4900000000000002</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -7369,10 +7421,10 @@
         <v>9944.14</v>
       </c>
       <c r="B626">
-        <v>0.73</v>
+        <v>3.29</v>
       </c>
       <c r="C626">
-        <v>2.35</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -7380,10 +7432,10 @@
         <v>10043.58</v>
       </c>
       <c r="B627">
-        <v>0.57999999999999996</v>
+        <v>3.25</v>
       </c>
       <c r="C627">
-        <v>2.2000000000000002</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -7391,10 +7443,10 @@
         <v>10144.02</v>
       </c>
       <c r="B628">
-        <v>0.47</v>
+        <v>3.21</v>
       </c>
       <c r="C628">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -7402,10 +7454,10 @@
         <v>10245.459999999999</v>
       </c>
       <c r="B629">
-        <v>0.33</v>
+        <v>3.18</v>
       </c>
       <c r="C629">
-        <v>1.96</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -7413,10 +7465,10 @@
         <v>10347.91</v>
       </c>
       <c r="B630">
-        <v>0.18</v>
+        <v>3.14</v>
       </c>
       <c r="C630">
-        <v>1.8</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -7424,10 +7476,10 @@
         <v>10451.39</v>
       </c>
       <c r="B631">
-        <v>0.01</v>
+        <v>3.1</v>
       </c>
       <c r="C631">
-        <v>1.64</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -7435,10 +7487,10 @@
         <v>10555.91</v>
       </c>
       <c r="B632">
-        <v>-0.18</v>
+        <v>3.07</v>
       </c>
       <c r="C632">
-        <v>1.45</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -7446,10 +7498,10 @@
         <v>10661.46</v>
       </c>
       <c r="B633">
-        <v>-0.37</v>
+        <v>3.03</v>
       </c>
       <c r="C633">
-        <v>1.26</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -7457,10 +7509,10 @@
         <v>10768.08</v>
       </c>
       <c r="B634">
-        <v>-0.56999999999999995</v>
+        <v>2.99</v>
       </c>
       <c r="C634">
-        <v>1.07</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -7468,10 +7520,10 @@
         <v>10875.76</v>
       </c>
       <c r="B635">
-        <v>-0.75</v>
+        <v>2.95</v>
       </c>
       <c r="C635">
-        <v>0.89</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -7479,10 +7531,10 @@
         <v>10984.52</v>
       </c>
       <c r="B636">
-        <v>-0.94</v>
+        <v>2.9</v>
       </c>
       <c r="C636">
-        <v>0.7</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -7490,10 +7542,10 @@
         <v>11094.36</v>
       </c>
       <c r="B637">
-        <v>-1.1299999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="C637">
-        <v>0.51</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -7501,10 +7553,10 @@
         <v>11205.31</v>
       </c>
       <c r="B638">
-        <v>-1.32</v>
+        <v>2.81</v>
       </c>
       <c r="C638">
-        <v>0.32</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -7512,10 +7564,10 @@
         <v>11317.36</v>
       </c>
       <c r="B639">
-        <v>-1.52</v>
+        <v>2.75</v>
       </c>
       <c r="C639">
-        <v>0.13</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -7523,10 +7575,10 @@
         <v>11430.53</v>
       </c>
       <c r="B640">
-        <v>-1.72</v>
+        <v>2.7</v>
       </c>
       <c r="C640">
-        <v>-7.0000000000000007E-2</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -7534,10 +7586,10 @@
         <v>11544.84</v>
       </c>
       <c r="B641">
-        <v>-1.92</v>
+        <v>2.65</v>
       </c>
       <c r="C641">
-        <v>-0.27</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -7545,10 +7597,10 @@
         <v>11660.29</v>
       </c>
       <c r="B642">
-        <v>-2.12</v>
+        <v>2.59</v>
       </c>
       <c r="C642">
-        <v>-0.47</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -7556,10 +7608,10 @@
         <v>11776.89</v>
       </c>
       <c r="B643">
-        <v>-2.33</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C643">
-        <v>-0.67</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -7567,10 +7619,10 @@
         <v>11894.66</v>
       </c>
       <c r="B644">
-        <v>-2.54</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C644">
-        <v>-0.88</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -7578,10 +7630,10 @@
         <v>12013.6</v>
       </c>
       <c r="B645">
-        <v>-2.75</v>
+        <v>2.41</v>
       </c>
       <c r="C645">
-        <v>-1.0900000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -7589,10 +7641,10 @@
         <v>12133.74</v>
       </c>
       <c r="B646">
-        <v>-2.96</v>
+        <v>2.35</v>
       </c>
       <c r="C646">
-        <v>-1.3</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
@@ -7600,10 +7652,10 @@
         <v>12255.08</v>
       </c>
       <c r="B647">
-        <v>-3.17</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C647">
-        <v>-1.51</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -7611,10 +7663,10 @@
         <v>12377.63</v>
       </c>
       <c r="B648">
-        <v>-3.39</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C648">
-        <v>-1.73</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
@@ -7622,10 +7674,10 @@
         <v>12501.41</v>
       </c>
       <c r="B649">
-        <v>-3.61</v>
+        <v>2.15</v>
       </c>
       <c r="C649">
-        <v>-1.95</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -7633,10 +7685,10 @@
         <v>12626.42</v>
       </c>
       <c r="B650">
-        <v>-3.83</v>
+        <v>2.08</v>
       </c>
       <c r="C650">
-        <v>-2.17</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
@@ -7644,10 +7696,10 @@
         <v>12752.68</v>
       </c>
       <c r="B651">
-        <v>-4.0599999999999996</v>
+        <v>2</v>
       </c>
       <c r="C651">
-        <v>-2.39</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -7655,10 +7707,10 @@
         <v>12880.21</v>
       </c>
       <c r="B652">
-        <v>-4.28</v>
+        <v>1.93</v>
       </c>
       <c r="C652">
-        <v>-2.62</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -7666,10 +7718,10 @@
         <v>13009.01</v>
       </c>
       <c r="B653">
-        <v>-4.51</v>
+        <v>1.85</v>
       </c>
       <c r="C653">
-        <v>-2.85</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
@@ -7677,10 +7729,10 @@
         <v>13139.1</v>
       </c>
       <c r="B654">
-        <v>-4.74</v>
+        <v>1.77</v>
       </c>
       <c r="C654">
-        <v>-3.08</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -7688,10 +7740,10 @@
         <v>13270.49</v>
       </c>
       <c r="B655">
-        <v>-4.9800000000000004</v>
+        <v>1.69</v>
       </c>
       <c r="C655">
-        <v>-3.31</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
@@ -7699,10 +7751,10 @@
         <v>13403.2</v>
       </c>
       <c r="B656">
-        <v>-5.21</v>
+        <v>1.61</v>
       </c>
       <c r="C656">
-        <v>-3.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
@@ -7710,10 +7762,10 @@
         <v>13537.23</v>
       </c>
       <c r="B657">
-        <v>-5.45</v>
+        <v>1.53</v>
       </c>
       <c r="C657">
-        <v>-3.79</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
@@ -7721,10 +7773,10 @@
         <v>13672.6</v>
       </c>
       <c r="B658">
-        <v>-5.69</v>
+        <v>1.44</v>
       </c>
       <c r="C658">
-        <v>-4.03</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
@@ -7732,10 +7784,10 @@
         <v>13809.33</v>
       </c>
       <c r="B659">
-        <v>-5.93</v>
+        <v>1.35</v>
       </c>
       <c r="C659">
-        <v>-4.2699999999999996</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -7743,10 +7795,10 @@
         <v>13947.42</v>
       </c>
       <c r="B660">
-        <v>-6.18</v>
+        <v>1.26</v>
       </c>
       <c r="C660">
-        <v>-4.5199999999999996</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -7754,10 +7806,10 @@
         <v>14086.9</v>
       </c>
       <c r="B661">
-        <v>-6.43</v>
+        <v>1.17</v>
       </c>
       <c r="C661">
-        <v>-4.76</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -7765,10 +7817,10 @@
         <v>14227.77</v>
       </c>
       <c r="B662">
-        <v>-6.68</v>
+        <v>1.08</v>
       </c>
       <c r="C662">
-        <v>-5.01</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -7776,10 +7828,10 @@
         <v>14370.04</v>
       </c>
       <c r="B663">
-        <v>-6.93</v>
+        <v>0.98</v>
       </c>
       <c r="C663">
-        <v>-5.27</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -7787,10 +7839,10 @@
         <v>14513.74</v>
       </c>
       <c r="B664">
-        <v>-7.19</v>
+        <v>0.89</v>
       </c>
       <c r="C664">
-        <v>-5.52</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -7798,10 +7850,10 @@
         <v>14658.88</v>
       </c>
       <c r="B665">
-        <v>-7.44</v>
+        <v>0.79</v>
       </c>
       <c r="C665">
-        <v>-5.78</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -7809,10 +7861,10 @@
         <v>14805.47</v>
       </c>
       <c r="B666">
-        <v>-7.7</v>
+        <v>0.69</v>
       </c>
       <c r="C666">
-        <v>-6.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -7820,10 +7872,10 @@
         <v>14953.52</v>
       </c>
       <c r="B667">
-        <v>-7.97</v>
+        <v>0.59</v>
       </c>
       <c r="C667">
-        <v>-6.31</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -7831,10 +7883,10 @@
         <v>15103.06</v>
       </c>
       <c r="B668">
-        <v>-8.23</v>
+        <v>0.48</v>
       </c>
       <c r="C668">
-        <v>-6.57</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -7842,10 +7894,10 @@
         <v>15254.09</v>
       </c>
       <c r="B669">
-        <v>-8.5</v>
+        <v>0.38</v>
       </c>
       <c r="C669">
-        <v>-6.84</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -7853,10 +7905,10 @@
         <v>15406.63</v>
       </c>
       <c r="B670">
-        <v>-8.77</v>
+        <v>0.27</v>
       </c>
       <c r="C670">
-        <v>-7.11</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -7864,10 +7916,10 @@
         <v>15560.7</v>
       </c>
       <c r="B671">
-        <v>-9.0399999999999991</v>
+        <v>0.16</v>
       </c>
       <c r="C671">
-        <v>-7.38</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -7875,10 +7927,10 @@
         <v>15716.3</v>
       </c>
       <c r="B672">
-        <v>-9.31</v>
+        <v>0.05</v>
       </c>
       <c r="C672">
-        <v>-7.66</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -7886,10 +7938,10 @@
         <v>15873.47</v>
       </c>
       <c r="B673">
-        <v>-9.59</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C673">
-        <v>-7.94</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -7897,10 +7949,10 @@
         <v>16032.2</v>
       </c>
       <c r="B674">
-        <v>-9.8699999999999992</v>
+        <v>-0.18</v>
       </c>
       <c r="C674">
-        <v>-8.2200000000000006</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -7908,10 +7960,10 @@
         <v>16192.52</v>
       </c>
       <c r="B675">
-        <v>-10.15</v>
+        <v>-0.3</v>
       </c>
       <c r="C675">
-        <v>-8.5</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
@@ -7919,10 +7971,10 @@
         <v>16354.45</v>
       </c>
       <c r="B676">
-        <v>-10.43</v>
+        <v>-0.42</v>
       </c>
       <c r="C676">
-        <v>-8.7799999999999994</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
@@ -7930,10 +7982,10 @@
         <v>16517.990000000002</v>
       </c>
       <c r="B677">
-        <v>-10.72</v>
+        <v>-0.54</v>
       </c>
       <c r="C677">
-        <v>-9.07</v>
+        <v>-1.1499999999999999</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
@@ -7941,10 +7993,10 @@
         <v>16683.169999999998</v>
       </c>
       <c r="B678">
-        <v>-11.01</v>
+        <v>-0.66</v>
       </c>
       <c r="C678">
-        <v>-9.36</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
@@ -7952,10 +8004,10 @@
         <v>16850.009999999998</v>
       </c>
       <c r="B679">
-        <v>-11.3</v>
+        <v>-0.79</v>
       </c>
       <c r="C679">
-        <v>-9.65</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
@@ -7963,10 +8015,10 @@
         <v>17018.509999999998</v>
       </c>
       <c r="B680">
-        <v>-11.59</v>
+        <v>-0.91</v>
       </c>
       <c r="C680">
-        <v>-9.9499999999999993</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -7974,10 +8026,10 @@
         <v>17188.689999999999</v>
       </c>
       <c r="B681">
-        <v>-11.88</v>
+        <v>-1.04</v>
       </c>
       <c r="C681">
-        <v>-10.25</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -7985,10 +8037,10 @@
         <v>17360.580000000002</v>
       </c>
       <c r="B682">
-        <v>-12.18</v>
+        <v>-1.17</v>
       </c>
       <c r="C682">
-        <v>-10.55</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -7996,10 +8048,10 @@
         <v>17534.18</v>
       </c>
       <c r="B683">
-        <v>-12.48</v>
+        <v>-1.3</v>
       </c>
       <c r="C683">
-        <v>-10.85</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -8007,10 +8059,10 @@
         <v>17709.53</v>
       </c>
       <c r="B684">
-        <v>-12.79</v>
+        <v>-1.44</v>
       </c>
       <c r="C684">
-        <v>-11.16</v>
+        <v>-2.0499999999999998</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -8018,10 +8070,10 @@
         <v>17886.62</v>
       </c>
       <c r="B685">
-        <v>-13.09</v>
+        <v>-1.57</v>
       </c>
       <c r="C685">
-        <v>-11.46</v>
+        <v>-2.1800000000000002</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
@@ -8029,10 +8081,10 @@
         <v>18065.490000000002</v>
       </c>
       <c r="B686">
-        <v>-13.4</v>
+        <v>-1.71</v>
       </c>
       <c r="C686">
-        <v>-11.77</v>
+        <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -8040,10 +8092,10 @@
         <v>18246.14</v>
       </c>
       <c r="B687">
-        <v>-13.71</v>
+        <v>-1.85</v>
       </c>
       <c r="C687">
-        <v>-12.09</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
@@ -8051,10 +8103,10 @@
         <v>18428.599999999999</v>
       </c>
       <c r="B688">
-        <v>-14.02</v>
+        <v>-1.99</v>
       </c>
       <c r="C688">
-        <v>-12.4</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
@@ -8062,10 +8114,10 @@
         <v>18612.89</v>
       </c>
       <c r="B689">
-        <v>-14.33</v>
+        <v>-2.13</v>
       </c>
       <c r="C689">
-        <v>-12.72</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
@@ -8073,10 +8125,10 @@
         <v>18799.02</v>
       </c>
       <c r="B690">
-        <v>-14.65</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="C690">
-        <v>-13.04</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
@@ -8084,10 +8136,10 @@
         <v>18987.009999999998</v>
       </c>
       <c r="B691">
-        <v>-14.97</v>
+        <v>-2.42</v>
       </c>
       <c r="C691">
-        <v>-13.36</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
@@ -8095,10 +8147,10 @@
         <v>19176.88</v>
       </c>
       <c r="B692">
-        <v>-15.29</v>
+        <v>-2.57</v>
       </c>
       <c r="C692">
-        <v>-13.68</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
@@ -8106,10 +8158,10 @@
         <v>19368.650000000001</v>
       </c>
       <c r="B693">
-        <v>-15.61</v>
+        <v>-2.72</v>
       </c>
       <c r="C693">
-        <v>-14.01</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,10 +8169,10 @@
         <v>19562.330000000002</v>
       </c>
       <c r="B694">
-        <v>-15.94</v>
+        <v>-2.87</v>
       </c>
       <c r="C694">
-        <v>-14.34</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -8128,10 +8180,10 @@
         <v>19757.96</v>
       </c>
       <c r="B695">
-        <v>-16.27</v>
+        <v>-3.03</v>
       </c>
       <c r="C695">
-        <v>-14.67</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -8139,10 +8191,10 @@
         <v>19955.54</v>
       </c>
       <c r="B696">
-        <v>-16.600000000000001</v>
+        <v>-3.18</v>
       </c>
       <c r="C696">
-        <v>-15.01</v>
+        <v>-3.8</v>
       </c>
     </row>
   </sheetData>
@@ -8162,16 +8214,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8305,7 +8357,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/my_results/Pre-Amp Calculator.xlsx
+++ b/my_results/Pre-Amp Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D6415-B1B8-4896-A4E8-511B6D8322AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ED97A9-F9E0-4E00-A28A-E78658F55D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impulse" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>sum</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>f \ equalisation</t>
+  </si>
+  <si>
+    <t>zero</t>
   </si>
 </sst>
 </file>
@@ -445,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,6 +464,9 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -565,24 +571,24 @@
       </c>
       <c r="G4">
         <f>SUM(D2:D696)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" t="e">
+        <v>-2012.9700000000003</v>
+      </c>
+      <c r="H4">
         <f>AVERAGE(D2:D696)</f>
-        <v>#DIV/0!</v>
+        <v>-3.713966789667897</v>
       </c>
       <c r="I4">
         <f>MIN($D$2:$D$696)</f>
-        <v>0</v>
+        <v>-15.69</v>
       </c>
       <c r="J4">
         <f>MAX($D$2:$D$696)</f>
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" t="e">
+      <c r="L4">
         <f>J4-K4-H4</f>
-        <v>#DIV/0!</v>
+        <v>9.7639667896678972</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2125,7 +2131,7 @@
         <v>-2.0699999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>82.98</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>-2.09</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>83.81</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>-2.12</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>84.65</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>-2.14</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>85.5</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>-2.16</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>86.35</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>87.22</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>-2.21</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>88.09</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>-2.23</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>88.97</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>89.86</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>90.76</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>91.66</v>
       </c>
@@ -2245,8 +2251,11 @@
       <c r="C155">
         <v>-2.3199999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>92.58</v>
       </c>
@@ -2256,8 +2265,11 @@
       <c r="C156">
         <v>-2.35</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>93.51</v>
       </c>
@@ -2267,8 +2279,11 @@
       <c r="C157">
         <v>-2.37</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>94.44</v>
       </c>
@@ -2278,8 +2293,11 @@
       <c r="C158">
         <v>-2.4</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>95.39</v>
       </c>
@@ -2289,8 +2307,11 @@
       <c r="C159">
         <v>-2.42</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>96.34</v>
       </c>
@@ -2300,8 +2321,11 @@
       <c r="C160">
         <v>-2.44</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>97.3</v>
       </c>
@@ -2311,8 +2335,11 @@
       <c r="C161">
         <v>-2.4700000000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>98.28</v>
       </c>
@@ -2322,8 +2349,11 @@
       <c r="C162">
         <v>-2.4900000000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>99.26</v>
       </c>
@@ -2333,8 +2363,11 @@
       <c r="C163">
         <v>-2.5099999999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>100.25</v>
       </c>
@@ -2344,8 +2377,11 @@
       <c r="C164">
         <v>-2.54</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>101.25</v>
       </c>
@@ -2355,8 +2391,11 @@
       <c r="C165">
         <v>-2.56</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>102.27</v>
       </c>
@@ -2366,8 +2405,11 @@
       <c r="C166">
         <v>-2.59</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>103.29</v>
       </c>
@@ -2377,8 +2419,11 @@
       <c r="C167">
         <v>-2.61</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>104.32</v>
       </c>
@@ -2388,8 +2433,11 @@
       <c r="C168">
         <v>-2.64</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>105.37</v>
       </c>
@@ -2399,8 +2447,11 @@
       <c r="C169">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>106.42</v>
       </c>
@@ -2410,8 +2461,11 @@
       <c r="C170">
         <v>-2.69</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>107.48</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="C171">
         <v>-2.71</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>108.56</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="C172">
         <v>-2.74</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>109.64</v>
       </c>
@@ -2443,8 +2503,11 @@
       <c r="C173">
         <v>-2.76</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>110.74</v>
       </c>
@@ -2454,8 +2517,11 @@
       <c r="C174">
         <v>-2.78</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>111.85</v>
       </c>
@@ -2465,8 +2531,11 @@
       <c r="C175">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>112.97</v>
       </c>
@@ -2476,8 +2545,11 @@
       <c r="C176">
         <v>-2.83</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>114.1</v>
       </c>
@@ -2487,8 +2559,11 @@
       <c r="C177">
         <v>-2.85</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>115.24</v>
       </c>
@@ -2498,8 +2573,11 @@
       <c r="C178">
         <v>-2.87</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>116.39</v>
       </c>
@@ -2509,8 +2587,11 @@
       <c r="C179">
         <v>-2.89</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>117.55</v>
       </c>
@@ -2520,8 +2601,11 @@
       <c r="C180">
         <v>-2.91</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>118.73</v>
       </c>
@@ -2531,8 +2615,11 @@
       <c r="C181">
         <v>-2.93</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>119.92</v>
       </c>
@@ -2542,8 +2629,11 @@
       <c r="C182">
         <v>-2.94</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>121.12</v>
       </c>
@@ -2553,8 +2643,11 @@
       <c r="C183">
         <v>-2.96</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>122.33</v>
       </c>
@@ -2564,8 +2657,11 @@
       <c r="C184">
         <v>-2.98</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>123.55</v>
       </c>
@@ -2575,8 +2671,11 @@
       <c r="C185">
         <v>-2.99</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>124.79</v>
       </c>
@@ -2586,8 +2685,11 @@
       <c r="C186">
         <v>-3.01</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>126.03</v>
       </c>
@@ -2597,8 +2699,11 @@
       <c r="C187">
         <v>-3.02</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>127.29</v>
       </c>
@@ -2608,8 +2713,11 @@
       <c r="C188">
         <v>-3.03</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>128.57</v>
       </c>
@@ -2619,8 +2727,11 @@
       <c r="C189">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>129.85</v>
       </c>
@@ -2630,8 +2741,11 @@
       <c r="C190">
         <v>-3.06</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>131.15</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="C191">
         <v>-3.07</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>132.46</v>
       </c>
@@ -2652,8 +2769,11 @@
       <c r="C192">
         <v>-3.08</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>133.79</v>
       </c>
@@ -2663,8 +2783,11 @@
       <c r="C193">
         <v>-3.09</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>135.12</v>
       </c>
@@ -2674,8 +2797,11 @@
       <c r="C194">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>136.47999999999999</v>
       </c>
@@ -2685,8 +2811,11 @@
       <c r="C195">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>137.84</v>
       </c>
@@ -2696,8 +2825,11 @@
       <c r="C196">
         <v>-3.11</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>139.22</v>
       </c>
@@ -2707,8 +2839,11 @@
       <c r="C197">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>140.61000000000001</v>
       </c>
@@ -2718,8 +2853,11 @@
       <c r="C198">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>142.02000000000001</v>
       </c>
@@ -2729,8 +2867,11 @@
       <c r="C199">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>143.44</v>
       </c>
@@ -2740,8 +2881,11 @@
       <c r="C200">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>144.87</v>
       </c>
@@ -2751,8 +2895,11 @@
       <c r="C201">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>146.32</v>
       </c>
@@ -2762,8 +2909,11 @@
       <c r="C202">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>147.78</v>
       </c>
@@ -2773,8 +2923,11 @@
       <c r="C203">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>149.26</v>
       </c>
@@ -2784,8 +2937,11 @@
       <c r="C204">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>150.75</v>
       </c>
@@ -2795,8 +2951,11 @@
       <c r="C205">
         <v>-3.11</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>152.26</v>
       </c>
@@ -2806,8 +2965,11 @@
       <c r="C206">
         <v>-3.11</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>153.78</v>
       </c>
@@ -2817,8 +2979,11 @@
       <c r="C207">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>155.32</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="C208">
         <v>-3.09</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>156.88</v>
       </c>
@@ -2839,8 +3007,11 @@
       <c r="C209">
         <v>-3.09</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>158.44</v>
       </c>
@@ -2850,8 +3021,11 @@
       <c r="C210">
         <v>-3.07</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>160.03</v>
       </c>
@@ -2861,8 +3035,11 @@
       <c r="C211">
         <v>-3.06</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>161.63</v>
       </c>
@@ -2872,8 +3049,11 @@
       <c r="C212">
         <v>-3.05</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>163.24</v>
       </c>
@@ -2883,8 +3063,11 @@
       <c r="C213">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>164.88</v>
       </c>
@@ -2894,8 +3077,11 @@
       <c r="C214">
         <v>-3.02</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>166.53</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="C215">
         <v>-3</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>168.19</v>
       </c>
@@ -2916,8 +3105,11 @@
       <c r="C216">
         <v>-2.98</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>169.87</v>
       </c>
@@ -2927,8 +3119,11 @@
       <c r="C217">
         <v>-2.96</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>171.57</v>
       </c>
@@ -2938,8 +3133,11 @@
       <c r="C218">
         <v>-2.95</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>173.29</v>
       </c>
@@ -2949,8 +3147,11 @@
       <c r="C219">
         <v>-2.92</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>175.02</v>
       </c>
@@ -2960,8 +3161,11 @@
       <c r="C220">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>176.77</v>
       </c>
@@ -2971,8 +3175,11 @@
       <c r="C221">
         <v>-2.88</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>178.54</v>
       </c>
@@ -2982,8 +3189,11 @@
       <c r="C222">
         <v>-2.85</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>180.32</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="C223">
         <v>-2.82</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>182.13</v>
       </c>
@@ -3004,8 +3217,11 @@
       <c r="C224">
         <v>-2.79</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>183.95</v>
       </c>
@@ -3015,8 +3231,11 @@
       <c r="C225">
         <v>-2.77</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>185.79</v>
       </c>
@@ -3026,8 +3245,11 @@
       <c r="C226">
         <v>-2.74</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>187.65</v>
       </c>
@@ -3037,8 +3259,11 @@
       <c r="C227">
         <v>-2.71</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>189.52</v>
       </c>
@@ -3048,8 +3273,11 @@
       <c r="C228">
         <v>-2.68</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>191.42</v>
       </c>
@@ -3059,8 +3287,11 @@
       <c r="C229">
         <v>-2.65</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>193.33</v>
       </c>
@@ -3070,8 +3301,11 @@
       <c r="C230">
         <v>-2.62</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>195.27</v>
       </c>
@@ -3081,8 +3315,11 @@
       <c r="C231">
         <v>-2.58</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>197.22</v>
       </c>
@@ -3092,8 +3329,11 @@
       <c r="C232">
         <v>-2.5499999999999998</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>199.19</v>
       </c>
@@ -3103,8 +3343,11 @@
       <c r="C233">
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>201.18</v>
       </c>
@@ -3114,8 +3357,11 @@
       <c r="C234">
         <v>-2.48</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>203.19</v>
       </c>
@@ -3125,8 +3371,11 @@
       <c r="C235">
         <v>-2.44</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>205.23</v>
       </c>
@@ -3136,8 +3385,11 @@
       <c r="C236">
         <v>-2.41</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>207.28</v>
       </c>
@@ -3147,8 +3399,11 @@
       <c r="C237">
         <v>-2.37</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>209.35</v>
       </c>
@@ -3158,8 +3413,11 @@
       <c r="C238">
         <v>-2.33</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>211.44</v>
       </c>
@@ -3169,8 +3427,11 @@
       <c r="C239">
         <v>-2.29</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>213.56</v>
       </c>
@@ -3180,8 +3441,11 @@
       <c r="C240">
         <v>-2.25</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>215.69</v>
       </c>
@@ -3191,8 +3455,11 @@
       <c r="C241">
         <v>-2.2200000000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>217.85</v>
       </c>
@@ -3202,8 +3469,11 @@
       <c r="C242">
         <v>-2.1800000000000002</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>220.03</v>
       </c>
@@ -3213,8 +3483,11 @@
       <c r="C243">
         <v>-2.14</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>222.23</v>
       </c>
@@ -3224,8 +3497,11 @@
       <c r="C244">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>224.45</v>
       </c>
@@ -3235,8 +3511,11 @@
       <c r="C245">
         <v>-2.06</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>226.7</v>
       </c>
@@ -3246,8 +3525,11 @@
       <c r="C246">
         <v>-2.02</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>228.96</v>
       </c>
@@ -3257,8 +3539,11 @@
       <c r="C247">
         <v>-1.98</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>231.25</v>
       </c>
@@ -3268,8 +3553,11 @@
       <c r="C248">
         <v>-1.95</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>233.57</v>
       </c>
@@ -3279,8 +3567,11 @@
       <c r="C249">
         <v>-1.91</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>235.9</v>
       </c>
@@ -3290,8 +3581,11 @@
       <c r="C250">
         <v>-1.87</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>238.26</v>
       </c>
@@ -3301,8 +3595,11 @@
       <c r="C251">
         <v>-1.83</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>240.64</v>
       </c>
@@ -3312,8 +3609,11 @@
       <c r="C252">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>243.05</v>
       </c>
@@ -3323,8 +3623,11 @@
       <c r="C253">
         <v>-1.75</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>245.48</v>
       </c>
@@ -3334,8 +3637,11 @@
       <c r="C254">
         <v>-1.71</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>247.93</v>
       </c>
@@ -3345,8 +3651,11 @@
       <c r="C255">
         <v>-1.67</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>250.41</v>
       </c>
@@ -3356,8 +3665,11 @@
       <c r="C256">
         <v>-1.62</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>252.92</v>
       </c>
@@ -3367,8 +3679,11 @@
       <c r="C257">
         <v>-1.57</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>255.45</v>
       </c>
@@ -3378,8 +3693,11 @@
       <c r="C258">
         <v>-1.53</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3389,8 +3707,11 @@
       <c r="C259">
         <v>-1.48</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>260.58</v>
       </c>
@@ -3400,8 +3721,11 @@
       <c r="C260">
         <v>-1.43</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>263.19</v>
       </c>
@@ -3411,8 +3735,11 @@
       <c r="C261">
         <v>-1.38</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>265.82</v>
       </c>
@@ -3422,8 +3749,11 @@
       <c r="C262">
         <v>-1.32</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>268.48</v>
       </c>
@@ -3433,8 +3763,11 @@
       <c r="C263">
         <v>-1.27</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>271.16000000000003</v>
       </c>
@@ -3444,8 +3777,11 @@
       <c r="C264">
         <v>-1.22</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>273.87</v>
       </c>
@@ -3455,8 +3791,11 @@
       <c r="C265">
         <v>-1.17</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>276.61</v>
       </c>
@@ -3466,8 +3805,11 @@
       <c r="C266">
         <v>-1.1100000000000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>279.38</v>
       </c>
@@ -3477,8 +3819,11 @@
       <c r="C267">
         <v>-1.06</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>282.17</v>
       </c>
@@ -3488,8 +3833,11 @@
       <c r="C268">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>284.99</v>
       </c>
@@ -3499,8 +3847,11 @@
       <c r="C269">
         <v>-0.96</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>287.83999999999997</v>
       </c>
@@ -3510,8 +3861,11 @@
       <c r="C270">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>290.72000000000003</v>
       </c>
@@ -3521,8 +3875,11 @@
       <c r="C271">
         <v>-0.85</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>293.63</v>
       </c>
@@ -3532,8 +3889,11 @@
       <c r="C272">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>296.57</v>
       </c>
@@ -3543,8 +3903,11 @@
       <c r="C273">
         <v>-0.74</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>299.52999999999997</v>
       </c>
@@ -3554,8 +3917,11 @@
       <c r="C274">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>302.52999999999997</v>
       </c>
@@ -3565,8 +3931,11 @@
       <c r="C275">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>305.55</v>
       </c>
@@ -3576,8 +3945,11 @@
       <c r="C276">
         <v>-0.57999999999999996</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>308.61</v>
       </c>
@@ -3587,8 +3959,11 @@
       <c r="C277">
         <v>-0.53</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>-1.45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>311.69</v>
       </c>
@@ -3598,8 +3973,11 @@
       <c r="C278">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>314.81</v>
       </c>
@@ -3609,8 +3987,11 @@
       <c r="C279">
         <v>-0.43</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>317.95999999999998</v>
       </c>
@@ -3620,8 +4001,11 @@
       <c r="C280">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>321.14</v>
       </c>
@@ -3631,8 +4015,11 @@
       <c r="C281">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>324.35000000000002</v>
       </c>
@@ -3642,8 +4029,11 @@
       <c r="C282">
         <v>-0.28000000000000003</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>327.58999999999997</v>
       </c>
@@ -3653,8 +4043,11 @@
       <c r="C283">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>330.87</v>
       </c>
@@ -3664,8 +4057,11 @@
       <c r="C284">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>334.18</v>
       </c>
@@ -3675,8 +4071,11 @@
       <c r="C285">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>337.52</v>
       </c>
@@ -3686,8 +4085,11 @@
       <c r="C286">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>340.9</v>
       </c>
@@ -3697,8 +4099,11 @@
       <c r="C287">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>344.3</v>
       </c>
@@ -3708,8 +4113,11 @@
       <c r="C288">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288">
+        <v>-1.54</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>347.75</v>
       </c>
@@ -3719,8 +4127,11 @@
       <c r="C289">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>351.23</v>
       </c>
@@ -3730,8 +4141,11 @@
       <c r="C290">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>354.74</v>
       </c>
@@ -3741,8 +4155,11 @@
       <c r="C291">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>-2.87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>358.28</v>
       </c>
@@ -3752,8 +4169,11 @@
       <c r="C292">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>361.87</v>
       </c>
@@ -3763,8 +4183,11 @@
       <c r="C293">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293">
+        <v>-3.77</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>365.49</v>
       </c>
@@ -3774,8 +4197,11 @@
       <c r="C294">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294">
+        <v>-4.13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>369.14</v>
       </c>
@@ -3785,8 +4211,11 @@
       <c r="C295">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>372.83</v>
       </c>
@@ -3796,8 +4225,11 @@
       <c r="C296">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296">
+        <v>-4.55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>376.56</v>
       </c>
@@ -3807,8 +4239,11 @@
       <c r="C297">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297">
+        <v>-4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>380.33</v>
       </c>
@@ -3818,8 +4253,11 @@
       <c r="C298">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>384.13</v>
       </c>
@@ -3829,8 +4267,11 @@
       <c r="C299">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299">
+        <v>-4.24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>387.97</v>
       </c>
@@ -3840,8 +4281,11 @@
       <c r="C300">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300">
+        <v>-4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>391.85</v>
       </c>
@@ -3851,8 +4295,11 @@
       <c r="C301">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>-3.84</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>395.77</v>
       </c>
@@ -3862,8 +4309,11 @@
       <c r="C302">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>399.73</v>
       </c>
@@ -3873,8 +4323,11 @@
       <c r="C303">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>403.72</v>
       </c>
@@ -3884,8 +4337,11 @@
       <c r="C304">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>407.76</v>
       </c>
@@ -3895,8 +4351,11 @@
       <c r="C305">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <v>-3.94</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>411.84</v>
       </c>
@@ -3906,8 +4365,11 @@
       <c r="C306">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306">
+        <v>-4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>415.96</v>
       </c>
@@ -3917,8 +4379,11 @@
       <c r="C307">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <v>-4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>420.12</v>
       </c>
@@ -3928,8 +4393,11 @@
       <c r="C308">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D308">
+        <v>-4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>424.32</v>
       </c>
@@ -3939,8 +4407,11 @@
       <c r="C309">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D309">
+        <v>-5.05</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>428.56</v>
       </c>
@@ -3950,8 +4421,11 @@
       <c r="C310">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D310">
+        <v>-5.42</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>432.85</v>
       </c>
@@ -3961,8 +4435,11 @@
       <c r="C311">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D311">
+        <v>-5.78</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>437.18</v>
       </c>
@@ -3972,8 +4449,11 @@
       <c r="C312">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D312">
+        <v>-6.08</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>441.55</v>
       </c>
@@ -3983,8 +4463,11 @@
       <c r="C313">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D313">
+        <v>-6.32</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>445.96</v>
       </c>
@@ -3994,8 +4477,11 @@
       <c r="C314">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D314">
+        <v>-6.49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>450.42</v>
       </c>
@@ -4005,8 +4491,11 @@
       <c r="C315">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D315">
+        <v>-6.62</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>454.93</v>
       </c>
@@ -4016,8 +4505,11 @@
       <c r="C316">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D316">
+        <v>-6.71</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>459.48</v>
       </c>
@@ -4027,8 +4519,11 @@
       <c r="C317">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D317">
+        <v>-6.77</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>464.07</v>
       </c>
@@ -4038,8 +4533,11 @@
       <c r="C318">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D318">
+        <v>-6.77</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>468.71</v>
       </c>
@@ -4049,8 +4547,11 @@
       <c r="C319">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D319">
+        <v>-6.77</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>473.4</v>
       </c>
@@ -4060,8 +4561,11 @@
       <c r="C320">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320">
+        <v>-6.85</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>478.13</v>
       </c>
@@ -4071,8 +4575,11 @@
       <c r="C321">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>482.91</v>
       </c>
@@ -4082,8 +4589,11 @@
       <c r="C322">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322">
+        <v>-7.35</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>487.74</v>
       </c>
@@ -4093,8 +4603,11 @@
       <c r="C323">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <v>-7.7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>492.62</v>
       </c>
@@ -4104,8 +4617,11 @@
       <c r="C324">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D324">
+        <v>-8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>497.55</v>
       </c>
@@ -4115,8 +4631,11 @@
       <c r="C325">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D325">
+        <v>-8.31</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>502.52</v>
       </c>
@@ -4126,8 +4645,11 @@
       <c r="C326">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D326">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>507.55</v>
       </c>
@@ -4137,8 +4659,11 @@
       <c r="C327">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D327">
+        <v>-8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>512.62</v>
       </c>
@@ -4148,8 +4673,11 @@
       <c r="C328">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D328">
+        <v>-8.74</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>517.75</v>
       </c>
@@ -4159,8 +4687,11 @@
       <c r="C329">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D329">
+        <v>-8.81</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>522.92999999999995</v>
       </c>
@@ -4170,8 +4701,11 @@
       <c r="C330">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D330">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>528.16</v>
       </c>
@@ -4181,8 +4715,11 @@
       <c r="C331">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D331">
+        <v>-8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>533.44000000000005</v>
       </c>
@@ -4192,8 +4729,11 @@
       <c r="C332">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D332">
+        <v>-8.51</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>538.77</v>
       </c>
@@ -4203,8 +4743,11 @@
       <c r="C333">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D333">
+        <v>-8.35</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>544.16</v>
       </c>
@@ -4214,8 +4757,11 @@
       <c r="C334">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D334">
+        <v>-8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>549.6</v>
       </c>
@@ -4225,8 +4771,11 @@
       <c r="C335">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D335">
+        <v>-8.33</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>555.1</v>
       </c>
@@ -4236,8 +4785,11 @@
       <c r="C336">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>-8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>560.65</v>
       </c>
@@ -4247,8 +4799,11 @@
       <c r="C337">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>-8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>566.25</v>
       </c>
@@ -4258,8 +4813,11 @@
       <c r="C338">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>-9.01</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>571.91999999999996</v>
       </c>
@@ -4269,8 +4827,11 @@
       <c r="C339">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>-9.41</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>577.64</v>
       </c>
@@ -4280,8 +4841,11 @@
       <c r="C340">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>583.41</v>
       </c>
@@ -4291,8 +4855,11 @@
       <c r="C341">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>-10.45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>589.25</v>
       </c>
@@ -4302,8 +4869,11 @@
       <c r="C342">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D342">
+        <v>-11.02</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>595.14</v>
       </c>
@@ -4313,8 +4883,11 @@
       <c r="C343">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D343">
+        <v>-11.55</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>601.09</v>
       </c>
@@ -4324,8 +4897,11 @@
       <c r="C344">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D344">
+        <v>-11.99</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>607.1</v>
       </c>
@@ -4335,8 +4911,11 @@
       <c r="C345">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>-12.32</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>613.16999999999996</v>
       </c>
@@ -4346,8 +4925,11 @@
       <c r="C346">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D346">
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>619.29999999999995</v>
       </c>
@@ -4357,8 +4939,11 @@
       <c r="C347">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>625.5</v>
       </c>
@@ -4368,8 +4953,11 @@
       <c r="C348">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D348">
+        <v>-12.83</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>631.75</v>
       </c>
@@ -4379,8 +4967,11 @@
       <c r="C349">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>-12.93</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>638.07000000000005</v>
       </c>
@@ -4390,8 +4981,11 @@
       <c r="C350">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D350">
+        <v>-13.04</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>644.45000000000005</v>
       </c>
@@ -4401,8 +4995,11 @@
       <c r="C351">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D351">
+        <v>-13.15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>650.89</v>
       </c>
@@ -4412,8 +5009,11 @@
       <c r="C352">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D352">
+        <v>-13.26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>657.4</v>
       </c>
@@ -4423,8 +5023,11 @@
       <c r="C353">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>-13.37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>663.98</v>
       </c>
@@ -4434,8 +5037,11 @@
       <c r="C354">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>-13.46</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>670.62</v>
       </c>
@@ -4445,8 +5051,11 @@
       <c r="C355">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>-13.49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>677.32</v>
       </c>
@@ -4456,8 +5065,11 @@
       <c r="C356">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>-13.45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>684.1</v>
       </c>
@@ -4467,8 +5079,11 @@
       <c r="C357">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357">
+        <v>-13.37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>690.94</v>
       </c>
@@ -4478,8 +5093,11 @@
       <c r="C358">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358">
+        <v>-13.27</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>697.85</v>
       </c>
@@ -4489,8 +5107,11 @@
       <c r="C359">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359">
+        <v>-13.17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>704.83</v>
       </c>
@@ -4500,8 +5121,11 @@
       <c r="C360">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D360">
+        <v>-13.13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>711.87</v>
       </c>
@@ -4511,8 +5135,11 @@
       <c r="C361">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D361">
+        <v>-13.14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>718.99</v>
       </c>
@@ -4522,8 +5149,11 @@
       <c r="C362">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D362">
+        <v>-13.17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>726.18</v>
       </c>
@@ -4533,8 +5163,11 @@
       <c r="C363">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D363">
+        <v>-13.22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>733.44</v>
       </c>
@@ -4544,8 +5177,11 @@
       <c r="C364">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D364">
+        <v>-13.27</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>740.78</v>
       </c>
@@ -4555,8 +5191,11 @@
       <c r="C365">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D365">
+        <v>-13.33</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>748.19</v>
       </c>
@@ -4566,8 +5205,11 @@
       <c r="C366">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D366">
+        <v>-13.36</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>755.67</v>
       </c>
@@ -4577,8 +5219,11 @@
       <c r="C367">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D367">
+        <v>-13.36</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>763.23</v>
       </c>
@@ -4588,8 +5233,11 @@
       <c r="C368">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D368">
+        <v>-13.28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>770.86</v>
       </c>
@@ -4599,8 +5247,11 @@
       <c r="C369">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D369">
+        <v>-13.12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>778.57</v>
       </c>
@@ -4610,8 +5261,11 @@
       <c r="C370">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D370">
+        <v>-12.88</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>786.35</v>
       </c>
@@ -4621,8 +5275,11 @@
       <c r="C371">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D371">
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>794.22</v>
       </c>
@@ -4632,8 +5289,11 @@
       <c r="C372">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D372">
+        <v>-12.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>802.16</v>
       </c>
@@ -4643,8 +5303,11 @@
       <c r="C373">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D373">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>810.18</v>
       </c>
@@ -4654,8 +5317,11 @@
       <c r="C374">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D374">
+        <v>-11.74</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>818.28</v>
       </c>
@@ -4665,8 +5331,11 @@
       <c r="C375">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D375">
+        <v>-11.47</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>826.46</v>
       </c>
@@ -4676,8 +5345,11 @@
       <c r="C376">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D376">
+        <v>-11.17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>834.73</v>
       </c>
@@ -4687,8 +5359,11 @@
       <c r="C377">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D377">
+        <v>-10.88</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>843.08</v>
       </c>
@@ -4698,8 +5373,11 @@
       <c r="C378">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D378">
+        <v>-10.61</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>851.51</v>
       </c>
@@ -4709,8 +5387,11 @@
       <c r="C379">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D379">
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>860.02</v>
       </c>
@@ -4720,8 +5401,11 @@
       <c r="C380">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D380">
+        <v>-10.25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>868.62</v>
       </c>
@@ -4731,8 +5415,11 @@
       <c r="C381">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D381">
+        <v>-10.17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>877.31</v>
       </c>
@@ -4742,8 +5429,11 @@
       <c r="C382">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D382">
+        <v>-10.16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>886.08</v>
       </c>
@@ -4753,8 +5443,11 @@
       <c r="C383">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D383">
+        <v>-10.24</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>894.94</v>
       </c>
@@ -4764,8 +5457,11 @@
       <c r="C384">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D384">
+        <v>-10.38</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>903.89</v>
       </c>
@@ -4775,8 +5471,11 @@
       <c r="C385">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D385">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>912.93</v>
       </c>
@@ -4786,8 +5485,11 @@
       <c r="C386">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D386">
+        <v>-10.85</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>922.06</v>
       </c>
@@ -4797,8 +5499,11 @@
       <c r="C387">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D387">
+        <v>-11.14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>931.28</v>
       </c>
@@ -4808,8 +5513,11 @@
       <c r="C388">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D388">
+        <v>-11.45</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>940.59</v>
       </c>
@@ -4819,8 +5527,11 @@
       <c r="C389">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D389">
+        <v>-11.74</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>950</v>
       </c>
@@ -4830,8 +5541,11 @@
       <c r="C390">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D390">
+        <v>-12.02</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>959.5</v>
       </c>
@@ -4841,8 +5555,11 @@
       <c r="C391">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D391">
+        <v>-12.28</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>969.09</v>
       </c>
@@ -4852,8 +5569,11 @@
       <c r="C392">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D392">
+        <v>-12.53</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>978.78</v>
       </c>
@@ -4863,8 +5583,11 @@
       <c r="C393">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D393">
+        <v>-12.75</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>988.57</v>
       </c>
@@ -4874,8 +5597,11 @@
       <c r="C394">
         <v>-0.49</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D394">
+        <v>-12.94</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>998.46</v>
       </c>
@@ -4885,8 +5611,11 @@
       <c r="C395">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D395">
+        <v>-13.08</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1008.44</v>
       </c>
@@ -4896,8 +5625,11 @@
       <c r="C396">
         <v>-0.84</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D396">
+        <v>-13.15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1018.53</v>
       </c>
@@ -4907,8 +5639,11 @@
       <c r="C397">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D397">
+        <v>-13.17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1028.71</v>
       </c>
@@ -4918,8 +5653,11 @@
       <c r="C398">
         <v>-1.1599999999999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D398">
+        <v>-13.13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1039</v>
       </c>
@@ -4929,8 +5667,11 @@
       <c r="C399">
         <v>-1.31</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D399">
+        <v>-13.06</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1049.3900000000001</v>
       </c>
@@ -4940,8 +5681,11 @@
       <c r="C400">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D400">
+        <v>-12.99</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1059.8800000000001</v>
       </c>
@@ -4951,8 +5695,11 @@
       <c r="C401">
         <v>-1.59</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D401">
+        <v>-12.92</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1070.48</v>
       </c>
@@ -4962,8 +5709,11 @@
       <c r="C402">
         <v>-1.73</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D402">
+        <v>-12.88</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1081.19</v>
       </c>
@@ -4973,8 +5723,11 @@
       <c r="C403">
         <v>-1.86</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D403">
+        <v>-12.88</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1092</v>
       </c>
@@ -4984,8 +5737,11 @@
       <c r="C404">
         <v>-1.99</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D404">
+        <v>-12.9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1102.92</v>
       </c>
@@ -4995,8 +5751,11 @@
       <c r="C405">
         <v>-2.12</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D405">
+        <v>-12.92</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1113.95</v>
       </c>
@@ -5006,8 +5765,11 @@
       <c r="C406">
         <v>-2.2599999999999998</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D406">
+        <v>-12.96</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1125.0899999999999</v>
       </c>
@@ -5017,8 +5779,11 @@
       <c r="C407">
         <v>-2.39</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D407">
+        <v>-13.01</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1136.3399999999999</v>
       </c>
@@ -5028,8 +5793,11 @@
       <c r="C408">
         <v>-2.52</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D408">
+        <v>-13.07</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1147.7</v>
       </c>
@@ -5039,8 +5807,11 @@
       <c r="C409">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D409">
+        <v>-13.16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1159.18</v>
       </c>
@@ -5050,8 +5821,11 @@
       <c r="C410">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D410">
+        <v>-13.28</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1170.77</v>
       </c>
@@ -5061,8 +5835,11 @@
       <c r="C411">
         <v>-2.95</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D411">
+        <v>-13.44</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1182.48</v>
       </c>
@@ -5072,8 +5849,11 @@
       <c r="C412">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D412">
+        <v>-13.65</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1194.3</v>
       </c>
@@ -5083,8 +5863,11 @@
       <c r="C413">
         <v>-3.25</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D413">
+        <v>-13.9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1206.25</v>
       </c>
@@ -5094,8 +5877,11 @@
       <c r="C414">
         <v>-3.41</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D414">
+        <v>-14.19</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1218.31</v>
       </c>
@@ -5105,8 +5891,11 @@
       <c r="C415">
         <v>-3.57</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D415">
+        <v>-14.49</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1230.49</v>
       </c>
@@ -5116,8 +5905,11 @@
       <c r="C416">
         <v>-3.74</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D416">
+        <v>-14.78</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1242.8</v>
       </c>
@@ -5127,8 +5919,11 @@
       <c r="C417">
         <v>-3.91</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D417">
+        <v>-15.03</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1255.22</v>
       </c>
@@ -5138,8 +5933,11 @@
       <c r="C418">
         <v>-4.09</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D418">
+        <v>-15.22</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1267.78</v>
       </c>
@@ -5149,8 +5947,11 @@
       <c r="C419">
         <v>-4.2699999999999996</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D419">
+        <v>-15.34</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1280.45</v>
       </c>
@@ -5160,8 +5961,11 @@
       <c r="C420">
         <v>-4.46</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D420">
+        <v>-15.39</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1293.26</v>
       </c>
@@ -5171,8 +5975,11 @@
       <c r="C421">
         <v>-4.6500000000000004</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D421">
+        <v>-15.37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1306.19</v>
       </c>
@@ -5182,8 +5989,11 @@
       <c r="C422">
         <v>-4.84</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D422">
+        <v>-15.3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1319.25</v>
       </c>
@@ -5193,8 +6003,11 @@
       <c r="C423">
         <v>-5.03</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D423">
+        <v>-15.2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1332.45</v>
       </c>
@@ -5204,8 +6017,11 @@
       <c r="C424">
         <v>-5.22</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D424">
+        <v>-15.1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1345.77</v>
       </c>
@@ -5215,8 +6031,11 @@
       <c r="C425">
         <v>-5.41</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D425">
+        <v>-15.01</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1359.23</v>
       </c>
@@ -5226,8 +6045,11 @@
       <c r="C426">
         <v>-5.59</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D426">
+        <v>-14.97</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1372.82</v>
       </c>
@@ -5237,8 +6059,11 @@
       <c r="C427">
         <v>-5.77</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D427">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1386.55</v>
       </c>
@@ -5248,8 +6073,11 @@
       <c r="C428">
         <v>-5.94</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D428">
+        <v>-15.05</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1400.41</v>
       </c>
@@ -5259,8 +6087,11 @@
       <c r="C429">
         <v>-6.1</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D429">
+        <v>-15.14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1414.42</v>
       </c>
@@ -5270,8 +6101,11 @@
       <c r="C430">
         <v>-6.25</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D430">
+        <v>-15.25</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1428.56</v>
       </c>
@@ -5281,8 +6115,11 @@
       <c r="C431">
         <v>-6.37</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D431">
+        <v>-15.38</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1442.85</v>
       </c>
@@ -5292,8 +6129,11 @@
       <c r="C432">
         <v>-6.48</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D432">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1457.28</v>
       </c>
@@ -5303,8 +6143,11 @@
       <c r="C433">
         <v>-6.58</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D433">
+        <v>-15.61</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1471.85</v>
       </c>
@@ -5314,8 +6157,11 @@
       <c r="C434">
         <v>-6.65</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D434">
+        <v>-15.68</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1486.57</v>
       </c>
@@ -5325,8 +6171,11 @@
       <c r="C435">
         <v>-6.7</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D435">
+        <v>-15.69</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1501.43</v>
       </c>
@@ -5336,8 +6185,11 @@
       <c r="C436">
         <v>-6.73</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D436">
+        <v>-15.64</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1516.45</v>
       </c>
@@ -5347,8 +6199,11 @@
       <c r="C437">
         <v>-6.72</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D437">
+        <v>-15.52</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1531.61</v>
       </c>
@@ -5358,8 +6213,11 @@
       <c r="C438">
         <v>-6.68</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D438">
+        <v>-15.35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1546.93</v>
       </c>
@@ -5369,8 +6227,11 @@
       <c r="C439">
         <v>-6.62</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D439">
+        <v>-15.16</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1562.4</v>
       </c>
@@ -5380,8 +6241,11 @@
       <c r="C440">
         <v>-6.54</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D440">
+        <v>-14.97</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1578.02</v>
       </c>
@@ -5391,8 +6255,11 @@
       <c r="C441">
         <v>-6.43</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D441">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1593.8</v>
       </c>
@@ -5402,8 +6269,11 @@
       <c r="C442">
         <v>-6.29</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D442">
+        <v>-14.62</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1609.74</v>
       </c>
@@ -5413,8 +6283,11 @@
       <c r="C443">
         <v>-6.13</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D443">
+        <v>-14.3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1625.84</v>
       </c>
@@ -5424,8 +6297,11 @@
       <c r="C444">
         <v>-5.94</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D444">
+        <v>-13.89</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1642.1</v>
       </c>
@@ -5435,8 +6311,11 @@
       <c r="C445">
         <v>-5.74</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D445">
+        <v>-13.4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1658.52</v>
       </c>
@@ -5446,8 +6325,11 @@
       <c r="C446">
         <v>-5.52</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D446">
+        <v>-12.86</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1675.1</v>
       </c>
@@ -5457,8 +6339,11 @@
       <c r="C447">
         <v>-5.3</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D447">
+        <v>-12.28</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1691.85</v>
       </c>
@@ -5468,8 +6353,11 @@
       <c r="C448">
         <v>-5.0599999999999996</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D448">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1708.77</v>
       </c>
@@ -5479,8 +6367,11 @@
       <c r="C449">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D449">
+        <v>-11.12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1725.86</v>
       </c>
@@ -5490,8 +6381,11 @@
       <c r="C450">
         <v>-4.53</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D450">
+        <v>-10.55</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1743.12</v>
       </c>
@@ -5501,8 +6395,11 @@
       <c r="C451">
         <v>-4.25</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D451">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1760.55</v>
       </c>
@@ -5512,8 +6409,11 @@
       <c r="C452">
         <v>-3.98</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D452">
+        <v>-9.52</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1778.15</v>
       </c>
@@ -5523,8 +6423,11 @@
       <c r="C453">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D453">
+        <v>-9.16</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1795.94</v>
       </c>
@@ -5534,8 +6437,11 @@
       <c r="C454">
         <v>-3.42</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D454">
+        <v>-8.94</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1813.9</v>
       </c>
@@ -5545,8 +6451,11 @@
       <c r="C455">
         <v>-3.13</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D455">
+        <v>-8.85</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1832.03</v>
       </c>
@@ -5556,8 +6465,11 @@
       <c r="C456">
         <v>-2.83</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D456">
+        <v>-8.85</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1850.36</v>
       </c>
@@ -5567,8 +6479,11 @@
       <c r="C457">
         <v>-2.54</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D457">
+        <v>-8.84</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1868.86</v>
       </c>
@@ -5578,8 +6493,11 @@
       <c r="C458">
         <v>-2.25</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D458">
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1887.55</v>
       </c>
@@ -5589,8 +6507,11 @@
       <c r="C459">
         <v>-1.97</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D459">
+        <v>-8.99</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1906.42</v>
       </c>
@@ -5600,8 +6521,11 @@
       <c r="C460">
         <v>-1.68</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D460">
+        <v>-9.08</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1925.49</v>
       </c>
@@ -5611,8 +6535,11 @@
       <c r="C461">
         <v>-1.39</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D461">
+        <v>-9.17</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1944.74</v>
       </c>
@@ -5622,8 +6549,11 @@
       <c r="C462">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D462">
+        <v>-9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1964.19</v>
       </c>
@@ -5633,8 +6563,11 @@
       <c r="C463">
         <v>-0.82</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D463">
+        <v>-9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1983.83</v>
       </c>
@@ -5644,8 +6577,11 @@
       <c r="C464">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D464">
+        <v>-9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2003.67</v>
       </c>
@@ -5655,8 +6591,11 @@
       <c r="C465">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D465">
+        <v>-8.94</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2023.71</v>
       </c>
@@ -5666,8 +6605,11 @@
       <c r="C466">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D466">
+        <v>-8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2043.94</v>
       </c>
@@ -5677,8 +6619,11 @@
       <c r="C467">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D467">
+        <v>-8.44</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2064.38</v>
       </c>
@@ -5688,8 +6633,11 @@
       <c r="C468">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D468">
+        <v>-8.16</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2085.0300000000002</v>
       </c>
@@ -5699,8 +6647,11 @@
       <c r="C469">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D469">
+        <v>-7.89</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2105.88</v>
       </c>
@@ -5710,8 +6661,11 @@
       <c r="C470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D470">
+        <v>-7.62</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2126.94</v>
       </c>
@@ -5721,8 +6675,11 @@
       <c r="C471">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D471">
+        <v>-7.36</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2148.1999999999998</v>
       </c>
@@ -5732,8 +6689,11 @@
       <c r="C472">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D472">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2169.69</v>
       </c>
@@ -5743,8 +6703,11 @@
       <c r="C473">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D473">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2191.38</v>
       </c>
@@ -5754,8 +6717,11 @@
       <c r="C474">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D474">
+        <v>-6.58</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2213.3000000000002</v>
       </c>
@@ -5765,8 +6731,11 @@
       <c r="C475">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D475">
+        <v>-6.33</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2235.4299999999998</v>
       </c>
@@ -5776,8 +6745,11 @@
       <c r="C476">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D476">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2257.7800000000002</v>
       </c>
@@ -5787,8 +6759,11 @@
       <c r="C477">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D477">
+        <v>-5.81</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2280.36</v>
       </c>
@@ -5798,8 +6773,11 @@
       <c r="C478">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D478">
+        <v>-5.55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2303.17</v>
       </c>
@@ -5809,8 +6787,11 @@
       <c r="C479">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D479">
+        <v>-5.28</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2326.1999999999998</v>
       </c>
@@ -5820,8 +6801,11 @@
       <c r="C480">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D480">
+        <v>-4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2349.46</v>
       </c>
@@ -5831,8 +6815,11 @@
       <c r="C481">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D481">
+        <v>-4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2372.9499999999998</v>
       </c>
@@ -5842,8 +6829,11 @@
       <c r="C482">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D482">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2396.6799999999998</v>
       </c>
@@ -5853,8 +6843,11 @@
       <c r="C483">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D483">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2420.65</v>
       </c>
@@ -5864,8 +6857,11 @@
       <c r="C484">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D484">
+        <v>-4.05</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2444.86</v>
       </c>
@@ -5875,8 +6871,11 @@
       <c r="C485">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D485">
+        <v>-3.97</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2469.31</v>
       </c>
@@ -5886,8 +6885,11 @@
       <c r="C486">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D486">
+        <v>-3.96</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2494</v>
       </c>
@@ -5897,8 +6899,11 @@
       <c r="C487">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D487">
+        <v>-4.03</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2518.94</v>
       </c>
@@ -5908,8 +6913,11 @@
       <c r="C488">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D488">
+        <v>-4.18</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2544.13</v>
       </c>
@@ -5919,8 +6927,11 @@
       <c r="C489">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D489">
+        <v>-4.38</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2569.5700000000002</v>
       </c>
@@ -5930,8 +6941,11 @@
       <c r="C490">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D490">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2595.27</v>
       </c>
@@ -5941,8 +6955,11 @@
       <c r="C491">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D491">
+        <v>-4.93</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2621.2199999999998</v>
       </c>
@@ -5952,8 +6969,11 @@
       <c r="C492">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D492">
+        <v>-5.23</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2647.43</v>
       </c>
@@ -5963,8 +6983,11 @@
       <c r="C493">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D493">
+        <v>-5.51</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2673.9</v>
       </c>
@@ -5974,8 +6997,11 @@
       <c r="C494">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D494">
+        <v>-5.77</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2700.64</v>
       </c>
@@ -5985,8 +7011,11 @@
       <c r="C495">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D495">
+        <v>-6.03</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2727.65</v>
       </c>
@@ -5996,8 +7025,11 @@
       <c r="C496">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D496">
+        <v>-6.29</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2754.93</v>
       </c>
@@ -6007,8 +7039,11 @@
       <c r="C497">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D497">
+        <v>-6.56</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2782.48</v>
       </c>
@@ -6018,8 +7053,11 @@
       <c r="C498">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D498">
+        <v>-6.85</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2810.3</v>
       </c>
@@ -6029,8 +7067,11 @@
       <c r="C499">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D499">
+        <v>-7.14</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2838.4</v>
       </c>
@@ -6040,8 +7081,11 @@
       <c r="C500">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D500">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2866.79</v>
       </c>
@@ -6051,8 +7095,11 @@
       <c r="C501">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D501">
+        <v>-7.6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2895.46</v>
       </c>
@@ -6062,8 +7109,11 @@
       <c r="C502">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D502">
+        <v>-7.72</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2924.41</v>
       </c>
@@ -6073,8 +7123,11 @@
       <c r="C503">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D503">
+        <v>-7.76</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2953.65</v>
       </c>
@@ -6084,8 +7137,11 @@
       <c r="C504">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D504">
+        <v>-7.74</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2983.19</v>
       </c>
@@ -6095,8 +7151,11 @@
       <c r="C505">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D505">
+        <v>-7.71</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>3013.02</v>
       </c>
@@ -6106,8 +7165,11 @@
       <c r="C506">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D506">
+        <v>-7.7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>3043.15</v>
       </c>
@@ -6117,8 +7179,11 @@
       <c r="C507">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D507">
+        <v>-7.75</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>3073.58</v>
       </c>
@@ -6128,8 +7193,11 @@
       <c r="C508">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D508">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>3104.32</v>
       </c>
@@ -6139,8 +7207,11 @@
       <c r="C509">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D509">
+        <v>-8.18</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>3135.36</v>
       </c>
@@ -6150,8 +7221,11 @@
       <c r="C510">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D510">
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>3166.72</v>
       </c>
@@ -6161,8 +7235,11 @@
       <c r="C511">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D511">
+        <v>-9.15</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>3198.38</v>
       </c>
@@ -6172,8 +7249,11 @@
       <c r="C512">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D512">
+        <v>-9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>3230.37</v>
       </c>
@@ -6183,8 +7263,11 @@
       <c r="C513">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D513">
+        <v>-10.46</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>3262.67</v>
       </c>
@@ -6194,8 +7277,11 @@
       <c r="C514">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D514">
+        <v>-11.16</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>3295.3</v>
       </c>
@@ -6205,8 +7291,11 @@
       <c r="C515">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D515">
+        <v>-11.81</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>3328.25</v>
       </c>
@@ -6216,8 +7305,11 @@
       <c r="C516">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D516">
+        <v>-12.36</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>3361.53</v>
       </c>
@@ -6227,8 +7319,11 @@
       <c r="C517">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D517">
+        <v>-12.77</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>3395.15</v>
       </c>
@@ -6238,8 +7333,11 @@
       <c r="C518">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D518">
+        <v>-13.05</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>3429.1</v>
       </c>
@@ -6249,8 +7347,11 @@
       <c r="C519">
         <v>-0.59</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D519">
+        <v>-13.21</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>3463.39</v>
       </c>
@@ -6260,8 +7361,11 @@
       <c r="C520">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D520">
+        <v>-13.25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>3498.03</v>
       </c>
@@ -6271,8 +7375,11 @@
       <c r="C521">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D521">
+        <v>-13.21</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>3533.01</v>
       </c>
@@ -6282,8 +7389,11 @@
       <c r="C522">
         <v>-0.84</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D522">
+        <v>-13.09</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>3568.34</v>
       </c>
@@ -6293,8 +7403,11 @@
       <c r="C523">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D523">
+        <v>-12.91</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>3604.02</v>
       </c>
@@ -6304,8 +7417,11 @@
       <c r="C524">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D524">
+        <v>-12.67</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>3640.06</v>
       </c>
@@ -6315,8 +7431,11 @@
       <c r="C525">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D525">
+        <v>-12.38</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>3676.46</v>
       </c>
@@ -6326,8 +7445,11 @@
       <c r="C526">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D526">
+        <v>-12.04</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>3713.22</v>
       </c>
@@ -6337,8 +7459,11 @@
       <c r="C527">
         <v>-0.82</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D527">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>3750.36</v>
       </c>
@@ -6348,8 +7473,11 @@
       <c r="C528">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D528">
+        <v>-11.43</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>3787.86</v>
       </c>
@@ -6359,8 +7487,11 @@
       <c r="C529">
         <v>-0.56999999999999995</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D529">
+        <v>-11.22</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>3825.74</v>
       </c>
@@ -6370,8 +7501,11 @@
       <c r="C530">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D530">
+        <v>-11.08</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>3864</v>
       </c>
@@ -6381,8 +7515,11 @@
       <c r="C531">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D531">
+        <v>-11.01</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>3902.64</v>
       </c>
@@ -6392,8 +7529,11 @@
       <c r="C532">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D532">
+        <v>-11.01</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>3941.66</v>
       </c>
@@ -6403,8 +7543,11 @@
       <c r="C533">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D533">
+        <v>-11.05</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>3981.08</v>
       </c>
@@ -6414,8 +7557,11 @@
       <c r="C534">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D534">
+        <v>-11.11</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>4020.89</v>
       </c>
@@ -6425,8 +7571,11 @@
       <c r="C535">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D535">
+        <v>-11.18</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>4061.1</v>
       </c>
@@ -6436,8 +7585,11 @@
       <c r="C536">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D536">
+        <v>-11.23</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>4101.71</v>
       </c>
@@ -6447,8 +7599,11 @@
       <c r="C537">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D537">
+        <v>-11.26</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>4142.7299999999996</v>
       </c>
@@ -6458,8 +7613,11 @@
       <c r="C538">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D538">
+        <v>-11.26</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>4184.1499999999996</v>
       </c>
@@ -6469,8 +7627,11 @@
       <c r="C539">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D539">
+        <v>-11.23</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>4226</v>
       </c>
@@ -6480,8 +7641,11 @@
       <c r="C540">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D540">
+        <v>-11.17</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>4268.26</v>
       </c>
@@ -6491,8 +7655,11 @@
       <c r="C541">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D541">
+        <v>-11.12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>4310.9399999999996</v>
       </c>
@@ -6502,8 +7669,11 @@
       <c r="C542">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D542">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>4354.05</v>
       </c>
@@ -6513,8 +7683,11 @@
       <c r="C543">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D543">
+        <v>-11.12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>4397.59</v>
       </c>
@@ -6524,8 +7697,11 @@
       <c r="C544">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D544">
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>4441.5600000000004</v>
       </c>
@@ -6535,8 +7711,11 @@
       <c r="C545">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D545">
+        <v>-11.35</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>4485.9799999999996</v>
       </c>
@@ -6546,8 +7725,11 @@
       <c r="C546">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D546">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>4530.84</v>
       </c>
@@ -6557,8 +7739,11 @@
       <c r="C547">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D547">
+        <v>-11.96</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>4576.1499999999996</v>
       </c>
@@ -6568,8 +7753,11 @@
       <c r="C548">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D548">
+        <v>-12.45</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>4621.91</v>
       </c>
@@ -6579,8 +7767,11 @@
       <c r="C549">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D549">
+        <v>-13.04</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>4668.13</v>
       </c>
@@ -6590,8 +7781,11 @@
       <c r="C550">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D550">
+        <v>-13.72</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>4714.8100000000004</v>
       </c>
@@ -6601,8 +7795,11 @@
       <c r="C551">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D551">
+        <v>-14.39</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>4761.96</v>
       </c>
@@ -6612,8 +7809,11 @@
       <c r="C552">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D552">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>4809.58</v>
       </c>
@@ -6623,8 +7823,11 @@
       <c r="C553">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D553">
+        <v>-15.43</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>4857.67</v>
       </c>
@@ -6634,8 +7837,11 @@
       <c r="C554">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D554">
+        <v>-15.58</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>4906.25</v>
       </c>
@@ -6645,8 +7851,11 @@
       <c r="C555">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D555">
+        <v>-15.38</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>4955.3100000000004</v>
       </c>
@@ -6656,8 +7865,11 @@
       <c r="C556">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D556">
+        <v>-14.77</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>5004.87</v>
       </c>
@@ -6667,8 +7879,11 @@
       <c r="C557">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D557">
+        <v>-13.83</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>5054.91</v>
       </c>
@@ -6678,8 +7893,11 @@
       <c r="C558">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D558">
+        <v>-12.65</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>5105.46</v>
       </c>
@@ -6689,8 +7907,11 @@
       <c r="C559">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D559">
+        <v>-11.33</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>5156.5200000000004</v>
       </c>
@@ -6700,8 +7921,11 @@
       <c r="C560">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D560">
+        <v>-10.029999999999999</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>5208.08</v>
       </c>
@@ -6711,8 +7935,11 @@
       <c r="C561">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D561">
+        <v>-8.83</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>5260.16</v>
       </c>
@@ -6722,8 +7949,11 @@
       <c r="C562">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D562">
+        <v>-7.79</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>5312.77</v>
       </c>
@@ -6733,8 +7963,11 @@
       <c r="C563">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D563">
+        <v>-6.94</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>5365.89</v>
       </c>
@@ -6744,8 +7977,11 @@
       <c r="C564">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D564">
+        <v>-6.33</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>5419.55</v>
       </c>
@@ -6755,8 +7991,11 @@
       <c r="C565">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D565">
+        <v>-5.95</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>5473.75</v>
       </c>
@@ -6766,8 +8005,11 @@
       <c r="C566">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D566">
+        <v>-5.78</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>5528.49</v>
       </c>
@@ -6777,8 +8019,11 @@
       <c r="C567">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D567">
+        <v>-5.76</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>5583.77</v>
       </c>
@@ -6788,8 +8033,11 @@
       <c r="C568">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D568">
+        <v>-5.81</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>5639.61</v>
       </c>
@@ -6799,8 +8047,11 @@
       <c r="C569">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D569">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>5696</v>
       </c>
@@ -6810,8 +8061,11 @@
       <c r="C570">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D570">
+        <v>-6.01</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>5752.96</v>
       </c>
@@ -6821,8 +8075,11 @@
       <c r="C571">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D571">
+        <v>-6.17</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>5810.49</v>
       </c>
@@ -6832,8 +8089,11 @@
       <c r="C572">
         <v>-0.49</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D572">
+        <v>-6.36</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>5868.6</v>
       </c>
@@ -6843,8 +8103,11 @@
       <c r="C573">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D573">
+        <v>-6.56</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>5927.28</v>
       </c>
@@ -6854,8 +8117,11 @@
       <c r="C574">
         <v>-1.54</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D574">
+        <v>-6.71</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>5986.56</v>
       </c>
@@ -6865,8 +8131,11 @@
       <c r="C575">
         <v>-2.09</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D575">
+        <v>-6.75</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>6046.42</v>
       </c>
@@ -6876,8 +8145,11 @@
       <c r="C576">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D576">
+        <v>-6.61</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>6106.89</v>
       </c>
@@ -6887,8 +8159,11 @@
       <c r="C577">
         <v>-3.18</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D577">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>6167.96</v>
       </c>
@@ -6898,8 +8173,11 @@
       <c r="C578">
         <v>-3.62</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D578">
+        <v>-5.85</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>6229.64</v>
       </c>
@@ -6909,8 +8187,11 @@
       <c r="C579">
         <v>-3.95</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D579">
+        <v>-5.31</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>6291.93</v>
       </c>
@@ -6920,8 +8201,11 @@
       <c r="C580">
         <v>-4.1500000000000004</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D580">
+        <v>-4.72</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>6354.85</v>
       </c>
@@ -6931,8 +8215,11 @@
       <c r="C581">
         <v>-4.2300000000000004</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D581">
+        <v>-4.12</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>6418.4</v>
       </c>
@@ -6942,8 +8229,11 @@
       <c r="C582">
         <v>-4.21</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D582">
+        <v>-3.57</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>6482.58</v>
       </c>
@@ -6953,8 +8243,11 @@
       <c r="C583">
         <v>-4.09</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D583">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>6547.41</v>
       </c>
@@ -6964,8 +8257,11 @@
       <c r="C584">
         <v>-3.89</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D584">
+        <v>-2.73</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>6612.88</v>
       </c>
@@ -6975,8 +8271,11 @@
       <c r="C585">
         <v>-3.65</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D585">
+        <v>-2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>6679.01</v>
       </c>
@@ -6986,8 +8285,11 @@
       <c r="C586">
         <v>-3.35</v>
       </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D586">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>6745.8</v>
       </c>
@@ -6997,8 +8299,11 @@
       <c r="C587">
         <v>-3.03</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D587">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>6813.26</v>
       </c>
@@ -7008,8 +8313,11 @@
       <c r="C588">
         <v>-2.73</v>
       </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D588">
+        <v>-2.35</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>6881.39</v>
       </c>
@@ -7019,8 +8327,11 @@
       <c r="C589">
         <v>-2.46</v>
       </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D589">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>6950.21</v>
       </c>
@@ -7030,8 +8341,11 @@
       <c r="C590">
         <v>-2.21</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D590">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>7019.71</v>
       </c>
@@ -7041,8 +8355,11 @@
       <c r="C591">
         <v>-1.95</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D591">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>7089.91</v>
       </c>
@@ -7052,8 +8369,11 @@
       <c r="C592">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D592">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>7160.81</v>
       </c>
@@ -7063,8 +8383,11 @@
       <c r="C593">
         <v>-1.44</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D593">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>7232.41</v>
       </c>
@@ -7074,8 +8397,11 @@
       <c r="C594">
         <v>-1.18</v>
       </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D594">
+        <v>-2.12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>7304.74</v>
       </c>
@@ -7085,8 +8411,11 @@
       <c r="C595">
         <v>-0.92</v>
       </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D595">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>7377.79</v>
       </c>
@@ -7096,8 +8425,11 @@
       <c r="C596">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D596">
+        <v>-1.76</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>7451.56</v>
       </c>
@@ -7107,8 +8439,11 @@
       <c r="C597">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D597">
+        <v>-1.54</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>7526.08</v>
       </c>
@@ -7118,8 +8453,11 @@
       <c r="C598">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D598">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>7601.34</v>
       </c>
@@ -7129,8 +8467,11 @@
       <c r="C599">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D599">
+        <v>-1.03</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>7677.35</v>
       </c>
@@ -7140,8 +8481,11 @@
       <c r="C600">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D600">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>7754.13</v>
       </c>
@@ -7151,8 +8495,11 @@
       <c r="C601">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D601">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>7831.67</v>
       </c>
@@ -7162,8 +8509,11 @@
       <c r="C602">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D602">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>7909.98</v>
       </c>
@@ -7173,8 +8523,11 @@
       <c r="C603">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D603">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>7989.08</v>
       </c>
@@ -7184,8 +8537,11 @@
       <c r="C604">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D604">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>8068.98</v>
       </c>
@@ -7195,8 +8551,11 @@
       <c r="C605">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D605">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>8149.67</v>
       </c>
@@ -7206,8 +8565,11 @@
       <c r="C606">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D606">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>8231.16</v>
       </c>
@@ -7217,8 +8579,11 @@
       <c r="C607">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D607">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>8313.4699999999993</v>
       </c>
@@ -7228,8 +8593,11 @@
       <c r="C608">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D608">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>8396.61</v>
       </c>
@@ -7239,8 +8607,11 @@
       <c r="C609">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D609">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>8480.57</v>
       </c>
@@ -7250,8 +8621,11 @@
       <c r="C610">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D610">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>8565.3799999999992</v>
       </c>
@@ -7261,8 +8635,11 @@
       <c r="C611">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D611">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>8651.0300000000007</v>
       </c>
@@ -7272,8 +8649,11 @@
       <c r="C612">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D612">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>8737.5400000000009</v>
       </c>
@@ -7283,8 +8663,11 @@
       <c r="C613">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D613">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>8824.92</v>
       </c>
@@ -7294,8 +8677,11 @@
       <c r="C614">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D614">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>8913.17</v>
       </c>
@@ -7305,8 +8691,11 @@
       <c r="C615">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D615">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>9002.2999999999993</v>
       </c>
@@ -7316,8 +8705,11 @@
       <c r="C616">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D616">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>9092.32</v>
       </c>
@@ -7327,8 +8719,11 @@
       <c r="C617">
         <v>3.11</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D617">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>9183.25</v>
       </c>
@@ -7338,8 +8733,11 @@
       <c r="C618">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D618">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>9275.08</v>
       </c>
@@ -7349,8 +8747,11 @@
       <c r="C619">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D619">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>9367.83</v>
       </c>
@@ -7360,8 +8761,11 @@
       <c r="C620">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D620">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>9461.51</v>
       </c>
@@ -7371,8 +8775,11 @@
       <c r="C621">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D621">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>9556.1200000000008</v>
       </c>
@@ -7382,8 +8789,11 @@
       <c r="C622">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D622">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>9651.68</v>
       </c>
@@ -7393,8 +8803,11 @@
       <c r="C623">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D623">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>9748.2000000000007</v>
       </c>
@@ -7404,8 +8817,11 @@
       <c r="C624">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D624">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>9845.68</v>
       </c>
@@ -7415,8 +8831,11 @@
       <c r="C625">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D625">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>9944.14</v>
       </c>
@@ -7426,8 +8845,11 @@
       <c r="C626">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D626">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>10043.58</v>
       </c>
@@ -7437,8 +8859,11 @@
       <c r="C627">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D627">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>10144.02</v>
       </c>
@@ -7448,8 +8873,11 @@
       <c r="C628">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D628">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>10245.459999999999</v>
       </c>
@@ -7459,8 +8887,11 @@
       <c r="C629">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D629">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>10347.91</v>
       </c>
@@ -7470,8 +8901,11 @@
       <c r="C630">
         <v>2.5299999999999998</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D630">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>10451.39</v>
       </c>
@@ -7481,8 +8915,11 @@
       <c r="C631">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D631">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>10555.91</v>
       </c>
@@ -7492,8 +8929,11 @@
       <c r="C632">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D632">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>10661.46</v>
       </c>
@@ -7503,8 +8943,11 @@
       <c r="C633">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D633">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>10768.08</v>
       </c>
@@ -7514,8 +8957,11 @@
       <c r="C634">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D634">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>10875.76</v>
       </c>
@@ -7525,8 +8971,11 @@
       <c r="C635">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D635">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>10984.52</v>
       </c>
@@ -7536,8 +8985,11 @@
       <c r="C636">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D636">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>11094.36</v>
       </c>
@@ -7547,8 +8999,11 @@
       <c r="C637">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D637">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>11205.31</v>
       </c>
@@ -7558,8 +9013,11 @@
       <c r="C638">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D638">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>11317.36</v>
       </c>
@@ -7569,8 +9027,11 @@
       <c r="C639">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D639">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>11430.53</v>
       </c>
@@ -7580,8 +9041,11 @@
       <c r="C640">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D640">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>11544.84</v>
       </c>
@@ -7591,8 +9055,11 @@
       <c r="C641">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D641">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>11660.29</v>
       </c>
@@ -7602,8 +9069,11 @@
       <c r="C642">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D642">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>11776.89</v>
       </c>
@@ -7613,8 +9083,11 @@
       <c r="C643">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D643">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>11894.66</v>
       </c>
@@ -7624,8 +9097,11 @@
       <c r="C644">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D644">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>12013.6</v>
       </c>
@@ -7635,8 +9111,11 @@
       <c r="C645">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D645">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>12133.74</v>
       </c>
@@ -7646,8 +9125,11 @@
       <c r="C646">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D646">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>12255.08</v>
       </c>
@@ -7657,8 +9139,11 @@
       <c r="C647">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D647">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>12377.63</v>
       </c>
@@ -7668,8 +9153,11 @@
       <c r="C648">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D648">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>12501.41</v>
       </c>
@@ -7679,8 +9167,11 @@
       <c r="C649">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D649">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>12626.42</v>
       </c>
@@ -7690,8 +9181,11 @@
       <c r="C650">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D650">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>12752.68</v>
       </c>
@@ -7701,8 +9195,11 @@
       <c r="C651">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D651">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>12880.21</v>
       </c>
@@ -7712,8 +9209,11 @@
       <c r="C652">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D652">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>13009.01</v>
       </c>
@@ -7723,8 +9223,11 @@
       <c r="C653">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D653">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>13139.1</v>
       </c>
@@ -7734,8 +9237,11 @@
       <c r="C654">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D654">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>13270.49</v>
       </c>
@@ -7745,8 +9251,11 @@
       <c r="C655">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D655">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>13403.2</v>
       </c>
@@ -7756,8 +9265,11 @@
       <c r="C656">
         <v>1</v>
       </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D656">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>13537.23</v>
       </c>
@@ -7767,8 +9279,11 @@
       <c r="C657">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D657">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>13672.6</v>
       </c>
@@ -7778,8 +9293,11 @@
       <c r="C658">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D658">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>13809.33</v>
       </c>
@@ -7789,8 +9307,11 @@
       <c r="C659">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D659">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>13947.42</v>
       </c>
@@ -7800,8 +9321,11 @@
       <c r="C660">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D660">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>14086.9</v>
       </c>
@@ -7811,8 +9335,11 @@
       <c r="C661">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D661">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>14227.77</v>
       </c>
@@ -7822,8 +9349,11 @@
       <c r="C662">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D662">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>14370.04</v>
       </c>
@@ -7833,8 +9363,11 @@
       <c r="C663">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D663">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>14513.74</v>
       </c>
@@ -7844,8 +9377,11 @@
       <c r="C664">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D664">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>14658.88</v>
       </c>
@@ -7855,8 +9391,11 @@
       <c r="C665">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D665">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>14805.47</v>
       </c>
@@ -7866,8 +9405,11 @@
       <c r="C666">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D666">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>14953.52</v>
       </c>
@@ -7877,8 +9419,11 @@
       <c r="C667">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D667">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>15103.06</v>
       </c>
@@ -7888,8 +9433,11 @@
       <c r="C668">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D668">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>15254.09</v>
       </c>
@@ -7899,8 +9447,11 @@
       <c r="C669">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D669">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>15406.63</v>
       </c>
@@ -7910,8 +9461,11 @@
       <c r="C670">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D670">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>15560.7</v>
       </c>
@@ -7921,8 +9475,11 @@
       <c r="C671">
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D671">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>15716.3</v>
       </c>
@@ -7932,8 +9489,11 @@
       <c r="C672">
         <v>-0.56999999999999995</v>
       </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D672">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>15873.47</v>
       </c>
@@ -7943,8 +9503,11 @@
       <c r="C673">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D673">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>16032.2</v>
       </c>
@@ -7954,8 +9517,11 @@
       <c r="C674">
         <v>-0.79</v>
       </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D674">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>16192.52</v>
       </c>
@@ -7965,8 +9531,11 @@
       <c r="C675">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D675">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>16354.45</v>
       </c>
@@ -7976,8 +9545,11 @@
       <c r="C676">
         <v>-1.03</v>
       </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D676">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>16517.990000000002</v>
       </c>
@@ -7987,8 +9559,11 @@
       <c r="C677">
         <v>-1.1499999999999999</v>
       </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D677">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>16683.169999999998</v>
       </c>
@@ -7998,8 +9573,11 @@
       <c r="C678">
         <v>-1.27</v>
       </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D678">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>16850.009999999998</v>
       </c>
@@ -8009,8 +9587,11 @@
       <c r="C679">
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D679">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>17018.509999999998</v>
       </c>
@@ -8020,8 +9601,11 @@
       <c r="C680">
         <v>-1.52</v>
       </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D680">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>17188.689999999999</v>
       </c>
@@ -8031,8 +9615,11 @@
       <c r="C681">
         <v>-1.65</v>
       </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D681">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>17360.580000000002</v>
       </c>
@@ -8042,8 +9629,11 @@
       <c r="C682">
         <v>-1.78</v>
       </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D682">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>17534.18</v>
       </c>
@@ -8053,8 +9643,11 @@
       <c r="C683">
         <v>-1.91</v>
       </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D683">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>17709.53</v>
       </c>
@@ -8064,8 +9657,11 @@
       <c r="C684">
         <v>-2.0499999999999998</v>
       </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D684">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>17886.62</v>
       </c>
@@ -8075,8 +9671,11 @@
       <c r="C685">
         <v>-2.1800000000000002</v>
       </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D685">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>18065.490000000002</v>
       </c>
@@ -8086,8 +9685,11 @@
       <c r="C686">
         <v>-2.3199999999999998</v>
       </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D686">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>18246.14</v>
       </c>
@@ -8097,8 +9699,11 @@
       <c r="C687">
         <v>-2.46</v>
       </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D687">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>18428.599999999999</v>
       </c>
@@ -8108,8 +9713,11 @@
       <c r="C688">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D688">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>18612.89</v>
       </c>
@@ -8119,8 +9727,11 @@
       <c r="C689">
         <v>-2.74</v>
       </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D689">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>18799.02</v>
       </c>
@@ -8130,8 +9741,11 @@
       <c r="C690">
         <v>-2.89</v>
       </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D690">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>18987.009999999998</v>
       </c>
@@ -8141,8 +9755,11 @@
       <c r="C691">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D691">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>19176.88</v>
       </c>
@@ -8152,8 +9769,11 @@
       <c r="C692">
         <v>-3.18</v>
       </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D692">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>19368.650000000001</v>
       </c>
@@ -8163,8 +9783,11 @@
       <c r="C693">
         <v>-3.34</v>
       </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D693">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>19562.330000000002</v>
       </c>
@@ -8174,8 +9797,11 @@
       <c r="C694">
         <v>-3.49</v>
       </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D694">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>19757.96</v>
       </c>
@@ -8185,8 +9811,11 @@
       <c r="C695">
         <v>-3.64</v>
       </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D695">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>19955.54</v>
       </c>
@@ -8195,6 +9824,9 @@
       </c>
       <c r="C696">
         <v>-3.8</v>
+      </c>
+      <c r="D696">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/my_results/Pre-Amp Calculator.xlsx
+++ b/my_results/Pre-Amp Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ED97A9-F9E0-4E00-A28A-E78658F55D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A7865-CD2C-48EC-855A-A3E44273A83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="912" windowWidth="17244" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impulse" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>preset max</t>
-  </si>
-  <si>
     <t>eq. 3</t>
   </si>
   <si>
@@ -79,16 +76,19 @@
     <t>pre amp (= output max)</t>
   </si>
   <si>
-    <t>jm1 adjusted</t>
-  </si>
-  <si>
-    <t>jm1</t>
-  </si>
-  <si>
     <t>f \ equalisation</t>
   </si>
   <si>
-    <t>zero</t>
+    <t>jm1 tilt</t>
+  </si>
+  <si>
+    <t>jm1 tilt adjusted</t>
+  </si>
+  <si>
+    <t>jm1 levels</t>
+  </si>
+  <si>
+    <t>manual attenuation</t>
   </si>
 </sst>
 </file>
@@ -448,24 +448,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -474,16 +474,16 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -494,7 +494,10 @@
         <v>-0.33</v>
       </c>
       <c r="C2">
-        <v>0.81</v>
+        <v>-0.25</v>
+      </c>
+      <c r="D2">
+        <v>-1.87</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -515,7 +518,9 @@
         <f>MAX($B$2:$B$696)</f>
         <v>4.3899999999999997</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>J2-K2-H2</f>
         <v>5.0332230215827352</v>
@@ -529,31 +534,36 @@
         <v>-0.36</v>
       </c>
       <c r="C3">
-        <v>0.78</v>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="D3">
+        <v>-1.89</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3">
         <f>SUM(C2:C696)</f>
-        <v>-305.54999999999978</v>
+        <v>-574.53999999999951</v>
       </c>
       <c r="H3">
         <f>AVERAGE(C2:C696)</f>
-        <v>-0.43964028776978387</v>
+        <v>-0.82667625899280506</v>
       </c>
       <c r="I3">
         <f>MIN($C$2:$C$696)</f>
-        <v>-6.73</v>
+        <v>-6.06</v>
       </c>
       <c r="J3">
         <f>MAX($C$2:$C$696)</f>
-        <v>3.78</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>4.46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f>J3-K3-H3</f>
-        <v>4.2196402877697841</v>
+        <v>5.2866762589928049</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -564,31 +574,36 @@
         <v>-0.39</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>-0.31</v>
+      </c>
+      <c r="D4">
+        <v>-1.91</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <f>SUM(D2:D696)</f>
-        <v>-2012.9700000000003</v>
+        <v>-618.24999999999943</v>
       </c>
       <c r="H4">
         <f>AVERAGE(D2:D696)</f>
-        <v>-3.713966789667897</v>
+        <v>-0.88956834532374018</v>
       </c>
       <c r="I4">
         <f>MIN($D$2:$D$696)</f>
-        <v>-15.69</v>
+        <v>-5.78</v>
       </c>
       <c r="J4">
         <f>MAX($D$2:$D$696)</f>
-        <v>6.05</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>5.46</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f>J4-K4-H4</f>
-        <v>9.7639667896678972</v>
+        <v>6.3495683453237399</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -599,7 +614,10 @@
         <v>-0.42</v>
       </c>
       <c r="C5">
-        <v>0.72</v>
+        <v>-0.34</v>
+      </c>
+      <c r="D5">
+        <v>-1.93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -610,7 +628,10 @@
         <v>-0.45</v>
       </c>
       <c r="C6">
-        <v>0.69</v>
+        <v>-0.38</v>
+      </c>
+      <c r="D6">
+        <v>-1.95</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -621,7 +642,10 @@
         <v>-0.48</v>
       </c>
       <c r="C7">
-        <v>0.66</v>
+        <v>-0.41</v>
+      </c>
+      <c r="D7">
+        <v>-1.97</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -632,7 +656,10 @@
         <v>-0.51</v>
       </c>
       <c r="C8">
-        <v>0.63</v>
+        <v>-0.44</v>
+      </c>
+      <c r="D8">
+        <v>-1.99</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -643,7 +670,10 @@
         <v>-0.54</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>-0.46</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -654,7 +684,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="C10">
-        <v>0.56999999999999995</v>
+        <v>-0.49</v>
+      </c>
+      <c r="D10">
+        <v>-2.02</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -665,7 +698,10 @@
         <v>-0.6</v>
       </c>
       <c r="C11">
-        <v>0.54</v>
+        <v>-0.52</v>
+      </c>
+      <c r="D11">
+        <v>-2.04</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -676,7 +712,10 @@
         <v>-0.63</v>
       </c>
       <c r="C12">
-        <v>0.51</v>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>-2.06</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -687,7 +726,10 @@
         <v>-0.66</v>
       </c>
       <c r="C13">
-        <v>0.48</v>
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="D13">
+        <v>-2.0699999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -698,7 +740,10 @@
         <v>-0.69</v>
       </c>
       <c r="C14">
-        <v>0.45</v>
+        <v>-0.61</v>
+      </c>
+      <c r="D14">
+        <v>-2.09</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -709,7 +754,10 @@
         <v>-0.71</v>
       </c>
       <c r="C15">
-        <v>0.42</v>
+        <v>-0.64</v>
+      </c>
+      <c r="D15">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -720,10 +768,13 @@
         <v>-0.74</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.67</v>
+      </c>
+      <c r="D16">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23.22</v>
       </c>
@@ -731,10 +782,13 @@
         <v>-0.77</v>
       </c>
       <c r="C17">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.69</v>
+      </c>
+      <c r="D17">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23.45</v>
       </c>
@@ -742,10 +796,13 @@
         <v>-0.8</v>
       </c>
       <c r="C18">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.72</v>
+      </c>
+      <c r="D18">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23.69</v>
       </c>
@@ -753,10 +810,13 @@
         <v>-0.83</v>
       </c>
       <c r="C19">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.75</v>
+      </c>
+      <c r="D19">
+        <v>-2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23.92</v>
       </c>
@@ -764,10 +824,13 @@
         <v>-0.86</v>
       </c>
       <c r="C20">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.78</v>
+      </c>
+      <c r="D20">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24.16</v>
       </c>
@@ -775,10 +838,13 @@
         <v>-0.88</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.81</v>
+      </c>
+      <c r="D21">
+        <v>-2.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24.4</v>
       </c>
@@ -786,10 +852,13 @@
         <v>-0.91</v>
       </c>
       <c r="C22">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.83</v>
+      </c>
+      <c r="D22">
+        <v>-2.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24.65</v>
       </c>
@@ -797,10 +866,13 @@
         <v>-0.94</v>
       </c>
       <c r="C23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.86</v>
+      </c>
+      <c r="D23">
+        <v>-2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24.89</v>
       </c>
@@ -808,10 +880,13 @@
         <v>-0.96</v>
       </c>
       <c r="C24">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.89</v>
+      </c>
+      <c r="D24">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25.14</v>
       </c>
@@ -819,10 +894,13 @@
         <v>-0.99</v>
       </c>
       <c r="C25">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.91</v>
+      </c>
+      <c r="D25">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25.39</v>
       </c>
@@ -830,10 +908,13 @@
         <v>-1.02</v>
       </c>
       <c r="C26">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.94</v>
+      </c>
+      <c r="D26">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25.65</v>
       </c>
@@ -841,10 +922,13 @@
         <v>-1.05</v>
       </c>
       <c r="C27">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.97</v>
+      </c>
+      <c r="D27">
+        <v>-2.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25.91</v>
       </c>
@@ -852,10 +936,13 @@
         <v>-1.07</v>
       </c>
       <c r="C28">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26.16</v>
       </c>
@@ -863,10 +950,13 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="C29">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.02</v>
+      </c>
+      <c r="D29">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26.43</v>
       </c>
@@ -874,10 +964,13 @@
         <v>-1.1299999999999999</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.05</v>
+      </c>
+      <c r="D30">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26.69</v>
       </c>
@@ -885,10 +978,13 @@
         <v>-1.1499999999999999</v>
       </c>
       <c r="C31">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.07</v>
+      </c>
+      <c r="D31">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26.96</v>
       </c>
@@ -896,10 +992,13 @@
         <v>-1.18</v>
       </c>
       <c r="C32">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D32">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27.23</v>
       </c>
@@ -907,10 +1006,13 @@
         <v>-1.2</v>
       </c>
       <c r="C33">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D33">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>27.5</v>
       </c>
@@ -918,10 +1020,13 @@
         <v>-1.22</v>
       </c>
       <c r="C34">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="D34">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27.77</v>
       </c>
@@ -929,10 +1034,13 @@
         <v>-1.25</v>
       </c>
       <c r="C35">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.17</v>
+      </c>
+      <c r="D35">
+        <v>-2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28.05</v>
       </c>
@@ -940,10 +1048,13 @@
         <v>-1.27</v>
       </c>
       <c r="C36">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.2</v>
+      </c>
+      <c r="D36">
+        <v>-2.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28.33</v>
       </c>
@@ -951,10 +1062,13 @@
         <v>-1.3</v>
       </c>
       <c r="C37">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.22</v>
+      </c>
+      <c r="D37">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>28.62</v>
       </c>
@@ -962,10 +1076,13 @@
         <v>-1.32</v>
       </c>
       <c r="C38">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.25</v>
+      </c>
+      <c r="D38">
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>28.9</v>
       </c>
@@ -973,10 +1090,13 @@
         <v>-1.35</v>
       </c>
       <c r="C39">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.27</v>
+      </c>
+      <c r="D39">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>29.19</v>
       </c>
@@ -984,10 +1104,13 @@
         <v>-1.37</v>
       </c>
       <c r="C40">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.3</v>
+      </c>
+      <c r="D40">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>29.48</v>
       </c>
@@ -995,10 +1118,13 @@
         <v>-1.4</v>
       </c>
       <c r="C41">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.32</v>
+      </c>
+      <c r="D41">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>29.78</v>
       </c>
@@ -1006,10 +1132,13 @@
         <v>-1.42</v>
       </c>
       <c r="C42">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.35</v>
+      </c>
+      <c r="D42">
+        <v>-2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>30.08</v>
       </c>
@@ -1017,10 +1146,13 @@
         <v>-1.45</v>
       </c>
       <c r="C43">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.37</v>
+      </c>
+      <c r="D43">
+        <v>-2.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>30.38</v>
       </c>
@@ -1028,10 +1160,13 @@
         <v>-1.47</v>
       </c>
       <c r="C44">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.39</v>
+      </c>
+      <c r="D44">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>30.68</v>
       </c>
@@ -1039,10 +1174,13 @@
         <v>-1.49</v>
       </c>
       <c r="C45">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.41</v>
+      </c>
+      <c r="D45">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>30.99</v>
       </c>
@@ -1050,10 +1188,13 @@
         <v>-1.51</v>
       </c>
       <c r="C46">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.43</v>
+      </c>
+      <c r="D46">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>31.3</v>
       </c>
@@ -1061,10 +1202,13 @@
         <v>-1.53</v>
       </c>
       <c r="C47">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.45</v>
+      </c>
+      <c r="D47">
+        <v>-2.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>31.61</v>
       </c>
@@ -1072,10 +1216,13 @@
         <v>-1.55</v>
       </c>
       <c r="C48">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.47</v>
+      </c>
+      <c r="D48">
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>31.93</v>
       </c>
@@ -1083,10 +1230,13 @@
         <v>-1.57</v>
       </c>
       <c r="C49">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.49</v>
+      </c>
+      <c r="D49">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>32.24</v>
       </c>
@@ -1094,10 +1244,13 @@
         <v>-1.59</v>
       </c>
       <c r="C50">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.51</v>
+      </c>
+      <c r="D50">
+        <v>-2.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>32.57</v>
       </c>
@@ -1105,10 +1258,13 @@
         <v>-1.61</v>
       </c>
       <c r="C51">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.53</v>
+      </c>
+      <c r="D51">
+        <v>-2.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>32.89</v>
       </c>
@@ -1116,10 +1272,13 @@
         <v>-1.63</v>
       </c>
       <c r="C52">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.56</v>
+      </c>
+      <c r="D52">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>33.22</v>
       </c>
@@ -1127,10 +1286,13 @@
         <v>-1.66</v>
       </c>
       <c r="C53">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.58</v>
+      </c>
+      <c r="D53">
+        <v>-2.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>33.549999999999997</v>
       </c>
@@ -1138,10 +1300,13 @@
         <v>-1.69</v>
       </c>
       <c r="C54">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.61</v>
+      </c>
+      <c r="D54">
+        <v>-2.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>33.89</v>
       </c>
@@ -1149,10 +1314,13 @@
         <v>-1.71</v>
       </c>
       <c r="C55">
-        <v>-0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.64</v>
+      </c>
+      <c r="D55">
+        <v>-2.69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>34.229999999999997</v>
       </c>
@@ -1160,10 +1328,13 @@
         <v>-1.74</v>
       </c>
       <c r="C56">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.66</v>
+      </c>
+      <c r="D56">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>34.57</v>
       </c>
@@ -1171,10 +1342,13 @@
         <v>-1.76</v>
       </c>
       <c r="C57">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.69</v>
+      </c>
+      <c r="D57">
+        <v>-2.72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>34.92</v>
       </c>
@@ -1182,10 +1356,13 @@
         <v>-1.79</v>
       </c>
       <c r="C58">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.71</v>
+      </c>
+      <c r="D58">
+        <v>-2.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>35.270000000000003</v>
       </c>
@@ -1193,10 +1370,13 @@
         <v>-1.81</v>
       </c>
       <c r="C59">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.73</v>
+      </c>
+      <c r="D59">
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>35.619999999999997</v>
       </c>
@@ -1204,10 +1384,13 @@
         <v>-1.83</v>
       </c>
       <c r="C60">
-        <v>-0.69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.75</v>
+      </c>
+      <c r="D60">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>35.97</v>
       </c>
@@ -1215,10 +1398,13 @@
         <v>-1.85</v>
       </c>
       <c r="C61">
-        <v>-0.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.77</v>
+      </c>
+      <c r="D61">
+        <v>-2.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>36.33</v>
       </c>
@@ -1226,10 +1412,13 @@
         <v>-1.86</v>
       </c>
       <c r="C62">
-        <v>-0.73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.79</v>
+      </c>
+      <c r="D62">
+        <v>-2.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>36.700000000000003</v>
       </c>
@@ -1237,10 +1426,13 @@
         <v>-1.88</v>
       </c>
       <c r="C63">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.8</v>
+      </c>
+      <c r="D63">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>37.06</v>
       </c>
@@ -1248,10 +1440,13 @@
         <v>-1.89</v>
       </c>
       <c r="C64">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.82</v>
+      </c>
+      <c r="D64">
+        <v>-2.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>37.43</v>
       </c>
@@ -1259,10 +1454,13 @@
         <v>-1.91</v>
       </c>
       <c r="C65">
-        <v>-0.77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.83</v>
+      </c>
+      <c r="D65">
+        <v>-2.79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>37.81</v>
       </c>
@@ -1270,10 +1468,13 @@
         <v>-1.92</v>
       </c>
       <c r="C66">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.85</v>
+      </c>
+      <c r="D66">
+        <v>-2.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>38.19</v>
       </c>
@@ -1281,10 +1482,13 @@
         <v>-1.93</v>
       </c>
       <c r="C67">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.86</v>
+      </c>
+      <c r="D67">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>38.57</v>
       </c>
@@ -1292,10 +1496,13 @@
         <v>-1.95</v>
       </c>
       <c r="C68">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.87</v>
+      </c>
+      <c r="D68">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>38.950000000000003</v>
       </c>
@@ -1303,10 +1510,13 @@
         <v>-1.96</v>
       </c>
       <c r="C69">
-        <v>-0.82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.88</v>
+      </c>
+      <c r="D69">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>39.340000000000003</v>
       </c>
@@ -1314,10 +1524,13 @@
         <v>-1.97</v>
       </c>
       <c r="C70">
-        <v>-0.83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.9</v>
+      </c>
+      <c r="D70">
+        <v>-2.81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>39.74</v>
       </c>
@@ -1325,10 +1538,13 @@
         <v>-1.98</v>
       </c>
       <c r="C71">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.91</v>
+      </c>
+      <c r="D71">
+        <v>-2.81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>40.14</v>
       </c>
@@ -1336,10 +1552,13 @@
         <v>-2</v>
       </c>
       <c r="C72">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.92</v>
+      </c>
+      <c r="D72">
+        <v>-2.82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>40.54</v>
       </c>
@@ -1347,10 +1566,13 @@
         <v>-2.0099999999999998</v>
       </c>
       <c r="C73">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.94</v>
+      </c>
+      <c r="D73">
+        <v>-2.82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>40.94</v>
       </c>
@@ -1358,10 +1580,13 @@
         <v>-2.0299999999999998</v>
       </c>
       <c r="C74">
-        <v>-0.89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.95</v>
+      </c>
+      <c r="D74">
+        <v>-2.83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>41.35</v>
       </c>
@@ -1369,10 +1594,13 @@
         <v>-2.04</v>
       </c>
       <c r="C75">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.97</v>
+      </c>
+      <c r="D75">
+        <v>-2.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>41.76</v>
       </c>
@@ -1380,10 +1608,13 @@
         <v>-2.06</v>
       </c>
       <c r="C76">
-        <v>-0.92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.98</v>
+      </c>
+      <c r="D76">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>42.18</v>
       </c>
@@ -1391,10 +1622,13 @@
         <v>-2.08</v>
       </c>
       <c r="C77">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2</v>
+      </c>
+      <c r="D77">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>42.6</v>
       </c>
@@ -1402,10 +1636,13 @@
         <v>-2.09</v>
       </c>
       <c r="C78">
-        <v>-0.95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="D78">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>43.03</v>
       </c>
@@ -1413,10 +1650,13 @@
         <v>-2.11</v>
       </c>
       <c r="C79">
-        <v>-0.97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="D79">
+        <v>-2.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>43.46</v>
       </c>
@@ -1424,10 +1664,13 @@
         <v>-2.12</v>
       </c>
       <c r="C80">
-        <v>-0.99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="D80">
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>43.9</v>
       </c>
@@ -1435,10 +1678,13 @@
         <v>-2.14</v>
       </c>
       <c r="C81">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.06</v>
+      </c>
+      <c r="D81">
+        <v>-2.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>44.33</v>
       </c>
@@ -1446,10 +1692,13 @@
         <v>-2.15</v>
       </c>
       <c r="C82">
-        <v>-1.02</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.08</v>
+      </c>
+      <c r="D82">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>44.78</v>
       </c>
@@ -1457,10 +1706,13 @@
         <v>-2.17</v>
       </c>
       <c r="C83">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.09</v>
+      </c>
+      <c r="D83">
+        <v>-2.91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>45.23</v>
       </c>
@@ -1468,10 +1720,13 @@
         <v>-2.19</v>
       </c>
       <c r="C84">
-        <v>-1.05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.11</v>
+      </c>
+      <c r="D84">
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>45.68</v>
       </c>
@@ -1479,10 +1734,13 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="C85">
-        <v>-1.06</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.12</v>
+      </c>
+      <c r="D85">
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>46.13</v>
       </c>
@@ -1490,10 +1748,13 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="C86">
-        <v>-1.08</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.14</v>
+      </c>
+      <c r="D86">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>46.6</v>
       </c>
@@ -1501,10 +1762,13 @@
         <v>-2.23</v>
       </c>
       <c r="C87">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.16</v>
+      </c>
+      <c r="D87">
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>47.06</v>
       </c>
@@ -1512,10 +1776,13 @@
         <v>-2.25</v>
       </c>
       <c r="C88">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.17</v>
+      </c>
+      <c r="D88">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>47.53</v>
       </c>
@@ -1523,10 +1790,13 @@
         <v>-2.2599999999999998</v>
       </c>
       <c r="C89">
-        <v>-1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="D89">
+        <v>-2.96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>48.01</v>
       </c>
@@ -1534,10 +1804,13 @@
         <v>-2.27</v>
       </c>
       <c r="C90">
-        <v>-1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D90">
+        <v>-2.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>48.49</v>
       </c>
@@ -1545,10 +1818,13 @@
         <v>-2.29</v>
       </c>
       <c r="C91">
-        <v>-1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.21</v>
+      </c>
+      <c r="D91">
+        <v>-2.97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>48.97</v>
       </c>
@@ -1556,10 +1832,13 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="C92">
-        <v>-1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="D92">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>49.46</v>
       </c>
@@ -1567,10 +1846,13 @@
         <v>-2.31</v>
       </c>
       <c r="C93">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.23</v>
+      </c>
+      <c r="D93">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>49.96</v>
       </c>
@@ -1578,10 +1860,13 @@
         <v>-2.31</v>
       </c>
       <c r="C94">
-        <v>-1.18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="D94">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>50.46</v>
       </c>
@@ -1589,10 +1874,13 @@
         <v>-2.3199999999999998</v>
       </c>
       <c r="C95">
-        <v>-1.18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="D95">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>50.96</v>
       </c>
@@ -1600,10 +1888,13 @@
         <v>-2.3199999999999998</v>
       </c>
       <c r="C96">
-        <v>-1.18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="D96">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>51.47</v>
       </c>
@@ -1611,10 +1902,13 @@
         <v>-2.33</v>
       </c>
       <c r="C97">
-        <v>-1.19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.25</v>
+      </c>
+      <c r="D97">
+        <v>-2.98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>51.99</v>
       </c>
@@ -1622,10 +1916,13 @@
         <v>-2.33</v>
       </c>
       <c r="C98">
-        <v>-1.19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.25</v>
+      </c>
+      <c r="D98">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>52.51</v>
       </c>
@@ -1633,10 +1930,13 @@
         <v>-2.34</v>
       </c>
       <c r="C99">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="D99">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>53.03</v>
       </c>
@@ -1644,10 +1944,13 @@
         <v>-2.35</v>
       </c>
       <c r="C100">
-        <v>-1.21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.27</v>
+      </c>
+      <c r="D100">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>53.56</v>
       </c>
@@ -1655,10 +1958,13 @@
         <v>-2.36</v>
       </c>
       <c r="C101">
-        <v>-1.22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="D101">
+        <v>-3.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>54.1</v>
       </c>
@@ -1666,10 +1972,13 @@
         <v>-2.38</v>
       </c>
       <c r="C102">
-        <v>-1.24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D102">
+        <v>-3.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>54.64</v>
       </c>
@@ -1677,10 +1986,13 @@
         <v>-2.4</v>
       </c>
       <c r="C103">
-        <v>-1.26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="D103">
+        <v>-3.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>55.18</v>
       </c>
@@ -1688,10 +2000,13 @@
         <v>-2.42</v>
       </c>
       <c r="C104">
-        <v>-1.28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.34</v>
+      </c>
+      <c r="D104">
+        <v>-3.05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>55.74</v>
       </c>
@@ -1699,10 +2014,13 @@
         <v>-2.44</v>
       </c>
       <c r="C105">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.36</v>
+      </c>
+      <c r="D105">
+        <v>-3.07</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>56.29</v>
       </c>
@@ -1710,10 +2028,13 @@
         <v>-2.4500000000000002</v>
       </c>
       <c r="C106">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.38</v>
+      </c>
+      <c r="D106">
+        <v>-3.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>56.86</v>
       </c>
@@ -1721,10 +2042,13 @@
         <v>-2.4700000000000002</v>
       </c>
       <c r="C107">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.39</v>
+      </c>
+      <c r="D107">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>57.42</v>
       </c>
@@ -1732,10 +2056,13 @@
         <v>-2.4900000000000002</v>
       </c>
       <c r="C108">
-        <v>-1.35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.41</v>
+      </c>
+      <c r="D108">
+        <v>-3.12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>58</v>
       </c>
@@ -1743,10 +2070,13 @@
         <v>-2.5</v>
       </c>
       <c r="C109">
-        <v>-1.36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.42</v>
+      </c>
+      <c r="D109">
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>58.58</v>
       </c>
@@ -1754,10 +2084,13 @@
         <v>-2.5099999999999998</v>
       </c>
       <c r="C110">
-        <v>-1.37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="D110">
+        <v>-3.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>59.16</v>
       </c>
@@ -1765,10 +2098,13 @@
         <v>-2.52</v>
       </c>
       <c r="C111">
-        <v>-1.38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.44</v>
+      </c>
+      <c r="D111">
+        <v>-3.15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>59.76</v>
       </c>
@@ -1776,10 +2112,13 @@
         <v>-2.5299999999999998</v>
       </c>
       <c r="C112">
-        <v>-1.39</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="D112">
+        <v>-3.16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>60.35</v>
       </c>
@@ -1787,10 +2126,13 @@
         <v>-2.54</v>
       </c>
       <c r="C113">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.46</v>
+      </c>
+      <c r="D113">
+        <v>-3.17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>60.96</v>
       </c>
@@ -1798,10 +2140,13 @@
         <v>-2.5499999999999998</v>
       </c>
       <c r="C114">
-        <v>-1.41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="D114">
+        <v>-3.18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>61.57</v>
       </c>
@@ -1809,10 +2154,13 @@
         <v>-2.56</v>
       </c>
       <c r="C115">
-        <v>-1.42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.48</v>
+      </c>
+      <c r="D115">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>62.18</v>
       </c>
@@ -1820,10 +2168,13 @@
         <v>-2.58</v>
       </c>
       <c r="C116">
-        <v>-1.44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+      <c r="D116">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>62.8</v>
       </c>
@@ -1831,10 +2182,13 @@
         <v>-2.59</v>
       </c>
       <c r="C117">
-        <v>-1.45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="D117">
+        <v>-3.22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>63.43</v>
       </c>
@@ -1842,10 +2196,13 @@
         <v>-2.61</v>
       </c>
       <c r="C118">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="D118">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>64.069999999999993</v>
       </c>
@@ -1853,10 +2210,13 @@
         <v>-2.62</v>
       </c>
       <c r="C119">
-        <v>-1.49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.54</v>
+      </c>
+      <c r="D119">
+        <v>-3.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>64.709999999999994</v>
       </c>
@@ -1864,10 +2224,13 @@
         <v>-2.64</v>
       </c>
       <c r="C120">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.56</v>
+      </c>
+      <c r="D120">
+        <v>-3.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>65.349999999999994</v>
       </c>
@@ -1875,10 +2238,13 @@
         <v>-2.66</v>
       </c>
       <c r="C121">
-        <v>-1.52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.58</v>
+      </c>
+      <c r="D121">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>66.010000000000005</v>
       </c>
@@ -1886,10 +2252,13 @@
         <v>-2.67</v>
       </c>
       <c r="C122">
-        <v>-1.54</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.6</v>
+      </c>
+      <c r="D122">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>66.67</v>
       </c>
@@ -1897,10 +2266,13 @@
         <v>-2.69</v>
       </c>
       <c r="C123">
-        <v>-1.56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.62</v>
+      </c>
+      <c r="D123">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>67.33</v>
       </c>
@@ -1908,10 +2280,13 @@
         <v>-2.71</v>
       </c>
       <c r="C124">
-        <v>-1.58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.64</v>
+      </c>
+      <c r="D124">
+        <v>-3.37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>68.010000000000005</v>
       </c>
@@ -1919,10 +2294,13 @@
         <v>-2.74</v>
       </c>
       <c r="C125">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.66</v>
+      </c>
+      <c r="D125">
+        <v>-3.39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>68.69</v>
       </c>
@@ -1930,10 +2308,13 @@
         <v>-2.76</v>
       </c>
       <c r="C126">
-        <v>-1.62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.68</v>
+      </c>
+      <c r="D126">
+        <v>-3.42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>69.37</v>
       </c>
@@ -1941,10 +2322,13 @@
         <v>-2.78</v>
       </c>
       <c r="C127">
-        <v>-1.65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.7</v>
+      </c>
+      <c r="D127">
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>70.069999999999993</v>
       </c>
@@ -1952,10 +2336,13 @@
         <v>-2.8</v>
       </c>
       <c r="C128">
-        <v>-1.67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.73</v>
+      </c>
+      <c r="D128">
+        <v>-3.48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>70.77</v>
       </c>
@@ -1963,10 +2350,13 @@
         <v>-2.83</v>
       </c>
       <c r="C129">
-        <v>-1.69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.75</v>
+      </c>
+      <c r="D129">
+        <v>-3.51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>71.48</v>
       </c>
@@ -1974,10 +2364,13 @@
         <v>-2.85</v>
       </c>
       <c r="C130">
-        <v>-1.72</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.77</v>
+      </c>
+      <c r="D130">
+        <v>-3.54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>72.19</v>
       </c>
@@ -1985,10 +2378,13 @@
         <v>-2.88</v>
       </c>
       <c r="C131">
-        <v>-1.74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.8</v>
+      </c>
+      <c r="D131">
+        <v>-3.57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>72.91</v>
       </c>
@@ -1996,10 +2392,13 @@
         <v>-2.9</v>
       </c>
       <c r="C132">
-        <v>-1.76</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.82</v>
+      </c>
+      <c r="D132">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>73.64</v>
       </c>
@@ -2007,10 +2406,13 @@
         <v>-2.92</v>
       </c>
       <c r="C133">
-        <v>-1.79</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.85</v>
+      </c>
+      <c r="D133">
+        <v>-3.63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>74.38</v>
       </c>
@@ -2018,10 +2420,13 @@
         <v>-2.95</v>
       </c>
       <c r="C134">
-        <v>-1.81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.87</v>
+      </c>
+      <c r="D134">
+        <v>-3.66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>75.12</v>
       </c>
@@ -2029,10 +2434,13 @@
         <v>-2.97</v>
       </c>
       <c r="C135">
-        <v>-1.84</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.9</v>
+      </c>
+      <c r="D135">
+        <v>-3.69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>75.87</v>
       </c>
@@ -2040,10 +2448,13 @@
         <v>-3</v>
       </c>
       <c r="C136">
-        <v>-1.86</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.92</v>
+      </c>
+      <c r="D136">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>76.63</v>
       </c>
@@ -2051,10 +2462,13 @@
         <v>-3.02</v>
       </c>
       <c r="C137">
-        <v>-1.89</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.94</v>
+      </c>
+      <c r="D137">
+        <v>-3.76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>77.400000000000006</v>
       </c>
@@ -2062,10 +2476,13 @@
         <v>-3.05</v>
       </c>
       <c r="C138">
-        <v>-1.91</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.97</v>
+      </c>
+      <c r="D138">
+        <v>-3.79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>78.17</v>
       </c>
@@ -2073,10 +2490,13 @@
         <v>-3.07</v>
       </c>
       <c r="C139">
-        <v>-1.94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+      <c r="D139">
+        <v>-3.83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>78.95</v>
       </c>
@@ -2084,10 +2504,13 @@
         <v>-3.1</v>
       </c>
       <c r="C140">
-        <v>-1.96</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.02</v>
+      </c>
+      <c r="D140">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>79.739999999999995</v>
       </c>
@@ -2095,10 +2518,13 @@
         <v>-3.13</v>
       </c>
       <c r="C141">
-        <v>-1.99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.05</v>
+      </c>
+      <c r="D141">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>80.540000000000006</v>
       </c>
@@ -2106,10 +2532,13 @@
         <v>-3.15</v>
       </c>
       <c r="C142">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.07</v>
+      </c>
+      <c r="D142">
+        <v>-3.93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>81.349999999999994</v>
       </c>
@@ -2117,10 +2546,13 @@
         <v>-3.18</v>
       </c>
       <c r="C143">
-        <v>-2.04</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.1</v>
+      </c>
+      <c r="D143">
+        <v>-3.97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>82.16</v>
       </c>
@@ -2128,7 +2560,10 @@
         <v>-3.2</v>
       </c>
       <c r="C144">
-        <v>-2.0699999999999998</v>
+        <v>-3.13</v>
+      </c>
+      <c r="D144">
+        <v>-4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2139,7 +2574,10 @@
         <v>-3.23</v>
       </c>
       <c r="C145">
-        <v>-2.09</v>
+        <v>-3.15</v>
+      </c>
+      <c r="D145">
+        <v>-4.04</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,7 +2588,10 @@
         <v>-3.25</v>
       </c>
       <c r="C146">
-        <v>-2.12</v>
+        <v>-3.18</v>
+      </c>
+      <c r="D146">
+        <v>-4.08</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,7 +2602,10 @@
         <v>-3.28</v>
       </c>
       <c r="C147">
-        <v>-2.14</v>
+        <v>-3.2</v>
+      </c>
+      <c r="D147">
+        <v>-4.1100000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2172,7 +2616,10 @@
         <v>-3.3</v>
       </c>
       <c r="C148">
-        <v>-2.16</v>
+        <v>-3.22</v>
+      </c>
+      <c r="D148">
+        <v>-4.1500000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2183,7 +2630,10 @@
         <v>-3.32</v>
       </c>
       <c r="C149">
-        <v>-2.1800000000000002</v>
+        <v>-3.24</v>
+      </c>
+      <c r="D149">
+        <v>-4.18</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2194,7 +2644,10 @@
         <v>-3.34</v>
       </c>
       <c r="C150">
-        <v>-2.21</v>
+        <v>-3.26</v>
+      </c>
+      <c r="D150">
+        <v>-4.21</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,7 +2658,10 @@
         <v>-3.36</v>
       </c>
       <c r="C151">
-        <v>-2.23</v>
+        <v>-3.29</v>
+      </c>
+      <c r="D151">
+        <v>-4.25</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2216,7 +2672,10 @@
         <v>-3.39</v>
       </c>
       <c r="C152">
-        <v>-2.25</v>
+        <v>-3.31</v>
+      </c>
+      <c r="D152">
+        <v>-4.28</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2227,7 +2686,10 @@
         <v>-3.41</v>
       </c>
       <c r="C153">
-        <v>-2.27</v>
+        <v>-3.33</v>
+      </c>
+      <c r="D153">
+        <v>-4.32</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,7 +2700,10 @@
         <v>-3.43</v>
       </c>
       <c r="C154">
-        <v>-2.2999999999999998</v>
+        <v>-3.36</v>
+      </c>
+      <c r="D154">
+        <v>-4.3499999999999996</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2249,10 +2714,10 @@
         <v>-3.46</v>
       </c>
       <c r="C155">
-        <v>-2.3199999999999998</v>
+        <v>-3.38</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>-4.3899999999999997</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,10 +2728,10 @@
         <v>-3.48</v>
       </c>
       <c r="C156">
-        <v>-2.35</v>
+        <v>-3.41</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2277,10 +2742,10 @@
         <v>-3.51</v>
       </c>
       <c r="C157">
-        <v>-2.37</v>
+        <v>-3.43</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2291,10 +2756,10 @@
         <v>-3.53</v>
       </c>
       <c r="C158">
-        <v>-2.4</v>
+        <v>-3.46</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -2305,10 +2770,10 @@
         <v>-3.56</v>
       </c>
       <c r="C159">
-        <v>-2.42</v>
+        <v>-3.48</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,10 +2784,10 @@
         <v>-3.58</v>
       </c>
       <c r="C160">
-        <v>-2.44</v>
+        <v>-3.5</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -2333,10 +2798,10 @@
         <v>-3.6</v>
       </c>
       <c r="C161">
-        <v>-2.4700000000000002</v>
+        <v>-3.52</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>-4.6100000000000003</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -2347,10 +2812,10 @@
         <v>-3.62</v>
       </c>
       <c r="C162">
-        <v>-2.4900000000000002</v>
+        <v>-3.54</v>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>-4.6500000000000004</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -2361,10 +2826,10 @@
         <v>-3.64</v>
       </c>
       <c r="C163">
-        <v>-2.5099999999999998</v>
+        <v>-3.57</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>-4.6900000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -2375,10 +2840,10 @@
         <v>-3.67</v>
       </c>
       <c r="C164">
-        <v>-2.54</v>
+        <v>-3.59</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -2389,10 +2854,10 @@
         <v>-3.69</v>
       </c>
       <c r="C165">
-        <v>-2.56</v>
+        <v>-3.62</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -2403,10 +2868,10 @@
         <v>-3.72</v>
       </c>
       <c r="C166">
-        <v>-2.59</v>
+        <v>-3.64</v>
       </c>
       <c r="D166">
-        <v>6</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -2417,10 +2882,10 @@
         <v>-3.74</v>
       </c>
       <c r="C167">
-        <v>-2.61</v>
+        <v>-3.67</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,10 +2896,10 @@
         <v>-3.77</v>
       </c>
       <c r="C168">
-        <v>-2.64</v>
+        <v>-3.69</v>
       </c>
       <c r="D168">
-        <v>6</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -2445,10 +2910,10 @@
         <v>-3.79</v>
       </c>
       <c r="C169">
-        <v>-2.66</v>
+        <v>-3.72</v>
       </c>
       <c r="D169">
-        <v>6</v>
+        <v>-4.92</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -2459,10 +2924,10 @@
         <v>-3.82</v>
       </c>
       <c r="C170">
-        <v>-2.69</v>
+        <v>-3.74</v>
       </c>
       <c r="D170">
-        <v>6</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -2473,10 +2938,10 @@
         <v>-3.84</v>
       </c>
       <c r="C171">
-        <v>-2.71</v>
+        <v>-3.77</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,10 +2952,10 @@
         <v>-3.87</v>
       </c>
       <c r="C172">
-        <v>-2.74</v>
+        <v>-3.79</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -2501,10 +2966,10 @@
         <v>-3.89</v>
       </c>
       <c r="C173">
-        <v>-2.76</v>
+        <v>-3.81</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -2515,10 +2980,10 @@
         <v>-3.91</v>
       </c>
       <c r="C174">
-        <v>-2.78</v>
+        <v>-3.84</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>-5.1100000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -2529,10 +2994,10 @@
         <v>-3.94</v>
       </c>
       <c r="C175">
-        <v>-2.8</v>
+        <v>-3.86</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -2543,10 +3008,10 @@
         <v>-3.96</v>
       </c>
       <c r="C176">
-        <v>-2.83</v>
+        <v>-3.88</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2557,10 +3022,10 @@
         <v>-3.98</v>
       </c>
       <c r="C177">
-        <v>-2.85</v>
+        <v>-3.9</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -2571,10 +3036,10 @@
         <v>-4</v>
       </c>
       <c r="C178">
-        <v>-2.87</v>
+        <v>-3.92</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -2585,10 +3050,10 @@
         <v>-4.0199999999999996</v>
       </c>
       <c r="C179">
-        <v>-2.89</v>
+        <v>-3.94</v>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -2599,10 +3064,10 @@
         <v>-4.04</v>
       </c>
       <c r="C180">
-        <v>-2.91</v>
+        <v>-3.96</v>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -2613,10 +3078,10 @@
         <v>-4.0599999999999996</v>
       </c>
       <c r="C181">
-        <v>-2.93</v>
+        <v>-3.98</v>
       </c>
       <c r="D181">
-        <v>6</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -2627,10 +3092,10 @@
         <v>-4.07</v>
       </c>
       <c r="C182">
-        <v>-2.94</v>
+        <v>-4</v>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -2641,10 +3106,10 @@
         <v>-4.09</v>
       </c>
       <c r="C183">
-        <v>-2.96</v>
+        <v>-4.01</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -2655,10 +3120,10 @@
         <v>-4.1100000000000003</v>
       </c>
       <c r="C184">
-        <v>-2.98</v>
+        <v>-4.03</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>-5.44</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,10 +3134,10 @@
         <v>-4.12</v>
       </c>
       <c r="C185">
-        <v>-2.99</v>
+        <v>-4.04</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -2683,10 +3148,10 @@
         <v>-4.13</v>
       </c>
       <c r="C186">
-        <v>-3.01</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -2697,10 +3162,10 @@
         <v>-4.1500000000000004</v>
       </c>
       <c r="C187">
-        <v>-3.02</v>
+        <v>-4.07</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,10 +3176,10 @@
         <v>-4.16</v>
       </c>
       <c r="C188">
-        <v>-3.03</v>
+        <v>-4.08</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -2725,10 +3190,10 @@
         <v>-4.17</v>
       </c>
       <c r="C189">
-        <v>-3.04</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -2739,10 +3204,10 @@
         <v>-4.18</v>
       </c>
       <c r="C190">
-        <v>-3.06</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -2753,10 +3218,10 @@
         <v>-4.1900000000000004</v>
       </c>
       <c r="C191">
-        <v>-3.07</v>
+        <v>-4.12</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -2767,10 +3232,10 @@
         <v>-4.2</v>
       </c>
       <c r="C192">
-        <v>-3.08</v>
+        <v>-4.13</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -2781,10 +3246,10 @@
         <v>-4.21</v>
       </c>
       <c r="C193">
-        <v>-3.09</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -2795,10 +3260,10 @@
         <v>-4.22</v>
       </c>
       <c r="C194">
-        <v>-3.1</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -2809,10 +3274,10 @@
         <v>-4.2300000000000004</v>
       </c>
       <c r="C195">
-        <v>-3.1</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="D195">
-        <v>6</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -2823,10 +3288,10 @@
         <v>-4.2300000000000004</v>
       </c>
       <c r="C196">
-        <v>-3.11</v>
+        <v>-4.16</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -2837,10 +3302,10 @@
         <v>-4.24</v>
       </c>
       <c r="C197">
-        <v>-3.12</v>
+        <v>-4.16</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -2851,10 +3316,10 @@
         <v>-4.24</v>
       </c>
       <c r="C198">
-        <v>-3.12</v>
+        <v>-4.17</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -2865,10 +3330,10 @@
         <v>-4.24</v>
       </c>
       <c r="C199">
-        <v>-3.12</v>
+        <v>-4.17</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -2879,10 +3344,10 @@
         <v>-4.24</v>
       </c>
       <c r="C200">
-        <v>-3.12</v>
+        <v>-4.17</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -2893,10 +3358,10 @@
         <v>-4.24</v>
       </c>
       <c r="C201">
-        <v>-3.12</v>
+        <v>-4.17</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -2907,10 +3372,10 @@
         <v>-4.24</v>
       </c>
       <c r="C202">
-        <v>-3.12</v>
+        <v>-4.17</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -2921,10 +3386,10 @@
         <v>-4.24</v>
       </c>
       <c r="C203">
-        <v>-3.12</v>
+        <v>-4.16</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -2935,10 +3400,10 @@
         <v>-4.24</v>
       </c>
       <c r="C204">
-        <v>-3.12</v>
+        <v>-4.16</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -2949,10 +3414,10 @@
         <v>-4.2300000000000004</v>
       </c>
       <c r="C205">
-        <v>-3.11</v>
+        <v>-4.16</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -2963,10 +3428,10 @@
         <v>-4.2300000000000004</v>
       </c>
       <c r="C206">
-        <v>-3.11</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -2977,10 +3442,10 @@
         <v>-4.22</v>
       </c>
       <c r="C207">
-        <v>-3.1</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -2991,10 +3456,10 @@
         <v>-4.21</v>
       </c>
       <c r="C208">
-        <v>-3.09</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>-5.78</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -3005,10 +3470,10 @@
         <v>-4.2</v>
       </c>
       <c r="C209">
-        <v>-3.09</v>
+        <v>-4.13</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3019,10 +3484,10 @@
         <v>-4.1900000000000004</v>
       </c>
       <c r="C210">
-        <v>-3.07</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,10 +3498,10 @@
         <v>-4.18</v>
       </c>
       <c r="C211">
-        <v>-3.06</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3047,10 +3512,10 @@
         <v>-4.17</v>
       </c>
       <c r="C212">
-        <v>-3.05</v>
+        <v>-4.09</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,10 +3526,10 @@
         <v>-4.1500000000000004</v>
       </c>
       <c r="C213">
-        <v>-3.04</v>
+        <v>-4.07</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -3075,10 +3540,10 @@
         <v>-4.13</v>
       </c>
       <c r="C214">
-        <v>-3.02</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,10 +3554,10 @@
         <v>-4.1100000000000003</v>
       </c>
       <c r="C215">
-        <v>-3</v>
+        <v>-4.04</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,10 +3568,10 @@
         <v>-4.09</v>
       </c>
       <c r="C216">
-        <v>-2.98</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -3117,10 +3582,10 @@
         <v>-4.07</v>
       </c>
       <c r="C217">
-        <v>-2.96</v>
+        <v>-4</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,10 +3596,10 @@
         <v>-4.05</v>
       </c>
       <c r="C218">
-        <v>-2.95</v>
+        <v>-3.98</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,10 +3610,10 @@
         <v>-4.03</v>
       </c>
       <c r="C219">
-        <v>-2.92</v>
+        <v>-3.96</v>
       </c>
       <c r="D219">
-        <v>6.01</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,10 +3624,10 @@
         <v>-4.01</v>
       </c>
       <c r="C220">
-        <v>-2.9</v>
+        <v>-3.93</v>
       </c>
       <c r="D220">
-        <v>6.03</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -3173,10 +3638,10 @@
         <v>-3.98</v>
       </c>
       <c r="C221">
-        <v>-2.88</v>
+        <v>-3.91</v>
       </c>
       <c r="D221">
-        <v>6.05</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -3187,10 +3652,10 @@
         <v>-3.95</v>
       </c>
       <c r="C222">
-        <v>-2.85</v>
+        <v>-3.88</v>
       </c>
       <c r="D222">
-        <v>6.05</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -3201,10 +3666,10 @@
         <v>-3.93</v>
       </c>
       <c r="C223">
-        <v>-2.82</v>
+        <v>-3.85</v>
       </c>
       <c r="D223">
-        <v>6.02</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3215,10 +3680,10 @@
         <v>-3.9</v>
       </c>
       <c r="C224">
-        <v>-2.79</v>
+        <v>-3.82</v>
       </c>
       <c r="D224">
-        <v>5.97</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,10 +3694,10 @@
         <v>-3.87</v>
       </c>
       <c r="C225">
-        <v>-2.77</v>
+        <v>-3.79</v>
       </c>
       <c r="D225">
-        <v>5.87</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -3243,10 +3708,10 @@
         <v>-3.84</v>
       </c>
       <c r="C226">
-        <v>-2.74</v>
+        <v>-3.76</v>
       </c>
       <c r="D226">
-        <v>5.74</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -3257,10 +3722,10 @@
         <v>-3.81</v>
       </c>
       <c r="C227">
-        <v>-2.71</v>
+        <v>-3.73</v>
       </c>
       <c r="D227">
-        <v>5.57</v>
+        <v>-5.42</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,10 +3736,10 @@
         <v>-3.78</v>
       </c>
       <c r="C228">
-        <v>-2.68</v>
+        <v>-3.7</v>
       </c>
       <c r="D228">
-        <v>5.37</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,10 +3750,10 @@
         <v>-3.74</v>
       </c>
       <c r="C229">
-        <v>-2.65</v>
+        <v>-3.67</v>
       </c>
       <c r="D229">
-        <v>5.13</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,10 +3764,10 @@
         <v>-3.71</v>
       </c>
       <c r="C230">
-        <v>-2.62</v>
+        <v>-3.63</v>
       </c>
       <c r="D230">
-        <v>4.87</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,10 +3778,10 @@
         <v>-3.68</v>
       </c>
       <c r="C231">
-        <v>-2.58</v>
+        <v>-3.6</v>
       </c>
       <c r="D231">
-        <v>4.59</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -3327,10 +3792,10 @@
         <v>-3.64</v>
       </c>
       <c r="C232">
-        <v>-2.5499999999999998</v>
+        <v>-3.57</v>
       </c>
       <c r="D232">
-        <v>4.32</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,10 +3806,10 @@
         <v>-3.6</v>
       </c>
       <c r="C233">
-        <v>-2.52</v>
+        <v>-3.53</v>
       </c>
       <c r="D233">
-        <v>4.05</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,10 +3820,10 @@
         <v>-3.57</v>
       </c>
       <c r="C234">
-        <v>-2.48</v>
+        <v>-3.49</v>
       </c>
       <c r="D234">
-        <v>3.79</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -3369,10 +3834,10 @@
         <v>-3.53</v>
       </c>
       <c r="C235">
-        <v>-2.44</v>
+        <v>-3.45</v>
       </c>
       <c r="D235">
-        <v>3.53</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -3383,10 +3848,10 @@
         <v>-3.49</v>
       </c>
       <c r="C236">
-        <v>-2.41</v>
+        <v>-3.41</v>
       </c>
       <c r="D236">
-        <v>3.27</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -3397,10 +3862,10 @@
         <v>-3.45</v>
       </c>
       <c r="C237">
-        <v>-2.37</v>
+        <v>-3.37</v>
       </c>
       <c r="D237">
-        <v>3.02</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -3411,10 +3876,10 @@
         <v>-3.41</v>
       </c>
       <c r="C238">
-        <v>-2.33</v>
+        <v>-3.33</v>
       </c>
       <c r="D238">
-        <v>2.75</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,10 +3890,10 @@
         <v>-3.37</v>
       </c>
       <c r="C239">
-        <v>-2.29</v>
+        <v>-3.29</v>
       </c>
       <c r="D239">
-        <v>2.4500000000000002</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,10 +3904,10 @@
         <v>-3.33</v>
       </c>
       <c r="C240">
-        <v>-2.25</v>
+        <v>-3.25</v>
       </c>
       <c r="D240">
-        <v>2.15</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -3453,10 +3918,10 @@
         <v>-3.29</v>
       </c>
       <c r="C241">
-        <v>-2.2200000000000002</v>
+        <v>-3.21</v>
       </c>
       <c r="D241">
-        <v>1.9</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -3467,10 +3932,10 @@
         <v>-3.25</v>
       </c>
       <c r="C242">
-        <v>-2.1800000000000002</v>
+        <v>-3.17</v>
       </c>
       <c r="D242">
-        <v>1.72</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -3481,10 +3946,10 @@
         <v>-3.21</v>
       </c>
       <c r="C243">
-        <v>-2.14</v>
+        <v>-3.13</v>
       </c>
       <c r="D243">
-        <v>1.59</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -3495,10 +3960,10 @@
         <v>-3.16</v>
       </c>
       <c r="C244">
-        <v>-2.1</v>
+        <v>-3.09</v>
       </c>
       <c r="D244">
-        <v>1.53</v>
+        <v>-4.7300000000000004</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -3509,10 +3974,10 @@
         <v>-3.12</v>
       </c>
       <c r="C245">
-        <v>-2.06</v>
+        <v>-3.04</v>
       </c>
       <c r="D245">
-        <v>1.46</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -3523,10 +3988,10 @@
         <v>-3.08</v>
       </c>
       <c r="C246">
-        <v>-2.02</v>
+        <v>-3</v>
       </c>
       <c r="D246">
-        <v>1.36</v>
+        <v>-4.6399999999999997</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -3537,10 +4002,10 @@
         <v>-3.04</v>
       </c>
       <c r="C247">
-        <v>-1.98</v>
+        <v>-2.96</v>
       </c>
       <c r="D247">
-        <v>1.25</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -3551,10 +4016,10 @@
         <v>-3</v>
       </c>
       <c r="C248">
-        <v>-1.95</v>
+        <v>-2.92</v>
       </c>
       <c r="D248">
-        <v>1.1599999999999999</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -3565,10 +4030,10 @@
         <v>-2.96</v>
       </c>
       <c r="C249">
-        <v>-1.91</v>
+        <v>-2.88</v>
       </c>
       <c r="D249">
-        <v>1.07</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -3579,10 +4044,10 @@
         <v>-2.92</v>
       </c>
       <c r="C250">
-        <v>-1.87</v>
+        <v>-2.84</v>
       </c>
       <c r="D250">
-        <v>1.01</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -3593,10 +4058,10 @@
         <v>-2.88</v>
       </c>
       <c r="C251">
-        <v>-1.83</v>
+        <v>-2.8</v>
       </c>
       <c r="D251">
-        <v>0.96</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -3607,10 +4072,10 @@
         <v>-2.84</v>
       </c>
       <c r="C252">
-        <v>-1.8</v>
+        <v>-2.76</v>
       </c>
       <c r="D252">
-        <v>0.93</v>
+        <v>-4.3600000000000003</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -3621,10 +4086,10 @@
         <v>-2.79</v>
       </c>
       <c r="C253">
-        <v>-1.75</v>
+        <v>-2.72</v>
       </c>
       <c r="D253">
-        <v>0.94</v>
+        <v>-4.3099999999999996</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,10 +4100,10 @@
         <v>-2.75</v>
       </c>
       <c r="C254">
-        <v>-1.71</v>
+        <v>-2.67</v>
       </c>
       <c r="D254">
-        <v>1.05</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -3649,10 +4114,10 @@
         <v>-2.7</v>
       </c>
       <c r="C255">
-        <v>-1.67</v>
+        <v>-2.62</v>
       </c>
       <c r="D255">
-        <v>1.24</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -3663,10 +4128,10 @@
         <v>-2.65</v>
       </c>
       <c r="C256">
-        <v>-1.62</v>
+        <v>-2.57</v>
       </c>
       <c r="D256">
-        <v>1.49</v>
+        <v>-4.1399999999999997</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -3677,10 +4142,10 @@
         <v>-2.6</v>
       </c>
       <c r="C257">
-        <v>-1.57</v>
+        <v>-2.52</v>
       </c>
       <c r="D257">
-        <v>1.74</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -3691,10 +4156,10 @@
         <v>-2.54</v>
       </c>
       <c r="C258">
-        <v>-1.53</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="D258">
-        <v>1.95</v>
+        <v>-4.0199999999999996</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -3705,10 +4170,10 @@
         <v>-2.4900000000000002</v>
       </c>
       <c r="C259">
-        <v>-1.48</v>
+        <v>-2.41</v>
       </c>
       <c r="D259">
-        <v>2.04</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,10 +4184,10 @@
         <v>-2.44</v>
       </c>
       <c r="C260">
-        <v>-1.43</v>
+        <v>-2.36</v>
       </c>
       <c r="D260">
-        <v>2.04</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -3733,10 +4198,10 @@
         <v>-2.38</v>
       </c>
       <c r="C261">
-        <v>-1.38</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D261">
-        <v>1.96</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -3747,10 +4212,10 @@
         <v>-2.3199999999999998</v>
       </c>
       <c r="C262">
-        <v>-1.32</v>
+        <v>-2.25</v>
       </c>
       <c r="D262">
-        <v>1.83</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,10 +4226,10 @@
         <v>-2.27</v>
       </c>
       <c r="C263">
-        <v>-1.27</v>
+        <v>-2.19</v>
       </c>
       <c r="D263">
-        <v>1.62</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -3775,10 +4240,10 @@
         <v>-2.21</v>
       </c>
       <c r="C264">
-        <v>-1.22</v>
+        <v>-2.13</v>
       </c>
       <c r="D264">
-        <v>1.35</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -3789,10 +4254,10 @@
         <v>-2.15</v>
       </c>
       <c r="C265">
-        <v>-1.17</v>
+        <v>-2.08</v>
       </c>
       <c r="D265">
-        <v>1.03</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -3803,10 +4268,10 @@
         <v>-2.09</v>
       </c>
       <c r="C266">
-        <v>-1.1100000000000001</v>
+        <v>-2.02</v>
       </c>
       <c r="D266">
-        <v>0.69</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -3817,10 +4282,10 @@
         <v>-2.04</v>
       </c>
       <c r="C267">
-        <v>-1.06</v>
+        <v>-1.96</v>
       </c>
       <c r="D267">
-        <v>0.38</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -3831,10 +4296,10 @@
         <v>-1.98</v>
       </c>
       <c r="C268">
-        <v>-1.01</v>
+        <v>-1.9</v>
       </c>
       <c r="D268">
-        <v>7.0000000000000007E-2</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -3845,10 +4310,10 @@
         <v>-1.92</v>
       </c>
       <c r="C269">
-        <v>-0.96</v>
+        <v>-1.84</v>
       </c>
       <c r="D269">
-        <v>-0.25</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -3859,10 +4324,10 @@
         <v>-1.86</v>
       </c>
       <c r="C270">
-        <v>-0.9</v>
+        <v>-1.78</v>
       </c>
       <c r="D270">
-        <v>-0.57999999999999996</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -3873,10 +4338,10 @@
         <v>-1.8</v>
       </c>
       <c r="C271">
-        <v>-0.85</v>
+        <v>-1.72</v>
       </c>
       <c r="D271">
-        <v>-0.9</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -3887,10 +4352,10 @@
         <v>-1.74</v>
       </c>
       <c r="C272">
-        <v>-0.8</v>
+        <v>-1.66</v>
       </c>
       <c r="D272">
-        <v>-1.19</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -3901,10 +4366,10 @@
         <v>-1.68</v>
       </c>
       <c r="C273">
-        <v>-0.74</v>
+        <v>-1.6</v>
       </c>
       <c r="D273">
-        <v>-1.41</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,10 +4380,10 @@
         <v>-1.62</v>
       </c>
       <c r="C274">
-        <v>-0.69</v>
+        <v>-1.54</v>
       </c>
       <c r="D274">
-        <v>-1.56</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -3929,10 +4394,10 @@
         <v>-1.56</v>
       </c>
       <c r="C275">
-        <v>-0.64</v>
+        <v>-1.48</v>
       </c>
       <c r="D275">
-        <v>-1.63</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -3943,10 +4408,10 @@
         <v>-1.5</v>
       </c>
       <c r="C276">
-        <v>-0.57999999999999996</v>
+        <v>-1.42</v>
       </c>
       <c r="D276">
-        <v>-1.57</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -3957,10 +4422,10 @@
         <v>-1.44</v>
       </c>
       <c r="C277">
-        <v>-0.53</v>
+        <v>-1.36</v>
       </c>
       <c r="D277">
-        <v>-1.45</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,10 +4436,10 @@
         <v>-1.38</v>
       </c>
       <c r="C278">
-        <v>-0.48</v>
+        <v>-1.3</v>
       </c>
       <c r="D278">
-        <v>-1.26</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -3985,10 +4450,10 @@
         <v>-1.32</v>
       </c>
       <c r="C279">
-        <v>-0.43</v>
+        <v>-1.24</v>
       </c>
       <c r="D279">
-        <v>-1.05</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -3999,10 +4464,10 @@
         <v>-1.26</v>
       </c>
       <c r="C280">
-        <v>-0.38</v>
+        <v>-1.19</v>
       </c>
       <c r="D280">
-        <v>-0.85</v>
+        <v>-2.5499999999999998</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -4013,10 +4478,10 @@
         <v>-1.2</v>
       </c>
       <c r="C281">
-        <v>-0.33</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D281">
-        <v>-0.67</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -4027,10 +4492,10 @@
         <v>-1.1399999999999999</v>
       </c>
       <c r="C282">
-        <v>-0.28000000000000003</v>
+        <v>-1.07</v>
       </c>
       <c r="D282">
-        <v>-0.56999999999999995</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -4041,10 +4506,10 @@
         <v>-1.08</v>
       </c>
       <c r="C283">
-        <v>-0.23</v>
+        <v>-1.01</v>
       </c>
       <c r="D283">
-        <v>-0.55000000000000004</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -4055,10 +4520,10 @@
         <v>-1.02</v>
       </c>
       <c r="C284">
-        <v>-0.18</v>
+        <v>-0.95</v>
       </c>
       <c r="D284">
-        <v>-0.64</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -4069,10 +4534,10 @@
         <v>-0.96</v>
       </c>
       <c r="C285">
-        <v>-0.12</v>
+        <v>-0.88</v>
       </c>
       <c r="D285">
-        <v>-0.76</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -4083,10 +4548,10 @@
         <v>-0.9</v>
       </c>
       <c r="C286">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.82</v>
       </c>
       <c r="D286">
-        <v>-0.93</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -4097,10 +4562,10 @@
         <v>-0.84</v>
       </c>
       <c r="C287">
-        <v>-0.02</v>
+        <v>-0.76</v>
       </c>
       <c r="D287">
-        <v>-1.19</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -4111,10 +4576,10 @@
         <v>-0.78</v>
       </c>
       <c r="C288">
-        <v>0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="D288">
-        <v>-1.54</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -4125,10 +4590,10 @@
         <v>-0.72</v>
       </c>
       <c r="C289">
-        <v>0.08</v>
+        <v>-0.64</v>
       </c>
       <c r="D289">
-        <v>-1.96</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -4139,10 +4604,10 @@
         <v>-0.66</v>
       </c>
       <c r="C290">
-        <v>0.13</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D290">
-        <v>-2.41</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -4153,10 +4618,10 @@
         <v>-0.59</v>
       </c>
       <c r="C291">
-        <v>0.18</v>
+        <v>-0.52</v>
       </c>
       <c r="D291">
-        <v>-2.87</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -4167,10 +4632,10 @@
         <v>-0.53</v>
       </c>
       <c r="C292">
-        <v>0.23</v>
+        <v>-0.46</v>
       </c>
       <c r="D292">
-        <v>-3.34</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -4181,10 +4646,10 @@
         <v>-0.47</v>
       </c>
       <c r="C293">
-        <v>0.28000000000000003</v>
+        <v>-0.39</v>
       </c>
       <c r="D293">
-        <v>-3.77</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -4195,10 +4660,10 @@
         <v>-0.41</v>
       </c>
       <c r="C294">
-        <v>0.33</v>
+        <v>-0.33</v>
       </c>
       <c r="D294">
-        <v>-4.13</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -4209,10 +4674,10 @@
         <v>-0.34</v>
       </c>
       <c r="C295">
-        <v>0.39</v>
+        <v>-0.26</v>
       </c>
       <c r="D295">
-        <v>-4.41</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -4223,10 +4688,10 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="C296">
-        <v>0.44</v>
+        <v>-0.2</v>
       </c>
       <c r="D296">
-        <v>-4.55</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -4237,10 +4702,10 @@
         <v>-0.21</v>
       </c>
       <c r="C297">
-        <v>0.49</v>
+        <v>-0.13</v>
       </c>
       <c r="D297">
-        <v>-4.5599999999999996</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -4251,10 +4716,10 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="C298">
-        <v>0.55000000000000004</v>
+        <v>-0.06</v>
       </c>
       <c r="D298">
-        <v>-4.45</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -4265,10 +4730,10 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C299">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D299">
-        <v>-4.24</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -4279,10 +4744,10 @@
         <v>-0.01</v>
       </c>
       <c r="C300">
-        <v>0.66</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D300">
-        <v>-4.0199999999999996</v>
+        <v>-1.0900000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -4293,10 +4758,10 @@
         <v>0.06</v>
       </c>
       <c r="C301">
-        <v>0.71</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D301">
-        <v>-3.84</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -4307,10 +4772,10 @@
         <v>0.13</v>
       </c>
       <c r="C302">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
       <c r="D302">
-        <v>-3.74</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -4321,10 +4786,10 @@
         <v>0.19</v>
       </c>
       <c r="C303">
-        <v>0.81</v>
+        <v>0.27</v>
       </c>
       <c r="D303">
-        <v>-3.73</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -4335,10 +4800,10 @@
         <v>0.26</v>
       </c>
       <c r="C304">
-        <v>0.87</v>
+        <v>0.33</v>
       </c>
       <c r="D304">
-        <v>-3.8</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -4349,10 +4814,10 @@
         <v>0.32</v>
       </c>
       <c r="C305">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="D305">
-        <v>-3.94</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -4363,10 +4828,10 @@
         <v>0.39</v>
       </c>
       <c r="C306">
-        <v>0.97</v>
+        <v>0.46</v>
       </c>
       <c r="D306">
-        <v>-4.1500000000000004</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -4377,10 +4842,10 @@
         <v>0.45</v>
       </c>
       <c r="C307">
-        <v>1.02</v>
+        <v>0.53</v>
       </c>
       <c r="D307">
-        <v>-4.3899999999999997</v>
+        <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -4391,10 +4856,10 @@
         <v>0.52</v>
       </c>
       <c r="C308">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="D308">
-        <v>-4.6900000000000004</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -4405,10 +4870,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C309">
-        <v>1.1200000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D309">
-        <v>-5.05</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -4419,10 +4884,10 @@
         <v>0.65</v>
       </c>
       <c r="C310">
-        <v>1.1599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="D310">
-        <v>-5.42</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -4433,10 +4898,10 @@
         <v>0.71</v>
       </c>
       <c r="C311">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="D311">
-        <v>-5.78</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -4447,10 +4912,10 @@
         <v>0.78</v>
       </c>
       <c r="C312">
-        <v>1.27</v>
+        <v>0.85</v>
       </c>
       <c r="D312">
-        <v>-6.08</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -4461,10 +4926,10 @@
         <v>0.84</v>
       </c>
       <c r="C313">
-        <v>1.32</v>
+        <v>0.92</v>
       </c>
       <c r="D313">
-        <v>-6.32</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -4475,10 +4940,10 @@
         <v>0.91</v>
       </c>
       <c r="C314">
-        <v>1.37</v>
+        <v>0.99</v>
       </c>
       <c r="D314">
-        <v>-6.49</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,10 +4954,10 @@
         <v>0.98</v>
       </c>
       <c r="C315">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="D315">
-        <v>-6.62</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -4503,10 +4968,10 @@
         <v>1.04</v>
       </c>
       <c r="C316">
-        <v>1.47</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D316">
-        <v>-6.71</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -4517,10 +4982,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C317">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="D317">
-        <v>-6.77</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -4531,10 +4996,10 @@
         <v>1.18</v>
       </c>
       <c r="C318">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="D318">
-        <v>-6.77</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -4545,10 +5010,10 @@
         <v>1.25</v>
       </c>
       <c r="C319">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="D319">
-        <v>-6.77</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -4559,10 +5024,10 @@
         <v>1.32</v>
       </c>
       <c r="C320">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="D320">
-        <v>-6.85</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -4573,10 +5038,10 @@
         <v>1.39</v>
       </c>
       <c r="C321">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="D321">
-        <v>-7.04</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -4587,10 +5052,10 @@
         <v>1.47</v>
       </c>
       <c r="C322">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="D322">
-        <v>-7.35</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,10 +5066,10 @@
         <v>1.54</v>
       </c>
       <c r="C323">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="D323">
-        <v>-7.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -4615,10 +5080,10 @@
         <v>1.61</v>
       </c>
       <c r="C324">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="D324">
-        <v>-8.0399999999999991</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -4629,10 +5094,10 @@
         <v>1.68</v>
       </c>
       <c r="C325">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="D325">
-        <v>-8.31</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -4643,10 +5108,10 @@
         <v>1.74</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="D326">
-        <v>-8.5</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -4657,10 +5122,10 @@
         <v>1.81</v>
       </c>
       <c r="C327">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="D327">
-        <v>-8.6300000000000008</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -4671,10 +5136,10 @@
         <v>1.87</v>
       </c>
       <c r="C328">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="D328">
-        <v>-8.74</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -4685,10 +5150,10 @@
         <v>1.93</v>
       </c>
       <c r="C329">
-        <v>2.14</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D329">
-        <v>-8.81</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,10 +5164,10 @@
         <v>2</v>
       </c>
       <c r="C330">
-        <v>2.1800000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D330">
-        <v>-8.8000000000000007</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -4713,10 +5178,10 @@
         <v>2.06</v>
       </c>
       <c r="C331">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="D331">
-        <v>-8.6999999999999993</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -4727,10 +5192,10 @@
         <v>2.12</v>
       </c>
       <c r="C332">
-        <v>2.2799999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D332">
-        <v>-8.51</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -4741,10 +5206,10 @@
         <v>2.19</v>
       </c>
       <c r="C333">
-        <v>2.3199999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D333">
-        <v>-8.35</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -4755,10 +5220,10 @@
         <v>2.25</v>
       </c>
       <c r="C334">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="D334">
-        <v>-8.2899999999999991</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -4769,10 +5234,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C335">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="D335">
-        <v>-8.33</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -4783,10 +5248,10 @@
         <v>2.38</v>
       </c>
       <c r="C336">
-        <v>2.4700000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="D336">
-        <v>-8.4700000000000006</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,7 +5265,7 @@
         <v>2.52</v>
       </c>
       <c r="D337">
-        <v>-8.6999999999999993</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -4811,10 +5276,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C338">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="D338">
-        <v>-9.01</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -4825,10 +5290,10 @@
         <v>2.57</v>
       </c>
       <c r="C339">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="D339">
-        <v>-9.41</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -4839,10 +5304,10 @@
         <v>2.63</v>
       </c>
       <c r="C340">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="D340">
-        <v>-9.9</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -4853,10 +5318,10 @@
         <v>2.7</v>
       </c>
       <c r="C341">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="D341">
-        <v>-10.45</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -4867,10 +5332,10 @@
         <v>2.76</v>
       </c>
       <c r="C342">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="D342">
-        <v>-11.02</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -4881,10 +5346,10 @@
         <v>2.82</v>
       </c>
       <c r="C343">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="D343">
-        <v>-11.55</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -4895,10 +5360,10 @@
         <v>2.87</v>
       </c>
       <c r="C344">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="D344">
-        <v>-11.99</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -4909,10 +5374,10 @@
         <v>2.93</v>
       </c>
       <c r="C345">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="D345">
-        <v>-12.32</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -4923,10 +5388,10 @@
         <v>2.99</v>
       </c>
       <c r="C346">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="D346">
-        <v>-12.54</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -4937,10 +5402,10 @@
         <v>3.05</v>
       </c>
       <c r="C347">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="D347">
-        <v>-12.7</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -4951,10 +5416,10 @@
         <v>3.11</v>
       </c>
       <c r="C348">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="D348">
-        <v>-12.83</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -4965,10 +5430,10 @@
         <v>3.16</v>
       </c>
       <c r="C349">
-        <v>3.05</v>
+        <v>3.24</v>
       </c>
       <c r="D349">
-        <v>-12.93</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -4979,10 +5444,10 @@
         <v>3.22</v>
       </c>
       <c r="C350">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="D350">
-        <v>-13.04</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -4993,10 +5458,10 @@
         <v>3.27</v>
       </c>
       <c r="C351">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="D351">
-        <v>-13.15</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -5007,10 +5472,10 @@
         <v>3.33</v>
       </c>
       <c r="C352">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="D352">
-        <v>-13.26</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -5021,10 +5486,10 @@
         <v>3.38</v>
       </c>
       <c r="C353">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="D353">
-        <v>-13.37</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -5035,10 +5500,10 @@
         <v>3.42</v>
       </c>
       <c r="C354">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="D354">
-        <v>-13.46</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -5049,10 +5514,10 @@
         <v>3.46</v>
       </c>
       <c r="C355">
-        <v>3.27</v>
+        <v>3.54</v>
       </c>
       <c r="D355">
-        <v>-13.49</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -5063,10 +5528,10 @@
         <v>3.5</v>
       </c>
       <c r="C356">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="D356">
-        <v>-13.45</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -5077,10 +5542,10 @@
         <v>3.54</v>
       </c>
       <c r="C357">
-        <v>3.32</v>
+        <v>3.61</v>
       </c>
       <c r="D357">
-        <v>-13.37</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -5091,10 +5556,10 @@
         <v>3.56</v>
       </c>
       <c r="C358">
-        <v>3.34</v>
+        <v>3.64</v>
       </c>
       <c r="D358">
-        <v>-13.27</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -5105,10 +5570,10 @@
         <v>3.59</v>
       </c>
       <c r="C359">
-        <v>3.35</v>
+        <v>3.67</v>
       </c>
       <c r="D359">
-        <v>-13.17</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -5119,10 +5584,10 @@
         <v>3.61</v>
       </c>
       <c r="C360">
-        <v>3.36</v>
+        <v>3.69</v>
       </c>
       <c r="D360">
-        <v>-13.13</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -5133,10 +5598,10 @@
         <v>3.63</v>
       </c>
       <c r="C361">
-        <v>3.37</v>
+        <v>3.71</v>
       </c>
       <c r="D361">
-        <v>-13.14</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -5147,10 +5612,10 @@
         <v>3.65</v>
       </c>
       <c r="C362">
-        <v>3.38</v>
+        <v>3.73</v>
       </c>
       <c r="D362">
-        <v>-13.17</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -5161,10 +5626,10 @@
         <v>3.67</v>
       </c>
       <c r="C363">
-        <v>3.38</v>
+        <v>3.74</v>
       </c>
       <c r="D363">
-        <v>-13.22</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -5175,10 +5640,10 @@
         <v>3.68</v>
       </c>
       <c r="C364">
-        <v>3.38</v>
+        <v>3.75</v>
       </c>
       <c r="D364">
-        <v>-13.27</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -5189,10 +5654,10 @@
         <v>3.68</v>
       </c>
       <c r="C365">
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="D365">
-        <v>-13.33</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -5203,10 +5668,10 @@
         <v>3.68</v>
       </c>
       <c r="C366">
-        <v>3.37</v>
+        <v>3.75</v>
       </c>
       <c r="D366">
-        <v>-13.36</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -5217,10 +5682,10 @@
         <v>3.67</v>
       </c>
       <c r="C367">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="D367">
-        <v>-13.36</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -5231,10 +5696,10 @@
         <v>3.65</v>
       </c>
       <c r="C368">
+        <v>3.73</v>
+      </c>
+      <c r="D368">
         <v>3.32</v>
-      </c>
-      <c r="D368">
-        <v>-13.28</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -5245,10 +5710,10 @@
         <v>3.63</v>
       </c>
       <c r="C369">
-        <v>3.29</v>
+        <v>3.7</v>
       </c>
       <c r="D369">
-        <v>-13.12</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -5259,10 +5724,10 @@
         <v>3.59</v>
       </c>
       <c r="C370">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="D370">
-        <v>-12.88</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -5273,10 +5738,10 @@
         <v>3.55</v>
       </c>
       <c r="C371">
-        <v>3.2</v>
+        <v>3.63</v>
       </c>
       <c r="D371">
-        <v>-12.6</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -5287,10 +5752,10 @@
         <v>3.5</v>
       </c>
       <c r="C372">
-        <v>3.14</v>
+        <v>3.58</v>
       </c>
       <c r="D372">
-        <v>-12.3</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -5301,10 +5766,10 @@
         <v>3.44</v>
       </c>
       <c r="C373">
-        <v>3.06</v>
+        <v>3.51</v>
       </c>
       <c r="D373">
-        <v>-12</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -5315,10 +5780,10 @@
         <v>3.36</v>
       </c>
       <c r="C374">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="D374">
-        <v>-11.74</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -5329,10 +5794,10 @@
         <v>3.28</v>
       </c>
       <c r="C375">
-        <v>2.89</v>
+        <v>3.35</v>
       </c>
       <c r="D375">
-        <v>-11.47</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -5343,10 +5808,10 @@
         <v>3.18</v>
       </c>
       <c r="C376">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="D376">
-        <v>-11.17</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -5357,10 +5822,10 @@
         <v>3.07</v>
       </c>
       <c r="C377">
-        <v>2.66</v>
+        <v>3.14</v>
       </c>
       <c r="D377">
-        <v>-10.88</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -5371,10 +5836,10 @@
         <v>2.95</v>
       </c>
       <c r="C378">
-        <v>2.54</v>
+        <v>3.02</v>
       </c>
       <c r="D378">
-        <v>-10.61</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -5385,10 +5850,10 @@
         <v>2.81</v>
       </c>
       <c r="C379">
-        <v>2.39</v>
+        <v>2.89</v>
       </c>
       <c r="D379">
-        <v>-10.4</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -5399,10 +5864,10 @@
         <v>2.67</v>
       </c>
       <c r="C380">
-        <v>2.2400000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="D380">
-        <v>-10.25</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -5413,10 +5878,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C381">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="D381">
-        <v>-10.17</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -5427,10 +5892,10 @@
         <v>2.34</v>
       </c>
       <c r="C382">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="D382">
-        <v>-10.16</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -5441,10 +5906,10 @@
         <v>2.16</v>
       </c>
       <c r="C383">
-        <v>1.72</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D383">
-        <v>-10.24</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -5455,10 +5920,10 @@
         <v>1.98</v>
       </c>
       <c r="C384">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="D384">
-        <v>-10.38</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -5469,10 +5934,10 @@
         <v>1.79</v>
       </c>
       <c r="C385">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="D385">
-        <v>-10.59</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -5483,10 +5948,10 @@
         <v>1.59</v>
       </c>
       <c r="C386">
-        <v>1.1299999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="D386">
-        <v>-10.85</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -5497,10 +5962,10 @@
         <v>1.39</v>
       </c>
       <c r="C387">
-        <v>0.92</v>
+        <v>1.47</v>
       </c>
       <c r="D387">
-        <v>-11.14</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -5511,10 +5976,10 @@
         <v>1.18</v>
       </c>
       <c r="C388">
-        <v>0.71</v>
+        <v>1.26</v>
       </c>
       <c r="D388">
-        <v>-11.45</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -5525,10 +5990,10 @@
         <v>0.98</v>
       </c>
       <c r="C389">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="D389">
-        <v>-11.74</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -5539,10 +6004,10 @@
         <v>0.78</v>
       </c>
       <c r="C390">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="D390">
-        <v>-12.02</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -5553,10 +6018,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C391">
-        <v>0.09</v>
+        <v>0.65</v>
       </c>
       <c r="D391">
-        <v>-12.28</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -5567,10 +6032,10 @@
         <v>0.38</v>
       </c>
       <c r="C392">
-        <v>-0.11</v>
+        <v>0.46</v>
       </c>
       <c r="D392">
-        <v>-12.53</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -5581,10 +6046,10 @@
         <v>0.19</v>
       </c>
       <c r="C393">
-        <v>-0.3</v>
+        <v>0.27</v>
       </c>
       <c r="D393">
-        <v>-12.75</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -5595,10 +6060,10 @@
         <v>0.01</v>
       </c>
       <c r="C394">
-        <v>-0.49</v>
+        <v>0.08</v>
       </c>
       <c r="D394">
-        <v>-12.94</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -5609,10 +6074,10 @@
         <v>-0.17</v>
       </c>
       <c r="C395">
-        <v>-0.67</v>
+        <v>-0.09</v>
       </c>
       <c r="D395">
-        <v>-13.08</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -5623,10 +6088,10 @@
         <v>-0.34</v>
       </c>
       <c r="C396">
-        <v>-0.84</v>
+        <v>-0.26</v>
       </c>
       <c r="D396">
-        <v>-13.15</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -5637,10 +6102,10 @@
         <v>-0.5</v>
       </c>
       <c r="C397">
-        <v>-1.01</v>
+        <v>-0.42</v>
       </c>
       <c r="D397">
-        <v>-13.17</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,10 +6116,10 @@
         <v>-0.65</v>
       </c>
       <c r="C398">
-        <v>-1.1599999999999999</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D398">
-        <v>-13.13</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -5665,10 +6130,10 @@
         <v>-0.8</v>
       </c>
       <c r="C399">
-        <v>-1.31</v>
+        <v>-0.72</v>
       </c>
       <c r="D399">
-        <v>-13.06</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -5679,10 +6144,10 @@
         <v>-0.94</v>
       </c>
       <c r="C400">
-        <v>-1.46</v>
+        <v>-0.86</v>
       </c>
       <c r="D400">
-        <v>-12.99</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -5693,10 +6158,10 @@
         <v>-1.07</v>
       </c>
       <c r="C401">
-        <v>-1.59</v>
+        <v>-0.99</v>
       </c>
       <c r="D401">
-        <v>-12.92</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -5707,10 +6172,10 @@
         <v>-1.2</v>
       </c>
       <c r="C402">
-        <v>-1.73</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D402">
-        <v>-12.88</v>
+        <v>-1.1399999999999999</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -5721,10 +6186,10 @@
         <v>-1.33</v>
       </c>
       <c r="C403">
-        <v>-1.86</v>
+        <v>-1.26</v>
       </c>
       <c r="D403">
-        <v>-12.88</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -5735,10 +6200,10 @@
         <v>-1.46</v>
       </c>
       <c r="C404">
-        <v>-1.99</v>
+        <v>-1.38</v>
       </c>
       <c r="D404">
-        <v>-12.9</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -5749,10 +6214,10 @@
         <v>-1.59</v>
       </c>
       <c r="C405">
-        <v>-2.12</v>
+        <v>-1.51</v>
       </c>
       <c r="D405">
-        <v>-12.92</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -5763,10 +6228,10 @@
         <v>-1.72</v>
       </c>
       <c r="C406">
-        <v>-2.2599999999999998</v>
+        <v>-1.64</v>
       </c>
       <c r="D406">
-        <v>-12.96</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -5777,10 +6242,10 @@
         <v>-1.85</v>
       </c>
       <c r="C407">
-        <v>-2.39</v>
+        <v>-1.77</v>
       </c>
       <c r="D407">
-        <v>-13.01</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -5791,10 +6256,10 @@
         <v>-1.98</v>
       </c>
       <c r="C408">
-        <v>-2.52</v>
+        <v>-1.9</v>
       </c>
       <c r="D408">
-        <v>-13.07</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -5805,10 +6270,10 @@
         <v>-2.11</v>
       </c>
       <c r="C409">
-        <v>-2.66</v>
+        <v>-2.04</v>
       </c>
       <c r="D409">
-        <v>-13.16</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -5819,10 +6284,10 @@
         <v>-2.25</v>
       </c>
       <c r="C410">
-        <v>-2.8</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="D410">
-        <v>-13.28</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -5833,10 +6298,10 @@
         <v>-2.4</v>
       </c>
       <c r="C411">
-        <v>-2.95</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="D411">
-        <v>-13.44</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -5847,10 +6312,10 @@
         <v>-2.54</v>
       </c>
       <c r="C412">
-        <v>-3.1</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="D412">
-        <v>-13.65</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -5861,10 +6326,10 @@
         <v>-2.69</v>
       </c>
       <c r="C413">
-        <v>-3.25</v>
+        <v>-2.62</v>
       </c>
       <c r="D413">
-        <v>-13.9</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -5875,10 +6340,10 @@
         <v>-2.85</v>
       </c>
       <c r="C414">
-        <v>-3.41</v>
+        <v>-2.77</v>
       </c>
       <c r="D414">
-        <v>-14.19</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -5889,10 +6354,10 @@
         <v>-3.01</v>
       </c>
       <c r="C415">
-        <v>-3.57</v>
+        <v>-2.93</v>
       </c>
       <c r="D415">
-        <v>-14.49</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -5903,10 +6368,10 @@
         <v>-3.18</v>
       </c>
       <c r="C416">
-        <v>-3.74</v>
+        <v>-3.1</v>
       </c>
       <c r="D416">
-        <v>-14.78</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -5917,10 +6382,10 @@
         <v>-3.35</v>
       </c>
       <c r="C417">
-        <v>-3.91</v>
+        <v>-3.27</v>
       </c>
       <c r="D417">
-        <v>-15.03</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -5931,10 +6396,10 @@
         <v>-3.53</v>
       </c>
       <c r="C418">
-        <v>-4.09</v>
+        <v>-3.45</v>
       </c>
       <c r="D418">
-        <v>-15.22</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -5945,10 +6410,10 @@
         <v>-3.71</v>
       </c>
       <c r="C419">
-        <v>-4.2699999999999996</v>
+        <v>-3.63</v>
       </c>
       <c r="D419">
-        <v>-15.34</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -5959,10 +6424,10 @@
         <v>-3.89</v>
       </c>
       <c r="C420">
-        <v>-4.46</v>
+        <v>-3.82</v>
       </c>
       <c r="D420">
-        <v>-15.39</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -5973,10 +6438,10 @@
         <v>-4.08</v>
       </c>
       <c r="C421">
-        <v>-4.6500000000000004</v>
+        <v>-4.01</v>
       </c>
       <c r="D421">
-        <v>-15.37</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -5987,10 +6452,10 @@
         <v>-4.2699999999999996</v>
       </c>
       <c r="C422">
-        <v>-4.84</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="D422">
-        <v>-15.3</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -6001,10 +6466,10 @@
         <v>-4.46</v>
       </c>
       <c r="C423">
-        <v>-5.03</v>
+        <v>-4.38</v>
       </c>
       <c r="D423">
-        <v>-15.2</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -6015,10 +6480,10 @@
         <v>-4.6500000000000004</v>
       </c>
       <c r="C424">
-        <v>-5.22</v>
+        <v>-4.57</v>
       </c>
       <c r="D424">
-        <v>-15.1</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -6029,10 +6494,10 @@
         <v>-4.84</v>
       </c>
       <c r="C425">
-        <v>-5.41</v>
+        <v>-4.76</v>
       </c>
       <c r="D425">
-        <v>-15.01</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -6043,10 +6508,10 @@
         <v>-5.0199999999999996</v>
       </c>
       <c r="C426">
-        <v>-5.59</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="D426">
-        <v>-14.97</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -6057,10 +6522,10 @@
         <v>-5.2</v>
       </c>
       <c r="C427">
-        <v>-5.77</v>
+        <v>-5.12</v>
       </c>
       <c r="D427">
-        <v>-14.99</v>
+        <v>-4.8499999999999996</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -6071,10 +6536,10 @@
         <v>-5.36</v>
       </c>
       <c r="C428">
-        <v>-5.94</v>
+        <v>-5.29</v>
       </c>
       <c r="D428">
-        <v>-15.05</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -6085,10 +6550,10 @@
         <v>-5.52</v>
       </c>
       <c r="C429">
-        <v>-6.1</v>
+        <v>-5.45</v>
       </c>
       <c r="D429">
-        <v>-15.14</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -6099,10 +6564,10 @@
         <v>-5.66</v>
       </c>
       <c r="C430">
-        <v>-6.25</v>
+        <v>-5.59</v>
       </c>
       <c r="D430">
-        <v>-15.25</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -6113,10 +6578,10 @@
         <v>-5.79</v>
       </c>
       <c r="C431">
-        <v>-6.37</v>
+        <v>-5.71</v>
       </c>
       <c r="D431">
-        <v>-15.38</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -6127,10 +6592,10 @@
         <v>-5.9</v>
       </c>
       <c r="C432">
-        <v>-6.48</v>
+        <v>-5.82</v>
       </c>
       <c r="D432">
-        <v>-15.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -6141,10 +6606,10 @@
         <v>-5.99</v>
       </c>
       <c r="C433">
-        <v>-6.58</v>
+        <v>-5.92</v>
       </c>
       <c r="D433">
-        <v>-15.61</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -6155,10 +6620,10 @@
         <v>-6.07</v>
       </c>
       <c r="C434">
-        <v>-6.65</v>
+        <v>-5.99</v>
       </c>
       <c r="D434">
-        <v>-15.68</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -6169,10 +6634,10 @@
         <v>-6.12</v>
       </c>
       <c r="C435">
-        <v>-6.7</v>
+        <v>-6.04</v>
       </c>
       <c r="D435">
-        <v>-15.69</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -6183,10 +6648,10 @@
         <v>-6.14</v>
       </c>
       <c r="C436">
-        <v>-6.73</v>
+        <v>-6.06</v>
       </c>
       <c r="D436">
-        <v>-15.64</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -6197,10 +6662,10 @@
         <v>-6.13</v>
       </c>
       <c r="C437">
-        <v>-6.72</v>
+        <v>-6.05</v>
       </c>
       <c r="D437">
-        <v>-15.52</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -6211,10 +6676,10 @@
         <v>-6.09</v>
       </c>
       <c r="C438">
-        <v>-6.68</v>
+        <v>-6.02</v>
       </c>
       <c r="D438">
-        <v>-15.35</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -6225,10 +6690,10 @@
         <v>-6.03</v>
       </c>
       <c r="C439">
-        <v>-6.62</v>
+        <v>-5.95</v>
       </c>
       <c r="D439">
-        <v>-15.16</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -6239,10 +6704,10 @@
         <v>-5.95</v>
       </c>
       <c r="C440">
-        <v>-6.54</v>
+        <v>-5.87</v>
       </c>
       <c r="D440">
-        <v>-14.97</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -6253,10 +6718,10 @@
         <v>-5.84</v>
       </c>
       <c r="C441">
-        <v>-6.43</v>
+        <v>-5.76</v>
       </c>
       <c r="D441">
-        <v>-14.8</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -6267,10 +6732,10 @@
         <v>-5.7</v>
       </c>
       <c r="C442">
-        <v>-6.29</v>
+        <v>-5.63</v>
       </c>
       <c r="D442">
-        <v>-14.62</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -6281,10 +6746,10 @@
         <v>-5.54</v>
       </c>
       <c r="C443">
-        <v>-6.13</v>
+        <v>-5.46</v>
       </c>
       <c r="D443">
-        <v>-14.3</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -6295,10 +6760,10 @@
         <v>-5.35</v>
       </c>
       <c r="C444">
-        <v>-5.94</v>
+        <v>-5.27</v>
       </c>
       <c r="D444">
-        <v>-13.89</v>
+        <v>-4.8099999999999996</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -6309,10 +6774,10 @@
         <v>-5.14</v>
       </c>
       <c r="C445">
-        <v>-5.74</v>
+        <v>-5.07</v>
       </c>
       <c r="D445">
-        <v>-13.4</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -6323,10 +6788,10 @@
         <v>-4.93</v>
       </c>
       <c r="C446">
-        <v>-5.52</v>
+        <v>-4.8499999999999996</v>
       </c>
       <c r="D446">
-        <v>-12.86</v>
+        <v>-4.3600000000000003</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -6337,10 +6802,10 @@
         <v>-4.7</v>
       </c>
       <c r="C447">
-        <v>-5.3</v>
+        <v>-4.62</v>
       </c>
       <c r="D447">
-        <v>-12.28</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -6351,10 +6816,10 @@
         <v>-4.46</v>
       </c>
       <c r="C448">
-        <v>-5.0599999999999996</v>
+        <v>-4.38</v>
       </c>
       <c r="D448">
-        <v>-11.7</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -6365,10 +6830,10 @@
         <v>-4.2</v>
       </c>
       <c r="C449">
-        <v>-4.8</v>
+        <v>-4.13</v>
       </c>
       <c r="D449">
-        <v>-11.12</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -6379,10 +6844,10 @@
         <v>-3.93</v>
       </c>
       <c r="C450">
-        <v>-4.53</v>
+        <v>-3.86</v>
       </c>
       <c r="D450">
-        <v>-10.55</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -6393,10 +6858,10 @@
         <v>-3.66</v>
       </c>
       <c r="C451">
-        <v>-4.25</v>
+        <v>-3.58</v>
       </c>
       <c r="D451">
-        <v>-10</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -6407,10 +6872,10 @@
         <v>-3.38</v>
       </c>
       <c r="C452">
-        <v>-3.98</v>
+        <v>-3.3</v>
       </c>
       <c r="D452">
-        <v>-9.52</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -6421,10 +6886,10 @@
         <v>-3.1</v>
       </c>
       <c r="C453">
-        <v>-3.7</v>
+        <v>-3.03</v>
       </c>
       <c r="D453">
-        <v>-9.16</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -6435,10 +6900,10 @@
         <v>-2.82</v>
       </c>
       <c r="C454">
-        <v>-3.42</v>
+        <v>-2.74</v>
       </c>
       <c r="D454">
-        <v>-8.94</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -6449,10 +6914,10 @@
         <v>-2.5299999999999998</v>
       </c>
       <c r="C455">
-        <v>-3.13</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="D455">
-        <v>-8.85</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -6463,10 +6928,10 @@
         <v>-2.23</v>
       </c>
       <c r="C456">
-        <v>-2.83</v>
+        <v>-2.16</v>
       </c>
       <c r="D456">
-        <v>-8.85</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -6477,10 +6942,10 @@
         <v>-1.94</v>
       </c>
       <c r="C457">
-        <v>-2.54</v>
+        <v>-1.87</v>
       </c>
       <c r="D457">
-        <v>-8.84</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -6491,10 +6956,10 @@
         <v>-1.65</v>
       </c>
       <c r="C458">
-        <v>-2.25</v>
+        <v>-1.58</v>
       </c>
       <c r="D458">
-        <v>-8.9</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -6505,10 +6970,10 @@
         <v>-1.37</v>
       </c>
       <c r="C459">
-        <v>-1.97</v>
+        <v>-1.29</v>
       </c>
       <c r="D459">
-        <v>-8.99</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -6519,10 +6984,10 @@
         <v>-1.08</v>
       </c>
       <c r="C460">
-        <v>-1.68</v>
+        <v>-1.01</v>
       </c>
       <c r="D460">
-        <v>-9.08</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -6533,10 +6998,10 @@
         <v>-0.79</v>
       </c>
       <c r="C461">
-        <v>-1.39</v>
+        <v>-0.72</v>
       </c>
       <c r="D461">
-        <v>-9.17</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -6547,10 +7012,10 @@
         <v>-0.5</v>
       </c>
       <c r="C462">
-        <v>-1.1000000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="D462">
-        <v>-9.2200000000000006</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -6561,10 +7026,10 @@
         <v>-0.22</v>
       </c>
       <c r="C463">
-        <v>-0.82</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D463">
-        <v>-9.2100000000000009</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -6575,10 +7040,10 @@
         <v>0.06</v>
       </c>
       <c r="C464">
-        <v>-0.54</v>
+        <v>0.13</v>
       </c>
       <c r="D464">
-        <v>-9.1199999999999992</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -6589,10 +7054,10 @@
         <v>0.33</v>
       </c>
       <c r="C465">
-        <v>-0.27</v>
+        <v>0.4</v>
       </c>
       <c r="D465">
-        <v>-8.94</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -6603,10 +7068,10 @@
         <v>0.6</v>
       </c>
       <c r="C466">
-        <v>-0.01</v>
+        <v>0.67</v>
       </c>
       <c r="D466">
-        <v>-8.7100000000000009</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -6617,10 +7082,10 @@
         <v>0.86</v>
       </c>
       <c r="C467">
-        <v>0.25</v>
+        <v>0.93</v>
       </c>
       <c r="D467">
-        <v>-8.44</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -6631,10 +7096,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C468">
-        <v>0.51</v>
+        <v>1.19</v>
       </c>
       <c r="D468">
-        <v>-8.16</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -6645,10 +7110,10 @@
         <v>1.36</v>
       </c>
       <c r="C469">
-        <v>0.76</v>
+        <v>1.44</v>
       </c>
       <c r="D469">
-        <v>-7.89</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -6659,10 +7124,10 @@
         <v>1.6</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>1.68</v>
       </c>
       <c r="D470">
-        <v>-7.62</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -6673,10 +7138,10 @@
         <v>1.84</v>
       </c>
       <c r="C471">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="D471">
-        <v>-7.36</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -6687,10 +7152,10 @@
         <v>2.06</v>
       </c>
       <c r="C472">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="D472">
-        <v>-7.1</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -6701,10 +7166,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C473">
-        <v>1.68</v>
+        <v>2.36</v>
       </c>
       <c r="D473">
-        <v>-6.84</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -6715,10 +7180,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="C474">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="D474">
-        <v>-6.58</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -6729,10 +7194,10 @@
         <v>2.69</v>
       </c>
       <c r="C475">
-        <v>2.08</v>
+        <v>2.76</v>
       </c>
       <c r="D475">
-        <v>-6.33</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -6743,10 +7208,10 @@
         <v>2.88</v>
       </c>
       <c r="C476">
-        <v>2.27</v>
+        <v>2.95</v>
       </c>
       <c r="D476">
-        <v>-6.07</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -6757,10 +7222,10 @@
         <v>3.06</v>
       </c>
       <c r="C477">
-        <v>2.46</v>
+        <v>3.13</v>
       </c>
       <c r="D477">
-        <v>-5.81</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -6771,10 +7236,10 @@
         <v>3.24</v>
       </c>
       <c r="C478">
-        <v>2.63</v>
+        <v>3.31</v>
       </c>
       <c r="D478">
-        <v>-5.55</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -6785,10 +7250,10 @@
         <v>3.4</v>
       </c>
       <c r="C479">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="D479">
-        <v>-5.28</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -6799,10 +7264,10 @@
         <v>3.56</v>
       </c>
       <c r="C480">
-        <v>2.95</v>
+        <v>3.63</v>
       </c>
       <c r="D480">
-        <v>-4.9800000000000004</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -6813,10 +7278,10 @@
         <v>3.7</v>
       </c>
       <c r="C481">
-        <v>3.09</v>
+        <v>3.77</v>
       </c>
       <c r="D481">
-        <v>-4.6900000000000004</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -6827,10 +7292,10 @@
         <v>3.83</v>
       </c>
       <c r="C482">
-        <v>3.22</v>
+        <v>3.9</v>
       </c>
       <c r="D482">
-        <v>-4.42</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -6841,10 +7306,10 @@
         <v>3.94</v>
       </c>
       <c r="C483">
-        <v>3.33</v>
+        <v>4.01</v>
       </c>
       <c r="D483">
-        <v>-4.21</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -6855,10 +7320,10 @@
         <v>4.04</v>
       </c>
       <c r="C484">
-        <v>3.44</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D484">
-        <v>-4.05</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -6869,10 +7334,10 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="C485">
-        <v>3.53</v>
+        <v>4.21</v>
       </c>
       <c r="D485">
-        <v>-3.97</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -6883,10 +7348,10 @@
         <v>4.22</v>
       </c>
       <c r="C486">
-        <v>3.61</v>
+        <v>4.29</v>
       </c>
       <c r="D486">
-        <v>-3.96</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -6897,10 +7362,10 @@
         <v>4.28</v>
       </c>
       <c r="C487">
-        <v>3.67</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D487">
-        <v>-4.03</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -6911,10 +7376,10 @@
         <v>4.33</v>
       </c>
       <c r="C488">
-        <v>3.72</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D488">
-        <v>-4.18</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -6925,10 +7390,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C489">
-        <v>3.75</v>
+        <v>4.43</v>
       </c>
       <c r="D489">
-        <v>-4.38</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -6939,10 +7404,10 @@
         <v>4.38</v>
       </c>
       <c r="C490">
-        <v>3.77</v>
+        <v>4.45</v>
       </c>
       <c r="D490">
-        <v>-4.6399999999999997</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -6953,10 +7418,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C491">
-        <v>3.78</v>
+        <v>4.46</v>
       </c>
       <c r="D491">
-        <v>-4.93</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -6967,10 +7432,10 @@
         <v>4.38</v>
       </c>
       <c r="C492">
-        <v>3.77</v>
+        <v>4.45</v>
       </c>
       <c r="D492">
-        <v>-5.23</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -6981,10 +7446,10 @@
         <v>4.34</v>
       </c>
       <c r="C493">
-        <v>3.73</v>
+        <v>4.41</v>
       </c>
       <c r="D493">
-        <v>-5.51</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -6995,10 +7460,10 @@
         <v>4.29</v>
       </c>
       <c r="C494">
-        <v>3.68</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="D494">
-        <v>-5.77</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -7009,10 +7474,10 @@
         <v>4.22</v>
       </c>
       <c r="C495">
-        <v>3.61</v>
+        <v>4.28</v>
       </c>
       <c r="D495">
-        <v>-6.03</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -7023,10 +7488,10 @@
         <v>4.12</v>
       </c>
       <c r="C496">
-        <v>3.51</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D496">
-        <v>-6.29</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -7037,10 +7502,10 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C497">
-        <v>3.41</v>
+        <v>4.08</v>
       </c>
       <c r="D497">
-        <v>-6.56</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -7051,10 +7516,10 @@
         <v>3.89</v>
       </c>
       <c r="C498">
-        <v>3.28</v>
+        <v>3.96</v>
       </c>
       <c r="D498">
-        <v>-6.85</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -7065,10 +7530,10 @@
         <v>3.75</v>
       </c>
       <c r="C499">
-        <v>3.15</v>
+        <v>3.82</v>
       </c>
       <c r="D499">
-        <v>-7.14</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -7079,10 +7544,10 @@
         <v>3.6</v>
       </c>
       <c r="C500">
-        <v>2.99</v>
+        <v>3.67</v>
       </c>
       <c r="D500">
-        <v>-7.4</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -7093,10 +7558,10 @@
         <v>3.43</v>
       </c>
       <c r="C501">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="D501">
-        <v>-7.6</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -7107,10 +7572,10 @@
         <v>3.25</v>
       </c>
       <c r="C502">
-        <v>2.64</v>
+        <v>3.32</v>
       </c>
       <c r="D502">
-        <v>-7.72</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -7121,10 +7586,10 @@
         <v>3.05</v>
       </c>
       <c r="C503">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="D503">
-        <v>-7.76</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -7135,10 +7600,10 @@
         <v>2.84</v>
       </c>
       <c r="C504">
-        <v>2.23</v>
+        <v>2.91</v>
       </c>
       <c r="D504">
-        <v>-7.74</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -7149,10 +7614,10 @@
         <v>2.63</v>
       </c>
       <c r="C505">
-        <v>2.02</v>
+        <v>2.69</v>
       </c>
       <c r="D505">
-        <v>-7.71</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -7163,10 +7628,10 @@
         <v>2.41</v>
       </c>
       <c r="C506">
-        <v>1.8</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D506">
-        <v>-7.7</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -7177,10 +7642,10 @@
         <v>2.19</v>
       </c>
       <c r="C507">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="D507">
-        <v>-7.75</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -7191,10 +7656,10 @@
         <v>1.97</v>
       </c>
       <c r="C508">
-        <v>1.36</v>
+        <v>2.04</v>
       </c>
       <c r="D508">
-        <v>-7.9</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -7205,10 +7670,10 @@
         <v>1.76</v>
       </c>
       <c r="C509">
-        <v>1.1499999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="D509">
-        <v>-8.18</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -7219,10 +7684,10 @@
         <v>1.54</v>
       </c>
       <c r="C510">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="D510">
-        <v>-8.6</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -7233,10 +7698,10 @@
         <v>1.32</v>
       </c>
       <c r="C511">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="D511">
-        <v>-9.15</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -7247,10 +7712,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C512">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="D512">
-        <v>-9.7799999999999994</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -7261,10 +7726,10 @@
         <v>0.91</v>
       </c>
       <c r="C513">
-        <v>0.3</v>
+        <v>0.97</v>
       </c>
       <c r="D513">
-        <v>-10.46</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -7275,10 +7740,10 @@
         <v>0.72</v>
       </c>
       <c r="C514">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
       <c r="D514">
-        <v>-11.16</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -7289,10 +7754,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C515">
-        <v>-0.06</v>
+        <v>0.6</v>
       </c>
       <c r="D515">
-        <v>-11.81</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -7303,10 +7768,10 @@
         <v>0.39</v>
       </c>
       <c r="C516">
-        <v>-0.22</v>
+        <v>0.45</v>
       </c>
       <c r="D516">
-        <v>-12.36</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -7317,10 +7782,10 @@
         <v>0.26</v>
       </c>
       <c r="C517">
-        <v>-0.36</v>
+        <v>0.31</v>
       </c>
       <c r="D517">
-        <v>-12.77</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -7331,10 +7796,10 @@
         <v>0.13</v>
       </c>
       <c r="C518">
-        <v>-0.48</v>
+        <v>0.19</v>
       </c>
       <c r="D518">
-        <v>-13.05</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -7345,10 +7810,10 @@
         <v>0.02</v>
       </c>
       <c r="C519">
-        <v>-0.59</v>
+        <v>0.08</v>
       </c>
       <c r="D519">
-        <v>-13.21</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -7359,10 +7824,10 @@
         <v>-0.08</v>
       </c>
       <c r="C520">
-        <v>-0.69</v>
+        <v>-0.02</v>
       </c>
       <c r="D520">
-        <v>-13.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -7373,10 +7838,10 @@
         <v>-0.16</v>
       </c>
       <c r="C521">
-        <v>-0.77</v>
+        <v>-0.11</v>
       </c>
       <c r="D521">
-        <v>-13.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -7387,10 +7852,10 @@
         <v>-0.23</v>
       </c>
       <c r="C522">
-        <v>-0.84</v>
+        <v>-0.18</v>
       </c>
       <c r="D522">
-        <v>-13.09</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -7401,10 +7866,10 @@
         <v>-0.27</v>
       </c>
       <c r="C523">
-        <v>-0.88</v>
+        <v>-0.22</v>
       </c>
       <c r="D523">
-        <v>-12.91</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -7415,10 +7880,10 @@
         <v>-0.3</v>
       </c>
       <c r="C524">
-        <v>-0.91</v>
+        <v>-0.25</v>
       </c>
       <c r="D524">
-        <v>-12.67</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -7429,10 +7894,10 @@
         <v>-0.3</v>
       </c>
       <c r="C525">
-        <v>-0.91</v>
+        <v>-0.25</v>
       </c>
       <c r="D525">
-        <v>-12.38</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -7443,10 +7908,10 @@
         <v>-0.27</v>
       </c>
       <c r="C526">
-        <v>-0.88</v>
+        <v>-0.22</v>
       </c>
       <c r="D526">
-        <v>-12.04</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -7457,10 +7922,10 @@
         <v>-0.2</v>
       </c>
       <c r="C527">
-        <v>-0.82</v>
+        <v>-0.16</v>
       </c>
       <c r="D527">
-        <v>-11.7</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -7471,10 +7936,10 @@
         <v>-0.1</v>
       </c>
       <c r="C528">
-        <v>-0.71</v>
+        <v>-0.05</v>
       </c>
       <c r="D528">
-        <v>-11.43</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -7485,10 +7950,10 @@
         <v>0.05</v>
       </c>
       <c r="C529">
-        <v>-0.56999999999999995</v>
+        <v>0.09</v>
       </c>
       <c r="D529">
-        <v>-11.22</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -7499,10 +7964,10 @@
         <v>0.23</v>
       </c>
       <c r="C530">
-        <v>-0.38</v>
+        <v>0.27</v>
       </c>
       <c r="D530">
-        <v>-11.08</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -7513,10 +7978,10 @@
         <v>0.43</v>
       </c>
       <c r="C531">
-        <v>-0.18</v>
+        <v>0.47</v>
       </c>
       <c r="D531">
-        <v>-11.01</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -7527,10 +7992,10 @@
         <v>0.64</v>
       </c>
       <c r="C532">
-        <v>0.03</v>
+        <v>0.68</v>
       </c>
       <c r="D532">
-        <v>-11.01</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -7541,10 +8006,10 @@
         <v>0.85</v>
       </c>
       <c r="C533">
-        <v>0.24</v>
+        <v>0.89</v>
       </c>
       <c r="D533">
-        <v>-11.05</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -7555,10 +8020,10 @@
         <v>1.07</v>
       </c>
       <c r="C534">
-        <v>0.45</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D534">
-        <v>-11.11</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -7569,10 +8034,10 @@
         <v>1.28</v>
       </c>
       <c r="C535">
-        <v>0.67</v>
+        <v>1.32</v>
       </c>
       <c r="D535">
-        <v>-11.18</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -7583,10 +8048,10 @@
         <v>1.5</v>
       </c>
       <c r="C536">
-        <v>0.89</v>
+        <v>1.54</v>
       </c>
       <c r="D536">
-        <v>-11.23</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -7597,10 +8062,10 @@
         <v>1.71</v>
       </c>
       <c r="C537">
-        <v>1.1000000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="D537">
-        <v>-11.26</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -7611,10 +8076,10 @@
         <v>1.9</v>
       </c>
       <c r="C538">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="D538">
-        <v>-11.26</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -7625,10 +8090,10 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C539">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="D539">
-        <v>-11.23</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -7639,10 +8104,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C540">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
       <c r="D540">
-        <v>-11.17</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -7653,10 +8118,10 @@
         <v>2.36</v>
       </c>
       <c r="C541">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="D541">
-        <v>-11.12</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -7667,10 +8132,10 @@
         <v>2.5</v>
       </c>
       <c r="C542">
-        <v>1.89</v>
+        <v>2.52</v>
       </c>
       <c r="D542">
-        <v>-11.1</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -7681,10 +8146,10 @@
         <v>2.63</v>
       </c>
       <c r="C543">
-        <v>2.02</v>
+        <v>2.66</v>
       </c>
       <c r="D543">
-        <v>-11.12</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -7695,10 +8160,10 @@
         <v>2.76</v>
       </c>
       <c r="C544">
-        <v>2.15</v>
+        <v>2.78</v>
       </c>
       <c r="D544">
-        <v>-11.2</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -7709,10 +8174,10 @@
         <v>2.88</v>
       </c>
       <c r="C545">
-        <v>2.27</v>
+        <v>2.9</v>
       </c>
       <c r="D545">
-        <v>-11.35</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -7723,10 +8188,10 @@
         <v>2.98</v>
       </c>
       <c r="C546">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="D546">
-        <v>-11.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -7737,10 +8202,10 @@
         <v>3.07</v>
       </c>
       <c r="C547">
-        <v>2.46</v>
+        <v>3.09</v>
       </c>
       <c r="D547">
-        <v>-11.96</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -7751,10 +8216,10 @@
         <v>3.15</v>
       </c>
       <c r="C548">
-        <v>2.54</v>
+        <v>3.16</v>
       </c>
       <c r="D548">
-        <v>-12.45</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -7765,10 +8230,10 @@
         <v>3.23</v>
       </c>
       <c r="C549">
-        <v>2.61</v>
+        <v>3.23</v>
       </c>
       <c r="D549">
-        <v>-13.04</v>
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -7779,10 +8244,10 @@
         <v>3.29</v>
       </c>
       <c r="C550">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="D550">
-        <v>-13.72</v>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -7793,10 +8258,10 @@
         <v>3.35</v>
       </c>
       <c r="C551">
-        <v>2.74</v>
+        <v>3.36</v>
       </c>
       <c r="D551">
-        <v>-14.39</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -7807,10 +8272,10 @@
         <v>3.41</v>
       </c>
       <c r="C552">
-        <v>2.8</v>
+        <v>3.41</v>
       </c>
       <c r="D552">
-        <v>-15</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -7821,10 +8286,10 @@
         <v>3.45</v>
       </c>
       <c r="C553">
-        <v>2.84</v>
+        <v>3.44</v>
       </c>
       <c r="D553">
-        <v>-15.43</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -7835,10 +8300,10 @@
         <v>3.47</v>
       </c>
       <c r="C554">
-        <v>2.86</v>
+        <v>3.47</v>
       </c>
       <c r="D554">
-        <v>-15.58</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -7849,10 +8314,10 @@
         <v>3.48</v>
       </c>
       <c r="C555">
-        <v>2.87</v>
+        <v>3.47</v>
       </c>
       <c r="D555">
-        <v>-15.38</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -7863,10 +8328,10 @@
         <v>3.48</v>
       </c>
       <c r="C556">
-        <v>2.86</v>
+        <v>3.46</v>
       </c>
       <c r="D556">
-        <v>-14.77</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -7877,10 +8342,10 @@
         <v>3.45</v>
       </c>
       <c r="C557">
-        <v>2.84</v>
+        <v>3.44</v>
       </c>
       <c r="D557">
-        <v>-13.83</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -7891,10 +8356,10 @@
         <v>3.41</v>
       </c>
       <c r="C558">
-        <v>2.8</v>
+        <v>3.39</v>
       </c>
       <c r="D558">
-        <v>-12.65</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -7905,10 +8370,10 @@
         <v>3.35</v>
       </c>
       <c r="C559">
-        <v>2.74</v>
+        <v>3.33</v>
       </c>
       <c r="D559">
-        <v>-11.33</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -7919,10 +8384,10 @@
         <v>3.28</v>
       </c>
       <c r="C560">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="D560">
-        <v>-10.029999999999999</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -7933,10 +8398,10 @@
         <v>3.19</v>
       </c>
       <c r="C561">
-        <v>2.58</v>
+        <v>3.16</v>
       </c>
       <c r="D561">
-        <v>-8.83</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -7947,10 +8412,10 @@
         <v>3.07</v>
       </c>
       <c r="C562">
-        <v>2.46</v>
+        <v>3.04</v>
       </c>
       <c r="D562">
-        <v>-7.79</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -7961,10 +8426,10 @@
         <v>2.93</v>
       </c>
       <c r="C563">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="D563">
-        <v>-6.94</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -7975,10 +8440,10 @@
         <v>2.77</v>
       </c>
       <c r="C564">
-        <v>2.16</v>
+        <v>2.73</v>
       </c>
       <c r="D564">
-        <v>-6.33</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -7989,10 +8454,10 @@
         <v>2.59</v>
       </c>
       <c r="C565">
-        <v>1.98</v>
+        <v>2.54</v>
       </c>
       <c r="D565">
-        <v>-5.95</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -8003,10 +8468,10 @@
         <v>2.37</v>
       </c>
       <c r="C566">
-        <v>1.76</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D566">
-        <v>-5.78</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -8017,10 +8482,10 @@
         <v>2.12</v>
       </c>
       <c r="C567">
-        <v>1.51</v>
+        <v>2.06</v>
       </c>
       <c r="D567">
-        <v>-5.76</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -8031,10 +8496,10 @@
         <v>1.83</v>
       </c>
       <c r="C568">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="D568">
-        <v>-5.81</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -8045,10 +8510,10 @@
         <v>1.49</v>
       </c>
       <c r="C569">
-        <v>0.87</v>
+        <v>1.41</v>
       </c>
       <c r="D569">
-        <v>-5.9</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -8059,10 +8524,10 @@
         <v>1.08</v>
       </c>
       <c r="C570">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="D570">
-        <v>-6.01</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -8073,10 +8538,10 @@
         <v>0.62</v>
       </c>
       <c r="C571">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="D571">
-        <v>-6.17</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -8087,10 +8552,10 @@
         <v>0.12</v>
       </c>
       <c r="C572">
-        <v>-0.49</v>
+        <v>0.03</v>
       </c>
       <c r="D572">
-        <v>-6.36</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -8101,10 +8566,10 @@
         <v>-0.39</v>
       </c>
       <c r="C573">
-        <v>-1.01</v>
+        <v>-0.49</v>
       </c>
       <c r="D573">
-        <v>-6.56</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -8115,10 +8580,10 @@
         <v>-0.92</v>
       </c>
       <c r="C574">
-        <v>-1.54</v>
+        <v>-1.03</v>
       </c>
       <c r="D574">
-        <v>-6.71</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -8129,10 +8594,10 @@
         <v>-1.48</v>
       </c>
       <c r="C575">
-        <v>-2.09</v>
+        <v>-1.59</v>
       </c>
       <c r="D575">
-        <v>-6.75</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -8143,10 +8608,10 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="C576">
-        <v>-2.66</v>
+        <v>-2.16</v>
       </c>
       <c r="D576">
-        <v>-6.61</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -8157,10 +8622,10 @@
         <v>-2.57</v>
       </c>
       <c r="C577">
-        <v>-3.18</v>
+        <v>-2.69</v>
       </c>
       <c r="D577">
-        <v>-6.3</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -8171,10 +8636,10 @@
         <v>-3.01</v>
       </c>
       <c r="C578">
-        <v>-3.62</v>
+        <v>-3.14</v>
       </c>
       <c r="D578">
-        <v>-5.85</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -8185,10 +8650,10 @@
         <v>-3.33</v>
       </c>
       <c r="C579">
-        <v>-3.95</v>
+        <v>-3.49</v>
       </c>
       <c r="D579">
-        <v>-5.31</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -8199,10 +8664,10 @@
         <v>-3.54</v>
       </c>
       <c r="C580">
-        <v>-4.1500000000000004</v>
+        <v>-3.73</v>
       </c>
       <c r="D580">
-        <v>-4.72</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -8213,10 +8678,10 @@
         <v>-3.62</v>
       </c>
       <c r="C581">
-        <v>-4.2300000000000004</v>
+        <v>-3.84</v>
       </c>
       <c r="D581">
-        <v>-4.12</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -8227,10 +8692,10 @@
         <v>-3.59</v>
       </c>
       <c r="C582">
-        <v>-4.21</v>
+        <v>-3.85</v>
       </c>
       <c r="D582">
-        <v>-3.57</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -8241,10 +8706,10 @@
         <v>-3.47</v>
       </c>
       <c r="C583">
-        <v>-4.09</v>
+        <v>-3.76</v>
       </c>
       <c r="D583">
-        <v>-3.1</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -8255,10 +8720,10 @@
         <v>-3.28</v>
       </c>
       <c r="C584">
-        <v>-3.89</v>
+        <v>-3.6</v>
       </c>
       <c r="D584">
-        <v>-2.73</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -8269,10 +8734,10 @@
         <v>-3.04</v>
       </c>
       <c r="C585">
-        <v>-3.65</v>
+        <v>-3.38</v>
       </c>
       <c r="D585">
-        <v>-2.4900000000000002</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -8283,10 +8748,10 @@
         <v>-2.74</v>
       </c>
       <c r="C586">
-        <v>-3.35</v>
+        <v>-3.11</v>
       </c>
       <c r="D586">
-        <v>-2.36</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -8297,10 +8762,10 @@
         <v>-2.42</v>
       </c>
       <c r="C587">
-        <v>-3.03</v>
+        <v>-2.8</v>
       </c>
       <c r="D587">
-        <v>-2.33</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -8311,10 +8776,10 @@
         <v>-2.12</v>
       </c>
       <c r="C588">
-        <v>-2.73</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="D588">
-        <v>-2.35</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -8325,10 +8790,10 @@
         <v>-1.85</v>
       </c>
       <c r="C589">
-        <v>-2.46</v>
+        <v>-2.23</v>
       </c>
       <c r="D589">
-        <v>-2.39</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -8339,10 +8804,10 @@
         <v>-1.6</v>
       </c>
       <c r="C590">
-        <v>-2.21</v>
+        <v>-1.98</v>
       </c>
       <c r="D590">
-        <v>-2.41</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -8353,10 +8818,10 @@
         <v>-1.34</v>
       </c>
       <c r="C591">
-        <v>-1.95</v>
+        <v>-1.72</v>
       </c>
       <c r="D591">
-        <v>-2.4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -8367,10 +8832,10 @@
         <v>-1.0900000000000001</v>
       </c>
       <c r="C592">
-        <v>-1.7</v>
+        <v>-1.46</v>
       </c>
       <c r="D592">
-        <v>-2.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -8381,10 +8846,10 @@
         <v>-0.83</v>
       </c>
       <c r="C593">
-        <v>-1.44</v>
+        <v>-1.2</v>
       </c>
       <c r="D593">
-        <v>-2.25</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -8395,10 +8860,10 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="C594">
-        <v>-1.18</v>
+        <v>-0.94</v>
       </c>
       <c r="D594">
-        <v>-2.12</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -8409,10 +8874,10 @@
         <v>-0.31</v>
       </c>
       <c r="C595">
-        <v>-0.92</v>
+        <v>-0.68</v>
       </c>
       <c r="D595">
-        <v>-1.96</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -8423,10 +8888,10 @@
         <v>-0.05</v>
       </c>
       <c r="C596">
-        <v>-0.66</v>
+        <v>-0.43</v>
       </c>
       <c r="D596">
-        <v>-1.76</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -8437,10 +8902,10 @@
         <v>0.21</v>
       </c>
       <c r="C597">
-        <v>-0.4</v>
+        <v>-0.17</v>
       </c>
       <c r="D597">
-        <v>-1.54</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -8451,10 +8916,10 @@
         <v>0.46</v>
       </c>
       <c r="C598">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
       <c r="D598">
-        <v>-1.29</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -8465,10 +8930,10 @@
         <v>0.72</v>
       </c>
       <c r="C599">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="D599">
-        <v>-1.03</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -8479,10 +8944,10 @@
         <v>0.98</v>
       </c>
       <c r="C600">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="D600">
-        <v>-0.76</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -8493,10 +8958,10 @@
         <v>1.24</v>
       </c>
       <c r="C601">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="D601">
-        <v>-0.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
@@ -8507,10 +8972,10 @@
         <v>1.5</v>
       </c>
       <c r="C602">
-        <v>0.89</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D602">
-        <v>-0.24</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
@@ -8521,10 +8986,10 @@
         <v>1.76</v>
       </c>
       <c r="C603">
-        <v>1.1499999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="D603">
-        <v>-0.01</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -8535,10 +9000,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C604">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="D604">
-        <v>0.2</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
@@ -8549,10 +9014,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C605">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="D605">
-        <v>0.4</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -8563,10 +9028,10 @@
         <v>2.56</v>
       </c>
       <c r="C606">
-        <v>1.96</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D606">
-        <v>0.57999999999999996</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
@@ -8577,10 +9042,10 @@
         <v>2.84</v>
       </c>
       <c r="C607">
-        <v>2.23</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D607">
-        <v>0.76</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -8591,10 +9056,10 @@
         <v>3.1</v>
       </c>
       <c r="C608">
-        <v>2.4900000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="D608">
-        <v>0.94</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -8605,10 +9070,10 @@
         <v>3.34</v>
       </c>
       <c r="C609">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="D609">
-        <v>1.1299999999999999</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -8619,10 +9084,10 @@
         <v>3.53</v>
       </c>
       <c r="C610">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="D610">
-        <v>1.33</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
@@ -8633,10 +9098,10 @@
         <v>3.68</v>
       </c>
       <c r="C611">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="D611">
-        <v>1.54</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -8647,10 +9112,10 @@
         <v>3.79</v>
       </c>
       <c r="C612">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="D612">
-        <v>1.75</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -8661,10 +9126,10 @@
         <v>3.85</v>
       </c>
       <c r="C613">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="D613">
-        <v>1.97</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -8675,10 +9140,10 @@
         <v>3.86</v>
       </c>
       <c r="C614">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="D614">
-        <v>2.1800000000000002</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -8689,10 +9154,10 @@
         <v>3.84</v>
       </c>
       <c r="C615">
-        <v>3.23</v>
+        <v>2.96</v>
       </c>
       <c r="D615">
-        <v>2.4</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -8703,10 +9168,10 @@
         <v>3.79</v>
       </c>
       <c r="C616">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="D616">
-        <v>2.63</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -8717,10 +9182,10 @@
         <v>3.73</v>
       </c>
       <c r="C617">
-        <v>3.11</v>
+        <v>2.76</v>
       </c>
       <c r="D617">
-        <v>2.85</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
@@ -8731,10 +9196,10 @@
         <v>3.66</v>
       </c>
       <c r="C618">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="D618">
-        <v>3.07</v>
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
@@ -8745,10 +9210,10 @@
         <v>3.6</v>
       </c>
       <c r="C619">
-        <v>2.99</v>
+        <v>2.61</v>
       </c>
       <c r="D619">
-        <v>3.28</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
@@ -8759,10 +9224,10 @@
         <v>3.55</v>
       </c>
       <c r="C620">
-        <v>2.94</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D620">
-        <v>3.47</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
@@ -8773,10 +9238,10 @@
         <v>3.51</v>
       </c>
       <c r="C621">
-        <v>2.89</v>
+        <v>2.46</v>
       </c>
       <c r="D621">
-        <v>3.6</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
@@ -8787,10 +9252,10 @@
         <v>3.46</v>
       </c>
       <c r="C622">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="D622">
-        <v>3.67</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
@@ -8801,10 +9266,10 @@
         <v>3.42</v>
       </c>
       <c r="C623">
-        <v>2.8</v>
+        <v>2.31</v>
       </c>
       <c r="D623">
-        <v>3.71</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
@@ -8815,10 +9280,10 @@
         <v>3.37</v>
       </c>
       <c r="C624">
-        <v>2.76</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D624">
-        <v>3.72</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
@@ -8829,10 +9294,10 @@
         <v>3.33</v>
       </c>
       <c r="C625">
-        <v>2.72</v>
+        <v>2.17</v>
       </c>
       <c r="D625">
-        <v>3.73</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
@@ -8843,10 +9308,10 @@
         <v>3.29</v>
       </c>
       <c r="C626">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="D626">
-        <v>3.73</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
@@ -8857,10 +9322,10 @@
         <v>3.25</v>
       </c>
       <c r="C627">
-        <v>2.64</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D627">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
@@ -8871,10 +9336,10 @@
         <v>3.21</v>
       </c>
       <c r="C628">
-        <v>2.6</v>
+        <v>1.97</v>
       </c>
       <c r="D628">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
@@ -8885,10 +9350,10 @@
         <v>3.18</v>
       </c>
       <c r="C629">
-        <v>2.57</v>
+        <v>1.91</v>
       </c>
       <c r="D629">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
@@ -8899,10 +9364,10 @@
         <v>3.14</v>
       </c>
       <c r="C630">
-        <v>2.5299999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="D630">
-        <v>4.05</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -8913,10 +9378,10 @@
         <v>3.1</v>
       </c>
       <c r="C631">
-        <v>2.4900000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="D631">
-        <v>4.24</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
@@ -8927,10 +9392,10 @@
         <v>3.07</v>
       </c>
       <c r="C632">
-        <v>2.4500000000000002</v>
+        <v>1.73</v>
       </c>
       <c r="D632">
-        <v>4.47</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
@@ -8941,10 +9406,10 @@
         <v>3.03</v>
       </c>
       <c r="C633">
-        <v>2.42</v>
+        <v>1.67</v>
       </c>
       <c r="D633">
-        <v>4.74</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
@@ -8955,10 +9420,10 @@
         <v>2.99</v>
       </c>
       <c r="C634">
-        <v>2.38</v>
+        <v>1.61</v>
       </c>
       <c r="D634">
-        <v>5.01</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
@@ -8969,10 +9434,10 @@
         <v>2.95</v>
       </c>
       <c r="C635">
-        <v>2.33</v>
+        <v>1.55</v>
       </c>
       <c r="D635">
-        <v>5.23</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
@@ -8983,10 +9448,10 @@
         <v>2.9</v>
       </c>
       <c r="C636">
-        <v>2.29</v>
+        <v>1.48</v>
       </c>
       <c r="D636">
-        <v>5.44</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
@@ -8997,10 +9462,10 @@
         <v>2.85</v>
       </c>
       <c r="C637">
-        <v>2.2400000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="D637">
-        <v>5.62</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
@@ -9011,10 +9476,10 @@
         <v>2.81</v>
       </c>
       <c r="C638">
-        <v>2.19</v>
+        <v>1.34</v>
       </c>
       <c r="D638">
-        <v>5.77</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
@@ -9025,10 +9490,10 @@
         <v>2.75</v>
       </c>
       <c r="C639">
-        <v>2.14</v>
+        <v>1.27</v>
       </c>
       <c r="D639">
-        <v>5.89</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -9039,10 +9504,10 @@
         <v>2.7</v>
       </c>
       <c r="C640">
-        <v>2.09</v>
+        <v>1.19</v>
       </c>
       <c r="D640">
-        <v>5.97</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
@@ -9053,10 +9518,10 @@
         <v>2.65</v>
       </c>
       <c r="C641">
-        <v>2.0299999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D641">
-        <v>6.02</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
@@ -9067,10 +9532,10 @@
         <v>2.59</v>
       </c>
       <c r="C642">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="D642">
-        <v>6.04</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -9081,10 +9546,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C643">
-        <v>1.92</v>
+        <v>0.95</v>
       </c>
       <c r="D643">
-        <v>6.04</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
@@ -9095,10 +9560,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C644">
-        <v>1.86</v>
+        <v>0.87</v>
       </c>
       <c r="D644">
-        <v>6.03</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
@@ -9109,10 +9574,10 @@
         <v>2.41</v>
       </c>
       <c r="C645">
-        <v>1.8</v>
+        <v>0.79</v>
       </c>
       <c r="D645">
-        <v>6.01</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
@@ -9123,10 +9588,10 @@
         <v>2.35</v>
       </c>
       <c r="C646">
-        <v>1.74</v>
+        <v>0.7</v>
       </c>
       <c r="D646">
-        <v>6</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
@@ -9137,10 +9602,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C647">
-        <v>1.67</v>
+        <v>0.62</v>
       </c>
       <c r="D647">
-        <v>6</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -9151,10 +9616,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="C648">
-        <v>1.6</v>
+        <v>0.53</v>
       </c>
       <c r="D648">
-        <v>6</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -9165,10 +9630,10 @@
         <v>2.15</v>
       </c>
       <c r="C649">
-        <v>1.53</v>
+        <v>0.43</v>
       </c>
       <c r="D649">
-        <v>6</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
@@ -9179,10 +9644,10 @@
         <v>2.08</v>
       </c>
       <c r="C650">
-        <v>1.46</v>
+        <v>0.34</v>
       </c>
       <c r="D650">
-        <v>6</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
@@ -9193,10 +9658,10 @@
         <v>2</v>
       </c>
       <c r="C651">
-        <v>1.39</v>
+        <v>0.25</v>
       </c>
       <c r="D651">
-        <v>6</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
@@ -9207,10 +9672,10 @@
         <v>1.93</v>
       </c>
       <c r="C652">
-        <v>1.32</v>
+        <v>0.15</v>
       </c>
       <c r="D652">
-        <v>6</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
@@ -9221,10 +9686,10 @@
         <v>1.85</v>
       </c>
       <c r="C653">
-        <v>1.24</v>
+        <v>0.05</v>
       </c>
       <c r="D653">
-        <v>6</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
@@ -9235,10 +9700,10 @@
         <v>1.77</v>
       </c>
       <c r="C654">
-        <v>1.1599999999999999</v>
+        <v>-0.05</v>
       </c>
       <c r="D654">
-        <v>6</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
@@ -9249,10 +9714,10 @@
         <v>1.69</v>
       </c>
       <c r="C655">
-        <v>1.08</v>
+        <v>-0.15</v>
       </c>
       <c r="D655">
-        <v>6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
@@ -9263,10 +9728,10 @@
         <v>1.61</v>
       </c>
       <c r="C656">
-        <v>1</v>
+        <v>-0.26</v>
       </c>
       <c r="D656">
-        <v>6</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
@@ -9277,10 +9742,10 @@
         <v>1.53</v>
       </c>
       <c r="C657">
-        <v>0.91</v>
+        <v>-0.36</v>
       </c>
       <c r="D657">
-        <v>6</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
@@ -9291,10 +9756,10 @@
         <v>1.44</v>
       </c>
       <c r="C658">
-        <v>0.83</v>
+        <v>-0.47</v>
       </c>
       <c r="D658">
-        <v>6</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
@@ -9305,10 +9770,10 @@
         <v>1.35</v>
       </c>
       <c r="C659">
-        <v>0.74</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D659">
-        <v>6</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -9319,10 +9784,10 @@
         <v>1.26</v>
       </c>
       <c r="C660">
-        <v>0.65</v>
+        <v>-0.69</v>
       </c>
       <c r="D660">
-        <v>6</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
@@ -9333,10 +9798,10 @@
         <v>1.17</v>
       </c>
       <c r="C661">
-        <v>0.56000000000000005</v>
+        <v>-0.81</v>
       </c>
       <c r="D661">
-        <v>6</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
@@ -9347,10 +9812,10 @@
         <v>1.08</v>
       </c>
       <c r="C662">
-        <v>0.47</v>
+        <v>-0.92</v>
       </c>
       <c r="D662">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,10 +9826,10 @@
         <v>0.98</v>
       </c>
       <c r="C663">
-        <v>0.37</v>
+        <v>-1.04</v>
       </c>
       <c r="D663">
-        <v>6</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
@@ -9375,10 +9840,10 @@
         <v>0.89</v>
       </c>
       <c r="C664">
-        <v>0.28000000000000003</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D664">
-        <v>6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
@@ -9389,10 +9854,10 @@
         <v>0.79</v>
       </c>
       <c r="C665">
-        <v>0.18</v>
+        <v>-1.28</v>
       </c>
       <c r="D665">
-        <v>6</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
@@ -9403,10 +9868,10 @@
         <v>0.69</v>
       </c>
       <c r="C666">
-        <v>0.08</v>
+        <v>-1.41</v>
       </c>
       <c r="D666">
-        <v>6</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
@@ -9417,10 +9882,10 @@
         <v>0.59</v>
       </c>
       <c r="C667">
-        <v>-0.03</v>
+        <v>-1.53</v>
       </c>
       <c r="D667">
-        <v>6</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
@@ -9431,10 +9896,10 @@
         <v>0.48</v>
       </c>
       <c r="C668">
-        <v>-0.13</v>
+        <v>-1.66</v>
       </c>
       <c r="D668">
-        <v>6</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
@@ -9445,10 +9910,10 @@
         <v>0.38</v>
       </c>
       <c r="C669">
-        <v>-0.24</v>
+        <v>-1.79</v>
       </c>
       <c r="D669">
-        <v>6</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
@@ -9459,10 +9924,10 @@
         <v>0.27</v>
       </c>
       <c r="C670">
-        <v>-0.34</v>
+        <v>-1.92</v>
       </c>
       <c r="D670">
-        <v>6</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
@@ -9473,10 +9938,10 @@
         <v>0.16</v>
       </c>
       <c r="C671">
-        <v>-0.45</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="D671">
-        <v>6</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
@@ -9487,10 +9952,10 @@
         <v>0.05</v>
       </c>
       <c r="C672">
-        <v>-0.56999999999999995</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="D672">
-        <v>6</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
@@ -9501,10 +9966,10 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C673">
-        <v>-0.68</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="D673">
-        <v>6</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
@@ -9515,10 +9980,10 @@
         <v>-0.18</v>
       </c>
       <c r="C674">
-        <v>-0.79</v>
+        <v>-2.46</v>
       </c>
       <c r="D674">
-        <v>6</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
@@ -9529,10 +9994,10 @@
         <v>-0.3</v>
       </c>
       <c r="C675">
-        <v>-0.91</v>
+        <v>-2.6</v>
       </c>
       <c r="D675">
-        <v>6</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
@@ -9543,10 +10008,10 @@
         <v>-0.42</v>
       </c>
       <c r="C676">
-        <v>-1.03</v>
+        <v>-2.74</v>
       </c>
       <c r="D676">
-        <v>6</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
@@ -9557,10 +10022,10 @@
         <v>-0.54</v>
       </c>
       <c r="C677">
-        <v>-1.1499999999999999</v>
+        <v>-2.88</v>
       </c>
       <c r="D677">
-        <v>6</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
@@ -9571,10 +10036,10 @@
         <v>-0.66</v>
       </c>
       <c r="C678">
-        <v>-1.27</v>
+        <v>-3.03</v>
       </c>
       <c r="D678">
-        <v>6</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
@@ -9585,10 +10050,10 @@
         <v>-0.79</v>
       </c>
       <c r="C679">
-        <v>-1.4</v>
+        <v>-3.17</v>
       </c>
       <c r="D679">
-        <v>6</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
@@ -9599,10 +10064,10 @@
         <v>-0.91</v>
       </c>
       <c r="C680">
-        <v>-1.52</v>
+        <v>-3.32</v>
       </c>
       <c r="D680">
-        <v>6</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
@@ -9613,10 +10078,10 @@
         <v>-1.04</v>
       </c>
       <c r="C681">
-        <v>-1.65</v>
+        <v>-3.47</v>
       </c>
       <c r="D681">
-        <v>6</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
@@ -9627,10 +10092,10 @@
         <v>-1.17</v>
       </c>
       <c r="C682">
-        <v>-1.78</v>
+        <v>-3.63</v>
       </c>
       <c r="D682">
-        <v>6</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
@@ -9641,10 +10106,10 @@
         <v>-1.3</v>
       </c>
       <c r="C683">
-        <v>-1.91</v>
+        <v>-3.78</v>
       </c>
       <c r="D683">
-        <v>6</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
@@ -9655,10 +10120,10 @@
         <v>-1.44</v>
       </c>
       <c r="C684">
-        <v>-2.0499999999999998</v>
+        <v>-3.94</v>
       </c>
       <c r="D684">
-        <v>6</v>
+        <v>-2.2599999999999998</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
@@ -9669,10 +10134,10 @@
         <v>-1.57</v>
       </c>
       <c r="C685">
-        <v>-2.1800000000000002</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D685">
-        <v>6</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
@@ -9683,10 +10148,10 @@
         <v>-1.71</v>
       </c>
       <c r="C686">
-        <v>-2.3199999999999998</v>
+        <v>-4.26</v>
       </c>
       <c r="D686">
-        <v>6</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
@@ -9697,10 +10162,10 @@
         <v>-1.85</v>
       </c>
       <c r="C687">
-        <v>-2.46</v>
+        <v>-4.42</v>
       </c>
       <c r="D687">
-        <v>6</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
@@ -9711,10 +10176,10 @@
         <v>-1.99</v>
       </c>
       <c r="C688">
-        <v>-2.6</v>
+        <v>-4.58</v>
       </c>
       <c r="D688">
-        <v>6</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
@@ -9725,10 +10190,10 @@
         <v>-2.13</v>
       </c>
       <c r="C689">
-        <v>-2.74</v>
+        <v>-4.75</v>
       </c>
       <c r="D689">
-        <v>6</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
@@ -9739,10 +10204,10 @@
         <v>-2.2799999999999998</v>
       </c>
       <c r="C690">
-        <v>-2.89</v>
+        <v>-4.92</v>
       </c>
       <c r="D690">
-        <v>6</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
@@ -9753,10 +10218,10 @@
         <v>-2.42</v>
       </c>
       <c r="C691">
-        <v>-3.04</v>
+        <v>-5.09</v>
       </c>
       <c r="D691">
-        <v>6</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
@@ -9767,10 +10232,10 @@
         <v>-2.57</v>
       </c>
       <c r="C692">
-        <v>-3.18</v>
+        <v>-5.26</v>
       </c>
       <c r="D692">
-        <v>6</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
@@ -9781,10 +10246,10 @@
         <v>-2.72</v>
       </c>
       <c r="C693">
-        <v>-3.34</v>
+        <v>-5.43</v>
       </c>
       <c r="D693">
-        <v>6</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
@@ -9795,10 +10260,10 @@
         <v>-2.87</v>
       </c>
       <c r="C694">
-        <v>-3.49</v>
+        <v>-5.61</v>
       </c>
       <c r="D694">
-        <v>6</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
@@ -9809,10 +10274,10 @@
         <v>-3.03</v>
       </c>
       <c r="C695">
-        <v>-3.64</v>
+        <v>-5.78</v>
       </c>
       <c r="D695">
-        <v>6</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
@@ -9823,10 +10288,10 @@
         <v>-3.18</v>
       </c>
       <c r="C696">
-        <v>-3.8</v>
+        <v>-5.96</v>
       </c>
       <c r="D696">
-        <v>6</v>
+        <v>-4.3099999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -9846,16 +10311,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9989,7 +10454,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/my_results/Pre-Amp Calculator.xlsx
+++ b/my_results/Pre-Amp Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A7865-CD2C-48EC-855A-A3E44273A83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8257D766-2FEB-4C21-BA1B-F54FA2E33549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="912" windowWidth="17244" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5796" yWindow="420" windowWidth="17244" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impulse" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>f \ equalisation</t>
   </si>
   <si>
-    <t>jm1 tilt</t>
-  </si>
-  <si>
     <t>jm1 tilt adjusted</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>manual attenuation</t>
+  </si>
+  <si>
+    <t>jm1_10db_4db_adjusted</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:L696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,13 +459,13 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -491,7 +491,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>-0.33</v>
+        <v>6.67</v>
       </c>
       <c r="C2">
         <v>-0.25</v>
@@ -504,26 +504,26 @@
       </c>
       <c r="G2">
         <f>SUM(B2:B696)</f>
-        <v>-447.04000000000104</v>
+        <v>1073.3799999999997</v>
       </c>
       <c r="H2">
         <f>AVERAGE(B2:B696)</f>
-        <v>-0.64322302158273537</v>
+        <v>1.5444316546762584</v>
       </c>
       <c r="I2">
         <f>MIN($B$2:$B$696)</f>
-        <v>-6.14</v>
+        <v>-11.11</v>
       </c>
       <c r="J2">
         <f>MAX($B$2:$B$696)</f>
-        <v>4.3899999999999997</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2">
         <f>J2-K2-H2</f>
-        <v>5.0332230215827352</v>
+        <v>8.4955683453237398</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>20.2</v>
       </c>
       <c r="B3">
-        <v>-0.36</v>
+        <v>6.67</v>
       </c>
       <c r="C3">
         <v>-0.28000000000000003</v>
@@ -571,7 +571,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B4">
-        <v>-0.39</v>
+        <v>6.66</v>
       </c>
       <c r="C4">
         <v>-0.31</v>
@@ -611,7 +611,7 @@
         <v>20.61</v>
       </c>
       <c r="B5">
-        <v>-0.42</v>
+        <v>6.66</v>
       </c>
       <c r="C5">
         <v>-0.34</v>
@@ -625,7 +625,7 @@
         <v>20.81</v>
       </c>
       <c r="B6">
-        <v>-0.45</v>
+        <v>6.66</v>
       </c>
       <c r="C6">
         <v>-0.38</v>
@@ -639,7 +639,7 @@
         <v>21.02</v>
       </c>
       <c r="B7">
-        <v>-0.48</v>
+        <v>6.66</v>
       </c>
       <c r="C7">
         <v>-0.41</v>
@@ -653,7 +653,7 @@
         <v>21.23</v>
       </c>
       <c r="B8">
-        <v>-0.51</v>
+        <v>6.65</v>
       </c>
       <c r="C8">
         <v>-0.44</v>
@@ -667,7 +667,7 @@
         <v>21.44</v>
       </c>
       <c r="B9">
-        <v>-0.54</v>
+        <v>6.65</v>
       </c>
       <c r="C9">
         <v>-0.46</v>
@@ -681,7 +681,7 @@
         <v>21.66</v>
       </c>
       <c r="B10">
-        <v>-0.56999999999999995</v>
+        <v>6.65</v>
       </c>
       <c r="C10">
         <v>-0.49</v>
@@ -695,7 +695,7 @@
         <v>21.87</v>
       </c>
       <c r="B11">
-        <v>-0.6</v>
+        <v>6.66</v>
       </c>
       <c r="C11">
         <v>-0.52</v>
@@ -709,7 +709,7 @@
         <v>22.09</v>
       </c>
       <c r="B12">
-        <v>-0.63</v>
+        <v>6.66</v>
       </c>
       <c r="C12">
         <v>-0.55000000000000004</v>
@@ -723,7 +723,7 @@
         <v>22.31</v>
       </c>
       <c r="B13">
-        <v>-0.66</v>
+        <v>6.66</v>
       </c>
       <c r="C13">
         <v>-0.57999999999999996</v>
@@ -737,7 +737,7 @@
         <v>22.54</v>
       </c>
       <c r="B14">
-        <v>-0.69</v>
+        <v>6.65</v>
       </c>
       <c r="C14">
         <v>-0.61</v>
@@ -751,7 +751,7 @@
         <v>22.76</v>
       </c>
       <c r="B15">
-        <v>-0.71</v>
+        <v>6.65</v>
       </c>
       <c r="C15">
         <v>-0.64</v>
@@ -765,7 +765,7 @@
         <v>22.99</v>
       </c>
       <c r="B16">
-        <v>-0.74</v>
+        <v>6.65</v>
       </c>
       <c r="C16">
         <v>-0.67</v>
@@ -779,7 +779,7 @@
         <v>23.22</v>
       </c>
       <c r="B17">
-        <v>-0.77</v>
+        <v>6.65</v>
       </c>
       <c r="C17">
         <v>-0.69</v>
@@ -793,7 +793,7 @@
         <v>23.45</v>
       </c>
       <c r="B18">
-        <v>-0.8</v>
+        <v>6.66</v>
       </c>
       <c r="C18">
         <v>-0.72</v>
@@ -807,7 +807,7 @@
         <v>23.69</v>
       </c>
       <c r="B19">
-        <v>-0.83</v>
+        <v>6.65</v>
       </c>
       <c r="C19">
         <v>-0.75</v>
@@ -821,7 +821,7 @@
         <v>23.92</v>
       </c>
       <c r="B20">
-        <v>-0.86</v>
+        <v>6.65</v>
       </c>
       <c r="C20">
         <v>-0.78</v>
@@ -835,7 +835,7 @@
         <v>24.16</v>
       </c>
       <c r="B21">
-        <v>-0.88</v>
+        <v>6.64</v>
       </c>
       <c r="C21">
         <v>-0.81</v>
@@ -849,7 +849,7 @@
         <v>24.4</v>
       </c>
       <c r="B22">
-        <v>-0.91</v>
+        <v>6.64</v>
       </c>
       <c r="C22">
         <v>-0.83</v>
@@ -863,7 +863,7 @@
         <v>24.65</v>
       </c>
       <c r="B23">
-        <v>-0.94</v>
+        <v>6.64</v>
       </c>
       <c r="C23">
         <v>-0.86</v>
@@ -877,7 +877,7 @@
         <v>24.89</v>
       </c>
       <c r="B24">
-        <v>-0.96</v>
+        <v>6.64</v>
       </c>
       <c r="C24">
         <v>-0.89</v>
@@ -891,7 +891,7 @@
         <v>25.14</v>
       </c>
       <c r="B25">
-        <v>-0.99</v>
+        <v>6.63</v>
       </c>
       <c r="C25">
         <v>-0.91</v>
@@ -905,7 +905,7 @@
         <v>25.39</v>
       </c>
       <c r="B26">
-        <v>-1.02</v>
+        <v>6.63</v>
       </c>
       <c r="C26">
         <v>-0.94</v>
@@ -919,7 +919,7 @@
         <v>25.65</v>
       </c>
       <c r="B27">
-        <v>-1.05</v>
+        <v>6.62</v>
       </c>
       <c r="C27">
         <v>-0.97</v>
@@ -933,7 +933,7 @@
         <v>25.91</v>
       </c>
       <c r="B28">
-        <v>-1.07</v>
+        <v>6.61</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -947,7 +947,7 @@
         <v>26.16</v>
       </c>
       <c r="B29">
-        <v>-1.1000000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="C29">
         <v>-1.02</v>
@@ -961,7 +961,7 @@
         <v>26.43</v>
       </c>
       <c r="B30">
-        <v>-1.1299999999999999</v>
+        <v>6.61</v>
       </c>
       <c r="C30">
         <v>-1.05</v>
@@ -975,7 +975,7 @@
         <v>26.69</v>
       </c>
       <c r="B31">
-        <v>-1.1499999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C31">
         <v>-1.07</v>
@@ -989,7 +989,7 @@
         <v>26.96</v>
       </c>
       <c r="B32">
-        <v>-1.18</v>
+        <v>6.6</v>
       </c>
       <c r="C32">
         <v>-1.1000000000000001</v>
@@ -1003,7 +1003,7 @@
         <v>27.23</v>
       </c>
       <c r="B33">
-        <v>-1.2</v>
+        <v>6.6</v>
       </c>
       <c r="C33">
         <v>-1.1200000000000001</v>
@@ -1017,7 +1017,7 @@
         <v>27.5</v>
       </c>
       <c r="B34">
-        <v>-1.22</v>
+        <v>6.59</v>
       </c>
       <c r="C34">
         <v>-1.1499999999999999</v>
@@ -1031,7 +1031,7 @@
         <v>27.77</v>
       </c>
       <c r="B35">
-        <v>-1.25</v>
+        <v>6.59</v>
       </c>
       <c r="C35">
         <v>-1.17</v>
@@ -1045,7 +1045,7 @@
         <v>28.05</v>
       </c>
       <c r="B36">
-        <v>-1.27</v>
+        <v>6.58</v>
       </c>
       <c r="C36">
         <v>-1.2</v>
@@ -1059,7 +1059,7 @@
         <v>28.33</v>
       </c>
       <c r="B37">
-        <v>-1.3</v>
+        <v>6.58</v>
       </c>
       <c r="C37">
         <v>-1.22</v>
@@ -1073,7 +1073,7 @@
         <v>28.62</v>
       </c>
       <c r="B38">
-        <v>-1.32</v>
+        <v>6.57</v>
       </c>
       <c r="C38">
         <v>-1.25</v>
@@ -1087,7 +1087,7 @@
         <v>28.9</v>
       </c>
       <c r="B39">
-        <v>-1.35</v>
+        <v>6.57</v>
       </c>
       <c r="C39">
         <v>-1.27</v>
@@ -1101,7 +1101,7 @@
         <v>29.19</v>
       </c>
       <c r="B40">
-        <v>-1.37</v>
+        <v>6.56</v>
       </c>
       <c r="C40">
         <v>-1.3</v>
@@ -1115,7 +1115,7 @@
         <v>29.48</v>
       </c>
       <c r="B41">
-        <v>-1.4</v>
+        <v>6.55</v>
       </c>
       <c r="C41">
         <v>-1.32</v>
@@ -1129,7 +1129,7 @@
         <v>29.78</v>
       </c>
       <c r="B42">
-        <v>-1.42</v>
+        <v>6.54</v>
       </c>
       <c r="C42">
         <v>-1.35</v>
@@ -1143,7 +1143,7 @@
         <v>30.08</v>
       </c>
       <c r="B43">
-        <v>-1.45</v>
+        <v>6.53</v>
       </c>
       <c r="C43">
         <v>-1.37</v>
@@ -1157,7 +1157,7 @@
         <v>30.38</v>
       </c>
       <c r="B44">
-        <v>-1.47</v>
+        <v>6.53</v>
       </c>
       <c r="C44">
         <v>-1.39</v>
@@ -1171,7 +1171,7 @@
         <v>30.68</v>
       </c>
       <c r="B45">
-        <v>-1.49</v>
+        <v>6.53</v>
       </c>
       <c r="C45">
         <v>-1.41</v>
@@ -1185,7 +1185,7 @@
         <v>30.99</v>
       </c>
       <c r="B46">
-        <v>-1.51</v>
+        <v>6.52</v>
       </c>
       <c r="C46">
         <v>-1.43</v>
@@ -1199,7 +1199,7 @@
         <v>31.3</v>
       </c>
       <c r="B47">
-        <v>-1.53</v>
+        <v>6.52</v>
       </c>
       <c r="C47">
         <v>-1.45</v>
@@ -1213,7 +1213,7 @@
         <v>31.61</v>
       </c>
       <c r="B48">
-        <v>-1.55</v>
+        <v>6.51</v>
       </c>
       <c r="C48">
         <v>-1.47</v>
@@ -1227,7 +1227,7 @@
         <v>31.93</v>
       </c>
       <c r="B49">
-        <v>-1.57</v>
+        <v>6.5</v>
       </c>
       <c r="C49">
         <v>-1.49</v>
@@ -1241,7 +1241,7 @@
         <v>32.24</v>
       </c>
       <c r="B50">
-        <v>-1.59</v>
+        <v>6.49</v>
       </c>
       <c r="C50">
         <v>-1.51</v>
@@ -1255,7 +1255,7 @@
         <v>32.57</v>
       </c>
       <c r="B51">
-        <v>-1.61</v>
+        <v>6.47</v>
       </c>
       <c r="C51">
         <v>-1.53</v>
@@ -1269,7 +1269,7 @@
         <v>32.89</v>
       </c>
       <c r="B52">
-        <v>-1.63</v>
+        <v>6.46</v>
       </c>
       <c r="C52">
         <v>-1.56</v>
@@ -1283,7 +1283,7 @@
         <v>33.22</v>
       </c>
       <c r="B53">
-        <v>-1.66</v>
+        <v>6.45</v>
       </c>
       <c r="C53">
         <v>-1.58</v>
@@ -1297,7 +1297,7 @@
         <v>33.549999999999997</v>
       </c>
       <c r="B54">
-        <v>-1.69</v>
+        <v>6.44</v>
       </c>
       <c r="C54">
         <v>-1.61</v>
@@ -1311,7 +1311,7 @@
         <v>33.89</v>
       </c>
       <c r="B55">
-        <v>-1.71</v>
+        <v>6.43</v>
       </c>
       <c r="C55">
         <v>-1.64</v>
@@ -1325,7 +1325,7 @@
         <v>34.229999999999997</v>
       </c>
       <c r="B56">
-        <v>-1.74</v>
+        <v>6.41</v>
       </c>
       <c r="C56">
         <v>-1.66</v>
@@ -1339,7 +1339,7 @@
         <v>34.57</v>
       </c>
       <c r="B57">
-        <v>-1.76</v>
+        <v>6.4</v>
       </c>
       <c r="C57">
         <v>-1.69</v>
@@ -1353,7 +1353,7 @@
         <v>34.92</v>
       </c>
       <c r="B58">
-        <v>-1.79</v>
+        <v>6.39</v>
       </c>
       <c r="C58">
         <v>-1.71</v>
@@ -1367,7 +1367,7 @@
         <v>35.270000000000003</v>
       </c>
       <c r="B59">
-        <v>-1.81</v>
+        <v>6.38</v>
       </c>
       <c r="C59">
         <v>-1.73</v>
@@ -1381,7 +1381,7 @@
         <v>35.619999999999997</v>
       </c>
       <c r="B60">
-        <v>-1.83</v>
+        <v>6.37</v>
       </c>
       <c r="C60">
         <v>-1.75</v>
@@ -1395,7 +1395,7 @@
         <v>35.97</v>
       </c>
       <c r="B61">
-        <v>-1.85</v>
+        <v>6.35</v>
       </c>
       <c r="C61">
         <v>-1.77</v>
@@ -1409,7 +1409,7 @@
         <v>36.33</v>
       </c>
       <c r="B62">
-        <v>-1.86</v>
+        <v>6.34</v>
       </c>
       <c r="C62">
         <v>-1.79</v>
@@ -1423,7 +1423,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="B63">
-        <v>-1.88</v>
+        <v>6.32</v>
       </c>
       <c r="C63">
         <v>-1.8</v>
@@ -1437,7 +1437,7 @@
         <v>37.06</v>
       </c>
       <c r="B64">
-        <v>-1.89</v>
+        <v>6.3</v>
       </c>
       <c r="C64">
         <v>-1.82</v>
@@ -1451,7 +1451,7 @@
         <v>37.43</v>
       </c>
       <c r="B65">
-        <v>-1.91</v>
+        <v>6.28</v>
       </c>
       <c r="C65">
         <v>-1.83</v>
@@ -1465,7 +1465,7 @@
         <v>37.81</v>
       </c>
       <c r="B66">
-        <v>-1.92</v>
+        <v>6.26</v>
       </c>
       <c r="C66">
         <v>-1.85</v>
@@ -1479,7 +1479,7 @@
         <v>38.19</v>
       </c>
       <c r="B67">
-        <v>-1.93</v>
+        <v>6.24</v>
       </c>
       <c r="C67">
         <v>-1.86</v>
@@ -1493,7 +1493,7 @@
         <v>38.57</v>
       </c>
       <c r="B68">
-        <v>-1.95</v>
+        <v>6.22</v>
       </c>
       <c r="C68">
         <v>-1.87</v>
@@ -1507,7 +1507,7 @@
         <v>38.950000000000003</v>
       </c>
       <c r="B69">
-        <v>-1.96</v>
+        <v>6.2</v>
       </c>
       <c r="C69">
         <v>-1.88</v>
@@ -1521,7 +1521,7 @@
         <v>39.340000000000003</v>
       </c>
       <c r="B70">
-        <v>-1.97</v>
+        <v>6.18</v>
       </c>
       <c r="C70">
         <v>-1.9</v>
@@ -1535,7 +1535,7 @@
         <v>39.74</v>
       </c>
       <c r="B71">
-        <v>-1.98</v>
+        <v>6.16</v>
       </c>
       <c r="C71">
         <v>-1.91</v>
@@ -1549,7 +1549,7 @@
         <v>40.14</v>
       </c>
       <c r="B72">
-        <v>-2</v>
+        <v>6.13</v>
       </c>
       <c r="C72">
         <v>-1.92</v>
@@ -1563,7 +1563,7 @@
         <v>40.54</v>
       </c>
       <c r="B73">
-        <v>-2.0099999999999998</v>
+        <v>6.11</v>
       </c>
       <c r="C73">
         <v>-1.94</v>
@@ -1577,7 +1577,7 @@
         <v>40.94</v>
       </c>
       <c r="B74">
-        <v>-2.0299999999999998</v>
+        <v>6.08</v>
       </c>
       <c r="C74">
         <v>-1.95</v>
@@ -1591,7 +1591,7 @@
         <v>41.35</v>
       </c>
       <c r="B75">
-        <v>-2.04</v>
+        <v>6.06</v>
       </c>
       <c r="C75">
         <v>-1.97</v>
@@ -1605,7 +1605,7 @@
         <v>41.76</v>
       </c>
       <c r="B76">
-        <v>-2.06</v>
+        <v>6.03</v>
       </c>
       <c r="C76">
         <v>-1.98</v>
@@ -1619,7 +1619,7 @@
         <v>42.18</v>
       </c>
       <c r="B77">
-        <v>-2.08</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>-2</v>
@@ -1633,7 +1633,7 @@
         <v>42.6</v>
       </c>
       <c r="B78">
-        <v>-2.09</v>
+        <v>5.97</v>
       </c>
       <c r="C78">
         <v>-2.0099999999999998</v>
@@ -1647,7 +1647,7 @@
         <v>43.03</v>
       </c>
       <c r="B79">
-        <v>-2.11</v>
+        <v>5.94</v>
       </c>
       <c r="C79">
         <v>-2.0299999999999998</v>
@@ -1661,7 +1661,7 @@
         <v>43.46</v>
       </c>
       <c r="B80">
-        <v>-2.12</v>
+        <v>5.91</v>
       </c>
       <c r="C80">
         <v>-2.0499999999999998</v>
@@ -1675,7 +1675,7 @@
         <v>43.9</v>
       </c>
       <c r="B81">
-        <v>-2.14</v>
+        <v>5.88</v>
       </c>
       <c r="C81">
         <v>-2.06</v>
@@ -1689,7 +1689,7 @@
         <v>44.33</v>
       </c>
       <c r="B82">
-        <v>-2.15</v>
+        <v>5.85</v>
       </c>
       <c r="C82">
         <v>-2.08</v>
@@ -1703,7 +1703,7 @@
         <v>44.78</v>
       </c>
       <c r="B83">
-        <v>-2.17</v>
+        <v>5.82</v>
       </c>
       <c r="C83">
         <v>-2.09</v>
@@ -1717,7 +1717,7 @@
         <v>45.23</v>
       </c>
       <c r="B84">
-        <v>-2.19</v>
+        <v>5.78</v>
       </c>
       <c r="C84">
         <v>-2.11</v>
@@ -1731,7 +1731,7 @@
         <v>45.68</v>
       </c>
       <c r="B85">
-        <v>-2.2000000000000002</v>
+        <v>5.75</v>
       </c>
       <c r="C85">
         <v>-2.12</v>
@@ -1745,7 +1745,7 @@
         <v>46.13</v>
       </c>
       <c r="B86">
-        <v>-2.2200000000000002</v>
+        <v>5.71</v>
       </c>
       <c r="C86">
         <v>-2.14</v>
@@ -1759,7 +1759,7 @@
         <v>46.6</v>
       </c>
       <c r="B87">
-        <v>-2.23</v>
+        <v>5.67</v>
       </c>
       <c r="C87">
         <v>-2.16</v>
@@ -1773,7 +1773,7 @@
         <v>47.06</v>
       </c>
       <c r="B88">
-        <v>-2.25</v>
+        <v>5.63</v>
       </c>
       <c r="C88">
         <v>-2.17</v>
@@ -1787,7 +1787,7 @@
         <v>47.53</v>
       </c>
       <c r="B89">
-        <v>-2.2599999999999998</v>
+        <v>5.6</v>
       </c>
       <c r="C89">
         <v>-2.1800000000000002</v>
@@ -1801,7 +1801,7 @@
         <v>48.01</v>
       </c>
       <c r="B90">
-        <v>-2.27</v>
+        <v>5.56</v>
       </c>
       <c r="C90">
         <v>-2.2000000000000002</v>
@@ -1815,7 +1815,7 @@
         <v>48.49</v>
       </c>
       <c r="B91">
-        <v>-2.29</v>
+        <v>5.52</v>
       </c>
       <c r="C91">
         <v>-2.21</v>
@@ -1829,7 +1829,7 @@
         <v>48.97</v>
       </c>
       <c r="B92">
-        <v>-2.2999999999999998</v>
+        <v>5.48</v>
       </c>
       <c r="C92">
         <v>-2.2200000000000002</v>
@@ -1843,7 +1843,7 @@
         <v>49.46</v>
       </c>
       <c r="B93">
-        <v>-2.31</v>
+        <v>5.44</v>
       </c>
       <c r="C93">
         <v>-2.23</v>
@@ -1857,7 +1857,7 @@
         <v>49.96</v>
       </c>
       <c r="B94">
-        <v>-2.31</v>
+        <v>5.39</v>
       </c>
       <c r="C94">
         <v>-2.2400000000000002</v>
@@ -1871,7 +1871,7 @@
         <v>50.46</v>
       </c>
       <c r="B95">
-        <v>-2.3199999999999998</v>
+        <v>5.34</v>
       </c>
       <c r="C95">
         <v>-2.2400000000000002</v>
@@ -1885,7 +1885,7 @@
         <v>50.96</v>
       </c>
       <c r="B96">
-        <v>-2.3199999999999998</v>
+        <v>5.29</v>
       </c>
       <c r="C96">
         <v>-2.2400000000000002</v>
@@ -1899,7 +1899,7 @@
         <v>51.47</v>
       </c>
       <c r="B97">
-        <v>-2.33</v>
+        <v>5.24</v>
       </c>
       <c r="C97">
         <v>-2.25</v>
@@ -1913,7 +1913,7 @@
         <v>51.99</v>
       </c>
       <c r="B98">
-        <v>-2.33</v>
+        <v>5.19</v>
       </c>
       <c r="C98">
         <v>-2.25</v>
@@ -1927,7 +1927,7 @@
         <v>52.51</v>
       </c>
       <c r="B99">
-        <v>-2.34</v>
+        <v>5.14</v>
       </c>
       <c r="C99">
         <v>-2.2599999999999998</v>
@@ -1941,7 +1941,7 @@
         <v>53.03</v>
       </c>
       <c r="B100">
-        <v>-2.35</v>
+        <v>5.09</v>
       </c>
       <c r="C100">
         <v>-2.27</v>
@@ -1955,7 +1955,7 @@
         <v>53.56</v>
       </c>
       <c r="B101">
-        <v>-2.36</v>
+        <v>5.04</v>
       </c>
       <c r="C101">
         <v>-2.2799999999999998</v>
@@ -1969,7 +1969,7 @@
         <v>54.1</v>
       </c>
       <c r="B102">
-        <v>-2.38</v>
+        <v>4.99</v>
       </c>
       <c r="C102">
         <v>-2.2999999999999998</v>
@@ -1983,7 +1983,7 @@
         <v>54.64</v>
       </c>
       <c r="B103">
-        <v>-2.4</v>
+        <v>4.93</v>
       </c>
       <c r="C103">
         <v>-2.3199999999999998</v>
@@ -1997,7 +1997,7 @@
         <v>55.18</v>
       </c>
       <c r="B104">
-        <v>-2.42</v>
+        <v>4.87</v>
       </c>
       <c r="C104">
         <v>-2.34</v>
@@ -2011,7 +2011,7 @@
         <v>55.74</v>
       </c>
       <c r="B105">
-        <v>-2.44</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C105">
         <v>-2.36</v>
@@ -2025,7 +2025,7 @@
         <v>56.29</v>
       </c>
       <c r="B106">
-        <v>-2.4500000000000002</v>
+        <v>4.76</v>
       </c>
       <c r="C106">
         <v>-2.38</v>
@@ -2039,7 +2039,7 @@
         <v>56.86</v>
       </c>
       <c r="B107">
-        <v>-2.4700000000000002</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C107">
         <v>-2.39</v>
@@ -2053,7 +2053,7 @@
         <v>57.42</v>
       </c>
       <c r="B108">
-        <v>-2.4900000000000002</v>
+        <v>4.63</v>
       </c>
       <c r="C108">
         <v>-2.41</v>
@@ -2067,7 +2067,7 @@
         <v>58</v>
       </c>
       <c r="B109">
-        <v>-2.5</v>
+        <v>4.57</v>
       </c>
       <c r="C109">
         <v>-2.42</v>
@@ -2081,7 +2081,7 @@
         <v>58.58</v>
       </c>
       <c r="B110">
-        <v>-2.5099999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="C110">
         <v>-2.4300000000000002</v>
@@ -2095,7 +2095,7 @@
         <v>59.16</v>
       </c>
       <c r="B111">
-        <v>-2.52</v>
+        <v>4.43</v>
       </c>
       <c r="C111">
         <v>-2.44</v>
@@ -2109,7 +2109,7 @@
         <v>59.76</v>
       </c>
       <c r="B112">
-        <v>-2.5299999999999998</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C112">
         <v>-2.4500000000000002</v>
@@ -2123,7 +2123,7 @@
         <v>60.35</v>
       </c>
       <c r="B113">
-        <v>-2.54</v>
+        <v>4.29</v>
       </c>
       <c r="C113">
         <v>-2.46</v>
@@ -2137,7 +2137,7 @@
         <v>60.96</v>
       </c>
       <c r="B114">
-        <v>-2.5499999999999998</v>
+        <v>4.22</v>
       </c>
       <c r="C114">
         <v>-2.4700000000000002</v>
@@ -2151,7 +2151,7 @@
         <v>61.57</v>
       </c>
       <c r="B115">
-        <v>-2.56</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C115">
         <v>-2.48</v>
@@ -2165,7 +2165,7 @@
         <v>62.18</v>
       </c>
       <c r="B116">
-        <v>-2.58</v>
+        <v>4.08</v>
       </c>
       <c r="C116">
         <v>-2.5</v>
@@ -2179,7 +2179,7 @@
         <v>62.8</v>
       </c>
       <c r="B117">
-        <v>-2.59</v>
+        <v>4.01</v>
       </c>
       <c r="C117">
         <v>-2.5099999999999998</v>
@@ -2193,7 +2193,7 @@
         <v>63.43</v>
       </c>
       <c r="B118">
-        <v>-2.61</v>
+        <v>3.94</v>
       </c>
       <c r="C118">
         <v>-2.5299999999999998</v>
@@ -2207,7 +2207,7 @@
         <v>64.069999999999993</v>
       </c>
       <c r="B119">
-        <v>-2.62</v>
+        <v>3.86</v>
       </c>
       <c r="C119">
         <v>-2.54</v>
@@ -2221,7 +2221,7 @@
         <v>64.709999999999994</v>
       </c>
       <c r="B120">
-        <v>-2.64</v>
+        <v>3.79</v>
       </c>
       <c r="C120">
         <v>-2.56</v>
@@ -2235,7 +2235,7 @@
         <v>65.349999999999994</v>
       </c>
       <c r="B121">
-        <v>-2.66</v>
+        <v>3.71</v>
       </c>
       <c r="C121">
         <v>-2.58</v>
@@ -2249,7 +2249,7 @@
         <v>66.010000000000005</v>
       </c>
       <c r="B122">
-        <v>-2.67</v>
+        <v>3.63</v>
       </c>
       <c r="C122">
         <v>-2.6</v>
@@ -2263,7 +2263,7 @@
         <v>66.67</v>
       </c>
       <c r="B123">
-        <v>-2.69</v>
+        <v>3.55</v>
       </c>
       <c r="C123">
         <v>-2.62</v>
@@ -2277,7 +2277,7 @@
         <v>67.33</v>
       </c>
       <c r="B124">
-        <v>-2.71</v>
+        <v>3.47</v>
       </c>
       <c r="C124">
         <v>-2.64</v>
@@ -2291,7 +2291,7 @@
         <v>68.010000000000005</v>
       </c>
       <c r="B125">
-        <v>-2.74</v>
+        <v>3.39</v>
       </c>
       <c r="C125">
         <v>-2.66</v>
@@ -2305,7 +2305,7 @@
         <v>68.69</v>
       </c>
       <c r="B126">
-        <v>-2.76</v>
+        <v>3.31</v>
       </c>
       <c r="C126">
         <v>-2.68</v>
@@ -2319,7 +2319,7 @@
         <v>69.37</v>
       </c>
       <c r="B127">
-        <v>-2.78</v>
+        <v>3.23</v>
       </c>
       <c r="C127">
         <v>-2.7</v>
@@ -2333,7 +2333,7 @@
         <v>70.069999999999993</v>
       </c>
       <c r="B128">
-        <v>-2.8</v>
+        <v>3.14</v>
       </c>
       <c r="C128">
         <v>-2.73</v>
@@ -2347,7 +2347,7 @@
         <v>70.77</v>
       </c>
       <c r="B129">
-        <v>-2.83</v>
+        <v>3.06</v>
       </c>
       <c r="C129">
         <v>-2.75</v>
@@ -2361,7 +2361,7 @@
         <v>71.48</v>
       </c>
       <c r="B130">
-        <v>-2.85</v>
+        <v>2.98</v>
       </c>
       <c r="C130">
         <v>-2.77</v>
@@ -2375,7 +2375,7 @@
         <v>72.19</v>
       </c>
       <c r="B131">
-        <v>-2.88</v>
+        <v>2.89</v>
       </c>
       <c r="C131">
         <v>-2.8</v>
@@ -2389,7 +2389,7 @@
         <v>72.91</v>
       </c>
       <c r="B132">
-        <v>-2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C132">
         <v>-2.82</v>
@@ -2403,7 +2403,7 @@
         <v>73.64</v>
       </c>
       <c r="B133">
-        <v>-2.92</v>
+        <v>2.71</v>
       </c>
       <c r="C133">
         <v>-2.85</v>
@@ -2417,7 +2417,7 @@
         <v>74.38</v>
       </c>
       <c r="B134">
-        <v>-2.95</v>
+        <v>2.62</v>
       </c>
       <c r="C134">
         <v>-2.87</v>
@@ -2431,7 +2431,7 @@
         <v>75.12</v>
       </c>
       <c r="B135">
-        <v>-2.97</v>
+        <v>2.54</v>
       </c>
       <c r="C135">
         <v>-2.9</v>
@@ -2445,7 +2445,7 @@
         <v>75.87</v>
       </c>
       <c r="B136">
-        <v>-3</v>
+        <v>2.46</v>
       </c>
       <c r="C136">
         <v>-2.92</v>
@@ -2459,7 +2459,7 @@
         <v>76.63</v>
       </c>
       <c r="B137">
-        <v>-3.02</v>
+        <v>2.37</v>
       </c>
       <c r="C137">
         <v>-2.94</v>
@@ -2473,7 +2473,7 @@
         <v>77.400000000000006</v>
       </c>
       <c r="B138">
-        <v>-3.05</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C138">
         <v>-2.97</v>
@@ -2487,7 +2487,7 @@
         <v>78.17</v>
       </c>
       <c r="B139">
-        <v>-3.07</v>
+        <v>2.19</v>
       </c>
       <c r="C139">
         <v>-3</v>
@@ -2501,7 +2501,7 @@
         <v>78.95</v>
       </c>
       <c r="B140">
-        <v>-3.1</v>
+        <v>2.1</v>
       </c>
       <c r="C140">
         <v>-3.02</v>
@@ -2515,7 +2515,7 @@
         <v>79.739999999999995</v>
       </c>
       <c r="B141">
-        <v>-3.13</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C141">
         <v>-3.05</v>
@@ -2529,7 +2529,7 @@
         <v>80.540000000000006</v>
       </c>
       <c r="B142">
-        <v>-3.15</v>
+        <v>1.92</v>
       </c>
       <c r="C142">
         <v>-3.07</v>
@@ -2543,7 +2543,7 @@
         <v>81.349999999999994</v>
       </c>
       <c r="B143">
-        <v>-3.18</v>
+        <v>1.84</v>
       </c>
       <c r="C143">
         <v>-3.1</v>
@@ -2557,7 +2557,7 @@
         <v>82.16</v>
       </c>
       <c r="B144">
-        <v>-3.2</v>
+        <v>1.75</v>
       </c>
       <c r="C144">
         <v>-3.13</v>
@@ -2571,7 +2571,7 @@
         <v>82.98</v>
       </c>
       <c r="B145">
-        <v>-3.23</v>
+        <v>1.67</v>
       </c>
       <c r="C145">
         <v>-3.15</v>
@@ -2585,7 +2585,7 @@
         <v>83.81</v>
       </c>
       <c r="B146">
-        <v>-3.25</v>
+        <v>1.58</v>
       </c>
       <c r="C146">
         <v>-3.18</v>
@@ -2599,7 +2599,7 @@
         <v>84.65</v>
       </c>
       <c r="B147">
-        <v>-3.28</v>
+        <v>1.49</v>
       </c>
       <c r="C147">
         <v>-3.2</v>
@@ -2613,7 +2613,7 @@
         <v>85.5</v>
       </c>
       <c r="B148">
-        <v>-3.3</v>
+        <v>1.41</v>
       </c>
       <c r="C148">
         <v>-3.22</v>
@@ -2627,7 +2627,7 @@
         <v>86.35</v>
       </c>
       <c r="B149">
-        <v>-3.32</v>
+        <v>1.32</v>
       </c>
       <c r="C149">
         <v>-3.24</v>
@@ -2641,7 +2641,7 @@
         <v>87.22</v>
       </c>
       <c r="B150">
-        <v>-3.34</v>
+        <v>1.24</v>
       </c>
       <c r="C150">
         <v>-3.26</v>
@@ -2655,7 +2655,7 @@
         <v>88.09</v>
       </c>
       <c r="B151">
-        <v>-3.36</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C151">
         <v>-3.29</v>
@@ -2669,7 +2669,7 @@
         <v>88.97</v>
       </c>
       <c r="B152">
-        <v>-3.39</v>
+        <v>1.07</v>
       </c>
       <c r="C152">
         <v>-3.31</v>
@@ -2683,7 +2683,7 @@
         <v>89.86</v>
       </c>
       <c r="B153">
-        <v>-3.41</v>
+        <v>0.99</v>
       </c>
       <c r="C153">
         <v>-3.33</v>
@@ -2697,7 +2697,7 @@
         <v>90.76</v>
       </c>
       <c r="B154">
-        <v>-3.43</v>
+        <v>0.9</v>
       </c>
       <c r="C154">
         <v>-3.36</v>
@@ -2711,7 +2711,7 @@
         <v>91.66</v>
       </c>
       <c r="B155">
-        <v>-3.46</v>
+        <v>0.82</v>
       </c>
       <c r="C155">
         <v>-3.38</v>
@@ -2725,7 +2725,7 @@
         <v>92.58</v>
       </c>
       <c r="B156">
-        <v>-3.48</v>
+        <v>0.74</v>
       </c>
       <c r="C156">
         <v>-3.41</v>
@@ -2739,7 +2739,7 @@
         <v>93.51</v>
       </c>
       <c r="B157">
-        <v>-3.51</v>
+        <v>0.66</v>
       </c>
       <c r="C157">
         <v>-3.43</v>
@@ -2753,7 +2753,7 @@
         <v>94.44</v>
       </c>
       <c r="B158">
-        <v>-3.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C158">
         <v>-3.46</v>
@@ -2767,7 +2767,7 @@
         <v>95.39</v>
       </c>
       <c r="B159">
-        <v>-3.56</v>
+        <v>0.5</v>
       </c>
       <c r="C159">
         <v>-3.48</v>
@@ -2781,7 +2781,7 @@
         <v>96.34</v>
       </c>
       <c r="B160">
-        <v>-3.58</v>
+        <v>0.42</v>
       </c>
       <c r="C160">
         <v>-3.5</v>
@@ -2795,7 +2795,7 @@
         <v>97.3</v>
       </c>
       <c r="B161">
-        <v>-3.6</v>
+        <v>0.35</v>
       </c>
       <c r="C161">
         <v>-3.52</v>
@@ -2809,7 +2809,7 @@
         <v>98.28</v>
       </c>
       <c r="B162">
-        <v>-3.62</v>
+        <v>0.27</v>
       </c>
       <c r="C162">
         <v>-3.54</v>
@@ -2823,7 +2823,7 @@
         <v>99.26</v>
       </c>
       <c r="B163">
-        <v>-3.64</v>
+        <v>0.2</v>
       </c>
       <c r="C163">
         <v>-3.57</v>
@@ -2837,7 +2837,7 @@
         <v>100.25</v>
       </c>
       <c r="B164">
-        <v>-3.67</v>
+        <v>0.12</v>
       </c>
       <c r="C164">
         <v>-3.59</v>
@@ -2851,7 +2851,7 @@
         <v>101.25</v>
       </c>
       <c r="B165">
-        <v>-3.69</v>
+        <v>0.04</v>
       </c>
       <c r="C165">
         <v>-3.62</v>
@@ -2865,7 +2865,7 @@
         <v>102.27</v>
       </c>
       <c r="B166">
-        <v>-3.72</v>
+        <v>-0.03</v>
       </c>
       <c r="C166">
         <v>-3.64</v>
@@ -2879,7 +2879,7 @@
         <v>103.29</v>
       </c>
       <c r="B167">
-        <v>-3.74</v>
+        <v>-0.1</v>
       </c>
       <c r="C167">
         <v>-3.67</v>
@@ -2893,7 +2893,7 @@
         <v>104.32</v>
       </c>
       <c r="B168">
-        <v>-3.77</v>
+        <v>-0.17</v>
       </c>
       <c r="C168">
         <v>-3.69</v>
@@ -2907,7 +2907,7 @@
         <v>105.37</v>
       </c>
       <c r="B169">
-        <v>-3.79</v>
+        <v>-0.24</v>
       </c>
       <c r="C169">
         <v>-3.72</v>
@@ -2921,7 +2921,7 @@
         <v>106.42</v>
       </c>
       <c r="B170">
-        <v>-3.82</v>
+        <v>-0.31</v>
       </c>
       <c r="C170">
         <v>-3.74</v>
@@ -2935,7 +2935,7 @@
         <v>107.48</v>
       </c>
       <c r="B171">
-        <v>-3.84</v>
+        <v>-0.38</v>
       </c>
       <c r="C171">
         <v>-3.77</v>
@@ -2949,7 +2949,7 @@
         <v>108.56</v>
       </c>
       <c r="B172">
-        <v>-3.87</v>
+        <v>-0.44</v>
       </c>
       <c r="C172">
         <v>-3.79</v>
@@ -2963,7 +2963,7 @@
         <v>109.64</v>
       </c>
       <c r="B173">
-        <v>-3.89</v>
+        <v>-0.51</v>
       </c>
       <c r="C173">
         <v>-3.81</v>
@@ -2977,7 +2977,7 @@
         <v>110.74</v>
       </c>
       <c r="B174">
-        <v>-3.91</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C174">
         <v>-3.84</v>
@@ -2991,7 +2991,7 @@
         <v>111.85</v>
       </c>
       <c r="B175">
-        <v>-3.94</v>
+        <v>-0.63</v>
       </c>
       <c r="C175">
         <v>-3.86</v>
@@ -3005,7 +3005,7 @@
         <v>112.97</v>
       </c>
       <c r="B176">
-        <v>-3.96</v>
+        <v>-0.69</v>
       </c>
       <c r="C176">
         <v>-3.88</v>
@@ -3019,7 +3019,7 @@
         <v>114.1</v>
       </c>
       <c r="B177">
-        <v>-3.98</v>
+        <v>-0.75</v>
       </c>
       <c r="C177">
         <v>-3.9</v>
@@ -3033,7 +3033,7 @@
         <v>115.24</v>
       </c>
       <c r="B178">
-        <v>-4</v>
+        <v>-0.81</v>
       </c>
       <c r="C178">
         <v>-3.92</v>
@@ -3047,7 +3047,7 @@
         <v>116.39</v>
       </c>
       <c r="B179">
-        <v>-4.0199999999999996</v>
+        <v>-0.87</v>
       </c>
       <c r="C179">
         <v>-3.94</v>
@@ -3061,7 +3061,7 @@
         <v>117.55</v>
       </c>
       <c r="B180">
-        <v>-4.04</v>
+        <v>-0.92</v>
       </c>
       <c r="C180">
         <v>-3.96</v>
@@ -3075,7 +3075,7 @@
         <v>118.73</v>
       </c>
       <c r="B181">
-        <v>-4.0599999999999996</v>
+        <v>-0.97</v>
       </c>
       <c r="C181">
         <v>-3.98</v>
@@ -3089,7 +3089,7 @@
         <v>119.92</v>
       </c>
       <c r="B182">
-        <v>-4.07</v>
+        <v>-1.03</v>
       </c>
       <c r="C182">
         <v>-4</v>
@@ -3103,7 +3103,7 @@
         <v>121.12</v>
       </c>
       <c r="B183">
-        <v>-4.09</v>
+        <v>-1.08</v>
       </c>
       <c r="C183">
         <v>-4.01</v>
@@ -3117,7 +3117,7 @@
         <v>122.33</v>
       </c>
       <c r="B184">
-        <v>-4.1100000000000003</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="C184">
         <v>-4.03</v>
@@ -3131,7 +3131,7 @@
         <v>123.55</v>
       </c>
       <c r="B185">
-        <v>-4.12</v>
+        <v>-1.17</v>
       </c>
       <c r="C185">
         <v>-4.04</v>
@@ -3145,7 +3145,7 @@
         <v>124.79</v>
       </c>
       <c r="B186">
-        <v>-4.13</v>
+        <v>-1.22</v>
       </c>
       <c r="C186">
         <v>-4.0599999999999996</v>
@@ -3159,7 +3159,7 @@
         <v>126.03</v>
       </c>
       <c r="B187">
-        <v>-4.1500000000000004</v>
+        <v>-1.27</v>
       </c>
       <c r="C187">
         <v>-4.07</v>
@@ -3173,7 +3173,7 @@
         <v>127.29</v>
       </c>
       <c r="B188">
-        <v>-4.16</v>
+        <v>-1.32</v>
       </c>
       <c r="C188">
         <v>-4.08</v>
@@ -3187,7 +3187,7 @@
         <v>128.57</v>
       </c>
       <c r="B189">
-        <v>-4.17</v>
+        <v>-1.36</v>
       </c>
       <c r="C189">
         <v>-4.0999999999999996</v>
@@ -3201,7 +3201,7 @@
         <v>129.85</v>
       </c>
       <c r="B190">
-        <v>-4.18</v>
+        <v>-1.4</v>
       </c>
       <c r="C190">
         <v>-4.1100000000000003</v>
@@ -3215,7 +3215,7 @@
         <v>131.15</v>
       </c>
       <c r="B191">
-        <v>-4.1900000000000004</v>
+        <v>-1.44</v>
       </c>
       <c r="C191">
         <v>-4.12</v>
@@ -3229,7 +3229,7 @@
         <v>132.46</v>
       </c>
       <c r="B192">
-        <v>-4.2</v>
+        <v>-1.48</v>
       </c>
       <c r="C192">
         <v>-4.13</v>
@@ -3243,7 +3243,7 @@
         <v>133.79</v>
       </c>
       <c r="B193">
-        <v>-4.21</v>
+        <v>-1.52</v>
       </c>
       <c r="C193">
         <v>-4.1399999999999997</v>
@@ -3257,7 +3257,7 @@
         <v>135.12</v>
       </c>
       <c r="B194">
-        <v>-4.22</v>
+        <v>-1.56</v>
       </c>
       <c r="C194">
         <v>-4.1399999999999997</v>
@@ -3271,7 +3271,7 @@
         <v>136.47999999999999</v>
       </c>
       <c r="B195">
-        <v>-4.2300000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="C195">
         <v>-4.1500000000000004</v>
@@ -3285,7 +3285,7 @@
         <v>137.84</v>
       </c>
       <c r="B196">
-        <v>-4.2300000000000004</v>
+        <v>-1.63</v>
       </c>
       <c r="C196">
         <v>-4.16</v>
@@ -3299,7 +3299,7 @@
         <v>139.22</v>
       </c>
       <c r="B197">
-        <v>-4.24</v>
+        <v>-1.67</v>
       </c>
       <c r="C197">
         <v>-4.16</v>
@@ -3313,7 +3313,7 @@
         <v>140.61000000000001</v>
       </c>
       <c r="B198">
-        <v>-4.24</v>
+        <v>-1.7</v>
       </c>
       <c r="C198">
         <v>-4.17</v>
@@ -3327,7 +3327,7 @@
         <v>142.02000000000001</v>
       </c>
       <c r="B199">
-        <v>-4.24</v>
+        <v>-1.73</v>
       </c>
       <c r="C199">
         <v>-4.17</v>
@@ -3341,7 +3341,7 @@
         <v>143.44</v>
       </c>
       <c r="B200">
-        <v>-4.24</v>
+        <v>-1.76</v>
       </c>
       <c r="C200">
         <v>-4.17</v>
@@ -3355,7 +3355,7 @@
         <v>144.87</v>
       </c>
       <c r="B201">
-        <v>-4.24</v>
+        <v>-1.79</v>
       </c>
       <c r="C201">
         <v>-4.17</v>
@@ -3369,7 +3369,7 @@
         <v>146.32</v>
       </c>
       <c r="B202">
-        <v>-4.24</v>
+        <v>-1.82</v>
       </c>
       <c r="C202">
         <v>-4.17</v>
@@ -3383,7 +3383,7 @@
         <v>147.78</v>
       </c>
       <c r="B203">
-        <v>-4.24</v>
+        <v>-1.84</v>
       </c>
       <c r="C203">
         <v>-4.16</v>
@@ -3397,7 +3397,7 @@
         <v>149.26</v>
       </c>
       <c r="B204">
-        <v>-4.24</v>
+        <v>-1.87</v>
       </c>
       <c r="C204">
         <v>-4.16</v>
@@ -3411,7 +3411,7 @@
         <v>150.75</v>
       </c>
       <c r="B205">
-        <v>-4.2300000000000004</v>
+        <v>-1.89</v>
       </c>
       <c r="C205">
         <v>-4.16</v>
@@ -3425,7 +3425,7 @@
         <v>152.26</v>
       </c>
       <c r="B206">
-        <v>-4.2300000000000004</v>
+        <v>-1.92</v>
       </c>
       <c r="C206">
         <v>-4.1500000000000004</v>
@@ -3439,7 +3439,7 @@
         <v>153.78</v>
       </c>
       <c r="B207">
-        <v>-4.22</v>
+        <v>-1.95</v>
       </c>
       <c r="C207">
         <v>-4.1399999999999997</v>
@@ -3453,7 +3453,7 @@
         <v>155.32</v>
       </c>
       <c r="B208">
-        <v>-4.21</v>
+        <v>-1.97</v>
       </c>
       <c r="C208">
         <v>-4.1399999999999997</v>
@@ -3467,7 +3467,7 @@
         <v>156.88</v>
       </c>
       <c r="B209">
-        <v>-4.2</v>
+        <v>-1.99</v>
       </c>
       <c r="C209">
         <v>-4.13</v>
@@ -3481,7 +3481,7 @@
         <v>158.44</v>
       </c>
       <c r="B210">
-        <v>-4.1900000000000004</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="C210">
         <v>-4.1100000000000003</v>
@@ -3495,7 +3495,7 @@
         <v>160.03</v>
       </c>
       <c r="B211">
-        <v>-4.18</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C211">
         <v>-4.0999999999999996</v>
@@ -3509,7 +3509,7 @@
         <v>161.63</v>
       </c>
       <c r="B212">
-        <v>-4.17</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C212">
         <v>-4.09</v>
@@ -3523,7 +3523,7 @@
         <v>163.24</v>
       </c>
       <c r="B213">
-        <v>-4.1500000000000004</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="C213">
         <v>-4.07</v>
@@ -3537,7 +3537,7 @@
         <v>164.88</v>
       </c>
       <c r="B214">
-        <v>-4.13</v>
+        <v>-2.08</v>
       </c>
       <c r="C214">
         <v>-4.0599999999999996</v>
@@ -3551,7 +3551,7 @@
         <v>166.53</v>
       </c>
       <c r="B215">
-        <v>-4.1100000000000003</v>
+        <v>-2.1</v>
       </c>
       <c r="C215">
         <v>-4.04</v>
@@ -3565,7 +3565,7 @@
         <v>168.19</v>
       </c>
       <c r="B216">
-        <v>-4.09</v>
+        <v>-2.11</v>
       </c>
       <c r="C216">
         <v>-4.0199999999999996</v>
@@ -3579,7 +3579,7 @@
         <v>169.87</v>
       </c>
       <c r="B217">
-        <v>-4.07</v>
+        <v>-2.12</v>
       </c>
       <c r="C217">
         <v>-4</v>
@@ -3593,7 +3593,7 @@
         <v>171.57</v>
       </c>
       <c r="B218">
-        <v>-4.05</v>
+        <v>-2.13</v>
       </c>
       <c r="C218">
         <v>-3.98</v>
@@ -3607,7 +3607,7 @@
         <v>173.29</v>
       </c>
       <c r="B219">
-        <v>-4.03</v>
+        <v>-2.14</v>
       </c>
       <c r="C219">
         <v>-3.96</v>
@@ -3621,7 +3621,7 @@
         <v>175.02</v>
       </c>
       <c r="B220">
-        <v>-4.01</v>
+        <v>-2.15</v>
       </c>
       <c r="C220">
         <v>-3.93</v>
@@ -3635,7 +3635,7 @@
         <v>176.77</v>
       </c>
       <c r="B221">
-        <v>-3.98</v>
+        <v>-2.16</v>
       </c>
       <c r="C221">
         <v>-3.91</v>
@@ -3649,7 +3649,7 @@
         <v>178.54</v>
       </c>
       <c r="B222">
-        <v>-3.95</v>
+        <v>-2.17</v>
       </c>
       <c r="C222">
         <v>-3.88</v>
@@ -3663,7 +3663,7 @@
         <v>180.32</v>
       </c>
       <c r="B223">
-        <v>-3.93</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="C223">
         <v>-3.85</v>
@@ -3677,7 +3677,7 @@
         <v>182.13</v>
       </c>
       <c r="B224">
-        <v>-3.9</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="C224">
         <v>-3.82</v>
@@ -3691,7 +3691,7 @@
         <v>183.95</v>
       </c>
       <c r="B225">
-        <v>-3.87</v>
+        <v>-2.19</v>
       </c>
       <c r="C225">
         <v>-3.79</v>
@@ -3705,7 +3705,7 @@
         <v>185.79</v>
       </c>
       <c r="B226">
-        <v>-3.84</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C226">
         <v>-3.76</v>
@@ -3719,7 +3719,7 @@
         <v>187.65</v>
       </c>
       <c r="B227">
-        <v>-3.81</v>
+        <v>-2.21</v>
       </c>
       <c r="C227">
         <v>-3.73</v>
@@ -3733,7 +3733,7 @@
         <v>189.52</v>
       </c>
       <c r="B228">
-        <v>-3.78</v>
+        <v>-2.21</v>
       </c>
       <c r="C228">
         <v>-3.7</v>
@@ -3747,7 +3747,7 @@
         <v>191.42</v>
       </c>
       <c r="B229">
-        <v>-3.74</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="C229">
         <v>-3.67</v>
@@ -3761,7 +3761,7 @@
         <v>193.33</v>
       </c>
       <c r="B230">
-        <v>-3.71</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="C230">
         <v>-3.63</v>
@@ -3775,7 +3775,7 @@
         <v>195.27</v>
       </c>
       <c r="B231">
-        <v>-3.68</v>
+        <v>-2.23</v>
       </c>
       <c r="C231">
         <v>-3.6</v>
@@ -3789,7 +3789,7 @@
         <v>197.22</v>
       </c>
       <c r="B232">
-        <v>-3.64</v>
+        <v>-2.23</v>
       </c>
       <c r="C232">
         <v>-3.57</v>
@@ -3803,7 +3803,7 @@
         <v>199.19</v>
       </c>
       <c r="B233">
-        <v>-3.6</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C233">
         <v>-3.53</v>
@@ -3817,7 +3817,7 @@
         <v>201.18</v>
       </c>
       <c r="B234">
-        <v>-3.57</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C234">
         <v>-3.49</v>
@@ -3831,7 +3831,7 @@
         <v>203.19</v>
       </c>
       <c r="B235">
-        <v>-3.53</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C235">
         <v>-3.45</v>
@@ -3845,7 +3845,7 @@
         <v>205.23</v>
       </c>
       <c r="B236">
-        <v>-3.49</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C236">
         <v>-3.41</v>
@@ -3859,7 +3859,7 @@
         <v>207.28</v>
       </c>
       <c r="B237">
-        <v>-3.45</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C237">
         <v>-3.37</v>
@@ -3873,7 +3873,7 @@
         <v>209.35</v>
       </c>
       <c r="B238">
-        <v>-3.41</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C238">
         <v>-3.33</v>
@@ -3887,7 +3887,7 @@
         <v>211.44</v>
       </c>
       <c r="B239">
-        <v>-3.37</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C239">
         <v>-3.29</v>
@@ -3901,7 +3901,7 @@
         <v>213.56</v>
       </c>
       <c r="B240">
-        <v>-3.33</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C240">
         <v>-3.25</v>
@@ -3915,7 +3915,7 @@
         <v>215.69</v>
       </c>
       <c r="B241">
-        <v>-3.29</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C241">
         <v>-3.21</v>
@@ -3929,7 +3929,7 @@
         <v>217.85</v>
       </c>
       <c r="B242">
-        <v>-3.25</v>
+        <v>-2.23</v>
       </c>
       <c r="C242">
         <v>-3.17</v>
@@ -3943,7 +3943,7 @@
         <v>220.03</v>
       </c>
       <c r="B243">
-        <v>-3.21</v>
+        <v>-2.23</v>
       </c>
       <c r="C243">
         <v>-3.13</v>
@@ -3957,7 +3957,7 @@
         <v>222.23</v>
       </c>
       <c r="B244">
-        <v>-3.16</v>
+        <v>-2.23</v>
       </c>
       <c r="C244">
         <v>-3.09</v>
@@ -3971,7 +3971,7 @@
         <v>224.45</v>
       </c>
       <c r="B245">
-        <v>-3.12</v>
+        <v>-2.23</v>
       </c>
       <c r="C245">
         <v>-3.04</v>
@@ -3985,7 +3985,7 @@
         <v>226.7</v>
       </c>
       <c r="B246">
-        <v>-3.08</v>
+        <v>-2.23</v>
       </c>
       <c r="C246">
         <v>-3</v>
@@ -3999,7 +3999,7 @@
         <v>228.96</v>
       </c>
       <c r="B247">
-        <v>-3.04</v>
+        <v>-2.23</v>
       </c>
       <c r="C247">
         <v>-2.96</v>
@@ -4013,7 +4013,7 @@
         <v>231.25</v>
       </c>
       <c r="B248">
-        <v>-3</v>
+        <v>-2.23</v>
       </c>
       <c r="C248">
         <v>-2.92</v>
@@ -4027,7 +4027,7 @@
         <v>233.57</v>
       </c>
       <c r="B249">
-        <v>-2.96</v>
+        <v>-2.23</v>
       </c>
       <c r="C249">
         <v>-2.88</v>
@@ -4041,7 +4041,7 @@
         <v>235.9</v>
       </c>
       <c r="B250">
-        <v>-2.92</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="C250">
         <v>-2.84</v>
@@ -4055,7 +4055,7 @@
         <v>238.26</v>
       </c>
       <c r="B251">
-        <v>-2.88</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="C251">
         <v>-2.8</v>
@@ -4069,7 +4069,7 @@
         <v>240.64</v>
       </c>
       <c r="B252">
-        <v>-2.84</v>
+        <v>-2.21</v>
       </c>
       <c r="C252">
         <v>-2.76</v>
@@ -4083,7 +4083,7 @@
         <v>243.05</v>
       </c>
       <c r="B253">
-        <v>-2.79</v>
+        <v>-2.21</v>
       </c>
       <c r="C253">
         <v>-2.72</v>
@@ -4097,7 +4097,7 @@
         <v>245.48</v>
       </c>
       <c r="B254">
-        <v>-2.75</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C254">
         <v>-2.67</v>
@@ -4111,7 +4111,7 @@
         <v>247.93</v>
       </c>
       <c r="B255">
-        <v>-2.7</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C255">
         <v>-2.62</v>
@@ -4125,7 +4125,7 @@
         <v>250.41</v>
       </c>
       <c r="B256">
-        <v>-2.65</v>
+        <v>-2.19</v>
       </c>
       <c r="C256">
         <v>-2.57</v>
@@ -4139,7 +4139,7 @@
         <v>252.92</v>
       </c>
       <c r="B257">
-        <v>-2.6</v>
+        <v>-2.19</v>
       </c>
       <c r="C257">
         <v>-2.52</v>
@@ -4153,7 +4153,7 @@
         <v>255.45</v>
       </c>
       <c r="B258">
-        <v>-2.54</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="C258">
         <v>-2.4700000000000002</v>
@@ -4167,7 +4167,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>-2.4900000000000002</v>
+        <v>-2.17</v>
       </c>
       <c r="C259">
         <v>-2.41</v>
@@ -4181,7 +4181,7 @@
         <v>260.58</v>
       </c>
       <c r="B260">
-        <v>-2.44</v>
+        <v>-2.16</v>
       </c>
       <c r="C260">
         <v>-2.36</v>
@@ -4195,7 +4195,7 @@
         <v>263.19</v>
       </c>
       <c r="B261">
-        <v>-2.38</v>
+        <v>-2.15</v>
       </c>
       <c r="C261">
         <v>-2.2999999999999998</v>
@@ -4209,7 +4209,7 @@
         <v>265.82</v>
       </c>
       <c r="B262">
-        <v>-2.3199999999999998</v>
+        <v>-2.15</v>
       </c>
       <c r="C262">
         <v>-2.25</v>
@@ -4223,7 +4223,7 @@
         <v>268.48</v>
       </c>
       <c r="B263">
-        <v>-2.27</v>
+        <v>-2.14</v>
       </c>
       <c r="C263">
         <v>-2.19</v>
@@ -4237,7 +4237,7 @@
         <v>271.16000000000003</v>
       </c>
       <c r="B264">
-        <v>-2.21</v>
+        <v>-2.13</v>
       </c>
       <c r="C264">
         <v>-2.13</v>
@@ -4251,7 +4251,7 @@
         <v>273.87</v>
       </c>
       <c r="B265">
-        <v>-2.15</v>
+        <v>-2.12</v>
       </c>
       <c r="C265">
         <v>-2.08</v>
@@ -4265,7 +4265,7 @@
         <v>276.61</v>
       </c>
       <c r="B266">
-        <v>-2.09</v>
+        <v>-2.11</v>
       </c>
       <c r="C266">
         <v>-2.02</v>
@@ -4279,7 +4279,7 @@
         <v>279.38</v>
       </c>
       <c r="B267">
-        <v>-2.04</v>
+        <v>-2.1</v>
       </c>
       <c r="C267">
         <v>-1.96</v>
@@ -4293,7 +4293,7 @@
         <v>282.17</v>
       </c>
       <c r="B268">
-        <v>-1.98</v>
+        <v>-2.09</v>
       </c>
       <c r="C268">
         <v>-1.9</v>
@@ -4307,7 +4307,7 @@
         <v>284.99</v>
       </c>
       <c r="B269">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="C269">
         <v>-1.84</v>
@@ -4321,7 +4321,7 @@
         <v>287.83999999999997</v>
       </c>
       <c r="B270">
-        <v>-1.86</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="C270">
         <v>-1.78</v>
@@ -4335,7 +4335,7 @@
         <v>290.72000000000003</v>
       </c>
       <c r="B271">
-        <v>-1.8</v>
+        <v>-2.06</v>
       </c>
       <c r="C271">
         <v>-1.72</v>
@@ -4349,7 +4349,7 @@
         <v>293.63</v>
       </c>
       <c r="B272">
-        <v>-1.74</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C272">
         <v>-1.66</v>
@@ -4363,7 +4363,7 @@
         <v>296.57</v>
       </c>
       <c r="B273">
-        <v>-1.68</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C273">
         <v>-1.6</v>
@@ -4377,7 +4377,7 @@
         <v>299.52999999999997</v>
       </c>
       <c r="B274">
-        <v>-1.62</v>
+        <v>-2.02</v>
       </c>
       <c r="C274">
         <v>-1.54</v>
@@ -4391,7 +4391,7 @@
         <v>302.52999999999997</v>
       </c>
       <c r="B275">
-        <v>-1.56</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="C275">
         <v>-1.48</v>
@@ -4405,7 +4405,7 @@
         <v>305.55</v>
       </c>
       <c r="B276">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C276">
         <v>-1.42</v>
@@ -4419,7 +4419,7 @@
         <v>308.61</v>
       </c>
       <c r="B277">
-        <v>-1.44</v>
+        <v>-1.99</v>
       </c>
       <c r="C277">
         <v>-1.36</v>
@@ -4433,7 +4433,7 @@
         <v>311.69</v>
       </c>
       <c r="B278">
-        <v>-1.38</v>
+        <v>-1.98</v>
       </c>
       <c r="C278">
         <v>-1.3</v>
@@ -4447,7 +4447,7 @@
         <v>314.81</v>
       </c>
       <c r="B279">
-        <v>-1.32</v>
+        <v>-1.97</v>
       </c>
       <c r="C279">
         <v>-1.24</v>
@@ -4461,7 +4461,7 @@
         <v>317.95999999999998</v>
       </c>
       <c r="B280">
-        <v>-1.26</v>
+        <v>-1.96</v>
       </c>
       <c r="C280">
         <v>-1.19</v>
@@ -4475,7 +4475,7 @@
         <v>321.14</v>
       </c>
       <c r="B281">
-        <v>-1.2</v>
+        <v>-1.94</v>
       </c>
       <c r="C281">
         <v>-1.1299999999999999</v>
@@ -4489,7 +4489,7 @@
         <v>324.35000000000002</v>
       </c>
       <c r="B282">
-        <v>-1.1399999999999999</v>
+        <v>-1.93</v>
       </c>
       <c r="C282">
         <v>-1.07</v>
@@ -4503,7 +4503,7 @@
         <v>327.58999999999997</v>
       </c>
       <c r="B283">
-        <v>-1.08</v>
+        <v>-1.92</v>
       </c>
       <c r="C283">
         <v>-1.01</v>
@@ -4517,7 +4517,7 @@
         <v>330.87</v>
       </c>
       <c r="B284">
-        <v>-1.02</v>
+        <v>-1.91</v>
       </c>
       <c r="C284">
         <v>-0.95</v>
@@ -4531,7 +4531,7 @@
         <v>334.18</v>
       </c>
       <c r="B285">
-        <v>-0.96</v>
+        <v>-1.9</v>
       </c>
       <c r="C285">
         <v>-0.88</v>
@@ -4545,7 +4545,7 @@
         <v>337.52</v>
       </c>
       <c r="B286">
-        <v>-0.9</v>
+        <v>-1.88</v>
       </c>
       <c r="C286">
         <v>-0.82</v>
@@ -4559,7 +4559,7 @@
         <v>340.9</v>
       </c>
       <c r="B287">
-        <v>-0.84</v>
+        <v>-1.87</v>
       </c>
       <c r="C287">
         <v>-0.76</v>
@@ -4573,7 +4573,7 @@
         <v>344.3</v>
       </c>
       <c r="B288">
-        <v>-0.78</v>
+        <v>-1.86</v>
       </c>
       <c r="C288">
         <v>-0.7</v>
@@ -4587,7 +4587,7 @@
         <v>347.75</v>
       </c>
       <c r="B289">
-        <v>-0.72</v>
+        <v>-1.84</v>
       </c>
       <c r="C289">
         <v>-0.64</v>
@@ -4601,7 +4601,7 @@
         <v>351.23</v>
       </c>
       <c r="B290">
-        <v>-0.66</v>
+        <v>-1.83</v>
       </c>
       <c r="C290">
         <v>-0.57999999999999996</v>
@@ -4615,7 +4615,7 @@
         <v>354.74</v>
       </c>
       <c r="B291">
-        <v>-0.59</v>
+        <v>-1.81</v>
       </c>
       <c r="C291">
         <v>-0.52</v>
@@ -4629,7 +4629,7 @@
         <v>358.28</v>
       </c>
       <c r="B292">
-        <v>-0.53</v>
+        <v>-1.8</v>
       </c>
       <c r="C292">
         <v>-0.46</v>
@@ -4643,7 +4643,7 @@
         <v>361.87</v>
       </c>
       <c r="B293">
-        <v>-0.47</v>
+        <v>-1.79</v>
       </c>
       <c r="C293">
         <v>-0.39</v>
@@ -4657,7 +4657,7 @@
         <v>365.49</v>
       </c>
       <c r="B294">
-        <v>-0.41</v>
+        <v>-1.77</v>
       </c>
       <c r="C294">
         <v>-0.33</v>
@@ -4671,7 +4671,7 @@
         <v>369.14</v>
       </c>
       <c r="B295">
-        <v>-0.34</v>
+        <v>-1.76</v>
       </c>
       <c r="C295">
         <v>-0.26</v>
@@ -4685,7 +4685,7 @@
         <v>372.83</v>
       </c>
       <c r="B296">
-        <v>-0.28000000000000003</v>
+        <v>-1.74</v>
       </c>
       <c r="C296">
         <v>-0.2</v>
@@ -4699,7 +4699,7 @@
         <v>376.56</v>
       </c>
       <c r="B297">
-        <v>-0.21</v>
+        <v>-1.73</v>
       </c>
       <c r="C297">
         <v>-0.13</v>
@@ -4713,7 +4713,7 @@
         <v>380.33</v>
       </c>
       <c r="B298">
-        <v>-0.14000000000000001</v>
+        <v>-1.71</v>
       </c>
       <c r="C298">
         <v>-0.06</v>
@@ -4727,7 +4727,7 @@
         <v>384.13</v>
       </c>
       <c r="B299">
-        <v>-7.0000000000000007E-2</v>
+        <v>-1.69</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>387.97</v>
       </c>
       <c r="B300">
-        <v>-0.01</v>
+        <v>-1.68</v>
       </c>
       <c r="C300">
         <v>7.0000000000000007E-2</v>
@@ -4755,7 +4755,7 @@
         <v>391.85</v>
       </c>
       <c r="B301">
-        <v>0.06</v>
+        <v>-1.66</v>
       </c>
       <c r="C301">
         <v>0.14000000000000001</v>
@@ -4769,7 +4769,7 @@
         <v>395.77</v>
       </c>
       <c r="B302">
-        <v>0.13</v>
+        <v>-1.64</v>
       </c>
       <c r="C302">
         <v>0.2</v>
@@ -4783,7 +4783,7 @@
         <v>399.73</v>
       </c>
       <c r="B303">
-        <v>0.19</v>
+        <v>-1.62</v>
       </c>
       <c r="C303">
         <v>0.27</v>
@@ -4797,7 +4797,7 @@
         <v>403.72</v>
       </c>
       <c r="B304">
-        <v>0.26</v>
+        <v>-1.6</v>
       </c>
       <c r="C304">
         <v>0.33</v>
@@ -4811,7 +4811,7 @@
         <v>407.76</v>
       </c>
       <c r="B305">
-        <v>0.32</v>
+        <v>-1.58</v>
       </c>
       <c r="C305">
         <v>0.4</v>
@@ -4825,7 +4825,7 @@
         <v>411.84</v>
       </c>
       <c r="B306">
-        <v>0.39</v>
+        <v>-1.55</v>
       </c>
       <c r="C306">
         <v>0.46</v>
@@ -4839,7 +4839,7 @@
         <v>415.96</v>
       </c>
       <c r="B307">
-        <v>0.45</v>
+        <v>-1.53</v>
       </c>
       <c r="C307">
         <v>0.53</v>
@@ -4853,7 +4853,7 @@
         <v>420.12</v>
       </c>
       <c r="B308">
-        <v>0.52</v>
+        <v>-1.52</v>
       </c>
       <c r="C308">
         <v>0.59</v>
@@ -4867,7 +4867,7 @@
         <v>424.32</v>
       </c>
       <c r="B309">
-        <v>0.57999999999999996</v>
+        <v>-1.5</v>
       </c>
       <c r="C309">
         <v>0.66</v>
@@ -4881,7 +4881,7 @@
         <v>428.56</v>
       </c>
       <c r="B310">
-        <v>0.65</v>
+        <v>-1.48</v>
       </c>
       <c r="C310">
         <v>0.72</v>
@@ -4895,7 +4895,7 @@
         <v>432.85</v>
       </c>
       <c r="B311">
-        <v>0.71</v>
+        <v>-1.46</v>
       </c>
       <c r="C311">
         <v>0.79</v>
@@ -4909,7 +4909,7 @@
         <v>437.18</v>
       </c>
       <c r="B312">
-        <v>0.78</v>
+        <v>-1.44</v>
       </c>
       <c r="C312">
         <v>0.85</v>
@@ -4923,7 +4923,7 @@
         <v>441.55</v>
       </c>
       <c r="B313">
-        <v>0.84</v>
+        <v>-1.42</v>
       </c>
       <c r="C313">
         <v>0.92</v>
@@ -4937,7 +4937,7 @@
         <v>445.96</v>
       </c>
       <c r="B314">
-        <v>0.91</v>
+        <v>-1.4</v>
       </c>
       <c r="C314">
         <v>0.99</v>
@@ -4951,7 +4951,7 @@
         <v>450.42</v>
       </c>
       <c r="B315">
-        <v>0.98</v>
+        <v>-1.38</v>
       </c>
       <c r="C315">
         <v>1.05</v>
@@ -4965,7 +4965,7 @@
         <v>454.93</v>
       </c>
       <c r="B316">
-        <v>1.04</v>
+        <v>-1.36</v>
       </c>
       <c r="C316">
         <v>1.1200000000000001</v>
@@ -4979,7 +4979,7 @@
         <v>459.48</v>
       </c>
       <c r="B317">
-        <v>1.1100000000000001</v>
+        <v>-1.34</v>
       </c>
       <c r="C317">
         <v>1.19</v>
@@ -4993,7 +4993,7 @@
         <v>464.07</v>
       </c>
       <c r="B318">
-        <v>1.18</v>
+        <v>-1.31</v>
       </c>
       <c r="C318">
         <v>1.26</v>
@@ -5007,7 +5007,7 @@
         <v>468.71</v>
       </c>
       <c r="B319">
-        <v>1.25</v>
+        <v>-1.29</v>
       </c>
       <c r="C319">
         <v>1.33</v>
@@ -5021,7 +5021,7 @@
         <v>473.4</v>
       </c>
       <c r="B320">
-        <v>1.32</v>
+        <v>-1.27</v>
       </c>
       <c r="C320">
         <v>1.4</v>
@@ -5035,7 +5035,7 @@
         <v>478.13</v>
       </c>
       <c r="B321">
-        <v>1.39</v>
+        <v>-1.24</v>
       </c>
       <c r="C321">
         <v>1.47</v>
@@ -5049,7 +5049,7 @@
         <v>482.91</v>
       </c>
       <c r="B322">
-        <v>1.47</v>
+        <v>-1.22</v>
       </c>
       <c r="C322">
         <v>1.54</v>
@@ -5063,7 +5063,7 @@
         <v>487.74</v>
       </c>
       <c r="B323">
-        <v>1.54</v>
+        <v>-1.19</v>
       </c>
       <c r="C323">
         <v>1.61</v>
@@ -5077,7 +5077,7 @@
         <v>492.62</v>
       </c>
       <c r="B324">
-        <v>1.61</v>
+        <v>-1.17</v>
       </c>
       <c r="C324">
         <v>1.68</v>
@@ -5091,7 +5091,7 @@
         <v>497.55</v>
       </c>
       <c r="B325">
-        <v>1.68</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="C325">
         <v>1.75</v>
@@ -5105,7 +5105,7 @@
         <v>502.52</v>
       </c>
       <c r="B326">
-        <v>1.74</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="C326">
         <v>1.82</v>
@@ -5119,7 +5119,7 @@
         <v>507.55</v>
       </c>
       <c r="B327">
-        <v>1.81</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C327">
         <v>1.88</v>
@@ -5133,7 +5133,7 @@
         <v>512.62</v>
       </c>
       <c r="B328">
-        <v>1.87</v>
+        <v>-1.07</v>
       </c>
       <c r="C328">
         <v>1.95</v>
@@ -5147,7 +5147,7 @@
         <v>517.75</v>
       </c>
       <c r="B329">
-        <v>1.93</v>
+        <v>-1.05</v>
       </c>
       <c r="C329">
         <v>2.0099999999999998</v>
@@ -5161,7 +5161,7 @@
         <v>522.92999999999995</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>-1.02</v>
       </c>
       <c r="C330">
         <v>2.0699999999999998</v>
@@ -5175,7 +5175,7 @@
         <v>528.16</v>
       </c>
       <c r="B331">
-        <v>2.06</v>
+        <v>-1</v>
       </c>
       <c r="C331">
         <v>2.14</v>
@@ -5189,7 +5189,7 @@
         <v>533.44000000000005</v>
       </c>
       <c r="B332">
-        <v>2.12</v>
+        <v>-0.97</v>
       </c>
       <c r="C332">
         <v>2.2000000000000002</v>
@@ -5203,7 +5203,7 @@
         <v>538.77</v>
       </c>
       <c r="B333">
-        <v>2.19</v>
+        <v>-0.95</v>
       </c>
       <c r="C333">
         <v>2.2599999999999998</v>
@@ -5217,7 +5217,7 @@
         <v>544.16</v>
       </c>
       <c r="B334">
-        <v>2.25</v>
+        <v>-0.92</v>
       </c>
       <c r="C334">
         <v>2.33</v>
@@ -5231,7 +5231,7 @@
         <v>549.6</v>
       </c>
       <c r="B335">
-        <v>2.3199999999999998</v>
+        <v>-0.89</v>
       </c>
       <c r="C335">
         <v>2.39</v>
@@ -5245,7 +5245,7 @@
         <v>555.1</v>
       </c>
       <c r="B336">
-        <v>2.38</v>
+        <v>-0.87</v>
       </c>
       <c r="C336">
         <v>2.46</v>
@@ -5259,7 +5259,7 @@
         <v>560.65</v>
       </c>
       <c r="B337">
-        <v>2.4500000000000002</v>
+        <v>-0.84</v>
       </c>
       <c r="C337">
         <v>2.52</v>
@@ -5273,7 +5273,7 @@
         <v>566.25</v>
       </c>
       <c r="B338">
-        <v>2.5099999999999998</v>
+        <v>-0.82</v>
       </c>
       <c r="C338">
         <v>2.59</v>
@@ -5287,7 +5287,7 @@
         <v>571.91999999999996</v>
       </c>
       <c r="B339">
-        <v>2.57</v>
+        <v>-0.79</v>
       </c>
       <c r="C339">
         <v>2.65</v>
@@ -5301,7 +5301,7 @@
         <v>577.64</v>
       </c>
       <c r="B340">
-        <v>2.63</v>
+        <v>-0.77</v>
       </c>
       <c r="C340">
         <v>2.71</v>
@@ -5315,7 +5315,7 @@
         <v>583.41</v>
       </c>
       <c r="B341">
-        <v>2.7</v>
+        <v>-0.74</v>
       </c>
       <c r="C341">
         <v>2.77</v>
@@ -5329,7 +5329,7 @@
         <v>589.25</v>
       </c>
       <c r="B342">
-        <v>2.76</v>
+        <v>-0.71</v>
       </c>
       <c r="C342">
         <v>2.83</v>
@@ -5343,7 +5343,7 @@
         <v>595.14</v>
       </c>
       <c r="B343">
-        <v>2.82</v>
+        <v>-0.69</v>
       </c>
       <c r="C343">
         <v>2.89</v>
@@ -5357,7 +5357,7 @@
         <v>601.09</v>
       </c>
       <c r="B344">
-        <v>2.87</v>
+        <v>-0.67</v>
       </c>
       <c r="C344">
         <v>2.95</v>
@@ -5371,7 +5371,7 @@
         <v>607.1</v>
       </c>
       <c r="B345">
-        <v>2.93</v>
+        <v>-0.65</v>
       </c>
       <c r="C345">
         <v>3.01</v>
@@ -5385,7 +5385,7 @@
         <v>613.16999999999996</v>
       </c>
       <c r="B346">
-        <v>2.99</v>
+        <v>-0.62</v>
       </c>
       <c r="C346">
         <v>3.07</v>
@@ -5399,7 +5399,7 @@
         <v>619.29999999999995</v>
       </c>
       <c r="B347">
-        <v>3.05</v>
+        <v>-0.6</v>
       </c>
       <c r="C347">
         <v>3.13</v>
@@ -5413,7 +5413,7 @@
         <v>625.5</v>
       </c>
       <c r="B348">
-        <v>3.11</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C348">
         <v>3.18</v>
@@ -5427,7 +5427,7 @@
         <v>631.75</v>
       </c>
       <c r="B349">
-        <v>3.16</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C349">
         <v>3.24</v>
@@ -5441,7 +5441,7 @@
         <v>638.07000000000005</v>
       </c>
       <c r="B350">
-        <v>3.22</v>
+        <v>-0.52</v>
       </c>
       <c r="C350">
         <v>3.3</v>
@@ -5455,7 +5455,7 @@
         <v>644.45000000000005</v>
       </c>
       <c r="B351">
-        <v>3.27</v>
+        <v>-0.5</v>
       </c>
       <c r="C351">
         <v>3.35</v>
@@ -5469,7 +5469,7 @@
         <v>650.89</v>
       </c>
       <c r="B352">
-        <v>3.33</v>
+        <v>-0.48</v>
       </c>
       <c r="C352">
         <v>3.4</v>
@@ -5483,7 +5483,7 @@
         <v>657.4</v>
       </c>
       <c r="B353">
-        <v>3.38</v>
+        <v>-0.46</v>
       </c>
       <c r="C353">
         <v>3.45</v>
@@ -5497,7 +5497,7 @@
         <v>663.98</v>
       </c>
       <c r="B354">
-        <v>3.42</v>
+        <v>-0.45</v>
       </c>
       <c r="C354">
         <v>3.5</v>
@@ -5511,7 +5511,7 @@
         <v>670.62</v>
       </c>
       <c r="B355">
-        <v>3.46</v>
+        <v>-0.43</v>
       </c>
       <c r="C355">
         <v>3.54</v>
@@ -5525,7 +5525,7 @@
         <v>677.32</v>
       </c>
       <c r="B356">
-        <v>3.5</v>
+        <v>-0.4</v>
       </c>
       <c r="C356">
         <v>3.58</v>
@@ -5539,7 +5539,7 @@
         <v>684.1</v>
       </c>
       <c r="B357">
-        <v>3.54</v>
+        <v>-0.38</v>
       </c>
       <c r="C357">
         <v>3.61</v>
@@ -5553,7 +5553,7 @@
         <v>690.94</v>
       </c>
       <c r="B358">
-        <v>3.56</v>
+        <v>-0.35</v>
       </c>
       <c r="C358">
         <v>3.64</v>
@@ -5567,7 +5567,7 @@
         <v>697.85</v>
       </c>
       <c r="B359">
-        <v>3.59</v>
+        <v>-0.34</v>
       </c>
       <c r="C359">
         <v>3.67</v>
@@ -5581,7 +5581,7 @@
         <v>704.83</v>
       </c>
       <c r="B360">
-        <v>3.61</v>
+        <v>-0.32</v>
       </c>
       <c r="C360">
         <v>3.69</v>
@@ -5595,7 +5595,7 @@
         <v>711.87</v>
       </c>
       <c r="B361">
-        <v>3.63</v>
+        <v>-0.3</v>
       </c>
       <c r="C361">
         <v>3.71</v>
@@ -5609,7 +5609,7 @@
         <v>718.99</v>
       </c>
       <c r="B362">
-        <v>3.65</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C362">
         <v>3.73</v>
@@ -5623,7 +5623,7 @@
         <v>726.18</v>
       </c>
       <c r="B363">
-        <v>3.67</v>
+        <v>-0.26</v>
       </c>
       <c r="C363">
         <v>3.74</v>
@@ -5637,7 +5637,7 @@
         <v>733.44</v>
       </c>
       <c r="B364">
-        <v>3.68</v>
+        <v>-0.25</v>
       </c>
       <c r="C364">
         <v>3.75</v>
@@ -5651,7 +5651,7 @@
         <v>740.78</v>
       </c>
       <c r="B365">
-        <v>3.68</v>
+        <v>-0.24</v>
       </c>
       <c r="C365">
         <v>3.76</v>
@@ -5665,7 +5665,7 @@
         <v>748.19</v>
       </c>
       <c r="B366">
-        <v>3.68</v>
+        <v>-0.22</v>
       </c>
       <c r="C366">
         <v>3.75</v>
@@ -5679,7 +5679,7 @@
         <v>755.67</v>
       </c>
       <c r="B367">
-        <v>3.67</v>
+        <v>-0.2</v>
       </c>
       <c r="C367">
         <v>3.75</v>
@@ -5693,7 +5693,7 @@
         <v>763.23</v>
       </c>
       <c r="B368">
-        <v>3.65</v>
+        <v>-0.17</v>
       </c>
       <c r="C368">
         <v>3.73</v>
@@ -5707,7 +5707,7 @@
         <v>770.86</v>
       </c>
       <c r="B369">
-        <v>3.63</v>
+        <v>-0.15</v>
       </c>
       <c r="C369">
         <v>3.7</v>
@@ -5721,7 +5721,7 @@
         <v>778.57</v>
       </c>
       <c r="B370">
-        <v>3.59</v>
+        <v>-0.13</v>
       </c>
       <c r="C370">
         <v>3.67</v>
@@ -5735,7 +5735,7 @@
         <v>786.35</v>
       </c>
       <c r="B371">
-        <v>3.55</v>
+        <v>-0.13</v>
       </c>
       <c r="C371">
         <v>3.63</v>
@@ -5749,7 +5749,7 @@
         <v>794.22</v>
       </c>
       <c r="B372">
-        <v>3.5</v>
+        <v>-0.11</v>
       </c>
       <c r="C372">
         <v>3.58</v>
@@ -5763,7 +5763,7 @@
         <v>802.16</v>
       </c>
       <c r="B373">
-        <v>3.44</v>
+        <v>-0.08</v>
       </c>
       <c r="C373">
         <v>3.51</v>
@@ -5777,7 +5777,7 @@
         <v>810.18</v>
       </c>
       <c r="B374">
-        <v>3.36</v>
+        <v>-0.06</v>
       </c>
       <c r="C374">
         <v>3.44</v>
@@ -5791,7 +5791,7 @@
         <v>818.28</v>
       </c>
       <c r="B375">
-        <v>3.28</v>
+        <v>-0.05</v>
       </c>
       <c r="C375">
         <v>3.35</v>
@@ -5805,7 +5805,7 @@
         <v>826.46</v>
       </c>
       <c r="B376">
-        <v>3.18</v>
+        <v>-0.05</v>
       </c>
       <c r="C376">
         <v>3.25</v>
@@ -5819,7 +5819,7 @@
         <v>834.73</v>
       </c>
       <c r="B377">
-        <v>3.07</v>
+        <v>-0.03</v>
       </c>
       <c r="C377">
         <v>3.14</v>
@@ -5833,7 +5833,7 @@
         <v>843.08</v>
       </c>
       <c r="B378">
-        <v>2.95</v>
+        <v>-0.01</v>
       </c>
       <c r="C378">
         <v>3.02</v>
@@ -5847,7 +5847,7 @@
         <v>851.51</v>
       </c>
       <c r="B379">
-        <v>2.81</v>
+        <v>0.02</v>
       </c>
       <c r="C379">
         <v>2.89</v>
@@ -5861,7 +5861,7 @@
         <v>860.02</v>
       </c>
       <c r="B380">
-        <v>2.67</v>
+        <v>0.03</v>
       </c>
       <c r="C380">
         <v>2.74</v>
@@ -5875,7 +5875,7 @@
         <v>868.62</v>
       </c>
       <c r="B381">
-        <v>2.5099999999999998</v>
+        <v>0.04</v>
       </c>
       <c r="C381">
         <v>2.58</v>
@@ -5889,7 +5889,7 @@
         <v>877.31</v>
       </c>
       <c r="B382">
-        <v>2.34</v>
+        <v>0.06</v>
       </c>
       <c r="C382">
         <v>2.42</v>
@@ -5903,7 +5903,7 @@
         <v>886.08</v>
       </c>
       <c r="B383">
-        <v>2.16</v>
+        <v>0.08</v>
       </c>
       <c r="C383">
         <v>2.2400000000000002</v>
@@ -5917,7 +5917,7 @@
         <v>894.94</v>
       </c>
       <c r="B384">
-        <v>1.98</v>
+        <v>0.11</v>
       </c>
       <c r="C384">
         <v>2.06</v>
@@ -5931,7 +5931,7 @@
         <v>903.89</v>
       </c>
       <c r="B385">
-        <v>1.79</v>
+        <v>0.13</v>
       </c>
       <c r="C385">
         <v>1.87</v>
@@ -5945,7 +5945,7 @@
         <v>912.93</v>
       </c>
       <c r="B386">
-        <v>1.59</v>
+        <v>0.15</v>
       </c>
       <c r="C386">
         <v>1.67</v>
@@ -5959,7 +5959,7 @@
         <v>922.06</v>
       </c>
       <c r="B387">
-        <v>1.39</v>
+        <v>0.17</v>
       </c>
       <c r="C387">
         <v>1.47</v>
@@ -5973,7 +5973,7 @@
         <v>931.28</v>
       </c>
       <c r="B388">
-        <v>1.18</v>
+        <v>0.2</v>
       </c>
       <c r="C388">
         <v>1.26</v>
@@ -5987,7 +5987,7 @@
         <v>940.59</v>
       </c>
       <c r="B389">
-        <v>0.98</v>
+        <v>0.22</v>
       </c>
       <c r="C389">
         <v>1.05</v>
@@ -6001,7 +6001,7 @@
         <v>950</v>
       </c>
       <c r="B390">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="C390">
         <v>0.85</v>
@@ -6015,7 +6015,7 @@
         <v>959.5</v>
       </c>
       <c r="B391">
-        <v>0.57999999999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C391">
         <v>0.65</v>
@@ -6029,7 +6029,7 @@
         <v>969.09</v>
       </c>
       <c r="B392">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="C392">
         <v>0.46</v>
@@ -6043,7 +6043,7 @@
         <v>978.78</v>
       </c>
       <c r="B393">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="C393">
         <v>0.27</v>
@@ -6057,7 +6057,7 @@
         <v>988.57</v>
       </c>
       <c r="B394">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="C394">
         <v>0.08</v>
@@ -6071,7 +6071,7 @@
         <v>998.46</v>
       </c>
       <c r="B395">
-        <v>-0.17</v>
+        <v>0.39</v>
       </c>
       <c r="C395">
         <v>-0.09</v>
@@ -6085,7 +6085,7 @@
         <v>1008.44</v>
       </c>
       <c r="B396">
-        <v>-0.34</v>
+        <v>0.43</v>
       </c>
       <c r="C396">
         <v>-0.26</v>
@@ -6099,7 +6099,7 @@
         <v>1018.53</v>
       </c>
       <c r="B397">
-        <v>-0.5</v>
+        <v>0.47</v>
       </c>
       <c r="C397">
         <v>-0.42</v>
@@ -6113,7 +6113,7 @@
         <v>1028.71</v>
       </c>
       <c r="B398">
-        <v>-0.65</v>
+        <v>0.51</v>
       </c>
       <c r="C398">
         <v>-0.56999999999999995</v>
@@ -6127,7 +6127,7 @@
         <v>1039</v>
       </c>
       <c r="B399">
-        <v>-0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C399">
         <v>-0.72</v>
@@ -6141,7 +6141,7 @@
         <v>1049.3900000000001</v>
       </c>
       <c r="B400">
-        <v>-0.94</v>
+        <v>0.59</v>
       </c>
       <c r="C400">
         <v>-0.86</v>
@@ -6155,7 +6155,7 @@
         <v>1059.8800000000001</v>
       </c>
       <c r="B401">
-        <v>-1.07</v>
+        <v>0.63</v>
       </c>
       <c r="C401">
         <v>-0.99</v>
@@ -6169,7 +6169,7 @@
         <v>1070.48</v>
       </c>
       <c r="B402">
-        <v>-1.2</v>
+        <v>0.68</v>
       </c>
       <c r="C402">
         <v>-1.1299999999999999</v>
@@ -6183,7 +6183,7 @@
         <v>1081.19</v>
       </c>
       <c r="B403">
-        <v>-1.33</v>
+        <v>0.72</v>
       </c>
       <c r="C403">
         <v>-1.26</v>
@@ -6197,7 +6197,7 @@
         <v>1092</v>
       </c>
       <c r="B404">
-        <v>-1.46</v>
+        <v>0.77</v>
       </c>
       <c r="C404">
         <v>-1.38</v>
@@ -6211,7 +6211,7 @@
         <v>1102.92</v>
       </c>
       <c r="B405">
-        <v>-1.59</v>
+        <v>0.81</v>
       </c>
       <c r="C405">
         <v>-1.51</v>
@@ -6225,7 +6225,7 @@
         <v>1113.95</v>
       </c>
       <c r="B406">
-        <v>-1.72</v>
+        <v>0.85</v>
       </c>
       <c r="C406">
         <v>-1.64</v>
@@ -6239,7 +6239,7 @@
         <v>1125.0899999999999</v>
       </c>
       <c r="B407">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="C407">
         <v>-1.77</v>
@@ -6253,7 +6253,7 @@
         <v>1136.3399999999999</v>
       </c>
       <c r="B408">
-        <v>-1.98</v>
+        <v>0.95</v>
       </c>
       <c r="C408">
         <v>-1.9</v>
@@ -6267,7 +6267,7 @@
         <v>1147.7</v>
       </c>
       <c r="B409">
-        <v>-2.11</v>
+        <v>1.01</v>
       </c>
       <c r="C409">
         <v>-2.04</v>
@@ -6281,7 +6281,7 @@
         <v>1159.18</v>
       </c>
       <c r="B410">
-        <v>-2.25</v>
+        <v>1.06</v>
       </c>
       <c r="C410">
         <v>-2.1800000000000002</v>
@@ -6295,7 +6295,7 @@
         <v>1170.77</v>
       </c>
       <c r="B411">
-        <v>-2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C411">
         <v>-2.3199999999999998</v>
@@ -6309,7 +6309,7 @@
         <v>1182.48</v>
       </c>
       <c r="B412">
-        <v>-2.54</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C412">
         <v>-2.4700000000000002</v>
@@ -6323,7 +6323,7 @@
         <v>1194.3</v>
       </c>
       <c r="B413">
-        <v>-2.69</v>
+        <v>1.21</v>
       </c>
       <c r="C413">
         <v>-2.62</v>
@@ -6337,7 +6337,7 @@
         <v>1206.25</v>
       </c>
       <c r="B414">
-        <v>-2.85</v>
+        <v>1.27</v>
       </c>
       <c r="C414">
         <v>-2.77</v>
@@ -6351,7 +6351,7 @@
         <v>1218.31</v>
       </c>
       <c r="B415">
-        <v>-3.01</v>
+        <v>1.33</v>
       </c>
       <c r="C415">
         <v>-2.93</v>
@@ -6365,7 +6365,7 @@
         <v>1230.49</v>
       </c>
       <c r="B416">
-        <v>-3.18</v>
+        <v>1.38</v>
       </c>
       <c r="C416">
         <v>-3.1</v>
@@ -6379,7 +6379,7 @@
         <v>1242.8</v>
       </c>
       <c r="B417">
-        <v>-3.35</v>
+        <v>1.44</v>
       </c>
       <c r="C417">
         <v>-3.27</v>
@@ -6393,7 +6393,7 @@
         <v>1255.22</v>
       </c>
       <c r="B418">
-        <v>-3.53</v>
+        <v>1.49</v>
       </c>
       <c r="C418">
         <v>-3.45</v>
@@ -6407,7 +6407,7 @@
         <v>1267.78</v>
       </c>
       <c r="B419">
-        <v>-3.71</v>
+        <v>1.56</v>
       </c>
       <c r="C419">
         <v>-3.63</v>
@@ -6421,7 +6421,7 @@
         <v>1280.45</v>
       </c>
       <c r="B420">
-        <v>-3.89</v>
+        <v>1.62</v>
       </c>
       <c r="C420">
         <v>-3.82</v>
@@ -6435,7 +6435,7 @@
         <v>1293.26</v>
       </c>
       <c r="B421">
-        <v>-4.08</v>
+        <v>1.69</v>
       </c>
       <c r="C421">
         <v>-4.01</v>
@@ -6449,7 +6449,7 @@
         <v>1306.19</v>
       </c>
       <c r="B422">
-        <v>-4.2699999999999996</v>
+        <v>1.75</v>
       </c>
       <c r="C422">
         <v>-4.1900000000000004</v>
@@ -6463,7 +6463,7 @@
         <v>1319.25</v>
       </c>
       <c r="B423">
-        <v>-4.46</v>
+        <v>1.8</v>
       </c>
       <c r="C423">
         <v>-4.38</v>
@@ -6477,7 +6477,7 @@
         <v>1332.45</v>
       </c>
       <c r="B424">
-        <v>-4.6500000000000004</v>
+        <v>1.86</v>
       </c>
       <c r="C424">
         <v>-4.57</v>
@@ -6491,7 +6491,7 @@
         <v>1345.77</v>
       </c>
       <c r="B425">
-        <v>-4.84</v>
+        <v>1.93</v>
       </c>
       <c r="C425">
         <v>-4.76</v>
@@ -6505,7 +6505,7 @@
         <v>1359.23</v>
       </c>
       <c r="B426">
-        <v>-5.0199999999999996</v>
+        <v>2</v>
       </c>
       <c r="C426">
         <v>-4.9400000000000004</v>
@@ -6519,7 +6519,7 @@
         <v>1372.82</v>
       </c>
       <c r="B427">
-        <v>-5.2</v>
+        <v>2.06</v>
       </c>
       <c r="C427">
         <v>-5.12</v>
@@ -6533,7 +6533,7 @@
         <v>1386.55</v>
       </c>
       <c r="B428">
-        <v>-5.36</v>
+        <v>2.12</v>
       </c>
       <c r="C428">
         <v>-5.29</v>
@@ -6547,7 +6547,7 @@
         <v>1400.41</v>
       </c>
       <c r="B429">
-        <v>-5.52</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C429">
         <v>-5.45</v>
@@ -6561,7 +6561,7 @@
         <v>1414.42</v>
       </c>
       <c r="B430">
-        <v>-5.66</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C430">
         <v>-5.59</v>
@@ -6575,7 +6575,7 @@
         <v>1428.56</v>
       </c>
       <c r="B431">
-        <v>-5.79</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C431">
         <v>-5.71</v>
@@ -6589,7 +6589,7 @@
         <v>1442.85</v>
       </c>
       <c r="B432">
-        <v>-5.9</v>
+        <v>2.41</v>
       </c>
       <c r="C432">
         <v>-5.82</v>
@@ -6603,7 +6603,7 @@
         <v>1457.28</v>
       </c>
       <c r="B433">
-        <v>-5.99</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C433">
         <v>-5.92</v>
@@ -6617,7 +6617,7 @@
         <v>1471.85</v>
       </c>
       <c r="B434">
-        <v>-6.07</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C434">
         <v>-5.99</v>
@@ -6631,7 +6631,7 @@
         <v>1486.57</v>
       </c>
       <c r="B435">
-        <v>-6.12</v>
+        <v>2.6</v>
       </c>
       <c r="C435">
         <v>-6.04</v>
@@ -6645,7 +6645,7 @@
         <v>1501.43</v>
       </c>
       <c r="B436">
-        <v>-6.14</v>
+        <v>2.66</v>
       </c>
       <c r="C436">
         <v>-6.06</v>
@@ -6659,7 +6659,7 @@
         <v>1516.45</v>
       </c>
       <c r="B437">
-        <v>-6.13</v>
+        <v>2.74</v>
       </c>
       <c r="C437">
         <v>-6.05</v>
@@ -6673,7 +6673,7 @@
         <v>1531.61</v>
       </c>
       <c r="B438">
-        <v>-6.09</v>
+        <v>2.85</v>
       </c>
       <c r="C438">
         <v>-6.02</v>
@@ -6687,7 +6687,7 @@
         <v>1546.93</v>
       </c>
       <c r="B439">
-        <v>-6.03</v>
+        <v>2.95</v>
       </c>
       <c r="C439">
         <v>-5.95</v>
@@ -6701,7 +6701,7 @@
         <v>1562.4</v>
       </c>
       <c r="B440">
-        <v>-5.95</v>
+        <v>3.02</v>
       </c>
       <c r="C440">
         <v>-5.87</v>
@@ -6715,7 +6715,7 @@
         <v>1578.02</v>
       </c>
       <c r="B441">
-        <v>-5.84</v>
+        <v>3.07</v>
       </c>
       <c r="C441">
         <v>-5.76</v>
@@ -6729,7 +6729,7 @@
         <v>1593.8</v>
       </c>
       <c r="B442">
-        <v>-5.7</v>
+        <v>3.12</v>
       </c>
       <c r="C442">
         <v>-5.63</v>
@@ -6743,7 +6743,7 @@
         <v>1609.74</v>
       </c>
       <c r="B443">
-        <v>-5.54</v>
+        <v>3.2</v>
       </c>
       <c r="C443">
         <v>-5.46</v>
@@ -6757,7 +6757,7 @@
         <v>1625.84</v>
       </c>
       <c r="B444">
-        <v>-5.35</v>
+        <v>3.31</v>
       </c>
       <c r="C444">
         <v>-5.27</v>
@@ -6771,7 +6771,7 @@
         <v>1642.1</v>
       </c>
       <c r="B445">
-        <v>-5.14</v>
+        <v>3.42</v>
       </c>
       <c r="C445">
         <v>-5.07</v>
@@ -6785,7 +6785,7 @@
         <v>1658.52</v>
       </c>
       <c r="B446">
-        <v>-4.93</v>
+        <v>3.51</v>
       </c>
       <c r="C446">
         <v>-4.8499999999999996</v>
@@ -6799,7 +6799,7 @@
         <v>1675.1</v>
       </c>
       <c r="B447">
-        <v>-4.7</v>
+        <v>3.59</v>
       </c>
       <c r="C447">
         <v>-4.62</v>
@@ -6813,7 +6813,7 @@
         <v>1691.85</v>
       </c>
       <c r="B448">
-        <v>-4.46</v>
+        <v>3.66</v>
       </c>
       <c r="C448">
         <v>-4.38</v>
@@ -6827,7 +6827,7 @@
         <v>1708.77</v>
       </c>
       <c r="B449">
-        <v>-4.2</v>
+        <v>3.74</v>
       </c>
       <c r="C449">
         <v>-4.13</v>
@@ -6841,7 +6841,7 @@
         <v>1725.86</v>
       </c>
       <c r="B450">
-        <v>-3.93</v>
+        <v>3.85</v>
       </c>
       <c r="C450">
         <v>-3.86</v>
@@ -6855,7 +6855,7 @@
         <v>1743.12</v>
       </c>
       <c r="B451">
-        <v>-3.66</v>
+        <v>3.96</v>
       </c>
       <c r="C451">
         <v>-3.58</v>
@@ -6869,7 +6869,7 @@
         <v>1760.55</v>
       </c>
       <c r="B452">
-        <v>-3.38</v>
+        <v>4.07</v>
       </c>
       <c r="C452">
         <v>-3.3</v>
@@ -6883,7 +6883,7 @@
         <v>1778.15</v>
       </c>
       <c r="B453">
-        <v>-3.1</v>
+        <v>4.17</v>
       </c>
       <c r="C453">
         <v>-3.03</v>
@@ -6897,7 +6897,7 @@
         <v>1795.94</v>
       </c>
       <c r="B454">
-        <v>-2.82</v>
+        <v>4.28</v>
       </c>
       <c r="C454">
         <v>-2.74</v>
@@ -6911,7 +6911,7 @@
         <v>1813.9</v>
       </c>
       <c r="B455">
-        <v>-2.5299999999999998</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="C455">
         <v>-2.4500000000000002</v>
@@ -6925,7 +6925,7 @@
         <v>1832.03</v>
       </c>
       <c r="B456">
-        <v>-2.23</v>
+        <v>4.5</v>
       </c>
       <c r="C456">
         <v>-2.16</v>
@@ -6939,7 +6939,7 @@
         <v>1850.36</v>
       </c>
       <c r="B457">
-        <v>-1.94</v>
+        <v>4.62</v>
       </c>
       <c r="C457">
         <v>-1.87</v>
@@ -6953,7 +6953,7 @@
         <v>1868.86</v>
       </c>
       <c r="B458">
-        <v>-1.65</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C458">
         <v>-1.58</v>
@@ -6967,7 +6967,7 @@
         <v>1887.55</v>
       </c>
       <c r="B459">
-        <v>-1.37</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C459">
         <v>-1.29</v>
@@ -6981,7 +6981,7 @@
         <v>1906.42</v>
       </c>
       <c r="B460">
-        <v>-1.08</v>
+        <v>4.99</v>
       </c>
       <c r="C460">
         <v>-1.01</v>
@@ -6995,7 +6995,7 @@
         <v>1925.49</v>
       </c>
       <c r="B461">
-        <v>-0.79</v>
+        <v>5.13</v>
       </c>
       <c r="C461">
         <v>-0.72</v>
@@ -7009,7 +7009,7 @@
         <v>1944.74</v>
       </c>
       <c r="B462">
-        <v>-0.5</v>
+        <v>5.28</v>
       </c>
       <c r="C462">
         <v>-0.43</v>
@@ -7023,7 +7023,7 @@
         <v>1964.19</v>
       </c>
       <c r="B463">
-        <v>-0.22</v>
+        <v>5.42</v>
       </c>
       <c r="C463">
         <v>-0.14000000000000001</v>
@@ -7037,7 +7037,7 @@
         <v>1983.83</v>
       </c>
       <c r="B464">
-        <v>0.06</v>
+        <v>5.56</v>
       </c>
       <c r="C464">
         <v>0.13</v>
@@ -7051,7 +7051,7 @@
         <v>2003.67</v>
       </c>
       <c r="B465">
-        <v>0.33</v>
+        <v>5.69</v>
       </c>
       <c r="C465">
         <v>0.4</v>
@@ -7065,7 +7065,7 @@
         <v>2023.71</v>
       </c>
       <c r="B466">
-        <v>0.6</v>
+        <v>5.82</v>
       </c>
       <c r="C466">
         <v>0.67</v>
@@ -7079,7 +7079,7 @@
         <v>2043.94</v>
       </c>
       <c r="B467">
-        <v>0.86</v>
+        <v>5.97</v>
       </c>
       <c r="C467">
         <v>0.93</v>
@@ -7093,7 +7093,7 @@
         <v>2064.38</v>
       </c>
       <c r="B468">
-        <v>1.1100000000000001</v>
+        <v>6.13</v>
       </c>
       <c r="C468">
         <v>1.19</v>
@@ -7107,7 +7107,7 @@
         <v>2085.0300000000002</v>
       </c>
       <c r="B469">
-        <v>1.36</v>
+        <v>6.3</v>
       </c>
       <c r="C469">
         <v>1.44</v>
@@ -7121,7 +7121,7 @@
         <v>2105.88</v>
       </c>
       <c r="B470">
-        <v>1.6</v>
+        <v>6.47</v>
       </c>
       <c r="C470">
         <v>1.68</v>
@@ -7135,7 +7135,7 @@
         <v>2126.94</v>
       </c>
       <c r="B471">
-        <v>1.84</v>
+        <v>6.63</v>
       </c>
       <c r="C471">
         <v>1.91</v>
@@ -7149,7 +7149,7 @@
         <v>2148.1999999999998</v>
       </c>
       <c r="B472">
-        <v>2.06</v>
+        <v>6.78</v>
       </c>
       <c r="C472">
         <v>2.14</v>
@@ -7163,7 +7163,7 @@
         <v>2169.69</v>
       </c>
       <c r="B473">
-        <v>2.2799999999999998</v>
+        <v>6.92</v>
       </c>
       <c r="C473">
         <v>2.36</v>
@@ -7177,7 +7177,7 @@
         <v>2191.38</v>
       </c>
       <c r="B474">
-        <v>2.4900000000000002</v>
+        <v>7.06</v>
       </c>
       <c r="C474">
         <v>2.56</v>
@@ -7191,7 +7191,7 @@
         <v>2213.3000000000002</v>
       </c>
       <c r="B475">
-        <v>2.69</v>
+        <v>7.2</v>
       </c>
       <c r="C475">
         <v>2.76</v>
@@ -7205,7 +7205,7 @@
         <v>2235.4299999999998</v>
       </c>
       <c r="B476">
-        <v>2.88</v>
+        <v>7.36</v>
       </c>
       <c r="C476">
         <v>2.95</v>
@@ -7219,7 +7219,7 @@
         <v>2257.7800000000002</v>
       </c>
       <c r="B477">
-        <v>3.06</v>
+        <v>7.52</v>
       </c>
       <c r="C477">
         <v>3.13</v>
@@ -7233,7 +7233,7 @@
         <v>2280.36</v>
       </c>
       <c r="B478">
-        <v>3.24</v>
+        <v>7.69</v>
       </c>
       <c r="C478">
         <v>3.31</v>
@@ -7247,7 +7247,7 @@
         <v>2303.17</v>
       </c>
       <c r="B479">
-        <v>3.4</v>
+        <v>7.86</v>
       </c>
       <c r="C479">
         <v>3.48</v>
@@ -7261,7 +7261,7 @@
         <v>2326.1999999999998</v>
       </c>
       <c r="B480">
-        <v>3.56</v>
+        <v>8</v>
       </c>
       <c r="C480">
         <v>3.63</v>
@@ -7275,7 +7275,7 @@
         <v>2349.46</v>
       </c>
       <c r="B481">
-        <v>3.7</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="C481">
         <v>3.77</v>
@@ -7289,7 +7289,7 @@
         <v>2372.9499999999998</v>
       </c>
       <c r="B482">
-        <v>3.83</v>
+        <v>8.24</v>
       </c>
       <c r="C482">
         <v>3.9</v>
@@ -7303,7 +7303,7 @@
         <v>2396.6799999999998</v>
       </c>
       <c r="B483">
-        <v>3.94</v>
+        <v>8.36</v>
       </c>
       <c r="C483">
         <v>4.01</v>
@@ -7317,7 +7317,7 @@
         <v>2420.65</v>
       </c>
       <c r="B484">
-        <v>4.04</v>
+        <v>8.49</v>
       </c>
       <c r="C484">
         <v>4.1100000000000003</v>
@@ -7331,7 +7331,7 @@
         <v>2444.86</v>
       </c>
       <c r="B485">
-        <v>4.1399999999999997</v>
+        <v>8.64</v>
       </c>
       <c r="C485">
         <v>4.21</v>
@@ -7345,7 +7345,7 @@
         <v>2469.31</v>
       </c>
       <c r="B486">
-        <v>4.22</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="C486">
         <v>4.29</v>
@@ -7359,7 +7359,7 @@
         <v>2494</v>
       </c>
       <c r="B487">
-        <v>4.28</v>
+        <v>8.93</v>
       </c>
       <c r="C487">
         <v>4.3499999999999996</v>
@@ -7373,7 +7373,7 @@
         <v>2518.94</v>
       </c>
       <c r="B488">
-        <v>4.33</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="C488">
         <v>4.3899999999999997</v>
@@ -7387,7 +7387,7 @@
         <v>2544.13</v>
       </c>
       <c r="B489">
-        <v>4.3600000000000003</v>
+        <v>9.15</v>
       </c>
       <c r="C489">
         <v>4.43</v>
@@ -7401,7 +7401,7 @@
         <v>2569.5700000000002</v>
       </c>
       <c r="B490">
-        <v>4.38</v>
+        <v>9.24</v>
       </c>
       <c r="C490">
         <v>4.45</v>
@@ -7415,7 +7415,7 @@
         <v>2595.27</v>
       </c>
       <c r="B491">
-        <v>4.3899999999999997</v>
+        <v>9.32</v>
       </c>
       <c r="C491">
         <v>4.46</v>
@@ -7429,7 +7429,7 @@
         <v>2621.2199999999998</v>
       </c>
       <c r="B492">
-        <v>4.38</v>
+        <v>9.39</v>
       </c>
       <c r="C492">
         <v>4.45</v>
@@ -7443,7 +7443,7 @@
         <v>2647.43</v>
       </c>
       <c r="B493">
-        <v>4.34</v>
+        <v>9.48</v>
       </c>
       <c r="C493">
         <v>4.41</v>
@@ -7457,7 +7457,7 @@
         <v>2673.9</v>
       </c>
       <c r="B494">
-        <v>4.29</v>
+        <v>9.57</v>
       </c>
       <c r="C494">
         <v>4.3600000000000003</v>
@@ -7471,7 +7471,7 @@
         <v>2700.64</v>
       </c>
       <c r="B495">
-        <v>4.22</v>
+        <v>9.67</v>
       </c>
       <c r="C495">
         <v>4.28</v>
@@ -7485,7 +7485,7 @@
         <v>2727.65</v>
       </c>
       <c r="B496">
-        <v>4.12</v>
+        <v>9.75</v>
       </c>
       <c r="C496">
         <v>4.1900000000000004</v>
@@ -7499,7 +7499,7 @@
         <v>2754.93</v>
       </c>
       <c r="B497">
-        <v>4.0199999999999996</v>
+        <v>9.81</v>
       </c>
       <c r="C497">
         <v>4.08</v>
@@ -7513,7 +7513,7 @@
         <v>2782.48</v>
       </c>
       <c r="B498">
-        <v>3.89</v>
+        <v>9.85</v>
       </c>
       <c r="C498">
         <v>3.96</v>
@@ -7527,7 +7527,7 @@
         <v>2810.3</v>
       </c>
       <c r="B499">
-        <v>3.75</v>
+        <v>9.89</v>
       </c>
       <c r="C499">
         <v>3.82</v>
@@ -7541,7 +7541,7 @@
         <v>2838.4</v>
       </c>
       <c r="B500">
-        <v>3.6</v>
+        <v>9.91</v>
       </c>
       <c r="C500">
         <v>3.67</v>
@@ -7555,7 +7555,7 @@
         <v>2866.79</v>
       </c>
       <c r="B501">
-        <v>3.43</v>
+        <v>9.94</v>
       </c>
       <c r="C501">
         <v>3.5</v>
@@ -7569,7 +7569,7 @@
         <v>2895.46</v>
       </c>
       <c r="B502">
-        <v>3.25</v>
+        <v>9.98</v>
       </c>
       <c r="C502">
         <v>3.32</v>
@@ -7583,7 +7583,7 @@
         <v>2924.41</v>
       </c>
       <c r="B503">
-        <v>3.05</v>
+        <v>10</v>
       </c>
       <c r="C503">
         <v>3.12</v>
@@ -7597,7 +7597,7 @@
         <v>2953.65</v>
       </c>
       <c r="B504">
-        <v>2.84</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C504">
         <v>2.91</v>
@@ -7611,7 +7611,7 @@
         <v>2983.19</v>
       </c>
       <c r="B505">
-        <v>2.63</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C505">
         <v>2.69</v>
@@ -7625,7 +7625,7 @@
         <v>3013.02</v>
       </c>
       <c r="B506">
-        <v>2.41</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C506">
         <v>2.4700000000000002</v>
@@ -7639,7 +7639,7 @@
         <v>3043.15</v>
       </c>
       <c r="B507">
-        <v>2.19</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C507">
         <v>2.25</v>
@@ -7653,7 +7653,7 @@
         <v>3073.58</v>
       </c>
       <c r="B508">
-        <v>1.97</v>
+        <v>10</v>
       </c>
       <c r="C508">
         <v>2.04</v>
@@ -7667,7 +7667,7 @@
         <v>3104.32</v>
       </c>
       <c r="B509">
-        <v>1.76</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="C509">
         <v>1.82</v>
@@ -7681,7 +7681,7 @@
         <v>3135.36</v>
       </c>
       <c r="B510">
-        <v>1.54</v>
+        <v>9.9</v>
       </c>
       <c r="C510">
         <v>1.6</v>
@@ -7695,7 +7695,7 @@
         <v>3166.72</v>
       </c>
       <c r="B511">
-        <v>1.32</v>
+        <v>9.83</v>
       </c>
       <c r="C511">
         <v>1.38</v>
@@ -7709,7 +7709,7 @@
         <v>3198.38</v>
       </c>
       <c r="B512">
-        <v>1.1100000000000001</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="C512">
         <v>1.17</v>
@@ -7723,7 +7723,7 @@
         <v>3230.37</v>
       </c>
       <c r="B513">
-        <v>0.91</v>
+        <v>9.73</v>
       </c>
       <c r="C513">
         <v>0.97</v>
@@ -7737,7 +7737,7 @@
         <v>3262.67</v>
       </c>
       <c r="B514">
-        <v>0.72</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="C514">
         <v>0.78</v>
@@ -7751,7 +7751,7 @@
         <v>3295.3</v>
       </c>
       <c r="B515">
-        <v>0.55000000000000004</v>
+        <v>9.68</v>
       </c>
       <c r="C515">
         <v>0.6</v>
@@ -7765,7 +7765,7 @@
         <v>3328.25</v>
       </c>
       <c r="B516">
-        <v>0.39</v>
+        <v>9.61</v>
       </c>
       <c r="C516">
         <v>0.45</v>
@@ -7779,7 +7779,7 @@
         <v>3361.53</v>
       </c>
       <c r="B517">
-        <v>0.26</v>
+        <v>9.5</v>
       </c>
       <c r="C517">
         <v>0.31</v>
@@ -7793,7 +7793,7 @@
         <v>3395.15</v>
       </c>
       <c r="B518">
-        <v>0.13</v>
+        <v>9.36</v>
       </c>
       <c r="C518">
         <v>0.19</v>
@@ -7807,7 +7807,7 @@
         <v>3429.1</v>
       </c>
       <c r="B519">
-        <v>0.02</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="C519">
         <v>0.08</v>
@@ -7821,7 +7821,7 @@
         <v>3463.39</v>
       </c>
       <c r="B520">
-        <v>-0.08</v>
+        <v>9.1</v>
       </c>
       <c r="C520">
         <v>-0.02</v>
@@ -7835,7 +7835,7 @@
         <v>3498.03</v>
       </c>
       <c r="B521">
-        <v>-0.16</v>
+        <v>8.99</v>
       </c>
       <c r="C521">
         <v>-0.11</v>
@@ -7849,7 +7849,7 @@
         <v>3533.01</v>
       </c>
       <c r="B522">
-        <v>-0.23</v>
+        <v>8.91</v>
       </c>
       <c r="C522">
         <v>-0.18</v>
@@ -7863,7 +7863,7 @@
         <v>3568.34</v>
       </c>
       <c r="B523">
-        <v>-0.27</v>
+        <v>8.85</v>
       </c>
       <c r="C523">
         <v>-0.22</v>
@@ -7877,7 +7877,7 @@
         <v>3604.02</v>
       </c>
       <c r="B524">
-        <v>-0.3</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="C524">
         <v>-0.25</v>
@@ -7891,7 +7891,7 @@
         <v>3640.06</v>
       </c>
       <c r="B525">
-        <v>-0.3</v>
+        <v>8.69</v>
       </c>
       <c r="C525">
         <v>-0.25</v>
@@ -7905,7 +7905,7 @@
         <v>3676.46</v>
       </c>
       <c r="B526">
-        <v>-0.27</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="C526">
         <v>-0.22</v>
@@ -7919,7 +7919,7 @@
         <v>3713.22</v>
       </c>
       <c r="B527">
-        <v>-0.2</v>
+        <v>8.36</v>
       </c>
       <c r="C527">
         <v>-0.16</v>
@@ -7933,7 +7933,7 @@
         <v>3750.36</v>
       </c>
       <c r="B528">
-        <v>-0.1</v>
+        <v>8.19</v>
       </c>
       <c r="C528">
         <v>-0.05</v>
@@ -7947,7 +7947,7 @@
         <v>3787.86</v>
       </c>
       <c r="B529">
-        <v>0.05</v>
+        <v>8.06</v>
       </c>
       <c r="C529">
         <v>0.09</v>
@@ -7961,7 +7961,7 @@
         <v>3825.74</v>
       </c>
       <c r="B530">
-        <v>0.23</v>
+        <v>7.97</v>
       </c>
       <c r="C530">
         <v>0.27</v>
@@ -7975,7 +7975,7 @@
         <v>3864</v>
       </c>
       <c r="B531">
-        <v>0.43</v>
+        <v>7.87</v>
       </c>
       <c r="C531">
         <v>0.47</v>
@@ -7989,7 +7989,7 @@
         <v>3902.64</v>
       </c>
       <c r="B532">
-        <v>0.64</v>
+        <v>7.76</v>
       </c>
       <c r="C532">
         <v>0.68</v>
@@ -8003,7 +8003,7 @@
         <v>3941.66</v>
       </c>
       <c r="B533">
-        <v>0.85</v>
+        <v>7.61</v>
       </c>
       <c r="C533">
         <v>0.89</v>
@@ -8017,7 +8017,7 @@
         <v>3981.08</v>
       </c>
       <c r="B534">
-        <v>1.07</v>
+        <v>7.44</v>
       </c>
       <c r="C534">
         <v>1.1000000000000001</v>
@@ -8031,7 +8031,7 @@
         <v>4020.89</v>
       </c>
       <c r="B535">
-        <v>1.28</v>
+        <v>7.28</v>
       </c>
       <c r="C535">
         <v>1.32</v>
@@ -8045,7 +8045,7 @@
         <v>4061.1</v>
       </c>
       <c r="B536">
-        <v>1.5</v>
+        <v>7.15</v>
       </c>
       <c r="C536">
         <v>1.54</v>
@@ -8059,7 +8059,7 @@
         <v>4101.71</v>
       </c>
       <c r="B537">
-        <v>1.71</v>
+        <v>7.04</v>
       </c>
       <c r="C537">
         <v>1.74</v>
@@ -8073,7 +8073,7 @@
         <v>4142.7299999999996</v>
       </c>
       <c r="B538">
-        <v>1.9</v>
+        <v>6.93</v>
       </c>
       <c r="C538">
         <v>1.94</v>
@@ -8087,7 +8087,7 @@
         <v>4184.1499999999996</v>
       </c>
       <c r="B539">
-        <v>2.0699999999999998</v>
+        <v>6.81</v>
       </c>
       <c r="C539">
         <v>2.1</v>
@@ -8101,7 +8101,7 @@
         <v>4226</v>
       </c>
       <c r="B540">
-        <v>2.2200000000000002</v>
+        <v>6.68</v>
       </c>
       <c r="C540">
         <v>2.25</v>
@@ -8115,7 +8115,7 @@
         <v>4268.26</v>
       </c>
       <c r="B541">
-        <v>2.36</v>
+        <v>6.53</v>
       </c>
       <c r="C541">
         <v>2.39</v>
@@ -8129,7 +8129,7 @@
         <v>4310.9399999999996</v>
       </c>
       <c r="B542">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="C542">
         <v>2.52</v>
@@ -8143,7 +8143,7 @@
         <v>4354.05</v>
       </c>
       <c r="B543">
-        <v>2.63</v>
+        <v>6.29</v>
       </c>
       <c r="C543">
         <v>2.66</v>
@@ -8157,7 +8157,7 @@
         <v>4397.59</v>
       </c>
       <c r="B544">
-        <v>2.76</v>
+        <v>6.19</v>
       </c>
       <c r="C544">
         <v>2.78</v>
@@ -8171,7 +8171,7 @@
         <v>4441.5600000000004</v>
       </c>
       <c r="B545">
-        <v>2.88</v>
+        <v>6.08</v>
       </c>
       <c r="C545">
         <v>2.9</v>
@@ -8185,7 +8185,7 @@
         <v>4485.9799999999996</v>
       </c>
       <c r="B546">
-        <v>2.98</v>
+        <v>5.95</v>
       </c>
       <c r="C546">
         <v>3</v>
@@ -8199,7 +8199,7 @@
         <v>4530.84</v>
       </c>
       <c r="B547">
-        <v>3.07</v>
+        <v>5.81</v>
       </c>
       <c r="C547">
         <v>3.09</v>
@@ -8213,7 +8213,7 @@
         <v>4576.1499999999996</v>
       </c>
       <c r="B548">
-        <v>3.15</v>
+        <v>5.67</v>
       </c>
       <c r="C548">
         <v>3.16</v>
@@ -8227,7 +8227,7 @@
         <v>4621.91</v>
       </c>
       <c r="B549">
-        <v>3.23</v>
+        <v>5.55</v>
       </c>
       <c r="C549">
         <v>3.23</v>
@@ -8241,7 +8241,7 @@
         <v>4668.13</v>
       </c>
       <c r="B550">
-        <v>3.29</v>
+        <v>5.46</v>
       </c>
       <c r="C550">
         <v>3.3</v>
@@ -8255,7 +8255,7 @@
         <v>4714.8100000000004</v>
       </c>
       <c r="B551">
-        <v>3.35</v>
+        <v>5.38</v>
       </c>
       <c r="C551">
         <v>3.36</v>
@@ -8269,7 +8269,7 @@
         <v>4761.96</v>
       </c>
       <c r="B552">
-        <v>3.41</v>
+        <v>5.3</v>
       </c>
       <c r="C552">
         <v>3.41</v>
@@ -8283,7 +8283,7 @@
         <v>4809.58</v>
       </c>
       <c r="B553">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="C553">
         <v>3.44</v>
@@ -8297,7 +8297,7 @@
         <v>4857.67</v>
       </c>
       <c r="B554">
-        <v>3.47</v>
+        <v>5.08</v>
       </c>
       <c r="C554">
         <v>3.47</v>
@@ -8311,7 +8311,7 @@
         <v>4906.25</v>
       </c>
       <c r="B555">
-        <v>3.48</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C555">
         <v>3.47</v>
@@ -8325,7 +8325,7 @@
         <v>4955.3100000000004</v>
       </c>
       <c r="B556">
-        <v>3.48</v>
+        <v>4.8</v>
       </c>
       <c r="C556">
         <v>3.46</v>
@@ -8339,7 +8339,7 @@
         <v>5004.87</v>
       </c>
       <c r="B557">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="C557">
         <v>3.44</v>
@@ -8353,7 +8353,7 @@
         <v>5054.91</v>
       </c>
       <c r="B558">
-        <v>3.41</v>
+        <v>4.63</v>
       </c>
       <c r="C558">
         <v>3.39</v>
@@ -8367,7 +8367,7 @@
         <v>5105.46</v>
       </c>
       <c r="B559">
-        <v>3.35</v>
+        <v>4.59</v>
       </c>
       <c r="C559">
         <v>3.33</v>
@@ -8381,7 +8381,7 @@
         <v>5156.5200000000004</v>
       </c>
       <c r="B560">
-        <v>3.28</v>
+        <v>4.55</v>
       </c>
       <c r="C560">
         <v>3.25</v>
@@ -8395,7 +8395,7 @@
         <v>5208.08</v>
       </c>
       <c r="B561">
-        <v>3.19</v>
+        <v>4.49</v>
       </c>
       <c r="C561">
         <v>3.16</v>
@@ -8409,7 +8409,7 @@
         <v>5260.16</v>
       </c>
       <c r="B562">
-        <v>3.07</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C562">
         <v>3.04</v>
@@ -8423,7 +8423,7 @@
         <v>5312.77</v>
       </c>
       <c r="B563">
-        <v>2.93</v>
+        <v>4.28</v>
       </c>
       <c r="C563">
         <v>2.89</v>
@@ -8437,7 +8437,7 @@
         <v>5365.89</v>
       </c>
       <c r="B564">
-        <v>2.77</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C564">
         <v>2.73</v>
@@ -8451,7 +8451,7 @@
         <v>5419.55</v>
       </c>
       <c r="B565">
-        <v>2.59</v>
+        <v>4.04</v>
       </c>
       <c r="C565">
         <v>2.54</v>
@@ -8465,7 +8465,7 @@
         <v>5473.75</v>
       </c>
       <c r="B566">
-        <v>2.37</v>
+        <v>3.99</v>
       </c>
       <c r="C566">
         <v>2.3199999999999998</v>
@@ -8479,7 +8479,7 @@
         <v>5528.49</v>
       </c>
       <c r="B567">
-        <v>2.12</v>
+        <v>3.97</v>
       </c>
       <c r="C567">
         <v>2.06</v>
@@ -8493,7 +8493,7 @@
         <v>5583.77</v>
       </c>
       <c r="B568">
-        <v>1.83</v>
+        <v>3.96</v>
       </c>
       <c r="C568">
         <v>1.76</v>
@@ -8507,7 +8507,7 @@
         <v>5639.61</v>
       </c>
       <c r="B569">
-        <v>1.49</v>
+        <v>3.9</v>
       </c>
       <c r="C569">
         <v>1.41</v>
@@ -8521,7 +8521,7 @@
         <v>5696</v>
       </c>
       <c r="B570">
-        <v>1.08</v>
+        <v>3.8</v>
       </c>
       <c r="C570">
         <v>1</v>
@@ -8535,7 +8535,7 @@
         <v>5752.96</v>
       </c>
       <c r="B571">
-        <v>0.62</v>
+        <v>3.68</v>
       </c>
       <c r="C571">
         <v>0.53</v>
@@ -8549,7 +8549,7 @@
         <v>5810.49</v>
       </c>
       <c r="B572">
-        <v>0.12</v>
+        <v>3.57</v>
       </c>
       <c r="C572">
         <v>0.03</v>
@@ -8563,7 +8563,7 @@
         <v>5868.6</v>
       </c>
       <c r="B573">
-        <v>-0.39</v>
+        <v>3.51</v>
       </c>
       <c r="C573">
         <v>-0.49</v>
@@ -8577,7 +8577,7 @@
         <v>5927.28</v>
       </c>
       <c r="B574">
-        <v>-0.92</v>
+        <v>3.52</v>
       </c>
       <c r="C574">
         <v>-1.03</v>
@@ -8591,7 +8591,7 @@
         <v>5986.56</v>
       </c>
       <c r="B575">
-        <v>-1.48</v>
+        <v>3.56</v>
       </c>
       <c r="C575">
         <v>-1.59</v>
@@ -8605,7 +8605,7 @@
         <v>6046.42</v>
       </c>
       <c r="B576">
-        <v>-2.0499999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="C576">
         <v>-2.16</v>
@@ -8619,7 +8619,7 @@
         <v>6106.89</v>
       </c>
       <c r="B577">
-        <v>-2.57</v>
+        <v>3.5</v>
       </c>
       <c r="C577">
         <v>-2.69</v>
@@ -8633,7 +8633,7 @@
         <v>6167.96</v>
       </c>
       <c r="B578">
-        <v>-3.01</v>
+        <v>3.34</v>
       </c>
       <c r="C578">
         <v>-3.14</v>
@@ -8647,7 +8647,7 @@
         <v>6229.64</v>
       </c>
       <c r="B579">
-        <v>-3.33</v>
+        <v>3.3</v>
       </c>
       <c r="C579">
         <v>-3.49</v>
@@ -8661,7 +8661,7 @@
         <v>6291.93</v>
       </c>
       <c r="B580">
-        <v>-3.54</v>
+        <v>3.46</v>
       </c>
       <c r="C580">
         <v>-3.73</v>
@@ -8675,7 +8675,7 @@
         <v>6354.85</v>
       </c>
       <c r="B581">
-        <v>-3.62</v>
+        <v>3.57</v>
       </c>
       <c r="C581">
         <v>-3.84</v>
@@ -8689,7 +8689,7 @@
         <v>6418.4</v>
       </c>
       <c r="B582">
-        <v>-3.59</v>
+        <v>3.47</v>
       </c>
       <c r="C582">
         <v>-3.85</v>
@@ -8703,7 +8703,7 @@
         <v>6482.58</v>
       </c>
       <c r="B583">
-        <v>-3.47</v>
+        <v>3.08</v>
       </c>
       <c r="C583">
         <v>-3.76</v>
@@ -8717,7 +8717,7 @@
         <v>6547.41</v>
       </c>
       <c r="B584">
-        <v>-3.28</v>
+        <v>2.31</v>
       </c>
       <c r="C584">
         <v>-3.6</v>
@@ -8731,7 +8731,7 @@
         <v>6612.88</v>
       </c>
       <c r="B585">
-        <v>-3.04</v>
+        <v>1.37</v>
       </c>
       <c r="C585">
         <v>-3.38</v>
@@ -8745,7 +8745,7 @@
         <v>6679.01</v>
       </c>
       <c r="B586">
-        <v>-2.74</v>
+        <v>0.39</v>
       </c>
       <c r="C586">
         <v>-3.11</v>
@@ -8759,7 +8759,7 @@
         <v>6745.8</v>
       </c>
       <c r="B587">
-        <v>-2.42</v>
+        <v>-0.6</v>
       </c>
       <c r="C587">
         <v>-2.8</v>
@@ -8773,7 +8773,7 @@
         <v>6813.26</v>
       </c>
       <c r="B588">
-        <v>-2.12</v>
+        <v>-1.48</v>
       </c>
       <c r="C588">
         <v>-2.5099999999999998</v>
@@ -8787,7 +8787,7 @@
         <v>6881.39</v>
       </c>
       <c r="B589">
-        <v>-1.85</v>
+        <v>-2.13</v>
       </c>
       <c r="C589">
         <v>-2.23</v>
@@ -8801,7 +8801,7 @@
         <v>6950.21</v>
       </c>
       <c r="B590">
-        <v>-1.6</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="C590">
         <v>-1.98</v>
@@ -8815,7 +8815,7 @@
         <v>7019.71</v>
       </c>
       <c r="B591">
-        <v>-1.34</v>
+        <v>-2.77</v>
       </c>
       <c r="C591">
         <v>-1.72</v>
@@ -8829,7 +8829,7 @@
         <v>7089.91</v>
       </c>
       <c r="B592">
-        <v>-1.0900000000000001</v>
+        <v>-2.83</v>
       </c>
       <c r="C592">
         <v>-1.46</v>
@@ -8843,7 +8843,7 @@
         <v>7160.81</v>
       </c>
       <c r="B593">
-        <v>-0.83</v>
+        <v>-2.79</v>
       </c>
       <c r="C593">
         <v>-1.2</v>
@@ -8857,7 +8857,7 @@
         <v>7232.41</v>
       </c>
       <c r="B594">
-        <v>-0.56999999999999995</v>
+        <v>-2.68</v>
       </c>
       <c r="C594">
         <v>-0.94</v>
@@ -8871,7 +8871,7 @@
         <v>7304.74</v>
       </c>
       <c r="B595">
-        <v>-0.31</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="C595">
         <v>-0.68</v>
@@ -8885,7 +8885,7 @@
         <v>7377.79</v>
       </c>
       <c r="B596">
-        <v>-0.05</v>
+        <v>-2.31</v>
       </c>
       <c r="C596">
         <v>-0.43</v>
@@ -8899,7 +8899,7 @@
         <v>7451.56</v>
       </c>
       <c r="B597">
-        <v>0.21</v>
+        <v>-2.08</v>
       </c>
       <c r="C597">
         <v>-0.17</v>
@@ -8913,7 +8913,7 @@
         <v>7526.08</v>
       </c>
       <c r="B598">
-        <v>0.46</v>
+        <v>-1.84</v>
       </c>
       <c r="C598">
         <v>0.09</v>
@@ -8927,7 +8927,7 @@
         <v>7601.34</v>
       </c>
       <c r="B599">
-        <v>0.72</v>
+        <v>-1.59</v>
       </c>
       <c r="C599">
         <v>0.35</v>
@@ -8941,7 +8941,7 @@
         <v>7677.35</v>
       </c>
       <c r="B600">
-        <v>0.98</v>
+        <v>-1.35</v>
       </c>
       <c r="C600">
         <v>0.61</v>
@@ -8955,7 +8955,7 @@
         <v>7754.13</v>
       </c>
       <c r="B601">
-        <v>1.24</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="C601">
         <v>0.87</v>
@@ -8969,7 +8969,7 @@
         <v>7831.67</v>
       </c>
       <c r="B602">
-        <v>1.5</v>
+        <v>-0.87</v>
       </c>
       <c r="C602">
         <v>1.1200000000000001</v>
@@ -8983,7 +8983,7 @@
         <v>7909.98</v>
       </c>
       <c r="B603">
-        <v>1.76</v>
+        <v>-0.64</v>
       </c>
       <c r="C603">
         <v>1.38</v>
@@ -8997,7 +8997,7 @@
         <v>7989.08</v>
       </c>
       <c r="B604">
-        <v>2.0099999999999998</v>
+        <v>-0.38</v>
       </c>
       <c r="C604">
         <v>1.66</v>
@@ -9011,7 +9011,7 @@
         <v>8068.98</v>
       </c>
       <c r="B605">
-        <v>2.2799999999999998</v>
+        <v>-0.13</v>
       </c>
       <c r="C605">
         <v>1.94</v>
@@ -9025,7 +9025,7 @@
         <v>8149.67</v>
       </c>
       <c r="B606">
-        <v>2.56</v>
+        <v>0.11</v>
       </c>
       <c r="C606">
         <v>2.2200000000000002</v>
@@ -9039,7 +9039,7 @@
         <v>8231.16</v>
       </c>
       <c r="B607">
-        <v>2.84</v>
+        <v>0.31</v>
       </c>
       <c r="C607">
         <v>2.4700000000000002</v>
@@ -9053,7 +9053,7 @@
         <v>8313.4699999999993</v>
       </c>
       <c r="B608">
-        <v>3.1</v>
+        <v>0.48</v>
       </c>
       <c r="C608">
         <v>2.7</v>
@@ -9067,7 +9067,7 @@
         <v>8396.61</v>
       </c>
       <c r="B609">
-        <v>3.34</v>
+        <v>0.6</v>
       </c>
       <c r="C609">
         <v>2.87</v>
@@ -9081,7 +9081,7 @@
         <v>8480.57</v>
       </c>
       <c r="B610">
-        <v>3.53</v>
+        <v>0.68</v>
       </c>
       <c r="C610">
         <v>3.01</v>
@@ -9095,7 +9095,7 @@
         <v>8565.3799999999992</v>
       </c>
       <c r="B611">
-        <v>3.68</v>
+        <v>0.7</v>
       </c>
       <c r="C611">
         <v>3.09</v>
@@ -9109,7 +9109,7 @@
         <v>8651.0300000000007</v>
       </c>
       <c r="B612">
-        <v>3.79</v>
+        <v>0.68</v>
       </c>
       <c r="C612">
         <v>3.12</v>
@@ -9123,7 +9123,7 @@
         <v>8737.5400000000009</v>
       </c>
       <c r="B613">
-        <v>3.85</v>
+        <v>0.61</v>
       </c>
       <c r="C613">
         <v>3.1</v>
@@ -9137,7 +9137,7 @@
         <v>8824.92</v>
       </c>
       <c r="B614">
-        <v>3.86</v>
+        <v>0.5</v>
       </c>
       <c r="C614">
         <v>3.05</v>
@@ -9151,7 +9151,7 @@
         <v>8913.17</v>
       </c>
       <c r="B615">
-        <v>3.84</v>
+        <v>0.37</v>
       </c>
       <c r="C615">
         <v>2.96</v>
@@ -9165,7 +9165,7 @@
         <v>9002.2999999999993</v>
       </c>
       <c r="B616">
-        <v>3.79</v>
+        <v>0.23</v>
       </c>
       <c r="C616">
         <v>2.86</v>
@@ -9179,7 +9179,7 @@
         <v>9092.32</v>
       </c>
       <c r="B617">
-        <v>3.73</v>
+        <v>0.1</v>
       </c>
       <c r="C617">
         <v>2.76</v>
@@ -9193,7 +9193,7 @@
         <v>9183.25</v>
       </c>
       <c r="B618">
-        <v>3.66</v>
+        <v>-0.02</v>
       </c>
       <c r="C618">
         <v>2.68</v>
@@ -9207,7 +9207,7 @@
         <v>9275.08</v>
       </c>
       <c r="B619">
-        <v>3.6</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C619">
         <v>2.61</v>
@@ -9221,7 +9221,7 @@
         <v>9367.83</v>
       </c>
       <c r="B620">
-        <v>3.55</v>
+        <v>-0.25</v>
       </c>
       <c r="C620">
         <v>2.5299999999999998</v>
@@ -9235,7 +9235,7 @@
         <v>9461.51</v>
       </c>
       <c r="B621">
-        <v>3.51</v>
+        <v>-0.37</v>
       </c>
       <c r="C621">
         <v>2.46</v>
@@ -9249,7 +9249,7 @@
         <v>9556.1200000000008</v>
       </c>
       <c r="B622">
-        <v>3.46</v>
+        <v>-0.49</v>
       </c>
       <c r="C622">
         <v>2.38</v>
@@ -9263,7 +9263,7 @@
         <v>9651.68</v>
       </c>
       <c r="B623">
-        <v>3.42</v>
+        <v>-0.62</v>
       </c>
       <c r="C623">
         <v>2.31</v>
@@ -9277,7 +9277,7 @@
         <v>9748.2000000000007</v>
       </c>
       <c r="B624">
-        <v>3.37</v>
+        <v>-0.74</v>
       </c>
       <c r="C624">
         <v>2.2400000000000002</v>
@@ -9291,7 +9291,7 @@
         <v>9845.68</v>
       </c>
       <c r="B625">
-        <v>3.33</v>
+        <v>-0.86</v>
       </c>
       <c r="C625">
         <v>2.17</v>
@@ -9305,7 +9305,7 @@
         <v>9944.14</v>
       </c>
       <c r="B626">
-        <v>3.29</v>
+        <v>-0.97</v>
       </c>
       <c r="C626">
         <v>2.1</v>
@@ -9319,7 +9319,7 @@
         <v>10043.58</v>
       </c>
       <c r="B627">
-        <v>3.25</v>
+        <v>-1.07</v>
       </c>
       <c r="C627">
         <v>2.0299999999999998</v>
@@ -9333,7 +9333,7 @@
         <v>10144.02</v>
       </c>
       <c r="B628">
-        <v>3.21</v>
+        <v>-1.2</v>
       </c>
       <c r="C628">
         <v>1.97</v>
@@ -9347,7 +9347,7 @@
         <v>10245.459999999999</v>
       </c>
       <c r="B629">
-        <v>3.18</v>
+        <v>-1.32</v>
       </c>
       <c r="C629">
         <v>1.91</v>
@@ -9361,7 +9361,7 @@
         <v>10347.91</v>
       </c>
       <c r="B630">
-        <v>3.14</v>
+        <v>-1.45</v>
       </c>
       <c r="C630">
         <v>1.85</v>
@@ -9375,7 +9375,7 @@
         <v>10451.39</v>
       </c>
       <c r="B631">
-        <v>3.1</v>
+        <v>-1.57</v>
       </c>
       <c r="C631">
         <v>1.79</v>
@@ -9389,7 +9389,7 @@
         <v>10555.91</v>
       </c>
       <c r="B632">
-        <v>3.07</v>
+        <v>-1.69</v>
       </c>
       <c r="C632">
         <v>1.73</v>
@@ -9403,7 +9403,7 @@
         <v>10661.46</v>
       </c>
       <c r="B633">
-        <v>3.03</v>
+        <v>-1.81</v>
       </c>
       <c r="C633">
         <v>1.67</v>
@@ -9417,7 +9417,7 @@
         <v>10768.08</v>
       </c>
       <c r="B634">
-        <v>2.99</v>
+        <v>-1.93</v>
       </c>
       <c r="C634">
         <v>1.61</v>
@@ -9431,7 +9431,7 @@
         <v>10875.76</v>
       </c>
       <c r="B635">
-        <v>2.95</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C635">
         <v>1.55</v>
@@ -9445,7 +9445,7 @@
         <v>10984.52</v>
       </c>
       <c r="B636">
-        <v>2.9</v>
+        <v>-2.17</v>
       </c>
       <c r="C636">
         <v>1.48</v>
@@ -9459,7 +9459,7 @@
         <v>11094.36</v>
       </c>
       <c r="B637">
-        <v>2.85</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C637">
         <v>1.41</v>
@@ -9473,7 +9473,7 @@
         <v>11205.31</v>
       </c>
       <c r="B638">
-        <v>2.81</v>
+        <v>-2.42</v>
       </c>
       <c r="C638">
         <v>1.34</v>
@@ -9487,7 +9487,7 @@
         <v>11317.36</v>
       </c>
       <c r="B639">
-        <v>2.75</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="C639">
         <v>1.27</v>
@@ -9501,7 +9501,7 @@
         <v>11430.53</v>
       </c>
       <c r="B640">
-        <v>2.7</v>
+        <v>-2.68</v>
       </c>
       <c r="C640">
         <v>1.19</v>
@@ -9515,7 +9515,7 @@
         <v>11544.84</v>
       </c>
       <c r="B641">
-        <v>2.65</v>
+        <v>-2.8</v>
       </c>
       <c r="C641">
         <v>1.1100000000000001</v>
@@ -9529,7 +9529,7 @@
         <v>11660.29</v>
       </c>
       <c r="B642">
-        <v>2.59</v>
+        <v>-2.93</v>
       </c>
       <c r="C642">
         <v>1.04</v>
@@ -9543,7 +9543,7 @@
         <v>11776.89</v>
       </c>
       <c r="B643">
-        <v>2.5299999999999998</v>
+        <v>-3.06</v>
       </c>
       <c r="C643">
         <v>0.95</v>
@@ -9557,7 +9557,7 @@
         <v>11894.66</v>
       </c>
       <c r="B644">
-        <v>2.4700000000000002</v>
+        <v>-3.19</v>
       </c>
       <c r="C644">
         <v>0.87</v>
@@ -9571,7 +9571,7 @@
         <v>12013.6</v>
       </c>
       <c r="B645">
-        <v>2.41</v>
+        <v>-3.33</v>
       </c>
       <c r="C645">
         <v>0.79</v>
@@ -9585,7 +9585,7 @@
         <v>12133.74</v>
       </c>
       <c r="B646">
-        <v>2.35</v>
+        <v>-3.46</v>
       </c>
       <c r="C646">
         <v>0.7</v>
@@ -9599,7 +9599,7 @@
         <v>12255.08</v>
       </c>
       <c r="B647">
-        <v>2.2799999999999998</v>
+        <v>-3.59</v>
       </c>
       <c r="C647">
         <v>0.62</v>
@@ -9613,7 +9613,7 @@
         <v>12377.63</v>
       </c>
       <c r="B648">
-        <v>2.2200000000000002</v>
+        <v>-3.72</v>
       </c>
       <c r="C648">
         <v>0.53</v>
@@ -9627,7 +9627,7 @@
         <v>12501.41</v>
       </c>
       <c r="B649">
-        <v>2.15</v>
+        <v>-3.86</v>
       </c>
       <c r="C649">
         <v>0.43</v>
@@ -9641,7 +9641,7 @@
         <v>12626.42</v>
       </c>
       <c r="B650">
-        <v>2.08</v>
+        <v>-3.99</v>
       </c>
       <c r="C650">
         <v>0.34</v>
@@ -9655,7 +9655,7 @@
         <v>12752.68</v>
       </c>
       <c r="B651">
-        <v>2</v>
+        <v>-4.13</v>
       </c>
       <c r="C651">
         <v>0.25</v>
@@ -9669,7 +9669,7 @@
         <v>12880.21</v>
       </c>
       <c r="B652">
-        <v>1.93</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="C652">
         <v>0.15</v>
@@ -9683,7 +9683,7 @@
         <v>13009.01</v>
       </c>
       <c r="B653">
-        <v>1.85</v>
+        <v>-4.41</v>
       </c>
       <c r="C653">
         <v>0.05</v>
@@ -9697,7 +9697,7 @@
         <v>13139.1</v>
       </c>
       <c r="B654">
-        <v>1.77</v>
+        <v>-4.54</v>
       </c>
       <c r="C654">
         <v>-0.05</v>
@@ -9711,7 +9711,7 @@
         <v>13270.49</v>
       </c>
       <c r="B655">
-        <v>1.69</v>
+        <v>-4.68</v>
       </c>
       <c r="C655">
         <v>-0.15</v>
@@ -9725,7 +9725,7 @@
         <v>13403.2</v>
       </c>
       <c r="B656">
-        <v>1.61</v>
+        <v>-4.82</v>
       </c>
       <c r="C656">
         <v>-0.26</v>
@@ -9739,7 +9739,7 @@
         <v>13537.23</v>
       </c>
       <c r="B657">
-        <v>1.53</v>
+        <v>-4.96</v>
       </c>
       <c r="C657">
         <v>-0.36</v>
@@ -9753,7 +9753,7 @@
         <v>13672.6</v>
       </c>
       <c r="B658">
-        <v>1.44</v>
+        <v>-5.1100000000000003</v>
       </c>
       <c r="C658">
         <v>-0.47</v>
@@ -9767,7 +9767,7 @@
         <v>13809.33</v>
       </c>
       <c r="B659">
-        <v>1.35</v>
+        <v>-5.25</v>
       </c>
       <c r="C659">
         <v>-0.57999999999999996</v>
@@ -9781,7 +9781,7 @@
         <v>13947.42</v>
       </c>
       <c r="B660">
-        <v>1.26</v>
+        <v>-5.39</v>
       </c>
       <c r="C660">
         <v>-0.69</v>
@@ -9795,7 +9795,7 @@
         <v>14086.9</v>
       </c>
       <c r="B661">
-        <v>1.17</v>
+        <v>-5.54</v>
       </c>
       <c r="C661">
         <v>-0.81</v>
@@ -9809,7 +9809,7 @@
         <v>14227.77</v>
       </c>
       <c r="B662">
-        <v>1.08</v>
+        <v>-5.68</v>
       </c>
       <c r="C662">
         <v>-0.92</v>
@@ -9823,7 +9823,7 @@
         <v>14370.04</v>
       </c>
       <c r="B663">
-        <v>0.98</v>
+        <v>-5.83</v>
       </c>
       <c r="C663">
         <v>-1.04</v>
@@ -9837,7 +9837,7 @@
         <v>14513.74</v>
       </c>
       <c r="B664">
-        <v>0.89</v>
+        <v>-5.98</v>
       </c>
       <c r="C664">
         <v>-1.1599999999999999</v>
@@ -9851,7 +9851,7 @@
         <v>14658.88</v>
       </c>
       <c r="B665">
-        <v>0.79</v>
+        <v>-6.12</v>
       </c>
       <c r="C665">
         <v>-1.28</v>
@@ -9865,7 +9865,7 @@
         <v>14805.47</v>
       </c>
       <c r="B666">
-        <v>0.69</v>
+        <v>-6.27</v>
       </c>
       <c r="C666">
         <v>-1.41</v>
@@ -9879,7 +9879,7 @@
         <v>14953.52</v>
       </c>
       <c r="B667">
-        <v>0.59</v>
+        <v>-6.42</v>
       </c>
       <c r="C667">
         <v>-1.53</v>
@@ -9893,7 +9893,7 @@
         <v>15103.06</v>
       </c>
       <c r="B668">
-        <v>0.48</v>
+        <v>-6.57</v>
       </c>
       <c r="C668">
         <v>-1.66</v>
@@ -9907,7 +9907,7 @@
         <v>15254.09</v>
       </c>
       <c r="B669">
-        <v>0.38</v>
+        <v>-6.72</v>
       </c>
       <c r="C669">
         <v>-1.79</v>
@@ -9921,7 +9921,7 @@
         <v>15406.63</v>
       </c>
       <c r="B670">
-        <v>0.27</v>
+        <v>-6.87</v>
       </c>
       <c r="C670">
         <v>-1.92</v>
@@ -9935,7 +9935,7 @@
         <v>15560.7</v>
       </c>
       <c r="B671">
-        <v>0.16</v>
+        <v>-7.03</v>
       </c>
       <c r="C671">
         <v>-2.0499999999999998</v>
@@ -9949,7 +9949,7 @@
         <v>15716.3</v>
       </c>
       <c r="B672">
-        <v>0.05</v>
+        <v>-7.18</v>
       </c>
       <c r="C672">
         <v>-2.1800000000000002</v>
@@ -9963,7 +9963,7 @@
         <v>15873.47</v>
       </c>
       <c r="B673">
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.34</v>
       </c>
       <c r="C673">
         <v>-2.3199999999999998</v>
@@ -9977,7 +9977,7 @@
         <v>16032.2</v>
       </c>
       <c r="B674">
-        <v>-0.18</v>
+        <v>-7.49</v>
       </c>
       <c r="C674">
         <v>-2.46</v>
@@ -9991,7 +9991,7 @@
         <v>16192.52</v>
       </c>
       <c r="B675">
-        <v>-0.3</v>
+        <v>-7.65</v>
       </c>
       <c r="C675">
         <v>-2.6</v>
@@ -10005,7 +10005,7 @@
         <v>16354.45</v>
       </c>
       <c r="B676">
-        <v>-0.42</v>
+        <v>-7.8</v>
       </c>
       <c r="C676">
         <v>-2.74</v>
@@ -10019,7 +10019,7 @@
         <v>16517.990000000002</v>
       </c>
       <c r="B677">
-        <v>-0.54</v>
+        <v>-7.96</v>
       </c>
       <c r="C677">
         <v>-2.88</v>
@@ -10033,7 +10033,7 @@
         <v>16683.169999999998</v>
       </c>
       <c r="B678">
-        <v>-0.66</v>
+        <v>-8.1199999999999992</v>
       </c>
       <c r="C678">
         <v>-3.03</v>
@@ -10047,7 +10047,7 @@
         <v>16850.009999999998</v>
       </c>
       <c r="B679">
-        <v>-0.79</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="C679">
         <v>-3.17</v>
@@ -10061,7 +10061,7 @@
         <v>17018.509999999998</v>
       </c>
       <c r="B680">
-        <v>-0.91</v>
+        <v>-8.44</v>
       </c>
       <c r="C680">
         <v>-3.32</v>
@@ -10075,7 +10075,7 @@
         <v>17188.689999999999</v>
       </c>
       <c r="B681">
-        <v>-1.04</v>
+        <v>-8.6</v>
       </c>
       <c r="C681">
         <v>-3.47</v>
@@ -10089,7 +10089,7 @@
         <v>17360.580000000002</v>
       </c>
       <c r="B682">
-        <v>-1.17</v>
+        <v>-8.76</v>
       </c>
       <c r="C682">
         <v>-3.63</v>
@@ -10103,7 +10103,7 @@
         <v>17534.18</v>
       </c>
       <c r="B683">
-        <v>-1.3</v>
+        <v>-8.92</v>
       </c>
       <c r="C683">
         <v>-3.78</v>
@@ -10117,7 +10117,7 @@
         <v>17709.53</v>
       </c>
       <c r="B684">
-        <v>-1.44</v>
+        <v>-9.09</v>
       </c>
       <c r="C684">
         <v>-3.94</v>
@@ -10131,7 +10131,7 @@
         <v>17886.62</v>
       </c>
       <c r="B685">
-        <v>-1.57</v>
+        <v>-9.25</v>
       </c>
       <c r="C685">
         <v>-4.0999999999999996</v>
@@ -10145,7 +10145,7 @@
         <v>18065.490000000002</v>
       </c>
       <c r="B686">
-        <v>-1.71</v>
+        <v>-9.42</v>
       </c>
       <c r="C686">
         <v>-4.26</v>
@@ -10159,7 +10159,7 @@
         <v>18246.14</v>
       </c>
       <c r="B687">
-        <v>-1.85</v>
+        <v>-9.58</v>
       </c>
       <c r="C687">
         <v>-4.42</v>
@@ -10173,7 +10173,7 @@
         <v>18428.599999999999</v>
       </c>
       <c r="B688">
-        <v>-1.99</v>
+        <v>-9.75</v>
       </c>
       <c r="C688">
         <v>-4.58</v>
@@ -10187,7 +10187,7 @@
         <v>18612.89</v>
       </c>
       <c r="B689">
-        <v>-2.13</v>
+        <v>-9.92</v>
       </c>
       <c r="C689">
         <v>-4.75</v>
@@ -10201,7 +10201,7 @@
         <v>18799.02</v>
       </c>
       <c r="B690">
-        <v>-2.2799999999999998</v>
+        <v>-10.08</v>
       </c>
       <c r="C690">
         <v>-4.92</v>
@@ -10215,7 +10215,7 @@
         <v>18987.009999999998</v>
       </c>
       <c r="B691">
-        <v>-2.42</v>
+        <v>-10.25</v>
       </c>
       <c r="C691">
         <v>-5.09</v>
@@ -10229,7 +10229,7 @@
         <v>19176.88</v>
       </c>
       <c r="B692">
-        <v>-2.57</v>
+        <v>-10.42</v>
       </c>
       <c r="C692">
         <v>-5.26</v>
@@ -10243,7 +10243,7 @@
         <v>19368.650000000001</v>
       </c>
       <c r="B693">
-        <v>-2.72</v>
+        <v>-10.59</v>
       </c>
       <c r="C693">
         <v>-5.43</v>
@@ -10257,7 +10257,7 @@
         <v>19562.330000000002</v>
       </c>
       <c r="B694">
-        <v>-2.87</v>
+        <v>-10.77</v>
       </c>
       <c r="C694">
         <v>-5.61</v>
@@ -10271,7 +10271,7 @@
         <v>19757.96</v>
       </c>
       <c r="B695">
-        <v>-3.03</v>
+        <v>-10.94</v>
       </c>
       <c r="C695">
         <v>-5.78</v>
@@ -10285,7 +10285,7 @@
         <v>19955.54</v>
       </c>
       <c r="B696">
-        <v>-3.18</v>
+        <v>-11.11</v>
       </c>
       <c r="C696">
         <v>-5.96</v>

--- a/my_results/Pre-Amp Calculator.xlsx
+++ b/my_results/Pre-Amp Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\User Files\Documents\GitHub\autoeq-workspace\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8257D766-2FEB-4C21-BA1B-F54FA2E33549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341C5BA9-C525-468E-BCDF-5EAE9EA5D50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5796" yWindow="420" windowWidth="17244" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="912" windowWidth="17244" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impulse" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>f \ equalisation</t>
   </si>
   <si>
-    <t>jm1 tilt adjusted</t>
-  </si>
-  <si>
     <t>jm1 levels</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>jm1_10db_4db_adjusted</t>
+  </si>
+  <si>
+    <t>harman_over-ear_2018_wo_bass</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:L696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,13 +459,13 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
@@ -494,7 +494,7 @@
         <v>6.67</v>
       </c>
       <c r="C2">
-        <v>-0.25</v>
+        <v>-3.8</v>
       </c>
       <c r="D2">
         <v>-1.87</v>
@@ -534,7 +534,7 @@
         <v>6.67</v>
       </c>
       <c r="C3">
-        <v>-0.28000000000000003</v>
+        <v>-3.74</v>
       </c>
       <c r="D3">
         <v>-1.89</v>
@@ -544,26 +544,26 @@
       </c>
       <c r="G3">
         <f>SUM(C2:C696)</f>
-        <v>-574.53999999999951</v>
+        <v>654.83000000000004</v>
       </c>
       <c r="H3">
         <f>AVERAGE(C2:C696)</f>
-        <v>-0.82667625899280506</v>
+        <v>0.94220143884892094</v>
       </c>
       <c r="I3">
         <f>MIN($C$2:$C$696)</f>
-        <v>-6.06</v>
+        <v>-16.39</v>
       </c>
       <c r="J3">
         <f>MAX($C$2:$C$696)</f>
-        <v>4.46</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3">
         <f>J3-K3-H3</f>
-        <v>5.2866762589928049</v>
+        <v>9.0177985611510802</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>6.66</v>
       </c>
       <c r="C4">
-        <v>-0.31</v>
+        <v>-3.67</v>
       </c>
       <c r="D4">
         <v>-1.91</v>
@@ -614,7 +614,7 @@
         <v>6.66</v>
       </c>
       <c r="C5">
-        <v>-0.34</v>
+        <v>-3.61</v>
       </c>
       <c r="D5">
         <v>-1.93</v>
@@ -628,7 +628,7 @@
         <v>6.66</v>
       </c>
       <c r="C6">
-        <v>-0.38</v>
+        <v>-3.54</v>
       </c>
       <c r="D6">
         <v>-1.95</v>
@@ -642,7 +642,7 @@
         <v>6.66</v>
       </c>
       <c r="C7">
-        <v>-0.41</v>
+        <v>-3.47</v>
       </c>
       <c r="D7">
         <v>-1.97</v>
@@ -656,7 +656,7 @@
         <v>6.65</v>
       </c>
       <c r="C8">
-        <v>-0.44</v>
+        <v>-3.4</v>
       </c>
       <c r="D8">
         <v>-1.99</v>
@@ -670,7 +670,7 @@
         <v>6.65</v>
       </c>
       <c r="C9">
-        <v>-0.46</v>
+        <v>-3.34</v>
       </c>
       <c r="D9">
         <v>-2</v>
@@ -684,7 +684,7 @@
         <v>6.65</v>
       </c>
       <c r="C10">
-        <v>-0.49</v>
+        <v>-3.27</v>
       </c>
       <c r="D10">
         <v>-2.02</v>
@@ -698,7 +698,7 @@
         <v>6.66</v>
       </c>
       <c r="C11">
-        <v>-0.52</v>
+        <v>-3.21</v>
       </c>
       <c r="D11">
         <v>-2.04</v>
@@ -712,7 +712,7 @@
         <v>6.66</v>
       </c>
       <c r="C12">
-        <v>-0.55000000000000004</v>
+        <v>-3.14</v>
       </c>
       <c r="D12">
         <v>-2.06</v>
@@ -726,7 +726,7 @@
         <v>6.66</v>
       </c>
       <c r="C13">
-        <v>-0.57999999999999996</v>
+        <v>-3.08</v>
       </c>
       <c r="D13">
         <v>-2.0699999999999998</v>
@@ -740,7 +740,7 @@
         <v>6.65</v>
       </c>
       <c r="C14">
-        <v>-0.61</v>
+        <v>-3.01</v>
       </c>
       <c r="D14">
         <v>-2.09</v>
@@ -754,7 +754,7 @@
         <v>6.65</v>
       </c>
       <c r="C15">
-        <v>-0.64</v>
+        <v>-2.95</v>
       </c>
       <c r="D15">
         <v>-2.11</v>
@@ -768,7 +768,7 @@
         <v>6.65</v>
       </c>
       <c r="C16">
-        <v>-0.67</v>
+        <v>-2.88</v>
       </c>
       <c r="D16">
         <v>-2.13</v>
@@ -782,7 +782,7 @@
         <v>6.65</v>
       </c>
       <c r="C17">
-        <v>-0.69</v>
+        <v>-2.82</v>
       </c>
       <c r="D17">
         <v>-2.15</v>
@@ -796,7 +796,7 @@
         <v>6.66</v>
       </c>
       <c r="C18">
-        <v>-0.72</v>
+        <v>-2.76</v>
       </c>
       <c r="D18">
         <v>-2.16</v>
@@ -810,7 +810,7 @@
         <v>6.65</v>
       </c>
       <c r="C19">
-        <v>-0.75</v>
+        <v>-2.69</v>
       </c>
       <c r="D19">
         <v>-2.1800000000000002</v>
@@ -824,7 +824,7 @@
         <v>6.65</v>
       </c>
       <c r="C20">
-        <v>-0.78</v>
+        <v>-2.63</v>
       </c>
       <c r="D20">
         <v>-2.2000000000000002</v>
@@ -838,7 +838,7 @@
         <v>6.64</v>
       </c>
       <c r="C21">
-        <v>-0.81</v>
+        <v>-2.57</v>
       </c>
       <c r="D21">
         <v>-2.21</v>
@@ -852,7 +852,7 @@
         <v>6.64</v>
       </c>
       <c r="C22">
-        <v>-0.83</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="D22">
         <v>-2.23</v>
@@ -866,7 +866,7 @@
         <v>6.64</v>
       </c>
       <c r="C23">
-        <v>-0.86</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="D23">
         <v>-2.2400000000000002</v>
@@ -880,7 +880,7 @@
         <v>6.64</v>
       </c>
       <c r="C24">
-        <v>-0.89</v>
+        <v>-2.39</v>
       </c>
       <c r="D24">
         <v>-2.2599999999999998</v>
@@ -894,7 +894,7 @@
         <v>6.63</v>
       </c>
       <c r="C25">
-        <v>-0.91</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="D25">
         <v>-2.2799999999999998</v>
@@ -908,7 +908,7 @@
         <v>6.63</v>
       </c>
       <c r="C26">
-        <v>-0.94</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="D26">
         <v>-2.29</v>
@@ -922,7 +922,7 @@
         <v>6.62</v>
       </c>
       <c r="C27">
-        <v>-0.97</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D27">
         <v>-2.31</v>
@@ -936,7 +936,7 @@
         <v>6.61</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>-2.13</v>
       </c>
       <c r="D28">
         <v>-2.33</v>
@@ -950,7 +950,7 @@
         <v>6.61</v>
       </c>
       <c r="C29">
-        <v>-1.02</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="D29">
         <v>-2.34</v>
@@ -964,7 +964,7 @@
         <v>6.61</v>
       </c>
       <c r="C30">
-        <v>-1.05</v>
+        <v>-2</v>
       </c>
       <c r="D30">
         <v>-2.36</v>
@@ -978,7 +978,7 @@
         <v>6.6</v>
       </c>
       <c r="C31">
-        <v>-1.07</v>
+        <v>-1.92</v>
       </c>
       <c r="D31">
         <v>-2.37</v>
@@ -992,7 +992,7 @@
         <v>6.6</v>
       </c>
       <c r="C32">
-        <v>-1.1000000000000001</v>
+        <v>-1.85</v>
       </c>
       <c r="D32">
         <v>-2.39</v>
@@ -1006,7 +1006,7 @@
         <v>6.6</v>
       </c>
       <c r="C33">
-        <v>-1.1200000000000001</v>
+        <v>-1.78</v>
       </c>
       <c r="D33">
         <v>-2.4</v>
@@ -1020,7 +1020,7 @@
         <v>6.59</v>
       </c>
       <c r="C34">
-        <v>-1.1499999999999999</v>
+        <v>-1.71</v>
       </c>
       <c r="D34">
         <v>-2.41</v>
@@ -1034,7 +1034,7 @@
         <v>6.59</v>
       </c>
       <c r="C35">
-        <v>-1.17</v>
+        <v>-1.63</v>
       </c>
       <c r="D35">
         <v>-2.4300000000000002</v>
@@ -1048,7 +1048,7 @@
         <v>6.58</v>
       </c>
       <c r="C36">
-        <v>-1.2</v>
+        <v>-1.56</v>
       </c>
       <c r="D36">
         <v>-2.44</v>
@@ -1062,7 +1062,7 @@
         <v>6.58</v>
       </c>
       <c r="C37">
-        <v>-1.22</v>
+        <v>-1.48</v>
       </c>
       <c r="D37">
         <v>-2.4500000000000002</v>
@@ -1076,7 +1076,7 @@
         <v>6.57</v>
       </c>
       <c r="C38">
-        <v>-1.25</v>
+        <v>-1.39</v>
       </c>
       <c r="D38">
         <v>-2.4700000000000002</v>
@@ -1090,7 +1090,7 @@
         <v>6.57</v>
       </c>
       <c r="C39">
-        <v>-1.27</v>
+        <v>-1.31</v>
       </c>
       <c r="D39">
         <v>-2.48</v>
@@ -1104,7 +1104,7 @@
         <v>6.56</v>
       </c>
       <c r="C40">
-        <v>-1.3</v>
+        <v>-1.21</v>
       </c>
       <c r="D40">
         <v>-2.5</v>
@@ -1118,7 +1118,7 @@
         <v>6.55</v>
       </c>
       <c r="C41">
-        <v>-1.32</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="D41">
         <v>-2.5099999999999998</v>
@@ -1132,7 +1132,7 @@
         <v>6.54</v>
       </c>
       <c r="C42">
-        <v>-1.35</v>
+        <v>-1.02</v>
       </c>
       <c r="D42">
         <v>-2.5299999999999998</v>
@@ -1146,7 +1146,7 @@
         <v>6.53</v>
       </c>
       <c r="C43">
-        <v>-1.37</v>
+        <v>-0.93</v>
       </c>
       <c r="D43">
         <v>-2.54</v>
@@ -1160,7 +1160,7 @@
         <v>6.53</v>
       </c>
       <c r="C44">
-        <v>-1.39</v>
+        <v>-0.85</v>
       </c>
       <c r="D44">
         <v>-2.5499999999999998</v>
@@ -1174,7 +1174,7 @@
         <v>6.53</v>
       </c>
       <c r="C45">
-        <v>-1.41</v>
+        <v>-0.78</v>
       </c>
       <c r="D45">
         <v>-2.56</v>
@@ -1188,7 +1188,7 @@
         <v>6.52</v>
       </c>
       <c r="C46">
-        <v>-1.43</v>
+        <v>-0.73</v>
       </c>
       <c r="D46">
         <v>-2.57</v>
@@ -1202,7 +1202,7 @@
         <v>6.52</v>
       </c>
       <c r="C47">
-        <v>-1.45</v>
+        <v>-0.69</v>
       </c>
       <c r="D47">
         <v>-2.58</v>
@@ -1216,7 +1216,7 @@
         <v>6.51</v>
       </c>
       <c r="C48">
-        <v>-1.47</v>
+        <v>-0.66</v>
       </c>
       <c r="D48">
         <v>-2.59</v>
@@ -1230,7 +1230,7 @@
         <v>6.5</v>
       </c>
       <c r="C49">
-        <v>-1.49</v>
+        <v>-0.65</v>
       </c>
       <c r="D49">
         <v>-2.6</v>
@@ -1244,7 +1244,7 @@
         <v>6.49</v>
       </c>
       <c r="C50">
-        <v>-1.51</v>
+        <v>-0.65</v>
       </c>
       <c r="D50">
         <v>-2.61</v>
@@ -1258,7 +1258,7 @@
         <v>6.47</v>
       </c>
       <c r="C51">
-        <v>-1.53</v>
+        <v>-0.66</v>
       </c>
       <c r="D51">
         <v>-2.62</v>
@@ -1272,7 +1272,7 @@
         <v>6.46</v>
       </c>
       <c r="C52">
-        <v>-1.56</v>
+        <v>-0.67</v>
       </c>
       <c r="D52">
         <v>-2.64</v>
@@ -1286,7 +1286,7 @@
         <v>6.45</v>
       </c>
       <c r="C53">
-        <v>-1.58</v>
+        <v>-0.68</v>
       </c>
       <c r="D53">
         <v>-2.65</v>
@@ -1300,7 +1300,7 @@
         <v>6.44</v>
       </c>
       <c r="C54">
-        <v>-1.61</v>
+        <v>-0.69</v>
       </c>
       <c r="D54">
         <v>-2.67</v>
@@ -1314,7 +1314,7 @@
         <v>6.43</v>
       </c>
       <c r="C55">
-        <v>-1.64</v>
+        <v>-0.7</v>
       </c>
       <c r="D55">
         <v>-2.69</v>
@@ -1328,7 +1328,7 @@
         <v>6.41</v>
       </c>
       <c r="C56">
-        <v>-1.66</v>
+        <v>-0.7</v>
       </c>
       <c r="D56">
         <v>-2.7</v>
@@ -1342,7 +1342,7 @@
         <v>6.4</v>
       </c>
       <c r="C57">
-        <v>-1.69</v>
+        <v>-0.71</v>
       </c>
       <c r="D57">
         <v>-2.72</v>
@@ -1356,7 +1356,7 @@
         <v>6.39</v>
       </c>
       <c r="C58">
-        <v>-1.71</v>
+        <v>-0.72</v>
       </c>
       <c r="D58">
         <v>-2.73</v>
@@ -1370,7 +1370,7 @@
         <v>6.38</v>
       </c>
       <c r="C59">
-        <v>-1.73</v>
+        <v>-0.72</v>
       </c>
       <c r="D59">
         <v>-2.74</v>
@@ -1384,7 +1384,7 @@
         <v>6.37</v>
       </c>
       <c r="C60">
-        <v>-1.75</v>
+        <v>-0.72</v>
       </c>
       <c r="D60">
         <v>-2.75</v>
@@ -1398,7 +1398,7 @@
         <v>6.35</v>
       </c>
       <c r="C61">
-        <v>-1.77</v>
+        <v>-0.73</v>
       </c>
       <c r="D61">
         <v>-2.76</v>
@@ -1412,7 +1412,7 @@
         <v>6.34</v>
       </c>
       <c r="C62">
-        <v>-1.79</v>
+        <v>-0.74</v>
       </c>
       <c r="D62">
         <v>-2.77</v>
@@ -1426,7 +1426,7 @@
         <v>6.32</v>
       </c>
       <c r="C63">
-        <v>-1.8</v>
+        <v>-0.75</v>
       </c>
       <c r="D63">
         <v>-2.78</v>
@@ -1440,7 +1440,7 @@
         <v>6.3</v>
       </c>
       <c r="C64">
-        <v>-1.82</v>
+        <v>-0.75</v>
       </c>
       <c r="D64">
         <v>-2.78</v>
@@ -1454,7 +1454,7 @@
         <v>6.28</v>
       </c>
       <c r="C65">
-        <v>-1.83</v>
+        <v>-0.76</v>
       </c>
       <c r="D65">
         <v>-2.79</v>
@@ -1468,7 +1468,7 @@
         <v>6.26</v>
       </c>
       <c r="C66">
-        <v>-1.85</v>
+        <v>-0.77</v>
       </c>
       <c r="D66">
         <v>-2.79</v>
@@ -1482,7 +1482,7 @@
         <v>6.24</v>
       </c>
       <c r="C67">
-        <v>-1.86</v>
+        <v>-0.77</v>
       </c>
       <c r="D67">
         <v>-2.8</v>
@@ -1496,7 +1496,7 @@
         <v>6.22</v>
       </c>
       <c r="C68">
-        <v>-1.87</v>
+        <v>-0.78</v>
       </c>
       <c r="D68">
         <v>-2.8</v>
@@ -1510,7 +1510,7 @@
         <v>6.2</v>
       </c>
       <c r="C69">
-        <v>-1.88</v>
+        <v>-0.79</v>
       </c>
       <c r="D69">
         <v>-2.8</v>
@@ -1524,7 +1524,7 @@
         <v>6.18</v>
       </c>
       <c r="C70">
-        <v>-1.9</v>
+        <v>-0.79</v>
       </c>
       <c r="D70">
         <v>-2.81</v>
@@ -1538,7 +1538,7 @@
         <v>6.16</v>
       </c>
       <c r="C71">
-        <v>-1.91</v>
+        <v>-0.8</v>
       </c>
       <c r="D71">
         <v>-2.81</v>
@@ -1552,7 +1552,7 @@
         <v>6.13</v>
       </c>
       <c r="C72">
-        <v>-1.92</v>
+        <v>-0.81</v>
       </c>
       <c r="D72">
         <v>-2.82</v>
@@ -1566,7 +1566,7 @@
         <v>6.11</v>
       </c>
       <c r="C73">
-        <v>-1.94</v>
+        <v>-0.82</v>
       </c>
       <c r="D73">
         <v>-2.82</v>
@@ -1580,7 +1580,7 @@
         <v>6.08</v>
       </c>
       <c r="C74">
-        <v>-1.95</v>
+        <v>-0.82</v>
       </c>
       <c r="D74">
         <v>-2.83</v>
@@ -1594,7 +1594,7 @@
         <v>6.06</v>
       </c>
       <c r="C75">
-        <v>-1.97</v>
+        <v>-0.82</v>
       </c>
       <c r="D75">
         <v>-2.84</v>
@@ -1608,7 +1608,7 @@
         <v>6.03</v>
       </c>
       <c r="C76">
-        <v>-1.98</v>
+        <v>-0.82</v>
       </c>
       <c r="D76">
         <v>-2.85</v>
@@ -1622,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>-2</v>
+        <v>-0.83</v>
       </c>
       <c r="D77">
         <v>-2.85</v>
@@ -1636,7 +1636,7 @@
         <v>5.97</v>
       </c>
       <c r="C78">
-        <v>-2.0099999999999998</v>
+        <v>-0.84</v>
       </c>
       <c r="D78">
         <v>-2.86</v>
@@ -1650,7 +1650,7 @@
         <v>5.94</v>
       </c>
       <c r="C79">
-        <v>-2.0299999999999998</v>
+        <v>-0.85</v>
       </c>
       <c r="D79">
         <v>-2.87</v>
@@ -1664,7 +1664,7 @@
         <v>5.91</v>
       </c>
       <c r="C80">
-        <v>-2.0499999999999998</v>
+        <v>-0.86</v>
       </c>
       <c r="D80">
         <v>-2.88</v>
@@ -1678,7 +1678,7 @@
         <v>5.88</v>
       </c>
       <c r="C81">
-        <v>-2.06</v>
+        <v>-0.86</v>
       </c>
       <c r="D81">
         <v>-2.89</v>
@@ -1692,7 +1692,7 @@
         <v>5.85</v>
       </c>
       <c r="C82">
-        <v>-2.08</v>
+        <v>-0.87</v>
       </c>
       <c r="D82">
         <v>-2.9</v>
@@ -1706,7 +1706,7 @@
         <v>5.82</v>
       </c>
       <c r="C83">
-        <v>-2.09</v>
+        <v>-0.88</v>
       </c>
       <c r="D83">
         <v>-2.91</v>
@@ -1720,7 +1720,7 @@
         <v>5.78</v>
       </c>
       <c r="C84">
-        <v>-2.11</v>
+        <v>-0.89</v>
       </c>
       <c r="D84">
         <v>-2.92</v>
@@ -1734,7 +1734,7 @@
         <v>5.75</v>
       </c>
       <c r="C85">
-        <v>-2.12</v>
+        <v>-0.9</v>
       </c>
       <c r="D85">
         <v>-2.92</v>
@@ -1748,7 +1748,7 @@
         <v>5.71</v>
       </c>
       <c r="C86">
-        <v>-2.14</v>
+        <v>-0.91</v>
       </c>
       <c r="D86">
         <v>-2.93</v>
@@ -1762,7 +1762,7 @@
         <v>5.67</v>
       </c>
       <c r="C87">
-        <v>-2.16</v>
+        <v>-0.92</v>
       </c>
       <c r="D87">
         <v>-2.94</v>
@@ -1776,7 +1776,7 @@
         <v>5.63</v>
       </c>
       <c r="C88">
-        <v>-2.17</v>
+        <v>-0.93</v>
       </c>
       <c r="D88">
         <v>-2.95</v>
@@ -1790,7 +1790,7 @@
         <v>5.6</v>
       </c>
       <c r="C89">
-        <v>-2.1800000000000002</v>
+        <v>-0.94</v>
       </c>
       <c r="D89">
         <v>-2.96</v>
@@ -1804,7 +1804,7 @@
         <v>5.56</v>
       </c>
       <c r="C90">
-        <v>-2.2000000000000002</v>
+        <v>-0.95</v>
       </c>
       <c r="D90">
         <v>-2.97</v>
@@ -1818,7 +1818,7 @@
         <v>5.52</v>
       </c>
       <c r="C91">
-        <v>-2.21</v>
+        <v>-0.96</v>
       </c>
       <c r="D91">
         <v>-2.97</v>
@@ -1832,7 +1832,7 @@
         <v>5.48</v>
       </c>
       <c r="C92">
-        <v>-2.2200000000000002</v>
+        <v>-0.97</v>
       </c>
       <c r="D92">
         <v>-2.98</v>
@@ -1846,7 +1846,7 @@
         <v>5.44</v>
       </c>
       <c r="C93">
-        <v>-2.23</v>
+        <v>-0.99</v>
       </c>
       <c r="D93">
         <v>-2.98</v>
@@ -1860,7 +1860,7 @@
         <v>5.39</v>
       </c>
       <c r="C94">
-        <v>-2.2400000000000002</v>
+        <v>-1</v>
       </c>
       <c r="D94">
         <v>-2.98</v>
@@ -1874,7 +1874,7 @@
         <v>5.34</v>
       </c>
       <c r="C95">
-        <v>-2.2400000000000002</v>
+        <v>-1.02</v>
       </c>
       <c r="D95">
         <v>-2.98</v>
@@ -1888,7 +1888,7 @@
         <v>5.29</v>
       </c>
       <c r="C96">
-        <v>-2.2400000000000002</v>
+        <v>-1.03</v>
       </c>
       <c r="D96">
         <v>-2.98</v>
@@ -1902,7 +1902,7 @@
         <v>5.24</v>
       </c>
       <c r="C97">
-        <v>-2.25</v>
+        <v>-1.04</v>
       </c>
       <c r="D97">
         <v>-2.98</v>
@@ -1916,7 +1916,7 @@
         <v>5.19</v>
       </c>
       <c r="C98">
-        <v>-2.25</v>
+        <v>-1.05</v>
       </c>
       <c r="D98">
         <v>-2.99</v>
@@ -1930,7 +1930,7 @@
         <v>5.14</v>
       </c>
       <c r="C99">
-        <v>-2.2599999999999998</v>
+        <v>-1.06</v>
       </c>
       <c r="D99">
         <v>-2.99</v>
@@ -1944,7 +1944,7 @@
         <v>5.09</v>
       </c>
       <c r="C100">
-        <v>-2.27</v>
+        <v>-1.07</v>
       </c>
       <c r="D100">
         <v>-3</v>
@@ -1958,7 +1958,7 @@
         <v>5.04</v>
       </c>
       <c r="C101">
-        <v>-2.2799999999999998</v>
+        <v>-1.08</v>
       </c>
       <c r="D101">
         <v>-3.01</v>
@@ -1972,7 +1972,7 @@
         <v>4.99</v>
       </c>
       <c r="C102">
-        <v>-2.2999999999999998</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="D102">
         <v>-3.02</v>
@@ -1986,7 +1986,7 @@
         <v>4.93</v>
       </c>
       <c r="C103">
-        <v>-2.3199999999999998</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D103">
         <v>-3.04</v>
@@ -2000,7 +2000,7 @@
         <v>4.87</v>
       </c>
       <c r="C104">
-        <v>-2.34</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="D104">
         <v>-3.05</v>
@@ -2014,7 +2014,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="C105">
-        <v>-2.36</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="D105">
         <v>-3.07</v>
@@ -2028,7 +2028,7 @@
         <v>4.76</v>
       </c>
       <c r="C106">
-        <v>-2.38</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="D106">
         <v>-3.09</v>
@@ -2042,7 +2042,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="C107">
-        <v>-2.39</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D107">
         <v>-3.1</v>
@@ -2056,7 +2056,7 @@
         <v>4.63</v>
       </c>
       <c r="C108">
-        <v>-2.41</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D108">
         <v>-3.12</v>
@@ -2070,7 +2070,7 @@
         <v>4.57</v>
       </c>
       <c r="C109">
-        <v>-2.42</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D109">
         <v>-3.13</v>
@@ -2084,7 +2084,7 @@
         <v>4.5</v>
       </c>
       <c r="C110">
-        <v>-2.4300000000000002</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="D110">
         <v>-3.14</v>
@@ -2098,7 +2098,7 @@
         <v>4.43</v>
       </c>
       <c r="C111">
-        <v>-2.44</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="D111">
         <v>-3.15</v>
@@ -2112,7 +2112,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C112">
-        <v>-2.4500000000000002</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="D112">
         <v>-3.16</v>
@@ -2126,7 +2126,7 @@
         <v>4.29</v>
       </c>
       <c r="C113">
-        <v>-2.46</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="D113">
         <v>-3.17</v>
@@ -2140,7 +2140,7 @@
         <v>4.22</v>
       </c>
       <c r="C114">
-        <v>-2.4700000000000002</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D114">
         <v>-3.18</v>
@@ -2154,7 +2154,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C115">
-        <v>-2.48</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D115">
         <v>-3.19</v>
@@ -2168,7 +2168,7 @@
         <v>4.08</v>
       </c>
       <c r="C116">
-        <v>-2.5</v>
+        <v>-1.17</v>
       </c>
       <c r="D116">
         <v>-3.21</v>
@@ -2182,7 +2182,7 @@
         <v>4.01</v>
       </c>
       <c r="C117">
-        <v>-2.5099999999999998</v>
+        <v>-1.18</v>
       </c>
       <c r="D117">
         <v>-3.22</v>
@@ -2196,7 +2196,7 @@
         <v>3.94</v>
       </c>
       <c r="C118">
-        <v>-2.5299999999999998</v>
+        <v>-1.18</v>
       </c>
       <c r="D118">
         <v>-3.24</v>
@@ -2210,7 +2210,7 @@
         <v>3.86</v>
       </c>
       <c r="C119">
-        <v>-2.54</v>
+        <v>-1.18</v>
       </c>
       <c r="D119">
         <v>-3.26</v>
@@ -2224,7 +2224,7 @@
         <v>3.79</v>
       </c>
       <c r="C120">
-        <v>-2.56</v>
+        <v>-1.19</v>
       </c>
       <c r="D120">
         <v>-3.28</v>
@@ -2238,7 +2238,7 @@
         <v>3.71</v>
       </c>
       <c r="C121">
-        <v>-2.58</v>
+        <v>-1.19</v>
       </c>
       <c r="D121">
         <v>-3.3</v>
@@ -2252,7 +2252,7 @@
         <v>3.63</v>
       </c>
       <c r="C122">
-        <v>-2.6</v>
+        <v>-1.19</v>
       </c>
       <c r="D122">
         <v>-3.32</v>
@@ -2266,7 +2266,7 @@
         <v>3.55</v>
       </c>
       <c r="C123">
-        <v>-2.62</v>
+        <v>-1.19</v>
       </c>
       <c r="D123">
         <v>-3.34</v>
@@ -2280,7 +2280,7 @@
         <v>3.47</v>
       </c>
       <c r="C124">
-        <v>-2.64</v>
+        <v>-1.19</v>
       </c>
       <c r="D124">
         <v>-3.37</v>
@@ -2294,7 +2294,7 @@
         <v>3.39</v>
       </c>
       <c r="C125">
-        <v>-2.66</v>
+        <v>-1.18</v>
       </c>
       <c r="D125">
         <v>-3.39</v>
@@ -2308,7 +2308,7 @@
         <v>3.31</v>
       </c>
       <c r="C126">
-        <v>-2.68</v>
+        <v>-1.18</v>
       </c>
       <c r="D126">
         <v>-3.42</v>
@@ -2322,7 +2322,7 @@
         <v>3.23</v>
       </c>
       <c r="C127">
-        <v>-2.7</v>
+        <v>-1.19</v>
       </c>
       <c r="D127">
         <v>-3.45</v>
@@ -2336,7 +2336,7 @@
         <v>3.14</v>
       </c>
       <c r="C128">
-        <v>-2.73</v>
+        <v>-1.19</v>
       </c>
       <c r="D128">
         <v>-3.48</v>
@@ -2350,7 +2350,7 @@
         <v>3.06</v>
       </c>
       <c r="C129">
-        <v>-2.75</v>
+        <v>-1.18</v>
       </c>
       <c r="D129">
         <v>-3.51</v>
@@ -2364,7 +2364,7 @@
         <v>2.98</v>
       </c>
       <c r="C130">
-        <v>-2.77</v>
+        <v>-1.18</v>
       </c>
       <c r="D130">
         <v>-3.54</v>
@@ -2378,7 +2378,7 @@
         <v>2.89</v>
       </c>
       <c r="C131">
-        <v>-2.8</v>
+        <v>-1.18</v>
       </c>
       <c r="D131">
         <v>-3.57</v>
@@ -2392,7 +2392,7 @@
         <v>2.8</v>
       </c>
       <c r="C132">
-        <v>-2.82</v>
+        <v>-1.17</v>
       </c>
       <c r="D132">
         <v>-3.6</v>
@@ -2406,7 +2406,7 @@
         <v>2.71</v>
       </c>
       <c r="C133">
-        <v>-2.85</v>
+        <v>-1.17</v>
       </c>
       <c r="D133">
         <v>-3.63</v>
@@ -2420,7 +2420,7 @@
         <v>2.62</v>
       </c>
       <c r="C134">
-        <v>-2.87</v>
+        <v>-1.17</v>
       </c>
       <c r="D134">
         <v>-3.66</v>
@@ -2434,7 +2434,7 @@
         <v>2.54</v>
       </c>
       <c r="C135">
-        <v>-2.9</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D135">
         <v>-3.69</v>
@@ -2448,7 +2448,7 @@
         <v>2.46</v>
       </c>
       <c r="C136">
-        <v>-2.92</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="D136">
         <v>-3.72</v>
@@ -2462,7 +2462,7 @@
         <v>2.37</v>
       </c>
       <c r="C137">
-        <v>-2.94</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="D137">
         <v>-3.76</v>
@@ -2476,7 +2476,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C138">
-        <v>-2.97</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="D138">
         <v>-3.79</v>
@@ -2490,7 +2490,7 @@
         <v>2.19</v>
       </c>
       <c r="C139">
-        <v>-3</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="D139">
         <v>-3.83</v>
@@ -2504,7 +2504,7 @@
         <v>2.1</v>
       </c>
       <c r="C140">
-        <v>-3.02</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="D140">
         <v>-3.86</v>
@@ -2518,7 +2518,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C141">
-        <v>-3.05</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D141">
         <v>-3.9</v>
@@ -2532,7 +2532,7 @@
         <v>1.92</v>
       </c>
       <c r="C142">
-        <v>-3.07</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="D142">
         <v>-3.93</v>
@@ -2546,7 +2546,7 @@
         <v>1.84</v>
       </c>
       <c r="C143">
-        <v>-3.1</v>
+        <v>-1.08</v>
       </c>
       <c r="D143">
         <v>-3.97</v>
@@ -2560,7 +2560,7 @@
         <v>1.75</v>
       </c>
       <c r="C144">
-        <v>-3.13</v>
+        <v>-1.08</v>
       </c>
       <c r="D144">
         <v>-4</v>
@@ -2574,7 +2574,7 @@
         <v>1.67</v>
       </c>
       <c r="C145">
-        <v>-3.15</v>
+        <v>-1.07</v>
       </c>
       <c r="D145">
         <v>-4.04</v>
@@ -2588,7 +2588,7 @@
         <v>1.58</v>
       </c>
       <c r="C146">
-        <v>-3.18</v>
+        <v>-1.06</v>
       </c>
       <c r="D146">
         <v>-4.08</v>
@@ -2602,7 +2602,7 @@
         <v>1.49</v>
       </c>
       <c r="C147">
-        <v>-3.2</v>
+        <v>-1.04</v>
       </c>
       <c r="D147">
         <v>-4.1100000000000003</v>
@@ -2616,7 +2616,7 @@
         <v>1.41</v>
       </c>
       <c r="C148">
-        <v>-3.22</v>
+        <v>-1.02</v>
       </c>
       <c r="D148">
         <v>-4.1500000000000004</v>
@@ -2630,7 +2630,7 @@
         <v>1.32</v>
       </c>
       <c r="C149">
-        <v>-3.24</v>
+        <v>-1.01</v>
       </c>
       <c r="D149">
         <v>-4.18</v>
@@ -2644,7 +2644,7 @@
         <v>1.24</v>
       </c>
       <c r="C150">
-        <v>-3.26</v>
+        <v>-1</v>
       </c>
       <c r="D150">
         <v>-4.21</v>
@@ -2658,7 +2658,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C151">
-        <v>-3.29</v>
+        <v>-1</v>
       </c>
       <c r="D151">
         <v>-4.25</v>
@@ -2672,7 +2672,7 @@
         <v>1.07</v>
       </c>
       <c r="C152">
-        <v>-3.31</v>
+        <v>-0.99</v>
       </c>
       <c r="D152">
         <v>-4.28</v>
@@ -2686,7 +2686,7 @@
         <v>0.99</v>
       </c>
       <c r="C153">
-        <v>-3.33</v>
+        <v>-0.97</v>
       </c>
       <c r="D153">
         <v>-4.32</v>
@@ -2700,7 +2700,7 @@
         <v>0.9</v>
       </c>
       <c r="C154">
-        <v>-3.36</v>
+        <v>-0.96</v>
       </c>
       <c r="D154">
         <v>-4.3499999999999996</v>
@@ -2714,7 +2714,7 @@
         <v>0.82</v>
       </c>
       <c r="C155">
-        <v>-3.38</v>
+        <v>-0.95</v>
       </c>
       <c r="D155">
         <v>-4.3899999999999997</v>
@@ -2728,7 +2728,7 @@
         <v>0.74</v>
       </c>
       <c r="C156">
-        <v>-3.41</v>
+        <v>-0.94</v>
       </c>
       <c r="D156">
         <v>-4.43</v>
@@ -2742,7 +2742,7 @@
         <v>0.66</v>
       </c>
       <c r="C157">
-        <v>-3.43</v>
+        <v>-0.93</v>
       </c>
       <c r="D157">
         <v>-4.47</v>
@@ -2756,7 +2756,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C158">
-        <v>-3.46</v>
+        <v>-0.92</v>
       </c>
       <c r="D158">
         <v>-4.5</v>
@@ -2770,7 +2770,7 @@
         <v>0.5</v>
       </c>
       <c r="C159">
-        <v>-3.48</v>
+        <v>-0.91</v>
       </c>
       <c r="D159">
         <v>-4.54</v>
@@ -2784,7 +2784,7 @@
         <v>0.42</v>
       </c>
       <c r="C160">
-        <v>-3.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D160">
         <v>-4.58</v>
@@ -2798,7 +2798,7 @@
         <v>0.35</v>
       </c>
       <c r="C161">
-        <v>-3.52</v>
+        <v>-0.9</v>
       </c>
       <c r="D161">
         <v>-4.6100000000000003</v>
@@ -2812,7 +2812,7 @@
         <v>0.27</v>
       </c>
       <c r="C162">
-        <v>-3.54</v>
+        <v>-0.88</v>
       </c>
       <c r="D162">
         <v>-4.6500000000000004</v>
@@ -2826,7 +2826,7 @@
         <v>0.2</v>
       </c>
       <c r="C163">
-        <v>-3.57</v>
+        <v>-0.87</v>
       </c>
       <c r="D163">
         <v>-4.6900000000000004</v>
@@ -2840,7 +2840,7 @@
         <v>0.12</v>
       </c>
       <c r="C164">
-        <v>-3.59</v>
+        <v>-0.87</v>
       </c>
       <c r="D164">
         <v>-4.72</v>
@@ -2854,7 +2854,7 @@
         <v>0.04</v>
       </c>
       <c r="C165">
-        <v>-3.62</v>
+        <v>-0.86</v>
       </c>
       <c r="D165">
         <v>-4.76</v>
@@ -2868,7 +2868,7 @@
         <v>-0.03</v>
       </c>
       <c r="C166">
-        <v>-3.64</v>
+        <v>-0.85</v>
       </c>
       <c r="D166">
         <v>-4.8</v>
@@ -2882,7 +2882,7 @@
         <v>-0.1</v>
       </c>
       <c r="C167">
-        <v>-3.67</v>
+        <v>-0.84</v>
       </c>
       <c r="D167">
         <v>-4.84</v>
@@ -2896,7 +2896,7 @@
         <v>-0.17</v>
       </c>
       <c r="C168">
-        <v>-3.69</v>
+        <v>-0.83</v>
       </c>
       <c r="D168">
         <v>-4.88</v>
@@ -2910,7 +2910,7 @@
         <v>-0.24</v>
       </c>
       <c r="C169">
-        <v>-3.72</v>
+        <v>-0.82</v>
       </c>
       <c r="D169">
         <v>-4.92</v>
@@ -2924,7 +2924,7 @@
         <v>-0.31</v>
       </c>
       <c r="C170">
-        <v>-3.74</v>
+        <v>-0.81</v>
       </c>
       <c r="D170">
         <v>-4.96</v>
@@ -2938,7 +2938,7 @@
         <v>-0.38</v>
       </c>
       <c r="C171">
-        <v>-3.77</v>
+        <v>-0.8</v>
       </c>
       <c r="D171">
         <v>-5</v>
@@ -2952,7 +2952,7 @@
         <v>-0.44</v>
       </c>
       <c r="C172">
-        <v>-3.79</v>
+        <v>-0.79</v>
       </c>
       <c r="D172">
         <v>-5.04</v>
@@ -2966,7 +2966,7 @@
         <v>-0.51</v>
       </c>
       <c r="C173">
-        <v>-3.81</v>
+        <v>-0.78</v>
       </c>
       <c r="D173">
         <v>-5.07</v>
@@ -2980,7 +2980,7 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="C174">
-        <v>-3.84</v>
+        <v>-0.78</v>
       </c>
       <c r="D174">
         <v>-5.1100000000000003</v>
@@ -2994,7 +2994,7 @@
         <v>-0.63</v>
       </c>
       <c r="C175">
-        <v>-3.86</v>
+        <v>-0.78</v>
       </c>
       <c r="D175">
         <v>-5.15</v>
@@ -3008,7 +3008,7 @@
         <v>-0.69</v>
       </c>
       <c r="C176">
-        <v>-3.88</v>
+        <v>-0.77</v>
       </c>
       <c r="D176">
         <v>-5.18</v>
@@ -3022,7 +3022,7 @@
         <v>-0.75</v>
       </c>
       <c r="C177">
-        <v>-3.9</v>
+        <v>-0.77</v>
       </c>
       <c r="D177">
         <v>-5.21</v>
@@ -3036,7 +3036,7 @@
         <v>-0.81</v>
       </c>
       <c r="C178">
-        <v>-3.92</v>
+        <v>-0.77</v>
       </c>
       <c r="D178">
         <v>-5.25</v>
@@ -3050,7 +3050,7 @@
         <v>-0.87</v>
       </c>
       <c r="C179">
-        <v>-3.94</v>
+        <v>-0.77</v>
       </c>
       <c r="D179">
         <v>-5.28</v>
@@ -3064,7 +3064,7 @@
         <v>-0.92</v>
       </c>
       <c r="C180">
-        <v>-3.96</v>
+        <v>-0.76</v>
       </c>
       <c r="D180">
         <v>-5.32</v>
@@ -3078,7 +3078,7 @@
         <v>-0.97</v>
       </c>
       <c r="C181">
-        <v>-3.98</v>
+        <v>-0.76</v>
       </c>
       <c r="D181">
         <v>-5.35</v>
@@ -3092,7 +3092,7 @@
         <v>-1.03</v>
       </c>
       <c r="C182">
-        <v>-4</v>
+        <v>-0.76</v>
       </c>
       <c r="D182">
         <v>-5.38</v>
@@ -3106,7 +3106,7 @@
         <v>-1.08</v>
       </c>
       <c r="C183">
-        <v>-4.01</v>
+        <v>-0.76</v>
       </c>
       <c r="D183">
         <v>-5.41</v>
@@ -3120,7 +3120,7 @@
         <v>-1.1200000000000001</v>
       </c>
       <c r="C184">
-        <v>-4.03</v>
+        <v>-0.75</v>
       </c>
       <c r="D184">
         <v>-5.44</v>
@@ -3134,7 +3134,7 @@
         <v>-1.17</v>
       </c>
       <c r="C185">
-        <v>-4.04</v>
+        <v>-0.75</v>
       </c>
       <c r="D185">
         <v>-5.46</v>
@@ -3148,7 +3148,7 @@
         <v>-1.22</v>
       </c>
       <c r="C186">
-        <v>-4.0599999999999996</v>
+        <v>-0.75</v>
       </c>
       <c r="D186">
         <v>-5.49</v>
@@ -3162,7 +3162,7 @@
         <v>-1.27</v>
       </c>
       <c r="C187">
-        <v>-4.07</v>
+        <v>-0.75</v>
       </c>
       <c r="D187">
         <v>-5.51</v>
@@ -3176,7 +3176,7 @@
         <v>-1.32</v>
       </c>
       <c r="C188">
-        <v>-4.08</v>
+        <v>-0.75</v>
       </c>
       <c r="D188">
         <v>-5.54</v>
@@ -3190,7 +3190,7 @@
         <v>-1.36</v>
       </c>
       <c r="C189">
-        <v>-4.0999999999999996</v>
+        <v>-0.75</v>
       </c>
       <c r="D189">
         <v>-5.56</v>
@@ -3204,7 +3204,7 @@
         <v>-1.4</v>
       </c>
       <c r="C190">
-        <v>-4.1100000000000003</v>
+        <v>-0.75</v>
       </c>
       <c r="D190">
         <v>-5.58</v>
@@ -3218,7 +3218,7 @@
         <v>-1.44</v>
       </c>
       <c r="C191">
-        <v>-4.12</v>
+        <v>-0.75</v>
       </c>
       <c r="D191">
         <v>-5.61</v>
@@ -3232,7 +3232,7 @@
         <v>-1.48</v>
       </c>
       <c r="C192">
-        <v>-4.13</v>
+        <v>-0.75</v>
       </c>
       <c r="D192">
         <v>-5.63</v>
@@ -3246,7 +3246,7 @@
         <v>-1.52</v>
       </c>
       <c r="C193">
-        <v>-4.1399999999999997</v>
+        <v>-0.75</v>
       </c>
       <c r="D193">
         <v>-5.65</v>
@@ -3260,7 +3260,7 @@
         <v>-1.56</v>
       </c>
       <c r="C194">
-        <v>-4.1399999999999997</v>
+        <v>-0.76</v>
       </c>
       <c r="D194">
         <v>-5.67</v>
@@ -3274,7 +3274,7 @@
         <v>-1.6</v>
       </c>
       <c r="C195">
-        <v>-4.1500000000000004</v>
+        <v>-0.75</v>
       </c>
       <c r="D195">
         <v>-5.68</v>
@@ -3288,7 +3288,7 @@
         <v>-1.63</v>
       </c>
       <c r="C196">
-        <v>-4.16</v>
+        <v>-0.75</v>
       </c>
       <c r="D196">
         <v>-5.7</v>
@@ -3302,7 +3302,7 @@
         <v>-1.67</v>
       </c>
       <c r="C197">
-        <v>-4.16</v>
+        <v>-0.75</v>
       </c>
       <c r="D197">
         <v>-5.71</v>
@@ -3316,7 +3316,7 @@
         <v>-1.7</v>
       </c>
       <c r="C198">
-        <v>-4.17</v>
+        <v>-0.75</v>
       </c>
       <c r="D198">
         <v>-5.73</v>
@@ -3330,7 +3330,7 @@
         <v>-1.73</v>
       </c>
       <c r="C199">
-        <v>-4.17</v>
+        <v>-0.74</v>
       </c>
       <c r="D199">
         <v>-5.74</v>
@@ -3344,7 +3344,7 @@
         <v>-1.76</v>
       </c>
       <c r="C200">
-        <v>-4.17</v>
+        <v>-0.74</v>
       </c>
       <c r="D200">
         <v>-5.75</v>
@@ -3358,7 +3358,7 @@
         <v>-1.79</v>
       </c>
       <c r="C201">
-        <v>-4.17</v>
+        <v>-0.74</v>
       </c>
       <c r="D201">
         <v>-5.75</v>
@@ -3372,7 +3372,7 @@
         <v>-1.82</v>
       </c>
       <c r="C202">
-        <v>-4.17</v>
+        <v>-0.73</v>
       </c>
       <c r="D202">
         <v>-5.76</v>
@@ -3386,7 +3386,7 @@
         <v>-1.84</v>
       </c>
       <c r="C203">
-        <v>-4.16</v>
+        <v>-0.73</v>
       </c>
       <c r="D203">
         <v>-5.77</v>
@@ -3400,7 +3400,7 @@
         <v>-1.87</v>
       </c>
       <c r="C204">
-        <v>-4.16</v>
+        <v>-0.73</v>
       </c>
       <c r="D204">
         <v>-5.77</v>
@@ -3414,7 +3414,7 @@
         <v>-1.89</v>
       </c>
       <c r="C205">
-        <v>-4.16</v>
+        <v>-0.73</v>
       </c>
       <c r="D205">
         <v>-5.78</v>
@@ -3428,7 +3428,7 @@
         <v>-1.92</v>
       </c>
       <c r="C206">
-        <v>-4.1500000000000004</v>
+        <v>-0.74</v>
       </c>
       <c r="D206">
         <v>-5.78</v>
@@ -3442,7 +3442,7 @@
         <v>-1.95</v>
       </c>
       <c r="C207">
-        <v>-4.1399999999999997</v>
+        <v>-0.74</v>
       </c>
       <c r="D207">
         <v>-5.78</v>
@@ -3456,7 +3456,7 @@
         <v>-1.97</v>
       </c>
       <c r="C208">
-        <v>-4.1399999999999997</v>
+        <v>-0.74</v>
       </c>
       <c r="D208">
         <v>-5.78</v>
@@ -3470,7 +3470,7 @@
         <v>-1.99</v>
       </c>
       <c r="C209">
-        <v>-4.13</v>
+        <v>-0.75</v>
       </c>
       <c r="D209">
         <v>-5.77</v>
@@ -3484,7 +3484,7 @@
         <v>-2.0099999999999998</v>
       </c>
       <c r="C210">
-        <v>-4.1100000000000003</v>
+        <v>-0.76</v>
       </c>
       <c r="D210">
         <v>-5.76</v>
@@ -3498,7 +3498,7 @@
         <v>-2.0299999999999998</v>
       </c>
       <c r="C211">
-        <v>-4.0999999999999996</v>
+        <v>-0.76</v>
       </c>
       <c r="D211">
         <v>-5.76</v>
@@ -3512,7 +3512,7 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="C212">
-        <v>-4.09</v>
+        <v>-0.78</v>
       </c>
       <c r="D212">
         <v>-5.75</v>
@@ -3526,7 +3526,7 @@
         <v>-2.0699999999999998</v>
       </c>
       <c r="C213">
-        <v>-4.07</v>
+        <v>-0.78</v>
       </c>
       <c r="D213">
         <v>-5.74</v>
@@ -3540,7 +3540,7 @@
         <v>-2.08</v>
       </c>
       <c r="C214">
-        <v>-4.0599999999999996</v>
+        <v>-0.79</v>
       </c>
       <c r="D214">
         <v>-5.72</v>
@@ -3554,7 +3554,7 @@
         <v>-2.1</v>
       </c>
       <c r="C215">
-        <v>-4.04</v>
+        <v>-0.8</v>
       </c>
       <c r="D215">
         <v>-5.71</v>
@@ -3568,7 +3568,7 @@
         <v>-2.11</v>
       </c>
       <c r="C216">
-        <v>-4.0199999999999996</v>
+        <v>-0.81</v>
       </c>
       <c r="D216">
         <v>-5.69</v>
@@ -3582,7 +3582,7 @@
         <v>-2.12</v>
       </c>
       <c r="C217">
-        <v>-4</v>
+        <v>-0.81</v>
       </c>
       <c r="D217">
         <v>-5.67</v>
@@ -3596,7 +3596,7 @@
         <v>-2.13</v>
       </c>
       <c r="C218">
-        <v>-3.98</v>
+        <v>-0.83</v>
       </c>
       <c r="D218">
         <v>-5.66</v>
@@ -3610,7 +3610,7 @@
         <v>-2.14</v>
       </c>
       <c r="C219">
-        <v>-3.96</v>
+        <v>-0.84</v>
       </c>
       <c r="D219">
         <v>-5.64</v>
@@ -3624,7 +3624,7 @@
         <v>-2.15</v>
       </c>
       <c r="C220">
-        <v>-3.93</v>
+        <v>-0.85</v>
       </c>
       <c r="D220">
         <v>-5.62</v>
@@ -3638,7 +3638,7 @@
         <v>-2.16</v>
       </c>
       <c r="C221">
-        <v>-3.91</v>
+        <v>-0.87</v>
       </c>
       <c r="D221">
         <v>-5.59</v>
@@ -3652,7 +3652,7 @@
         <v>-2.17</v>
       </c>
       <c r="C222">
-        <v>-3.88</v>
+        <v>-0.88</v>
       </c>
       <c r="D222">
         <v>-5.56</v>
@@ -3666,7 +3666,7 @@
         <v>-2.1800000000000002</v>
       </c>
       <c r="C223">
-        <v>-3.85</v>
+        <v>-0.89</v>
       </c>
       <c r="D223">
         <v>-5.54</v>
@@ -3680,7 +3680,7 @@
         <v>-2.1800000000000002</v>
       </c>
       <c r="C224">
-        <v>-3.82</v>
+        <v>-0.91</v>
       </c>
       <c r="D224">
         <v>-5.51</v>
@@ -3694,7 +3694,7 @@
         <v>-2.19</v>
       </c>
       <c r="C225">
-        <v>-3.79</v>
+        <v>-0.92</v>
       </c>
       <c r="D225">
         <v>-5.48</v>
@@ -3708,7 +3708,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="C226">
-        <v>-3.76</v>
+        <v>-0.94</v>
       </c>
       <c r="D226">
         <v>-5.45</v>
@@ -3722,7 +3722,7 @@
         <v>-2.21</v>
       </c>
       <c r="C227">
-        <v>-3.73</v>
+        <v>-0.95</v>
       </c>
       <c r="D227">
         <v>-5.42</v>
@@ -3736,7 +3736,7 @@
         <v>-2.21</v>
       </c>
       <c r="C228">
-        <v>-3.7</v>
+        <v>-0.97</v>
       </c>
       <c r="D228">
         <v>-5.39</v>
@@ -3750,7 +3750,7 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="C229">
-        <v>-3.67</v>
+        <v>-0.98</v>
       </c>
       <c r="D229">
         <v>-5.35</v>
@@ -3764,7 +3764,7 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="C230">
-        <v>-3.63</v>
+        <v>-0.99</v>
       </c>
       <c r="D230">
         <v>-5.32</v>
@@ -3778,7 +3778,7 @@
         <v>-2.23</v>
       </c>
       <c r="C231">
-        <v>-3.6</v>
+        <v>-1</v>
       </c>
       <c r="D231">
         <v>-5.28</v>
@@ -3792,7 +3792,7 @@
         <v>-2.23</v>
       </c>
       <c r="C232">
-        <v>-3.57</v>
+        <v>-1.01</v>
       </c>
       <c r="D232">
         <v>-5.25</v>
@@ -3806,7 +3806,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C233">
-        <v>-3.53</v>
+        <v>-1.02</v>
       </c>
       <c r="D233">
         <v>-5.21</v>
@@ -3820,7 +3820,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C234">
-        <v>-3.49</v>
+        <v>-1.03</v>
       </c>
       <c r="D234">
         <v>-5.17</v>
@@ -3834,7 +3834,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C235">
-        <v>-3.45</v>
+        <v>-1.03</v>
       </c>
       <c r="D235">
         <v>-5.13</v>
@@ -3848,7 +3848,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C236">
-        <v>-3.41</v>
+        <v>-1.03</v>
       </c>
       <c r="D236">
         <v>-5.09</v>
@@ -3862,7 +3862,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C237">
-        <v>-3.37</v>
+        <v>-1.03</v>
       </c>
       <c r="D237">
         <v>-5.04</v>
@@ -3876,7 +3876,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C238">
-        <v>-3.33</v>
+        <v>-1.03</v>
       </c>
       <c r="D238">
         <v>-5</v>
@@ -3890,7 +3890,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C239">
-        <v>-3.29</v>
+        <v>-1.04</v>
       </c>
       <c r="D239">
         <v>-4.96</v>
@@ -3904,7 +3904,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C240">
-        <v>-3.25</v>
+        <v>-1.04</v>
       </c>
       <c r="D240">
         <v>-4.91</v>
@@ -3918,7 +3918,7 @@
         <v>-2.2400000000000002</v>
       </c>
       <c r="C241">
-        <v>-3.21</v>
+        <v>-1.04</v>
       </c>
       <c r="D241">
         <v>-4.87</v>
@@ -3932,7 +3932,7 @@
         <v>-2.23</v>
       </c>
       <c r="C242">
-        <v>-3.17</v>
+        <v>-1.03</v>
       </c>
       <c r="D242">
         <v>-4.82</v>
@@ -3946,7 +3946,7 @@
         <v>-2.23</v>
       </c>
       <c r="C243">
-        <v>-3.13</v>
+        <v>-1.02</v>
       </c>
       <c r="D243">
         <v>-4.78</v>
@@ -3960,7 +3960,7 @@
         <v>-2.23</v>
       </c>
       <c r="C244">
-        <v>-3.09</v>
+        <v>-1.01</v>
       </c>
       <c r="D244">
         <v>-4.7300000000000004</v>
@@ -3974,7 +3974,7 @@
         <v>-2.23</v>
       </c>
       <c r="C245">
-        <v>-3.04</v>
+        <v>-1</v>
       </c>
       <c r="D245">
         <v>-4.68</v>
@@ -3988,7 +3988,7 @@
         <v>-2.23</v>
       </c>
       <c r="C246">
-        <v>-3</v>
+        <v>-0.99</v>
       </c>
       <c r="D246">
         <v>-4.6399999999999997</v>
@@ -4002,7 +4002,7 @@
         <v>-2.23</v>
       </c>
       <c r="C247">
-        <v>-2.96</v>
+        <v>-0.99</v>
       </c>
       <c r="D247">
         <v>-4.59</v>
@@ -4016,7 +4016,7 @@
         <v>-2.23</v>
       </c>
       <c r="C248">
-        <v>-2.92</v>
+        <v>-0.97</v>
       </c>
       <c r="D248">
         <v>-4.55</v>
@@ -4030,7 +4030,7 @@
         <v>-2.23</v>
       </c>
       <c r="C249">
-        <v>-2.88</v>
+        <v>-0.96</v>
       </c>
       <c r="D249">
         <v>-4.5</v>
@@ -4044,7 +4044,7 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="C250">
-        <v>-2.84</v>
+        <v>-0.95</v>
       </c>
       <c r="D250">
         <v>-4.46</v>
@@ -4058,7 +4058,7 @@
         <v>-2.2200000000000002</v>
       </c>
       <c r="C251">
-        <v>-2.8</v>
+        <v>-0.93</v>
       </c>
       <c r="D251">
         <v>-4.41</v>
@@ -4072,7 +4072,7 @@
         <v>-2.21</v>
       </c>
       <c r="C252">
-        <v>-2.76</v>
+        <v>-0.91</v>
       </c>
       <c r="D252">
         <v>-4.3600000000000003</v>
@@ -4086,7 +4086,7 @@
         <v>-2.21</v>
       </c>
       <c r="C253">
-        <v>-2.72</v>
+        <v>-0.9</v>
       </c>
       <c r="D253">
         <v>-4.3099999999999996</v>
@@ -4100,7 +4100,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="C254">
-        <v>-2.67</v>
+        <v>-0.88</v>
       </c>
       <c r="D254">
         <v>-4.25</v>
@@ -4114,7 +4114,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="C255">
-        <v>-2.62</v>
+        <v>-0.86</v>
       </c>
       <c r="D255">
         <v>-4.2</v>
@@ -4128,7 +4128,7 @@
         <v>-2.19</v>
       </c>
       <c r="C256">
-        <v>-2.57</v>
+        <v>-0.84</v>
       </c>
       <c r="D256">
         <v>-4.1399999999999997</v>
@@ -4142,7 +4142,7 @@
         <v>-2.19</v>
       </c>
       <c r="C257">
-        <v>-2.52</v>
+        <v>-0.82</v>
       </c>
       <c r="D257">
         <v>-4.08</v>
@@ -4156,7 +4156,7 @@
         <v>-2.1800000000000002</v>
       </c>
       <c r="C258">
-        <v>-2.4700000000000002</v>
+        <v>-0.8</v>
       </c>
       <c r="D258">
         <v>-4.0199999999999996</v>
@@ -4170,7 +4170,7 @@
         <v>-2.17</v>
       </c>
       <c r="C259">
-        <v>-2.41</v>
+        <v>-0.77</v>
       </c>
       <c r="D259">
         <v>-3.96</v>
@@ -4184,7 +4184,7 @@
         <v>-2.16</v>
       </c>
       <c r="C260">
-        <v>-2.36</v>
+        <v>-0.74</v>
       </c>
       <c r="D260">
         <v>-3.9</v>
@@ -4198,7 +4198,7 @@
         <v>-2.15</v>
       </c>
       <c r="C261">
-        <v>-2.2999999999999998</v>
+        <v>-0.72</v>
       </c>
       <c r="D261">
         <v>-3.84</v>
@@ -4212,7 +4212,7 @@
         <v>-2.15</v>
       </c>
       <c r="C262">
-        <v>-2.25</v>
+        <v>-0.69</v>
       </c>
       <c r="D262">
         <v>-3.77</v>
@@ -4226,7 +4226,7 @@
         <v>-2.14</v>
       </c>
       <c r="C263">
-        <v>-2.19</v>
+        <v>-0.67</v>
       </c>
       <c r="D263">
         <v>-3.71</v>
@@ -4240,7 +4240,7 @@
         <v>-2.13</v>
       </c>
       <c r="C264">
-        <v>-2.13</v>
+        <v>-0.64</v>
       </c>
       <c r="D264">
         <v>-3.64</v>
@@ -4254,7 +4254,7 @@
         <v>-2.12</v>
       </c>
       <c r="C265">
-        <v>-2.08</v>
+        <v>-0.62</v>
       </c>
       <c r="D265">
         <v>-3.58</v>
@@ -4268,7 +4268,7 @@
         <v>-2.11</v>
       </c>
       <c r="C266">
-        <v>-2.02</v>
+        <v>-0.59</v>
       </c>
       <c r="D266">
         <v>-3.51</v>
@@ -4282,7 +4282,7 @@
         <v>-2.1</v>
       </c>
       <c r="C267">
-        <v>-1.96</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D267">
         <v>-3.44</v>
@@ -4296,7 +4296,7 @@
         <v>-2.09</v>
       </c>
       <c r="C268">
-        <v>-1.9</v>
+        <v>-0.54</v>
       </c>
       <c r="D268">
         <v>-3.38</v>
@@ -4310,7 +4310,7 @@
         <v>-2.08</v>
       </c>
       <c r="C269">
-        <v>-1.84</v>
+        <v>-0.52</v>
       </c>
       <c r="D269">
         <v>-3.31</v>
@@ -4324,7 +4324,7 @@
         <v>-2.0699999999999998</v>
       </c>
       <c r="C270">
-        <v>-1.78</v>
+        <v>-0.5</v>
       </c>
       <c r="D270">
         <v>-3.24</v>
@@ -4338,7 +4338,7 @@
         <v>-2.06</v>
       </c>
       <c r="C271">
-        <v>-1.72</v>
+        <v>-0.47</v>
       </c>
       <c r="D271">
         <v>-3.17</v>
@@ -4352,7 +4352,7 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="C272">
-        <v>-1.66</v>
+        <v>-0.45</v>
       </c>
       <c r="D272">
         <v>-3.1</v>
@@ -4366,7 +4366,7 @@
         <v>-2.0299999999999998</v>
       </c>
       <c r="C273">
-        <v>-1.6</v>
+        <v>-0.42</v>
       </c>
       <c r="D273">
         <v>-3.03</v>
@@ -4380,7 +4380,7 @@
         <v>-2.02</v>
       </c>
       <c r="C274">
-        <v>-1.54</v>
+        <v>-0.39</v>
       </c>
       <c r="D274">
         <v>-2.96</v>
@@ -4394,7 +4394,7 @@
         <v>-2.0099999999999998</v>
       </c>
       <c r="C275">
-        <v>-1.48</v>
+        <v>-0.37</v>
       </c>
       <c r="D275">
         <v>-2.89</v>
@@ -4408,7 +4408,7 @@
         <v>-2</v>
       </c>
       <c r="C276">
-        <v>-1.42</v>
+        <v>-0.34</v>
       </c>
       <c r="D276">
         <v>-2.82</v>
@@ -4422,7 +4422,7 @@
         <v>-1.99</v>
       </c>
       <c r="C277">
-        <v>-1.36</v>
+        <v>-0.31</v>
       </c>
       <c r="D277">
         <v>-2.76</v>
@@ -4436,7 +4436,7 @@
         <v>-1.98</v>
       </c>
       <c r="C278">
-        <v>-1.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D278">
         <v>-2.69</v>
@@ -4450,7 +4450,7 @@
         <v>-1.97</v>
       </c>
       <c r="C279">
-        <v>-1.24</v>
+        <v>-0.26</v>
       </c>
       <c r="D279">
         <v>-2.62</v>
@@ -4464,7 +4464,7 @@
         <v>-1.96</v>
       </c>
       <c r="C280">
-        <v>-1.19</v>
+        <v>-0.23</v>
       </c>
       <c r="D280">
         <v>-2.5499999999999998</v>
@@ -4478,7 +4478,7 @@
         <v>-1.94</v>
       </c>
       <c r="C281">
-        <v>-1.1299999999999999</v>
+        <v>-0.21</v>
       </c>
       <c r="D281">
         <v>-2.48</v>
@@ -4492,7 +4492,7 @@
         <v>-1.93</v>
       </c>
       <c r="C282">
-        <v>-1.07</v>
+        <v>-0.18</v>
       </c>
       <c r="D282">
         <v>-2.41</v>
@@ -4506,7 +4506,7 @@
         <v>-1.92</v>
       </c>
       <c r="C283">
-        <v>-1.01</v>
+        <v>-0.16</v>
       </c>
       <c r="D283">
         <v>-2.34</v>
@@ -4520,7 +4520,7 @@
         <v>-1.91</v>
       </c>
       <c r="C284">
-        <v>-0.95</v>
+        <v>-0.13</v>
       </c>
       <c r="D284">
         <v>-2.27</v>
@@ -4534,7 +4534,7 @@
         <v>-1.9</v>
       </c>
       <c r="C285">
-        <v>-0.88</v>
+        <v>-0.11</v>
       </c>
       <c r="D285">
         <v>-2.2000000000000002</v>
@@ -4548,7 +4548,7 @@
         <v>-1.88</v>
       </c>
       <c r="C286">
-        <v>-0.82</v>
+        <v>-0.09</v>
       </c>
       <c r="D286">
         <v>-2.13</v>
@@ -4562,7 +4562,7 @@
         <v>-1.87</v>
       </c>
       <c r="C287">
-        <v>-0.76</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D287">
         <v>-2.06</v>
@@ -4576,7 +4576,7 @@
         <v>-1.86</v>
       </c>
       <c r="C288">
-        <v>-0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="D288">
         <v>-1.99</v>
@@ -4590,7 +4590,7 @@
         <v>-1.84</v>
       </c>
       <c r="C289">
-        <v>-0.64</v>
+        <v>-0.03</v>
       </c>
       <c r="D289">
         <v>-1.92</v>
@@ -4604,7 +4604,7 @@
         <v>-1.83</v>
       </c>
       <c r="C290">
-        <v>-0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D290">
         <v>-1.85</v>
@@ -4618,7 +4618,7 @@
         <v>-1.81</v>
       </c>
       <c r="C291">
-        <v>-0.52</v>
+        <v>0.02</v>
       </c>
       <c r="D291">
         <v>-1.77</v>
@@ -4632,7 +4632,7 @@
         <v>-1.8</v>
       </c>
       <c r="C292">
-        <v>-0.46</v>
+        <v>0.03</v>
       </c>
       <c r="D292">
         <v>-1.7</v>
@@ -4646,7 +4646,7 @@
         <v>-1.79</v>
       </c>
       <c r="C293">
-        <v>-0.39</v>
+        <v>0.05</v>
       </c>
       <c r="D293">
         <v>-1.63</v>
@@ -4660,7 +4660,7 @@
         <v>-1.77</v>
       </c>
       <c r="C294">
-        <v>-0.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D294">
         <v>-1.56</v>
@@ -4674,7 +4674,7 @@
         <v>-1.76</v>
       </c>
       <c r="C295">
-        <v>-0.26</v>
+        <v>0.09</v>
       </c>
       <c r="D295">
         <v>-1.48</v>
@@ -4688,7 +4688,7 @@
         <v>-1.74</v>
       </c>
       <c r="C296">
-        <v>-0.2</v>
+        <v>0.11</v>
       </c>
       <c r="D296">
         <v>-1.4</v>
@@ -4702,7 +4702,7 @@
         <v>-1.73</v>
       </c>
       <c r="C297">
-        <v>-0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D297">
         <v>-1.33</v>
@@ -4716,7 +4716,7 @@
         <v>-1.71</v>
       </c>
       <c r="C298">
-        <v>-0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D298">
         <v>-1.25</v>
@@ -4730,7 +4730,7 @@
         <v>-1.69</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D299">
         <v>-1.17</v>
@@ -4744,7 +4744,7 @@
         <v>-1.68</v>
       </c>
       <c r="C300">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="D300">
         <v>-1.0900000000000001</v>
@@ -4758,7 +4758,7 @@
         <v>-1.66</v>
       </c>
       <c r="C301">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D301">
         <v>-1.02</v>
@@ -4772,7 +4772,7 @@
         <v>-1.64</v>
       </c>
       <c r="C302">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D302">
         <v>-0.94</v>
@@ -4786,7 +4786,7 @@
         <v>-1.62</v>
       </c>
       <c r="C303">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="D303">
         <v>-0.86</v>
@@ -4800,7 +4800,7 @@
         <v>-1.6</v>
       </c>
       <c r="C304">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="D304">
         <v>-0.79</v>
@@ -4814,7 +4814,7 @@
         <v>-1.58</v>
       </c>
       <c r="C305">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="D305">
         <v>-0.71</v>
@@ -4828,7 +4828,7 @@
         <v>-1.55</v>
       </c>
       <c r="C306">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="D306">
         <v>-0.63</v>
@@ -4842,7 +4842,7 @@
         <v>-1.53</v>
       </c>
       <c r="C307">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
       <c r="D307">
         <v>-0.56000000000000005</v>
@@ -4856,7 +4856,7 @@
         <v>-1.52</v>
       </c>
       <c r="C308">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="D308">
         <v>-0.48</v>
@@ -4870,7 +4870,7 @@
         <v>-1.5</v>
       </c>
       <c r="C309">
-        <v>0.66</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D309">
         <v>-0.41</v>
@@ -4884,7 +4884,7 @@
         <v>-1.48</v>
       </c>
       <c r="C310">
-        <v>0.72</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D310">
         <v>-0.33</v>
@@ -4898,7 +4898,7 @@
         <v>-1.46</v>
       </c>
       <c r="C311">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="D311">
         <v>-0.26</v>
@@ -4912,7 +4912,7 @@
         <v>-1.44</v>
       </c>
       <c r="C312">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="D312">
         <v>-0.18</v>
@@ -4926,7 +4926,7 @@
         <v>-1.42</v>
       </c>
       <c r="C313">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="D313">
         <v>-0.1</v>
@@ -4940,7 +4940,7 @@
         <v>-1.4</v>
       </c>
       <c r="C314">
-        <v>0.99</v>
+        <v>0.32</v>
       </c>
       <c r="D314">
         <v>-0.03</v>
@@ -4954,7 +4954,7 @@
         <v>-1.38</v>
       </c>
       <c r="C315">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="D315">
         <v>0.05</v>
@@ -4968,7 +4968,7 @@
         <v>-1.36</v>
       </c>
       <c r="C316">
-        <v>1.1200000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="D316">
         <v>0.13</v>
@@ -4982,7 +4982,7 @@
         <v>-1.34</v>
       </c>
       <c r="C317">
-        <v>1.19</v>
+        <v>0.38</v>
       </c>
       <c r="D317">
         <v>0.21</v>
@@ -4996,7 +4996,7 @@
         <v>-1.31</v>
       </c>
       <c r="C318">
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="D318">
         <v>0.28999999999999998</v>
@@ -5010,7 +5010,7 @@
         <v>-1.29</v>
       </c>
       <c r="C319">
-        <v>1.33</v>
+        <v>0.41</v>
       </c>
       <c r="D319">
         <v>0.37</v>
@@ -5024,7 +5024,7 @@
         <v>-1.27</v>
       </c>
       <c r="C320">
-        <v>1.4</v>
+        <v>0.42</v>
       </c>
       <c r="D320">
         <v>0.45</v>
@@ -5038,7 +5038,7 @@
         <v>-1.24</v>
       </c>
       <c r="C321">
-        <v>1.47</v>
+        <v>0.44</v>
       </c>
       <c r="D321">
         <v>0.53</v>
@@ -5052,7 +5052,7 @@
         <v>-1.22</v>
       </c>
       <c r="C322">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="D322">
         <v>0.62</v>
@@ -5066,7 +5066,7 @@
         <v>-1.19</v>
       </c>
       <c r="C323">
-        <v>1.61</v>
+        <v>0.48</v>
       </c>
       <c r="D323">
         <v>0.7</v>
@@ -5080,7 +5080,7 @@
         <v>-1.17</v>
       </c>
       <c r="C324">
-        <v>1.68</v>
+        <v>0.49</v>
       </c>
       <c r="D324">
         <v>0.78</v>
@@ -5094,7 +5094,7 @@
         <v>-1.1399999999999999</v>
       </c>
       <c r="C325">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="D325">
         <v>0.86</v>
@@ -5108,7 +5108,7 @@
         <v>-1.1200000000000001</v>
       </c>
       <c r="C326">
-        <v>1.82</v>
+        <v>0.51</v>
       </c>
       <c r="D326">
         <v>0.94</v>
@@ -5122,7 +5122,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="C327">
-        <v>1.88</v>
+        <v>0.53</v>
       </c>
       <c r="D327">
         <v>1.02</v>
@@ -5136,7 +5136,7 @@
         <v>-1.07</v>
       </c>
       <c r="C328">
-        <v>1.95</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D328">
         <v>1.0900000000000001</v>
@@ -5150,7 +5150,7 @@
         <v>-1.05</v>
       </c>
       <c r="C329">
-        <v>2.0099999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D329">
         <v>1.1599999999999999</v>
@@ -5164,7 +5164,7 @@
         <v>-1.02</v>
       </c>
       <c r="C330">
-        <v>2.0699999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D330">
         <v>1.24</v>
@@ -5178,7 +5178,7 @@
         <v>-1</v>
       </c>
       <c r="C331">
-        <v>2.14</v>
+        <v>0.61</v>
       </c>
       <c r="D331">
         <v>1.31</v>
@@ -5192,7 +5192,7 @@
         <v>-0.97</v>
       </c>
       <c r="C332">
-        <v>2.2000000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="D332">
         <v>1.39</v>
@@ -5206,7 +5206,7 @@
         <v>-0.95</v>
       </c>
       <c r="C333">
-        <v>2.2599999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="D333">
         <v>1.46</v>
@@ -5220,7 +5220,7 @@
         <v>-0.92</v>
       </c>
       <c r="C334">
-        <v>2.33</v>
+        <v>0.66</v>
       </c>
       <c r="D334">
         <v>1.54</v>
@@ -5234,7 +5234,7 @@
         <v>-0.89</v>
       </c>
       <c r="C335">
-        <v>2.39</v>
+        <v>0.67</v>
       </c>
       <c r="D335">
         <v>1.61</v>
@@ -5248,7 +5248,7 @@
         <v>-0.87</v>
       </c>
       <c r="C336">
-        <v>2.46</v>
+        <v>0.69</v>
       </c>
       <c r="D336">
         <v>1.69</v>
@@ -5262,7 +5262,7 @@
         <v>-0.84</v>
       </c>
       <c r="C337">
-        <v>2.52</v>
+        <v>0.71</v>
       </c>
       <c r="D337">
         <v>1.77</v>
@@ -5276,7 +5276,7 @@
         <v>-0.82</v>
       </c>
       <c r="C338">
-        <v>2.59</v>
+        <v>0.73</v>
       </c>
       <c r="D338">
         <v>1.84</v>
@@ -5290,7 +5290,7 @@
         <v>-0.79</v>
       </c>
       <c r="C339">
-        <v>2.65</v>
+        <v>0.74</v>
       </c>
       <c r="D339">
         <v>1.91</v>
@@ -5304,7 +5304,7 @@
         <v>-0.77</v>
       </c>
       <c r="C340">
-        <v>2.71</v>
+        <v>0.76</v>
       </c>
       <c r="D340">
         <v>1.99</v>
@@ -5318,7 +5318,7 @@
         <v>-0.74</v>
       </c>
       <c r="C341">
-        <v>2.77</v>
+        <v>0.78</v>
       </c>
       <c r="D341">
         <v>2.06</v>
@@ -5332,7 +5332,7 @@
         <v>-0.71</v>
       </c>
       <c r="C342">
-        <v>2.83</v>
+        <v>0.8</v>
       </c>
       <c r="D342">
         <v>2.13</v>
@@ -5346,7 +5346,7 @@
         <v>-0.69</v>
       </c>
       <c r="C343">
-        <v>2.89</v>
+        <v>0.81</v>
       </c>
       <c r="D343">
         <v>2.2000000000000002</v>
@@ -5360,7 +5360,7 @@
         <v>-0.67</v>
       </c>
       <c r="C344">
-        <v>2.95</v>
+        <v>0.82</v>
       </c>
       <c r="D344">
         <v>2.27</v>
@@ -5374,7 +5374,7 @@
         <v>-0.65</v>
       </c>
       <c r="C345">
-        <v>3.01</v>
+        <v>0.84</v>
       </c>
       <c r="D345">
         <v>2.34</v>
@@ -5388,7 +5388,7 @@
         <v>-0.62</v>
       </c>
       <c r="C346">
-        <v>3.07</v>
+        <v>0.86</v>
       </c>
       <c r="D346">
         <v>2.41</v>
@@ -5402,7 +5402,7 @@
         <v>-0.6</v>
       </c>
       <c r="C347">
-        <v>3.13</v>
+        <v>0.88</v>
       </c>
       <c r="D347">
         <v>2.48</v>
@@ -5416,7 +5416,7 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="C348">
-        <v>3.18</v>
+        <v>0.9</v>
       </c>
       <c r="D348">
         <v>2.5499999999999998</v>
@@ -5430,7 +5430,7 @@
         <v>-0.55000000000000004</v>
       </c>
       <c r="C349">
-        <v>3.24</v>
+        <v>0.92</v>
       </c>
       <c r="D349">
         <v>2.62</v>
@@ -5444,7 +5444,7 @@
         <v>-0.52</v>
       </c>
       <c r="C350">
-        <v>3.3</v>
+        <v>0.94</v>
       </c>
       <c r="D350">
         <v>2.69</v>
@@ -5458,7 +5458,7 @@
         <v>-0.5</v>
       </c>
       <c r="C351">
-        <v>3.35</v>
+        <v>0.95</v>
       </c>
       <c r="D351">
         <v>2.75</v>
@@ -5472,7 +5472,7 @@
         <v>-0.48</v>
       </c>
       <c r="C352">
-        <v>3.4</v>
+        <v>0.96</v>
       </c>
       <c r="D352">
         <v>2.82</v>
@@ -5486,7 +5486,7 @@
         <v>-0.46</v>
       </c>
       <c r="C353">
-        <v>3.45</v>
+        <v>0.97</v>
       </c>
       <c r="D353">
         <v>2.88</v>
@@ -5500,7 +5500,7 @@
         <v>-0.45</v>
       </c>
       <c r="C354">
-        <v>3.5</v>
+        <v>0.99</v>
       </c>
       <c r="D354">
         <v>2.93</v>
@@ -5514,7 +5514,7 @@
         <v>-0.43</v>
       </c>
       <c r="C355">
-        <v>3.54</v>
+        <v>1</v>
       </c>
       <c r="D355">
         <v>2.99</v>
@@ -5528,7 +5528,7 @@
         <v>-0.4</v>
       </c>
       <c r="C356">
-        <v>3.58</v>
+        <v>1.02</v>
       </c>
       <c r="D356">
         <v>3.04</v>
@@ -5542,7 +5542,7 @@
         <v>-0.38</v>
       </c>
       <c r="C357">
-        <v>3.61</v>
+        <v>1.03</v>
       </c>
       <c r="D357">
         <v>3.08</v>
@@ -5556,7 +5556,7 @@
         <v>-0.35</v>
       </c>
       <c r="C358">
-        <v>3.64</v>
+        <v>1.04</v>
       </c>
       <c r="D358">
         <v>3.12</v>
@@ -5570,7 +5570,7 @@
         <v>-0.34</v>
       </c>
       <c r="C359">
-        <v>3.67</v>
+        <v>1.05</v>
       </c>
       <c r="D359">
         <v>3.16</v>
@@ -5584,7 +5584,7 @@
         <v>-0.32</v>
       </c>
       <c r="C360">
-        <v>3.69</v>
+        <v>1.06</v>
       </c>
       <c r="D360">
         <v>3.19</v>
@@ -5598,7 +5598,7 @@
         <v>-0.3</v>
       </c>
       <c r="C361">
-        <v>3.71</v>
+        <v>1.07</v>
       </c>
       <c r="D361">
         <v>3.23</v>
@@ -5612,7 +5612,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="C362">
-        <v>3.73</v>
+        <v>1.08</v>
       </c>
       <c r="D362">
         <v>3.26</v>
@@ -5626,7 +5626,7 @@
         <v>-0.26</v>
       </c>
       <c r="C363">
-        <v>3.74</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D363">
         <v>3.28</v>
@@ -5640,7 +5640,7 @@
         <v>-0.25</v>
       </c>
       <c r="C364">
-        <v>3.75</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D364">
         <v>3.3</v>
@@ -5654,7 +5654,7 @@
         <v>-0.24</v>
       </c>
       <c r="C365">
-        <v>3.76</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D365">
         <v>3.32</v>
@@ -5668,7 +5668,7 @@
         <v>-0.22</v>
       </c>
       <c r="C366">
-        <v>3.75</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D366">
         <v>3.33</v>
@@ -5682,7 +5682,7 @@
         <v>-0.2</v>
       </c>
       <c r="C367">
-        <v>3.75</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D367">
         <v>3.33</v>
@@ -5696,7 +5696,7 @@
         <v>-0.17</v>
       </c>
       <c r="C368">
-        <v>3.73</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D368">
         <v>3.32</v>
@@ -5710,7 +5710,7 @@
         <v>-0.15</v>
       </c>
       <c r="C369">
-        <v>3.7</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D369">
         <v>3.31</v>
@@ -5724,7 +5724,7 @@
         <v>-0.13</v>
       </c>
       <c r="C370">
-        <v>3.67</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D370">
         <v>3.29</v>
@@ -5738,7 +5738,7 @@
         <v>-0.13</v>
       </c>
       <c r="C371">
-        <v>3.63</v>
+        <v>1.17</v>
       </c>
       <c r="D371">
         <v>3.26</v>
@@ -5752,7 +5752,7 @@
         <v>-0.11</v>
       </c>
       <c r="C372">
-        <v>3.58</v>
+        <v>1.17</v>
       </c>
       <c r="D372">
         <v>3.22</v>
@@ -5766,7 +5766,7 @@
         <v>-0.08</v>
       </c>
       <c r="C373">
-        <v>3.51</v>
+        <v>1.18</v>
       </c>
       <c r="D373">
         <v>3.17</v>
@@ -5780,7 +5780,7 @@
         <v>-0.06</v>
       </c>
       <c r="C374">
-        <v>3.44</v>
+        <v>1.19</v>
       </c>
       <c r="D374">
         <v>3.1</v>
@@ -5794,7 +5794,7 @@
         <v>-0.05</v>
       </c>
       <c r="C375">
-        <v>3.35</v>
+        <v>1.2</v>
       </c>
       <c r="D375">
         <v>3.03</v>
@@ -5808,7 +5808,7 @@
         <v>-0.05</v>
       </c>
       <c r="C376">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="D376">
         <v>2.94</v>
@@ -5822,7 +5822,7 @@
         <v>-0.03</v>
       </c>
       <c r="C377">
-        <v>3.14</v>
+        <v>1.21</v>
       </c>
       <c r="D377">
         <v>2.84</v>
@@ -5836,7 +5836,7 @@
         <v>-0.01</v>
       </c>
       <c r="C378">
-        <v>3.02</v>
+        <v>1.21</v>
       </c>
       <c r="D378">
         <v>2.73</v>
@@ -5850,7 +5850,7 @@
         <v>0.02</v>
       </c>
       <c r="C379">
-        <v>2.89</v>
+        <v>1.21</v>
       </c>
       <c r="D379">
         <v>2.61</v>
@@ -5864,7 +5864,7 @@
         <v>0.03</v>
       </c>
       <c r="C380">
-        <v>2.74</v>
+        <v>1.22</v>
       </c>
       <c r="D380">
         <v>2.4700000000000002</v>
@@ -5878,7 +5878,7 @@
         <v>0.04</v>
       </c>
       <c r="C381">
-        <v>2.58</v>
+        <v>1.23</v>
       </c>
       <c r="D381">
         <v>2.33</v>
@@ -5892,7 +5892,7 @@
         <v>0.06</v>
       </c>
       <c r="C382">
-        <v>2.42</v>
+        <v>1.23</v>
       </c>
       <c r="D382">
         <v>2.17</v>
@@ -5906,7 +5906,7 @@
         <v>0.08</v>
       </c>
       <c r="C383">
-        <v>2.2400000000000002</v>
+        <v>1.24</v>
       </c>
       <c r="D383">
         <v>2.0099999999999998</v>
@@ -5920,7 +5920,7 @@
         <v>0.11</v>
       </c>
       <c r="C384">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="D384">
         <v>1.83</v>
@@ -5934,7 +5934,7 @@
         <v>0.13</v>
       </c>
       <c r="C385">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="D385">
         <v>1.65</v>
@@ -5948,7 +5948,7 @@
         <v>0.15</v>
       </c>
       <c r="C386">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="D386">
         <v>1.47</v>
@@ -5962,7 +5962,7 @@
         <v>0.17</v>
       </c>
       <c r="C387">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="D387">
         <v>1.28</v>
@@ -5976,7 +5976,7 @@
         <v>0.2</v>
       </c>
       <c r="C388">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="D388">
         <v>1.08</v>
@@ -5990,7 +5990,7 @@
         <v>0.22</v>
       </c>
       <c r="C389">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="D389">
         <v>0.89</v>
@@ -6004,7 +6004,7 @@
         <v>0.25</v>
       </c>
       <c r="C390">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="D390">
         <v>0.7</v>
@@ -6018,7 +6018,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C391">
-        <v>0.65</v>
+        <v>1.31</v>
       </c>
       <c r="D391">
         <v>0.51</v>
@@ -6032,7 +6032,7 @@
         <v>0.31</v>
       </c>
       <c r="C392">
-        <v>0.46</v>
+        <v>1.32</v>
       </c>
       <c r="D392">
         <v>0.33</v>
@@ -6046,7 +6046,7 @@
         <v>0.33</v>
       </c>
       <c r="C393">
-        <v>0.27</v>
+        <v>1.33</v>
       </c>
       <c r="D393">
         <v>0.15</v>
@@ -6060,7 +6060,7 @@
         <v>0.36</v>
       </c>
       <c r="C394">
-        <v>0.08</v>
+        <v>1.35</v>
       </c>
       <c r="D394">
         <v>-0.02</v>
@@ -6074,7 +6074,7 @@
         <v>0.39</v>
       </c>
       <c r="C395">
-        <v>-0.09</v>
+        <v>1.36</v>
       </c>
       <c r="D395">
         <v>-0.19</v>
@@ -6088,7 +6088,7 @@
         <v>0.43</v>
       </c>
       <c r="C396">
-        <v>-0.26</v>
+        <v>1.38</v>
       </c>
       <c r="D396">
         <v>-0.35</v>
@@ -6102,7 +6102,7 @@
         <v>0.47</v>
       </c>
       <c r="C397">
-        <v>-0.42</v>
+        <v>1.4</v>
       </c>
       <c r="D397">
         <v>-0.49</v>
@@ -6116,7 +6116,7 @@
         <v>0.51</v>
       </c>
       <c r="C398">
-        <v>-0.56999999999999995</v>
+        <v>1.42</v>
       </c>
       <c r="D398">
         <v>-0.64</v>
@@ -6130,7 +6130,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C399">
-        <v>-0.72</v>
+        <v>1.44</v>
       </c>
       <c r="D399">
         <v>-0.77</v>
@@ -6144,7 +6144,7 @@
         <v>0.59</v>
       </c>
       <c r="C400">
-        <v>-0.86</v>
+        <v>1.46</v>
       </c>
       <c r="D400">
         <v>-0.9</v>
@@ -6158,7 +6158,7 @@
         <v>0.63</v>
       </c>
       <c r="C401">
-        <v>-0.99</v>
+        <v>1.49</v>
       </c>
       <c r="D401">
         <v>-1.02</v>
@@ -6172,7 +6172,7 @@
         <v>0.68</v>
       </c>
       <c r="C402">
-        <v>-1.1299999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="D402">
         <v>-1.1399999999999999</v>
@@ -6186,7 +6186,7 @@
         <v>0.72</v>
       </c>
       <c r="C403">
-        <v>-1.26</v>
+        <v>1.54</v>
       </c>
       <c r="D403">
         <v>-1.26</v>
@@ -6200,7 +6200,7 @@
         <v>0.77</v>
       </c>
       <c r="C404">
-        <v>-1.38</v>
+        <v>1.57</v>
       </c>
       <c r="D404">
         <v>-1.38</v>
@@ -6214,7 +6214,7 @@
         <v>0.81</v>
       </c>
       <c r="C405">
-        <v>-1.51</v>
+        <v>1.61</v>
       </c>
       <c r="D405">
         <v>-1.5</v>
@@ -6228,7 +6228,7 @@
         <v>0.85</v>
       </c>
       <c r="C406">
-        <v>-1.64</v>
+        <v>1.64</v>
       </c>
       <c r="D406">
         <v>-1.61</v>
@@ -6242,7 +6242,7 @@
         <v>0.9</v>
       </c>
       <c r="C407">
-        <v>-1.77</v>
+        <v>1.67</v>
       </c>
       <c r="D407">
         <v>-1.73</v>
@@ -6256,7 +6256,7 @@
         <v>0.95</v>
       </c>
       <c r="C408">
-        <v>-1.9</v>
+        <v>1.71</v>
       </c>
       <c r="D408">
         <v>-1.85</v>
@@ -6270,7 +6270,7 @@
         <v>1.01</v>
       </c>
       <c r="C409">
-        <v>-2.04</v>
+        <v>1.75</v>
       </c>
       <c r="D409">
         <v>-1.97</v>
@@ -6284,7 +6284,7 @@
         <v>1.06</v>
       </c>
       <c r="C410">
-        <v>-2.1800000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="D410">
         <v>-2.1</v>
@@ -6298,7 +6298,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C411">
-        <v>-2.3199999999999998</v>
+        <v>1.84</v>
       </c>
       <c r="D411">
         <v>-2.23</v>
@@ -6312,7 +6312,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C412">
-        <v>-2.4700000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="D412">
         <v>-2.37</v>
@@ -6326,7 +6326,7 @@
         <v>1.21</v>
       </c>
       <c r="C413">
-        <v>-2.62</v>
+        <v>1.95</v>
       </c>
       <c r="D413">
         <v>-2.5099999999999998</v>
@@ -6340,7 +6340,7 @@
         <v>1.27</v>
       </c>
       <c r="C414">
-        <v>-2.77</v>
+        <v>2</v>
       </c>
       <c r="D414">
         <v>-2.65</v>
@@ -6354,7 +6354,7 @@
         <v>1.33</v>
       </c>
       <c r="C415">
-        <v>-2.93</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D415">
         <v>-2.8</v>
@@ -6368,7 +6368,7 @@
         <v>1.38</v>
       </c>
       <c r="C416">
-        <v>-3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D416">
         <v>-2.96</v>
@@ -6382,7 +6382,7 @@
         <v>1.44</v>
       </c>
       <c r="C417">
-        <v>-3.27</v>
+        <v>2.16</v>
       </c>
       <c r="D417">
         <v>-3.12</v>
@@ -6396,7 +6396,7 @@
         <v>1.49</v>
       </c>
       <c r="C418">
-        <v>-3.45</v>
+        <v>2.21</v>
       </c>
       <c r="D418">
         <v>-3.28</v>
@@ -6410,7 +6410,7 @@
         <v>1.56</v>
       </c>
       <c r="C419">
-        <v>-3.63</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D419">
         <v>-3.46</v>
@@ -6424,7 +6424,7 @@
         <v>1.62</v>
       </c>
       <c r="C420">
-        <v>-3.82</v>
+        <v>2.34</v>
       </c>
       <c r="D420">
         <v>-3.63</v>
@@ -6438,7 +6438,7 @@
         <v>1.69</v>
       </c>
       <c r="C421">
-        <v>-4.01</v>
+        <v>2.4</v>
       </c>
       <c r="D421">
         <v>-3.8</v>
@@ -6452,7 +6452,7 @@
         <v>1.75</v>
       </c>
       <c r="C422">
-        <v>-4.1900000000000004</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D422">
         <v>-3.98</v>
@@ -6466,7 +6466,7 @@
         <v>1.8</v>
       </c>
       <c r="C423">
-        <v>-4.38</v>
+        <v>2.54</v>
       </c>
       <c r="D423">
         <v>-4.16</v>
@@ -6480,7 +6480,7 @@
         <v>1.86</v>
       </c>
       <c r="C424">
-        <v>-4.57</v>
+        <v>2.6</v>
       </c>
       <c r="D424">
         <v>-4.34</v>
@@ -6494,7 +6494,7 @@
         <v>1.93</v>
       </c>
       <c r="C425">
-        <v>-4.76</v>
+        <v>2.68</v>
       </c>
       <c r="D425">
         <v>-4.51</v>
@@ -6508,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="C426">
-        <v>-4.9400000000000004</v>
+        <v>2.75</v>
       </c>
       <c r="D426">
         <v>-4.68</v>
@@ -6522,7 +6522,7 @@
         <v>2.06</v>
       </c>
       <c r="C427">
-        <v>-5.12</v>
+        <v>2.82</v>
       </c>
       <c r="D427">
         <v>-4.8499999999999996</v>
@@ -6536,7 +6536,7 @@
         <v>2.12</v>
       </c>
       <c r="C428">
-        <v>-5.29</v>
+        <v>2.89</v>
       </c>
       <c r="D428">
         <v>-5.01</v>
@@ -6550,7 +6550,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C429">
-        <v>-5.45</v>
+        <v>2.96</v>
       </c>
       <c r="D429">
         <v>-5.15</v>
@@ -6564,7 +6564,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C430">
-        <v>-5.59</v>
+        <v>3.03</v>
       </c>
       <c r="D430">
         <v>-5.28</v>
@@ -6578,7 +6578,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C431">
-        <v>-5.71</v>
+        <v>3.1</v>
       </c>
       <c r="D431">
         <v>-5.4</v>
@@ -6592,7 +6592,7 @@
         <v>2.41</v>
       </c>
       <c r="C432">
-        <v>-5.82</v>
+        <v>3.18</v>
       </c>
       <c r="D432">
         <v>-5.5</v>
@@ -6606,7 +6606,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="C433">
-        <v>-5.92</v>
+        <v>3.25</v>
       </c>
       <c r="D433">
         <v>-5.58</v>
@@ -6620,7 +6620,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C434">
-        <v>-5.99</v>
+        <v>3.33</v>
       </c>
       <c r="D434">
         <v>-5.64</v>
@@ -6634,7 +6634,7 @@
         <v>2.6</v>
       </c>
       <c r="C435">
-        <v>-6.04</v>
+        <v>3.4</v>
       </c>
       <c r="D435">
         <v>-5.68</v>
@@ -6648,7 +6648,7 @@
         <v>2.66</v>
       </c>
       <c r="C436">
-        <v>-6.06</v>
+        <v>3.48</v>
       </c>
       <c r="D436">
         <v>-5.69</v>
@@ -6662,7 +6662,7 @@
         <v>2.74</v>
       </c>
       <c r="C437">
-        <v>-6.05</v>
+        <v>3.56</v>
       </c>
       <c r="D437">
         <v>-5.67</v>
@@ -6676,7 +6676,7 @@
         <v>2.85</v>
       </c>
       <c r="C438">
-        <v>-6.02</v>
+        <v>3.65</v>
       </c>
       <c r="D438">
         <v>-5.62</v>
@@ -6690,7 +6690,7 @@
         <v>2.95</v>
       </c>
       <c r="C439">
-        <v>-5.95</v>
+        <v>3.73</v>
       </c>
       <c r="D439">
         <v>-5.55</v>
@@ -6704,7 +6704,7 @@
         <v>3.02</v>
       </c>
       <c r="C440">
-        <v>-5.87</v>
+        <v>3.82</v>
       </c>
       <c r="D440">
         <v>-5.45</v>
@@ -6718,7 +6718,7 @@
         <v>3.07</v>
       </c>
       <c r="C441">
-        <v>-5.76</v>
+        <v>3.92</v>
       </c>
       <c r="D441">
         <v>-5.33</v>
@@ -6732,7 +6732,7 @@
         <v>3.12</v>
       </c>
       <c r="C442">
-        <v>-5.63</v>
+        <v>4.01</v>
       </c>
       <c r="D442">
         <v>-5.19</v>
@@ -6746,7 +6746,7 @@
         <v>3.2</v>
       </c>
       <c r="C443">
-        <v>-5.46</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D443">
         <v>-5.01</v>
@@ -6760,7 +6760,7 @@
         <v>3.31</v>
       </c>
       <c r="C444">
-        <v>-5.27</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D444">
         <v>-4.8099999999999996</v>
@@ -6774,7 +6774,7 @@
         <v>3.42</v>
       </c>
       <c r="C445">
-        <v>-5.07</v>
+        <v>4.29</v>
       </c>
       <c r="D445">
         <v>-4.59</v>
@@ -6788,7 +6788,7 @@
         <v>3.51</v>
       </c>
       <c r="C446">
-        <v>-4.8499999999999996</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D446">
         <v>-4.3600000000000003</v>
@@ -6802,7 +6802,7 @@
         <v>3.59</v>
       </c>
       <c r="C447">
-        <v>-4.62</v>
+        <v>4.5</v>
       </c>
       <c r="D447">
         <v>-4.13</v>
@@ -6816,7 +6816,7 @@
         <v>3.66</v>
       </c>
       <c r="C448">
-        <v>-4.38</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D448">
         <v>-3.87</v>
@@ -6830,7 +6830,7 @@
         <v>3.74</v>
       </c>
       <c r="C449">
-        <v>-4.13</v>
+        <v>4.71</v>
       </c>
       <c r="D449">
         <v>-3.61</v>
@@ -6844,7 +6844,7 @@
         <v>3.85</v>
       </c>
       <c r="C450">
-        <v>-3.86</v>
+        <v>4.82</v>
       </c>
       <c r="D450">
         <v>-3.33</v>
@@ -6858,7 +6858,7 @@
         <v>3.96</v>
       </c>
       <c r="C451">
-        <v>-3.58</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="D451">
         <v>-3.04</v>
@@ -6872,7 +6872,7 @@
         <v>4.07</v>
       </c>
       <c r="C452">
-        <v>-3.3</v>
+        <v>5.05</v>
       </c>
       <c r="D452">
         <v>-2.75</v>
@@ -6886,7 +6886,7 @@
         <v>4.17</v>
       </c>
       <c r="C453">
-        <v>-3.03</v>
+        <v>5.17</v>
       </c>
       <c r="D453">
         <v>-2.46</v>
@@ -6900,7 +6900,7 @@
         <v>4.28</v>
       </c>
       <c r="C454">
-        <v>-2.74</v>
+        <v>5.29</v>
       </c>
       <c r="D454">
         <v>-2.16</v>
@@ -6914,7 +6914,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C455">
-        <v>-2.4500000000000002</v>
+        <v>5.41</v>
       </c>
       <c r="D455">
         <v>-1.86</v>
@@ -6928,7 +6928,7 @@
         <v>4.5</v>
       </c>
       <c r="C456">
-        <v>-2.16</v>
+        <v>5.53</v>
       </c>
       <c r="D456">
         <v>-1.56</v>
@@ -6942,7 +6942,7 @@
         <v>4.62</v>
       </c>
       <c r="C457">
-        <v>-1.87</v>
+        <v>5.65</v>
       </c>
       <c r="D457">
         <v>-1.25</v>
@@ -6956,7 +6956,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C458">
-        <v>-1.58</v>
+        <v>5.77</v>
       </c>
       <c r="D458">
         <v>-0.95</v>
@@ -6970,7 +6970,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C459">
-        <v>-1.29</v>
+        <v>5.9</v>
       </c>
       <c r="D459">
         <v>-0.66</v>
@@ -6984,7 +6984,7 @@
         <v>4.99</v>
       </c>
       <c r="C460">
-        <v>-1.01</v>
+        <v>6.02</v>
       </c>
       <c r="D460">
         <v>-0.36</v>
@@ -6998,7 +6998,7 @@
         <v>5.13</v>
       </c>
       <c r="C461">
-        <v>-0.72</v>
+        <v>6.15</v>
       </c>
       <c r="D461">
         <v>-0.06</v>
@@ -7012,7 +7012,7 @@
         <v>5.28</v>
       </c>
       <c r="C462">
-        <v>-0.43</v>
+        <v>6.27</v>
       </c>
       <c r="D462">
         <v>0.24</v>
@@ -7026,7 +7026,7 @@
         <v>5.42</v>
       </c>
       <c r="C463">
-        <v>-0.14000000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="D463">
         <v>0.54</v>
@@ -7040,7 +7040,7 @@
         <v>5.56</v>
       </c>
       <c r="C464">
-        <v>0.13</v>
+        <v>6.52</v>
       </c>
       <c r="D464">
         <v>0.83</v>
@@ -7054,7 +7054,7 @@
         <v>5.69</v>
       </c>
       <c r="C465">
-        <v>0.4</v>
+        <v>6.63</v>
       </c>
       <c r="D465">
         <v>1.1100000000000001</v>
@@ -7068,7 +7068,7 @@
         <v>5.82</v>
       </c>
       <c r="C466">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="D466">
         <v>1.38</v>
@@ -7082,7 +7082,7 @@
         <v>5.97</v>
       </c>
       <c r="C467">
-        <v>0.93</v>
+        <v>6.87</v>
       </c>
       <c r="D467">
         <v>1.66</v>
@@ -7096,7 +7096,7 @@
         <v>6.13</v>
       </c>
       <c r="C468">
-        <v>1.19</v>
+        <v>6.97</v>
       </c>
       <c r="D468">
         <v>1.93</v>
@@ -7110,7 +7110,7 @@
         <v>6.3</v>
       </c>
       <c r="C469">
-        <v>1.44</v>
+        <v>7.08</v>
       </c>
       <c r="D469">
         <v>2.19</v>
@@ -7124,7 +7124,7 @@
         <v>6.47</v>
       </c>
       <c r="C470">
-        <v>1.68</v>
+        <v>7.19</v>
       </c>
       <c r="D470">
         <v>2.44</v>
@@ -7138,7 +7138,7 @@
         <v>6.63</v>
       </c>
       <c r="C471">
-        <v>1.91</v>
+        <v>7.29</v>
       </c>
       <c r="D471">
         <v>2.68</v>
@@ -7152,7 +7152,7 @@
         <v>6.78</v>
       </c>
       <c r="C472">
-        <v>2.14</v>
+        <v>7.39</v>
       </c>
       <c r="D472">
         <v>2.92</v>
@@ -7166,7 +7166,7 @@
         <v>6.92</v>
       </c>
       <c r="C473">
-        <v>2.36</v>
+        <v>7.5</v>
       </c>
       <c r="D473">
         <v>3.15</v>
@@ -7180,7 +7180,7 @@
         <v>7.06</v>
       </c>
       <c r="C474">
-        <v>2.56</v>
+        <v>7.6</v>
       </c>
       <c r="D474">
         <v>3.37</v>
@@ -7194,7 +7194,7 @@
         <v>7.2</v>
       </c>
       <c r="C475">
-        <v>2.76</v>
+        <v>7.7</v>
       </c>
       <c r="D475">
         <v>3.58</v>
@@ -7208,7 +7208,7 @@
         <v>7.36</v>
       </c>
       <c r="C476">
-        <v>2.95</v>
+        <v>7.8</v>
       </c>
       <c r="D476">
         <v>3.78</v>
@@ -7222,7 +7222,7 @@
         <v>7.52</v>
       </c>
       <c r="C477">
-        <v>3.13</v>
+        <v>7.9</v>
       </c>
       <c r="D477">
         <v>3.97</v>
@@ -7236,7 +7236,7 @@
         <v>7.69</v>
       </c>
       <c r="C478">
-        <v>3.31</v>
+        <v>8</v>
       </c>
       <c r="D478">
         <v>4.16</v>
@@ -7250,7 +7250,7 @@
         <v>7.86</v>
       </c>
       <c r="C479">
-        <v>3.48</v>
+        <v>8.1</v>
       </c>
       <c r="D479">
         <v>4.34</v>
@@ -7264,7 +7264,7 @@
         <v>8</v>
       </c>
       <c r="C480">
-        <v>3.63</v>
+        <v>8.19</v>
       </c>
       <c r="D480">
         <v>4.51</v>
@@ -7278,7 +7278,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="C481">
-        <v>3.77</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D481">
         <v>4.66</v>
@@ -7292,7 +7292,7 @@
         <v>8.24</v>
       </c>
       <c r="C482">
-        <v>3.9</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="D482">
         <v>4.79</v>
@@ -7306,7 +7306,7 @@
         <v>8.36</v>
       </c>
       <c r="C483">
-        <v>4.01</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="D483">
         <v>4.92</v>
@@ -7320,7 +7320,7 @@
         <v>8.49</v>
       </c>
       <c r="C484">
-        <v>4.1100000000000003</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="D484">
         <v>5.03</v>
@@ -7334,7 +7334,7 @@
         <v>8.64</v>
       </c>
       <c r="C485">
-        <v>4.21</v>
+        <v>8.6</v>
       </c>
       <c r="D485">
         <v>5.14</v>
@@ -7348,7 +7348,7 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="C486">
-        <v>4.29</v>
+        <v>8.68</v>
       </c>
       <c r="D486">
         <v>5.23</v>
@@ -7362,7 +7362,7 @@
         <v>8.93</v>
       </c>
       <c r="C487">
-        <v>4.3499999999999996</v>
+        <v>8.75</v>
       </c>
       <c r="D487">
         <v>5.3</v>
@@ -7376,7 +7376,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="C488">
-        <v>4.3899999999999997</v>
+        <v>8.82</v>
       </c>
       <c r="D488">
         <v>5.36</v>
@@ -7390,7 +7390,7 @@
         <v>9.15</v>
       </c>
       <c r="C489">
-        <v>4.43</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D489">
         <v>5.4</v>
@@ -7404,7 +7404,7 @@
         <v>9.24</v>
       </c>
       <c r="C490">
-        <v>4.45</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D490">
         <v>5.44</v>
@@ -7418,7 +7418,7 @@
         <v>9.32</v>
       </c>
       <c r="C491">
-        <v>4.46</v>
+        <v>9.01</v>
       </c>
       <c r="D491">
         <v>5.46</v>
@@ -7432,7 +7432,7 @@
         <v>9.39</v>
       </c>
       <c r="C492">
-        <v>4.45</v>
+        <v>9.07</v>
       </c>
       <c r="D492">
         <v>5.46</v>
@@ -7446,7 +7446,7 @@
         <v>9.48</v>
       </c>
       <c r="C493">
-        <v>4.41</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="D493">
         <v>5.43</v>
@@ -7460,7 +7460,7 @@
         <v>9.57</v>
       </c>
       <c r="C494">
-        <v>4.3600000000000003</v>
+        <v>9.19</v>
       </c>
       <c r="D494">
         <v>5.39</v>
@@ -7474,7 +7474,7 @@
         <v>9.67</v>
       </c>
       <c r="C495">
-        <v>4.28</v>
+        <v>9.25</v>
       </c>
       <c r="D495">
         <v>5.33</v>
@@ -7488,7 +7488,7 @@
         <v>9.75</v>
       </c>
       <c r="C496">
-        <v>4.1900000000000004</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D496">
         <v>5.25</v>
@@ -7502,7 +7502,7 @@
         <v>9.81</v>
       </c>
       <c r="C497">
-        <v>4.08</v>
+        <v>9.35</v>
       </c>
       <c r="D497">
         <v>5.15</v>
@@ -7516,7 +7516,7 @@
         <v>9.85</v>
       </c>
       <c r="C498">
-        <v>3.96</v>
+        <v>9.4</v>
       </c>
       <c r="D498">
         <v>5.04</v>
@@ -7530,7 +7530,7 @@
         <v>9.89</v>
       </c>
       <c r="C499">
-        <v>3.82</v>
+        <v>9.44</v>
       </c>
       <c r="D499">
         <v>4.91</v>
@@ -7544,7 +7544,7 @@
         <v>9.91</v>
       </c>
       <c r="C500">
-        <v>3.67</v>
+        <v>9.49</v>
       </c>
       <c r="D500">
         <v>4.7699999999999996</v>
@@ -7558,7 +7558,7 @@
         <v>9.94</v>
       </c>
       <c r="C501">
-        <v>3.5</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D501">
         <v>4.6100000000000003</v>
@@ -7572,7 +7572,7 @@
         <v>9.98</v>
       </c>
       <c r="C502">
-        <v>3.32</v>
+        <v>9.57</v>
       </c>
       <c r="D502">
         <v>4.4400000000000004</v>
@@ -7586,7 +7586,7 @@
         <v>10</v>
       </c>
       <c r="C503">
-        <v>3.12</v>
+        <v>9.61</v>
       </c>
       <c r="D503">
         <v>4.25</v>
@@ -7600,7 +7600,7 @@
         <v>10.029999999999999</v>
       </c>
       <c r="C504">
-        <v>2.91</v>
+        <v>9.65</v>
       </c>
       <c r="D504">
         <v>4.05</v>
@@ -7614,7 +7614,7 @@
         <v>10.039999999999999</v>
       </c>
       <c r="C505">
-        <v>2.69</v>
+        <v>9.68</v>
       </c>
       <c r="D505">
         <v>3.85</v>
@@ -7628,7 +7628,7 @@
         <v>10.039999999999999</v>
       </c>
       <c r="C506">
-        <v>2.4700000000000002</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="D506">
         <v>3.64</v>
@@ -7642,7 +7642,7 @@
         <v>10.029999999999999</v>
       </c>
       <c r="C507">
-        <v>2.25</v>
+        <v>9.74</v>
       </c>
       <c r="D507">
         <v>3.43</v>
@@ -7656,7 +7656,7 @@
         <v>10</v>
       </c>
       <c r="C508">
-        <v>2.04</v>
+        <v>9.76</v>
       </c>
       <c r="D508">
         <v>3.23</v>
@@ -7670,7 +7670,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="C509">
-        <v>1.82</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="D509">
         <v>3.02</v>
@@ -7684,7 +7684,7 @@
         <v>9.9</v>
       </c>
       <c r="C510">
-        <v>1.6</v>
+        <v>9.81</v>
       </c>
       <c r="D510">
         <v>2.82</v>
@@ -7698,7 +7698,7 @@
         <v>9.83</v>
       </c>
       <c r="C511">
-        <v>1.38</v>
+        <v>9.83</v>
       </c>
       <c r="D511">
         <v>2.61</v>
@@ -7712,7 +7712,7 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="C512">
-        <v>1.17</v>
+        <v>9.85</v>
       </c>
       <c r="D512">
         <v>2.41</v>
@@ -7726,7 +7726,7 @@
         <v>9.73</v>
       </c>
       <c r="C513">
-        <v>0.97</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="D513">
         <v>2.21</v>
@@ -7740,7 +7740,7 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="C514">
-        <v>0.78</v>
+        <v>9.9</v>
       </c>
       <c r="D514">
         <v>2.04</v>
@@ -7754,7 +7754,7 @@
         <v>9.68</v>
       </c>
       <c r="C515">
-        <v>0.6</v>
+        <v>9.92</v>
       </c>
       <c r="D515">
         <v>1.87</v>
@@ -7768,7 +7768,7 @@
         <v>9.61</v>
       </c>
       <c r="C516">
-        <v>0.45</v>
+        <v>9.93</v>
       </c>
       <c r="D516">
         <v>1.73</v>
@@ -7782,7 +7782,7 @@
         <v>9.5</v>
       </c>
       <c r="C517">
-        <v>0.31</v>
+        <v>9.94</v>
       </c>
       <c r="D517">
         <v>1.6</v>
@@ -7796,7 +7796,7 @@
         <v>9.36</v>
       </c>
       <c r="C518">
-        <v>0.19</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D518">
         <v>1.49</v>
@@ -7810,7 +7810,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="C519">
-        <v>0.08</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D519">
         <v>1.39</v>
@@ -7824,7 +7824,7 @@
         <v>9.1</v>
       </c>
       <c r="C520">
-        <v>-0.02</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D520">
         <v>1.3</v>
@@ -7838,7 +7838,7 @@
         <v>8.99</v>
       </c>
       <c r="C521">
-        <v>-0.11</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D521">
         <v>1.23</v>
@@ -7852,7 +7852,7 @@
         <v>8.91</v>
       </c>
       <c r="C522">
-        <v>-0.18</v>
+        <v>9.94</v>
       </c>
       <c r="D522">
         <v>1.17</v>
@@ -7866,7 +7866,7 @@
         <v>8.85</v>
       </c>
       <c r="C523">
-        <v>-0.22</v>
+        <v>9.93</v>
       </c>
       <c r="D523">
         <v>1.1399999999999999</v>
@@ -7880,7 +7880,7 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="C524">
-        <v>-0.25</v>
+        <v>9.91</v>
       </c>
       <c r="D524">
         <v>1.1200000000000001</v>
@@ -7894,7 +7894,7 @@
         <v>8.69</v>
       </c>
       <c r="C525">
-        <v>-0.25</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D525">
         <v>1.1299999999999999</v>
@@ -7908,7 +7908,7 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="C526">
-        <v>-0.22</v>
+        <v>9.85</v>
       </c>
       <c r="D526">
         <v>1.17</v>
@@ -7922,7 +7922,7 @@
         <v>8.36</v>
       </c>
       <c r="C527">
-        <v>-0.16</v>
+        <v>9.81</v>
       </c>
       <c r="D527">
         <v>1.24</v>
@@ -7936,7 +7936,7 @@
         <v>8.19</v>
       </c>
       <c r="C528">
-        <v>-0.05</v>
+        <v>9.77</v>
       </c>
       <c r="D528">
         <v>1.36</v>
@@ -7950,7 +7950,7 @@
         <v>8.06</v>
       </c>
       <c r="C529">
-        <v>0.09</v>
+        <v>9.74</v>
       </c>
       <c r="D529">
         <v>1.51</v>
@@ -7964,7 +7964,7 @@
         <v>7.97</v>
       </c>
       <c r="C530">
-        <v>0.27</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="D530">
         <v>1.7</v>
@@ -7978,7 +7978,7 @@
         <v>7.87</v>
       </c>
       <c r="C531">
-        <v>0.47</v>
+        <v>9.69</v>
       </c>
       <c r="D531">
         <v>1.91</v>
@@ -7992,7 +7992,7 @@
         <v>7.76</v>
       </c>
       <c r="C532">
-        <v>0.68</v>
+        <v>9.67</v>
       </c>
       <c r="D532">
         <v>2.13</v>
@@ -8006,7 +8006,7 @@
         <v>7.61</v>
       </c>
       <c r="C533">
-        <v>0.89</v>
+        <v>9.64</v>
       </c>
       <c r="D533">
         <v>2.36</v>
@@ -8020,7 +8020,7 @@
         <v>7.44</v>
       </c>
       <c r="C534">
-        <v>1.1000000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D534">
         <v>2.58</v>
@@ -8034,7 +8034,7 @@
         <v>7.28</v>
       </c>
       <c r="C535">
-        <v>1.32</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D535">
         <v>2.81</v>
@@ -8048,7 +8048,7 @@
         <v>7.15</v>
       </c>
       <c r="C536">
-        <v>1.54</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="D536">
         <v>3.03</v>
@@ -8062,7 +8062,7 @@
         <v>7.04</v>
       </c>
       <c r="C537">
-        <v>1.74</v>
+        <v>9.4</v>
       </c>
       <c r="D537">
         <v>3.25</v>
@@ -8076,7 +8076,7 @@
         <v>6.93</v>
       </c>
       <c r="C538">
-        <v>1.94</v>
+        <v>9.33</v>
       </c>
       <c r="D538">
         <v>3.45</v>
@@ -8090,7 +8090,7 @@
         <v>6.81</v>
       </c>
       <c r="C539">
-        <v>2.1</v>
+        <v>9.26</v>
       </c>
       <c r="D539">
         <v>3.63</v>
@@ -8104,7 +8104,7 @@
         <v>6.68</v>
       </c>
       <c r="C540">
-        <v>2.25</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D540">
         <v>3.79</v>
@@ -8118,7 +8118,7 @@
         <v>6.53</v>
       </c>
       <c r="C541">
-        <v>2.39</v>
+        <v>9.16</v>
       </c>
       <c r="D541">
         <v>3.94</v>
@@ -8132,7 +8132,7 @@
         <v>6.4</v>
       </c>
       <c r="C542">
-        <v>2.52</v>
+        <v>9.1</v>
       </c>
       <c r="D542">
         <v>4.08</v>
@@ -8146,7 +8146,7 @@
         <v>6.29</v>
       </c>
       <c r="C543">
-        <v>2.66</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="D543">
         <v>4.22</v>
@@ -8160,7 +8160,7 @@
         <v>6.19</v>
       </c>
       <c r="C544">
-        <v>2.78</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="D544">
         <v>4.3600000000000003</v>
@@ -8174,7 +8174,7 @@
         <v>6.08</v>
       </c>
       <c r="C545">
-        <v>2.9</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D545">
         <v>4.49</v>
@@ -8188,7 +8188,7 @@
         <v>5.95</v>
       </c>
       <c r="C546">
-        <v>3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D546">
         <v>4.5999999999999996</v>
@@ -8202,7 +8202,7 @@
         <v>5.81</v>
       </c>
       <c r="C547">
-        <v>3.09</v>
+        <v>8.73</v>
       </c>
       <c r="D547">
         <v>4.6900000000000004</v>
@@ -8216,7 +8216,7 @@
         <v>5.67</v>
       </c>
       <c r="C548">
-        <v>3.16</v>
+        <v>8.66</v>
       </c>
       <c r="D548">
         <v>4.78</v>
@@ -8230,7 +8230,7 @@
         <v>5.55</v>
       </c>
       <c r="C549">
-        <v>3.23</v>
+        <v>8.58</v>
       </c>
       <c r="D549">
         <v>4.8600000000000003</v>
@@ -8244,7 +8244,7 @@
         <v>5.46</v>
       </c>
       <c r="C550">
-        <v>3.3</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="D550">
         <v>4.9400000000000004</v>
@@ -8258,7 +8258,7 @@
         <v>5.38</v>
       </c>
       <c r="C551">
-        <v>3.36</v>
+        <v>8.33</v>
       </c>
       <c r="D551">
         <v>5.01</v>
@@ -8272,7 +8272,7 @@
         <v>5.3</v>
       </c>
       <c r="C552">
-        <v>3.41</v>
+        <v>8.16</v>
       </c>
       <c r="D552">
         <v>5.0599999999999996</v>
@@ -8286,7 +8286,7 @@
         <v>5.2</v>
       </c>
       <c r="C553">
-        <v>3.44</v>
+        <v>7.96</v>
       </c>
       <c r="D553">
         <v>5.1100000000000003</v>
@@ -8300,7 +8300,7 @@
         <v>5.08</v>
       </c>
       <c r="C554">
-        <v>3.47</v>
+        <v>7.71</v>
       </c>
       <c r="D554">
         <v>5.14</v>
@@ -8314,7 +8314,7 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="C555">
-        <v>3.47</v>
+        <v>7.44</v>
       </c>
       <c r="D555">
         <v>5.16</v>
@@ -8328,7 +8328,7 @@
         <v>4.8</v>
       </c>
       <c r="C556">
-        <v>3.46</v>
+        <v>7.17</v>
       </c>
       <c r="D556">
         <v>5.16</v>
@@ -8342,7 +8342,7 @@
         <v>4.7</v>
       </c>
       <c r="C557">
-        <v>3.44</v>
+        <v>6.89</v>
       </c>
       <c r="D557">
         <v>5.14</v>
@@ -8356,7 +8356,7 @@
         <v>4.63</v>
       </c>
       <c r="C558">
-        <v>3.39</v>
+        <v>6.65</v>
       </c>
       <c r="D558">
         <v>5.0999999999999996</v>
@@ -8370,7 +8370,7 @@
         <v>4.59</v>
       </c>
       <c r="C559">
-        <v>3.33</v>
+        <v>6.44</v>
       </c>
       <c r="D559">
         <v>5.05</v>
@@ -8384,7 +8384,7 @@
         <v>4.55</v>
       </c>
       <c r="C560">
-        <v>3.25</v>
+        <v>6.27</v>
       </c>
       <c r="D560">
         <v>4.9800000000000004</v>
@@ -8398,7 +8398,7 @@
         <v>4.49</v>
       </c>
       <c r="C561">
-        <v>3.16</v>
+        <v>6.17</v>
       </c>
       <c r="D561">
         <v>4.9000000000000004</v>
@@ -8412,7 +8412,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C562">
-        <v>3.04</v>
+        <v>6.14</v>
       </c>
       <c r="D562">
         <v>4.78</v>
@@ -8426,7 +8426,7 @@
         <v>4.28</v>
       </c>
       <c r="C563">
-        <v>2.89</v>
+        <v>6.13</v>
       </c>
       <c r="D563">
         <v>4.6500000000000004</v>
@@ -8440,7 +8440,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="C564">
-        <v>2.73</v>
+        <v>6.16</v>
       </c>
       <c r="D564">
         <v>4.49</v>
@@ -8454,7 +8454,7 @@
         <v>4.04</v>
       </c>
       <c r="C565">
-        <v>2.54</v>
+        <v>6.22</v>
       </c>
       <c r="D565">
         <v>4.3099999999999996</v>
@@ -8468,7 +8468,7 @@
         <v>3.99</v>
       </c>
       <c r="C566">
-        <v>2.3199999999999998</v>
+        <v>6.27</v>
       </c>
       <c r="D566">
         <v>4.0999999999999996</v>
@@ -8482,7 +8482,7 @@
         <v>3.97</v>
       </c>
       <c r="C567">
-        <v>2.06</v>
+        <v>6.29</v>
       </c>
       <c r="D567">
         <v>3.85</v>
@@ -8496,7 +8496,7 @@
         <v>3.96</v>
       </c>
       <c r="C568">
-        <v>1.76</v>
+        <v>6.27</v>
       </c>
       <c r="D568">
         <v>3.56</v>
@@ -8510,7 +8510,7 @@
         <v>3.9</v>
       </c>
       <c r="C569">
-        <v>1.41</v>
+        <v>6.22</v>
       </c>
       <c r="D569">
         <v>3.22</v>
@@ -8524,7 +8524,7 @@
         <v>3.8</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>6.15</v>
       </c>
       <c r="D570">
         <v>2.82</v>
@@ -8538,7 +8538,7 @@
         <v>3.68</v>
       </c>
       <c r="C571">
-        <v>0.53</v>
+        <v>6.06</v>
       </c>
       <c r="D571">
         <v>2.36</v>
@@ -8552,7 +8552,7 @@
         <v>3.57</v>
       </c>
       <c r="C572">
-        <v>0.03</v>
+        <v>5.98</v>
       </c>
       <c r="D572">
         <v>1.86</v>
@@ -8566,7 +8566,7 @@
         <v>3.51</v>
       </c>
       <c r="C573">
-        <v>-0.49</v>
+        <v>5.89</v>
       </c>
       <c r="D573">
         <v>1.34</v>
@@ -8580,7 +8580,7 @@
         <v>3.52</v>
       </c>
       <c r="C574">
-        <v>-1.03</v>
+        <v>5.82</v>
       </c>
       <c r="D574">
         <v>0.81</v>
@@ -8594,7 +8594,7 @@
         <v>3.56</v>
       </c>
       <c r="C575">
-        <v>-1.59</v>
+        <v>5.76</v>
       </c>
       <c r="D575">
         <v>0.26</v>
@@ -8608,7 +8608,7 @@
         <v>3.57</v>
       </c>
       <c r="C576">
-        <v>-2.16</v>
+        <v>5.73</v>
       </c>
       <c r="D576">
         <v>-0.3</v>
@@ -8622,7 +8622,7 @@
         <v>3.5</v>
       </c>
       <c r="C577">
-        <v>-2.69</v>
+        <v>5.72</v>
       </c>
       <c r="D577">
         <v>-0.82</v>
@@ -8636,7 +8636,7 @@
         <v>3.34</v>
       </c>
       <c r="C578">
-        <v>-3.14</v>
+        <v>5.73</v>
       </c>
       <c r="D578">
         <v>-1.27</v>
@@ -8650,7 +8650,7 @@
         <v>3.3</v>
       </c>
       <c r="C579">
-        <v>-3.49</v>
+        <v>5.78</v>
       </c>
       <c r="D579">
         <v>-1.61</v>
@@ -8664,7 +8664,7 @@
         <v>3.46</v>
       </c>
       <c r="C580">
-        <v>-3.73</v>
+        <v>5.84</v>
       </c>
       <c r="D580">
         <v>-1.85</v>
@@ -8678,7 +8678,7 @@
         <v>3.57</v>
       </c>
       <c r="C581">
-        <v>-3.84</v>
+        <v>5.89</v>
       </c>
       <c r="D581">
         <v>-1.96</v>
@@ -8692,7 +8692,7 @@
         <v>3.47</v>
       </c>
       <c r="C582">
-        <v>-3.85</v>
+        <v>5.93</v>
       </c>
       <c r="D582">
         <v>-1.96</v>
@@ -8706,7 +8706,7 @@
         <v>3.08</v>
       </c>
       <c r="C583">
-        <v>-3.76</v>
+        <v>5.92</v>
       </c>
       <c r="D583">
         <v>-1.87</v>
@@ -8720,7 +8720,7 @@
         <v>2.31</v>
       </c>
       <c r="C584">
-        <v>-3.6</v>
+        <v>5.85</v>
       </c>
       <c r="D584">
         <v>-1.71</v>
@@ -8734,7 +8734,7 @@
         <v>1.37</v>
       </c>
       <c r="C585">
-        <v>-3.38</v>
+        <v>5.77</v>
       </c>
       <c r="D585">
         <v>-1.49</v>
@@ -8748,7 +8748,7 @@
         <v>0.39</v>
       </c>
       <c r="C586">
-        <v>-3.11</v>
+        <v>5.68</v>
       </c>
       <c r="D586">
         <v>-1.22</v>
@@ -8762,7 +8762,7 @@
         <v>-0.6</v>
       </c>
       <c r="C587">
-        <v>-2.8</v>
+        <v>5.58</v>
       </c>
       <c r="D587">
         <v>-0.91</v>
@@ -8776,7 +8776,7 @@
         <v>-1.48</v>
       </c>
       <c r="C588">
-        <v>-2.5099999999999998</v>
+        <v>5.48</v>
       </c>
       <c r="D588">
         <v>-0.62</v>
@@ -8790,7 +8790,7 @@
         <v>-2.13</v>
       </c>
       <c r="C589">
-        <v>-2.23</v>
+        <v>5.36</v>
       </c>
       <c r="D589">
         <v>-0.35</v>
@@ -8804,7 +8804,7 @@
         <v>-2.5499999999999998</v>
       </c>
       <c r="C590">
-        <v>-1.98</v>
+        <v>5.22</v>
       </c>
       <c r="D590">
         <v>-0.09</v>
@@ -8818,7 +8818,7 @@
         <v>-2.77</v>
       </c>
       <c r="C591">
-        <v>-1.72</v>
+        <v>5.08</v>
       </c>
       <c r="D591">
         <v>0.17</v>
@@ -8832,7 +8832,7 @@
         <v>-2.83</v>
       </c>
       <c r="C592">
-        <v>-1.46</v>
+        <v>4.96</v>
       </c>
       <c r="D592">
         <v>0.43</v>
@@ -8846,7 +8846,7 @@
         <v>-2.79</v>
       </c>
       <c r="C593">
-        <v>-1.2</v>
+        <v>4.84</v>
       </c>
       <c r="D593">
         <v>0.69</v>
@@ -8860,7 +8860,7 @@
         <v>-2.68</v>
       </c>
       <c r="C594">
-        <v>-0.94</v>
+        <v>4.74</v>
       </c>
       <c r="D594">
         <v>0.95</v>
@@ -8874,7 +8874,7 @@
         <v>-2.5099999999999998</v>
       </c>
       <c r="C595">
-        <v>-0.68</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D595">
         <v>1.2</v>
@@ -8888,7 +8888,7 @@
         <v>-2.31</v>
       </c>
       <c r="C596">
-        <v>-0.43</v>
+        <v>4.55</v>
       </c>
       <c r="D596">
         <v>1.46</v>
@@ -8902,7 +8902,7 @@
         <v>-2.08</v>
       </c>
       <c r="C597">
-        <v>-0.17</v>
+        <v>4.45</v>
       </c>
       <c r="D597">
         <v>1.72</v>
@@ -8916,7 +8916,7 @@
         <v>-1.84</v>
       </c>
       <c r="C598">
-        <v>0.09</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D598">
         <v>1.98</v>
@@ -8930,7 +8930,7 @@
         <v>-1.59</v>
       </c>
       <c r="C599">
-        <v>0.35</v>
+        <v>4.24</v>
       </c>
       <c r="D599">
         <v>2.2400000000000002</v>
@@ -8944,7 +8944,7 @@
         <v>-1.35</v>
       </c>
       <c r="C600">
-        <v>0.61</v>
+        <v>4.12</v>
       </c>
       <c r="D600">
         <v>2.5</v>
@@ -8958,7 +8958,7 @@
         <v>-1.1100000000000001</v>
       </c>
       <c r="C601">
-        <v>0.87</v>
+        <v>4</v>
       </c>
       <c r="D601">
         <v>2.75</v>
@@ -8972,7 +8972,7 @@
         <v>-0.87</v>
       </c>
       <c r="C602">
-        <v>1.1200000000000001</v>
+        <v>3.88</v>
       </c>
       <c r="D602">
         <v>3.01</v>
@@ -8986,7 +8986,7 @@
         <v>-0.64</v>
       </c>
       <c r="C603">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="D603">
         <v>3.27</v>
@@ -9000,7 +9000,7 @@
         <v>-0.38</v>
       </c>
       <c r="C604">
-        <v>1.66</v>
+        <v>3.63</v>
       </c>
       <c r="D604">
         <v>3.55</v>
@@ -9014,7 +9014,7 @@
         <v>-0.13</v>
       </c>
       <c r="C605">
-        <v>1.94</v>
+        <v>3.5</v>
       </c>
       <c r="D605">
         <v>3.83</v>
@@ -9028,7 +9028,7 @@
         <v>0.11</v>
       </c>
       <c r="C606">
-        <v>2.2200000000000002</v>
+        <v>3.37</v>
       </c>
       <c r="D606">
         <v>4.1100000000000003</v>
@@ -9042,7 +9042,7 @@
         <v>0.31</v>
       </c>
       <c r="C607">
-        <v>2.4700000000000002</v>
+        <v>3.23</v>
       </c>
       <c r="D607">
         <v>4.3600000000000003</v>
@@ -9056,7 +9056,7 @@
         <v>0.48</v>
       </c>
       <c r="C608">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="D608">
         <v>4.58</v>
@@ -9070,7 +9070,7 @@
         <v>0.6</v>
       </c>
       <c r="C609">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="D609">
         <v>4.76</v>
@@ -9084,7 +9084,7 @@
         <v>0.68</v>
       </c>
       <c r="C610">
-        <v>3.01</v>
+        <v>2.83</v>
       </c>
       <c r="D610">
         <v>4.8899999999999997</v>
@@ -9098,7 +9098,7 @@
         <v>0.7</v>
       </c>
       <c r="C611">
-        <v>3.09</v>
+        <v>2.71</v>
       </c>
       <c r="D611">
         <v>4.96</v>
@@ -9112,7 +9112,7 @@
         <v>0.68</v>
       </c>
       <c r="C612">
-        <v>3.12</v>
+        <v>2.6</v>
       </c>
       <c r="D612">
         <v>4.99</v>
@@ -9126,7 +9126,7 @@
         <v>0.61</v>
       </c>
       <c r="C613">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D613">
         <v>4.97</v>
@@ -9140,7 +9140,7 @@
         <v>0.5</v>
       </c>
       <c r="C614">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="D614">
         <v>4.91</v>
@@ -9154,7 +9154,7 @@
         <v>0.37</v>
       </c>
       <c r="C615">
-        <v>2.96</v>
+        <v>2.25</v>
       </c>
       <c r="D615">
         <v>4.82</v>
@@ -9168,7 +9168,7 @@
         <v>0.23</v>
       </c>
       <c r="C616">
-        <v>2.86</v>
+        <v>2.12</v>
       </c>
       <c r="D616">
         <v>4.71</v>
@@ -9182,7 +9182,7 @@
         <v>0.1</v>
       </c>
       <c r="C617">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="D617">
         <v>4.6100000000000003</v>
@@ -9196,7 +9196,7 @@
         <v>-0.02</v>
       </c>
       <c r="C618">
-        <v>2.68</v>
+        <v>1.86</v>
       </c>
       <c r="D618">
         <v>4.5199999999999996</v>
@@ -9210,7 +9210,7 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="C619">
-        <v>2.61</v>
+        <v>1.74</v>
       </c>
       <c r="D619">
         <v>4.4400000000000004</v>
@@ -9224,7 +9224,7 @@
         <v>-0.25</v>
       </c>
       <c r="C620">
-        <v>2.5299999999999998</v>
+        <v>1.62</v>
       </c>
       <c r="D620">
         <v>4.3600000000000003</v>
@@ -9238,7 +9238,7 @@
         <v>-0.37</v>
       </c>
       <c r="C621">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="D621">
         <v>4.28</v>
@@ -9252,7 +9252,7 @@
         <v>-0.49</v>
       </c>
       <c r="C622">
-        <v>2.38</v>
+        <v>1.43</v>
       </c>
       <c r="D622">
         <v>4.2</v>
@@ -9266,7 +9266,7 @@
         <v>-0.62</v>
       </c>
       <c r="C623">
-        <v>2.31</v>
+        <v>1.33</v>
       </c>
       <c r="D623">
         <v>4.12</v>
@@ -9280,7 +9280,7 @@
         <v>-0.74</v>
       </c>
       <c r="C624">
-        <v>2.2400000000000002</v>
+        <v>1.22</v>
       </c>
       <c r="D624">
         <v>4.04</v>
@@ -9294,7 +9294,7 @@
         <v>-0.86</v>
       </c>
       <c r="C625">
-        <v>2.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D625">
         <v>3.96</v>
@@ -9308,7 +9308,7 @@
         <v>-0.97</v>
       </c>
       <c r="C626">
-        <v>2.1</v>
+        <v>0.94</v>
       </c>
       <c r="D626">
         <v>3.89</v>
@@ -9322,7 +9322,7 @@
         <v>-1.07</v>
       </c>
       <c r="C627">
-        <v>2.0299999999999998</v>
+        <v>0.77</v>
       </c>
       <c r="D627">
         <v>3.82</v>
@@ -9336,7 +9336,7 @@
         <v>-1.2</v>
       </c>
       <c r="C628">
-        <v>1.97</v>
+        <v>0.67</v>
       </c>
       <c r="D628">
         <v>3.76</v>
@@ -9350,7 +9350,7 @@
         <v>-1.32</v>
       </c>
       <c r="C629">
-        <v>1.91</v>
+        <v>0.54</v>
       </c>
       <c r="D629">
         <v>3.69</v>
@@ -9364,7 +9364,7 @@
         <v>-1.45</v>
       </c>
       <c r="C630">
-        <v>1.85</v>
+        <v>0.39</v>
       </c>
       <c r="D630">
         <v>3.63</v>
@@ -9378,7 +9378,7 @@
         <v>-1.57</v>
       </c>
       <c r="C631">
-        <v>1.79</v>
+        <v>0.22</v>
       </c>
       <c r="D631">
         <v>3.57</v>
@@ -9392,7 +9392,7 @@
         <v>-1.69</v>
       </c>
       <c r="C632">
-        <v>1.73</v>
+        <v>0.03</v>
       </c>
       <c r="D632">
         <v>3.51</v>
@@ -9406,7 +9406,7 @@
         <v>-1.81</v>
       </c>
       <c r="C633">
-        <v>1.67</v>
+        <v>-0.16</v>
       </c>
       <c r="D633">
         <v>3.45</v>
@@ -9420,7 +9420,7 @@
         <v>-1.93</v>
       </c>
       <c r="C634">
-        <v>1.61</v>
+        <v>-0.36</v>
       </c>
       <c r="D634">
         <v>3.39</v>
@@ -9434,7 +9434,7 @@
         <v>-2.0499999999999998</v>
       </c>
       <c r="C635">
-        <v>1.55</v>
+        <v>-0.54</v>
       </c>
       <c r="D635">
         <v>3.32</v>
@@ -9448,7 +9448,7 @@
         <v>-2.17</v>
       </c>
       <c r="C636">
-        <v>1.48</v>
+        <v>-0.73</v>
       </c>
       <c r="D636">
         <v>3.25</v>
@@ -9462,7 +9462,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="C637">
-        <v>1.41</v>
+        <v>-0.92</v>
       </c>
       <c r="D637">
         <v>3.18</v>
@@ -9476,7 +9476,7 @@
         <v>-2.42</v>
       </c>
       <c r="C638">
-        <v>1.34</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="D638">
         <v>3.11</v>
@@ -9490,7 +9490,7 @@
         <v>-2.5499999999999998</v>
       </c>
       <c r="C639">
-        <v>1.27</v>
+        <v>-1.31</v>
       </c>
       <c r="D639">
         <v>3.03</v>
@@ -9504,7 +9504,7 @@
         <v>-2.68</v>
       </c>
       <c r="C640">
-        <v>1.19</v>
+        <v>-1.51</v>
       </c>
       <c r="D640">
         <v>2.95</v>
@@ -9518,7 +9518,7 @@
         <v>-2.8</v>
       </c>
       <c r="C641">
-        <v>1.1100000000000001</v>
+        <v>-1.71</v>
       </c>
       <c r="D641">
         <v>2.88</v>
@@ -9532,7 +9532,7 @@
         <v>-2.93</v>
       </c>
       <c r="C642">
-        <v>1.04</v>
+        <v>-1.91</v>
       </c>
       <c r="D642">
         <v>2.8</v>
@@ -9546,7 +9546,7 @@
         <v>-3.06</v>
       </c>
       <c r="C643">
-        <v>0.95</v>
+        <v>-2.12</v>
       </c>
       <c r="D643">
         <v>2.71</v>
@@ -9560,7 +9560,7 @@
         <v>-3.19</v>
       </c>
       <c r="C644">
-        <v>0.87</v>
+        <v>-2.33</v>
       </c>
       <c r="D644">
         <v>2.63</v>
@@ -9574,7 +9574,7 @@
         <v>-3.33</v>
       </c>
       <c r="C645">
-        <v>0.79</v>
+        <v>-2.54</v>
       </c>
       <c r="D645">
         <v>2.54</v>
@@ -9588,7 +9588,7 @@
         <v>-3.46</v>
       </c>
       <c r="C646">
-        <v>0.7</v>
+        <v>-2.75</v>
       </c>
       <c r="D646">
         <v>2.46</v>
@@ -9602,7 +9602,7 @@
         <v>-3.59</v>
       </c>
       <c r="C647">
-        <v>0.62</v>
+        <v>-2.96</v>
       </c>
       <c r="D647">
         <v>2.37</v>
@@ -9616,7 +9616,7 @@
         <v>-3.72</v>
       </c>
       <c r="C648">
-        <v>0.53</v>
+        <v>-3.18</v>
       </c>
       <c r="D648">
         <v>2.2799999999999998</v>
@@ -9630,7 +9630,7 @@
         <v>-3.86</v>
       </c>
       <c r="C649">
-        <v>0.43</v>
+        <v>-3.4</v>
       </c>
       <c r="D649">
         <v>2.1800000000000002</v>
@@ -9644,7 +9644,7 @@
         <v>-3.99</v>
       </c>
       <c r="C650">
-        <v>0.34</v>
+        <v>-3.62</v>
       </c>
       <c r="D650">
         <v>2.09</v>
@@ -9658,7 +9658,7 @@
         <v>-4.13</v>
       </c>
       <c r="C651">
-        <v>0.25</v>
+        <v>-3.85</v>
       </c>
       <c r="D651">
         <v>1.99</v>
@@ -9672,7 +9672,7 @@
         <v>-4.2699999999999996</v>
       </c>
       <c r="C652">
-        <v>0.15</v>
+        <v>-4.07</v>
       </c>
       <c r="D652">
         <v>1.89</v>
@@ -9686,7 +9686,7 @@
         <v>-4.41</v>
       </c>
       <c r="C653">
-        <v>0.05</v>
+        <v>-4.3</v>
       </c>
       <c r="D653">
         <v>1.79</v>
@@ -9700,7 +9700,7 @@
         <v>-4.54</v>
       </c>
       <c r="C654">
-        <v>-0.05</v>
+        <v>-4.53</v>
       </c>
       <c r="D654">
         <v>1.69</v>
@@ -9714,7 +9714,7 @@
         <v>-4.68</v>
       </c>
       <c r="C655">
-        <v>-0.15</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="D655">
         <v>1.58</v>
@@ -9728,7 +9728,7 @@
         <v>-4.82</v>
       </c>
       <c r="C656">
-        <v>-0.26</v>
+        <v>-5</v>
       </c>
       <c r="D656">
         <v>1.48</v>
@@ -9742,7 +9742,7 @@
         <v>-4.96</v>
       </c>
       <c r="C657">
-        <v>-0.36</v>
+        <v>-5.24</v>
       </c>
       <c r="D657">
         <v>1.37</v>
@@ -9756,7 +9756,7 @@
         <v>-5.1100000000000003</v>
       </c>
       <c r="C658">
-        <v>-0.47</v>
+        <v>-5.48</v>
       </c>
       <c r="D658">
         <v>1.26</v>
@@ -9770,7 +9770,7 @@
         <v>-5.25</v>
       </c>
       <c r="C659">
-        <v>-0.57999999999999996</v>
+        <v>-5.73</v>
       </c>
       <c r="D659">
         <v>1.1499999999999999</v>
@@ -9784,7 +9784,7 @@
         <v>-5.39</v>
       </c>
       <c r="C660">
-        <v>-0.69</v>
+        <v>-5.97</v>
       </c>
       <c r="D660">
         <v>1.03</v>
@@ -9798,7 +9798,7 @@
         <v>-5.54</v>
       </c>
       <c r="C661">
-        <v>-0.81</v>
+        <v>-6.22</v>
       </c>
       <c r="D661">
         <v>0.92</v>
@@ -9812,7 +9812,7 @@
         <v>-5.68</v>
       </c>
       <c r="C662">
-        <v>-0.92</v>
+        <v>-6.47</v>
       </c>
       <c r="D662">
         <v>0.8</v>
@@ -9826,7 +9826,7 @@
         <v>-5.83</v>
       </c>
       <c r="C663">
-        <v>-1.04</v>
+        <v>-6.72</v>
       </c>
       <c r="D663">
         <v>0.68</v>
@@ -9840,7 +9840,7 @@
         <v>-5.98</v>
       </c>
       <c r="C664">
-        <v>-1.1599999999999999</v>
+        <v>-6.98</v>
       </c>
       <c r="D664">
         <v>0.56000000000000005</v>
@@ -9854,7 +9854,7 @@
         <v>-6.12</v>
       </c>
       <c r="C665">
-        <v>-1.28</v>
+        <v>-7.23</v>
       </c>
       <c r="D665">
         <v>0.43</v>
@@ -9868,7 +9868,7 @@
         <v>-6.27</v>
       </c>
       <c r="C666">
-        <v>-1.41</v>
+        <v>-7.49</v>
       </c>
       <c r="D666">
         <v>0.31</v>
@@ -9882,7 +9882,7 @@
         <v>-6.42</v>
       </c>
       <c r="C667">
-        <v>-1.53</v>
+        <v>-7.76</v>
       </c>
       <c r="D667">
         <v>0.18</v>
@@ -9896,7 +9896,7 @@
         <v>-6.57</v>
       </c>
       <c r="C668">
-        <v>-1.66</v>
+        <v>-8.02</v>
       </c>
       <c r="D668">
         <v>0.05</v>
@@ -9910,7 +9910,7 @@
         <v>-6.72</v>
       </c>
       <c r="C669">
-        <v>-1.79</v>
+        <v>-8.2899999999999991</v>
       </c>
       <c r="D669">
         <v>-0.08</v>
@@ -9924,7 +9924,7 @@
         <v>-6.87</v>
       </c>
       <c r="C670">
-        <v>-1.92</v>
+        <v>-8.56</v>
       </c>
       <c r="D670">
         <v>-0.21</v>
@@ -9938,7 +9938,7 @@
         <v>-7.03</v>
       </c>
       <c r="C671">
-        <v>-2.0499999999999998</v>
+        <v>-8.83</v>
       </c>
       <c r="D671">
         <v>-0.34</v>
@@ -9952,7 +9952,7 @@
         <v>-7.18</v>
       </c>
       <c r="C672">
-        <v>-2.1800000000000002</v>
+        <v>-9.1</v>
       </c>
       <c r="D672">
         <v>-0.48</v>
@@ -9966,7 +9966,7 @@
         <v>-7.34</v>
       </c>
       <c r="C673">
-        <v>-2.3199999999999998</v>
+        <v>-9.3800000000000008</v>
       </c>
       <c r="D673">
         <v>-0.62</v>
@@ -9980,7 +9980,7 @@
         <v>-7.49</v>
       </c>
       <c r="C674">
-        <v>-2.46</v>
+        <v>-9.66</v>
       </c>
       <c r="D674">
         <v>-0.76</v>
@@ -9994,7 +9994,7 @@
         <v>-7.65</v>
       </c>
       <c r="C675">
-        <v>-2.6</v>
+        <v>-9.94</v>
       </c>
       <c r="D675">
         <v>-0.9</v>
@@ -10008,7 +10008,7 @@
         <v>-7.8</v>
       </c>
       <c r="C676">
-        <v>-2.74</v>
+        <v>-10.220000000000001</v>
       </c>
       <c r="D676">
         <v>-1.04</v>
@@ -10022,7 +10022,7 @@
         <v>-7.96</v>
       </c>
       <c r="C677">
-        <v>-2.88</v>
+        <v>-10.51</v>
       </c>
       <c r="D677">
         <v>-1.19</v>
@@ -10036,7 +10036,7 @@
         <v>-8.1199999999999992</v>
       </c>
       <c r="C678">
-        <v>-3.03</v>
+        <v>-10.8</v>
       </c>
       <c r="D678">
         <v>-1.34</v>
@@ -10050,7 +10050,7 @@
         <v>-8.2799999999999994</v>
       </c>
       <c r="C679">
-        <v>-3.17</v>
+        <v>-11.09</v>
       </c>
       <c r="D679">
         <v>-1.49</v>
@@ -10064,7 +10064,7 @@
         <v>-8.44</v>
       </c>
       <c r="C680">
-        <v>-3.32</v>
+        <v>-11.38</v>
       </c>
       <c r="D680">
         <v>-1.64</v>
@@ -10078,7 +10078,7 @@
         <v>-8.6</v>
       </c>
       <c r="C681">
-        <v>-3.47</v>
+        <v>-11.68</v>
       </c>
       <c r="D681">
         <v>-1.79</v>
@@ -10092,7 +10092,7 @@
         <v>-8.76</v>
       </c>
       <c r="C682">
-        <v>-3.63</v>
+        <v>-11.97</v>
       </c>
       <c r="D682">
         <v>-1.95</v>
@@ -10106,7 +10106,7 @@
         <v>-8.92</v>
       </c>
       <c r="C683">
-        <v>-3.78</v>
+        <v>-12.27</v>
       </c>
       <c r="D683">
         <v>-2.1</v>
@@ -10120,7 +10120,7 @@
         <v>-9.09</v>
       </c>
       <c r="C684">
-        <v>-3.94</v>
+        <v>-12.58</v>
       </c>
       <c r="D684">
         <v>-2.2599999999999998</v>
@@ -10134,7 +10134,7 @@
         <v>-9.25</v>
       </c>
       <c r="C685">
-        <v>-4.0999999999999996</v>
+        <v>-12.88</v>
       </c>
       <c r="D685">
         <v>-2.42</v>
@@ -10148,7 +10148,7 @@
         <v>-9.42</v>
       </c>
       <c r="C686">
-        <v>-4.26</v>
+        <v>-13.19</v>
       </c>
       <c r="D686">
         <v>-2.58</v>
@@ -10162,7 +10162,7 @@
         <v>-9.58</v>
       </c>
       <c r="C687">
-        <v>-4.42</v>
+        <v>-13.5</v>
       </c>
       <c r="D687">
         <v>-2.75</v>
@@ -10176,7 +10176,7 @@
         <v>-9.75</v>
       </c>
       <c r="C688">
-        <v>-4.58</v>
+        <v>-13.81</v>
       </c>
       <c r="D688">
         <v>-2.91</v>
@@ -10190,7 +10190,7 @@
         <v>-9.92</v>
       </c>
       <c r="C689">
-        <v>-4.75</v>
+        <v>-14.12</v>
       </c>
       <c r="D689">
         <v>-3.08</v>
@@ -10204,7 +10204,7 @@
         <v>-10.08</v>
       </c>
       <c r="C690">
-        <v>-4.92</v>
+        <v>-14.44</v>
       </c>
       <c r="D690">
         <v>-3.25</v>
@@ -10218,7 +10218,7 @@
         <v>-10.25</v>
       </c>
       <c r="C691">
-        <v>-5.09</v>
+        <v>-14.76</v>
       </c>
       <c r="D691">
         <v>-3.42</v>
@@ -10232,7 +10232,7 @@
         <v>-10.42</v>
       </c>
       <c r="C692">
-        <v>-5.26</v>
+        <v>-15.08</v>
       </c>
       <c r="D692">
         <v>-3.6</v>
@@ -10246,7 +10246,7 @@
         <v>-10.59</v>
       </c>
       <c r="C693">
-        <v>-5.43</v>
+        <v>-15.4</v>
       </c>
       <c r="D693">
         <v>-3.77</v>
@@ -10260,7 +10260,7 @@
         <v>-10.77</v>
       </c>
       <c r="C694">
-        <v>-5.61</v>
+        <v>-15.73</v>
       </c>
       <c r="D694">
         <v>-3.95</v>
@@ -10274,7 +10274,7 @@
         <v>-10.94</v>
       </c>
       <c r="C695">
-        <v>-5.78</v>
+        <v>-16.059999999999999</v>
       </c>
       <c r="D695">
         <v>-4.13</v>
@@ -10288,7 +10288,7 @@
         <v>-11.11</v>
       </c>
       <c r="C696">
-        <v>-5.96</v>
+        <v>-16.39</v>
       </c>
       <c r="D696">
         <v>-4.3099999999999996</v>
